--- a/app/data/wto_proposal_settings_master.xlsx
+++ b/app/data/wto_proposal_settings_master.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kat/GitHub/SubsidyExplorer/app/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kat/GitHub/SubsidyExplorer/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6804A9-2CBF-3F43-B9D0-2F52ECE17A1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609F0BCB-FB33-2840-83B4-E450DBB0A1A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20460" yWindow="1980" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="1" r:id="rId1"/>
     <sheet name="old" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="387">
   <si>
     <t>proposal</t>
   </si>
@@ -1359,13 +1359,145 @@
     <t>The EU is including here the concept of determination of Port state and market state. I imagine that in these cases the same assumptions from determination by coastal, flag and subsidizing members could apply. KAT ADDED.</t>
   </si>
   <si>
-    <t>KAT ADDED</t>
-  </si>
-  <si>
-    <t>other_definitions</t>
-  </si>
-  <si>
     <t>DISPUTE</t>
+  </si>
+  <si>
+    <t>iuu_sdt_ldc</t>
+  </si>
+  <si>
+    <t>iuu_sdt_what_ldc</t>
+  </si>
+  <si>
+    <t>iuu_sdt_time_delay_ldc</t>
+  </si>
+  <si>
+    <t>iuu_sdt_developing</t>
+  </si>
+  <si>
+    <t>iuu_sdt_what_developing</t>
+  </si>
+  <si>
+    <t>iuu_sdt_time_delay_developing</t>
+  </si>
+  <si>
+    <t>iuu_sdt_sve</t>
+  </si>
+  <si>
+    <t>iuu_sdt_what_sve</t>
+  </si>
+  <si>
+    <t>iuu_sdt_time_delay_sve</t>
+  </si>
+  <si>
+    <t>oa_tonnage_cutoff</t>
+  </si>
+  <si>
+    <t>oa_engine_cutoff</t>
+  </si>
+  <si>
+    <t>oa_sdt_ldc</t>
+  </si>
+  <si>
+    <t>oa_sdt_what_ldc</t>
+  </si>
+  <si>
+    <t>oa_sdt_hs_cutoff_ldc</t>
+  </si>
+  <si>
+    <t>oa_sdt_time_delay_ldc</t>
+  </si>
+  <si>
+    <t>oa_sdt_developing</t>
+  </si>
+  <si>
+    <t>oa_sdt_what_developing</t>
+  </si>
+  <si>
+    <t>oa_sdt_hs_cutoff_developing</t>
+  </si>
+  <si>
+    <t>oa_sdt_time_delay_developing</t>
+  </si>
+  <si>
+    <t>oa_sdt_sve</t>
+  </si>
+  <si>
+    <t>oa_sdt_what_sve</t>
+  </si>
+  <si>
+    <t>oa_sdt_hs_cutoff_sve</t>
+  </si>
+  <si>
+    <t>oa_sdt_time_delay_sve</t>
+  </si>
+  <si>
+    <t>overcap_tonnage_cutoff</t>
+  </si>
+  <si>
+    <t>overcap_engine_cutoff</t>
+  </si>
+  <si>
+    <t>overcap_sdt_ldc</t>
+  </si>
+  <si>
+    <t>overcap_sdt_what_ldc</t>
+  </si>
+  <si>
+    <t>overcap_sdt_hs_cutoff_ldc</t>
+  </si>
+  <si>
+    <t>overcap_sdt_time_delay_ldc</t>
+  </si>
+  <si>
+    <t>overcap_sdt_developing</t>
+  </si>
+  <si>
+    <t>overcap_sdt_what_developing</t>
+  </si>
+  <si>
+    <t>overcap_sdt_hs_cutoff_developing</t>
+  </si>
+  <si>
+    <t>overcap_sdt_time_delay_developing</t>
+  </si>
+  <si>
+    <t>overcap_sdt_sve</t>
+  </si>
+  <si>
+    <t>overcap_sdt_what_sve</t>
+  </si>
+  <si>
+    <t>overcap_sdt_hs_cutoff_sve</t>
+  </si>
+  <si>
+    <t>overcap_sdt_time_delay_sve</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>THREE</t>
+  </si>
+  <si>
+    <t>CAPTURE</t>
+  </si>
+  <si>
+    <t>PERCENT_SUBS</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>IUU1, IUU2, IUU3, IUU4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added in the dispute option. Treating this sorta as an overcapacity issue. </t>
   </si>
 </sst>
 </file>
@@ -1891,7 +2023,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1967,6 +2099,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2323,11 +2458,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI25"/>
+  <dimension ref="A1:CH25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -2346,7 +2481,7 @@
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="13" customFormat="1" ht="51">
+    <row r="1" spans="1:86" s="13" customFormat="1" ht="68">
       <c r="A1" s="13" t="s">
         <v>144</v>
       </c>
@@ -2405,133 +2540,208 @@
         <v>12</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>13</v>
+        <v>341</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>14</v>
+        <v>342</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>15</v>
+        <v>343</v>
       </c>
       <c r="W1" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="AD1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="AE1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AF1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AG1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AH1" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AK1" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="AM1" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="AN1" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="AO1" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="AP1" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="AQ1" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="AR1" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="AS1" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="AT1" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="AU1" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="AW1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AX1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="AI1" s="13" t="s">
+      <c r="AY1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AJ1" s="13" t="s">
+      <c r="AZ1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AK1" s="13" t="s">
+      <c r="BA1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AL1" s="13" t="s">
+      <c r="BB1" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="BC1" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="BD1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AM1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO1" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP1" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ1" s="13" t="s">
+      <c r="BE1" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="BF1" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="BG1" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="BH1" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="BI1" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="BJ1" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="BK1" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="BL1" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="BM1" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="BN1" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="BO1" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="BP1" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="BQ1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AR1" s="13" t="s">
+      <c r="BR1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AS1" s="13" t="s">
+      <c r="BS1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AT1" s="13" t="s">
+      <c r="BT1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AU1" s="13" t="s">
+      <c r="BU1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AV1" s="13" t="s">
+      <c r="BV1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AW1" s="13" t="s">
+      <c r="BW1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AX1" s="13" t="s">
+      <c r="BX1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AY1" s="13" t="s">
+      <c r="BY1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AZ1" s="13" t="s">
+      <c r="BZ1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="BA1" s="13" t="s">
+      <c r="CA1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="BB1" s="13" t="s">
+      <c r="CB1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="BC1" s="13" t="s">
+      <c r="CC1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="BD1" s="13" t="s">
+      <c r="CD1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="BE1" s="13" t="s">
+      <c r="CE1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="BF1" s="13" t="s">
+      <c r="CF1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="BG1" s="13" t="s">
+      <c r="CG1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="BH1" s="13" t="s">
+      <c r="CH1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="BI1" s="13" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="2" spans="1:61" s="13" customFormat="1" ht="282" customHeight="1">
+    <row r="2" spans="1:86" s="13" customFormat="1" ht="282" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>58</v>
       </c>
@@ -2571,8 +2781,14 @@
       <c r="M2" s="21" t="s">
         <v>313</v>
       </c>
+      <c r="N2" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="3" spans="1:61" ht="136">
+    <row r="3" spans="1:86" ht="136">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -2580,7 +2796,7 @@
         <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>85</v>
@@ -2612,11 +2828,17 @@
       <c r="M3" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="BI3" s="1" t="s">
-        <v>342</v>
+      <c r="AW3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>379</v>
       </c>
     </row>
-    <row r="4" spans="1:61" ht="170">
+    <row r="4" spans="1:86" ht="170">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
@@ -2654,16 +2876,19 @@
         <v>295</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>151</v>
+        <v>385</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>55</v>
+        <v>379</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>55</v>
+        <v>379</v>
       </c>
     </row>
-    <row r="5" spans="1:61" ht="119">
+    <row r="5" spans="1:86" ht="119">
       <c r="A5" s="25" t="s">
         <v>58</v>
       </c>
@@ -2707,13 +2932,16 @@
         <v>338</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>55</v>
+        <v>379</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>55</v>
+        <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:61" ht="136">
+    <row r="6" spans="1:86" ht="136">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
@@ -2763,7 +2991,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:61" ht="221">
+    <row r="7" spans="1:86" ht="221">
       <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
@@ -2810,7 +3038,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:61" ht="272">
+    <row r="8" spans="1:86" ht="272">
       <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
@@ -2847,38 +3075,38 @@
       <c r="M8" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="AQ8" s="1" t="s">
+      <c r="BQ8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AR8" s="1" t="s">
+      <c r="BR8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AS8" s="1" t="s">
+      <c r="BS8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AT8" s="1" t="s">
+      <c r="BT8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AV8" s="1" t="s">
+      <c r="BV8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AW8" s="1" t="s">
+      <c r="BW8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AZ8" s="1">
+      <c r="BZ8" s="1">
         <v>90</v>
       </c>
-      <c r="BA8" s="1" t="s">
+      <c r="CA8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BB8" s="1">
+      <c r="CB8" s="1">
         <v>50</v>
       </c>
-      <c r="BE8" s="1" t="s">
+      <c r="CE8" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:61" ht="323">
+    <row r="9" spans="1:86" ht="323">
       <c r="A9" s="1" t="s">
         <v>58</v>
       </c>
@@ -2918,26 +3146,26 @@
       <c r="M9" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="AQ9" s="1" t="s">
+      <c r="BQ9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AR9" s="1" t="s">
+      <c r="BR9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AS9" s="1" t="s">
+      <c r="BS9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AW9" s="1" t="s">
+      <c r="BW9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AY9" s="1">
+      <c r="BY9" s="1">
         <v>800</v>
       </c>
-      <c r="AZ9" s="1">
+      <c r="BZ9" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:61" ht="388">
+    <row r="10" spans="1:86" ht="388">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
@@ -2978,7 +3206,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="11" spans="1:61" ht="85">
+    <row r="11" spans="1:86" ht="85">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
@@ -3013,7 +3241,7 @@
       <c r="L11" s="8"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:61" ht="238">
+    <row r="12" spans="1:86" ht="238">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
@@ -3051,7 +3279,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:61" ht="136.5" customHeight="1">
+    <row r="13" spans="1:86" ht="136.5" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
@@ -3091,20 +3319,20 @@
       <c r="M13" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="AG13" s="1" t="s">
+      <c r="AW13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AH13" s="1" t="s">
+      <c r="AX13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="AZ13" s="1">
         <v>5</v>
       </c>
-      <c r="AL13" s="1" t="s">
+      <c r="BD13" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:61" ht="187">
+    <row r="14" spans="1:86" ht="187">
       <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
@@ -3144,20 +3372,20 @@
       <c r="M14" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="AG14" s="1" t="s">
+      <c r="AW14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AH14" s="1" t="s">
+      <c r="AX14" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AK14" s="1">
+      <c r="BA14" s="1">
         <v>24</v>
       </c>
-      <c r="AL14" s="1" t="s">
+      <c r="BD14" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:61" ht="238">
+    <row r="15" spans="1:86" ht="238">
       <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
@@ -3198,7 +3426,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="16" spans="1:61" ht="238">
+    <row r="16" spans="1:86" ht="238">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
@@ -3238,23 +3466,35 @@
       <c r="M16" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AG16" s="1" t="s">
+      <c r="AW16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AH16" s="1" t="s">
+      <c r="AX16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AL16" s="1" t="s">
+      <c r="BD16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AM16" s="1" t="s">
+      <c r="BE16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AN16" s="1" t="s">
+      <c r="BF16" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="BI16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BN16" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="17" spans="1:60" ht="136">
+    <row r="17" spans="1:86" ht="136">
       <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
@@ -3292,7 +3532,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="18" spans="1:60" ht="289">
+    <row r="18" spans="1:86" ht="289">
       <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
@@ -3333,7 +3573,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="19" spans="1:60" ht="136">
+    <row r="19" spans="1:86" ht="136">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -3370,7 +3610,7 @@
       <c r="L19" s="8"/>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="1:60" ht="340">
+    <row r="20" spans="1:86" ht="340">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -3410,17 +3650,17 @@
       <c r="M20" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="AC20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="AD20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB20" s="1" t="s">
+      <c r="AJ20" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:60" ht="204">
+    <row r="21" spans="1:86" ht="204">
       <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
@@ -3460,17 +3700,17 @@
       <c r="M21" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="AC21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="AD21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AB21" s="1" t="s">
+      <c r="AJ21" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:60" ht="204">
+    <row r="22" spans="1:86" ht="204">
       <c r="A22" s="1" t="s">
         <v>58</v>
       </c>
@@ -3510,17 +3750,17 @@
       <c r="M22" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="AC22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X22" s="1" t="s">
+      <c r="AD22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB22" s="1" t="s">
+      <c r="AJ22" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:60" ht="68">
+    <row r="23" spans="1:86" ht="68">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -3555,7 +3795,7 @@
       <c r="L23" s="8"/>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="1:60" ht="182.25" customHeight="1">
+    <row r="24" spans="1:86" ht="182.25" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>58</v>
       </c>
@@ -3596,7 +3836,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="25" spans="1:60" ht="51">
+    <row r="25" spans="1:86" ht="51">
       <c r="B25" s="3" t="s">
         <v>83</v>
       </c>
@@ -3610,117 +3850,177 @@
       <c r="L25" s="8"/>
       <c r="M25" s="9"/>
       <c r="O25" s="1" t="s">
-        <v>55</v>
+        <v>379</v>
       </c>
       <c r="P25" s="1">
         <v>20</v>
       </c>
-      <c r="Q25" s="1" t="s">
-        <v>57</v>
+      <c r="Q25" s="26" t="s">
+        <v>378</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>55</v>
+        <v>379</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>65</v>
+        <v>379</v>
       </c>
       <c r="V25" s="1">
-        <v>1</v>
-      </c>
-      <c r="X25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z25" s="1">
         <v>5</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="W25" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG25" s="1">
         <v>24</v>
       </c>
-      <c r="AB25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE25" s="1">
+      <c r="AH25" s="1">
+        <v>100</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>400</v>
+      </c>
+      <c r="AJ25" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AK25" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AM25" s="1">
         <v>5</v>
       </c>
-      <c r="AF25" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ25" s="1">
+      <c r="AN25" s="1">
         <v>5</v>
       </c>
-      <c r="AK25" s="1">
-        <v>24</v>
-      </c>
-      <c r="AL25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO25" s="1">
+      <c r="AO25" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AQ25" s="1">
         <v>5</v>
       </c>
-      <c r="AP25" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR25" s="1" t="s">
-        <v>61</v>
+      <c r="AR25" s="1">
+        <v>5</v>
       </c>
       <c r="AS25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AT25" s="1" t="s">
-        <v>72</v>
+        <v>379</v>
       </c>
       <c r="AU25" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="AV25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AW25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX25" s="1">
         <v>5</v>
       </c>
-      <c r="AY25" s="1">
-        <v>800</v>
+      <c r="AV25" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX25" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="AZ25" s="1">
         <v>5</v>
       </c>
-      <c r="BA25" s="1" t="s">
-        <v>75</v>
+      <c r="BA25" s="1">
+        <v>24</v>
       </c>
       <c r="BB25" s="1">
+        <v>100</v>
+      </c>
+      <c r="BC25" s="1">
+        <v>400</v>
+      </c>
+      <c r="BD25" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="BE25" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="BG25" s="1">
         <v>5</v>
       </c>
-      <c r="BC25" s="1">
+      <c r="BH25" s="1">
+        <v>5</v>
+      </c>
+      <c r="BI25" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="BK25" s="1">
+        <v>5</v>
+      </c>
+      <c r="BL25" s="1">
+        <v>5</v>
+      </c>
+      <c r="BM25" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="BO25" s="1">
+        <v>5</v>
+      </c>
+      <c r="BP25" s="1">
+        <v>5</v>
+      </c>
+      <c r="BQ25" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="BR25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BS25" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="BT25" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="BU25" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="BV25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BW25" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="BX25" s="1">
+        <v>5</v>
+      </c>
+      <c r="BY25" s="1">
         <v>800</v>
       </c>
-      <c r="BD25" s="1">
+      <c r="BZ25" s="1">
         <v>5</v>
       </c>
-      <c r="BE25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF25" s="1">
+      <c r="CA25" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="CB25" s="1">
         <v>5</v>
       </c>
-      <c r="BG25" s="1">
+      <c r="CC25" s="1">
         <v>800</v>
       </c>
-      <c r="BH25" s="1">
+      <c r="CD25" s="1">
+        <v>5</v>
+      </c>
+      <c r="CE25" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="CF25" s="1">
+        <v>5</v>
+      </c>
+      <c r="CG25" s="1">
+        <v>800</v>
+      </c>
+      <c r="CH25" s="1">
         <v>5</v>
       </c>
     </row>

--- a/app/data/wto_proposal_settings_master.xlsx
+++ b/app/data/wto_proposal_settings_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kat/GitHub/SubsidyExplorer/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609F0BCB-FB33-2840-83B4-E450DBB0A1A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216DED76-F5DA-6843-A47C-B18A99D15E3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="391">
   <si>
     <t>proposal</t>
   </si>
@@ -462,9 +462,6 @@
   </si>
   <si>
     <t>notes</t>
-  </si>
-  <si>
-    <t>iuu1, iuu2</t>
   </si>
   <si>
     <t>Draft text on IUU fisheries subsidies</t>
@@ -1157,31 +1154,6 @@
     <t>TN/RL/GEN/200/Rev1</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Scope: 1) Exclusion of territorial waters for all members. Is not possible to make the distinction between territorial water's and the remainder of an EEZ in the tool's dataset, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the assumtion is that is applied to all EEZ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. On IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal Member. The possible effects is a conservative interpretation of this text. 3) No proportionality or the duration of prohibition is considered. On Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) To model the proposal we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy stock assessment database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy stock assessment database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. OFOC: 1) Prohibition of subsidies to large scale and in the high seas. General Transition period: 1) for implementation to LDC and developing countries</t>
-    </r>
-  </si>
-  <si>
     <t>LDC new proposal includes 3 pillars of prohibiion (IUU, Overfished and OFOC) and S&amp;DT. We might need to consider a new section or include it in Other. I don't think we would like to separate or divide the proposal as we would like to see the effect of the proposal as a whole.</t>
   </si>
   <si>
@@ -1498,6 +1470,46 @@
   </si>
   <si>
     <t xml:space="preserve">Added in the dispute option. Treating this sorta as an overcapacity issue. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Scope: 1) Exclusion of territorial waters for all members. Is not possible to make the distinction between territorial water's and the remainder of an EEZ in the tool's dataset, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the assumtion is that is applied to all EEZ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. On IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal Member. The possible effects is a conservative interpretation of this text. 3) No proportionality or the duration of prohibition is considered. On Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) To model the proposal we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy stock assessment database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy stock assessment database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. OFOC: 1) Prohibition of subsidies to large scale and in the high seas. General Transition period: 1) for implementation to LDC and developing countries</t>
+    </r>
+  </si>
+  <si>
+    <t>OA2</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>TIME, ALL</t>
   </si>
 </sst>
 </file>
@@ -2460,9 +2472,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CH25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -2495,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>1</v>
@@ -2504,7 +2516,7 @@
         <v>130</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>2</v>
@@ -2519,7 +2531,7 @@
         <v>5</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>7</v>
@@ -2540,31 +2552,31 @@
         <v>12</v>
       </c>
       <c r="T1" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="V1" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>347</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="AB1" s="13" t="s">
-        <v>349</v>
       </c>
       <c r="AC1" s="13" t="s">
         <v>16</v>
@@ -2582,49 +2594,49 @@
         <v>20</v>
       </c>
       <c r="AH1" s="13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AI1" s="13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AJ1" s="13" t="s">
         <v>21</v>
       </c>
       <c r="AK1" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="AM1" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="AL1" s="13" t="s">
+      <c r="AN1" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="AM1" s="13" t="s">
+      <c r="AO1" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="AN1" s="13" t="s">
+      <c r="AP1" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="AO1" s="13" t="s">
+      <c r="AQ1" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="AP1" s="13" t="s">
+      <c r="AR1" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="AQ1" s="13" t="s">
+      <c r="AS1" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="AR1" s="13" t="s">
+      <c r="AT1" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="AS1" s="13" t="s">
+      <c r="AU1" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="AT1" s="13" t="s">
+      <c r="AV1" s="13" t="s">
         <v>361</v>
-      </c>
-      <c r="AU1" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="AV1" s="13" t="s">
-        <v>363</v>
       </c>
       <c r="AW1" s="13" t="s">
         <v>26</v>
@@ -2642,49 +2654,49 @@
         <v>30</v>
       </c>
       <c r="BB1" s="13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BC1" s="13" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="BD1" s="13" t="s">
         <v>31</v>
       </c>
       <c r="BE1" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="BF1" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="BG1" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="BF1" s="13" t="s">
+      <c r="BH1" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="BG1" s="13" t="s">
+      <c r="BI1" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="BH1" s="13" t="s">
+      <c r="BJ1" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="BI1" s="13" t="s">
+      <c r="BK1" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="BJ1" s="13" t="s">
+      <c r="BL1" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="BK1" s="13" t="s">
+      <c r="BM1" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="BL1" s="13" t="s">
+      <c r="BN1" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="BM1" s="13" t="s">
+      <c r="BO1" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="BN1" s="13" t="s">
+      <c r="BP1" s="13" t="s">
         <v>375</v>
-      </c>
-      <c r="BO1" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="BP1" s="13" t="s">
-        <v>377</v>
       </c>
       <c r="BQ1" s="13" t="s">
         <v>36</v>
@@ -2749,43 +2761,115 @@
         <v>89</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>305</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>306</v>
       </c>
       <c r="G2" s="18">
         <v>43896</v>
       </c>
       <c r="H2" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="L2" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>311</v>
-      </c>
       <c r="M2" s="21" t="s">
-        <v>313</v>
+        <v>385</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>379</v>
+        <v>377</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD2" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="AJ2" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="AK2" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="AL2" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="AN2" s="13">
+        <v>5</v>
+      </c>
+      <c r="AO2" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="AP2" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="AR2" s="13">
+        <v>3</v>
+      </c>
+      <c r="AS2" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX2" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="AZ2" s="13">
+        <v>5</v>
+      </c>
+      <c r="BA2" s="13">
+        <v>24</v>
+      </c>
+      <c r="BD2" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="BE2" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="BF2" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="BH2" s="13">
+        <v>5</v>
+      </c>
+      <c r="BI2" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="BJ2" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="BL2" s="13">
+        <v>3</v>
+      </c>
+      <c r="BM2" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="BQ2" s="13" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:86" ht="136">
@@ -2796,7 +2880,7 @@
         <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>85</v>
@@ -2811,7 +2895,7 @@
         <v>43759</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>86</v>
@@ -2820,22 +2904,22 @@
         <v>87</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>55</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW3" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:86" ht="170">
@@ -2858,7 +2942,7 @@
         <v>43801</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>92</v>
@@ -2867,25 +2951,25 @@
         <v>93</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>55</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:86" ht="119">
@@ -2896,7 +2980,7 @@
         <v>90</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>94</v>
@@ -2911,7 +2995,7 @@
         <v>43718</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>95</v>
@@ -2920,25 +3004,25 @@
         <v>96</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L5" s="24" t="s">
         <v>55</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:86" ht="136">
@@ -2949,10 +3033,10 @@
         <v>90</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>55</v>
@@ -2964,7 +3048,7 @@
         <v>43865</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>145</v>
@@ -2973,22 +3057,46 @@
         <v>117</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="L6" s="8" t="s">
-        <v>260</v>
-      </c>
       <c r="M6" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>147</v>
+        <v>383</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>55</v>
+        <v>377</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>376</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>55</v>
+        <v>387</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="V6" s="1">
+        <v>5</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:86" ht="221">
@@ -3005,31 +3113,31 @@
         <v>55</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G7" s="2">
         <v>43628</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="L7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>55</v>
@@ -3058,7 +3166,7 @@
         <v>43657</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>70</v>
@@ -3067,13 +3175,13 @@
         <v>129</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>153</v>
       </c>
       <c r="BQ8" s="1" t="s">
         <v>58</v>
@@ -3114,7 +3222,7 @@
         <v>99</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>77</v>
@@ -3129,7 +3237,7 @@
         <v>43620</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>78</v>
@@ -3138,13 +3246,13 @@
         <v>79</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>55</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BQ9" s="1" t="s">
         <v>58</v>
@@ -3173,7 +3281,7 @@
         <v>99</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>100</v>
@@ -3188,22 +3296,22 @@
         <v>43545</v>
       </c>
       <c r="H10" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L10" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>280</v>
-      </c>
       <c r="M10" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:86" ht="85">
@@ -3214,7 +3322,7 @@
         <v>99</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>101</v>
@@ -3230,13 +3338,13 @@
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="K11" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="9"/>
@@ -3249,34 +3357,34 @@
         <v>99</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G12" s="2">
         <v>43843</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="K12" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>293</v>
-      </c>
       <c r="L12" s="7" t="s">
         <v>55</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:86" ht="136.5" customHeight="1">
@@ -3287,7 +3395,7 @@
         <v>99</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>103</v>
@@ -3302,7 +3410,7 @@
         <v>43643</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>104</v>
@@ -3311,13 +3419,13 @@
         <v>105</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>55</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AW13" s="1" t="s">
         <v>61</v>
@@ -3329,7 +3437,7 @@
         <v>5</v>
       </c>
       <c r="BD13" s="1" t="s">
-        <v>55</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:86" ht="187">
@@ -3340,7 +3448,7 @@
         <v>99</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>107</v>
@@ -3355,7 +3463,7 @@
         <v>43684</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>113</v>
@@ -3364,25 +3472,25 @@
         <v>114</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>55</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AW14" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AX14" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BA14" s="1">
         <v>24</v>
       </c>
       <c r="BD14" s="1" t="s">
-        <v>55</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:86" ht="238">
@@ -3393,7 +3501,7 @@
         <v>99</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>109</v>
@@ -3408,7 +3516,7 @@
         <v>43573</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>111</v>
@@ -3417,13 +3525,13 @@
         <v>112</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>55</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:86" ht="238">
@@ -3434,7 +3542,7 @@
         <v>99</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>115</v>
@@ -3449,7 +3557,7 @@
         <v>43648</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>116</v>
@@ -3458,13 +3566,13 @@
         <v>117</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AW16" s="1" t="s">
         <v>64</v>
@@ -3502,10 +3610,10 @@
         <v>99</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>55</v>
@@ -3517,19 +3625,19 @@
         <v>43865</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>116</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L17" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="M17" s="11" t="s">
         <v>274</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:86" ht="289">
@@ -3540,10 +3648,10 @@
         <v>99</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>55</v>
@@ -3555,7 +3663,7 @@
         <v>43775</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>119</v>
@@ -3564,13 +3672,13 @@
         <v>120</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:86" ht="136">
@@ -3581,7 +3689,7 @@
         <v>99</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>121</v>
@@ -3596,7 +3704,7 @@
         <v>43801</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>123</v>
@@ -3605,7 +3713,7 @@
         <v>124</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="9"/>
@@ -3618,7 +3726,7 @@
         <v>125</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>126</v>
@@ -3633,7 +3741,7 @@
         <v>43803</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>127</v>
@@ -3642,13 +3750,13 @@
         <v>128</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L20" s="10" t="s">
         <v>55</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC20" s="1" t="s">
         <v>56</v>
@@ -3668,7 +3776,7 @@
         <v>125</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>131</v>
@@ -3683,7 +3791,7 @@
         <v>43648</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>132</v>
@@ -3692,13 +3800,13 @@
         <v>117</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>56</v>
@@ -3718,7 +3826,7 @@
         <v>125</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>133</v>
@@ -3733,7 +3841,7 @@
         <v>43621</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>135</v>
@@ -3742,13 +3850,13 @@
         <v>136</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L22" s="10" t="s">
         <v>55</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>56</v>
@@ -3768,7 +3876,7 @@
         <v>137</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>138</v>
@@ -3790,7 +3898,7 @@
         <v>140</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="9"/>
@@ -3803,10 +3911,10 @@
         <v>137</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>58</v>
@@ -3818,7 +3926,7 @@
         <v>43896</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>142</v>
@@ -3827,13 +3935,13 @@
         <v>143</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:86" ht="51">
@@ -3850,37 +3958,37 @@
       <c r="L25" s="8"/>
       <c r="M25" s="9"/>
       <c r="O25" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P25" s="1">
         <v>20</v>
       </c>
       <c r="Q25" s="26" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="V25" s="1">
         <v>5</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="Y25" s="1">
         <v>5</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AB25" s="1">
         <v>5</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AF25" s="1">
         <v>5</v>
@@ -3895,10 +4003,10 @@
         <v>400</v>
       </c>
       <c r="AJ25" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AK25" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AM25" s="1">
         <v>5</v>
@@ -3907,7 +4015,7 @@
         <v>5</v>
       </c>
       <c r="AO25" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AQ25" s="1">
         <v>5</v>
@@ -3916,7 +4024,7 @@
         <v>5</v>
       </c>
       <c r="AS25" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AU25" s="1">
         <v>5</v>
@@ -3925,7 +4033,7 @@
         <v>5</v>
       </c>
       <c r="AX25" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AZ25" s="1">
         <v>5</v>
@@ -3940,10 +4048,10 @@
         <v>400</v>
       </c>
       <c r="BD25" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="BE25" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="BG25" s="1">
         <v>5</v>
@@ -3952,7 +4060,7 @@
         <v>5</v>
       </c>
       <c r="BI25" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="BK25" s="1">
         <v>5</v>
@@ -3961,7 +4069,7 @@
         <v>5</v>
       </c>
       <c r="BM25" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="BO25" s="1">
         <v>5</v>
@@ -3970,16 +4078,16 @@
         <v>5</v>
       </c>
       <c r="BQ25" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="BR25" s="1" t="s">
         <v>61</v>
       </c>
       <c r="BS25" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="BT25" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="BU25" s="1">
         <v>0.7</v>
@@ -3988,7 +4096,7 @@
         <v>84</v>
       </c>
       <c r="BW25" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="BX25" s="1">
         <v>5</v>
@@ -4000,7 +4108,7 @@
         <v>5</v>
       </c>
       <c r="CA25" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="CB25" s="1">
         <v>5</v>
@@ -4012,7 +4120,7 @@
         <v>5</v>
       </c>
       <c r="CE25" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="CF25" s="1">
         <v>5</v>
@@ -4236,13 +4344,13 @@
         <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>54</v>
@@ -4251,22 +4359,22 @@
         <v>42922</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>55</v>
@@ -4287,7 +4395,7 @@
         <v>60</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>57</v>
@@ -4310,34 +4418,34 @@
         <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="F3" s="2">
         <v>42852</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>55</v>
@@ -4372,37 +4480,37 @@
         <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="F4" s="2">
         <v>42941</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>55</v>
@@ -4437,34 +4545,34 @@
         <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="F5" s="2">
         <v>42929</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>55</v>
@@ -4499,31 +4607,31 @@
         <v>90</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="F6" s="2">
         <v>42941</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>55</v>
@@ -4537,37 +4645,37 @@
         <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="F7" s="2">
         <v>42930</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="L7" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>57</v>
@@ -4608,37 +4716,37 @@
         <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="F8" s="2">
         <v>42933</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="L8" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>57</v>
@@ -4656,7 +4764,7 @@
         <v>55</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>57</v>
@@ -4682,10 +4790,10 @@
         <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>66</v>
@@ -4694,22 +4802,22 @@
         <v>43040</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="L9" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>57</v>
@@ -4726,10 +4834,10 @@
         <v>89</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>67</v>
@@ -4738,25 +4846,25 @@
         <v>43055</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="AE10" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ10" s="1" t="s">
         <v>55</v>
@@ -4767,7 +4875,7 @@
         <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>68</v>
@@ -4782,16 +4890,16 @@
         <v>70</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="AO11" s="1" t="s">
         <v>58</v>
@@ -4829,10 +4937,10 @@
         <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>77</v>
@@ -4850,13 +4958,13 @@
         <v>79</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="AO12" s="1" t="s">
         <v>58</v>

--- a/app/data/wto_proposal_settings_master.xlsx
+++ b/app/data/wto_proposal_settings_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kat/GitHub/SubsidyExplorer/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216DED76-F5DA-6843-A47C-B18A99D15E3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A023396-805E-A649-9593-70E454D0C665}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="390">
   <si>
     <t>proposal</t>
   </si>
@@ -471,9 +471,6 @@
   </si>
   <si>
     <t>This unofficial room document was circulated at the request of the Delegations of Argentina, Colombia, Costa Rica, Panama, Peru, Uruguay, Canada, Iceland, New Zealand, and the United States on June 12, 2019.</t>
-  </si>
-  <si>
-    <t>iuu1, iuu2, iuu3, iuu4</t>
   </si>
   <si>
     <t xml:space="preserve">This communication advocates for negotiating Member-specific subsidy caps (expressed in monetary terms). Subsidies in excess of a Member's cap would be prohibited. This cap is intended to be suplementary to any prohibitions on subsidies that support IUU, fishing beyond national jurisdiction, and subsidies for fishing that negatively affect overfished stocks. Members would also commit to maintain fisheries management and conservation measures. </t>
@@ -2472,9 +2469,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CH25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA6" sqref="AA6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -2507,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>1</v>
@@ -2516,7 +2513,7 @@
         <v>130</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>2</v>
@@ -2531,7 +2528,7 @@
         <v>5</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>7</v>
@@ -2552,31 +2549,31 @@
         <v>12</v>
       </c>
       <c r="T1" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="U1" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>346</v>
-      </c>
-      <c r="AB1" s="13" t="s">
-        <v>347</v>
       </c>
       <c r="AC1" s="13" t="s">
         <v>16</v>
@@ -2594,49 +2591,49 @@
         <v>20</v>
       </c>
       <c r="AH1" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="AI1" s="13" t="s">
         <v>348</v>
-      </c>
-      <c r="AI1" s="13" t="s">
-        <v>349</v>
       </c>
       <c r="AJ1" s="13" t="s">
         <v>21</v>
       </c>
       <c r="AK1" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AL1" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="AL1" s="13" t="s">
+      <c r="AM1" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="AM1" s="13" t="s">
+      <c r="AN1" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="AN1" s="13" t="s">
+      <c r="AO1" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="AO1" s="13" t="s">
+      <c r="AP1" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="AP1" s="13" t="s">
+      <c r="AQ1" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="AQ1" s="13" t="s">
+      <c r="AR1" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="AR1" s="13" t="s">
+      <c r="AS1" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="AS1" s="13" t="s">
+      <c r="AT1" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="AT1" s="13" t="s">
+      <c r="AU1" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="AU1" s="13" t="s">
+      <c r="AV1" s="13" t="s">
         <v>360</v>
-      </c>
-      <c r="AV1" s="13" t="s">
-        <v>361</v>
       </c>
       <c r="AW1" s="13" t="s">
         <v>26</v>
@@ -2654,49 +2651,49 @@
         <v>30</v>
       </c>
       <c r="BB1" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="BC1" s="13" t="s">
         <v>362</v>
-      </c>
-      <c r="BC1" s="13" t="s">
-        <v>363</v>
       </c>
       <c r="BD1" s="13" t="s">
         <v>31</v>
       </c>
       <c r="BE1" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="BF1" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="BF1" s="13" t="s">
+      <c r="BG1" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="BG1" s="13" t="s">
+      <c r="BH1" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="BH1" s="13" t="s">
+      <c r="BI1" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="BI1" s="13" t="s">
+      <c r="BJ1" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="BJ1" s="13" t="s">
+      <c r="BK1" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="BK1" s="13" t="s">
+      <c r="BL1" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="BL1" s="13" t="s">
+      <c r="BM1" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="BM1" s="13" t="s">
+      <c r="BN1" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="BN1" s="13" t="s">
+      <c r="BO1" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="BO1" s="13" t="s">
+      <c r="BP1" s="13" t="s">
         <v>374</v>
-      </c>
-      <c r="BP1" s="13" t="s">
-        <v>375</v>
       </c>
       <c r="BQ1" s="13" t="s">
         <v>36</v>
@@ -2761,82 +2758,82 @@
         <v>89</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>304</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>305</v>
       </c>
       <c r="G2" s="18">
         <v>43896</v>
       </c>
       <c r="H2" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="L2" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>310</v>
-      </c>
       <c r="M2" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="AC2" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="AC2" s="13" t="s">
+      <c r="AD2" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="AJ2" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="AD2" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="AJ2" s="13" t="s">
+      <c r="AK2" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AL2" s="13" t="s">
         <v>387</v>
-      </c>
-      <c r="AK2" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="AL2" s="13" t="s">
-        <v>388</v>
       </c>
       <c r="AN2" s="13">
         <v>5</v>
       </c>
       <c r="AO2" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AP2" s="13" t="s">
         <v>387</v>
-      </c>
-      <c r="AP2" s="13" t="s">
-        <v>388</v>
       </c>
       <c r="AR2" s="13">
         <v>3</v>
       </c>
       <c r="AS2" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AX2" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AZ2" s="13">
         <v>5</v>
@@ -2845,31 +2842,31 @@
         <v>24</v>
       </c>
       <c r="BD2" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BE2" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BF2" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="BH2" s="13">
         <v>5</v>
       </c>
       <c r="BI2" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BJ2" s="13" t="s">
         <v>387</v>
-      </c>
-      <c r="BJ2" s="13" t="s">
-        <v>388</v>
       </c>
       <c r="BL2" s="13">
         <v>3</v>
       </c>
       <c r="BM2" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="BQ2" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:86" ht="136">
@@ -2880,7 +2877,7 @@
         <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>85</v>
@@ -2895,7 +2892,7 @@
         <v>43759</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>86</v>
@@ -2904,22 +2901,22 @@
         <v>87</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>55</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AW3" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:86" ht="170">
@@ -2942,7 +2939,7 @@
         <v>43801</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>92</v>
@@ -2951,25 +2948,25 @@
         <v>93</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>55</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q4" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:86" ht="119">
@@ -2980,7 +2977,7 @@
         <v>90</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>94</v>
@@ -2995,7 +2992,7 @@
         <v>43718</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>95</v>
@@ -3004,25 +3001,25 @@
         <v>96</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L5" s="24" t="s">
         <v>55</v>
       </c>
       <c r="M5" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="O5" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q5" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:86" ht="136">
@@ -3033,10 +3030,10 @@
         <v>90</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>55</v>
@@ -3048,7 +3045,7 @@
         <v>43865</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>145</v>
@@ -3057,46 +3054,46 @@
         <v>117</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="L6" s="8" t="s">
-        <v>259</v>
-      </c>
       <c r="M6" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="S6" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="V6" s="1">
         <v>5</v>
       </c>
       <c r="W6" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="X6" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="Y6" s="1">
         <v>3</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:86" ht="221">
@@ -3119,7 +3116,7 @@
         <v>43628</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>147</v>
@@ -3128,22 +3125,22 @@
         <v>149</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>55</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>150</v>
+        <v>382</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>55</v>
+        <v>376</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>55</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:86" ht="272">
@@ -3166,7 +3163,7 @@
         <v>43657</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>70</v>
@@ -3175,13 +3172,13 @@
         <v>129</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="9" t="s">
         <v>151</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="BQ8" s="1" t="s">
         <v>58</v>
@@ -3222,7 +3219,7 @@
         <v>99</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>77</v>
@@ -3237,7 +3234,7 @@
         <v>43620</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>78</v>
@@ -3246,13 +3243,13 @@
         <v>79</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>55</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BQ9" s="1" t="s">
         <v>58</v>
@@ -3281,7 +3278,7 @@
         <v>99</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>100</v>
@@ -3296,22 +3293,22 @@
         <v>43545</v>
       </c>
       <c r="H10" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L10" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>279</v>
-      </c>
       <c r="M10" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:86" ht="85">
@@ -3322,7 +3319,7 @@
         <v>99</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>101</v>
@@ -3338,13 +3335,13 @@
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="K11" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="9"/>
@@ -3357,34 +3354,34 @@
         <v>99</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G12" s="2">
         <v>43843</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="K12" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>292</v>
-      </c>
       <c r="L12" s="7" t="s">
         <v>55</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:86" ht="136.5" customHeight="1">
@@ -3395,7 +3392,7 @@
         <v>99</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>103</v>
@@ -3410,7 +3407,7 @@
         <v>43643</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>104</v>
@@ -3419,13 +3416,13 @@
         <v>105</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>55</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AW13" s="1" t="s">
         <v>61</v>
@@ -3437,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="BD13" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:86" ht="187">
@@ -3448,7 +3445,7 @@
         <v>99</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>107</v>
@@ -3463,7 +3460,7 @@
         <v>43684</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>113</v>
@@ -3472,25 +3469,25 @@
         <v>114</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>55</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AW14" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AX14" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BA14" s="1">
         <v>24</v>
       </c>
       <c r="BD14" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:86" ht="238">
@@ -3501,7 +3498,7 @@
         <v>99</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>109</v>
@@ -3516,7 +3513,7 @@
         <v>43573</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>111</v>
@@ -3525,13 +3522,13 @@
         <v>112</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>55</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:86" ht="238">
@@ -3542,7 +3539,7 @@
         <v>99</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>115</v>
@@ -3557,7 +3554,7 @@
         <v>43648</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>116</v>
@@ -3566,13 +3563,13 @@
         <v>117</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AW16" s="1" t="s">
         <v>64</v>
@@ -3610,10 +3607,10 @@
         <v>99</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>55</v>
@@ -3625,19 +3622,19 @@
         <v>43865</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>116</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L17" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="M17" s="11" t="s">
         <v>273</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:86" ht="289">
@@ -3648,10 +3645,10 @@
         <v>99</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>55</v>
@@ -3663,7 +3660,7 @@
         <v>43775</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>119</v>
@@ -3672,13 +3669,13 @@
         <v>120</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:86" ht="136">
@@ -3689,7 +3686,7 @@
         <v>99</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>121</v>
@@ -3704,7 +3701,7 @@
         <v>43801</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>123</v>
@@ -3713,7 +3710,7 @@
         <v>124</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="9"/>
@@ -3726,7 +3723,7 @@
         <v>125</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>126</v>
@@ -3741,7 +3738,7 @@
         <v>43803</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>127</v>
@@ -3750,13 +3747,13 @@
         <v>128</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L20" s="10" t="s">
         <v>55</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AC20" s="1" t="s">
         <v>56</v>
@@ -3776,7 +3773,7 @@
         <v>125</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>131</v>
@@ -3791,7 +3788,7 @@
         <v>43648</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>132</v>
@@ -3800,13 +3797,13 @@
         <v>117</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>56</v>
@@ -3826,7 +3823,7 @@
         <v>125</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>133</v>
@@ -3841,7 +3838,7 @@
         <v>43621</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>135</v>
@@ -3850,13 +3847,13 @@
         <v>136</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L22" s="10" t="s">
         <v>55</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>56</v>
@@ -3876,7 +3873,7 @@
         <v>137</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>138</v>
@@ -3898,7 +3895,7 @@
         <v>140</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="9"/>
@@ -3911,10 +3908,10 @@
         <v>137</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>58</v>
@@ -3926,7 +3923,7 @@
         <v>43896</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>142</v>
@@ -3935,13 +3932,13 @@
         <v>143</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L24" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="M24" s="9" t="s">
         <v>313</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:86" ht="51">
@@ -3958,37 +3955,37 @@
       <c r="L25" s="8"/>
       <c r="M25" s="9"/>
       <c r="O25" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P25" s="1">
         <v>20</v>
       </c>
       <c r="Q25" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="S25" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="S25" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="T25" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="V25" s="1">
         <v>5</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Y25" s="1">
         <v>5</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AB25" s="1">
         <v>5</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF25" s="1">
         <v>5</v>
@@ -4003,10 +4000,10 @@
         <v>400</v>
       </c>
       <c r="AJ25" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AK25" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AM25" s="1">
         <v>5</v>
@@ -4015,7 +4012,7 @@
         <v>5</v>
       </c>
       <c r="AO25" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AQ25" s="1">
         <v>5</v>
@@ -4024,7 +4021,7 @@
         <v>5</v>
       </c>
       <c r="AS25" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AU25" s="1">
         <v>5</v>
@@ -4033,7 +4030,7 @@
         <v>5</v>
       </c>
       <c r="AX25" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AZ25" s="1">
         <v>5</v>
@@ -4048,10 +4045,10 @@
         <v>400</v>
       </c>
       <c r="BD25" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="BE25" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="BG25" s="1">
         <v>5</v>
@@ -4060,7 +4057,7 @@
         <v>5</v>
       </c>
       <c r="BI25" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="BK25" s="1">
         <v>5</v>
@@ -4069,7 +4066,7 @@
         <v>5</v>
       </c>
       <c r="BM25" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="BO25" s="1">
         <v>5</v>
@@ -4078,16 +4075,16 @@
         <v>5</v>
       </c>
       <c r="BQ25" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="BR25" s="1" t="s">
         <v>61</v>
       </c>
       <c r="BS25" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="BT25" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="BT25" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="BU25" s="1">
         <v>0.7</v>
@@ -4096,7 +4093,7 @@
         <v>84</v>
       </c>
       <c r="BW25" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="BX25" s="1">
         <v>5</v>
@@ -4108,7 +4105,7 @@
         <v>5</v>
       </c>
       <c r="CA25" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CB25" s="1">
         <v>5</v>
@@ -4120,7 +4117,7 @@
         <v>5</v>
       </c>
       <c r="CE25" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CF25" s="1">
         <v>5</v>
@@ -4344,13 +4341,13 @@
         <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>54</v>
@@ -4359,22 +4356,22 @@
         <v>42922</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>55</v>
@@ -4395,7 +4392,7 @@
         <v>60</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>57</v>
@@ -4418,34 +4415,34 @@
         <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="F3" s="2">
         <v>42852</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>55</v>
@@ -4480,37 +4477,37 @@
         <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="F4" s="2">
         <v>42941</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>55</v>
@@ -4545,34 +4542,34 @@
         <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="F5" s="2">
         <v>42929</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>55</v>
@@ -4607,31 +4604,31 @@
         <v>90</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="F6" s="2">
         <v>42941</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>55</v>
@@ -4645,37 +4642,37 @@
         <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="F7" s="2">
         <v>42930</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="L7" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>57</v>
@@ -4716,37 +4713,37 @@
         <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="F8" s="2">
         <v>42933</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="L8" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>57</v>
@@ -4764,7 +4761,7 @@
         <v>55</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>57</v>
@@ -4790,10 +4787,10 @@
         <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>66</v>
@@ -4802,22 +4799,22 @@
         <v>43040</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="L9" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>57</v>
@@ -4834,10 +4831,10 @@
         <v>89</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>67</v>
@@ -4846,25 +4843,25 @@
         <v>43055</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="AE10" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ10" s="1" t="s">
         <v>55</v>
@@ -4875,7 +4872,7 @@
         <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>68</v>
@@ -4890,16 +4887,16 @@
         <v>70</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="AO11" s="1" t="s">
         <v>58</v>
@@ -4937,10 +4934,10 @@
         <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>77</v>
@@ -4958,13 +4955,13 @@
         <v>79</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="AO12" s="1" t="s">
         <v>58</v>

--- a/app/data/wto_proposal_settings_master.xlsx
+++ b/app/data/wto_proposal_settings_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kat/GitHub/SubsidyExplorer/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A023396-805E-A649-9593-70E454D0C665}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B267DE0-7630-C943-A485-FCC19C74FE9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="390">
   <si>
     <t>proposal</t>
   </si>
@@ -776,9 +776,6 @@
     <t>Philipines - Disputed Waters</t>
   </si>
   <si>
-    <t>IUU Facilitator Proposal</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prohibiting subsidies in disputed waters, unless all parties have jointly notified the WTO of any agreement to subsidize. Members should  attempt to reach an agreement through bilateral consultations before going to Dispute Settlement. </t>
   </si>
   <si>
@@ -789,9 +786,6 @@
   </si>
   <si>
     <t xml:space="preserve">Facilitator's recommendation on the elimination of subsidies that contribute to IUU fishing: 1) Making IUU determinations is a right Members have based on agreements outside the WTO, 2) a subsidies prohibition should not imply an obligation related to making IUU determinations. 3) All procedures have been followed in making the determination, including appeal and review. 4) General agreement that determinations by a coastal state, RFMO/A, flag state, and subsidizing Member state should all trigger the prohibition of subsidies. </t>
-  </si>
-  <si>
-    <t>EU -IUU</t>
   </si>
   <si>
     <t>It builds on ACP text proposal TN/RL/GEN/192, as reflected in TN/RL/W/274/Rev.6. It specifies that IUU determinations could be made by coastal Member states for activities in waters under their jurisdictions with respect to a foreign vessel or operator, or by RFMO/As in areas (and for species) under their juridscitions. Members are encouraged to refrain from invoking the discipline based on minor infringements.</t>
@@ -821,9 +815,6 @@
     <t xml:space="preserve">It advocates for a prohibition on subsidies to vessels or operators engaged in IUU fishing. It specifies that IUU determinations could be made by the flag or subsidizing Member states, by RFMO/As in accordance with their rules and procedures and in conformity with international law, or by coastal Member states for activities in waters under their jurisdictions provided that such a determination is made fairly. </t>
   </si>
   <si>
-    <t>China - Cap approach</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1) Total amount of capacity-enhancing subsidies is estimated for eash Member taken the information from Sumaila et al. 2019.  2) Each Member's cap is equal to whichever of the three proposed approaches for calculating a cap yields the largest amount. 3) By default, caps based on approach 1 are calulated assuming 90% of each Member's base for capping. 4) Caps based on approach 2 are calculated based on 90% of each Member's estimated landed value (calculated from the FAO Global Marine Capture Production Database in 2017). 5) Caps based on approach 3 are calculated assuming a value of $600 per fisherman, and each Member's most recently reported total number of fishers (from the FAO Yearbook of Fishery and Aquaculture Statistics 2017). 6) Users are free to explore different values by changing the respective sliders below. 7) Once caps are established, we assume that provision of the following types of capacity-enhancing subsidies (as defined by Sumaila et al. 2019) are allowed to continue irrespective of a Member's total cap: </t>
     </r>
@@ -845,22 +836,10 @@
     <t xml:space="preserve">1) All capacity-enhancing subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond a Member's national jurisdiction. 2) This is an ambitious interpretation, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas to be prohibited. 4) Users can set a different threshold below if they wish. </t>
   </si>
   <si>
-    <t>Morocco - Industrial Fishing</t>
-  </si>
-  <si>
     <t xml:space="preserve">This communication defines the characteristics of vessels that shall be targeted in regards to overcapacity and overfishing disciplines. It advocates that any vessel having at least three of the six characteristics shall be affected: vessels 1) with more than 24 metersa length; 2) with gross tonnage of more than 100 GT; 3) with fishing gear towed or hauled by motor driven equipment; 4) propeled by an engine with more than 130 kW; 5) with onboard freezing equipment for storage; 6) owned or operated by a multinational enterprise, a public limited company, or a joint venture. </t>
   </si>
   <si>
-    <t>New Zealand/Iceland - Overfising and Overcapacity</t>
-  </si>
-  <si>
-    <t>ACP - Overfishing an overcapacity</t>
-  </si>
-  <si>
     <t>RD/TN/RL/96 Rev1</t>
-  </si>
-  <si>
-    <t>ACP Overfishing and Overcapacity revised</t>
   </si>
   <si>
     <t>Exclusion of developing country Members that
@@ -900,12 +879,6 @@
     <t>I added this new revision separately as the ACP are adding a new exeption where Members that individually account for less than [2] percent of global marine capture fishing are excluded</t>
   </si>
   <si>
-    <t>US and  others Flagging</t>
-  </si>
-  <si>
-    <t>Facilitator Text- Overfished</t>
-  </si>
-  <si>
     <t>ACP - Overfished</t>
   </si>
   <si>
@@ -940,9 +913,6 @@
       </rPr>
       <t xml:space="preserve"> Additionally, as written, this text requires that there be a causal negative effect to the stock as a result of the subsidy. This is difficult to establish given existing data on subsidy provisioning and stock status, and is not possible to model.</t>
     </r>
-  </si>
-  <si>
-    <t>US and other Cap</t>
   </si>
   <si>
     <t>Canada</t>
@@ -1129,9 +1099,6 @@
     <t>LDCs</t>
   </si>
   <si>
-    <t>LDC -Full text</t>
-  </si>
-  <si>
     <t>LDC Group Fisheries Subsidies Text Proposal</t>
   </si>
   <si>
@@ -1219,9 +1186,6 @@
   </si>
   <si>
     <t xml:space="preserve">Currently does nothing - working on adding in tonnage/engine power options. Note: there are a couple of definitions here that we don't have the data to model. </t>
-  </si>
-  <si>
-    <t>Need to be applied as  the disciplines on overfished stocks</t>
   </si>
   <si>
     <t xml:space="preserve">As written it specifies different S&amp;DT for developing country and LDC Members - will add this. </t>
@@ -1466,9 +1430,6 @@
     <t>IUU1, IUU2, IUU3, IUU4</t>
   </si>
   <si>
-    <t xml:space="preserve">Added in the dispute option. Treating this sorta as an overcapacity issue. </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Scope: 1) Exclusion of territorial waters for all members. Is not possible to make the distinction between territorial water's and the remainder of an EEZ in the tool's dataset, </t>
     </r>
@@ -1503,10 +1464,49 @@
     <t>TIME</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>TIME, ALL</t>
+  </si>
+  <si>
+    <t>LENGTH</t>
+  </si>
+  <si>
+    <t>Facilitator's Proposal - IUU</t>
+  </si>
+  <si>
+    <t>EU - IUU</t>
+  </si>
+  <si>
+    <t>LDC - Full text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added in the dispute option. Treating this as an overcapacity proposal. </t>
+  </si>
+  <si>
+    <t>US and others -  Cap</t>
+  </si>
+  <si>
+    <t>China - Cap</t>
+  </si>
+  <si>
+    <t>Need to be applied as the disciplines on overfished stocks</t>
+  </si>
+  <si>
+    <t>Morocco - Industrial fishing</t>
+  </si>
+  <si>
+    <t>New Zealand/Iceland - Overfishing and overcapacity</t>
+  </si>
+  <si>
+    <t>ACP - Overfishing and overcapacity</t>
+  </si>
+  <si>
+    <t>ACP - Overfishing and overcapacity (revised)</t>
+  </si>
+  <si>
+    <t>US and others -  Flagging</t>
+  </si>
+  <si>
+    <t>Facilitator's Text - Overfished</t>
   </si>
 </sst>
 </file>
@@ -2470,8 +2470,8 @@
   <dimension ref="A1:CH25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>1</v>
@@ -2513,7 +2513,7 @@
         <v>130</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>2</v>
@@ -2528,7 +2528,7 @@
         <v>5</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>7</v>
@@ -2549,31 +2549,31 @@
         <v>12</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="X1" s="13" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="Y1" s="13" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="Z1" s="13" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="AA1" s="13" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="AB1" s="13" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="AC1" s="13" t="s">
         <v>16</v>
@@ -2591,49 +2591,49 @@
         <v>20</v>
       </c>
       <c r="AH1" s="13" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="AI1" s="13" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="AJ1" s="13" t="s">
         <v>21</v>
       </c>
       <c r="AK1" s="13" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="AL1" s="13" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="AM1" s="13" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="AN1" s="13" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="AO1" s="13" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="AP1" s="13" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="AQ1" s="13" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="AR1" s="13" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="AS1" s="13" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="AT1" s="13" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="AU1" s="13" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="AV1" s="13" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="AW1" s="13" t="s">
         <v>26</v>
@@ -2651,49 +2651,49 @@
         <v>30</v>
       </c>
       <c r="BB1" s="13" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="BC1" s="13" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="BD1" s="13" t="s">
         <v>31</v>
       </c>
       <c r="BE1" s="13" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="BF1" s="13" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="BG1" s="13" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="BH1" s="13" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="BI1" s="13" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="BJ1" s="13" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="BK1" s="13" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="BL1" s="13" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="BM1" s="13" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="BN1" s="13" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="BO1" s="13" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="BP1" s="13" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="BQ1" s="13" t="s">
         <v>36</v>
@@ -2758,115 +2758,112 @@
         <v>89</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>55</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G2" s="18">
         <v>43896</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>305</v>
+        <v>379</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="AC2" s="13" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="AD2" s="13" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="AJ2" s="13" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="AK2" s="13" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="AL2" s="13" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="AN2" s="13">
         <v>5</v>
       </c>
       <c r="AO2" s="13" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="AP2" s="13" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="AR2" s="13">
         <v>3</v>
       </c>
       <c r="AS2" s="13" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AX2" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="AZ2" s="13">
-        <v>5</v>
+        <v>376</v>
       </c>
       <c r="BA2" s="13">
         <v>24</v>
       </c>
       <c r="BD2" s="13" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="BE2" s="13" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="BF2" s="13" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="BH2" s="13">
         <v>5</v>
       </c>
       <c r="BI2" s="13" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="BJ2" s="13" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="BL2" s="13">
         <v>3</v>
       </c>
       <c r="BM2" s="13" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="BQ2" s="13" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:86" ht="136">
@@ -2877,7 +2874,7 @@
         <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>85</v>
@@ -2901,22 +2898,31 @@
         <v>87</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>55</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="AW3" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:86" ht="170">
@@ -2939,7 +2945,7 @@
         <v>43801</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>251</v>
+        <v>377</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>92</v>
@@ -2948,25 +2954,25 @@
         <v>93</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>55</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:86" ht="119">
@@ -2977,7 +2983,7 @@
         <v>90</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>94</v>
@@ -2992,7 +2998,7 @@
         <v>43718</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>256</v>
+        <v>378</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>95</v>
@@ -3007,19 +3013,19 @@
         <v>55</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:86" ht="136">
@@ -3030,10 +3036,10 @@
         <v>90</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>55</v>
@@ -3045,7 +3051,7 @@
         <v>43865</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>145</v>
@@ -3054,46 +3060,46 @@
         <v>117</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="V6" s="1">
         <v>5</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="Y6" s="1">
         <v>3</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:86" ht="221">
@@ -3116,7 +3122,7 @@
         <v>43628</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>147</v>
@@ -3125,22 +3131,22 @@
         <v>149</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>55</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:86" ht="272">
@@ -3163,7 +3169,7 @@
         <v>43657</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>286</v>
+        <v>381</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>70</v>
@@ -3219,7 +3225,7 @@
         <v>99</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>77</v>
@@ -3234,7 +3240,7 @@
         <v>43620</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>262</v>
+        <v>382</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>78</v>
@@ -3249,7 +3255,7 @@
         <v>55</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="BQ9" s="1" t="s">
         <v>58</v>
@@ -3278,7 +3284,7 @@
         <v>99</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>100</v>
@@ -3293,7 +3299,7 @@
         <v>43545</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>153</v>
@@ -3305,10 +3311,10 @@
         <v>158</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:86" ht="85">
@@ -3319,7 +3325,7 @@
         <v>99</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>101</v>
@@ -3354,34 +3360,34 @@
         <v>99</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="G12" s="2">
         <v>43843</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>55</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:86" ht="136.5" customHeight="1">
@@ -3392,7 +3398,7 @@
         <v>99</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>103</v>
@@ -3407,7 +3413,7 @@
         <v>43643</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>104</v>
@@ -3422,7 +3428,7 @@
         <v>55</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AW13" s="1" t="s">
         <v>61</v>
@@ -3434,7 +3440,7 @@
         <v>5</v>
       </c>
       <c r="BD13" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:86" ht="187">
@@ -3445,7 +3451,7 @@
         <v>99</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>107</v>
@@ -3460,7 +3466,7 @@
         <v>43684</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>266</v>
+        <v>384</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>113</v>
@@ -3469,13 +3475,13 @@
         <v>114</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>55</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="AW14" s="1" t="s">
         <v>61</v>
@@ -3487,7 +3493,7 @@
         <v>24</v>
       </c>
       <c r="BD14" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:86" ht="238">
@@ -3498,7 +3504,7 @@
         <v>99</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>322</v>
+        <v>383</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>109</v>
@@ -3513,7 +3519,7 @@
         <v>43573</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>268</v>
+        <v>385</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>111</v>
@@ -3528,7 +3534,7 @@
         <v>55</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:86" ht="238">
@@ -3539,7 +3545,7 @@
         <v>99</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>115</v>
@@ -3554,7 +3560,7 @@
         <v>43648</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>269</v>
+        <v>386</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>116</v>
@@ -3563,13 +3569,13 @@
         <v>117</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L16" s="8" t="s">
         <v>163</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="AW16" s="1" t="s">
         <v>64</v>
@@ -3607,10 +3613,10 @@
         <v>99</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>55</v>
@@ -3622,19 +3628,19 @@
         <v>43865</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>271</v>
+        <v>387</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>116</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:86" ht="289">
@@ -3645,10 +3651,10 @@
         <v>99</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>55</v>
@@ -3660,7 +3666,7 @@
         <v>43775</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>119</v>
@@ -3669,13 +3675,13 @@
         <v>120</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="L18" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="M18" s="11" t="s">
         <v>316</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:86" ht="136">
@@ -3686,7 +3692,7 @@
         <v>99</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>121</v>
@@ -3701,7 +3707,7 @@
         <v>43801</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>280</v>
+        <v>388</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>123</v>
@@ -3738,7 +3744,7 @@
         <v>43803</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>281</v>
+        <v>389</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>127</v>
@@ -3753,7 +3759,7 @@
         <v>55</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="AC20" s="1" t="s">
         <v>56</v>
@@ -3773,7 +3779,7 @@
         <v>125</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>131</v>
@@ -3788,7 +3794,7 @@
         <v>43648</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>132</v>
@@ -3800,10 +3806,10 @@
         <v>167</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>56</v>
@@ -3823,7 +3829,7 @@
         <v>125</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>133</v>
@@ -3838,7 +3844,7 @@
         <v>43621</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>135</v>
@@ -3853,7 +3859,7 @@
         <v>55</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>56</v>
@@ -3873,7 +3879,7 @@
         <v>137</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>138</v>
@@ -3908,10 +3914,10 @@
         <v>137</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>58</v>
@@ -3923,7 +3929,7 @@
         <v>43896</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>142</v>
@@ -3935,13 +3941,16 @@
         <v>170</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:86" ht="51">
+      <c r="A25" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="B25" s="3" t="s">
         <v>83</v>
       </c>
@@ -3955,37 +3964,37 @@
       <c r="L25" s="8"/>
       <c r="M25" s="9"/>
       <c r="O25" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="P25" s="1">
         <v>20</v>
       </c>
       <c r="Q25" s="26" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="V25" s="1">
         <v>5</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="Y25" s="1">
         <v>5</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="AB25" s="1">
         <v>5</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="AF25" s="1">
         <v>5</v>
@@ -4000,10 +4009,10 @@
         <v>400</v>
       </c>
       <c r="AJ25" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="AK25" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="AM25" s="1">
         <v>5</v>
@@ -4012,7 +4021,7 @@
         <v>5</v>
       </c>
       <c r="AO25" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="AQ25" s="1">
         <v>5</v>
@@ -4021,7 +4030,7 @@
         <v>5</v>
       </c>
       <c r="AS25" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="AU25" s="1">
         <v>5</v>
@@ -4030,7 +4039,7 @@
         <v>5</v>
       </c>
       <c r="AX25" s="1" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="AZ25" s="1">
         <v>5</v>
@@ -4045,10 +4054,10 @@
         <v>400</v>
       </c>
       <c r="BD25" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="BE25" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="BG25" s="1">
         <v>5</v>
@@ -4057,7 +4066,7 @@
         <v>5</v>
       </c>
       <c r="BI25" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="BK25" s="1">
         <v>5</v>
@@ -4066,7 +4075,7 @@
         <v>5</v>
       </c>
       <c r="BM25" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="BO25" s="1">
         <v>5</v>
@@ -4075,16 +4084,16 @@
         <v>5</v>
       </c>
       <c r="BQ25" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="BR25" s="1" t="s">
         <v>61</v>
       </c>
       <c r="BS25" s="1" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="BT25" s="1" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="BU25" s="1">
         <v>0.7</v>
@@ -4093,7 +4102,7 @@
         <v>84</v>
       </c>
       <c r="BW25" s="1" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="BX25" s="1">
         <v>5</v>
@@ -4105,7 +4114,7 @@
         <v>5</v>
       </c>
       <c r="CA25" s="1" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="CB25" s="1">
         <v>5</v>
@@ -4117,7 +4126,7 @@
         <v>5</v>
       </c>
       <c r="CE25" s="1" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="CF25" s="1">
         <v>5</v>

--- a/app/data/wto_proposal_settings_master.xlsx
+++ b/app/data/wto_proposal_settings_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kat/GitHub/SubsidyExplorer/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B267DE0-7630-C943-A485-FCC19C74FE9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F425E5EA-344A-BF48-83C5-9399797B2B74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="389">
   <si>
     <t>proposal</t>
   </si>
@@ -880,21 +880,6 @@
   </si>
   <si>
     <t>ACP - Overfished</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Developed and developing country Members in a position to do so shall provide targeted technical assistance and capacity building assistance to LDCs and other developing countries to help them to implement these conditions. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(I think this is not relevant for the modeling)</t>
-    </r>
   </si>
   <si>
     <t>Australia - Overfished</t>
@@ -1027,54 +1012,6 @@
     <t xml:space="preserve">1) The following types of subsidies as classified by Sumaila et al. 2019 are presumed to be prohibited: i) boat construction and renovation, ii) fuel. 2) All vessels flagged to LDC Members are exempted, as are vessels flagged to developing country Members that only fish within their own EEZs. 3) Users can select a different set of subsidy types below. </t>
   </si>
   <si>
-    <t xml:space="preserve">1) There is uncertainty  regarding the status of many fish stocks. 2) To model the proposal we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy stock assessment database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy stock assessment database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambigious about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1) There is uncertainty  regarding the status of many fish stocks. 2) To model the proposal we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy stock assessment database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy stock assessment database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4)The proposal is ambigious about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>is not possible to make the distinction between territorial water's and the remainder of an EEZ in the tool's dataset, the assumtion is that is applied to all EEZ.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Our interpretation of this is a conservative one.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I understand that there is no possibility to model flexibilities to territorial waters and the rest of the EEZ. How to model this, simply by applying this to all EEZ?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Our interpretation of this is the same as that provided for the Facilitator's working paper. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Yes, I think the facilitator's text builds on this proposal. Australia makes the case for the casual link negative effects. The discussion right now is moving toward the Facilitators report. The questions for this proposal is how much of it can be modeled (negative effect)?</t>
-    </r>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Is this generally interpreted as including distant water fishing? As I have it now it does not. </t>
     </r>
@@ -1116,9 +1053,6 @@
   </si>
   <si>
     <t>TN/RL/GEN/200/Rev1</t>
-  </si>
-  <si>
-    <t>LDC new proposal includes 3 pillars of prohibiion (IUU, Overfished and OFOC) and S&amp;DT. We might need to consider a new section or include it in Other. I don't think we would like to separate or divide the proposal as we would like to see the effect of the proposal as a whole.</t>
   </si>
   <si>
     <t>For prohibitions on subsidies supporting IUU fishing, subsidies shall be allowed for developing countries and LDC small scale fishing 1) within their own territorial waters, and 2) small scale fishing in their own EEZs and RFMO for a transition period of 7 years.   For prohibitions on subsidies for fishing on overfished stocks, subsidies shall be allowed for 1) fishing in their own territorial waters, or 2) fishing in their own EEZs for a transition period of 2 years. For prohibitions on subsidies OFOC, subsidies shall be allowed for LDC Members. For developing countries exemtion of fishing in the territorial waters. For fishing in the EEZ and RFMO/A areas prohibition applies if the following is met: i) GNI per capita crosses US$ 5000 (World Bank) (based on constant $2010) for three consecutive years;
@@ -1155,16 +1089,7 @@
     <t>RD/TN/RL/112/Rev.1</t>
   </si>
   <si>
-    <t xml:space="preserve">To be modeled using the parameters of overfished stocks. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Subsidies for subsistence fishing shall not be prohibited. Transition period for developing countries and LDCs 2022, 2024 and 2026 to be negotiated. No transition period for developing and LDCs that have subtantial global marine capture. During the transition period subsidies for territorial waters are not prohibited. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time delay to be incorporated. </t>
-  </si>
-  <si>
-    <t>Currently does nothing - will add cap option for "best" of three.</t>
   </si>
   <si>
     <r>
@@ -1195,21 +1120,6 @@
   </si>
   <si>
     <t xml:space="preserve">Not modeled. Will include as a reference document. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To be included in Others section. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>This is a revised proposal and contain new elements</t>
-    </r>
   </si>
   <si>
     <t>India - S&amp;DT</t>
@@ -1289,9 +1199,6 @@
     <t>IUU1, IUU2, IUU3, IUU4, IUU5, IUU6</t>
   </si>
   <si>
-    <t>The EU is including here the concept of determination of Port state and market state. I imagine that in these cases the same assumptions from determination by coastal, flag and subsidizing members could apply. KAT ADDED.</t>
-  </si>
-  <si>
     <t>DISPUTE</t>
   </si>
   <si>
@@ -1464,9 +1371,6 @@
     <t>TIME</t>
   </si>
   <si>
-    <t>TIME, ALL</t>
-  </si>
-  <si>
     <t>LENGTH</t>
   </si>
   <si>
@@ -1479,9 +1383,6 @@
     <t>LDC - Full text</t>
   </si>
   <si>
-    <t xml:space="preserve">Added in the dispute option. Treating this as an overcapacity proposal. </t>
-  </si>
-  <si>
     <t>US and others -  Cap</t>
   </si>
   <si>
@@ -1507,6 +1408,54 @@
   </si>
   <si>
     <t>Facilitator's Text - Overfished</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT MODELED YET - This is a revised proposal and contains new elements. </t>
+  </si>
+  <si>
+    <t>OA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEED TO FIGURE OUT WHAT THIS SAYS ABOUT TERRIORIAL WATERS - Our interpretation of this is a conservative one. </t>
+  </si>
+  <si>
+    <t>Done - Our interpretation of this is similar to that provided for the Facilitator's working paper.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) There is uncertainty  regarding the status of many fish stocks. 2) To model the proposal we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy stock assessment database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy stock assessment database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambigious about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. </t>
+  </si>
+  <si>
+    <t>OA3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) There is uncertainty  regarding the status of many fish stocks. 2) To model the proposal we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy stock assessment database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy stock assessment database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4)The proposal is ambigious about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is not possible to make the distinction between territorial water's and the remainder of an EEZ in the tool's dataset, the assumtion is that is applied to all EEZ.</t>
+    </r>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>MOSTLY DONE - LDC new proposal includes 3 pillars of prohibiion (IUU, Overfished and OFOC) and S&amp;DT. We might need to consider a new section or include it in Other. I don't think we would like to separate or divide the proposal as we would like to see the effect of the proposal as a whole.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOSTLY DONE - Time delay to be incorporated. </t>
+  </si>
+  <si>
+    <t>FIX CAP IN MORNING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONE - To be modeled using the parameters of overfished stocks. </t>
   </si>
 </sst>
 </file>
@@ -2470,8 +2419,8 @@
   <dimension ref="A1:CH25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -2504,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>1</v>
@@ -2513,7 +2462,7 @@
         <v>130</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>2</v>
@@ -2528,7 +2477,7 @@
         <v>5</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>7</v>
@@ -2549,31 +2498,31 @@
         <v>12</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="X1" s="13" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="Y1" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="Z1" s="13" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="AA1" s="13" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="AB1" s="13" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="AC1" s="13" t="s">
         <v>16</v>
@@ -2591,49 +2540,49 @@
         <v>20</v>
       </c>
       <c r="AH1" s="13" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="AI1" s="13" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="AJ1" s="13" t="s">
         <v>21</v>
       </c>
       <c r="AK1" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="AM1" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="AN1" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="AO1" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="AP1" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="AQ1" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="AR1" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="AS1" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="AT1" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="AU1" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="AV1" s="13" t="s">
         <v>337</v>
-      </c>
-      <c r="AL1" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="AM1" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="AN1" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="AO1" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="AP1" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="AQ1" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="AR1" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="AS1" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="AT1" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="AU1" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="AV1" s="13" t="s">
-        <v>348</v>
       </c>
       <c r="AW1" s="13" t="s">
         <v>26</v>
@@ -2651,49 +2600,49 @@
         <v>30</v>
       </c>
       <c r="BB1" s="13" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="BC1" s="13" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="BD1" s="13" t="s">
         <v>31</v>
       </c>
       <c r="BE1" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="BF1" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="BG1" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="BH1" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="BI1" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="BJ1" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="BK1" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="BL1" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="BM1" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="BN1" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="BO1" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="BP1" s="13" t="s">
         <v>351</v>
-      </c>
-      <c r="BF1" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="BG1" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="BH1" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="BI1" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="BJ1" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="BK1" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="BL1" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="BM1" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="BN1" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="BO1" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="BP1" s="13" t="s">
-        <v>362</v>
       </c>
       <c r="BQ1" s="13" t="s">
         <v>36</v>
@@ -2758,112 +2707,112 @@
         <v>89</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>300</v>
+        <v>385</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>55</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G2" s="18">
         <v>43896</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="AC2" s="13" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="AD2" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="AJ2" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="AK2" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="AL2" s="13" t="s">
         <v>363</v>
-      </c>
-      <c r="AJ2" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="AK2" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="AL2" s="13" t="s">
-        <v>374</v>
       </c>
       <c r="AN2" s="13">
         <v>5</v>
       </c>
       <c r="AO2" s="13" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="AP2" s="13" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="AR2" s="13">
         <v>3</v>
       </c>
       <c r="AS2" s="13" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AX2" s="13" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="BA2" s="13">
         <v>24</v>
       </c>
       <c r="BD2" s="13" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="BE2" s="13" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="BF2" s="13" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="BH2" s="13">
         <v>5</v>
       </c>
       <c r="BI2" s="13" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="BJ2" s="13" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="BL2" s="13">
         <v>3</v>
       </c>
       <c r="BM2" s="13" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="BQ2" s="13" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:86" ht="136">
@@ -2874,7 +2823,7 @@
         <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>85</v>
@@ -2904,25 +2853,25 @@
         <v>55</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="AW3" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:86" ht="170">
@@ -2932,6 +2881,9 @@
       <c r="B4" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>91</v>
       </c>
@@ -2945,7 +2897,7 @@
         <v>43801</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>92</v>
@@ -2960,19 +2912,28 @@
         <v>55</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:86" ht="119">
@@ -2983,7 +2944,7 @@
         <v>90</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>324</v>
+        <v>384</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>94</v>
@@ -2998,7 +2959,7 @@
         <v>43718</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>95</v>
@@ -3013,19 +2974,28 @@
         <v>55</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BQ5" s="1" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:86" ht="136">
@@ -3036,7 +3006,7 @@
         <v>90</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>306</v>
+        <v>386</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>257</v>
@@ -3069,37 +3039,52 @@
         <v>253</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="Q6" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="V6" s="1">
         <v>5</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="Y6" s="1">
         <v>3</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>373</v>
+        <v>362</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BQ6" s="1" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:86" ht="221">
@@ -3109,6 +3094,9 @@
       <c r="B7" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>98</v>
       </c>
@@ -3140,13 +3128,22 @@
         <v>253</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BQ7" s="1" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:86" ht="272">
@@ -3156,6 +3153,9 @@
       <c r="B8" s="3" t="s">
         <v>99</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="D8" s="4" t="s">
         <v>68</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>43657</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>70</v>
@@ -3225,7 +3225,7 @@
         <v>99</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>307</v>
+        <v>387</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>77</v>
@@ -3240,7 +3240,7 @@
         <v>43620</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>78</v>
@@ -3284,7 +3284,7 @@
         <v>99</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>100</v>
@@ -3314,7 +3314,7 @@
         <v>271</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:86" ht="85">
@@ -3325,7 +3325,7 @@
         <v>99</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>101</v>
@@ -3360,34 +3360,34 @@
         <v>99</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G12" s="2">
         <v>43843</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="K12" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>281</v>
-      </c>
       <c r="L12" s="7" t="s">
         <v>55</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:86" ht="136.5" customHeight="1">
@@ -3398,7 +3398,7 @@
         <v>99</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>103</v>
@@ -3440,7 +3440,7 @@
         <v>5</v>
       </c>
       <c r="BD13" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:86" ht="187">
@@ -3451,7 +3451,7 @@
         <v>99</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>107</v>
@@ -3466,7 +3466,7 @@
         <v>43684</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>113</v>
@@ -3481,7 +3481,7 @@
         <v>55</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AW14" s="1" t="s">
         <v>61</v>
@@ -3493,7 +3493,7 @@
         <v>24</v>
       </c>
       <c r="BD14" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:86" ht="238">
@@ -3504,7 +3504,7 @@
         <v>99</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>109</v>
@@ -3519,7 +3519,7 @@
         <v>43573</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>111</v>
@@ -3534,7 +3534,7 @@
         <v>55</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:86" ht="238">
@@ -3545,7 +3545,7 @@
         <v>99</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>115</v>
@@ -3560,7 +3560,7 @@
         <v>43648</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>116</v>
@@ -3575,7 +3575,7 @@
         <v>163</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AW16" s="1" t="s">
         <v>64</v>
@@ -3628,7 +3628,7 @@
         <v>43865</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>116</v>
@@ -3651,10 +3651,10 @@
         <v>99</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>304</v>
+        <v>388</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>55</v>
@@ -3675,13 +3675,31 @@
         <v>120</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>316</v>
+        <v>306</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BD18" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BQ18" s="1" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:86" ht="136">
@@ -3692,7 +3710,7 @@
         <v>99</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>121</v>
@@ -3707,7 +3725,7 @@
         <v>43801</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>123</v>
@@ -3744,7 +3762,7 @@
         <v>43803</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>127</v>
@@ -3759,16 +3777,22 @@
         <v>55</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>287</v>
+        <v>381</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>56</v>
+        <v>378</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>57</v>
+        <v>352</v>
       </c>
       <c r="AJ20" s="1" t="s">
-        <v>55</v>
+        <v>353</v>
+      </c>
+      <c r="BQ20" s="1" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:86" ht="204">
@@ -3779,7 +3803,7 @@
         <v>125</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>289</v>
+        <v>379</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>131</v>
@@ -3806,19 +3830,22 @@
         <v>167</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>274</v>
+        <v>55</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>288</v>
+        <v>383</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>56</v>
+        <v>378</v>
       </c>
       <c r="AD21" s="1" t="s">
         <v>63</v>
       </c>
       <c r="AJ21" s="1" t="s">
-        <v>55</v>
+        <v>353</v>
+      </c>
+      <c r="BQ21" s="1" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:86" ht="204">
@@ -3829,7 +3856,7 @@
         <v>125</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>133</v>
@@ -3844,7 +3871,7 @@
         <v>43621</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>135</v>
@@ -3859,16 +3886,22 @@
         <v>55</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>56</v>
+        <v>361</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>57</v>
+        <v>352</v>
       </c>
       <c r="AJ22" s="1" t="s">
-        <v>55</v>
+        <v>353</v>
+      </c>
+      <c r="BQ22" s="1" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:86" ht="68">
@@ -3879,7 +3912,7 @@
         <v>137</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>138</v>
@@ -3913,11 +3946,11 @@
       <c r="B24" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>314</v>
+      <c r="C24" s="6" t="s">
+        <v>377</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>58</v>
@@ -3929,7 +3962,7 @@
         <v>43896</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>142</v>
@@ -3941,10 +3974,10 @@
         <v>170</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:86" ht="51">
@@ -3964,37 +3997,37 @@
       <c r="L25" s="8"/>
       <c r="M25" s="9"/>
       <c r="O25" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="P25" s="1">
         <v>20</v>
       </c>
       <c r="Q25" s="26" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="V25" s="1">
         <v>5</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="Y25" s="1">
         <v>5</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="AB25" s="1">
         <v>5</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="AF25" s="1">
         <v>5</v>
@@ -4009,10 +4042,10 @@
         <v>400</v>
       </c>
       <c r="AJ25" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="AK25" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="AM25" s="1">
         <v>5</v>
@@ -4021,7 +4054,7 @@
         <v>5</v>
       </c>
       <c r="AO25" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="AQ25" s="1">
         <v>5</v>
@@ -4030,7 +4063,7 @@
         <v>5</v>
       </c>
       <c r="AS25" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="AU25" s="1">
         <v>5</v>
@@ -4039,7 +4072,7 @@
         <v>5</v>
       </c>
       <c r="AX25" s="1" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="AZ25" s="1">
         <v>5</v>
@@ -4054,10 +4087,10 @@
         <v>400</v>
       </c>
       <c r="BD25" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="BE25" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="BG25" s="1">
         <v>5</v>
@@ -4066,7 +4099,7 @@
         <v>5</v>
       </c>
       <c r="BI25" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="BK25" s="1">
         <v>5</v>
@@ -4075,7 +4108,7 @@
         <v>5</v>
       </c>
       <c r="BM25" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="BO25" s="1">
         <v>5</v>
@@ -4084,16 +4117,16 @@
         <v>5</v>
       </c>
       <c r="BQ25" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="BR25" s="1" t="s">
         <v>61</v>
       </c>
       <c r="BS25" s="1" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="BT25" s="1" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="BU25" s="1">
         <v>0.7</v>
@@ -4102,7 +4135,7 @@
         <v>84</v>
       </c>
       <c r="BW25" s="1" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="BX25" s="1">
         <v>5</v>
@@ -4114,7 +4147,7 @@
         <v>5</v>
       </c>
       <c r="CA25" s="1" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="CB25" s="1">
         <v>5</v>
@@ -4126,7 +4159,7 @@
         <v>5</v>
       </c>
       <c r="CE25" s="1" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="CF25" s="1">
         <v>5</v>

--- a/app/data/wto_proposal_settings_master.xlsx
+++ b/app/data/wto_proposal_settings_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kat/GitHub/SubsidyExplorer/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F425E5EA-344A-BF48-83C5-9399797B2B74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF30155-D08C-C342-A039-5E620F86AB6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="391">
   <si>
     <t>proposal</t>
   </si>
@@ -1456,6 +1456,12 @@
   </si>
   <si>
     <t xml:space="preserve">DONE - To be modeled using the parameters of overfished stocks. </t>
+  </si>
+  <si>
+    <t>BEST</t>
+  </si>
+  <si>
+    <t>ONE</t>
   </si>
 </sst>
 </file>
@@ -2418,9 +2424,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CH25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BQ10" sqref="BQ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -3187,34 +3193,34 @@
         <v>151</v>
       </c>
       <c r="BQ8" s="1" t="s">
-        <v>58</v>
+        <v>362</v>
       </c>
       <c r="BR8" s="1" t="s">
         <v>61</v>
       </c>
       <c r="BS8" s="1" t="s">
-        <v>71</v>
+        <v>354</v>
       </c>
       <c r="BT8" s="1" t="s">
-        <v>72</v>
+        <v>355</v>
       </c>
       <c r="BV8" s="1" t="s">
         <v>73</v>
       </c>
       <c r="BW8" s="1" t="s">
-        <v>74</v>
+        <v>356</v>
       </c>
       <c r="BZ8" s="1">
         <v>90</v>
       </c>
       <c r="CA8" s="1" t="s">
-        <v>75</v>
+        <v>357</v>
       </c>
       <c r="CB8" s="1">
         <v>50</v>
       </c>
       <c r="CE8" s="1" t="s">
-        <v>76</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:86" ht="323">
@@ -3258,16 +3264,16 @@
         <v>260</v>
       </c>
       <c r="BQ9" s="1" t="s">
-        <v>58</v>
+        <v>362</v>
       </c>
       <c r="BR9" s="1" t="s">
         <v>80</v>
       </c>
       <c r="BS9" s="1" t="s">
-        <v>81</v>
+        <v>390</v>
       </c>
       <c r="BW9" s="1" t="s">
-        <v>82</v>
+        <v>389</v>
       </c>
       <c r="BY9" s="1">
         <v>800</v>

--- a/app/data/wto_proposal_settings_master.xlsx
+++ b/app/data/wto_proposal_settings_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kat/GitHub/SubsidyExplorer/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF30155-D08C-C342-A039-5E620F86AB6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9517B7-4F7A-8846-807E-8B77D8DA24E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="398">
   <si>
     <t>proposal</t>
   </si>
@@ -1371,9 +1371,6 @@
     <t>TIME</t>
   </si>
   <si>
-    <t>LENGTH</t>
-  </si>
-  <si>
     <t>Facilitator's Proposal - IUU</t>
   </si>
   <si>
@@ -1446,9 +1443,6 @@
     <t>DONE</t>
   </si>
   <si>
-    <t>MOSTLY DONE - LDC new proposal includes 3 pillars of prohibiion (IUU, Overfished and OFOC) and S&amp;DT. We might need to consider a new section or include it in Other. I don't think we would like to separate or divide the proposal as we would like to see the effect of the proposal as a whole.</t>
-  </si>
-  <si>
     <t xml:space="preserve">MOSTLY DONE - Time delay to be incorporated. </t>
   </si>
   <si>
@@ -1462,6 +1456,33 @@
   </si>
   <si>
     <t>ONE</t>
+  </si>
+  <si>
+    <t>kat_notes</t>
+  </si>
+  <si>
+    <t>ernesto_notes</t>
+  </si>
+  <si>
+    <t>LDC new proposal includes 3 pillars of prohibiion (IUU, Overfished and OFOC) and S&amp;DT. We might need to consider a new section or include it in Other. I don't think we would like to separate or divide the proposal as we would like to see the effect of the proposal as a whole.</t>
+  </si>
+  <si>
+    <t>summary_html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transition period missing; need to figure out what this proposal says about territorial waters. </t>
+  </si>
+  <si>
+    <t>&lt;b&gt; IUU:  &lt;/b&gt;&lt;/br&gt;  None. &lt;/br&gt; &lt;b&gt; Overfished:  &lt;/b&gt;&lt;/br&gt; None. &lt;/br&gt; &lt;b&gt; OFOC:  &lt;/b&gt;&lt;/br&gt; All capacity enhancing subsidies are prohibited to vessels fishing in disputed waters. &lt;/br&gt; &lt;b&gt; S&amp;DT:  &lt;/b&gt;&lt;/br&gt; None.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt; IUU:  &lt;/b&gt;&lt;/br&gt;  Determination made by: &lt;ul&gt;&lt;li&gt;RMFO/A lists&lt;/li&gt;&lt;li&gt;Flag Member states&lt;/li&gt;&lt;li&gt;Coastal Member states&lt;/li&gt;&lt;li&gt;Subsidizing Member states&lt;/li&gt;&lt;/ul&gt; &lt;/br&gt; &lt;b&gt; Overfished:  &lt;/b&gt;&lt;/br&gt; Overfished stock determination made by best scientific evidence available: &lt;ul&gt;&lt;li&gt; B/Bmsy &lt; 1  (RAM Legacy stock assessment database) &lt;/li&gt;&lt;/ul&gt; Subsidies to fishing in territorial waters is allowed. &lt;/br&gt; &lt;b&gt; OFOC:  &lt;/b&gt;&lt;/br&gt; All capacity enhancing subsidies are prohibited to vessels meeting any of the following characteristics: &lt;ul&gt;&lt;li&gt;fishing on the high seas&lt;/li&gt;&lt;li&gt; &gt; 24m in length&lt;/li&gt;&lt;li&gt; &gt; 100 gross tons&lt;/li&gt;&lt;/ul&gt; Subsidies to fishing in territorial waters is allowed. &lt;/br&gt; &lt;b&gt; S&amp;DT:  &lt;/b&gt;&lt;/br&gt;&lt;i&gt;LDCs  :&lt;/i&gt; Transition period of X years for all prohibitions; excluded from OFOC prohibitions. &lt;/br&gt; &lt;i&gt;Developing :&lt;/i&gt; Transition period of Y years for all prohibitions. &lt;/br&gt; &lt;i&gt;SVEs :&lt;/i&gt; None.</t>
+  </si>
+  <si>
+    <t>EX_TER</t>
+  </si>
+  <si>
+    <t>LENGTH, EX_TER</t>
   </si>
 </sst>
 </file>
@@ -1987,7 +2008,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2066,6 +2087,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2422,1758 +2449,1778 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CH25"/>
+  <dimension ref="A1:CJ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BQ10" sqref="BQ10"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BB2" sqref="BB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="10.83203125" style="12"/>
-    <col min="3" max="3" width="32.83203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="15.1640625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="28" style="1" customWidth="1"/>
-    <col min="10" max="10" width="48" style="1" customWidth="1"/>
-    <col min="11" max="11" width="48.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="56.1640625" style="12" customWidth="1"/>
-    <col min="13" max="13" width="71" style="12" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="36.5" style="12" customWidth="1"/>
+    <col min="4" max="4" width="32.83203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="15.1640625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="28" style="1" customWidth="1"/>
+    <col min="11" max="11" width="48" style="1" customWidth="1"/>
+    <col min="12" max="13" width="48.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="56.1640625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="71" style="12" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="13" customFormat="1" ht="68">
+    <row r="1" spans="1:88" s="13" customFormat="1" ht="68">
       <c r="A1" s="13" t="s">
         <v>144</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>146</v>
+      <c r="C1" s="27" t="s">
+        <v>389</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="N1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AC1" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AD1" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AE1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AF1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AG1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AH1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AI1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="AI1" s="13" t="s">
+      <c r="AK1" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="AJ1" s="13" t="s">
+      <c r="AL1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AK1" s="13" t="s">
+      <c r="AM1" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="AL1" s="13" t="s">
+      <c r="AN1" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="AM1" s="13" t="s">
+      <c r="AO1" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="AN1" s="13" t="s">
+      <c r="AP1" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="AO1" s="13" t="s">
+      <c r="AQ1" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="AP1" s="13" t="s">
+      <c r="AR1" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="AQ1" s="13" t="s">
+      <c r="AS1" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="AR1" s="13" t="s">
+      <c r="AT1" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="AS1" s="13" t="s">
+      <c r="AU1" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="AT1" s="13" t="s">
+      <c r="AV1" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="AU1" s="13" t="s">
+      <c r="AW1" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="AV1" s="13" t="s">
+      <c r="AX1" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="AW1" s="13" t="s">
+      <c r="AY1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AX1" s="13" t="s">
+      <c r="AZ1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="AY1" s="13" t="s">
+      <c r="BA1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AZ1" s="13" t="s">
+      <c r="BB1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="BA1" s="13" t="s">
+      <c r="BC1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="BB1" s="13" t="s">
+      <c r="BD1" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="BC1" s="13" t="s">
+      <c r="BE1" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="BD1" s="13" t="s">
+      <c r="BF1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="BE1" s="13" t="s">
+      <c r="BG1" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="BF1" s="13" t="s">
+      <c r="BH1" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="BG1" s="13" t="s">
+      <c r="BI1" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="BH1" s="13" t="s">
+      <c r="BJ1" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="BI1" s="13" t="s">
+      <c r="BK1" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="BJ1" s="13" t="s">
+      <c r="BL1" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="BK1" s="13" t="s">
+      <c r="BM1" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="BL1" s="13" t="s">
+      <c r="BN1" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="BM1" s="13" t="s">
+      <c r="BO1" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="BN1" s="13" t="s">
+      <c r="BP1" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="BO1" s="13" t="s">
+      <c r="BQ1" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="BP1" s="13" t="s">
+      <c r="BR1" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="BQ1" s="13" t="s">
+      <c r="BS1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="BR1" s="13" t="s">
+      <c r="BT1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="BS1" s="13" t="s">
+      <c r="BU1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="BT1" s="13" t="s">
+      <c r="BV1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="BU1" s="13" t="s">
+      <c r="BW1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="BV1" s="13" t="s">
+      <c r="BX1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="BW1" s="13" t="s">
+      <c r="BY1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="BX1" s="13" t="s">
+      <c r="BZ1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="BY1" s="13" t="s">
+      <c r="CA1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="BZ1" s="13" t="s">
+      <c r="CB1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="CA1" s="13" t="s">
+      <c r="CC1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="CB1" s="13" t="s">
+      <c r="CD1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="CC1" s="13" t="s">
+      <c r="CE1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="CD1" s="13" t="s">
+      <c r="CF1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="CE1" s="13" t="s">
+      <c r="CG1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="CF1" s="13" t="s">
+      <c r="CH1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="CG1" s="13" t="s">
+      <c r="CI1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="CH1" s="13" t="s">
+      <c r="CJ1" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="13" customFormat="1" ht="282" customHeight="1">
+    <row r="2" spans="1:88" s="13" customFormat="1" ht="282" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="F2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="G2" s="18">
+      <c r="H2" s="18">
         <v>43896</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="L2" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="M2" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="N2" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="O2" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="O2" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="AC2" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="AD2" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="AJ2" s="13" t="s">
+      <c r="Q2" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="AF2" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="AL2" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="AK2" s="13" t="s">
+      <c r="AM2" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="AL2" s="13" t="s">
+      <c r="AN2" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="AN2" s="13">
+      <c r="AP2" s="13">
         <v>5</v>
       </c>
-      <c r="AO2" s="13" t="s">
+      <c r="AQ2" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="AP2" s="13" t="s">
+      <c r="AR2" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="AR2" s="13">
+      <c r="AT2" s="13">
         <v>3</v>
       </c>
-      <c r="AS2" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AU2" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="AY2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AX2" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="BA2" s="13">
+      <c r="AZ2" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="BC2" s="13">
         <v>24</v>
       </c>
-      <c r="BD2" s="13" t="s">
+      <c r="BF2" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="BE2" s="13" t="s">
+      <c r="BG2" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="BF2" s="13" t="s">
+      <c r="BH2" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="BH2" s="13">
+      <c r="BJ2" s="13">
         <v>5</v>
       </c>
-      <c r="BI2" s="13" t="s">
+      <c r="BK2" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="BJ2" s="13" t="s">
+      <c r="BL2" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="BL2" s="13">
+      <c r="BN2" s="13">
         <v>3</v>
       </c>
-      <c r="BM2" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="BQ2" s="13" t="s">
+      <c r="BO2" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="BS2" s="13" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="1:86" ht="136">
+    <row r="3" spans="1:88" ht="136">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>43759</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="AW3" s="1" t="s">
+      <c r="U3" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AY3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="BD3" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
+      <c r="BF3" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BS3" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:86" ht="170">
+    <row r="4" spans="1:88" ht="170">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>43801</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="9" t="s">
+      <c r="N4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="Q4" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="BQ4" s="1" t="s">
+      <c r="U4" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BS4" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="5" spans="1:86" ht="119">
+    <row r="5" spans="1:88" ht="119">
       <c r="A5" s="25" t="s">
         <v>58</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>384</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>43718</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="L5" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="9" t="s">
+      <c r="N5" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="Q5" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="BD5" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="BQ5" s="1" t="s">
+      <c r="U5" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BS5" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="6" spans="1:86" ht="136">
+    <row r="6" spans="1:88" ht="136">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="D6" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>43865</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="N6" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="O6" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="Q6" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="V6" s="1">
+      <c r="X6" s="1">
         <v>5</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="AA6" s="1">
         <v>3</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AD6" s="1">
         <v>5</v>
       </c>
-      <c r="AJ6" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="BQ6" s="1" t="s">
+      <c r="AL6" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BS6" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="7" spans="1:86" ht="221">
+    <row r="7" spans="1:88" ht="221">
       <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="D7" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43628</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="L7" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M7" s="9" t="s">
+      <c r="N7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="BD7" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="BQ7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BF7" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BS7" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="8" spans="1:86" ht="272">
+    <row r="8" spans="1:88" ht="272">
       <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>43657</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="L8" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M8" s="9" t="s">
+      <c r="N8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="BQ8" s="1" t="s">
+      <c r="BS8" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="BR8" s="1" t="s">
+      <c r="BT8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BS8" s="1" t="s">
+      <c r="BU8" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="BT8" s="1" t="s">
+      <c r="BV8" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="BV8" s="1" t="s">
+      <c r="BX8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BW8" s="1" t="s">
+      <c r="BY8" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="BZ8" s="1">
+      <c r="CB8" s="1">
         <v>90</v>
       </c>
-      <c r="CA8" s="1" t="s">
+      <c r="CC8" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="CB8" s="1">
+      <c r="CD8" s="1">
         <v>50</v>
       </c>
-      <c r="CE8" s="1" t="s">
+      <c r="CG8" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="9" spans="1:86" ht="323">
+    <row r="9" spans="1:88" ht="323">
       <c r="A9" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="2">
+        <v>43620</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="BS9" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="BT9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BU9" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="BY9" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="2">
-        <v>43620</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="BQ9" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="BR9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BS9" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="BW9" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="BY9" s="1">
+      <c r="CA9" s="1">
         <v>800</v>
       </c>
-      <c r="BZ9" s="1">
+      <c r="CB9" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:86" ht="388">
+    <row r="10" spans="1:88" ht="388">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>43545</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="N10" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="O10" s="9" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="11" spans="1:86" ht="85">
+    <row r="11" spans="1:88" ht="85">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>43801</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="5"/>
+      <c r="J11" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="9"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="1:86" ht="238">
+    <row r="12" spans="1:88" ht="238">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>43843</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="L12" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="6"/>
+      <c r="N12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="11" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:86" ht="136.5" customHeight="1">
+    <row r="13" spans="1:88" ht="136.5" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>43643</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="L13" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M13" s="9" t="s">
+      <c r="N13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="AW13" s="1" t="s">
+      <c r="AY13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AX13" s="1" t="s">
+      <c r="AZ13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AZ13" s="1">
+      <c r="BB13" s="1">
         <v>5</v>
       </c>
-      <c r="BD13" s="1" t="s">
+      <c r="BF13" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="14" spans="1:86" ht="187">
+    <row r="14" spans="1:88" ht="187">
       <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>43684</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="L14" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M14" s="9" t="s">
+      <c r="N14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="AW14" s="1" t="s">
+      <c r="AY14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AX14" s="1" t="s">
+      <c r="AZ14" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BA14" s="1">
+      <c r="BC14" s="1">
         <v>24</v>
       </c>
-      <c r="BD14" s="1" t="s">
+      <c r="BF14" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="15" spans="1:86" ht="238">
+    <row r="15" spans="1:88" ht="238">
       <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="D15" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>43573</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M15" s="11" t="s">
+      <c r="N15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="11" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:86" ht="238">
+    <row r="16" spans="1:88" ht="238">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>43648</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="N16" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="M16" s="9" t="s">
+      <c r="O16" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="AW16" s="1" t="s">
+      <c r="AY16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AX16" s="1" t="s">
+      <c r="AZ16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BD16" s="1" t="s">
+      <c r="BF16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BE16" s="1" t="s">
+      <c r="BG16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BF16" s="1" t="s">
+      <c r="BH16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BI16" s="1" t="s">
+      <c r="BK16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BJ16" s="1" t="s">
+      <c r="BL16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BM16" s="1" t="s">
+      <c r="BO16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BN16" s="1" t="s">
+      <c r="BP16" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:86" ht="136">
+    <row r="17" spans="1:88" ht="136">
       <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>43865</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="N17" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="O17" s="11" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="1:86" ht="289">
+    <row r="18" spans="1:88" ht="289">
       <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="D18" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>43775</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="N18" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="O18" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="S18" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="AD18" s="1" t="s">
+      <c r="U18" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AF18" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="AJ18" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="BD18" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="BQ18" s="1" t="s">
+      <c r="AL18" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BF18" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BS18" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="19" spans="1:86" ht="136">
+    <row r="19" spans="1:88" ht="136">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <v>43801</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="L19" s="8"/>
-      <c r="M19" s="9"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="9"/>
     </row>
-    <row r="20" spans="1:86" ht="340">
+    <row r="20" spans="1:88" ht="340">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <v>43803</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="L20" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="AD20" s="1" t="s">
+      <c r="N20" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AF20" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="AJ20" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="BQ20" s="1" t="s">
+      <c r="AL20" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BS20" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="21" spans="1:86" ht="204">
+    <row r="21" spans="1:88" ht="204">
       <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="D21" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <v>43648</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="L21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="AD21" s="1" t="s">
+      <c r="N21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AF21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AJ21" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="BQ21" s="1" t="s">
+      <c r="AL21" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BS21" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="22" spans="1:86" ht="204">
+    <row r="22" spans="1:88" ht="204">
       <c r="A22" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="D22" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <v>43621</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="L22" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M22" s="9" t="s">
+      <c r="N22" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="AC22" s="1" t="s">
+      <c r="U22" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE22" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="AD22" s="1" t="s">
+      <c r="AF22" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="AJ22" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="BQ22" s="1" t="s">
+      <c r="AL22" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BS22" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="23" spans="1:86" ht="68">
+    <row r="23" spans="1:88" ht="68">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H23" s="2">
         <v>43802</v>
       </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="5"/>
+      <c r="J23" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="9"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="9"/>
     </row>
-    <row r="24" spans="1:86" ht="182.25" customHeight="1">
+    <row r="24" spans="1:88" ht="182.25" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H24" s="2">
         <v>43896</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="I24" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="L24" s="8" t="s">
+      <c r="N24" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="M24" s="9" t="s">
+      <c r="O24" s="9" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="25" spans="1:86" ht="51">
+    <row r="25" spans="1:88" ht="51">
       <c r="A25" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="4"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="9"/>
-      <c r="O25" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="P25" s="1">
+      <c r="I25" s="4"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="9"/>
+      <c r="Q25" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="R25" s="1">
         <v>20</v>
       </c>
-      <c r="Q25" s="26" t="s">
+      <c r="S25" s="26" t="s">
         <v>352</v>
       </c>
-      <c r="S25" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="V25" s="1">
+      <c r="U25" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="X25" s="1">
         <v>5</v>
       </c>
-      <c r="W25" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="Y25" s="1">
+      <c r="Y25" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AA25" s="1">
         <v>5</v>
       </c>
-      <c r="Z25" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB25" s="1">
+      <c r="AB25" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AD25" s="1">
         <v>5</v>
       </c>
-      <c r="AD25" s="1" t="s">
+      <c r="AF25" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="AF25" s="1">
+      <c r="AH25" s="1">
         <v>5</v>
       </c>
-      <c r="AG25" s="1">
+      <c r="AI25" s="1">
         <v>24</v>
       </c>
-      <c r="AH25" s="1">
+      <c r="AJ25" s="1">
         <v>100</v>
       </c>
-      <c r="AI25" s="1">
+      <c r="AK25" s="1">
         <v>400</v>
       </c>
-      <c r="AJ25" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="AK25" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="AM25" s="1">
+      <c r="AL25" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AM25" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AO25" s="1">
         <v>5</v>
       </c>
-      <c r="AN25" s="1">
+      <c r="AP25" s="1">
         <v>5</v>
       </c>
-      <c r="AO25" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="AQ25" s="1">
+      <c r="AQ25" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AS25" s="1">
         <v>5</v>
       </c>
-      <c r="AR25" s="1">
+      <c r="AT25" s="1">
         <v>5</v>
       </c>
-      <c r="AS25" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="AU25" s="1">
+      <c r="AU25" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AW25" s="1">
         <v>5</v>
       </c>
-      <c r="AV25" s="1">
+      <c r="AX25" s="1">
         <v>5</v>
       </c>
-      <c r="AX25" s="1" t="s">
+      <c r="AZ25" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="AZ25" s="1">
+      <c r="BB25" s="1">
         <v>5</v>
       </c>
-      <c r="BA25" s="1">
+      <c r="BC25" s="1">
         <v>24</v>
       </c>
-      <c r="BB25" s="1">
+      <c r="BD25" s="1">
         <v>100</v>
       </c>
-      <c r="BC25" s="1">
+      <c r="BE25" s="1">
         <v>400</v>
       </c>
-      <c r="BD25" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="BE25" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="BG25" s="1">
+      <c r="BF25" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BG25" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BI25" s="1">
         <v>5</v>
       </c>
-      <c r="BH25" s="1">
+      <c r="BJ25" s="1">
         <v>5</v>
       </c>
-      <c r="BI25" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="BK25" s="1">
+      <c r="BK25" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BM25" s="1">
         <v>5</v>
       </c>
-      <c r="BL25" s="1">
+      <c r="BN25" s="1">
         <v>5</v>
       </c>
-      <c r="BM25" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="BO25" s="1">
+      <c r="BO25" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BQ25" s="1">
         <v>5</v>
       </c>
-      <c r="BP25" s="1">
+      <c r="BR25" s="1">
         <v>5</v>
       </c>
-      <c r="BQ25" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="BR25" s="1" t="s">
+      <c r="BS25" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BT25" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BS25" s="1" t="s">
+      <c r="BU25" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="BT25" s="1" t="s">
+      <c r="BV25" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="BU25" s="1">
+      <c r="BW25" s="1">
         <v>0.7</v>
       </c>
-      <c r="BV25" s="1" t="s">
+      <c r="BX25" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="BW25" s="1" t="s">
+      <c r="BY25" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="BX25" s="1">
-        <v>5</v>
-      </c>
-      <c r="BY25" s="1">
-        <v>800</v>
       </c>
       <c r="BZ25" s="1">
         <v>5</v>
       </c>
-      <c r="CA25" s="1" t="s">
-        <v>357</v>
+      <c r="CA25" s="1">
+        <v>800</v>
       </c>
       <c r="CB25" s="1">
         <v>5</v>
       </c>
-      <c r="CC25" s="1">
-        <v>800</v>
+      <c r="CC25" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="CD25" s="1">
         <v>5</v>
       </c>
-      <c r="CE25" s="1" t="s">
-        <v>358</v>
+      <c r="CE25" s="1">
+        <v>800</v>
       </c>
       <c r="CF25" s="1">
         <v>5</v>
       </c>
-      <c r="CG25" s="1">
+      <c r="CG25" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="CH25" s="1">
+        <v>5</v>
+      </c>
+      <c r="CI25" s="1">
         <v>800</v>
       </c>
-      <c r="CH25" s="1">
+      <c r="CJ25" s="1">
         <v>5</v>
       </c>
     </row>

--- a/app/data/wto_proposal_settings_master.xlsx
+++ b/app/data/wto_proposal_settings_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kat/GitHub/SubsidyExplorer/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9517B7-4F7A-8846-807E-8B77D8DA24E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9FDA4B-6B04-A940-8977-997AC06F4C60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="401">
   <si>
     <t>proposal</t>
   </si>
@@ -903,9 +903,6 @@
     <t>Canada</t>
   </si>
   <si>
-    <t>RD/TN/Rl/121</t>
-  </si>
-  <si>
     <t>Canada - Overfishing and overcapacity</t>
   </si>
   <si>
@@ -936,17 +933,42 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">(Need to add the assumptions: we need to decide whether to use the RAM legacy database or the Costello study. Also what treatment the stocks outside those databases will receive. This decision will determe the level of ambition) </t>
+  </si>
+  <si>
+    <t>RD/TN/RL/125</t>
+  </si>
+  <si>
+    <t>LDCs</t>
+  </si>
+  <si>
+    <t>LDC Group Fisheries Subsidies Text Proposal</t>
+  </si>
+  <si>
+    <t>This unofficial room document circulated at the request of Chad on behalf of LDC Group</t>
+  </si>
+  <si>
+    <t>Scope: Exclusion of Territorial waters
+IUU: Coastal, Subzidizing members and RFMO/A determination. Reference to international practices instead of international law. Prohibition is not permanent. Commitment to notify laws and regulation. Transparency is good. No specific flexibilities for LDCs except for the transitional period
+Overfished: Simple approach reference to best scientific evidence available and a green box (monitoring and enforcement, management, health, safety, training, disaster and social welfare). No specific flexibilities for LDCs except for the transitional period
+OFOC: Applied only to large scale (not defined). Includes prohibition subsidies fishing BNJ (high seas). Exception to LDCs
+Transition: A period for developing countries and LDCs to implement with possibility for extension</t>
+  </si>
+  <si>
+    <t>Prohibition of subsidies to OFOC shall not apply to LDCs. Transition period for LDC once LDCs graduate from that category of countries.  Transition period for developing countries and for LDCs, with posibiulity of extension</t>
+  </si>
+  <si>
+    <t>TN/RL/GEN/200/Rev1</t>
+  </si>
+  <si>
+    <t>For prohibitions on subsidies supporting IUU fishing, subsidies shall be allowed for developing countries and LDC small scale fishing 1) within their own territorial waters, and 2) small scale fishing in their own EEZs and RFMO for a transition period of 7 years.   For prohibitions on subsidies for fishing on overfished stocks, subsidies shall be allowed for 1) fishing in their own territorial waters, or 2) fishing in their own EEZs for a transition period of 2 years. For prohibitions on subsidies OFOC, subsidies shall be allowed for LDC Members. For developing countries exemtion of fishing in the territorial waters. For fishing in the EEZ and RFMO/A areas prohibition applies if the following is met: i) GNI per capita crosses US$ 5000 (World Bank) (based on constant $2010) for three consecutive years;
+ii) their individual share exceeds 2% of the annual global marine capture;
+iii) they engage in distant water fishing (if normally fishes in a FAO area);
+iv) the contribution from Agriculture, Forestry and Fishing in their national GDP (World Bank) is less than 10% for three consecutive years.</t>
+  </si>
+  <si>
     <r>
-      <t>All capacity-enhancing subsidies as defined by Sumaila et al. 2019 would be assumed to be prohibited to vessels satisfying at least</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">1) Exclusion of territorial waters for all members. Is not possible to make the distinction between territorial water's and the remainder of an EEZ in the tool's dataset, </t>
     </r>
     <r>
       <rPr>
@@ -956,16 +978,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>two</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>the assumtion is that is applied to all EEZ</t>
     </r>
     <r>
       <rPr>
@@ -975,7 +988,417 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">of the following characteristics: 1) total length of more than 24 meters; 2) gross tonnage of more than 100 GT; 3) engine power of more than 130 kW. </t>
+      <t>. 2) Industrial Fishing on IUU in EEZ and RFMO/A 7 year transition period. 3) Industrial fishing overfished stocks transition period of 2 years. 4) Prohibition in EEZ and RFMO/A if: i) above GNI per capital $5000, ii) above 2% of global marine capture, iii) DWFishing, iv) GDP for Ag, Forrestry and Fisheries less than 10% (3 years)</t>
+    </r>
+  </si>
+  <si>
+    <t>RD/TN/RL/112/Rev.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subsidies for subsistence fishing shall not be prohibited. Transition period for developing countries and LDCs 2022, 2024 and 2026 to be negotiated. No transition period for developing and LDCs that have subtantial global marine capture. During the transition period subsidies for territorial waters are not prohibited. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No text to model. Will include as a reference document. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data does not exist to model. Will include as a reference document. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not modeled. Will include as a reference document. </t>
+  </si>
+  <si>
+    <t>India - S&amp;DT</t>
+  </si>
+  <si>
+    <t>Members notification to the WTO are replace by Sumaila et al. 2019 global subsidies estimates by country. (are there any other assumptions that can be made? Here as the case with the negative approach proposals and Overfihsed stocks we need to decide whether to use the RAM legacy database or the Costello study. Also what treatment the stocks outside those databases will receive. This decision will determe the level of ambition. (is it possible to simulate in this case the precautinary principle?)</t>
+  </si>
+  <si>
+    <t>Call for general prohibiting subsidies that contribute to overcapacity and overfishing. However, it allows for subsidies if the subsidising Member can demonstrate that the stock(s) targeted by the subsidy recipient are managed on the based on the best publically available scientific evidence taking into account the following elements: 1) scientific stock assessments; 2) legal institutions for resource management (i.e. vessel registration and fishery permits); 3) specific conservation and management measures for fish stocks (i.e. input, output, and technical controls taking account of fishery status); 4) monitoring, control and surveillance measures. It also provides a list of subsidies that shall be deemed not to be prohibited. Includes a reference to the precautinary principle to be included in a preamble. Prohibition should not apply to subsistance fishing.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) All capacity-enhancing subsidies are prohibited in areas classified as "disputed" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">in the Marine Regions' Maritime Boundaries World EEZ dataset (v10). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2) Most ambitious interpretation of the possible effects of the proposal. 3) Materialy impossible to model non-existing agreements to subsidize in disputed areas.                                                                                                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Disclaimer: We recognize that disputed areas are a political subject and our interpretation of this text is not meant to imply the expression of any opinion whatsoever concerning the status of any country, territory, city or area or of its authorities, or concerning the delimitation of its frontier or boundaries. </t>
+    </r>
+  </si>
+  <si>
+    <t>model_details_assumptions</t>
+  </si>
+  <si>
+    <t>title_tool</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <r>
+      <t>1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, port, or market Member states. 2) No publically available data exist for most flag and subsidizing Member states, nor for coastal, port, or market Membe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>r states</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings 4) No proportionality or the duration of prohibition is considered. </t>
+    </r>
+  </si>
+  <si>
+    <t>IUU1, IUU2, IUU3, IUU4, IUU5, IUU6</t>
+  </si>
+  <si>
+    <t>DISPUTE</t>
+  </si>
+  <si>
+    <t>iuu_sdt_ldc</t>
+  </si>
+  <si>
+    <t>iuu_sdt_what_ldc</t>
+  </si>
+  <si>
+    <t>iuu_sdt_time_delay_ldc</t>
+  </si>
+  <si>
+    <t>iuu_sdt_developing</t>
+  </si>
+  <si>
+    <t>iuu_sdt_what_developing</t>
+  </si>
+  <si>
+    <t>iuu_sdt_time_delay_developing</t>
+  </si>
+  <si>
+    <t>iuu_sdt_sve</t>
+  </si>
+  <si>
+    <t>iuu_sdt_what_sve</t>
+  </si>
+  <si>
+    <t>iuu_sdt_time_delay_sve</t>
+  </si>
+  <si>
+    <t>oa_tonnage_cutoff</t>
+  </si>
+  <si>
+    <t>oa_engine_cutoff</t>
+  </si>
+  <si>
+    <t>oa_sdt_ldc</t>
+  </si>
+  <si>
+    <t>oa_sdt_what_ldc</t>
+  </si>
+  <si>
+    <t>oa_sdt_hs_cutoff_ldc</t>
+  </si>
+  <si>
+    <t>oa_sdt_time_delay_ldc</t>
+  </si>
+  <si>
+    <t>oa_sdt_developing</t>
+  </si>
+  <si>
+    <t>oa_sdt_what_developing</t>
+  </si>
+  <si>
+    <t>oa_sdt_hs_cutoff_developing</t>
+  </si>
+  <si>
+    <t>oa_sdt_time_delay_developing</t>
+  </si>
+  <si>
+    <t>oa_sdt_sve</t>
+  </si>
+  <si>
+    <t>oa_sdt_what_sve</t>
+  </si>
+  <si>
+    <t>oa_sdt_hs_cutoff_sve</t>
+  </si>
+  <si>
+    <t>oa_sdt_time_delay_sve</t>
+  </si>
+  <si>
+    <t>overcap_tonnage_cutoff</t>
+  </si>
+  <si>
+    <t>overcap_engine_cutoff</t>
+  </si>
+  <si>
+    <t>overcap_sdt_ldc</t>
+  </si>
+  <si>
+    <t>overcap_sdt_what_ldc</t>
+  </si>
+  <si>
+    <t>overcap_sdt_hs_cutoff_ldc</t>
+  </si>
+  <si>
+    <t>overcap_sdt_time_delay_ldc</t>
+  </si>
+  <si>
+    <t>overcap_sdt_developing</t>
+  </si>
+  <si>
+    <t>overcap_sdt_what_developing</t>
+  </si>
+  <si>
+    <t>overcap_sdt_hs_cutoff_developing</t>
+  </si>
+  <si>
+    <t>overcap_sdt_time_delay_developing</t>
+  </si>
+  <si>
+    <t>overcap_sdt_sve</t>
+  </si>
+  <si>
+    <t>overcap_sdt_what_sve</t>
+  </si>
+  <si>
+    <t>overcap_sdt_hs_cutoff_sve</t>
+  </si>
+  <si>
+    <t>overcap_sdt_time_delay_sve</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>THREE</t>
+  </si>
+  <si>
+    <t>CAPTURE</t>
+  </si>
+  <si>
+    <t>PERCENT_SUBS</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>IUU1, IUU2, IUU3, IUU4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Scope: 1) Exclusion of territorial waters for all members. Is not possible to make the distinction between territorial water's and the remainder of an EEZ in the tool's dataset, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the assumtion is that is applied to all EEZ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. On IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal Member. The possible effects is a conservative interpretation of this text. 3) No proportionality or the duration of prohibition is considered. On Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) To model the proposal we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy stock assessment database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy stock assessment database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. OFOC: 1) Prohibition of subsidies to large scale and in the high seas. General Transition period: 1) for implementation to LDC and developing countries</t>
+    </r>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>Facilitator's Proposal - IUU</t>
+  </si>
+  <si>
+    <t>EU - IUU</t>
+  </si>
+  <si>
+    <t>LDC - Full text</t>
+  </si>
+  <si>
+    <t>US and others -  Cap</t>
+  </si>
+  <si>
+    <t>China - Cap</t>
+  </si>
+  <si>
+    <t>Morocco - Industrial fishing</t>
+  </si>
+  <si>
+    <t>New Zealand/Iceland - Overfishing and overcapacity</t>
+  </si>
+  <si>
+    <t>ACP - Overfishing and overcapacity</t>
+  </si>
+  <si>
+    <t>ACP - Overfishing and overcapacity (revised)</t>
+  </si>
+  <si>
+    <t>US and others -  Flagging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT MODELED YET - This is a revised proposal and contains new elements. </t>
+  </si>
+  <si>
+    <t>OA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEED TO FIGURE OUT WHAT THIS SAYS ABOUT TERRIORIAL WATERS - Our interpretation of this is a conservative one. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) There is uncertainty  regarding the status of many fish stocks. 2) To model the proposal we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy stock assessment database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy stock assessment database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambigious about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) There is uncertainty  regarding the status of many fish stocks. 2) To model the proposal we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy stock assessment database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy stock assessment database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4)The proposal is ambigious about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is not possible to make the distinction between territorial water's and the remainder of an EEZ in the tool's dataset, the assumtion is that is applied to all EEZ.</t>
+    </r>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONE - To be modeled using the parameters of overfished stocks. </t>
+  </si>
+  <si>
+    <t>BEST</t>
+  </si>
+  <si>
+    <t>ONE</t>
+  </si>
+  <si>
+    <t>ernesto_notes</t>
+  </si>
+  <si>
+    <t>LDC new proposal includes 3 pillars of prohibiion (IUU, Overfished and OFOC) and S&amp;DT. We might need to consider a new section or include it in Other. I don't think we would like to separate or divide the proposal as we would like to see the effect of the proposal as a whole.</t>
+  </si>
+  <si>
+    <t>summary_html</t>
+  </si>
+  <si>
+    <t>&lt;b&gt; IUU:  &lt;/b&gt;&lt;/br&gt;  None. &lt;/br&gt; &lt;b&gt; Overfished:  &lt;/b&gt;&lt;/br&gt; None. &lt;/br&gt; &lt;b&gt; OFOC:  &lt;/b&gt;&lt;/br&gt; All capacity enhancing subsidies are prohibited to vessels fishing in disputed waters. &lt;/br&gt; &lt;b&gt; S&amp;DT:  &lt;/b&gt;&lt;/br&gt; None.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt; IUU:  &lt;/b&gt;&lt;/br&gt;  Determination made by: &lt;ul&gt;&lt;li&gt;RMFO/A lists&lt;/li&gt;&lt;li&gt;Flag Member states&lt;/li&gt;&lt;li&gt;Coastal Member states&lt;/li&gt;&lt;li&gt;Subsidizing Member states&lt;/li&gt;&lt;/ul&gt; &lt;/br&gt; &lt;b&gt; Overfished:  &lt;/b&gt;&lt;/br&gt; Overfished stock determination made by best scientific evidence available: &lt;ul&gt;&lt;li&gt; B/Bmsy &lt; 1  (RAM Legacy stock assessment database) &lt;/li&gt;&lt;/ul&gt; Subsidies to fishing in territorial waters is allowed. &lt;/br&gt; &lt;b&gt; OFOC:  &lt;/b&gt;&lt;/br&gt; All capacity enhancing subsidies are prohibited to vessels meeting any of the following characteristics: &lt;ul&gt;&lt;li&gt;fishing on the high seas&lt;/li&gt;&lt;li&gt; &gt; 24m in length&lt;/li&gt;&lt;li&gt; &gt; 100 gross tons&lt;/li&gt;&lt;/ul&gt; Subsidies to fishing in territorial waters is allowed. &lt;/br&gt; &lt;b&gt; S&amp;DT:  &lt;/b&gt;&lt;/br&gt;&lt;i&gt;LDCs  :&lt;/i&gt; Transition period of X years for all prohibitions; excluded from OFOC prohibitions. &lt;/br&gt; &lt;i&gt;Developing :&lt;/i&gt; Transition period of Y years for all prohibitions. &lt;/br&gt; &lt;i&gt;SVEs :&lt;/i&gt; None.</t>
+  </si>
+  <si>
+    <t>EX_TER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transition period missing; need to figure out more details on what this proposal says about territorial waters. </t>
+  </si>
+  <si>
+    <t>Missing time delay. Otherwise Done.</t>
+  </si>
+  <si>
+    <t>updated revision</t>
+  </si>
+  <si>
+    <t>double check this is working correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing "best of" option. Also check that tiering is working. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not incorporated… Need to add landings option? </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> basically the same as the cap. Different structure, tiers and flexibilities. It loks like is all based on global marine capture. There are no values as the de minimis will be the (x) of the average of landed value for 3 years. What should we use for the (x) value? a scale bar as we use in other cases?) Also there is an exception for 12 miles for all developing countries</t>
+    </r>
+  </si>
+  <si>
+    <t>RD/TN/RL/121</t>
+  </si>
+  <si>
+    <t>Need to pick a OA definition</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Is this generally interpreted as including distant water fishing? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Ernesto: his proposal covers highseas and fishing in other members EEZs. Is it possible to model that?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All capacity-enhancing subsidies as defined by Sumaila et al. 2019 would be assumed to be prohibited to vessels satisfying the following characteristics: 1) total length of more than 24 meters; 2) gross tonnage of more than 100 GT; 3) engine power of more than 130 kW. </t>
     </r>
     <r>
       <rPr>
@@ -1009,480 +1432,31 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">1) The following types of subsidies as classified by Sumaila et al. 2019 are presumed to be prohibited: i) boat construction and renovation, ii) fuel. 2) All vessels flagged to LDC Members are exempted, as are vessels flagged to developing country Members that only fish within their own EEZs. 3) Users can select a different set of subsidy types below. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Is this generally interpreted as including distant water fishing? As I have it now it does not. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>This proposal covers highseas and fishing in other members EEZs. Is it possible to model that?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">(Need to add the assumptions: we need to decide whether to use the RAM legacy database or the Costello study. Also what treatment the stocks outside those databases will receive. This decision will determe the level of ambition) </t>
-  </si>
-  <si>
-    <t>RD/TN/RL/125</t>
-  </si>
-  <si>
-    <t>LDCs</t>
-  </si>
-  <si>
-    <t>LDC Group Fisheries Subsidies Text Proposal</t>
-  </si>
-  <si>
-    <t>This unofficial room document circulated at the request of Chad on behalf of LDC Group</t>
-  </si>
-  <si>
-    <t>Scope: Exclusion of Territorial waters
-IUU: Coastal, Subzidizing members and RFMO/A determination. Reference to international practices instead of international law. Prohibition is not permanent. Commitment to notify laws and regulation. Transparency is good. No specific flexibilities for LDCs except for the transitional period
-Overfished: Simple approach reference to best scientific evidence available and a green box (monitoring and enforcement, management, health, safety, training, disaster and social welfare). No specific flexibilities for LDCs except for the transitional period
-OFOC: Applied only to large scale (not defined). Includes prohibition subsidies fishing BNJ (high seas). Exception to LDCs
-Transition: A period for developing countries and LDCs to implement with possibility for extension</t>
-  </si>
-  <si>
-    <t>Prohibition of subsidies to OFOC shall not apply to LDCs. Transition period for LDC once LDCs graduate from that category of countries.  Transition period for developing countries and for LDCs, with posibiulity of extension</t>
-  </si>
-  <si>
-    <t>TN/RL/GEN/200/Rev1</t>
-  </si>
-  <si>
-    <t>For prohibitions on subsidies supporting IUU fishing, subsidies shall be allowed for developing countries and LDC small scale fishing 1) within their own territorial waters, and 2) small scale fishing in their own EEZs and RFMO for a transition period of 7 years.   For prohibitions on subsidies for fishing on overfished stocks, subsidies shall be allowed for 1) fishing in their own territorial waters, or 2) fishing in their own EEZs for a transition period of 2 years. For prohibitions on subsidies OFOC, subsidies shall be allowed for LDC Members. For developing countries exemtion of fishing in the territorial waters. For fishing in the EEZ and RFMO/A areas prohibition applies if the following is met: i) GNI per capita crosses US$ 5000 (World Bank) (based on constant $2010) for three consecutive years;
-ii) their individual share exceeds 2% of the annual global marine capture;
-iii) they engage in distant water fishing (if normally fishes in a FAO area);
-iv) the contribution from Agriculture, Forestry and Fishing in their national GDP (World Bank) is less than 10% for three consecutive years.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1) Exclusion of territorial waters for all members. Is not possible to make the distinction between territorial water's and the remainder of an EEZ in the tool's dataset, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the assumtion is that is applied to all EEZ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. 2) Industrial Fishing on IUU in EEZ and RFMO/A 7 year transition period. 3) Industrial fishing overfished stocks transition period of 2 years. 4) Prohibition in EEZ and RFMO/A if: i) above GNI per capital $5000, ii) above 2% of global marine capture, iii) DWFishing, iv) GDP for Ag, Forrestry and Fisheries less than 10% (3 years)</t>
-    </r>
-  </si>
-  <si>
-    <t>RD/TN/RL/112/Rev.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subsidies for subsistence fishing shall not be prohibited. Transition period for developing countries and LDCs 2022, 2024 and 2026 to be negotiated. No transition period for developing and LDCs that have subtantial global marine capture. During the transition period subsidies for territorial waters are not prohibited. </t>
-  </si>
-  <si>
-    <r>
-      <t>Is</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> basically the same as the cap. Different structure, tiers and flexibilities. It loks like is all based on global marine capture. There are no values as the de minimis will be the (x) of the average of landed value for 3 years. What should we use for the (x) value? a scale bar as we use in other cases?) Also there is an exception for 12 miles for all developing countries</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">No text to model. Will include as a reference document. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Currently does nothing - working on adding in tonnage/engine power options. Note: there are a couple of definitions here that we don't have the data to model. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As written it specifies different S&amp;DT for developing country and LDC Members - will add this. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data does not exist to model. Will include as a reference document. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not modeled. Will include as a reference document. </t>
-  </si>
-  <si>
-    <t>India - S&amp;DT</t>
-  </si>
-  <si>
-    <t>Members notification to the WTO are replace by Sumaila et al. 2019 global subsidies estimates by country. (are there any other assumptions that can be made? Here as the case with the negative approach proposals and Overfihsed stocks we need to decide whether to use the RAM legacy database or the Costello study. Also what treatment the stocks outside those databases will receive. This decision will determe the level of ambition. (is it possible to simulate in this case the precautinary principle?)</t>
-  </si>
-  <si>
-    <t>Call for general prohibiting subsidies that contribute to overcapacity and overfishing. However, it allows for subsidies if the subsidising Member can demonstrate that the stock(s) targeted by the subsidy recipient are managed on the based on the best publically available scientific evidence taking into account the following elements: 1) scientific stock assessments; 2) legal institutions for resource management (i.e. vessel registration and fishery permits); 3) specific conservation and management measures for fish stocks (i.e. input, output, and technical controls taking account of fishery status); 4) monitoring, control and surveillance measures. It also provides a list of subsidies that shall be deemed not to be prohibited. Includes a reference to the precautinary principle to be included in a preamble. Prohibition should not apply to subsistance fishing.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1) All capacity-enhancing subsidies are prohibited in areas classified as "disputed" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">in the Marine Regions' Maritime Boundaries World EEZ dataset (v10). </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2) Most ambitious interpretation of the possible effects of the proposal. 3) Materialy impossible to model non-existing agreements to subsidize in disputed areas.                                                                                                        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Disclaimer: We recognize that disputed areas are a political subject and our interpretation of this text is not meant to imply the expression of any opinion whatsoever concerning the status of any country, territory, city or area or of its authorities, or concerning the delimitation of its frontier or boundaries. </t>
-    </r>
-  </si>
-  <si>
-    <t>model_details_assumptions</t>
-  </si>
-  <si>
-    <t>title_tool</t>
-  </si>
-  <si>
-    <t>public</t>
-  </si>
-  <si>
-    <r>
-      <t>1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, port, or market Member states. 2) No publically available data exist for most flag and subsidizing Member states, nor for coastal, port, or market Membe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>r states</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings 4) No proportionality or the duration of prohibition is considered. </t>
-    </r>
-  </si>
-  <si>
-    <t>IUU1, IUU2, IUU3, IUU4, IUU5, IUU6</t>
-  </si>
-  <si>
-    <t>DISPUTE</t>
-  </si>
-  <si>
-    <t>iuu_sdt_ldc</t>
-  </si>
-  <si>
-    <t>iuu_sdt_what_ldc</t>
-  </si>
-  <si>
-    <t>iuu_sdt_time_delay_ldc</t>
-  </si>
-  <si>
-    <t>iuu_sdt_developing</t>
-  </si>
-  <si>
-    <t>iuu_sdt_what_developing</t>
-  </si>
-  <si>
-    <t>iuu_sdt_time_delay_developing</t>
-  </si>
-  <si>
-    <t>iuu_sdt_sve</t>
-  </si>
-  <si>
-    <t>iuu_sdt_what_sve</t>
-  </si>
-  <si>
-    <t>iuu_sdt_time_delay_sve</t>
-  </si>
-  <si>
-    <t>oa_tonnage_cutoff</t>
-  </si>
-  <si>
-    <t>oa_engine_cutoff</t>
-  </si>
-  <si>
-    <t>oa_sdt_ldc</t>
-  </si>
-  <si>
-    <t>oa_sdt_what_ldc</t>
-  </si>
-  <si>
-    <t>oa_sdt_hs_cutoff_ldc</t>
-  </si>
-  <si>
-    <t>oa_sdt_time_delay_ldc</t>
-  </si>
-  <si>
-    <t>oa_sdt_developing</t>
-  </si>
-  <si>
-    <t>oa_sdt_what_developing</t>
-  </si>
-  <si>
-    <t>oa_sdt_hs_cutoff_developing</t>
-  </si>
-  <si>
-    <t>oa_sdt_time_delay_developing</t>
-  </si>
-  <si>
-    <t>oa_sdt_sve</t>
-  </si>
-  <si>
-    <t>oa_sdt_what_sve</t>
-  </si>
-  <si>
-    <t>oa_sdt_hs_cutoff_sve</t>
-  </si>
-  <si>
-    <t>oa_sdt_time_delay_sve</t>
-  </si>
-  <si>
-    <t>overcap_tonnage_cutoff</t>
-  </si>
-  <si>
-    <t>overcap_engine_cutoff</t>
-  </si>
-  <si>
-    <t>overcap_sdt_ldc</t>
-  </si>
-  <si>
-    <t>overcap_sdt_what_ldc</t>
-  </si>
-  <si>
-    <t>overcap_sdt_hs_cutoff_ldc</t>
-  </si>
-  <si>
-    <t>overcap_sdt_time_delay_ldc</t>
-  </si>
-  <si>
-    <t>overcap_sdt_developing</t>
-  </si>
-  <si>
-    <t>overcap_sdt_what_developing</t>
-  </si>
-  <si>
-    <t>overcap_sdt_hs_cutoff_developing</t>
-  </si>
-  <si>
-    <t>overcap_sdt_time_delay_developing</t>
-  </si>
-  <si>
-    <t>overcap_sdt_sve</t>
-  </si>
-  <si>
-    <t>overcap_sdt_what_sve</t>
-  </si>
-  <si>
-    <t>overcap_sdt_hs_cutoff_sve</t>
-  </si>
-  <si>
-    <t>overcap_sdt_time_delay_sve</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>THREE</t>
-  </si>
-  <si>
-    <t>CAPTURE</t>
-  </si>
-  <si>
-    <t>PERCENT_SUBS</t>
-  </si>
-  <si>
-    <t>VALUE</t>
-  </si>
-  <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>IUU1, IUU2, IUU3, IUU4</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Scope: 1) Exclusion of territorial waters for all members. Is not possible to make the distinction between territorial water's and the remainder of an EEZ in the tool's dataset, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the assumtion is that is applied to all EEZ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. On IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal Member. The possible effects is a conservative interpretation of this text. 3) No proportionality or the duration of prohibition is considered. On Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) To model the proposal we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy stock assessment database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy stock assessment database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. OFOC: 1) Prohibition of subsidies to large scale and in the high seas. General Transition period: 1) for implementation to LDC and developing countries</t>
-    </r>
-  </si>
-  <si>
-    <t>OA2</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>Facilitator's Proposal - IUU</t>
-  </si>
-  <si>
-    <t>EU - IUU</t>
-  </si>
-  <si>
-    <t>LDC - Full text</t>
-  </si>
-  <si>
-    <t>US and others -  Cap</t>
-  </si>
-  <si>
-    <t>China - Cap</t>
-  </si>
-  <si>
-    <t>Need to be applied as the disciplines on overfished stocks</t>
-  </si>
-  <si>
-    <t>Morocco - Industrial fishing</t>
-  </si>
-  <si>
-    <t>New Zealand/Iceland - Overfishing and overcapacity</t>
-  </si>
-  <si>
-    <t>ACP - Overfishing and overcapacity</t>
-  </si>
-  <si>
-    <t>ACP - Overfishing and overcapacity (revised)</t>
-  </si>
-  <si>
-    <t>US and others -  Flagging</t>
-  </si>
-  <si>
-    <t>Facilitator's Text - Overfished</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOT MODELED YET - This is a revised proposal and contains new elements. </t>
-  </si>
-  <si>
-    <t>OA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEED TO FIGURE OUT WHAT THIS SAYS ABOUT TERRIORIAL WATERS - Our interpretation of this is a conservative one. </t>
-  </si>
-  <si>
-    <t>Done - Our interpretation of this is similar to that provided for the Facilitator's working paper.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) There is uncertainty  regarding the status of many fish stocks. 2) To model the proposal we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy stock assessment database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy stock assessment database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambigious about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. </t>
-  </si>
-  <si>
-    <t>OA3</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1) There is uncertainty  regarding the status of many fish stocks. 2) To model the proposal we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy stock assessment database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy stock assessment database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4)The proposal is ambigious about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>is not possible to make the distinction between territorial water's and the remainder of an EEZ in the tool's dataset, the assumtion is that is applied to all EEZ.</t>
-    </r>
-  </si>
-  <si>
-    <t>DONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOSTLY DONE - Time delay to be incorporated. </t>
-  </si>
-  <si>
-    <t>FIX CAP IN MORNING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DONE - To be modeled using the parameters of overfished stocks. </t>
-  </si>
-  <si>
-    <t>BEST</t>
-  </si>
-  <si>
-    <t>ONE</t>
-  </si>
-  <si>
-    <t>kat_notes</t>
-  </si>
-  <si>
-    <t>ernesto_notes</t>
-  </si>
-  <si>
-    <t>LDC new proposal includes 3 pillars of prohibiion (IUU, Overfished and OFOC) and S&amp;DT. We might need to consider a new section or include it in Other. I don't think we would like to separate or divide the proposal as we would like to see the effect of the proposal as a whole.</t>
-  </si>
-  <si>
-    <t>summary_html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transition period missing; need to figure out what this proposal says about territorial waters. </t>
-  </si>
-  <si>
-    <t>&lt;b&gt; IUU:  &lt;/b&gt;&lt;/br&gt;  None. &lt;/br&gt; &lt;b&gt; Overfished:  &lt;/b&gt;&lt;/br&gt; None. &lt;/br&gt; &lt;b&gt; OFOC:  &lt;/b&gt;&lt;/br&gt; All capacity enhancing subsidies are prohibited to vessels fishing in disputed waters. &lt;/br&gt; &lt;b&gt; S&amp;DT:  &lt;/b&gt;&lt;/br&gt; None.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt; IUU:  &lt;/b&gt;&lt;/br&gt;  Determination made by: &lt;ul&gt;&lt;li&gt;RMFO/A lists&lt;/li&gt;&lt;li&gt;Flag Member states&lt;/li&gt;&lt;li&gt;Coastal Member states&lt;/li&gt;&lt;li&gt;Subsidizing Member states&lt;/li&gt;&lt;/ul&gt; &lt;/br&gt; &lt;b&gt; Overfished:  &lt;/b&gt;&lt;/br&gt; Overfished stock determination made by best scientific evidence available: &lt;ul&gt;&lt;li&gt; B/Bmsy &lt; 1  (RAM Legacy stock assessment database) &lt;/li&gt;&lt;/ul&gt; Subsidies to fishing in territorial waters is allowed. &lt;/br&gt; &lt;b&gt; OFOC:  &lt;/b&gt;&lt;/br&gt; All capacity enhancing subsidies are prohibited to vessels meeting any of the following characteristics: &lt;ul&gt;&lt;li&gt;fishing on the high seas&lt;/li&gt;&lt;li&gt; &gt; 24m in length&lt;/li&gt;&lt;li&gt; &gt; 100 gross tons&lt;/li&gt;&lt;/ul&gt; Subsidies to fishing in territorial waters is allowed. &lt;/br&gt; &lt;b&gt; S&amp;DT:  &lt;/b&gt;&lt;/br&gt;&lt;i&gt;LDCs  :&lt;/i&gt; Transition period of X years for all prohibitions; excluded from OFOC prohibitions. &lt;/br&gt; &lt;i&gt;Developing :&lt;/i&gt; Transition period of Y years for all prohibitions. &lt;/br&gt; &lt;i&gt;SVEs :&lt;/i&gt; None.</t>
-  </si>
-  <si>
-    <t>EX_TER</t>
-  </si>
-  <si>
-    <t>LENGTH, EX_TER</t>
+    <t xml:space="preserve">Note: there are a couple of definitions here that we don't have the data to model. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As written it specifies different S&amp;DT for developing country and LDC Members </t>
+  </si>
+  <si>
+    <t>DOMESTIC</t>
+  </si>
+  <si>
+    <t>1) The following types of subsidies as classified by Sumaila et al. 2019 are presumed to be prohibited: i) boat construction and renovation, ii) fuel. 2) All vessels flagged to LDC Members are exempted, as are vessels flagged to developing country Members that only fish within their own EEZs.</t>
+  </si>
+  <si>
+    <t>Not added… Need to add new scope?</t>
+  </si>
+  <si>
+    <t>Facilitator's text - Overfished</t>
+  </si>
+  <si>
+    <t>Our interpretation of this is similar to that provided for the Facilitator's working paper.</t>
+  </si>
+  <si>
+    <t>Not done… Need to figure this one out</t>
+  </si>
+  <si>
+    <t>kat_status</t>
   </si>
 </sst>
 </file>
@@ -1626,12 +1600,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1640,6 +1608,11 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri (Body)_x0000_"/>
     </font>
   </fonts>
@@ -2451,9 +2424,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CJ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BB2" sqref="BB2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -2481,16 +2454,16 @@
         <v>88</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>1</v>
@@ -2499,7 +2472,7 @@
         <v>130</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>2</v>
@@ -2511,13 +2484,13 @@
         <v>4</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="N1" s="16" t="s">
         <v>5</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="P1" s="13" t="s">
         <v>7</v>
@@ -2538,31 +2511,31 @@
         <v>12</v>
       </c>
       <c r="V1" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC1" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="AD1" s="13" t="s">
         <v>316</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="AB1" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="AC1" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="AD1" s="13" t="s">
-        <v>323</v>
       </c>
       <c r="AE1" s="13" t="s">
         <v>16</v>
@@ -2580,49 +2553,49 @@
         <v>20</v>
       </c>
       <c r="AJ1" s="13" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AK1" s="13" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AL1" s="13" t="s">
         <v>21</v>
       </c>
       <c r="AM1" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="AN1" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="AO1" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="AP1" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="AQ1" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="AR1" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="AS1" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="AT1" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="AN1" s="13" t="s">
+      <c r="AU1" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="AO1" s="13" t="s">
+      <c r="AV1" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="AP1" s="13" t="s">
+      <c r="AW1" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="AQ1" s="13" t="s">
+      <c r="AX1" s="13" t="s">
         <v>330</v>
-      </c>
-      <c r="AR1" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="AS1" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="AT1" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="AU1" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="AV1" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="AW1" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="AX1" s="13" t="s">
-        <v>337</v>
       </c>
       <c r="AY1" s="13" t="s">
         <v>26</v>
@@ -2640,49 +2613,49 @@
         <v>30</v>
       </c>
       <c r="BD1" s="13" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="BE1" s="13" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="BF1" s="13" t="s">
         <v>31</v>
       </c>
       <c r="BG1" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="BH1" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="BI1" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="BJ1" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="BK1" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="BL1" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="BM1" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="BN1" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="BH1" s="13" t="s">
+      <c r="BO1" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="BI1" s="13" t="s">
+      <c r="BP1" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="BJ1" s="13" t="s">
+      <c r="BQ1" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="BK1" s="13" t="s">
+      <c r="BR1" s="13" t="s">
         <v>344</v>
-      </c>
-      <c r="BL1" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="BM1" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="BN1" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="BO1" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="BP1" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="BQ1" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="BR1" s="13" t="s">
-        <v>351</v>
       </c>
       <c r="BS1" s="13" t="s">
         <v>36</v>
@@ -2747,118 +2720,118 @@
         <v>89</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H2" s="18">
         <v>43896</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AE2" s="13" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="AF2" s="13" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="AL2" s="13" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="AM2" s="13" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="AN2" s="13" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="AP2" s="13">
         <v>5</v>
       </c>
       <c r="AQ2" s="13" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="AR2" s="13" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="AT2" s="13">
         <v>3</v>
       </c>
       <c r="AU2" s="13" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AY2" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AZ2" s="13" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="BC2" s="13">
         <v>24</v>
       </c>
       <c r="BF2" s="13" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="BG2" s="13" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="BH2" s="13" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="BJ2" s="13">
         <v>5</v>
       </c>
       <c r="BK2" s="13" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="BL2" s="13" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="BN2" s="13">
         <v>3</v>
       </c>
       <c r="BO2" s="13" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="BS2" s="13" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:88" ht="136">
@@ -2869,10 +2842,10 @@
         <v>89</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>85</v>
@@ -2899,31 +2872,31 @@
         <v>251</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>55</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AY3" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:88" ht="170">
@@ -2933,8 +2906,11 @@
       <c r="B4" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="C4" s="12" t="s">
+        <v>371</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>91</v>
@@ -2949,7 +2925,7 @@
         <v>43801</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>92</v>
@@ -2964,28 +2940,28 @@
         <v>55</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="BS4" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:88" ht="119">
@@ -2995,8 +2971,11 @@
       <c r="B5" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="C5" s="12" t="s">
+        <v>371</v>
+      </c>
       <c r="D5" s="25" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>94</v>
@@ -3011,7 +2990,7 @@
         <v>43718</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>95</v>
@@ -3026,28 +3005,28 @@
         <v>55</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="BF5" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="BS5" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:88" ht="136">
@@ -3057,8 +3036,11 @@
       <c r="B6" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="C6" s="12" t="s">
+        <v>382</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>257</v>
@@ -3091,52 +3073,52 @@
         <v>253</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="X6" s="1">
         <v>5</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="AA6" s="1">
         <v>3</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="AD6" s="1">
         <v>5</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="BF6" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="BS6" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:88" ht="221">
@@ -3146,8 +3128,8 @@
       <c r="B7" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>383</v>
+      <c r="C7" s="12" t="s">
+        <v>371</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>98</v>
@@ -3180,22 +3162,22 @@
         <v>253</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="BF7" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="BS7" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:88" ht="272">
@@ -3205,8 +3187,8 @@
       <c r="B8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>385</v>
+      <c r="C8" s="12" t="s">
+        <v>384</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>68</v>
@@ -3221,7 +3203,7 @@
         <v>43657</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>70</v>
@@ -3238,35 +3220,44 @@
       <c r="O8" s="9" t="s">
         <v>151</v>
       </c>
+      <c r="U8" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="BF8" s="1" t="s">
+        <v>346</v>
+      </c>
       <c r="BS8" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="BT8" s="1" t="s">
         <v>61</v>
       </c>
       <c r="BU8" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="BV8" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="BX8" s="1" t="s">
         <v>73</v>
       </c>
       <c r="BY8" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="CB8" s="1">
         <v>90</v>
       </c>
       <c r="CC8" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="CD8" s="1">
         <v>50</v>
       </c>
       <c r="CG8" s="1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:88" ht="323">
@@ -3276,7 +3267,7 @@
       <c r="B9" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="12" t="s">
         <v>385</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -3292,7 +3283,7 @@
         <v>43620</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>78</v>
@@ -3309,17 +3300,26 @@
       <c r="O9" s="9" t="s">
         <v>260</v>
       </c>
+      <c r="U9" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="BF9" s="1" t="s">
+        <v>346</v>
+      </c>
       <c r="BS9" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="BT9" s="1" t="s">
         <v>80</v>
       </c>
       <c r="BU9" s="1" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="BY9" s="1" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="CA9" s="1">
         <v>800</v>
@@ -3335,8 +3335,11 @@
       <c r="B10" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>299</v>
+      <c r="C10" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>387</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>100</v>
@@ -3366,7 +3369,7 @@
         <v>271</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:88" ht="85">
@@ -3377,7 +3380,7 @@
         <v>99</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>101</v>
@@ -3411,11 +3414,14 @@
       <c r="B12" s="3" t="s">
         <v>99</v>
       </c>
+      <c r="C12" s="12" t="s">
+        <v>389</v>
+      </c>
       <c r="D12" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>277</v>
+        <v>388</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>55</v>
@@ -3427,20 +3433,20 @@
         <v>43843</v>
       </c>
       <c r="I12" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="L12" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="7" t="s">
         <v>55</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:88" ht="136.5" customHeight="1">
@@ -3450,8 +3456,11 @@
       <c r="B13" s="3" t="s">
         <v>99</v>
       </c>
+      <c r="C13" s="12" t="s">
+        <v>371</v>
+      </c>
       <c r="D13" s="1" t="s">
-        <v>286</v>
+        <v>390</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>103</v>
@@ -3483,6 +3492,12 @@
       <c r="O13" s="9" t="s">
         <v>262</v>
       </c>
+      <c r="U13" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>346</v>
+      </c>
       <c r="AY13" s="1" t="s">
         <v>61</v>
       </c>
@@ -3493,7 +3508,10 @@
         <v>5</v>
       </c>
       <c r="BF13" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
+      </c>
+      <c r="BS13" s="1" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:88" ht="187">
@@ -3503,8 +3521,11 @@
       <c r="B14" s="3" t="s">
         <v>99</v>
       </c>
+      <c r="C14" s="12" t="s">
+        <v>371</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>301</v>
+        <v>392</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>107</v>
@@ -3519,7 +3540,7 @@
         <v>43684</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>113</v>
@@ -3534,7 +3555,7 @@
         <v>55</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>284</v>
+        <v>391</v>
       </c>
       <c r="AY14" s="1" t="s">
         <v>61</v>
@@ -3545,8 +3566,14 @@
       <c r="BC14" s="1">
         <v>24</v>
       </c>
+      <c r="BD14" s="1">
+        <v>100</v>
+      </c>
+      <c r="BE14" s="1">
+        <v>130</v>
+      </c>
       <c r="BF14" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:88" ht="238">
@@ -3556,8 +3583,8 @@
       <c r="B15" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>369</v>
+      <c r="C15" s="12" t="s">
+        <v>389</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>109</v>
@@ -3572,7 +3599,7 @@
         <v>43573</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>111</v>
@@ -3587,7 +3614,7 @@
         <v>55</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:88" ht="238">
@@ -3597,8 +3624,11 @@
       <c r="B16" s="3" t="s">
         <v>99</v>
       </c>
+      <c r="C16" s="12" t="s">
+        <v>371</v>
+      </c>
       <c r="D16" s="1" t="s">
-        <v>302</v>
+        <v>393</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>115</v>
@@ -3613,7 +3643,7 @@
         <v>43648</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>116</v>
@@ -3628,34 +3658,40 @@
         <v>163</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>285</v>
+        <v>395</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="AY16" s="1" t="s">
         <v>64</v>
       </c>
       <c r="AZ16" s="1" t="s">
-        <v>57</v>
+        <v>345</v>
       </c>
       <c r="BF16" s="1" t="s">
-        <v>58</v>
+        <v>354</v>
       </c>
       <c r="BG16" s="1" t="s">
-        <v>59</v>
+        <v>354</v>
       </c>
       <c r="BH16" s="1" t="s">
-        <v>60</v>
+        <v>345</v>
       </c>
       <c r="BK16" s="1" t="s">
-        <v>59</v>
+        <v>354</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>60</v>
+        <v>394</v>
       </c>
       <c r="BO16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BP16" s="1" t="s">
-        <v>60</v>
+        <v>346</v>
+      </c>
+      <c r="BS16" s="1" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:88" ht="136">
@@ -3665,6 +3701,9 @@
       <c r="B17" s="3" t="s">
         <v>99</v>
       </c>
+      <c r="C17" s="12" t="s">
+        <v>396</v>
+      </c>
       <c r="D17" s="6" t="s">
         <v>272</v>
       </c>
@@ -3681,7 +3720,7 @@
         <v>43865</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>116</v>
@@ -3703,11 +3742,14 @@
       <c r="B18" s="3" t="s">
         <v>99</v>
       </c>
+      <c r="C18" s="12" t="s">
+        <v>389</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>55</v>
@@ -3728,31 +3770,13 @@
         <v>120</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="AE18" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="AF18" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="AL18" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="BF18" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="BS18" s="1" t="s">
-        <v>353</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:88" ht="136">
@@ -3763,7 +3787,7 @@
         <v>99</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>121</v>
@@ -3778,7 +3802,7 @@
         <v>43801</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>123</v>
@@ -3799,6 +3823,9 @@
       <c r="B20" s="3" t="s">
         <v>125</v>
       </c>
+      <c r="C20" s="12" t="s">
+        <v>389</v>
+      </c>
       <c r="D20" s="1" t="s">
         <v>166</v>
       </c>
@@ -3815,7 +3842,7 @@
         <v>43803</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>127</v>
@@ -3830,22 +3857,7 @@
         <v>55</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="AE20" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="AF20" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="AL20" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="BS20" s="1" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:88" ht="204">
@@ -3855,8 +3867,11 @@
       <c r="B21" s="3" t="s">
         <v>125</v>
       </c>
+      <c r="C21" s="12" t="s">
+        <v>389</v>
+      </c>
       <c r="D21" s="1" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>131</v>
@@ -3886,19 +3901,7 @@
         <v>55</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="AE21" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="AF21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL21" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="BS21" s="1" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:88" ht="204">
@@ -3908,8 +3911,11 @@
       <c r="B22" s="3" t="s">
         <v>125</v>
       </c>
+      <c r="C22" s="12" t="s">
+        <v>389</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>133</v>
@@ -3940,21 +3946,6 @@
       </c>
       <c r="O22" s="9" t="s">
         <v>275</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="AE22" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="AF22" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="AL22" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="BS22" s="1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:88" ht="68">
@@ -3965,7 +3956,7 @@
         <v>137</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>138</v>
@@ -3999,11 +3990,14 @@
       <c r="B24" s="3" t="s">
         <v>137</v>
       </c>
+      <c r="C24" s="12" t="s">
+        <v>399</v>
+      </c>
       <c r="D24" s="6" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>58</v>
@@ -4015,7 +4009,7 @@
         <v>43896</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>142</v>
@@ -4027,10 +4021,10 @@
         <v>170</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:88" ht="51">
@@ -4050,37 +4044,37 @@
       <c r="N25" s="8"/>
       <c r="O25" s="9"/>
       <c r="Q25" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="R25" s="1">
         <v>20</v>
       </c>
       <c r="S25" s="26" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="X25" s="1">
         <v>5</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AA25" s="1">
         <v>5</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AD25" s="1">
         <v>5</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="AH25" s="1">
         <v>5</v>
@@ -4095,10 +4089,10 @@
         <v>400</v>
       </c>
       <c r="AL25" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AM25" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AO25" s="1">
         <v>5</v>
@@ -4107,7 +4101,7 @@
         <v>5</v>
       </c>
       <c r="AQ25" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AS25" s="1">
         <v>5</v>
@@ -4116,7 +4110,7 @@
         <v>5</v>
       </c>
       <c r="AU25" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AW25" s="1">
         <v>5</v>
@@ -4125,7 +4119,7 @@
         <v>5</v>
       </c>
       <c r="AZ25" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="BB25" s="1">
         <v>5</v>
@@ -4140,10 +4134,10 @@
         <v>400</v>
       </c>
       <c r="BF25" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="BG25" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="BI25" s="1">
         <v>5</v>
@@ -4152,7 +4146,7 @@
         <v>5</v>
       </c>
       <c r="BK25" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="BM25" s="1">
         <v>5</v>
@@ -4161,7 +4155,7 @@
         <v>5</v>
       </c>
       <c r="BO25" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="BQ25" s="1">
         <v>5</v>
@@ -4170,16 +4164,16 @@
         <v>5</v>
       </c>
       <c r="BS25" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="BT25" s="1" t="s">
         <v>61</v>
       </c>
       <c r="BU25" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="BV25" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="BW25" s="1">
         <v>0.7</v>
@@ -4188,7 +4182,7 @@
         <v>84</v>
       </c>
       <c r="BY25" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="BZ25" s="1">
         <v>5</v>
@@ -4200,7 +4194,7 @@
         <v>5</v>
       </c>
       <c r="CC25" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="CD25" s="1">
         <v>5</v>
@@ -4212,7 +4206,7 @@
         <v>5</v>
       </c>
       <c r="CG25" s="1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="CH25" s="1">
         <v>5</v>

--- a/app/data/wto_proposal_settings_master.xlsx
+++ b/app/data/wto_proposal_settings_master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kat/GitHub/SubsidyExplorer/app/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kat/GitHub/SubsidyExplorer/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9FDA4B-6B04-A940-8977-997AC06F4C60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EA79C2-B49C-194B-A2FF-D662E23CBB6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3700" yWindow="840" windowWidth="26940" windowHeight="25280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="425">
   <si>
     <t>proposal</t>
   </si>
@@ -299,9 +299,6 @@
     <t>RD/TN/RL/113</t>
   </si>
   <si>
-    <t>Elimination of subsidiees that contribute to illegal, unreported and unregulated (IUU) fishing - Facilitator's working paper</t>
-  </si>
-  <si>
     <t xml:space="preserve">This unofficial room document was circulated to the Negotiating Group on Rules by the facilitator on December 2, 2019. This document builds on the first facilitator report, RD/TN/RL/97/Rev.3 of July 12, 2019. </t>
   </si>
   <si>
@@ -434,9 +431,6 @@
     <t>This unofficial room document was circulated at the request of the Delegation of Australia on June 5, 2019.</t>
   </si>
   <si>
-    <t>S&amp;DT</t>
-  </si>
-  <si>
     <t>RD/TN/RL/118</t>
   </si>
   <si>
@@ -452,9 +446,6 @@
     <t>Article [X]: Special and differential treatment</t>
   </si>
   <si>
-    <t xml:space="preserve">This communication was circulated at the request of the Delegation of India on June 14, 2019. </t>
-  </si>
-  <si>
     <t>include</t>
   </si>
   <si>
@@ -473,15 +464,6 @@
     <t>This unofficial room document was circulated at the request of the Delegations of Argentina, Colombia, Costa Rica, Panama, Peru, Uruguay, Canada, Iceland, New Zealand, and the United States on June 12, 2019.</t>
   </si>
   <si>
-    <t xml:space="preserve">This communication advocates for negotiating Member-specific subsidy caps (expressed in monetary terms). Subsidies in excess of a Member's cap would be prohibited. This cap is intended to be suplementary to any prohibitions on subsidies that support IUU, fishing beyond national jurisdiction, and subsidies for fishing that negatively affect overfished stocks. Members would also commit to maintain fisheries management and conservation measures. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As written, this text calls for Members to establish a baseline amount for their subsidy cap by submitting fisheries subsidies notification to the WTO (covering the most recent two years). As such notifications are not yet available, for the purposes of modeling, we assume that each Member's base for capping is represented by the total amount of capacity-enhancing subsidies estimated for that Member by Sumaila et al. 2019. Members are then sorted into three tiers based on a three-year average of FAO marine capture production (2015-2017). Members accounding for 0.7% or more of global marine capture production are in "Tier 1"; Members accounting for 0.05% or more, but less than 0.7%, of global marine capture production are in "Tier  2"; Members accounting for less than 0.05% of global marine capture production are in "Tier 3". This proposal advocates for allowing both Tier 1 and Tier 2 Members to negotiate their own subsidy caps or to accept a default cap of $50 million annually. For the purposes of modeling, we assume that Tier 1 Members recieve a subsidy cap equal to 90% of their base for capping, and Tier 2 Members recieve the default cap of $50 million. Tier 3 Members do not recieve a cap. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This communication advocates for Member-specific subsidy caps (expressed in monetary terms). Subsidies in excess of a Member's cap would be prohibited. In order respond to the diversity and differences of Members' fisheries situations, Members may choose from one of three approaches to calculate their subsidy cap: 1) [X]% of the average base for capping during the base period; 2) [Y]% of the average landed value of a Member's total wild marine capture during the base period; 3) [Z]% of the global average base for capping per fisherman multiplied by the number of fishermen of that Member during the base period. This proposal also advocates that the following four categories of "green-box" subsidies shall not be subject to Member's capping commitments: 1) government service and management programs; 2) programs to protect fisheries resources or rebuild stocks; 3) programs to reduce fishing efforts or fishing capacity; 4) programs that rebuttably presumed not to contribute to overcapacity or overfishing. </t>
-  </si>
-  <si>
     <t>Draft text: Philippines non-paper</t>
   </si>
   <si>
@@ -497,9 +479,6 @@
     <t xml:space="preserve">This communication aims to consolidate all existing texts that have been put forth or discussed with regards to a prohibition on subsidies that contribute to IUU fishing. It contains alternative approaches to crafting such a discipline, as well as alternative versions of relevant definitions. </t>
   </si>
   <si>
-    <t xml:space="preserve">This communication advocates for Member-specific de minimis limits, below which Members may maintain, grant, or provide subsidies. Four criteria are provided to determine de minimis limits. 1) The de minimis limit for developed country Members and developing country Members belonging to the top [10] global marine capture fisheries producers shall be [X]% of the average total landed value of the Member's marine capture fisheries in the period [2015-2017]. 2) For developing country Members not included in 1), the de minimis limit shall by [Y]% plus [10/15]% of the average total landed value in the most recent three year period for which data are available. 3) Developing country Members included in 1) whose large-scale commercial fisheries are responsible for less than [5/10]% of the average total landed value may instead take the de minimis limit determined under 2). 4) The de minimis level for LDC Members shall be [Z]% plus [20/30]% of the average total landed value in the most recent three year period for which data are available. Subsidies to fishing and fishing-related activities solely within the Member's territorial waters shall not be included in the de minimis for developing country and LDC Members. </t>
-  </si>
-  <si>
     <t xml:space="preserve">This communication presents the current state of the negotiations as they relate to a prohibition on subsidies that contribute to overcapacity and overfishing. A number of different approaches are discussed along with pertaining unresolved questions. </t>
   </si>
   <si>
@@ -518,24 +497,12 @@
     <t xml:space="preserve">This communication advocates for prohibiting subsidies to vessels that are subsidized by a WTO Member, but do not fly the flag of that Member. An underlying assumption of this tool to make modeling possible is that the subsidizing state of a vessel is its flag state. Therefore, this communication is not modeled, but presented here as a possible discipline. </t>
   </si>
   <si>
-    <t xml:space="preserve">This communication presents a draft text on subsidies for fishing overfished stocks. It aims to eliminate text no longer under consideration and consolidate the remaining possible alternative approaches that have been put forth or discussed. It is noted that this is in no way agreed text, but rather an attempt to try to focus future discussions. It advocates for prohibiting subsidies for fishing on an overfished stock. It provides two alternative approaches for crafting such a prohibition: subsidies shall be prohibited 1) if there is a lack of recovery of the stock or if there is a continuous reduction in the level of the stock; 2) if they are not implemented in a manner that ensures rebuilding of the stock.  It also provides two possible ways of characterizing and determining what constitutes an overfished stock: 1) those recognized as such by the Member under whose jurisdiction the fishing is taking place or by the relevant RFMO/A; 2) those for which the mortality from fishing needs to be restricted to allow the stock to rebuild to some reference point. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">We offer one possible interpretation of this document. It is still quite vague. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This communication presents a draft text for a prohibition on subsidies for fishing on overfished stocks. It builds on ACP text proposal TN/RL/GEN/192, as reflected in TN/RL/W/274/Rev.6, and advocates for a prohibition on subsidies to vessels fishing outside of a Member's territorial sea on overfished stocks. It defines overfished stocks as those recognized as such by the Member in whose jurisdiction the fishing is taking place, or by the relevant RFMO/A. It also provides a list of allowed subsidies. </t>
-  </si>
-  <si>
     <t xml:space="preserve">This communication presents a draft text for a prohibition on subsidies for fishing on overfished stocks. It is very similar to some of the draft text provided in RD/TN/RL/119, and advocates for a prohibition on subsidies for fishing on stocks recognized as overfished by the Member under whose jurisdiction the fishing is taking place or by the relevant RFMO/A. Such subsidies shall be prohibited if they are found to be having a negative effect on the stock, defined as any of the following: 1) a lack of recovery of the fishery; 2) continuation of depletion of fish stock levels; 3) continuation of excess levels of fishing. </t>
   </si>
   <si>
     <t xml:space="preserve">This communication presents the current state of the negotiations as they relate to special and differential treatment. A number of different approaches are discussed along with pertaining unresolved questions. </t>
   </si>
   <si>
-    <t xml:space="preserve">This communication advocates for special and differential treatment for the three classes of proposed disciplines. </t>
-  </si>
-  <si>
     <t>TN/RL/GEN/181/Rev.1</t>
   </si>
   <si>
@@ -773,109 +740,21 @@
     <t>Need to activate the transition period.</t>
   </si>
   <si>
-    <t>Philipines - Disputed Waters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prohibiting subsidies in disputed waters, unless all parties have jointly notified the WTO of any agreement to subsidize. Members should  attempt to reach an agreement through bilateral consultations before going to Dispute Settlement. </t>
-  </si>
-  <si>
     <t>ACP - IUU</t>
   </si>
   <si>
     <t xml:space="preserve">1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal Member. The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings 3) No proportionality or the duration of prohibition is considered. </t>
   </si>
   <si>
-    <t xml:space="preserve">Facilitator's recommendation on the elimination of subsidies that contribute to IUU fishing: 1) Making IUU determinations is a right Members have based on agreements outside the WTO, 2) a subsidies prohibition should not imply an obligation related to making IUU determinations. 3) All procedures have been followed in making the determination, including appeal and review. 4) General agreement that determinations by a coastal state, RFMO/A, flag state, and subsidizing Member state should all trigger the prohibition of subsidies. </t>
-  </si>
-  <si>
-    <t>It builds on ACP text proposal TN/RL/GEN/192, as reflected in TN/RL/W/274/Rev.6. It specifies that IUU determinations could be made by coastal Member states for activities in waters under their jurisdictions with respect to a foreign vessel or operator, or by RFMO/As in areas (and for species) under their juridscitions. Members are encouraged to refrain from invoking the discipline based on minor infringements.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Developing countries not engaged in large-scale industrial distant water fishing are entitled to additional transition period for Unreported and unregulated. LDCs and SVEs are entitled to a differentiated transition period.  </t>
-  </si>
-  <si>
-    <r>
-      <t>RD/TN/RL/89/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Rev.2</t>
-    </r>
-  </si>
-  <si>
     <t>Latin 6 and others - IUU</t>
   </si>
   <si>
-    <t xml:space="preserve">It advocates for a prohibition on subsidies to vessels or operators engaged in IUU fishing. It specifies that IUU determinations could be made by the flag or subsidizing Member states, by RFMO/As in accordance with their rules and procedures and in conformity with international law, or by coastal Member states for activities in waters under their jurisdictions provided that such a determination is made fairly. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1) Total amount of capacity-enhancing subsidies is estimated for eash Member taken the information from Sumaila et al. 2019.  2) Each Member's cap is equal to whichever of the three proposed approaches for calculating a cap yields the largest amount. 3) By default, caps based on approach 1 are calulated assuming 90% of each Member's base for capping. 4) Caps based on approach 2 are calculated based on 90% of each Member's estimated landed value (calculated from the FAO Global Marine Capture Production Database in 2017). 5) Caps based on approach 3 are calculated assuming a value of $600 per fisherman, and each Member's most recently reported total number of fishers (from the FAO Yearbook of Fishery and Aquaculture Statistics 2017). 6) Users are free to explore different values by changing the respective sliders below. 7) Once caps are established, we assume that provision of the following types of capacity-enhancing subsidies (as defined by Sumaila et al. 2019) are allowed to continue irrespective of a Member's total cap: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">subsidies for fishing access agreements, fisheries development projects. </t>
-    </r>
-  </si>
-  <si>
     <t>US and others - ABNJ</t>
   </si>
   <si>
-    <t xml:space="preserve">1) All capacity-enhancing subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond a Member's national jurisdiction. 2) This is an ambitious interpretation, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas to be prohibited. 4) Users can set a different threshold below if they wish. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This communication defines the characteristics of vessels that shall be targeted in regards to overcapacity and overfishing disciplines. It advocates that any vessel having at least three of the six characteristics shall be affected: vessels 1) with more than 24 metersa length; 2) with gross tonnage of more than 100 GT; 3) with fishing gear towed or hauled by motor driven equipment; 4) propeled by an engine with more than 130 kW; 5) with onboard freezing equipment for storage; 6) owned or operated by a multinational enterprise, a public limited company, or a joint venture. </t>
-  </si>
-  <si>
-    <t>RD/TN/RL/96 Rev1</t>
-  </si>
-  <si>
-    <t>Exclusion of developing country Members that
-individually account for less than [2] percent of global marine capture fishing</t>
-  </si>
-  <si>
-    <t>The following types of subsidies as classified by Sumaila et al. 2019 are presumed to be prohibited: 1) boat construction and renovation, 2) fuel. All vessels flagged to Members that individually account for less than [2] percent of global marine capture fishing are excluded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This ACP proposal build on TN/RL/GEN/192, as reflected in TN/RL/W/274/Rev.6, and advocates for a prohibition on subsidies for capital and operating costs, provided to large-scale industrial fishing. Capital cost subsidies include those for construction, aquision, modernization, renovation or upgrading of vessels, direct transfers for vessel construction and modernization, purchase of machines and equipment for fishing vessels. Operating cost subsidies include those for fuel, ice, bait, personnel, incompe support of vessels or operators or the workers they employ, social chargers, insurance, payments based on the price of fish caught, gear, and at-sea support, or operating losses of such vessels or activities.  </t>
-  </si>
-  <si>
-    <t>This ACP proposal includes a list of subsidies that shall not be prohibited (Green Box): 1) fisheries management, 2) permanent cessation of fishing, 3) implementation of international agreements, 4) disaster relieve, 5) health and safety conditions, 6) promote human capital</t>
-  </si>
-  <si>
     <t>EU and others -Overfishing and overcapacity</t>
   </si>
   <si>
-    <t>Philipines - De minimis</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">S&amp;DT is addressed  as the differential criteria for determing de minimis limits. Subsidies in excess of a Member's de minimis limit in the first year of the implementation shall be reduced or phased down to the de minimis level in equal annual installments over [X] years for developed country Members, [X+3] years for developing country Members, and [X+5] years for LDC Members. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Developing and Least developed countries can also exclude from calculation subsidies to fishing in the territorial waters.</t>
-    </r>
-  </si>
-  <si>
     <t>I added this new revision separately as the ACP are adding a new exeption where Members that individually account for less than [2] percent of global marine capture fishing are excluded</t>
   </si>
   <si>
@@ -885,21 +764,6 @@
     <t>Australia - Overfished</t>
   </si>
   <si>
-    <r>
-      <t>There is uncertainty  regarding the status of many fish stocks. To model the proposal we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy stock assessment database are prohibited. The proportion of stocks identified as overfished in the RAM Legacy stock assessment database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Additionally, as written, this text requires that there be a causal negative effect to the stock as a result of the subsidy. This is difficult to establish given existing data on subsidy provisioning and stock status, and is not possible to model.</t>
-    </r>
-  </si>
-  <si>
     <t>Canada</t>
   </si>
   <si>
@@ -909,33 +773,9 @@
     <t>Proposed prohibition on subsidies contributing to overcapacity and overfishing</t>
   </si>
   <si>
-    <t>This proposal has 2 components: 1) Prohibition of subsidies for overfishing and overcapacity of stocks being fished at a rate or with a measure of fishing capacity that is greater than would allow the stock to be maintained at a level determined to be sustainable by coastal state or RFMO. 2) Prohibiting subsidies outside jurisdiction of coastal member and RFMO</t>
-  </si>
-  <si>
     <t xml:space="preserve">This is the Canadian proposal on OFOC that build on New Zealand proposal but makes more flexible. Canada also introduces their version of the High seas prohibition. In this case the prohibition is only to the high seas. Doesn't include fishing in other members EEZ as the US proposal does. Can we model this 2 elements of the Canadian proposal? The first part if like the negative effects or those on overfished like the NZ proposal. The second elements is prohibition of high seas and RFMOs. </t>
   </si>
   <si>
-    <t xml:space="preserve">1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal Member. The possible effects is a conservative interpretation of this text. 3) Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings 3) No proportionality or the duration of prohibition is considered. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">We assume that each Member's base subsidy level is represented by the total amount of capacity-enhancing subsidies estimated for that Member by Sumaila et al. 2019, and we estiamte the landed value of marine capture fisheries from the FAO Global Capture Production Database in 2017. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Any other assuption)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">(Need to add the assumptions: we need to decide whether to use the RAM legacy database or the Costello study. Also what treatment the stocks outside those databases will receive. This decision will determe the level of ambition) </t>
-  </si>
-  <si>
     <t>RD/TN/RL/125</t>
   </si>
   <si>
@@ -943,22 +783,6 @@
   </si>
   <si>
     <t>LDC Group Fisheries Subsidies Text Proposal</t>
-  </si>
-  <si>
-    <t>This unofficial room document circulated at the request of Chad on behalf of LDC Group</t>
-  </si>
-  <si>
-    <t>Scope: Exclusion of Territorial waters
-IUU: Coastal, Subzidizing members and RFMO/A determination. Reference to international practices instead of international law. Prohibition is not permanent. Commitment to notify laws and regulation. Transparency is good. No specific flexibilities for LDCs except for the transitional period
-Overfished: Simple approach reference to best scientific evidence available and a green box (monitoring and enforcement, management, health, safety, training, disaster and social welfare). No specific flexibilities for LDCs except for the transitional period
-OFOC: Applied only to large scale (not defined). Includes prohibition subsidies fishing BNJ (high seas). Exception to LDCs
-Transition: A period for developing countries and LDCs to implement with possibility for extension</t>
-  </si>
-  <si>
-    <t>Prohibition of subsidies to OFOC shall not apply to LDCs. Transition period for LDC once LDCs graduate from that category of countries.  Transition period for developing countries and for LDCs, with posibiulity of extension</t>
-  </si>
-  <si>
-    <t>TN/RL/GEN/200/Rev1</t>
   </si>
   <si>
     <t>For prohibitions on subsidies supporting IUU fishing, subsidies shall be allowed for developing countries and LDC small scale fishing 1) within their own territorial waters, and 2) small scale fishing in their own EEZs and RFMO for a transition period of 7 years.   For prohibitions on subsidies for fishing on overfished stocks, subsidies shall be allowed for 1) fishing in their own territorial waters, or 2) fishing in their own EEZs for a transition period of 2 years. For prohibitions on subsidies OFOC, subsidies shall be allowed for LDC Members. For developing countries exemtion of fishing in the territorial waters. For fishing in the EEZ and RFMO/A areas prohibition applies if the following is met: i) GNI per capita crosses US$ 5000 (World Bank) (based on constant $2010) for three consecutive years;
@@ -967,37 +791,9 @@
 iv) the contribution from Agriculture, Forestry and Fishing in their national GDP (World Bank) is less than 10% for three consecutive years.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1) Exclusion of territorial waters for all members. Is not possible to make the distinction between territorial water's and the remainder of an EEZ in the tool's dataset, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the assumtion is that is applied to all EEZ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. 2) Industrial Fishing on IUU in EEZ and RFMO/A 7 year transition period. 3) Industrial fishing overfished stocks transition period of 2 years. 4) Prohibition in EEZ and RFMO/A if: i) above GNI per capital $5000, ii) above 2% of global marine capture, iii) DWFishing, iv) GDP for Ag, Forrestry and Fisheries less than 10% (3 years)</t>
-    </r>
-  </si>
-  <si>
     <t>RD/TN/RL/112/Rev.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Subsidies for subsistence fishing shall not be prohibited. Transition period for developing countries and LDCs 2022, 2024 and 2026 to be negotiated. No transition period for developing and LDCs that have subtantial global marine capture. During the transition period subsidies for territorial waters are not prohibited. </t>
-  </si>
-  <si>
     <t xml:space="preserve">No text to model. Will include as a reference document. </t>
   </si>
   <si>
@@ -1008,45 +804,6 @@
   </si>
   <si>
     <t>India - S&amp;DT</t>
-  </si>
-  <si>
-    <t>Members notification to the WTO are replace by Sumaila et al. 2019 global subsidies estimates by country. (are there any other assumptions that can be made? Here as the case with the negative approach proposals and Overfihsed stocks we need to decide whether to use the RAM legacy database or the Costello study. Also what treatment the stocks outside those databases will receive. This decision will determe the level of ambition. (is it possible to simulate in this case the precautinary principle?)</t>
-  </si>
-  <si>
-    <t>Call for general prohibiting subsidies that contribute to overcapacity and overfishing. However, it allows for subsidies if the subsidising Member can demonstrate that the stock(s) targeted by the subsidy recipient are managed on the based on the best publically available scientific evidence taking into account the following elements: 1) scientific stock assessments; 2) legal institutions for resource management (i.e. vessel registration and fishery permits); 3) specific conservation and management measures for fish stocks (i.e. input, output, and technical controls taking account of fishery status); 4) monitoring, control and surveillance measures. It also provides a list of subsidies that shall be deemed not to be prohibited. Includes a reference to the precautinary principle to be included in a preamble. Prohibition should not apply to subsistance fishing.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1) All capacity-enhancing subsidies are prohibited in areas classified as "disputed" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">in the Marine Regions' Maritime Boundaries World EEZ dataset (v10). </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2) Most ambitious interpretation of the possible effects of the proposal. 3) Materialy impossible to model non-existing agreements to subsidize in disputed areas.                                                                                                        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Disclaimer: We recognize that disputed areas are a political subject and our interpretation of this text is not meant to imply the expression of any opinion whatsoever concerning the status of any country, territory, city or area or of its authorities, or concerning the delimitation of its frontier or boundaries. </t>
-    </r>
   </si>
   <si>
     <t>model_details_assumptions</t>
@@ -1222,18 +979,322 @@
     <t>IUU1, IUU2, IUU3, IUU4</t>
   </si>
   <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>EU - IUU</t>
+  </si>
+  <si>
+    <t>LDC - Full text</t>
+  </si>
+  <si>
+    <t>China - Cap</t>
+  </si>
+  <si>
+    <t>Morocco - Industrial fishing</t>
+  </si>
+  <si>
+    <t>New Zealand/Iceland - Overfishing and overcapacity</t>
+  </si>
+  <si>
+    <t>ACP - Overfishing and overcapacity</t>
+  </si>
+  <si>
+    <t>ACP - Overfishing and overcapacity (revised)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT MODELED YET - This is a revised proposal and contains new elements. </t>
+  </si>
+  <si>
+    <t>OA1</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONE - To be modeled using the parameters of overfished stocks. </t>
+  </si>
+  <si>
+    <t>BEST</t>
+  </si>
+  <si>
+    <t>ONE</t>
+  </si>
+  <si>
+    <t>ernesto_notes</t>
+  </si>
+  <si>
+    <t>LDC new proposal includes 3 pillars of prohibiion (IUU, Overfished and OFOC) and S&amp;DT. We might need to consider a new section or include it in Other. I don't think we would like to separate or divide the proposal as we would like to see the effect of the proposal as a whole.</t>
+  </si>
+  <si>
+    <t>summary_html</t>
+  </si>
+  <si>
+    <t>&lt;b&gt; IUU:  &lt;/b&gt;&lt;/br&gt;  None. &lt;/br&gt; &lt;b&gt; Overfished:  &lt;/b&gt;&lt;/br&gt; None. &lt;/br&gt; &lt;b&gt; OFOC:  &lt;/b&gt;&lt;/br&gt; All capacity enhancing subsidies are prohibited to vessels fishing in disputed waters. &lt;/br&gt; &lt;b&gt; S&amp;DT:  &lt;/b&gt;&lt;/br&gt; None.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt; IUU:  &lt;/b&gt;&lt;/br&gt;  Determination made by: &lt;ul&gt;&lt;li&gt;RMFO/A lists&lt;/li&gt;&lt;li&gt;Flag Member states&lt;/li&gt;&lt;li&gt;Coastal Member states&lt;/li&gt;&lt;li&gt;Subsidizing Member states&lt;/li&gt;&lt;/ul&gt; &lt;/br&gt; &lt;b&gt; Overfished:  &lt;/b&gt;&lt;/br&gt; Overfished stock determination made by best scientific evidence available: &lt;ul&gt;&lt;li&gt; B/Bmsy &lt; 1  (RAM Legacy stock assessment database) &lt;/li&gt;&lt;/ul&gt; Subsidies to fishing in territorial waters is allowed. &lt;/br&gt; &lt;b&gt; OFOC:  &lt;/b&gt;&lt;/br&gt; All capacity enhancing subsidies are prohibited to vessels meeting any of the following characteristics: &lt;ul&gt;&lt;li&gt;fishing on the high seas&lt;/li&gt;&lt;li&gt; &gt; 24m in length&lt;/li&gt;&lt;li&gt; &gt; 100 gross tons&lt;/li&gt;&lt;/ul&gt; Subsidies to fishing in territorial waters is allowed. &lt;/br&gt; &lt;b&gt; S&amp;DT:  &lt;/b&gt;&lt;/br&gt;&lt;i&gt;LDCs  :&lt;/i&gt; Transition period of X years for all prohibitions; excluded from OFOC prohibitions. &lt;/br&gt; &lt;i&gt;Developing :&lt;/i&gt; Transition period of Y years for all prohibitions. &lt;/br&gt; &lt;i&gt;SVEs :&lt;/i&gt; None.</t>
+  </si>
+  <si>
+    <t>EX_TER</t>
+  </si>
+  <si>
+    <t>updated revision</t>
+  </si>
+  <si>
+    <t>RD/TN/RL/121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: there are a couple of definitions here that we don't have the data to model. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As written it specifies different S&amp;DT for developing country and LDC Members </t>
+  </si>
+  <si>
+    <t>DOMESTIC</t>
+  </si>
+  <si>
+    <t>Facilitator's text - Overfished</t>
+  </si>
+  <si>
+    <t>kat_status</t>
+  </si>
+  <si>
+    <t>Elimination of subsidies that contribute to illegal, unreported and unregulated (IUU) fishing - Facilitator's working paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developing countries not engaged in large-scale industrial distant water fishing are entitled to an additional transition period. LDCs and SVEs are entitled to a different transition period.  </t>
+  </si>
+  <si>
+    <t>Just missing time delay (two different time delays: 1) developing countries not engaged in large scale industrial fishing; 2) LDCs and SVEs)</t>
+  </si>
+  <si>
+    <t>This document builds on ACP text proposal TN/RL/GEN/192, as reflected in TN/RL/W/274/Rev.6. It specifies that IUU determinations could be made by coastal Member states for activities in waters under their jurisdictions with respect to a foreign vessel or operator, or by RFMO/As in areas (and for species) under their juridscitions. Members are encouraged to refrain from invoking the discipline based on minor infringements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This document advocates for a prohibition on subsidies to vessels or operators engaged in IUU fishing. It specifies that IUU determinations could be made by the flag or subsidizing Member states, by RFMO/As in accordance with their rules and procedures and in conformity with international law, or by coastal Member states for activities in waters under their jurisdictions provided that such a determination is made fairly. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No special and differential treatment is considered. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This communication advocates for negotiating Member-specific subsidy caps (expressed in monetary terms). Subsidies in excess of a Member's cap would be prohibited. This cap is intended to be supplementary to any prohibitions on subsidies that support IUU, fishing beyond national jurisdiction, and subsidies for fishing that negatively affect overfished stocks. Members would also commit to maintain fisheries management and conservation measures. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This communication advocates for Member-specific subsidy caps (expressed in monetary terms). Subsidies in excess of a Member's cap would be prohibited. Members may choose from one of three approaches to calculate their subsidy cap: 1) [X]% of the average base for capping during the base period; 2) [Y]% of the average landed value of a Member's total wild marine capture during the base period; 3) [Z]% of the global average base for capping per fisherman multiplied by the number of fishermen of that Member during the base period. This proposal also advocates that the following four categories of "green-box" subsidies shall not be subject to Member's capping commitments: 1) government service and management programs; 2) programs to protect fisheries resources or rebuild stocks; 3) programs to reduce fishing efforts or fishing capacity; 4) programs that rebuttably presumed not to contribute to overcapacity or overfishing. </t>
+  </si>
+  <si>
+    <t>US and others -  Cap/Tier</t>
+  </si>
+  <si>
+    <t>Philippines - De minimis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This communication advocates for Member-specific de minimis limits, below which Members may maintain, grant, or provide subsidies. Four criteria are provided to determine de minimis limits. 1) The de minimis limit for developed country Members and developing country Members belonging to the top [10] global marine capture fisheries producers shall be [X]% of the average total landed value of the Member's marine capture fisheries in the period [2015-2017]. 2) For developing country Members not included in 1), the de minimis limit shall by [Y]% plus [10/15]% of the average total landed value in the most recent three year period for which data are available. 3) Developing country Members included in 1) whose large-scale commercial fisheries are responsible for less than [5/10]% of the average total landed value may instead take the de minimis limit determined under 2). 4) The de minimis level for LDC Members shall be [Z]% plus [20/30]% of the average total landed value in the most recent three year period for which data are available. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subsidies in excess of a Member's de minimis limit in the first year of the implementation shall be reduced or phased down to the de minimis level in equal annual installments over [X] years for developed country Members, [X+3] years for developing country Members, and [X+5] years for LDC Members. Subsidies to fishing and fishing-related activities solely within the Member's territorial waters shall not be included in the de minimis for developing and LDC Members. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add top 10 global producers option for cap/tier (and related option for other developing members). Also add three year selection for global production data. </t>
+  </si>
+  <si>
+    <t>TN/RL/GEN/200/Rev.1</t>
+  </si>
+  <si>
+    <t>doc_in_folder</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Scope: 1) Exclusion of territorial waters for all members. Is not possible to make the distinction between territorial water's and the remainder of an EEZ in the tool's dataset, </t>
+      <t>RD/TN/RL/89/</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Rev.2</t>
+    </r>
+  </si>
+  <si>
+    <t>Missing "best of" option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This unofficial room document was circulated at the request of the Delegation of Canada on January 13, 2020. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This communication advocates for placing prohibitions on any subsidies contributing to overfishing or overcapacity and any subsidies for fishing outside of the jurisdictions of coastal Members or relevant RFMO/As. Subsidies shall be considered to contribute to overfishing or overcapacity if they benefit an entity engaged in fishing on a stock that is being fished at a rate that is greater than that which would allow it to be maintained at a sustainable level. </t>
+  </si>
+  <si>
+    <t>OA2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>proposal covers highseas and fishing in other members EEZs. Is it possible to model that?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">This communication defines the characteristics of vessels that shall be targeted in regards to overcapacity and overfishing disciplines. It advocates that any vessel having at least three of the six characteristics shall be affected: vessels 1) greater than 24 meters in length; 2) with gross tonnage of more than 100 GT; 3) with fishing gear towed or hauled by motor driven equipment; 4) propelled by an engine with more than 130 kW; 5) with onboard freezing equipment for storage; 6) owned or operated by a multinational enterprise, a public limited company, or a joint venture. </t>
+  </si>
+  <si>
+    <t>Our interpretation of this is the same as that provided for the Facilitator's working paper.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This communication builds on TN/RL/GEN/192, as reflected in TN/RL/W/274/Rev.6, and advocates for a prohibition on subsidies for capital and operating costs, provided to large-scale industrial fishing. Capital cost subsidies include those for construction, acquisition, modernization, renovation or upgrading of vessels, direct transfers for vessel construction and modernization, purchase of machines and equipment for fishing vessels. Operating cost subsidies include those for fuel, ice, bait, personnel, income support of vessels or operators or the workers they employ, social chargers, insurance, payments based on the price of fish caught, gear, and at-sea support, or operating losses of such vessels or activities.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This communication presents a draft text for a prohibition on subsidies for fishing on overfished stocks. It builds on TN/RL/GEN/192, as reflected in TN/RL/W/274/Rev.6, and advocates for a prohibition on subsidies to vessels fishing outside of a Member's territorial sea on overfished stocks. It defines overfished stocks as those recognized as such by the Member in whose jurisdiction the fishing is taking place, or by the relevant RFMO/A. It also provides a list of allowed subsidies. </t>
+  </si>
+  <si>
+    <t>1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text requires that there be a causal negative effect to the stock as a result of the subsidy. This is difficult to establish given existing data on subsidy provisioning and stock status, and is not possible to model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) It is not possible to simulate whether Members could demonstrate that they have policies in place that would negate this prohibition. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) We assume that each Member's base subsidy level is represented by the total amount of capacity-enhancing subsidies estimated for that Member by Sumaila et al. 2019, and we estimate the landed value of marine capture fisheries from the FAO Global Capture Production Database. 2) We assume the de minimis limit for developed and developing country members belonging to the top 10 marine capture fisheries producers to be 50% of the average total landed value of the Member's marine capture fisheries between 2016-2018. For all other developing country Members, we assume the de minimis limit to be 70% of the average total landed value between 2016-2018. For LDC Members, we assume the de minimis limit to be 90% of the average total landed value between 2016-2018. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) We assume that each Member's base for capping is represented by the total amount of capacity-enhancing subsidies estimated by Sumaila et al. 2019. 2) Each Member's cap is equal to whichever of the three proposed approaches for calculating a cap yields the largest amount. By default, caps based on the first approach are calculated as 90% of each Member's base for capping; caps based on the second approach are calculated as 90% of each Member's estimated landed value (calculated from the FAO Global Marine Capture Production Database in 2018); caps based on the third approach are calculated assuming a value of $600 per fisherman, and each Member's most recently reported total number of fishers (from the FAO Yearbook of Fishery and Aquaculture Statistics 2017). 3) Users are free to explore different values by changing the respective sliders on the advanced policy selection tab. 4) We assume that provision of the following types of capacity-enhancing subsidies as defined by Sumaila et al. 2019 are allowed to continue irrespective of a Member's total cap: i) subsidies for fishing access agreements; ii) fisheries development projects. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) We assume that all capacity-enhancing subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 
+2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas to be prohibited. Users can set a different threshold on the advanced policy selection tab if they wish. </t>
+  </si>
+  <si>
+    <t>1) We assume that the following types of subsidies as defined by Sumaila et al. 2019 are prohibited: i) boat construction and renovation, ii) fuel. 2) This prohibition is assumed to only apply to developed and developing country Members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. </t>
+  </si>
+  <si>
+    <t>1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Subsidies for fishing within a Member's territorial sea shall be allowed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This communication advocates for prohibiting subsidies in disputed waters, unless all parties have jointly notified the WTO of any agreement to subsidize. Members should attempt to reach an agreement through bilateral consultations before going to Dispute Settlement. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) We assume that all capacity-enhancing subsidies as defined by Sumaila et al. 2019 are prohibited in areas classified as "disputed" in the Marine Regions' Maritime Boundaries World EEZ dataset (v10). 2) We note that this is a very ambitious interpretation of the possible effects of this proposal. 3) It is materially impossible to model non-existing agreements to subsidize in disputed areas.                                                                                                         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="3"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>the assumtion is that is applied to all EEZ</t>
+      <t xml:space="preserve">Disclaimer: We recognize that disputed areas are a political matter and our interpretation of this text is not meant to imply the expression of any opinion whatsoever concerning the status of any country, territory, city or area or of its authorities, or concerning the delimitation of its frontier or boundaries. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1) We assume that all capacity-enhancing subsidies as defined by Sumaila et al. 2019 are prohibited to vessels satisfying the three following characteristics: i) total length of more than 24 meters; ii) gross tonnage of more than 100 GT; iii) engine power of more than 130 kW. 2) In general, the tool does not include many vessels with fishing gears that are not hauled by a motor driven equipment, thus this characteristic is assumed to be satisfied. 3) The other 2 conditions are not modeled as it is difficult to determine which vessels have onboard freezing equipment, or the characteristics of a vessel's owning or operating company. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) We assume that each Member's base for capping is represented by the total amount of capacity-enhancing subsidies estimated by Sumaila et al. 2019. Members are sorted into three tiers based on a three-year average of FAO marine capture production (2015-2017). 2) Members accounting for 0.7% or more of global marine capture production are in "Tier 1"; Members accounting for 0.05% or more, but less than 0.7%, of global marine capture production are in "Tier 2"; Members accounting for less than 0.05% of global marine capture production are in "Tier 3". 3) This proposal advocates for allowing both Tier 1 and Tier 2 Members to negotiate their own subsidy caps or to accept a default cap of $50 million annually. For the purposes of modeling, we assume that Tier 1 Members receive a subsidy cap equal to 90% of their base for capping, and Tier 2 Members receive the default cap of $50 million. Tier 3 Members do not receive a cap. </t>
+  </si>
+  <si>
+    <t>This communication advocates for a general prohibition of subsidies that contribute to overcapacity and overfishing. However, it allows for subsidies if the subsidising Member can demonstrate that the stock(s) targeted by the subsidy recipient are managed on the based on the best publically available scientific evidence taking into account the following elements: 1) scientific stock assessments; 2) legal institutions for resource management (i.e. vessel registration and fishery permits); 3) specific conservation and management measures for fish stocks (i.e. input, output, and technical controls taking account of fishery status); 4) monitoring, control and surveillance measures. It also provides a list of subsidies that shall be deemed not to be prohibited. Includes a reference to the precautionary principle to be included in a preamble. Prohibition should not apply to subsistence fishing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A transition period shall be allowed for developing country Members and LDCs. We assume these transition periods to be 4 and 6 years respectively. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) It is difficult to identify subsidies for subsistence fishing, so we approximate this condition by assuming that subsidies for fishing within a Member's territorial waters are allowed.       </t>
+  </si>
+  <si>
+    <t>Transition period missing.</t>
+  </si>
+  <si>
+    <t>This document summarizes the Facilitator's recommendations regarding the elimination of subsidies that contribute to IUU fishing. Key takeaways: i) Making IUU determinations is a right Members have based on agreements outside the WTO; ii) a subsidies prohibition should not imply an obligation related to making IUU determinations; iii) All procedures must have been followed in making the determination, including appeal and review; iv) General agreement that determinations by a coastal state, RFMO/A, flag state, and subsidizing Member state should all trigger the prohibition of subsidies.</t>
+  </si>
+  <si>
+    <t>Facilitator's text - IUU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This communication presents a draft text on subsidies for fishing overfished stocks. It aims to eliminate text no longer under consideration and consolidate the remaining possible alternative approaches that have been put forth or discussed. It is noted that this is in no way agreed text, but rather an attempt to try to focus future discussions. It advocates for prohibiting subsidies for fishing on an overfished stock. It provides two alternative approaches for crafting such a prohibition: subsidies shall be prohibited i) if there is a lack of recovery of the stock or if there is a continuous reduction in the level of the stock; ii) if they are not implemented in a manner that ensures rebuilding of the stock. It also provides two possible ways of characterizing and determining what constitutes an overfished stock: i) those recognized as such by the Member under whose jurisdiction the fishing is taking place or by the relevant RFMO/A; ii) those for which the mortality from fishing needs to be restricted to allow the stock to rebuild to some reference point. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We offer one possible interpretation of this document. It is still quite vague. Same as New Zealand/Iceland proposal interpretation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same as Facilitator's text intrepretation. </t>
+  </si>
+  <si>
+    <t>RD/TN/RL/96 Rev.1</t>
+  </si>
+  <si>
+    <t>This unofficial room document was circulated at the request of the Delegation of Jamaica on behalf of the African, Caribbean and Pacific Countries (ACP) Group on February 4, 2020.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) We assume that all capacity-enhancing subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing on the high seas. By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas to be prohibited. Users can set a different threshold on the advanced policy selection tab if they wish. </t>
+  </si>
+  <si>
+    <t>Developing country Members that individually account for less than [2%] of global marine capture production shall be exempt, and this prohibition shall not apply to LDC Members.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) We assume that the following types of subsidies as defined by Sumaila et al. 2019 are prohibited: i) boat construction and renovation, ii) fuel. 2) This prohibition is assumed to only apply to developed and developing country Members. </t>
+  </si>
+  <si>
+    <t>PERCENT_CAPTURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to add new S&amp;DT option for developing and LDC (% capture). Alternatively could do this as a scope option. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This communication builds on TN/RL/GEN/192, as reflected in TN/RL/W/274/Rev.6, and advocates for a prohibition on subsidies for capital and operating costs, provided to large-scale industrial fishing. Capital cost subsidies include those for construction, acquisition, modernization, renovation or upgrading of vessels, direct transfers for vessel construction and modernization, purchase of machines and equipment for fishing vessels. Operating cost subsidies include those for fuel, ice, bait, personnel, income support of vessels or operators or the workers they employ, social chargers, insurance, payments based on the price of fish caught, gear, and at-sea support, or operating losses of such vessels or activities. This text includes a list of subsidies that shall not be prohibited (Green Box): fisheries management, permanent cessation of fishing; implementation of international agreements, disaster relief, health and safety conditions, promotion of human capital. </t>
+  </si>
+  <si>
+    <t>This unofficial room document was circulated at the request of the Delegation of Chad on behalf of the Least Developed Countries (LDC) Group on March 6, 2020.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal Member. The possible effects is a conservative interpretation of this text. 3) Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal Member. The possible effects is a conservative interpretation of this text. 3) Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. For OFOC: 1) We assume that all capacity-enhancing subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing on the high seas, and to vessels greater than 24 m in length or with a tonnage greater than 100 GT. </t>
+  </si>
+  <si>
+    <t>LENGTH</t>
+  </si>
+  <si>
+    <t>Transition period missing; need to add the ability to select multiple scope options - for now this just does length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This communication was circulated at the request of the Delegation of India on March 6, 2020. </t>
+  </si>
+  <si>
+    <t>This communication advocates for fisheries subsidies prohibitions across all three categories of proposed disciplines.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This communication advocates for special and differential treatment for all three classes of proposed disciplines. </t>
+  </si>
+  <si>
+    <t>ref_docs</t>
+  </si>
+  <si>
+    <t>Philippines - Disputed waters</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>RD/TN/RL/107,</t>
     </r>
     <r>
       <rPr>
@@ -1243,119 +1304,35 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>. On IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal Member. The possible effects is a conservative interpretation of this text. 3) No proportionality or the duration of prohibition is considered. On Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) To model the proposal we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy stock assessment database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy stock assessment database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. OFOC: 1) Prohibition of subsidies to large scale and in the high seas. General Transition period: 1) for implementation to LDC and developing countries</t>
-    </r>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>Facilitator's Proposal - IUU</t>
-  </si>
-  <si>
-    <t>EU - IUU</t>
-  </si>
-  <si>
-    <t>LDC - Full text</t>
-  </si>
-  <si>
-    <t>US and others -  Cap</t>
-  </si>
-  <si>
-    <t>China - Cap</t>
-  </si>
-  <si>
-    <t>Morocco - Industrial fishing</t>
-  </si>
-  <si>
-    <t>New Zealand/Iceland - Overfishing and overcapacity</t>
-  </si>
-  <si>
-    <t>ACP - Overfishing and overcapacity</t>
-  </si>
-  <si>
-    <t>ACP - Overfishing and overcapacity (revised)</t>
-  </si>
-  <si>
-    <t>US and others -  Flagging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOT MODELED YET - This is a revised proposal and contains new elements. </t>
-  </si>
-  <si>
-    <t>OA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEED TO FIGURE OUT WHAT THIS SAYS ABOUT TERRIORIAL WATERS - Our interpretation of this is a conservative one. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) There is uncertainty  regarding the status of many fish stocks. 2) To model the proposal we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy stock assessment database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy stock assessment database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambigious about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1) There is uncertainty  regarding the status of many fish stocks. 2) To model the proposal we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy stock assessment database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy stock assessment database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4)The proposal is ambigious about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text.  </t>
+      <t xml:space="preserve"> TN/RL/GEN/196, </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
       </rPr>
-      <t>is not possible to make the distinction between territorial water's and the remainder of an EEZ in the tool's dataset, the assumtion is that is applied to all EEZ.</t>
+      <t>TN/RL/W/274/Rev.6</t>
     </r>
   </si>
   <si>
-    <t>DONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DONE - To be modeled using the parameters of overfished stocks. </t>
-  </si>
-  <si>
-    <t>BEST</t>
-  </si>
-  <si>
-    <t>ONE</t>
-  </si>
-  <si>
-    <t>ernesto_notes</t>
-  </si>
-  <si>
-    <t>LDC new proposal includes 3 pillars of prohibiion (IUU, Overfished and OFOC) and S&amp;DT. We might need to consider a new section or include it in Other. I don't think we would like to separate or divide the proposal as we would like to see the effect of the proposal as a whole.</t>
-  </si>
-  <si>
-    <t>summary_html</t>
-  </si>
-  <si>
-    <t>&lt;b&gt; IUU:  &lt;/b&gt;&lt;/br&gt;  None. &lt;/br&gt; &lt;b&gt; Overfished:  &lt;/b&gt;&lt;/br&gt; None. &lt;/br&gt; &lt;b&gt; OFOC:  &lt;/b&gt;&lt;/br&gt; All capacity enhancing subsidies are prohibited to vessels fishing in disputed waters. &lt;/br&gt; &lt;b&gt; S&amp;DT:  &lt;/b&gt;&lt;/br&gt; None.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt; IUU:  &lt;/b&gt;&lt;/br&gt;  Determination made by: &lt;ul&gt;&lt;li&gt;RMFO/A lists&lt;/li&gt;&lt;li&gt;Flag Member states&lt;/li&gt;&lt;li&gt;Coastal Member states&lt;/li&gt;&lt;li&gt;Subsidizing Member states&lt;/li&gt;&lt;/ul&gt; &lt;/br&gt; &lt;b&gt; Overfished:  &lt;/b&gt;&lt;/br&gt; Overfished stock determination made by best scientific evidence available: &lt;ul&gt;&lt;li&gt; B/Bmsy &lt; 1  (RAM Legacy stock assessment database) &lt;/li&gt;&lt;/ul&gt; Subsidies to fishing in territorial waters is allowed. &lt;/br&gt; &lt;b&gt; OFOC:  &lt;/b&gt;&lt;/br&gt; All capacity enhancing subsidies are prohibited to vessels meeting any of the following characteristics: &lt;ul&gt;&lt;li&gt;fishing on the high seas&lt;/li&gt;&lt;li&gt; &gt; 24m in length&lt;/li&gt;&lt;li&gt; &gt; 100 gross tons&lt;/li&gt;&lt;/ul&gt; Subsidies to fishing in territorial waters is allowed. &lt;/br&gt; &lt;b&gt; S&amp;DT:  &lt;/b&gt;&lt;/br&gt;&lt;i&gt;LDCs  :&lt;/i&gt; Transition period of X years for all prohibitions; excluded from OFOC prohibitions. &lt;/br&gt; &lt;i&gt;Developing :&lt;/i&gt; Transition period of Y years for all prohibitions. &lt;/br&gt; &lt;i&gt;SVEs :&lt;/i&gt; None.</t>
-  </si>
-  <si>
-    <t>EX_TER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transition period missing; need to figure out more details on what this proposal says about territorial waters. </t>
-  </si>
-  <si>
-    <t>Missing time delay. Otherwise Done.</t>
-  </si>
-  <si>
-    <t>updated revision</t>
-  </si>
-  <si>
-    <t>double check this is working correctly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missing "best of" option. Also check that tiering is working. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not incorporated… Need to add landings option? </t>
+    <r>
+      <t xml:space="preserve">RD/TN/RL/89/Rev.1, TN/RL/GEN/192, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>TN/RL/W/274/Rev.6</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TN/RL/W/274/Rev.6 </t>
+  </si>
+  <si>
+    <t>RD/TN/RL/79</t>
   </si>
   <si>
     <r>
@@ -1364,51 +1341,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)_x0000_"/>
       </rPr>
-      <t>Is</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> basically the same as the cap. Different structure, tiers and flexibilities. It loks like is all based on global marine capture. There are no values as the de minimis will be the (x) of the average of landed value for 3 years. What should we use for the (x) value? a scale bar as we use in other cases?) Also there is an exception for 12 miles for all developing countries</t>
-    </r>
-  </si>
-  <si>
-    <t>RD/TN/RL/121</t>
-  </si>
-  <si>
-    <t>Need to pick a OA definition</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Is this generally interpreted as including distant water fishing? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>Ernesto: his proposal covers highseas and fishing in other members EEZs. Is it possible to model that?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">All capacity-enhancing subsidies as defined by Sumaila et al. 2019 would be assumed to be prohibited to vessels satisfying the following characteristics: 1) total length of more than 24 meters; 2) gross tonnage of more than 100 GT; 3) engine power of more than 130 kW. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>In general, the tool does not include many vessels with fishing gears that are not hauled by a motor driven equipment, thus this charcteristic is assumed to be satisfied.</t>
+      <t>RD/TN/RL/77,</t>
     </r>
     <r>
       <rPr>
@@ -1418,45 +1351,96 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> The other 2 conditions are not modeled as is difficult to determied which vessels have onboard freezing equipment, or the characteristics of a vessel's owning or operating company. </t>
+      <t xml:space="preserve"> RD/TN/RL/77/Rev.1</t>
+    </r>
+  </si>
+  <si>
+    <t>TN/RL/GEN/192, TN/RL/W/274/Rev.6</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RD/TN/RL/91, </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>TN/RL/GEN/197, TN/RL/GEN/197/Rev.1</t>
+    </r>
+  </si>
+  <si>
+    <t>RD/TN/RL/112</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RD/TN/RL/97/Rev.3, TN/RL/W/274/Rev.6, RD/TN/RL/104, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>RD/TN/RL/90/Rev.1</t>
+    </r>
+  </si>
+  <si>
+    <t>Facilitator's working text - Overcapacity and overfishing</t>
+  </si>
+  <si>
+    <t>Argentina and others - Vessel flagging</t>
+  </si>
+  <si>
+    <t>Facilitator's working text - S&amp;DT</t>
+  </si>
+  <si>
+    <t>Working document on overcapacity and overfishing</t>
+  </si>
+  <si>
+    <t>Chair's text - Overcapacity and overfishing</t>
+  </si>
+  <si>
+    <t>Chair's working document</t>
+  </si>
+  <si>
+    <t>This communication was circulated at the request of the Chair of the Negotiating Group on Rules on March 9, 2020.</t>
+  </si>
+  <si>
+    <t>CHAIR/OFOC</t>
+  </si>
+  <si>
+    <t>This communication aims to consolidate all existing texts that have been put forth or discussed with regards to a prohibition on subsidies that contribute to overcapacity and overfishing. It was intended to provide a starting point for interactive discussion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not done. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Users can specify a different set of overcapacity and overfishing disciplines to consider and change these default thresholds below. </t>
+      <t xml:space="preserve"> basically the same as the cap. Different structure, tiers and flexibilities. It loks like is all based on global marine capture. There are no values as the de minimis will be the (x) of the average of landed value for 3 years. What should we use for the (x) value? a scale bar as we use in other cases?) Also there is an exception for 12 miles for all developing countries</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Note: there are a couple of definitions here that we don't have the data to model. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As written it specifies different S&amp;DT for developing country and LDC Members </t>
-  </si>
-  <si>
-    <t>DOMESTIC</t>
-  </si>
-  <si>
-    <t>1) The following types of subsidies as classified by Sumaila et al. 2019 are presumed to be prohibited: i) boat construction and renovation, ii) fuel. 2) All vessels flagged to LDC Members are exempted, as are vessels flagged to developing country Members that only fish within their own EEZs.</t>
-  </si>
-  <si>
-    <t>Not added… Need to add new scope?</t>
-  </si>
-  <si>
-    <t>Facilitator's text - Overfished</t>
-  </si>
-  <si>
-    <t>Our interpretation of this is similar to that provided for the Facilitator's working paper.</t>
-  </si>
-  <si>
-    <t>Not done… Need to figure this one out</t>
-  </si>
-  <si>
-    <t>kat_status</t>
+    <t>1) Exclusion of territorial waters for all members. Is not possible to make the distinction between territorial water's and the remainder of an EEZ in the tool's dataset, the assumtion is that is applied to all EEZ. 2) Industrial Fishing on IUU in EEZ and RFMO/A 7 year transition period. 3) Industrial fishing overfished stocks transition period of 2 years. 4) Prohibition in EEZ and RFMO/A if: i) above GNI per capital $5000, ii) above 2% of global marine capture, iii) DWFishing, iv) GDP for Ag, Forrestry and Fisheries less than 10% (3 years)</t>
+  </si>
+  <si>
+    <t>Subsidies for fishing in a Member's territorial waters are excluded. Prohibition of subsidies to OFOC shall not apply to LDCs. A transition period of 5 years shall be allowed for Overfished and OFOC disciplines for developing country and LDC Members.</t>
   </si>
 </sst>
 </file>
@@ -1981,7 +1965,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2002,16 +1986,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2046,14 +2024,8 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2066,6 +2038,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2422,1803 +2424,2262 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CJ25"/>
+  <dimension ref="A1:CL26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="10.83203125" style="12"/>
-    <col min="3" max="3" width="36.5" style="12" customWidth="1"/>
-    <col min="4" max="4" width="32.83203125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="1"/>
-    <col min="9" max="9" width="15.1640625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="28" style="1" customWidth="1"/>
-    <col min="11" max="11" width="48" style="1" customWidth="1"/>
-    <col min="12" max="13" width="48.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="56.1640625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="71" style="12" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="32"/>
+    <col min="2" max="2" width="10.83203125" style="10"/>
+    <col min="3" max="3" width="36.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
+    <col min="9" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="15.1640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="28" style="1" customWidth="1"/>
+    <col min="13" max="13" width="48" style="1" customWidth="1"/>
+    <col min="14" max="15" width="48.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="56.1640625" style="10" customWidth="1"/>
+    <col min="17" max="17" width="71" style="10" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" s="13" customFormat="1" ht="68">
-      <c r="A1" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:90" s="11" customFormat="1" ht="68">
+      <c r="A1" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="C1" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE1" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF1" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL1" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="AM1" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="AN1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO1" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="AP1" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="AQ1" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AR1" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="AS1" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="AT1" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="AU1" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="AV1" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="AW1" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="AX1" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="AY1" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="AZ1" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="BA1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="BC1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="BE1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="BF1" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="BG1" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="BH1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI1" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="BJ1" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="BK1" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="BL1" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="BM1" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="BN1" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="BO1" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="BP1" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="BQ1" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="BR1" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="BS1" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="BT1" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="BU1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="BW1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="BX1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="BY1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="BZ1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="CA1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="CB1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="CC1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="CD1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="CE1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="CF1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="CG1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="CH1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="CI1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="CJ1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="CK1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="CL1" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:90" s="11" customFormat="1" ht="282" customHeight="1">
+      <c r="A2" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="2">
+        <v>43545</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1"/>
+      <c r="BQ2" s="1"/>
+      <c r="BR2" s="1"/>
+      <c r="BS2" s="1"/>
+      <c r="BT2" s="1"/>
+      <c r="BU2" s="1"/>
+      <c r="BV2" s="1"/>
+      <c r="BW2" s="1"/>
+      <c r="BX2" s="1"/>
+      <c r="BY2" s="1"/>
+      <c r="BZ2" s="1"/>
+      <c r="CA2" s="1"/>
+      <c r="CB2" s="1"/>
+      <c r="CC2" s="1"/>
+      <c r="CD2" s="1"/>
+      <c r="CE2" s="1"/>
+      <c r="CF2" s="1"/>
+      <c r="CG2" s="1"/>
+      <c r="CH2" s="1"/>
+      <c r="CI2" s="1"/>
+      <c r="CJ2" s="1"/>
+      <c r="CK2" s="1"/>
+      <c r="CL2" s="1"/>
+    </row>
+    <row r="3" spans="1:90" ht="238">
+      <c r="A3" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="2">
+        <v>43573</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AH3" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y1" s="13" t="s">
+      <c r="AN3" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU3" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:90" ht="306">
+      <c r="A4" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="2">
+        <v>43620</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU4" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Z1" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="AB1" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="AC1" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="AD1" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="AE1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ1" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="AK1" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="AL1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM1" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="AN1" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="AO1" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="AP1" s="13" t="s">
+      <c r="BV4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW4" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="CA4" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="CC4" s="1">
+        <v>600</v>
+      </c>
+      <c r="CD4" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:90" ht="221">
+      <c r="A5" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="AQ1" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="AR1" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="AS1" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="AT1" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="AU1" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="AV1" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="AW1" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="AX1" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="AY1" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="AZ1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="BA1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="BB1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="BC1" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="BD1" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="BE1" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="BF1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="BG1" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="BH1" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="BI1" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="BJ1" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="BK1" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="BL1" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="BM1" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="BN1" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="BO1" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="BP1" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="BQ1" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="BR1" s="13" t="s">
+      <c r="D5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J5" s="2">
+        <v>43621</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="P5" s="25" t="s">
         <v>344</v>
       </c>
-      <c r="BS1" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="BU1" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="BV1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="BW1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="BX1" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="BY1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="BZ1" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="CA1" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="CB1" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="CC1" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="CD1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="CE1" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="CF1" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="CG1" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="CH1" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="CI1" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="CJ1" s="13" t="s">
-        <v>53</v>
+      <c r="Q5" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU5" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:88" s="13" customFormat="1" ht="282" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>376</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="H2" s="18">
-        <v>43896</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="AE2" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="AF2" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="AL2" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="AM2" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="AN2" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="AP2" s="13">
-        <v>5</v>
-      </c>
-      <c r="AQ2" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="AR2" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="AT2" s="13">
-        <v>3</v>
-      </c>
-      <c r="AU2" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AZ2" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="BC2" s="13">
-        <v>24</v>
-      </c>
-      <c r="BF2" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="BG2" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="BH2" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="BJ2" s="13">
-        <v>5</v>
-      </c>
-      <c r="BK2" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="BL2" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="BN2" s="13">
-        <v>3</v>
-      </c>
-      <c r="BO2" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="BS2" s="13" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:88" ht="136">
-      <c r="A3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="2">
-        <v>43759</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>378</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BS3" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="4" spans="1:88" ht="170">
-      <c r="A4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" s="2">
-        <v>43801</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BF4" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BS4" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:88" ht="119">
-      <c r="A5" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="2">
-        <v>43718</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BF5" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BS5" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="6" spans="1:88" ht="136">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:90" ht="221">
+      <c r="A6" s="32" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J6" s="2">
+        <v>43628</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU6" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:90" ht="170">
+      <c r="A7" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J7" s="2">
+        <v>43643</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH7" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU7" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:90" ht="238">
+      <c r="A8" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="2">
+        <v>43648</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BH8" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="BI8" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="BJ8" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BM8" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="BN8" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="BQ8" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU8" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:90" ht="187">
+      <c r="A9" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="2">
+        <v>43648</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="P9" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BH9" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU9" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:90" ht="204">
+      <c r="A10" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="2">
+        <v>43657</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BH10" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU10" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="BV10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BW10" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="BX10" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="BZ10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="CA10" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="CD10" s="1">
+        <v>90</v>
+      </c>
+      <c r="CE10" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="CF10" s="1">
+        <v>50</v>
+      </c>
+      <c r="CI10" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:90" ht="187">
+      <c r="A11" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" s="2">
+        <v>43684</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BA11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BE11" s="1">
+        <v>24</v>
+      </c>
+      <c r="BF11" s="1">
+        <v>100</v>
+      </c>
+      <c r="BG11" s="1">
+        <v>130</v>
+      </c>
+      <c r="BH11" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU11" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:90" ht="119">
+      <c r="A12" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="2">
+        <v>43718</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P12" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BH12" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU12" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:90" ht="136.5" customHeight="1">
+      <c r="A13" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="2">
+        <v>43759</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="P13" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BA13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB13" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="BH13" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU13" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:90" ht="289">
+      <c r="A14" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" s="2">
+        <v>43775</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q14" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>6</v>
+      </c>
+      <c r="AS14" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AT14" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW14" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BH14" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU14" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:90" ht="204">
+      <c r="A15" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J15" s="2">
+        <v>43801</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BH15" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU15" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:90" ht="85">
+      <c r="A16" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="2">
+        <v>43801</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="8"/>
+    </row>
+    <row r="17" spans="1:90" ht="136">
+      <c r="A17" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J17" s="2">
+        <v>43801</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="8"/>
+    </row>
+    <row r="18" spans="1:90" ht="68">
+      <c r="A18" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18" s="2">
+        <v>43802</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="8"/>
+    </row>
+    <row r="19" spans="1:90" ht="340">
+      <c r="A19" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" s="2">
+        <v>43803</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="P19" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AN19" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BH19" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU19" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:90" ht="255">
+      <c r="A20" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J20" s="2">
+        <v>43843</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="N20" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="O20" s="6"/>
+      <c r="P20" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q20" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AN20" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BA20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD20" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH20" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU20" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:90" ht="153">
+      <c r="A21" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J21" s="2">
         <v>43865</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="K21" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN21" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BH21" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU21" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:90" ht="323">
+      <c r="A22" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J22" s="2">
+        <v>43865</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q22" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN22" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BA22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB22" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BH22" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="BI22" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="BJ22" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BM22" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="BN22" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="BQ22" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU22" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:90" ht="323">
+      <c r="A23" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="O6" s="9" t="s">
+      <c r="J23" s="16">
+        <v>43896</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="L23" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="M23" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="N23" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="O23" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="P23" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q23" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="S23" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="AH23" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="11"/>
+      <c r="AN23" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="AO23" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP23" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="AQ23" s="11"/>
+      <c r="AR23" s="11">
+        <v>5</v>
+      </c>
+      <c r="AS23" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="AT23" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="AU23" s="11"/>
+      <c r="AV23" s="11">
+        <v>5</v>
+      </c>
+      <c r="AW23" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="AX23" s="11"/>
+      <c r="AY23" s="11"/>
+      <c r="AZ23" s="11"/>
+      <c r="BA23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB23" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="BC23" s="11"/>
+      <c r="BD23" s="11"/>
+      <c r="BE23" s="11">
+        <v>24</v>
+      </c>
+      <c r="BF23" s="11"/>
+      <c r="BG23" s="11"/>
+      <c r="BH23" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="BI23" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="BJ23" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="BK23" s="11"/>
+      <c r="BL23" s="11"/>
+      <c r="BM23" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="BN23" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="BO23" s="11"/>
+      <c r="BP23" s="11">
+        <v>5</v>
+      </c>
+      <c r="BQ23" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="BR23" s="11"/>
+      <c r="BS23" s="11"/>
+      <c r="BT23" s="11"/>
+      <c r="BU23" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="BV23" s="11"/>
+      <c r="BW23" s="11"/>
+      <c r="BX23" s="11"/>
+      <c r="BY23" s="11"/>
+      <c r="BZ23" s="11"/>
+      <c r="CA23" s="11"/>
+      <c r="CB23" s="11"/>
+      <c r="CC23" s="11"/>
+      <c r="CD23" s="11"/>
+      <c r="CE23" s="11"/>
+      <c r="CF23" s="11"/>
+      <c r="CG23" s="11"/>
+      <c r="CH23" s="11"/>
+      <c r="CI23" s="11"/>
+      <c r="CJ23" s="11"/>
+      <c r="CK23" s="11"/>
+      <c r="CL23" s="11"/>
+    </row>
+    <row r="24" spans="1:90" ht="182.25" customHeight="1">
+      <c r="A24" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="X6" s="1">
+      <c r="G24" s="10"/>
+      <c r="H24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J24" s="2">
+        <v>43896</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="P24" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="25" spans="1:90" ht="182.25" customHeight="1">
+      <c r="A25" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="J25" s="2">
+        <v>43899</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="8"/>
+    </row>
+    <row r="26" spans="1:90" ht="51">
+      <c r="A26" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="8"/>
+      <c r="S26" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="T26" s="1">
+        <v>20</v>
+      </c>
+      <c r="U26" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z26" s="1">
         <v>5</v>
       </c>
-      <c r="Y6" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="AD6" s="1">
+      <c r="AA26" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC26" s="1">
         <v>5</v>
       </c>
-      <c r="AL6" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BF6" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BS6" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="7" spans="1:88" ht="221">
-      <c r="A7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H7" s="2">
-        <v>43628</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BF7" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BS7" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="8" spans="1:88" ht="272">
-      <c r="A8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="2">
-        <v>43657</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BF8" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BS8" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="BT8" s="1" t="s">
+      <c r="AD26" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH26" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AJ26" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>24</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>100</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>400</v>
+      </c>
+      <c r="AN26" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AO26" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AQ26" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR26" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS26" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AU26" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV26" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW26" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AY26" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ26" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB26" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BD26" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE26" s="1">
+        <v>24</v>
+      </c>
+      <c r="BF26" s="1">
+        <v>100</v>
+      </c>
+      <c r="BG26" s="1">
+        <v>400</v>
+      </c>
+      <c r="BH26" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BI26" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BK26" s="1">
+        <v>5</v>
+      </c>
+      <c r="BL26" s="1">
+        <v>5</v>
+      </c>
+      <c r="BM26" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BO26" s="1">
+        <v>5</v>
+      </c>
+      <c r="BP26" s="1">
+        <v>5</v>
+      </c>
+      <c r="BQ26" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BS26" s="1">
+        <v>5</v>
+      </c>
+      <c r="BT26" s="1">
+        <v>5</v>
+      </c>
+      <c r="BU26" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BV26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BU8" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="BV8" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="BX8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BY8" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="CB8" s="1">
-        <v>90</v>
-      </c>
-      <c r="CC8" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="CD8" s="1">
-        <v>50</v>
-      </c>
-      <c r="CG8" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="9" spans="1:88" ht="323">
-      <c r="A9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="2">
-        <v>43620</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AL9" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BF9" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BS9" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="BT9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BU9" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="BY9" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="CA9" s="1">
+      <c r="BW26" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="BX26" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="BY26" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="BZ26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CA26" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="CB26" s="1">
+        <v>5</v>
+      </c>
+      <c r="CC26" s="1">
         <v>800</v>
       </c>
-      <c r="CB9" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:88" ht="388">
-      <c r="A10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="2">
-        <v>43545</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="11" spans="1:88" ht="85">
-      <c r="A11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="2">
-        <v>43801</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9"/>
-    </row>
-    <row r="12" spans="1:88" ht="238">
-      <c r="A12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H12" s="2">
-        <v>43843</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="13" spans="1:88" ht="136.5" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" s="2">
-        <v>43643</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="N13" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AL13" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AY13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AZ13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BB13" s="1">
+      <c r="CD26" s="1">
         <v>5</v>
       </c>
-      <c r="BF13" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BS13" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="14" spans="1:88" ht="187">
-      <c r="A14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H14" s="2">
-        <v>43684</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="AY14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AZ14" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="BC14" s="1">
-        <v>24</v>
-      </c>
-      <c r="BD14" s="1">
-        <v>100</v>
-      </c>
-      <c r="BE14" s="1">
-        <v>130</v>
-      </c>
-      <c r="BF14" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="15" spans="1:88" ht="238">
-      <c r="A15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H15" s="2">
-        <v>43573</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="16" spans="1:88" ht="238">
-      <c r="A16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H16" s="2">
-        <v>43648</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AL16" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AY16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AZ16" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="BF16" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="BG16" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="BH16" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="BK16" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="BL16" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="BO16" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BS16" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="17" spans="1:88" ht="136">
-      <c r="A17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="2">
-        <v>43865</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="18" spans="1:88" ht="289">
-      <c r="A18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H18" s="2">
-        <v>43775</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="19" spans="1:88" ht="136">
-      <c r="A19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H19" s="2">
-        <v>43801</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="N19" s="8"/>
-      <c r="O19" s="9"/>
-    </row>
-    <row r="20" spans="1:88" ht="340">
-      <c r="A20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" s="2">
-        <v>43803</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="N20" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="21" spans="1:88" ht="204">
-      <c r="A21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H21" s="2">
-        <v>43648</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="22" spans="1:88" ht="204">
-      <c r="A22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H22" s="2">
-        <v>43621</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="23" spans="1:88" ht="68">
-      <c r="A23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H23" s="2">
-        <v>43802</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="N23" s="8"/>
-      <c r="O23" s="9"/>
-    </row>
-    <row r="24" spans="1:88" ht="182.25" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H24" s="2">
-        <v>43896</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="O24" s="9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="25" spans="1:88" ht="51">
-      <c r="A25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="9"/>
-      <c r="Q25" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="R25" s="1">
-        <v>20</v>
-      </c>
-      <c r="S25" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="X25" s="1">
+      <c r="CE26" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="CF26" s="1">
         <v>5</v>
       </c>
-      <c r="Y25" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AA25" s="1">
+      <c r="CG26" s="1">
+        <v>800</v>
+      </c>
+      <c r="CH26" s="1">
         <v>5</v>
       </c>
-      <c r="AB25" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AD25" s="1">
+      <c r="CI26" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="CJ26" s="1">
         <v>5</v>
       </c>
-      <c r="AF25" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="AH25" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI25" s="1">
-        <v>24</v>
-      </c>
-      <c r="AJ25" s="1">
-        <v>100</v>
-      </c>
-      <c r="AK25" s="1">
-        <v>400</v>
-      </c>
-      <c r="AL25" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AM25" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AO25" s="1">
-        <v>5</v>
-      </c>
-      <c r="AP25" s="1">
-        <v>5</v>
-      </c>
-      <c r="AQ25" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AS25" s="1">
-        <v>5</v>
-      </c>
-      <c r="AT25" s="1">
-        <v>5</v>
-      </c>
-      <c r="AU25" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AW25" s="1">
-        <v>5</v>
-      </c>
-      <c r="AX25" s="1">
-        <v>5</v>
-      </c>
-      <c r="AZ25" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="BB25" s="1">
-        <v>5</v>
-      </c>
-      <c r="BC25" s="1">
-        <v>24</v>
-      </c>
-      <c r="BD25" s="1">
-        <v>100</v>
-      </c>
-      <c r="BE25" s="1">
-        <v>400</v>
-      </c>
-      <c r="BF25" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BG25" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BI25" s="1">
-        <v>5</v>
-      </c>
-      <c r="BJ25" s="1">
-        <v>5</v>
-      </c>
-      <c r="BK25" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BM25" s="1">
-        <v>5</v>
-      </c>
-      <c r="BN25" s="1">
-        <v>5</v>
-      </c>
-      <c r="BO25" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BQ25" s="1">
-        <v>5</v>
-      </c>
-      <c r="BR25" s="1">
-        <v>5</v>
-      </c>
-      <c r="BS25" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BT25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BU25" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="BV25" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="BW25" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="BX25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BY25" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="BZ25" s="1">
-        <v>5</v>
-      </c>
-      <c r="CA25" s="1">
+      <c r="CK26" s="1">
         <v>800</v>
       </c>
-      <c r="CB25" s="1">
-        <v>5</v>
-      </c>
-      <c r="CC25" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="CD25" s="1">
-        <v>5</v>
-      </c>
-      <c r="CE25" s="1">
-        <v>800</v>
-      </c>
-      <c r="CF25" s="1">
-        <v>5</v>
-      </c>
-      <c r="CG25" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="CH25" s="1">
-        <v>5</v>
-      </c>
-      <c r="CI25" s="1">
-        <v>800</v>
-      </c>
-      <c r="CJ25" s="1">
+      <c r="CL26" s="1">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:CL26">
+    <sortCondition ref="J2:J26"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4251,13 +4712,13 @@
   <sheetData>
     <row r="1" spans="1:58" ht="51">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -4266,7 +4727,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -4430,13 +4891,13 @@
         <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>54</v>
@@ -4445,22 +4906,22 @@
         <v>42922</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>55</v>
@@ -4481,7 +4942,7 @@
         <v>60</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>57</v>
@@ -4504,34 +4965,34 @@
         <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="F3" s="2">
         <v>42852</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>55</v>
@@ -4566,37 +5027,37 @@
         <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F4" s="2">
         <v>42941</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>55</v>
@@ -4631,34 +5092,34 @@
         <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F5" s="2">
         <v>42929</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>55</v>
@@ -4693,31 +5154,31 @@
         <v>90</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="F6" s="2">
         <v>42941</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>55</v>
@@ -4731,37 +5192,37 @@
         <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="F7" s="2">
         <v>42930</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>57</v>
@@ -4802,37 +5263,37 @@
         <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="F8" s="2">
         <v>42933</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>57</v>
@@ -4850,7 +5311,7 @@
         <v>55</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>57</v>
@@ -4876,10 +5337,10 @@
         <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>66</v>
@@ -4888,22 +5349,22 @@
         <v>43040</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>57</v>
@@ -4920,10 +5381,10 @@
         <v>89</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>67</v>
@@ -4932,25 +5393,25 @@
         <v>43055</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="AE10" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="AJ10" s="1" t="s">
         <v>55</v>
@@ -4961,7 +5422,7 @@
         <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>68</v>
@@ -4976,16 +5437,16 @@
         <v>70</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="AO11" s="1" t="s">
         <v>58</v>
@@ -5023,10 +5484,10 @@
         <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>77</v>
@@ -5044,13 +5505,13 @@
         <v>79</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="AO12" s="1" t="s">
         <v>58</v>

--- a/app/data/wto_proposal_settings_master.xlsx
+++ b/app/data/wto_proposal_settings_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kat/GitHub/SubsidyExplorer/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EA79C2-B49C-194B-A2FF-D662E23CBB6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366665C3-D760-6442-91A7-B224332DFEE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="840" windowWidth="26940" windowHeight="25280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18860" yWindow="1120" windowWidth="26940" windowHeight="25280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="429">
   <si>
     <t>proposal</t>
   </si>
@@ -483,9 +483,6 @@
   </si>
   <si>
     <t xml:space="preserve">This communication advocates for placing prohibitions on a Member's subsidies contingent upon, or tied to actual or anticipated, fishing activities in areas beyond that Member's national jurisdiction. </t>
-  </si>
-  <si>
-    <t>LTE</t>
   </si>
   <si>
     <t>This communication advocates for prohibiting subsidies that reduce the operational or capital costs of fishing when one or more of the stocks in the relevant fishery or fisheries being targeted are either 1) being fished with a measure of fishing capacity that is greater than would be required to maintain the stock(s) at a level that would maintain [MSY]; 2) being fished at a rate that is contributing to a decline in the stock(s) below a level that would maintain [MSY]. If the subsidizing Member can demonstrate that it has other policies in place that effectively ensure the stocks(s) are maintained at or above a level required to maintain [MSY], a subsidy that would otherwise be prohibited by either of the above conditions shall be allowed.</t>
@@ -1441,6 +1438,21 @@
   </si>
   <si>
     <t>Subsidies for fishing in a Member's territorial waters are excluded. Prohibition of subsidies to OFOC shall not apply to LDCs. A transition period of 5 years shall be allowed for Overfished and OFOC disciplines for developing country and LDC Members.</t>
+  </si>
+  <si>
+    <t>oa_scope_select</t>
+  </si>
+  <si>
+    <t>SELECT</t>
+  </si>
+  <si>
+    <t>overcap_scope_select</t>
+  </si>
+  <si>
+    <t>LENGTH, TONNAGE, ENGINE</t>
+  </si>
+  <si>
+    <t>iuu_scope_select</t>
   </si>
 </sst>
 </file>
@@ -2424,11 +2436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CL26"/>
+  <dimension ref="A1:CO26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -2451,7 +2463,7 @@
     <col min="18" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" s="11" customFormat="1" ht="68">
+    <row r="1" spans="1:93" s="11" customFormat="1" ht="68">
       <c r="A1" s="17" t="s">
         <v>141</v>
       </c>
@@ -2459,22 +2471,22 @@
         <v>88</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>1</v>
@@ -2483,7 +2495,7 @@
         <v>129</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>2</v>
@@ -2495,13 +2507,13 @@
         <v>4</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P1" s="14" t="s">
         <v>5</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R1" s="11" t="s">
         <v>7</v>
@@ -2516,214 +2528,223 @@
         <v>10</v>
       </c>
       <c r="V1" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="W1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="X1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="Y1" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z1" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="AA1" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AB1" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AD1" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AF1" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ1" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="AK1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN1" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="AG1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AO1" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AP1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ1" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="AN1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AR1" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AS1" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AT1" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AU1" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="AV1" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="AT1" s="11" t="s">
+      <c r="AW1" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="AU1" s="11" t="s">
+      <c r="AX1" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="AV1" s="11" t="s">
+      <c r="AY1" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="AW1" s="11" t="s">
+      <c r="AZ1" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="AX1" s="11" t="s">
+      <c r="BA1" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="BB1" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="AZ1" s="11" t="s">
+      <c r="BC1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="BD1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE1" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="BF1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="BH1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI1" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="BA1" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="BB1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="BC1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="BD1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="BE1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="BF1" s="11" t="s">
+      <c r="BJ1" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="BG1" s="11" t="s">
+      <c r="BK1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL1" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="BH1" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="BI1" s="11" t="s">
+      <c r="BM1" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="BJ1" s="11" t="s">
+      <c r="BN1" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="BK1" s="11" t="s">
+      <c r="BO1" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="BL1" s="11" t="s">
+      <c r="BP1" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="BM1" s="11" t="s">
+      <c r="BQ1" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="BN1" s="11" t="s">
+      <c r="BR1" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="BO1" s="11" t="s">
+      <c r="BS1" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="BP1" s="11" t="s">
+      <c r="BT1" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="BQ1" s="11" t="s">
+      <c r="BU1" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="BR1" s="11" t="s">
+      <c r="BV1" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="BS1" s="11" t="s">
+      <c r="BW1" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="BT1" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="BU1" s="11" t="s">
+      <c r="BX1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="BV1" s="11" t="s">
+      <c r="BY1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="BW1" s="11" t="s">
+      <c r="BZ1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="BX1" s="11" t="s">
+      <c r="CA1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="BY1" s="11" t="s">
+      <c r="CB1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="BZ1" s="11" t="s">
+      <c r="CC1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="CA1" s="11" t="s">
+      <c r="CD1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="CB1" s="11" t="s">
+      <c r="CE1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="CC1" s="11" t="s">
+      <c r="CF1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="CD1" s="11" t="s">
+      <c r="CG1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="CE1" s="11" t="s">
+      <c r="CH1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="CF1" s="11" t="s">
+      <c r="CI1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="CG1" s="11" t="s">
+      <c r="CJ1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="CH1" s="11" t="s">
+      <c r="CK1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="CI1" s="11" t="s">
+      <c r="CL1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="CJ1" s="11" t="s">
+      <c r="CM1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="CK1" s="11" t="s">
+      <c r="CN1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="CL1" s="11" t="s">
+      <c r="CO1" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:90" s="11" customFormat="1" ht="282" customHeight="1">
+    <row r="2" spans="1:93" s="11" customFormat="1" ht="282" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>58</v>
       </c>
@@ -2731,19 +2752,19 @@
         <v>98</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>58</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>99</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>55</v>
@@ -2755,7 +2776,7 @@
         <v>43545</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>147</v>
@@ -2764,14 +2785,14 @@
         <v>148</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -2846,8 +2867,11 @@
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
+      <c r="CM2" s="1"/>
+      <c r="CN2" s="1"/>
+      <c r="CO2" s="1"/>
     </row>
-    <row r="3" spans="1:90" ht="238">
+    <row r="3" spans="1:93" ht="238">
       <c r="A3" s="32" t="s">
         <v>58</v>
       </c>
@@ -2855,19 +2879,19 @@
         <v>98</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>108</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>55</v>
@@ -2879,7 +2903,7 @@
         <v>43573</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>110</v>
@@ -2888,34 +2912,34 @@
         <v>111</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>365</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>321</v>
+        <v>364</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BU3" s="1" t="s">
-        <v>304</v>
+        <v>320</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="4" spans="1:90" ht="306">
+    <row r="4" spans="1:93" ht="306">
       <c r="A4" s="32" t="s">
         <v>58</v>
       </c>
@@ -2923,7 +2947,7 @@
         <v>98</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>58</v>
@@ -2942,7 +2966,7 @@
         <v>43620</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>78</v>
@@ -2951,43 +2975,43 @@
         <v>79</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P4" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BU4" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="BV4" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BK4" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BX4" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="BY4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="BW4" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="CA4" s="1" t="s">
+      <c r="BZ4" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="CC4" s="1">
+      <c r="CD4" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="CF4" s="1">
         <v>600</v>
       </c>
-      <c r="CD4" s="1">
+      <c r="CG4" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:90" ht="221">
+    <row r="5" spans="1:93" ht="221">
       <c r="A5" s="32" t="s">
         <v>58</v>
       </c>
@@ -2995,19 +3019,19 @@
         <v>124</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>58</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>132</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>55</v>
@@ -3019,7 +3043,7 @@
         <v>43621</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>134</v>
@@ -3028,34 +3052,34 @@
         <v>135</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P5" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>358</v>
+        <v>363</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BH5" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BU5" s="1" t="s">
-        <v>304</v>
+        <v>357</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BX5" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:90" ht="221">
+    <row r="6" spans="1:93" ht="221">
       <c r="A6" s="32" t="s">
         <v>58</v>
       </c>
@@ -3063,7 +3087,7 @@
         <v>90</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>58</v>
@@ -3081,7 +3105,7 @@
         <v>43628</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>144</v>
@@ -3090,34 +3114,37 @@
         <v>146</v>
       </c>
       <c r="N6" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="P6" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="P6" s="25" t="s">
-        <v>344</v>
-      </c>
       <c r="Q6" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BH6" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BU6" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BK6" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BX6" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="7" spans="1:90" ht="170">
+    <row r="7" spans="1:93" ht="170">
       <c r="A7" s="32" t="s">
         <v>58</v>
       </c>
@@ -3125,13 +3152,13 @@
         <v>98</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>58</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>102</v>
@@ -3146,7 +3173,7 @@
         <v>43643</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>103</v>
@@ -3158,34 +3185,37 @@
         <v>153</v>
       </c>
       <c r="P7" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BA7" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BC7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BB7" s="1" t="s">
+      <c r="BD7" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="BE7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BD7" s="1">
+      <c r="BG7" s="1">
         <v>5</v>
       </c>
-      <c r="BH7" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BU7" s="1" t="s">
-        <v>304</v>
+      <c r="BK7" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BX7" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:90" ht="238">
+    <row r="8" spans="1:93" ht="238">
       <c r="A8" s="32" t="s">
         <v>58</v>
       </c>
@@ -3193,19 +3223,19 @@
         <v>98</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>58</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>114</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>55</v>
@@ -3217,7 +3247,7 @@
         <v>43648</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>115</v>
@@ -3226,49 +3256,49 @@
         <v>116</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BA8" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BC8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BB8" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="BH8" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="BI8" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="BJ8" s="1" t="s">
-        <v>303</v>
+      <c r="BD8" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="BK8" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="BL8" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="BM8" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="BN8" s="1" t="s">
-        <v>336</v>
+        <v>302</v>
+      </c>
+      <c r="BP8" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="BQ8" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BU8" s="1" t="s">
-        <v>304</v>
+        <v>335</v>
+      </c>
+      <c r="BT8" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BX8" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:90" ht="187">
+    <row r="9" spans="1:93" ht="187">
       <c r="A9" s="32" t="s">
         <v>58</v>
       </c>
@@ -3276,7 +3306,7 @@
         <v>124</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>58</v>
@@ -3285,7 +3315,7 @@
         <v>130</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>55</v>
@@ -3297,7 +3327,7 @@
         <v>43648</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>131</v>
@@ -3306,34 +3336,37 @@
         <v>116</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P9" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>358</v>
+        <v>370</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="AN9" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BH9" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BU9" s="1" t="s">
-        <v>304</v>
+        <v>357</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BK9" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BX9" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="10" spans="1:90" ht="204">
+    <row r="10" spans="1:93" ht="204">
       <c r="A10" s="32" t="s">
         <v>58</v>
       </c>
@@ -3341,7 +3374,7 @@
         <v>98</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>58</v>
@@ -3350,7 +3383,7 @@
         <v>68</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>58</v>
@@ -3362,7 +3395,7 @@
         <v>43657</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>70</v>
@@ -3371,55 +3404,55 @@
         <v>128</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P10" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="W10" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BK10" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BX10" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="BY10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BZ10" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="AN10" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BH10" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BU10" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="BV10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BW10" s="1" t="s">
+      <c r="CA10" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="BX10" s="1" t="s">
+      <c r="CC10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="CD10" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="BZ10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="CA10" s="1" t="s">
+      <c r="CG10" s="1">
+        <v>90</v>
+      </c>
+      <c r="CH10" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="CD10" s="1">
-        <v>90</v>
-      </c>
-      <c r="CE10" s="1" t="s">
+      <c r="CI10" s="1">
+        <v>50</v>
+      </c>
+      <c r="CL10" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="CF10" s="1">
-        <v>50</v>
-      </c>
-      <c r="CI10" s="1" t="s">
-        <v>309</v>
-      </c>
     </row>
-    <row r="11" spans="1:90" ht="187">
+    <row r="11" spans="1:93" ht="187">
       <c r="A11" s="32" t="s">
         <v>58</v>
       </c>
@@ -3427,13 +3460,13 @@
         <v>98</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>58</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>106</v>
@@ -3448,7 +3481,7 @@
         <v>43684</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>112</v>
@@ -3457,43 +3490,46 @@
         <v>113</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P11" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AN11" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BA11" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BC11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BB11" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE11" s="1">
+      <c r="BD11" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="BE11" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="BH11" s="1">
         <v>24</v>
       </c>
-      <c r="BF11" s="1">
+      <c r="BI11" s="1">
         <v>100</v>
       </c>
-      <c r="BG11" s="1">
+      <c r="BJ11" s="1">
         <v>130</v>
       </c>
-      <c r="BH11" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BU11" s="1" t="s">
-        <v>304</v>
+      <c r="BK11" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BX11" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="12" spans="1:90" ht="119">
+    <row r="12" spans="1:93" ht="119">
       <c r="A12" s="33" t="s">
         <v>58</v>
       </c>
@@ -3501,7 +3537,7 @@
         <v>90</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>58</v>
@@ -3520,7 +3556,7 @@
         <v>43718</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>94</v>
@@ -3532,34 +3568,34 @@
         <v>151</v>
       </c>
       <c r="P12" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q12" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="R12" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="S12" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AN12" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BH12" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BU12" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BK12" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BX12" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="13" spans="1:90" ht="136.5" customHeight="1">
+    <row r="13" spans="1:93" ht="136.5" customHeight="1">
       <c r="A13" s="32" t="s">
         <v>58</v>
       </c>
@@ -3567,7 +3603,7 @@
         <v>89</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>58</v>
@@ -3576,7 +3612,7 @@
         <v>85</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>58</v>
@@ -3588,7 +3624,7 @@
         <v>43759</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>86</v>
@@ -3597,37 +3633,40 @@
         <v>87</v>
       </c>
       <c r="N13" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="P13" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q13" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="O13" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="P13" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AN13" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BA13" s="1" t="s">
+      <c r="X13" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AP13" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BC13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BB13" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="BH13" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BU13" s="1" t="s">
-        <v>304</v>
+      <c r="BD13" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="BE13" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="BK13" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BX13" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="14" spans="1:90" ht="289">
+    <row r="14" spans="1:93" ht="289">
       <c r="A14" s="32" t="s">
         <v>58</v>
       </c>
@@ -3635,19 +3674,19 @@
         <v>98</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>58</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>55</v>
@@ -3659,7 +3698,7 @@
         <v>43775</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>118</v>
@@ -3668,55 +3707,58 @@
         <v>119</v>
       </c>
       <c r="N14" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="Q14" s="27" t="s">
-        <v>378</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AG14" s="1" t="s">
-        <v>321</v>
+      <c r="X14" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="AN14" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AR14" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="AO14" s="1" t="s">
+      <c r="AT14" s="1">
+        <v>6</v>
+      </c>
+      <c r="AU14" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AV14" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="AP14" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="AR14" s="1">
-        <v>6</v>
-      </c>
-      <c r="AS14" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="AT14" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="AV14" s="1">
+      <c r="AX14" s="1">
         <v>4</v>
       </c>
-      <c r="AW14" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BH14" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BU14" s="1" t="s">
-        <v>304</v>
+      <c r="AY14" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BK14" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BX14" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="15" spans="1:90" ht="204">
+    <row r="15" spans="1:93" ht="204">
       <c r="A15" s="32" t="s">
         <v>58</v>
       </c>
@@ -3724,7 +3766,7 @@
         <v>90</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>58</v>
@@ -3733,7 +3775,7 @@
         <v>91</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>55</v>
@@ -3745,46 +3787,46 @@
         <v>43801</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>92</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P15" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AN15" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BH15" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BU15" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BK15" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BX15" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="16" spans="1:90" ht="85">
+    <row r="16" spans="1:93" ht="85">
       <c r="A16" s="32" t="s">
         <v>55</v>
       </c>
@@ -3795,7 +3837,7 @@
         <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>100</v>
@@ -3810,7 +3852,7 @@
         <v>43801</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>149</v>
@@ -3824,7 +3866,7 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="1:90" ht="136">
+    <row r="17" spans="1:93" ht="136">
       <c r="A17" s="32" t="s">
         <v>55</v>
       </c>
@@ -3835,7 +3877,7 @@
         <v>58</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>120</v>
@@ -3851,7 +3893,7 @@
         <v>43801</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>122</v>
@@ -3860,12 +3902,12 @@
         <v>123</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="8"/>
     </row>
-    <row r="18" spans="1:90" ht="68">
+    <row r="18" spans="1:93" ht="68">
       <c r="A18" s="32" t="s">
         <v>55</v>
       </c>
@@ -3876,7 +3918,7 @@
         <v>58</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>136</v>
@@ -3891,7 +3933,7 @@
         <v>43802</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>137</v>
@@ -3900,12 +3942,12 @@
         <v>138</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:90" ht="340">
+    <row r="19" spans="1:93" ht="340">
       <c r="A19" s="32" t="s">
         <v>58</v>
       </c>
@@ -3913,13 +3955,13 @@
         <v>124</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>58</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>125</v>
@@ -3934,7 +3976,7 @@
         <v>43803</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>126</v>
@@ -3943,34 +3985,34 @@
         <v>127</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P19" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AG19" s="1" t="s">
-        <v>321</v>
+        <v>369</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="AH19" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="AN19" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BH19" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BU19" s="1" t="s">
-        <v>304</v>
+        <v>320</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AP19" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BK19" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BX19" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="20" spans="1:90" ht="255">
+    <row r="20" spans="1:93" ht="255">
       <c r="A20" s="32" t="s">
         <v>58</v>
       </c>
@@ -3978,74 +4020,77 @@
         <v>98</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>58</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J20" s="2">
         <v>43843</v>
       </c>
       <c r="K20" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="M20" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="N20" s="26" t="s">
         <v>356</v>
-      </c>
-      <c r="N20" s="26" t="s">
-        <v>357</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q20" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AG20" s="1" t="s">
-        <v>321</v>
+        <v>386</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="AH20" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="AN20" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BA20" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BC20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BB20" s="1" t="s">
+      <c r="BD20" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="BE20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BD20" s="1">
+      <c r="BG20" s="1">
         <v>5</v>
       </c>
-      <c r="BH20" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BU20" s="1" t="s">
-        <v>304</v>
+      <c r="BK20" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BX20" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="21" spans="1:90" ht="153">
+    <row r="21" spans="1:93" ht="153">
       <c r="A21" s="32" t="s">
         <v>58</v>
       </c>
@@ -4053,19 +4098,19 @@
         <v>90</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>58</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>55</v>
@@ -4077,7 +4122,7 @@
         <v>43865</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>142</v>
@@ -4086,64 +4131,64 @@
         <v>116</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R21" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="X21" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="W21" s="1" t="s">
+      <c r="Y21" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z21" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="AA21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC21" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Y21" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z21" s="1">
+      <c r="AD21" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AG21" s="1">
         <v>5</v>
       </c>
-      <c r="AA21" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="AC21" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD21" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="AE21" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="AF21" s="1">
-        <v>5</v>
-      </c>
-      <c r="AN21" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BH21" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BU21" s="1" t="s">
-        <v>304</v>
+      <c r="AP21" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BK21" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BX21" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="22" spans="1:90" ht="323">
+    <row r="22" spans="1:93" ht="323">
       <c r="A22" s="32" t="s">
         <v>58</v>
       </c>
@@ -4151,16 +4196,16 @@
         <v>98</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>58</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>55</v>
@@ -4172,58 +4217,58 @@
         <v>43865</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>115</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q22" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="Q22" s="29" t="s">
+      <c r="X22" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AP22" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BC22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BD22" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="BK22" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="BL22" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="BM22" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="BP22" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="BQ22" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="W22" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AN22" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BA22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BB22" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="BH22" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="BI22" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="BJ22" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="BM22" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="BN22" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="BQ22" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BU22" s="1" t="s">
-        <v>304</v>
+      <c r="BT22" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BX22" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="23" spans="1:90" ht="323">
+    <row r="23" spans="1:93" ht="323">
       <c r="A23" s="17" t="s">
         <v>58</v>
       </c>
@@ -4231,61 +4276,63 @@
         <v>89</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>58</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="17" t="s">
         <v>55</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J23" s="16">
         <v>43896</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N23" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P23" s="18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Q23" s="19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
+      <c r="U23" s="11" t="s">
+        <v>302</v>
+      </c>
       <c r="V23" s="11"/>
-      <c r="W23" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="X23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11" t="s">
+        <v>303</v>
+      </c>
       <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
       <c r="AA23" s="11"/>
@@ -4294,92 +4341,96 @@
       <c r="AD23" s="11"/>
       <c r="AE23" s="11"/>
       <c r="AF23" s="11"/>
-      <c r="AG23" s="11" t="s">
-        <v>321</v>
-      </c>
+      <c r="AG23" s="11"/>
       <c r="AH23" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="AI23" s="11"/>
-      <c r="AJ23" s="11"/>
+        <v>320</v>
+      </c>
+      <c r="AI23" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="AJ23" s="11" t="s">
+        <v>330</v>
+      </c>
       <c r="AK23" s="11"/>
       <c r="AL23" s="11"/>
       <c r="AM23" s="11"/>
-      <c r="AN23" s="11" t="s">
+      <c r="AN23" s="11"/>
+      <c r="AO23" s="11"/>
+      <c r="AP23" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="AQ23" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="AR23" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="AO23" s="11" t="s">
+      <c r="AS23" s="11"/>
+      <c r="AT23" s="11">
+        <v>5</v>
+      </c>
+      <c r="AU23" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="AV23" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="AP23" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="AQ23" s="11"/>
-      <c r="AR23" s="11">
+      <c r="AW23" s="11"/>
+      <c r="AX23" s="11">
         <v>5</v>
       </c>
-      <c r="AS23" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="AT23" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="AU23" s="11"/>
-      <c r="AV23" s="11">
-        <v>5</v>
-      </c>
-      <c r="AW23" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="AX23" s="11"/>
-      <c r="AY23" s="11"/>
+      <c r="AY23" s="11" t="s">
+        <v>303</v>
+      </c>
       <c r="AZ23" s="11"/>
-      <c r="BA23" s="1" t="s">
+      <c r="BA23" s="11"/>
+      <c r="BB23" s="11"/>
+      <c r="BC23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BB23" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="BC23" s="11"/>
-      <c r="BD23" s="11"/>
-      <c r="BE23" s="11">
-        <v>24</v>
+      <c r="BD23" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="BE23" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="BF23" s="11"/>
       <c r="BG23" s="11"/>
-      <c r="BH23" s="11" t="s">
+      <c r="BH23" s="11">
+        <v>24</v>
+      </c>
+      <c r="BI23" s="11"/>
+      <c r="BJ23" s="11"/>
+      <c r="BK23" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="BL23" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="BM23" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="BN23" s="11"/>
+      <c r="BO23" s="11"/>
+      <c r="BP23" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="BQ23" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="BI23" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="BJ23" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="BK23" s="11"/>
-      <c r="BL23" s="11"/>
-      <c r="BM23" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="BN23" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="BO23" s="11"/>
-      <c r="BP23" s="11">
+      <c r="BR23" s="11"/>
+      <c r="BS23" s="11">
         <v>5</v>
       </c>
-      <c r="BQ23" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="BR23" s="11"/>
-      <c r="BS23" s="11"/>
-      <c r="BT23" s="11"/>
-      <c r="BU23" s="11" t="s">
-        <v>304</v>
-      </c>
+      <c r="BT23" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="BU23" s="11"/>
       <c r="BV23" s="11"/>
       <c r="BW23" s="11"/>
-      <c r="BX23" s="11"/>
+      <c r="BX23" s="11" t="s">
+        <v>303</v>
+      </c>
       <c r="BY23" s="11"/>
       <c r="BZ23" s="11"/>
       <c r="CA23" s="11"/>
@@ -4394,8 +4445,11 @@
       <c r="CJ23" s="11"/>
       <c r="CK23" s="11"/>
       <c r="CL23" s="11"/>
+      <c r="CM23" s="11"/>
+      <c r="CN23" s="11"/>
+      <c r="CO23" s="11"/>
     </row>
-    <row r="24" spans="1:90" ht="182.25" customHeight="1">
+    <row r="24" spans="1:93" ht="182.25" customHeight="1">
       <c r="A24" s="32" t="s">
         <v>58</v>
       </c>
@@ -4403,16 +4457,16 @@
         <v>89</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>58</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10" t="s">
@@ -4425,25 +4479,25 @@
         <v>43896</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>140</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P24" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
-    <row r="25" spans="1:90" ht="182.25" customHeight="1">
+    <row r="25" spans="1:93" ht="182.25" customHeight="1">
       <c r="A25" s="32" t="s">
         <v>58</v>
       </c>
@@ -4451,41 +4505,41 @@
         <v>98</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>58</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10" t="s">
         <v>55</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J25" s="2">
         <v>43899</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="8"/>
     </row>
-    <row r="26" spans="1:90" ht="51">
+    <row r="26" spans="1:93" ht="51">
       <c r="A26" s="32" t="s">
         <v>58</v>
       </c>
@@ -4502,182 +4556,183 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="8"/>
       <c r="S26" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="T26" s="1">
         <v>20</v>
       </c>
       <c r="U26" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="W26" s="1" t="s">
-        <v>304</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="V26" s="22"/>
       <c r="X26" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="Z26" s="1">
+        <v>303</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA26" s="1">
         <v>5</v>
       </c>
-      <c r="AA26" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AC26" s="1">
+      <c r="AB26" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD26" s="1">
         <v>5</v>
       </c>
-      <c r="AD26" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AF26" s="1">
+      <c r="AE26" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AG26" s="1">
         <v>5</v>
       </c>
-      <c r="AH26" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="AJ26" s="1">
+      <c r="AI26" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AL26" s="1">
         <v>5</v>
       </c>
-      <c r="AK26" s="1">
+      <c r="AM26" s="1">
         <v>24</v>
       </c>
-      <c r="AL26" s="1">
+      <c r="AN26" s="1">
         <v>100</v>
       </c>
-      <c r="AM26" s="1">
+      <c r="AO26" s="1">
         <v>400</v>
       </c>
-      <c r="AN26" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AO26" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AQ26" s="1">
+      <c r="AP26" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AQ26" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AS26" s="1">
         <v>5</v>
       </c>
-      <c r="AR26" s="1">
+      <c r="AT26" s="1">
         <v>5</v>
       </c>
-      <c r="AS26" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AU26" s="1">
+      <c r="AU26" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AW26" s="1">
         <v>5</v>
       </c>
-      <c r="AV26" s="1">
+      <c r="AX26" s="1">
         <v>5</v>
       </c>
-      <c r="AW26" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AY26" s="1">
+      <c r="AY26" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA26" s="1">
         <v>5</v>
       </c>
-      <c r="AZ26" s="1">
+      <c r="BB26" s="1">
         <v>5</v>
       </c>
-      <c r="BB26" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="BD26" s="1">
+      <c r="BD26" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="BG26" s="1">
         <v>5</v>
       </c>
-      <c r="BE26" s="1">
+      <c r="BH26" s="1">
         <v>24</v>
       </c>
-      <c r="BF26" s="1">
+      <c r="BI26" s="1">
         <v>100</v>
       </c>
-      <c r="BG26" s="1">
+      <c r="BJ26" s="1">
         <v>400</v>
       </c>
-      <c r="BH26" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BI26" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BK26" s="1">
+      <c r="BK26" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BL26" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BN26" s="1">
         <v>5</v>
-      </c>
-      <c r="BL26" s="1">
-        <v>5</v>
-      </c>
-      <c r="BM26" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="BO26" s="1">
         <v>5</v>
       </c>
-      <c r="BP26" s="1">
+      <c r="BP26" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BR26" s="1">
         <v>5</v>
-      </c>
-      <c r="BQ26" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="BS26" s="1">
         <v>5</v>
       </c>
-      <c r="BT26" s="1">
+      <c r="BT26" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BV26" s="1">
         <v>5</v>
       </c>
-      <c r="BU26" s="1" t="s">
+      <c r="BW26" s="1">
+        <v>5</v>
+      </c>
+      <c r="BX26" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BY26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BZ26" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="BV26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BW26" s="1" t="s">
+      <c r="CA26" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="BX26" s="1" t="s">
+      <c r="CB26" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="CC26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD26" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="BY26" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="BZ26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CA26" s="1" t="s">
+      <c r="CE26" s="1">
+        <v>5</v>
+      </c>
+      <c r="CF26" s="1">
+        <v>800</v>
+      </c>
+      <c r="CG26" s="1">
+        <v>5</v>
+      </c>
+      <c r="CH26" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="CB26" s="1">
+      <c r="CI26" s="1">
         <v>5</v>
       </c>
-      <c r="CC26" s="1">
+      <c r="CJ26" s="1">
         <v>800</v>
       </c>
-      <c r="CD26" s="1">
+      <c r="CK26" s="1">
         <v>5</v>
       </c>
-      <c r="CE26" s="1" t="s">
+      <c r="CL26" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="CF26" s="1">
+      <c r="CM26" s="1">
         <v>5</v>
       </c>
-      <c r="CG26" s="1">
+      <c r="CN26" s="1">
         <v>800</v>
       </c>
-      <c r="CH26" s="1">
-        <v>5</v>
-      </c>
-      <c r="CI26" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="CJ26" s="1">
-        <v>5</v>
-      </c>
-      <c r="CK26" s="1">
-        <v>800</v>
-      </c>
-      <c r="CL26" s="1">
+      <c r="CO26" s="1">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:CL26">
+  <sortState ref="A2:CO26">
     <sortCondition ref="J2:J26"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4891,13 +4946,13 @@
         <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>54</v>
@@ -4906,22 +4961,22 @@
         <v>42922</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>55</v>
@@ -4942,7 +4997,7 @@
         <v>60</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>57</v>
@@ -4965,34 +5020,34 @@
         <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="F3" s="2">
         <v>42852</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>55</v>
@@ -5027,37 +5082,37 @@
         <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="F4" s="2">
         <v>42941</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>55</v>
@@ -5092,34 +5147,34 @@
         <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="F5" s="2">
         <v>42929</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>55</v>
@@ -5154,31 +5209,31 @@
         <v>90</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="F6" s="2">
         <v>42941</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>55</v>
@@ -5192,37 +5247,37 @@
         <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="F7" s="2">
         <v>42930</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="L7" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>57</v>
@@ -5263,37 +5318,37 @@
         <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="F8" s="2">
         <v>42933</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="L8" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>57</v>
@@ -5311,7 +5366,7 @@
         <v>55</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>57</v>
@@ -5337,10 +5392,10 @@
         <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>66</v>
@@ -5349,22 +5404,22 @@
         <v>43040</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="L9" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>57</v>
@@ -5381,10 +5436,10 @@
         <v>89</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>67</v>
@@ -5393,25 +5448,25 @@
         <v>43055</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="AE10" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AJ10" s="1" t="s">
         <v>55</v>
@@ -5422,7 +5477,7 @@
         <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>68</v>
@@ -5437,16 +5492,16 @@
         <v>70</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="AO11" s="1" t="s">
         <v>58</v>
@@ -5484,10 +5539,10 @@
         <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>77</v>
@@ -5505,13 +5560,13 @@
         <v>79</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="AO12" s="1" t="s">
         <v>58</v>

--- a/app/data/wto_proposal_settings_master.xlsx
+++ b/app/data/wto_proposal_settings_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kat/GitHub/SubsidyExplorer/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C80FCBD-1864-9048-9139-002C10F6F5FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A6FB34-C4B0-4B41-9D95-9713052C61A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35600" yWindow="-1980" windowWidth="34660" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="1" r:id="rId1"/>
@@ -2365,9 +2365,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CO26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>

--- a/app/data/wto_proposal_settings_master.xlsx
+++ b/app/data/wto_proposal_settings_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kat/GitHub/SubsidyExplorer/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A6FB34-C4B0-4B41-9D95-9713052C61A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259B112C-A482-494C-B214-AF84A500EBF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35600" yWindow="-1980" windowWidth="34660" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35700" yWindow="-2240" windowWidth="35700" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="437">
   <si>
     <t>proposal</t>
   </si>
@@ -981,9 +981,6 @@
   </si>
   <si>
     <t xml:space="preserve">DONE - To be modeled using the parameters of overfished stocks. </t>
-  </si>
-  <si>
-    <t>BEST</t>
   </si>
   <si>
     <t>ONE</t>
@@ -1394,6 +1391,15 @@
   </si>
   <si>
     <t>This communication advocates for special and differential treatment for all three classes of proposed disciplines. As written, this proposal does specify potential disciplines within each of the three categories, but rather the S&amp;DT that should be allowed for them. To model the possible effects of such a proposal, we therefore use the disciplines proposed in LDC - Full text (excluding any S&amp;DT).</t>
+  </si>
+  <si>
+    <t>B1, B3, B4, B5, B6, B7, C1, C2, C3</t>
+  </si>
+  <si>
+    <t>FISHERS</t>
+  </si>
+  <si>
+    <t>B1, B2, B3, B4, B5, B6, B7, C1, C2, C3</t>
   </si>
 </sst>
 </file>
@@ -2365,9 +2371,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CO26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y6" sqref="Y6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
@@ -2398,19 +2404,19 @@
         <v>88</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>260</v>
@@ -2434,7 +2440,7 @@
         <v>4</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P1" s="11" t="s">
         <v>5</v>
@@ -2455,7 +2461,7 @@
         <v>10</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="W1" s="9" t="s">
         <v>11</v>
@@ -2497,7 +2503,7 @@
         <v>17</v>
       </c>
       <c r="AJ1" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AK1" s="9" t="s">
         <v>18</v>
@@ -2560,7 +2566,7 @@
         <v>27</v>
       </c>
       <c r="BE1" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="BF1" s="9" t="s">
         <v>28</v>
@@ -2673,25 +2679,25 @@
     </row>
     <row r="2" spans="1:93" s="9" customFormat="1" ht="282" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>98</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>58</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>99</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>55</v>
@@ -2703,7 +2709,7 @@
         <v>43545</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L2" s="16" t="s">
         <v>147</v>
@@ -2712,14 +2718,14 @@
         <v>148</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O2" s="16"/>
       <c r="P2" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R2" s="16"/>
       <c r="S2" s="16"/>
@@ -2812,13 +2818,13 @@
         <v>58</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>108</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>55</v>
@@ -2842,10 +2848,10 @@
         <v>154</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="X3" s="16" t="s">
         <v>301</v>
@@ -2874,7 +2880,7 @@
         <v>98</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>58</v>
@@ -2902,13 +2908,13 @@
         <v>79</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P4" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="X4" s="16" t="s">
         <v>301</v>
@@ -2923,13 +2929,13 @@
         <v>308</v>
       </c>
       <c r="BY4" s="16" t="s">
-        <v>80</v>
+        <v>434</v>
       </c>
       <c r="BZ4" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="CD4" s="16" t="s">
-        <v>320</v>
+        <v>435</v>
       </c>
       <c r="CF4" s="16">
         <v>600</v>
@@ -2955,7 +2961,7 @@
         <v>132</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>55</v>
@@ -2979,16 +2985,16 @@
         <v>157</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="X5" s="16" t="s">
         <v>301</v>
       </c>
       <c r="AH5" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AI5" s="16" t="s">
         <v>300</v>
@@ -3038,10 +3044,10 @@
         <v>146</v>
       </c>
       <c r="N6" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="P6" s="21" t="s">
         <v>339</v>
-      </c>
-      <c r="P6" s="21" t="s">
-        <v>340</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>239</v>
@@ -3076,13 +3082,13 @@
         <v>98</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>58</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>102</v>
@@ -3109,10 +3115,10 @@
         <v>153</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="X7" s="16" t="s">
         <v>301</v>
@@ -3124,7 +3130,7 @@
         <v>61</v>
       </c>
       <c r="BD7" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="BE7" s="16" t="s">
         <v>62</v>
@@ -3153,13 +3159,13 @@
         <v>58</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>114</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>55</v>
@@ -3180,13 +3186,13 @@
         <v>116</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P8" s="19" t="s">
         <v>155</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="X8" s="16" t="s">
         <v>301</v>
@@ -3213,7 +3219,7 @@
         <v>308</v>
       </c>
       <c r="BQ8" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BT8" s="16" t="s">
         <v>301</v>
@@ -3239,7 +3245,7 @@
         <v>130</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>55</v>
@@ -3260,25 +3266,25 @@
         <v>116</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="X9" s="16" t="s">
         <v>301</v>
       </c>
       <c r="AH9" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AI9" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AJ9" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AP9" s="16" t="s">
         <v>301</v>
@@ -3292,7 +3298,7 @@
     </row>
     <row r="10" spans="1:93" ht="154">
       <c r="A10" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>98</v>
@@ -3307,7 +3313,7 @@
         <v>68</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>58</v>
@@ -3319,7 +3325,7 @@
         <v>43657</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L10" s="16" t="s">
         <v>70</v>
@@ -3328,13 +3334,13 @@
         <v>128</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="X10" s="16" t="s">
         <v>301</v>
@@ -3349,7 +3355,7 @@
         <v>308</v>
       </c>
       <c r="BY10" s="16" t="s">
-        <v>61</v>
+        <v>436</v>
       </c>
       <c r="BZ10" s="16" t="s">
         <v>302</v>
@@ -3390,7 +3396,7 @@
         <v>58</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>106</v>
@@ -3414,13 +3420,13 @@
         <v>113</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="X11" s="16" t="s">
         <v>301</v>
@@ -3432,10 +3438,10 @@
         <v>61</v>
       </c>
       <c r="BD11" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="BE11" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="BH11" s="16">
         <v>24</v>
@@ -3491,10 +3497,10 @@
         <v>151</v>
       </c>
       <c r="P12" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="R12" s="16" t="s">
         <v>261</v>
@@ -3535,7 +3541,7 @@
         <v>85</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H13" s="15" t="s">
         <v>58</v>
@@ -3547,7 +3553,7 @@
         <v>43759</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L13" s="16" t="s">
         <v>86</v>
@@ -3556,16 +3562,16 @@
         <v>87</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="X13" s="16" t="s">
         <v>301</v>
@@ -3577,7 +3583,7 @@
         <v>61</v>
       </c>
       <c r="BD13" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="BE13" s="16" t="s">
         <v>262</v>
@@ -3597,7 +3603,7 @@
         <v>98</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>58</v>
@@ -3609,7 +3615,7 @@
         <v>253</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>55</v>
@@ -3630,13 +3636,13 @@
         <v>119</v>
       </c>
       <c r="N14" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="P14" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="P14" s="19" t="s">
+      <c r="Q14" s="5" t="s">
         <v>367</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>368</v>
       </c>
       <c r="X14" s="16" t="s">
         <v>301</v>
@@ -3645,10 +3651,10 @@
         <v>317</v>
       </c>
       <c r="AI14" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AJ14" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AP14" s="16" t="s">
         <v>308</v>
@@ -3698,7 +3704,7 @@
         <v>91</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>55</v>
@@ -3710,22 +3716,22 @@
         <v>43801</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M15" s="16" t="s">
         <v>92</v>
       </c>
       <c r="N15" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P15" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="R15" s="16" t="s">
         <v>307</v>
@@ -3775,7 +3781,7 @@
         <v>43801</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L16" s="16" t="s">
         <v>149</v>
@@ -3816,7 +3822,7 @@
         <v>43801</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L17" s="16" t="s">
         <v>122</v>
@@ -3856,7 +3862,7 @@
         <v>43802</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L18" s="16" t="s">
         <v>137</v>
@@ -3884,7 +3890,7 @@
         <v>58</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>125</v>
@@ -3899,7 +3905,7 @@
         <v>43803</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L19" s="16" t="s">
         <v>126</v>
@@ -3908,13 +3914,13 @@
         <v>127</v>
       </c>
       <c r="N19" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P19" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="X19" s="16" t="s">
         <v>301</v>
@@ -3952,7 +3958,7 @@
         <v>249</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H20" s="16" t="s">
         <v>55</v>
@@ -3970,17 +3976,17 @@
         <v>248</v>
       </c>
       <c r="M20" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="N20" s="16" t="s">
         <v>351</v>
-      </c>
-      <c r="N20" s="16" t="s">
-        <v>352</v>
       </c>
       <c r="O20" s="20"/>
       <c r="P20" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="X20" s="16" t="s">
         <v>301</v>
@@ -3998,7 +4004,7 @@
         <v>61</v>
       </c>
       <c r="BD20" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="BE20" s="16" t="s">
         <v>63</v>
@@ -4021,19 +4027,19 @@
         <v>90</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>58</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F21" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="G21" s="16" t="s">
         <v>428</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>429</v>
       </c>
       <c r="H21" s="16" t="s">
         <v>55</v>
@@ -4054,10 +4060,10 @@
         <v>116</v>
       </c>
       <c r="N21" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P21" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q21" s="5" t="s">
         <v>239</v>
@@ -4119,7 +4125,7 @@
         <v>98</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>58</v>
@@ -4128,7 +4134,7 @@
         <v>243</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H22" s="16" t="s">
         <v>55</v>
@@ -4146,16 +4152,16 @@
         <v>115</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N22" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P22" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q22" s="5" t="s">
         <v>378</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>379</v>
       </c>
       <c r="X22" s="16" t="s">
         <v>301</v>
@@ -4182,7 +4188,7 @@
         <v>308</v>
       </c>
       <c r="BQ22" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="BT22" s="16" t="s">
         <v>301</v>
@@ -4199,13 +4205,13 @@
         <v>89</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>58</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>250</v>
@@ -4227,19 +4233,19 @@
         <v>252</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P23" s="25" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Q23" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="R23" s="16" t="s">
         <v>307</v>
@@ -4269,10 +4275,10 @@
         <v>317</v>
       </c>
       <c r="AI23" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AJ23" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AK23" s="9"/>
       <c r="AL23" s="9"/>
@@ -4312,10 +4318,10 @@
         <v>61</v>
       </c>
       <c r="BD23" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="BE23" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="BF23" s="9"/>
       <c r="BG23" s="9"/>
@@ -4380,13 +4386,13 @@
         <v>89</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>58</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15" t="s">
@@ -4405,17 +4411,17 @@
         <v>140</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N24" s="16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O24" s="3"/>
       <c r="P24" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="R24" s="16" t="s">
         <v>307</v>
@@ -4436,13 +4442,13 @@
         <v>308</v>
       </c>
       <c r="Z24" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AB24" s="16" t="s">
         <v>308</v>
       </c>
       <c r="AC24" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AE24" s="16" t="s">
         <v>301</v>
@@ -4460,7 +4466,7 @@
         <v>308</v>
       </c>
       <c r="AR24" s="16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AT24" s="16">
         <v>2</v>
@@ -4469,7 +4475,7 @@
         <v>308</v>
       </c>
       <c r="AV24" s="16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX24" s="16">
         <v>2</v>
@@ -4481,10 +4487,10 @@
         <v>61</v>
       </c>
       <c r="BD24" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="BE24" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="BH24" s="9">
         <v>24</v>
@@ -4502,7 +4508,7 @@
         <v>308</v>
       </c>
       <c r="BQ24" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="BT24" s="16" t="s">
         <v>301</v>
@@ -4516,47 +4522,47 @@
         <v>89</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>58</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="16" t="s">
         <v>405</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>406</v>
       </c>
       <c r="J25" s="17">
         <v>44007</v>
       </c>
       <c r="K25" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="L25" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="L25" s="16" t="s">
+      <c r="M25" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="M25" s="16" t="s">
+      <c r="N25" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="N25" s="16" t="s">
+      <c r="P25" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="R25" s="16" t="s">
         <v>410</v>
-      </c>
-      <c r="P25" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="R25" s="16" t="s">
-        <v>411</v>
       </c>
       <c r="S25" s="16" t="s">
         <v>301</v>
@@ -4580,13 +4586,13 @@
         <v>308</v>
       </c>
       <c r="AR25" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AU25" s="16" t="s">
         <v>308</v>
       </c>
       <c r="AV25" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AY25" s="16" t="s">
         <v>301</v>
@@ -4595,7 +4601,7 @@
         <v>61</v>
       </c>
       <c r="BD25" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="BE25" s="16" t="s">
         <v>62</v>

--- a/app/data/wto_proposal_settings_master.xlsx
+++ b/app/data/wto_proposal_settings_master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kat/GitHub/SubsidyExplorer/app/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kat/GitHub/SubsidyExplorer/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259B112C-A482-494C-B214-AF84A500EBF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20387D3A-3246-FB48-8630-DA449BA5FEFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35700" yWindow="-2240" windowWidth="35700" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3300" windowWidth="35700" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="1" r:id="rId1"/>
@@ -1068,9 +1068,6 @@
   </si>
   <si>
     <t>doc_in_folder</t>
-  </si>
-  <si>
-    <t>Missing "best of" option</t>
   </si>
   <si>
     <t xml:space="preserve">This unofficial room document was circulated at the request of the Delegation of Canada on January 13, 2020. </t>
@@ -1396,17 +1393,20 @@
     <t>B1, B3, B4, B5, B6, B7, C1, C2, C3</t>
   </si>
   <si>
-    <t>FISHERS</t>
-  </si>
-  <si>
     <t>B1, B2, B3, B4, B5, B6, B7, C1, C2, C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing "best of" option; also fix "per fisher" calculation. </t>
+  </si>
+  <si>
+    <t>BEST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1931,7 +1931,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2012,6 +2012,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2371,12 +2374,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CO26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="BP1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="CI5" sqref="CI5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="13"/>
     <col min="2" max="2" width="10.83203125" style="15"/>
@@ -2393,10 +2396,12 @@
     <col min="14" max="15" width="48.33203125" style="16" customWidth="1"/>
     <col min="16" max="16" width="56.1640625" style="15" customWidth="1"/>
     <col min="17" max="17" width="71" style="15" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="16"/>
+    <col min="18" max="84" width="10.83203125" style="16"/>
+    <col min="85" max="85" width="10.83203125" style="28"/>
+    <col min="86" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" s="9" customFormat="1" ht="42">
+    <row r="1" spans="1:93" s="9" customFormat="1" ht="42" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>141</v>
       </c>
@@ -2416,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>260</v>
@@ -2461,7 +2466,7 @@
         <v>10</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="W1" s="9" t="s">
         <v>11</v>
@@ -2503,7 +2508,7 @@
         <v>17</v>
       </c>
       <c r="AJ1" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AK1" s="9" t="s">
         <v>18</v>
@@ -2566,7 +2571,7 @@
         <v>27</v>
       </c>
       <c r="BE1" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="BF1" s="9" t="s">
         <v>28</v>
@@ -2677,7 +2682,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:93" s="9" customFormat="1" ht="282" customHeight="1">
+    <row r="2" spans="1:93" s="9" customFormat="1" ht="282" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>55</v>
       </c>
@@ -2691,13 +2696,13 @@
         <v>58</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>99</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>55</v>
@@ -2725,7 +2730,7 @@
         <v>345</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R2" s="16"/>
       <c r="S2" s="16"/>
@@ -2794,7 +2799,7 @@
       <c r="CD2" s="16"/>
       <c r="CE2" s="16"/>
       <c r="CF2" s="16"/>
-      <c r="CG2" s="16"/>
+      <c r="CG2" s="28"/>
       <c r="CH2" s="16"/>
       <c r="CI2" s="16"/>
       <c r="CJ2" s="16"/>
@@ -2804,7 +2809,7 @@
       <c r="CN2" s="16"/>
       <c r="CO2" s="16"/>
     </row>
-    <row r="3" spans="1:93" ht="182">
+    <row r="3" spans="1:93" ht="182" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>58</v>
       </c>
@@ -2818,13 +2823,13 @@
         <v>58</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>108</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>55</v>
@@ -2851,7 +2856,7 @@
         <v>339</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="X3" s="16" t="s">
         <v>301</v>
@@ -2872,7 +2877,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:93" ht="238">
+    <row r="4" spans="1:93" ht="238" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>58</v>
       </c>
@@ -2880,7 +2885,7 @@
         <v>98</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>58</v>
@@ -2914,7 +2919,7 @@
         <v>339</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X4" s="16" t="s">
         <v>301</v>
@@ -2929,22 +2934,25 @@
         <v>308</v>
       </c>
       <c r="BY4" s="16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="BZ4" s="16" t="s">
         <v>320</v>
       </c>
       <c r="CD4" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="CF4" s="16">
-        <v>600</v>
-      </c>
-      <c r="CG4" s="16">
-        <v>90</v>
+        <v>436</v>
+      </c>
+      <c r="CG4" s="28">
+        <v>55</v>
+      </c>
+      <c r="CK4" s="16">
+        <v>2.1</v>
+      </c>
+      <c r="CO4" s="16">
+        <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:93" ht="182">
+    <row r="5" spans="1:93" ht="182" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>58</v>
       </c>
@@ -2961,7 +2969,7 @@
         <v>132</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>55</v>
@@ -2988,13 +2996,13 @@
         <v>339</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="X5" s="16" t="s">
         <v>301</v>
       </c>
       <c r="AH5" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AI5" s="16" t="s">
         <v>300</v>
@@ -3009,7 +3017,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" spans="1:93" ht="182">
+    <row r="6" spans="1:93" ht="182" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>58</v>
       </c>
@@ -3074,7 +3082,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:93" ht="126">
+    <row r="7" spans="1:93" ht="126" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>58</v>
       </c>
@@ -3082,13 +3090,13 @@
         <v>98</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>58</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>102</v>
@@ -3118,7 +3126,7 @@
         <v>339</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="X7" s="16" t="s">
         <v>301</v>
@@ -3130,7 +3138,7 @@
         <v>61</v>
       </c>
       <c r="BD7" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BE7" s="16" t="s">
         <v>62</v>
@@ -3145,7 +3153,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="8" spans="1:93" ht="182">
+    <row r="8" spans="1:93" ht="182" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>58</v>
       </c>
@@ -3165,7 +3173,7 @@
         <v>114</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>55</v>
@@ -3186,13 +3194,13 @@
         <v>116</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P8" s="19" t="s">
         <v>155</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="X8" s="16" t="s">
         <v>301</v>
@@ -3228,7 +3236,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="1:93" ht="140">
+    <row r="9" spans="1:93" ht="140" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>58</v>
       </c>
@@ -3245,7 +3253,7 @@
         <v>130</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>55</v>
@@ -3266,22 +3274,22 @@
         <v>116</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P9" s="21" t="s">
         <v>339</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="X9" s="16" t="s">
         <v>301</v>
       </c>
       <c r="AH9" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AI9" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AJ9" s="16" t="s">
         <v>326</v>
@@ -3296,7 +3304,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="1:93" ht="154">
+    <row r="10" spans="1:93" ht="154" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>55</v>
       </c>
@@ -3313,7 +3321,7 @@
         <v>68</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>58</v>
@@ -3340,7 +3348,7 @@
         <v>339</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="X10" s="16" t="s">
         <v>301</v>
@@ -3355,7 +3363,7 @@
         <v>308</v>
       </c>
       <c r="BY10" s="16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BZ10" s="16" t="s">
         <v>302</v>
@@ -3369,7 +3377,7 @@
       <c r="CD10" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="CG10" s="16">
+      <c r="CG10" s="28">
         <v>90</v>
       </c>
       <c r="CH10" s="16" t="s">
@@ -3382,7 +3390,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="11" spans="1:93" ht="154">
+    <row r="11" spans="1:93" ht="154" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>58</v>
       </c>
@@ -3420,13 +3428,13 @@
         <v>113</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P11" s="21" t="s">
         <v>339</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="X11" s="16" t="s">
         <v>301</v>
@@ -3438,10 +3446,10 @@
         <v>61</v>
       </c>
       <c r="BD11" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BE11" s="16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="BH11" s="16">
         <v>24</v>
@@ -3459,7 +3467,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="12" spans="1:93" ht="84">
+    <row r="12" spans="1:93" ht="84" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>58</v>
       </c>
@@ -3500,7 +3508,7 @@
         <v>339</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="R12" s="16" t="s">
         <v>261</v>
@@ -3524,7 +3532,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="13" spans="1:93" ht="136.5" customHeight="1">
+    <row r="13" spans="1:93" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>58</v>
       </c>
@@ -3541,7 +3549,7 @@
         <v>85</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H13" s="15" t="s">
         <v>58</v>
@@ -3553,7 +3561,7 @@
         <v>43759</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L13" s="16" t="s">
         <v>86</v>
@@ -3562,7 +3570,7 @@
         <v>87</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>324</v>
@@ -3571,7 +3579,7 @@
         <v>339</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="X13" s="16" t="s">
         <v>301</v>
@@ -3583,7 +3591,7 @@
         <v>61</v>
       </c>
       <c r="BD13" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BE13" s="16" t="s">
         <v>262</v>
@@ -3595,7 +3603,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="14" spans="1:93" ht="224">
+    <row r="14" spans="1:93" ht="224" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>58</v>
       </c>
@@ -3603,7 +3611,7 @@
         <v>98</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>58</v>
@@ -3615,7 +3623,7 @@
         <v>253</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>55</v>
@@ -3636,13 +3644,13 @@
         <v>119</v>
       </c>
       <c r="N14" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="P14" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="P14" s="19" t="s">
+      <c r="Q14" s="5" t="s">
         <v>366</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>367</v>
       </c>
       <c r="X14" s="16" t="s">
         <v>301</v>
@@ -3651,7 +3659,7 @@
         <v>317</v>
       </c>
       <c r="AI14" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AJ14" s="16" t="s">
         <v>326</v>
@@ -3687,7 +3695,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="15" spans="1:93" ht="154">
+    <row r="15" spans="1:93" ht="154" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>58</v>
       </c>
@@ -3704,7 +3712,7 @@
         <v>91</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>55</v>
@@ -3716,7 +3724,7 @@
         <v>43801</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L15" s="16" t="s">
         <v>334</v>
@@ -3725,13 +3733,13 @@
         <v>92</v>
       </c>
       <c r="N15" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P15" s="21" t="s">
         <v>339</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="R15" s="16" t="s">
         <v>307</v>
@@ -3755,7 +3763,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" spans="1:93" ht="70">
+    <row r="16" spans="1:93" ht="70" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>55</v>
       </c>
@@ -3781,7 +3789,7 @@
         <v>43801</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L16" s="16" t="s">
         <v>149</v>
@@ -3795,7 +3803,7 @@
       <c r="P16" s="19"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:93" ht="112">
+    <row r="17" spans="1:93" ht="112" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>55</v>
       </c>
@@ -3822,7 +3830,7 @@
         <v>43801</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L17" s="16" t="s">
         <v>122</v>
@@ -3836,7 +3844,7 @@
       <c r="P17" s="19"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:93" ht="56">
+    <row r="18" spans="1:93" ht="56" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>55</v>
       </c>
@@ -3862,7 +3870,7 @@
         <v>43802</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L18" s="16" t="s">
         <v>137</v>
@@ -3876,7 +3884,7 @@
       <c r="P18" s="19"/>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="1:93" ht="266">
+    <row r="19" spans="1:93" ht="266" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>58</v>
       </c>
@@ -3890,7 +3898,7 @@
         <v>58</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>125</v>
@@ -3914,13 +3922,13 @@
         <v>127</v>
       </c>
       <c r="N19" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P19" s="21" t="s">
         <v>339</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="X19" s="16" t="s">
         <v>301</v>
@@ -3941,7 +3949,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="20" spans="1:93" ht="196">
+    <row r="20" spans="1:93" ht="196" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>58</v>
       </c>
@@ -3976,17 +3984,17 @@
         <v>248</v>
       </c>
       <c r="M20" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="N20" s="16" t="s">
         <v>350</v>
-      </c>
-      <c r="N20" s="16" t="s">
-        <v>351</v>
       </c>
       <c r="O20" s="20"/>
       <c r="P20" s="21" t="s">
         <v>339</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="X20" s="16" t="s">
         <v>301</v>
@@ -4004,7 +4012,7 @@
         <v>61</v>
       </c>
       <c r="BD20" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BE20" s="16" t="s">
         <v>63</v>
@@ -4019,7 +4027,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:93" ht="112">
+    <row r="21" spans="1:93" ht="112" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>58</v>
       </c>
@@ -4036,10 +4044,10 @@
         <v>327</v>
       </c>
       <c r="F21" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="G21" s="16" t="s">
         <v>427</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>428</v>
       </c>
       <c r="H21" s="16" t="s">
         <v>55</v>
@@ -4117,7 +4125,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="22" spans="1:93" ht="238">
+    <row r="22" spans="1:93" ht="238" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>58</v>
       </c>
@@ -4125,7 +4133,7 @@
         <v>98</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>58</v>
@@ -4134,7 +4142,7 @@
         <v>243</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H22" s="16" t="s">
         <v>55</v>
@@ -4152,16 +4160,16 @@
         <v>115</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N22" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P22" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q22" s="5" t="s">
         <v>377</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>378</v>
       </c>
       <c r="X22" s="16" t="s">
         <v>301</v>
@@ -4188,7 +4196,7 @@
         <v>308</v>
       </c>
       <c r="BQ22" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="BT22" s="16" t="s">
         <v>301</v>
@@ -4197,7 +4205,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="23" spans="1:93" ht="252">
+    <row r="23" spans="1:93" ht="252" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>58</v>
       </c>
@@ -4205,7 +4213,7 @@
         <v>89</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>58</v>
@@ -4233,19 +4241,19 @@
         <v>252</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>325</v>
       </c>
       <c r="P23" s="25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q23" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="R23" s="16" t="s">
         <v>307</v>
@@ -4275,7 +4283,7 @@
         <v>317</v>
       </c>
       <c r="AI23" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AJ23" s="9" t="s">
         <v>326</v>
@@ -4318,10 +4326,10 @@
         <v>61</v>
       </c>
       <c r="BD23" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BE23" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="BF23" s="9"/>
       <c r="BG23" s="9"/>
@@ -4378,7 +4386,7 @@
       <c r="CN23" s="9"/>
       <c r="CO23" s="9"/>
     </row>
-    <row r="24" spans="1:93" ht="318" customHeight="1">
+    <row r="24" spans="1:93" ht="318" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="13" t="s">
         <v>58</v>
       </c>
@@ -4386,7 +4394,7 @@
         <v>89</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>58</v>
@@ -4411,17 +4419,17 @@
         <v>140</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N24" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O24" s="3"/>
       <c r="P24" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R24" s="16" t="s">
         <v>307</v>
@@ -4442,13 +4450,13 @@
         <v>308</v>
       </c>
       <c r="Z24" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AB24" s="16" t="s">
         <v>308</v>
       </c>
       <c r="AC24" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE24" s="16" t="s">
         <v>301</v>
@@ -4466,7 +4474,7 @@
         <v>308</v>
       </c>
       <c r="AR24" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AT24" s="16">
         <v>2</v>
@@ -4475,7 +4483,7 @@
         <v>308</v>
       </c>
       <c r="AV24" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AX24" s="16">
         <v>2</v>
@@ -4487,10 +4495,10 @@
         <v>61</v>
       </c>
       <c r="BD24" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BE24" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="BH24" s="9">
         <v>24</v>
@@ -4508,13 +4516,13 @@
         <v>308</v>
       </c>
       <c r="BQ24" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="BT24" s="16" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="25" spans="1:93" ht="407" customHeight="1">
+    <row r="25" spans="1:93" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>58</v>
       </c>
@@ -4522,47 +4530,47 @@
         <v>89</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>58</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="16" t="s">
         <v>404</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>405</v>
       </c>
       <c r="J25" s="17">
         <v>44007</v>
       </c>
       <c r="K25" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="L25" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="L25" s="16" t="s">
+      <c r="M25" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="M25" s="16" t="s">
+      <c r="N25" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="N25" s="16" t="s">
+      <c r="P25" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="R25" s="16" t="s">
         <v>409</v>
-      </c>
-      <c r="P25" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="R25" s="16" t="s">
-        <v>410</v>
       </c>
       <c r="S25" s="16" t="s">
         <v>301</v>
@@ -4586,13 +4594,13 @@
         <v>308</v>
       </c>
       <c r="AR25" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AU25" s="16" t="s">
         <v>308</v>
       </c>
       <c r="AV25" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AY25" s="16" t="s">
         <v>301</v>
@@ -4601,7 +4609,7 @@
         <v>61</v>
       </c>
       <c r="BD25" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BE25" s="16" t="s">
         <v>62</v>
@@ -4616,7 +4624,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="26" spans="1:93" ht="42">
+    <row r="26" spans="1:93" ht="42" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>58</v>
       </c>
@@ -4779,7 +4787,7 @@
       <c r="CF26" s="16">
         <v>800</v>
       </c>
-      <c r="CG26" s="16">
+      <c r="CG26" s="28">
         <v>5</v>
       </c>
       <c r="CH26" s="16" t="s">
@@ -4825,7 +4833,7 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="13.1640625" style="1" customWidth="1"/>
@@ -4841,7 +4849,7 @@
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="51">
+    <row r="1" spans="1:58" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>141</v>
       </c>
@@ -5017,7 +5025,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:58" ht="308" customHeight="1">
+    <row r="2" spans="1:58" ht="308" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
@@ -5091,7 +5099,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:58" ht="153">
+    <row r="3" spans="1:58" ht="153" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -5153,7 +5161,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:58" ht="272">
+    <row r="4" spans="1:58" ht="272" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>55</v>
       </c>
@@ -5218,7 +5226,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:58" ht="221">
+    <row r="5" spans="1:58" ht="221" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>55</v>
       </c>
@@ -5277,7 +5285,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:58" ht="136">
+    <row r="6" spans="1:58" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>55</v>
       </c>
@@ -5318,7 +5326,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:58" ht="187">
+    <row r="7" spans="1:58" ht="187" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
@@ -5389,7 +5397,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:58" ht="187">
+    <row r="8" spans="1:58" ht="187" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
@@ -5460,7 +5468,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:58" ht="102">
+    <row r="9" spans="1:58" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
@@ -5504,7 +5512,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:58" ht="102">
+    <row r="10" spans="1:58" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
@@ -5548,7 +5556,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:58" ht="238">
+    <row r="11" spans="1:58" ht="238" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
@@ -5610,7 +5618,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:58" ht="306">
+    <row r="12" spans="1:58" ht="306" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
@@ -5663,7 +5671,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:58" ht="51">
+    <row r="13" spans="1:58" ht="51" x14ac:dyDescent="0.2">
       <c r="D13" s="1" t="s">
         <v>83</v>
       </c>

--- a/app/data/wto_proposal_settings_master.xlsx
+++ b/app/data/wto_proposal_settings_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kat/GitHub/SubsidyExplorer/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20387D3A-3246-FB48-8630-DA449BA5FEFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8F0ED8-679D-4142-B69B-3B89AE032A0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3300" windowWidth="35700" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14520" yWindow="460" windowWidth="35700" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="446">
   <si>
     <t>proposal</t>
   </si>
@@ -1400,6 +1400,33 @@
   </si>
   <si>
     <t>BEST</t>
+  </si>
+  <si>
+    <t>tier1_cap_best_percent_subs</t>
+  </si>
+  <si>
+    <t>tier1_cap_best_percent_landed_value</t>
+  </si>
+  <si>
+    <t>tier1_cap_best_percent_fishers</t>
+  </si>
+  <si>
+    <t>tier2_cap_best_percent_subs</t>
+  </si>
+  <si>
+    <t>tier2_cap_best_percent_landed_value</t>
+  </si>
+  <si>
+    <t>tier2_cap_best_percent_fishers</t>
+  </si>
+  <si>
+    <t>tier3_cap_best_percent_subs</t>
+  </si>
+  <si>
+    <t>tier3_cap_best_percent_landed_value</t>
+  </si>
+  <si>
+    <t>tier3_cap_best_percent_fishers</t>
   </si>
 </sst>
 </file>
@@ -2372,11 +2399,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CO26"/>
+  <dimension ref="A1:CU26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BP1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CI5" sqref="CI5"/>
+    <sheetView tabSelected="1" topLeftCell="BV1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="CT33" sqref="CT33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2396,12 +2423,16 @@
     <col min="14" max="15" width="48.33203125" style="16" customWidth="1"/>
     <col min="16" max="16" width="56.1640625" style="15" customWidth="1"/>
     <col min="17" max="17" width="71" style="15" customWidth="1"/>
-    <col min="18" max="84" width="10.83203125" style="16"/>
-    <col min="85" max="85" width="10.83203125" style="28"/>
-    <col min="86" max="16384" width="10.83203125" style="16"/>
+    <col min="18" max="83" width="10.83203125" style="16"/>
+    <col min="84" max="87" width="10.83203125" style="28"/>
+    <col min="88" max="90" width="10.83203125" style="16"/>
+    <col min="91" max="93" width="10.83203125" style="28"/>
+    <col min="94" max="96" width="10.83203125" style="16"/>
+    <col min="97" max="99" width="10.83203125" style="28"/>
+    <col min="100" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" s="9" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:99" s="9" customFormat="1" ht="56" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>141</v>
       </c>
@@ -2652,37 +2683,55 @@
         <v>43</v>
       </c>
       <c r="CF1" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="CG1" s="9" t="s">
-        <v>45</v>
+        <v>437</v>
       </c>
       <c r="CH1" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="CI1" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="CJ1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="CI1" s="9" t="s">
+      <c r="CK1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="CJ1" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="CK1" s="9" t="s">
+      <c r="CL1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="CL1" s="9" t="s">
+      <c r="CM1" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="CN1" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="CO1" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="CP1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="CM1" s="9" t="s">
+      <c r="CQ1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="CN1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="CO1" s="9" t="s">
+      <c r="CR1" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="CS1" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="CT1" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="CU1" s="9" t="s">
+        <v>445</v>
+      </c>
     </row>
-    <row r="2" spans="1:93" s="9" customFormat="1" ht="282" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:99" s="9" customFormat="1" ht="282" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>55</v>
       </c>
@@ -2798,18 +2847,24 @@
       <c r="CC2" s="16"/>
       <c r="CD2" s="16"/>
       <c r="CE2" s="16"/>
-      <c r="CF2" s="16"/>
+      <c r="CF2" s="28"/>
       <c r="CG2" s="28"/>
-      <c r="CH2" s="16"/>
-      <c r="CI2" s="16"/>
+      <c r="CH2" s="28"/>
+      <c r="CI2" s="28"/>
       <c r="CJ2" s="16"/>
       <c r="CK2" s="16"/>
       <c r="CL2" s="16"/>
-      <c r="CM2" s="16"/>
-      <c r="CN2" s="16"/>
-      <c r="CO2" s="16"/>
+      <c r="CM2" s="28"/>
+      <c r="CN2" s="28"/>
+      <c r="CO2" s="28"/>
+      <c r="CP2" s="16"/>
+      <c r="CQ2" s="16"/>
+      <c r="CR2" s="16"/>
+      <c r="CS2" s="28"/>
+      <c r="CT2" s="28"/>
+      <c r="CU2" s="28"/>
     </row>
-    <row r="3" spans="1:93" ht="182" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:99" ht="182" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>58</v>
       </c>
@@ -2877,7 +2932,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:93" ht="238" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:99" ht="238" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>58</v>
       </c>
@@ -2945,14 +3000,14 @@
       <c r="CG4" s="28">
         <v>55</v>
       </c>
-      <c r="CK4" s="16">
+      <c r="CH4" s="28">
         <v>2.1</v>
       </c>
-      <c r="CO4" s="16">
+      <c r="CI4" s="28">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:93" ht="182" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:99" ht="182" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>58</v>
       </c>
@@ -3017,7 +3072,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" spans="1:93" ht="182" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:99" ht="182" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>58</v>
       </c>
@@ -3082,7 +3137,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:93" ht="126" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:99" ht="126" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>58</v>
       </c>
@@ -3153,7 +3208,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="8" spans="1:93" ht="182" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:99" ht="182" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>58</v>
       </c>
@@ -3236,7 +3291,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="1:93" ht="140" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:99" ht="140" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>58</v>
       </c>
@@ -3304,7 +3359,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="1:93" ht="154" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:99" ht="154" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>55</v>
       </c>
@@ -3377,20 +3432,20 @@
       <c r="CD10" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="CG10" s="28">
+      <c r="CF10" s="28">
         <v>90</v>
       </c>
-      <c r="CH10" s="16" t="s">
+      <c r="CJ10" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="CI10" s="16">
+      <c r="CK10" s="16">
         <v>50</v>
       </c>
-      <c r="CL10" s="16" t="s">
+      <c r="CP10" s="16" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="11" spans="1:93" ht="154" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:99" ht="154" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>58</v>
       </c>
@@ -3467,7 +3522,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="12" spans="1:93" ht="84" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:99" ht="84" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>58</v>
       </c>
@@ -3532,7 +3587,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="13" spans="1:93" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:99" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>58</v>
       </c>
@@ -3603,7 +3658,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="14" spans="1:93" ht="224" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:99" ht="224" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>58</v>
       </c>
@@ -3695,7 +3750,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="15" spans="1:93" ht="154" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:99" ht="154" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>58</v>
       </c>
@@ -3763,7 +3818,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" spans="1:93" ht="70" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:99" ht="70" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>55</v>
       </c>
@@ -3803,7 +3858,7 @@
       <c r="P16" s="19"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:93" ht="112" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:99" ht="112" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>55</v>
       </c>
@@ -3844,7 +3899,7 @@
       <c r="P17" s="19"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:93" ht="56" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:99" ht="56" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>55</v>
       </c>
@@ -3884,7 +3939,7 @@
       <c r="P18" s="19"/>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="1:93" ht="266" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:99" ht="266" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>58</v>
       </c>
@@ -3949,7 +4004,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="20" spans="1:93" ht="196" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:99" ht="196" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>58</v>
       </c>
@@ -4027,7 +4082,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:93" ht="112" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:99" ht="112" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>58</v>
       </c>
@@ -4125,7 +4180,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="22" spans="1:93" ht="238" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:99" ht="238" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>58</v>
       </c>
@@ -4205,7 +4260,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="23" spans="1:93" ht="252" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:99" ht="252" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>58</v>
       </c>
@@ -4385,8 +4440,14 @@
       <c r="CM23" s="9"/>
       <c r="CN23" s="9"/>
       <c r="CO23" s="9"/>
+      <c r="CP23" s="9"/>
+      <c r="CQ23" s="9"/>
+      <c r="CR23" s="9"/>
+      <c r="CS23" s="9"/>
+      <c r="CT23" s="9"/>
+      <c r="CU23" s="9"/>
     </row>
-    <row r="24" spans="1:93" ht="318" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:99" ht="318" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="13" t="s">
         <v>58</v>
       </c>
@@ -4522,7 +4583,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="25" spans="1:93" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:99" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>58</v>
       </c>
@@ -4624,7 +4685,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="26" spans="1:93" ht="42" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:99" ht="42" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>58</v>
       </c>
@@ -4782,41 +4843,59 @@
         <v>304</v>
       </c>
       <c r="CE26" s="16">
+        <v>50</v>
+      </c>
+      <c r="CF26" s="28">
         <v>5</v>
-      </c>
-      <c r="CF26" s="16">
-        <v>800</v>
       </c>
       <c r="CG26" s="28">
         <v>5</v>
       </c>
-      <c r="CH26" s="16" t="s">
+      <c r="CH26" s="28">
+        <v>5</v>
+      </c>
+      <c r="CI26" s="28">
+        <v>5</v>
+      </c>
+      <c r="CJ26" s="16" t="s">
         <v>305</v>
-      </c>
-      <c r="CI26" s="16">
-        <v>5</v>
-      </c>
-      <c r="CJ26" s="16">
-        <v>800</v>
       </c>
       <c r="CK26" s="16">
         <v>5</v>
       </c>
-      <c r="CL26" s="16" t="s">
+      <c r="CL26" s="16">
+        <v>5</v>
+      </c>
+      <c r="CM26" s="28">
+        <v>5</v>
+      </c>
+      <c r="CN26" s="28">
+        <v>5</v>
+      </c>
+      <c r="CO26" s="28">
+        <v>5</v>
+      </c>
+      <c r="CP26" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="CM26" s="16">
+      <c r="CQ26" s="16">
         <v>5</v>
       </c>
-      <c r="CN26" s="16">
-        <v>800</v>
-      </c>
-      <c r="CO26" s="16">
+      <c r="CR26" s="16">
+        <v>5</v>
+      </c>
+      <c r="CS26" s="28">
+        <v>5</v>
+      </c>
+      <c r="CT26" s="28">
+        <v>5</v>
+      </c>
+      <c r="CU26" s="28">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:CO26">
+  <sortState ref="A2:CR26">
     <sortCondition ref="J2:J26"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app/data/wto_proposal_settings_master.xlsx
+++ b/app/data/wto_proposal_settings_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kat/GitHub/SubsidyExplorer/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8F0ED8-679D-4142-B69B-3B89AE032A0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6ED5F85-361C-7A43-9812-5878ED18E801}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="460" windowWidth="35700" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14200" yWindow="7000" windowWidth="35700" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="452">
   <si>
     <t>proposal</t>
   </si>
@@ -1028,12 +1028,6 @@
     <t>Elimination of subsidies that contribute to illegal, unreported and unregulated (IUU) fishing - Facilitator's working paper</t>
   </si>
   <si>
-    <t xml:space="preserve">Developing countries not engaged in large-scale industrial distant water fishing are entitled to an additional transition period. LDCs and SVEs are entitled to a different transition period.  </t>
-  </si>
-  <si>
-    <t>Just missing time delay (two different time delays: 1) developing countries not engaged in large scale industrial fishing; 2) LDCs and SVEs)</t>
-  </si>
-  <si>
     <t>This document builds on ACP text proposal TN/RL/GEN/192, as reflected in TN/RL/W/274/Rev.6. It specifies that IUU determinations could be made by coastal Member states for activities in waters under their jurisdictions with respect to a foreign vessel or operator, or by RFMO/As in areas (and for species) under their juridscitions. Members are encouraged to refrain from invoking the discipline based on minor infringements.</t>
   </si>
   <si>
@@ -1058,12 +1052,6 @@
     <t xml:space="preserve">This communication advocates for Member-specific de minimis limits, below which Members may maintain, grant, or provide subsidies. Four criteria are provided to determine de minimis limits. 1) The de minimis limit for developed country Members and developing country Members belonging to the top [10] global marine capture fisheries producers shall be [X]% of the average total landed value of the Member's marine capture fisheries in the period [2015-2017]. 2) For developing country Members not included in 1), the de minimis limit shall by [Y]% plus [10/15]% of the average total landed value in the most recent three year period for which data are available. 3) Developing country Members included in 1) whose large-scale commercial fisheries are responsible for less than [5/10]% of the average total landed value may instead take the de minimis limit determined under 2). 4) The de minimis level for LDC Members shall be [Z]% plus [20/30]% of the average total landed value in the most recent three year period for which data are available. </t>
   </si>
   <si>
-    <t xml:space="preserve">Subsidies in excess of a Member's de minimis limit in the first year of the implementation shall be reduced or phased down to the de minimis level in equal annual installments over [X] years for developed country Members, [X+3] years for developing country Members, and [X+5] years for LDC Members. Subsidies to fishing and fishing-related activities solely within the Member's territorial waters shall not be included in the de minimis for developing and LDC Members. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add top 10 global producers option for cap/tier (and related option for other developing members). Also add three year selection for global production data. </t>
-  </si>
-  <si>
     <t>TN/RL/GEN/200/Rev.1</t>
   </si>
   <si>
@@ -1091,16 +1079,6 @@
     <t xml:space="preserve">1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) It is not possible to simulate whether Members could demonstrate that they have policies in place that would negate this prohibition. </t>
   </si>
   <si>
-    <t xml:space="preserve">1) We assume that each Member's base subsidy level is represented by the total amount of capacity-enhancing subsidies estimated for that Member by Sumaila et al. 2019, and we estimate the landed value of marine capture fisheries from the FAO Global Capture Production Database. 2) We assume the de minimis limit for developed and developing country members belonging to the top 10 marine capture fisheries producers to be 50% of the average total landed value of the Member's marine capture fisheries between 2016-2018. For all other developing country Members, we assume the de minimis limit to be 70% of the average total landed value between 2016-2018. For LDC Members, we assume the de minimis limit to be 90% of the average total landed value between 2016-2018. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) We assume that each Member's base for capping is represented by the total amount of capacity-enhancing subsidies estimated by Sumaila et al. 2019. 2) Each Member's cap is equal to whichever of the three proposed approaches for calculating a cap yields the largest amount. By default, caps based on the first approach are calculated as 90% of each Member's base for capping; caps based on the second approach are calculated as 90% of each Member's estimated landed value (calculated from the FAO Global Marine Capture Production Database in 2018); caps based on the third approach are calculated assuming a value of $600 per fisherman, and each Member's most recently reported total number of fishers (from the FAO Yearbook of Fishery and Aquaculture Statistics 2017). 3) Users are free to explore different values by changing the respective sliders on the advanced policy selection tab. 4) We assume that provision of the following types of capacity-enhancing subsidies as defined by Sumaila et al. 2019 are allowed to continue irrespective of a Member's total cap: i) subsidies for fishing access agreements; ii) fisheries development projects. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) We assume that all capacity-enhancing subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 
-2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas to be prohibited. Users can set a different threshold on the advanced policy selection tab if they wish. </t>
-  </si>
-  <si>
     <t>1) We assume that the following types of subsidies as defined by Sumaila et al. 2019 are prohibited: i) boat construction and renovation, ii) fuel. 2) This prohibition is assumed to only apply to developed and developing country Members</t>
   </si>
   <si>
@@ -1110,21 +1088,12 @@
     <t xml:space="preserve">This communication advocates for prohibiting subsidies in disputed waters, unless all parties have jointly notified the WTO of any agreement to subsidize. Members should attempt to reach an agreement through bilateral consultations before going to Dispute Settlement. </t>
   </si>
   <si>
-    <t xml:space="preserve">1) We assume that all capacity-enhancing subsidies as defined by Sumaila et al. 2019 are prohibited to vessels satisfying the three following characteristics: i) total length of more than 24 meters; ii) gross tonnage of more than 100 GT; iii) engine power of more than 130 kW. 2) In general, the tool does not include many vessels with fishing gears that are not hauled by a motor driven equipment, thus this characteristic is assumed to be satisfied. 3) The other 2 conditions are not modeled as it is difficult to determine which vessels have onboard freezing equipment, or the characteristics of a vessel's owning or operating company. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) We assume that each Member's base for capping is represented by the total amount of capacity-enhancing subsidies estimated by Sumaila et al. 2019. Members are sorted into three tiers based on a three-year average of FAO marine capture production (2015-2017). 2) Members accounting for 0.7% or more of global marine capture production are in "Tier 1"; Members accounting for 0.05% or more, but less than 0.7%, of global marine capture production are in "Tier 2"; Members accounting for less than 0.05% of global marine capture production are in "Tier 3". 3) This proposal advocates for allowing both Tier 1 and Tier 2 Members to negotiate their own subsidy caps or to accept a default cap of $50 million annually. For the purposes of modeling, we assume that Tier 1 Members receive a subsidy cap equal to 90% of their base for capping, and Tier 2 Members receive the default cap of $50 million. Tier 3 Members do not receive a cap. </t>
-  </si>
-  <si>
     <t>This communication advocates for a general prohibition of subsidies that contribute to overcapacity and overfishing. However, it allows for subsidies if the subsidising Member can demonstrate that the stock(s) targeted by the subsidy recipient are managed on the based on the best publically available scientific evidence taking into account the following elements: 1) scientific stock assessments; 2) legal institutions for resource management (i.e. vessel registration and fishery permits); 3) specific conservation and management measures for fish stocks (i.e. input, output, and technical controls taking account of fishery status); 4) monitoring, control and surveillance measures. It also provides a list of subsidies that shall be deemed not to be prohibited. Includes a reference to the precautionary principle to be included in a preamble. Prohibition should not apply to subsistence fishing.</t>
   </si>
   <si>
     <t xml:space="preserve">A transition period shall be allowed for developing country Members and LDCs. We assume these transition periods to be 4 and 6 years respectively. </t>
   </si>
   <si>
-    <t xml:space="preserve">1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) It is difficult to identify subsidies for subsistence fishing, so we approximate this condition by assuming that subsidies for fishing within a Member's territorial waters are allowed.       </t>
-  </si>
-  <si>
     <t>Transition period missing.</t>
   </si>
   <si>
@@ -1149,39 +1118,12 @@
     <t>This unofficial room document was circulated at the request of the Delegation of Jamaica on behalf of the African, Caribbean and Pacific Countries (ACP) Group on February 4, 2020.</t>
   </si>
   <si>
-    <t xml:space="preserve">1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) We assume that all capacity-enhancing subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing on the high seas. By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas to be prohibited. Users can set a different threshold on the advanced policy selection tab if they wish. </t>
-  </si>
-  <si>
-    <t>Developing country Members that individually account for less than [2%] of global marine capture production shall be exempt, and this prohibition shall not apply to LDC Members.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) We assume that the following types of subsidies as defined by Sumaila et al. 2019 are prohibited: i) boat construction and renovation, ii) fuel. 2) This prohibition is assumed to only apply to developed and developing country Members. </t>
-  </si>
-  <si>
-    <t>PERCENT_CAPTURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need to add new S&amp;DT option for developing and LDC (% capture). Alternatively could do this as a scope option. </t>
-  </si>
-  <si>
     <t xml:space="preserve">This communication builds on TN/RL/GEN/192, as reflected in TN/RL/W/274/Rev.6, and advocates for a prohibition on subsidies for capital and operating costs, provided to large-scale industrial fishing. Capital cost subsidies include those for construction, acquisition, modernization, renovation or upgrading of vessels, direct transfers for vessel construction and modernization, purchase of machines and equipment for fishing vessels. Operating cost subsidies include those for fuel, ice, bait, personnel, income support of vessels or operators or the workers they employ, social chargers, insurance, payments based on the price of fish caught, gear, and at-sea support, or operating losses of such vessels or activities. This text includes a list of subsidies that shall not be prohibited (Green Box): fisheries management, permanent cessation of fishing; implementation of international agreements, disaster relief, health and safety conditions, promotion of human capital. </t>
   </si>
   <si>
     <t>This unofficial room document was circulated at the request of the Delegation of Chad on behalf of the Least Developed Countries (LDC) Group on March 6, 2020.</t>
   </si>
   <si>
-    <t xml:space="preserve">1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal Member. The possible effects is a conservative interpretation of this text. 3) Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal Member. The possible effects is a conservative interpretation of this text. 3) Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. For OFOC: 1) We assume that all capacity-enhancing subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing on the high seas, and to vessels greater than 24 m in length or with a tonnage greater than 100 GT. </t>
-  </si>
-  <si>
-    <t>LENGTH</t>
-  </si>
-  <si>
-    <t>Transition period missing; need to add the ability to select multiple scope options - for now this just does length</t>
-  </si>
-  <si>
     <t xml:space="preserve">This communication was circulated at the request of the Delegation of India on March 6, 2020. </t>
   </si>
   <si>
@@ -1215,9 +1157,6 @@
     <t>Facilitator's working text - S&amp;DT</t>
   </si>
   <si>
-    <t>Subsidies for fishing in a Member's territorial waters are excluded. Prohibition of subsidies to OFOC shall not apply to LDCs. A transition period of 5 years shall be allowed for Overfished and OFOC disciplines for developing country and LDC Members.</t>
-  </si>
-  <si>
     <t>oa_scope_select</t>
   </si>
   <si>
@@ -1257,25 +1196,13 @@
     <t>TER</t>
   </si>
   <si>
-    <t xml:space="preserve">DONE. Data does not exist to model the prohibition on subsidies being provided to vessels flagged to another state. </t>
-  </si>
-  <si>
     <t>For IUU: No S&amp;DT is considered. For Overfished: Subsidies granted by developing and LDC Members for fishing within their own territorial sea shall be allowed. For OCOF: No S&amp;DT is considered.</t>
   </si>
   <si>
-    <t>Add two options for OCOF? (complete prohibition on boat building/fuel + HS only prohibition on all bad subs)</t>
-  </si>
-  <si>
     <t>RD/TN/RL/126/A1</t>
   </si>
   <si>
-    <t xml:space="preserve">1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - we have chosen to model the more ambitious of the two. </t>
-  </si>
-  <si>
     <t>1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text requires that there be a causal negative effect to the stock as a result of the subsidy. This is difficult to establish given existing data on subsidy provisioning and stock status, and is not possible to model, but we have chosen a more conservative reference point in regards to this condition.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) As written, this proposal does specify potential disciplines within each of the three categories, but rather the S&amp;DT that should be allowed for them. 2) To model the possible effects of such a proposal, we therefore use the disciplines proposed in LDC - Full text (excluding any S&amp;DT). Those are as follows: For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal Member. The possible effects is a conservative interpretation of this text. 3) Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. For OFOC: 1) We assume that all capacity-enhancing subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing on the high seas, and to vessels greater than 24 m in length or with a tonnage greater than 100 GT. </t>
   </si>
   <si>
     <t>Is basically the same as the cap. Different structure, tiers and flexibilities. It loks like is all based on global marine capture. There are no values as the de minimis will be the (x) of the average of landed value for 3 years. What should we use for the (x) value? a scale bar as we use in other cases?) Also there is an exception for 12 miles for all developing countries</t>
@@ -1342,20 +1269,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1) We assume that all capacity-enhancing subsidies as defined by Sumaila et al. 2019 are prohibited in areas classified as "disputed" in the Marine Regions' Maritime Boundaries World EEZ dataset (v10). 2) We note that this is a very ambitious interpretation of the possible effects of this proposal. 3) It is materially impossible to model non-existing agreements to subsidize in disputed areas.                                                                                                         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="3"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Disclaimer: We recognize that disputed areas are a political matter and our interpretation of this text is not meant to imply the expression of any opinion whatsoever concerning the status of any country, territory, city or area or of its authorities, or concerning the delimitation of its frontier or boundaries. </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">RD/TN/RL/97/Rev.3, TN/RL/W/274/Rev.6, RD/TN/RL/104, </t>
     </r>
     <r>
@@ -1375,30 +1288,15 @@
     <t>RD/TN/RL/89/Rev.1, TN/RL/GEN/192, TN/RL/W/274/Rev.6</t>
   </si>
   <si>
-    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. The possible effects is a conservative interpretation of this text. 3) Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternate definitions for an overfished stock subsidy prohibition - we have chosen to model the more ambitious interpretation of the two. For OFOC: 1) We assume that all capacity-enhancing subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. Users can set a different threshold on the advanced policy selection tab if they wish. </t>
-  </si>
-  <si>
     <t>For IUU: Subsidies granted by developing and LDC Members shall be allowed for small scale fishing: a) within their own territorial waters and b) within their own EEZs and high seas for 7 years. For Overfished: Subsidies granted by developing and LDC Members shall be allowed for fishing a) within their own territorial waters and b) within their own EEZs for 2 years. For OCOF: Subsidies granted by LDCs shall be allowed, and subsidies granted by developing countries shall be allowed for fishing in their territorial seas, or for fishing in their EEZs and high seas unless any of the following conditions are met for three consecutive years: a) GNI per capita is greater than US $5000 (constant 2010 US$), b) they engage in distant water fishing, or c) the contribution from Agriculture, Forestry and Fishing to their national GDP (World Bank) is greater than 10%.</t>
   </si>
   <si>
-    <t>TER, TIME</t>
-  </si>
-  <si>
-    <t>Need to add new S&amp;DT option for developing and LDC (non-industrial). The three options associated with defining it could be calculated on the back-end. Also need to build in time delays somehow</t>
-  </si>
-  <si>
     <t>This communication advocates for special and differential treatment for all three classes of proposed disciplines. As written, this proposal does specify potential disciplines within each of the three categories, but rather the S&amp;DT that should be allowed for them. To model the possible effects of such a proposal, we therefore use the disciplines proposed in LDC - Full text (excluding any S&amp;DT).</t>
   </si>
   <si>
-    <t>B1, B3, B4, B5, B6, B7, C1, C2, C3</t>
-  </si>
-  <si>
     <t>B1, B2, B3, B4, B5, B6, B7, C1, C2, C3</t>
   </si>
   <si>
-    <t xml:space="preserve">Missing "best of" option; also fix "per fisher" calculation. </t>
-  </si>
-  <si>
     <t>BEST</t>
   </si>
   <si>
@@ -1427,6 +1325,125 @@
   </si>
   <si>
     <t>tier3_cap_best_percent_fishers</t>
+  </si>
+  <si>
+    <t>B1, B2, B3, B4, B5, B7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONE. Note: data does not exist to model the prohibition on subsidies being provided to vessels flagged to another state. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas to be prohibited. Users can set a different threshold on the advanced policy selection tab if they wish. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) We assume each Member's cap is equal to whichever of the three proposed approaches for calculating a cap yields the largest amount. By default, caps based on the first approach are calculated as 55% of each Member's base for capping; caps based on the second approach are calculated as 2% of each Member's estimated landed value (calculated from the FAO Global Marine Capture Production Database, average between 2016-2018); caps based on the third approach are calculated as 55% of the global average subsidies per fisher (capacity-enhancing and ambiguous) multiplied by each Member's most recently reported total number of fishers (from the FAO Yearbook of Fishery and Aquaculture Statistics 2017). 2) We assume that provision of the following types of subsidies as defined by Sumaila et al. 2019 are allowed to continue irrespective of a Member's total cap: i) subsidies for fishing access agreements; ii) fisher assistance programs; iii) vessel buyback programs; iv) rural fishers' community development programs. Therefore each Member's base for capping is represented by the total amount of all other capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) We assume that each Member's base for capping is represented by the total amount of capacity-enhancing and ambiguos subsidies estimated by Sumaila et al. 2019. 2) Members are sorted into three tiers based on a three-year average of FAO marine capture production (2016-2018). Members accounting for 0.7% or more of global marine capture production are in "Tier 1"; Members accounting for 0.05% or more, but less than 0.7%, of global marine capture production are in "Tier 2"; Members accounting for less than 0.05% of global marine capture production are in "Tier 3". 3) This proposal advocates for allowing both Tier 1 and Tier 2 Members to negotiate their own subsidy caps or to accept a default cap of $50 million annually. For the purposes of modeling, we assume that Tier 1 Members receive a subsidy cap equal to 50% of their base for capping; Tier 2 Members receive the default cap of $50 million; Tier 3 Members do not receive a cap. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels satisfying the three following characteristics: i) total length of more than 24 meters; ii) gross tonnage of more than 100 GT; iii) engine power of more than 130 kW. 2) In general, the tool does not include many vessels with fishing gears that are not hauled by a motor driven equipment, thus this characteristic is assumed to be satisfied. 3) The other 2 conditions are not considered as it is difficult to determine which vessels have onboard freezing equipment, or the characteristics of a vessel's owning or operating company. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited in areas classified as "disputed" in the Marine Regions' Maritime Boundaries World EEZ dataset (v10). 2) We note that this is a very ambitious interpretation of the possible effects of this proposal. 3) It is materially impossible to model non-existing agreements to subsidize in disputed areas.                                                                                                         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Disclaimer: We recognize that disputed areas are a political matter and our interpretation of this text is not meant to imply the expression of any opinion whatsoever concerning the status of any country, territory, city or area or of its authorities, or concerning the delimitation of its frontier or boundaries. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) It is difficult to identify subsidies for subsistence fishing, so we approximate this condition by assuming that subsidies for fishing within a Member's territorial waters are allowed.       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag and subsidizing Member states, nor for coastal Member states. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. </t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - we have chosen to model our interpretation of the more ambitious of the two (see New Zealand/Iceland - Overfishing and overcapacity). </t>
+  </si>
+  <si>
+    <t>1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) We assume that all capacity-enhancing subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing on the high seas. By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas to be prohibited.</t>
+  </si>
+  <si>
+    <t>Developing countries not engaged in large-scale industrial distant water fishing are entitled to a transition period of 3 years. LDCs and SVEs are entitled to a transition period of 6 years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag and subsidizing Members, nor for coastal Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) We assume that the following types of subsidies as defined by Sumaila et al. 2019 are prohibited: i) boat construction and renovation, ii) fuel. 2) This prohibition is assumed to only apply to Members responsible for more than 1% of global marine capture production (calculcated as the annual average between 2016-2018). </t>
+  </si>
+  <si>
+    <t>This prohibition shall not apply to LDC Members.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal Member. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing on the high seas, and to vessels greater than 24 m in length or with a tonnage greater than 100 GT. </t>
+  </si>
+  <si>
+    <t>LENGTH, TONNAGE</t>
+  </si>
+  <si>
+    <t>For Overfished: Subsidies for fishing in a Member's territorial waters are excluded. For OFOC: This prohibition shall not apply to LDCs. Additionally, a transition period of 5 years shall be allowed for Overfished and OFOC disciplines for both developing country and LDC Members.</t>
+  </si>
+  <si>
+    <t>Transition period missing. Two separate delays: 1) developing countries not engaged in large scale industrial fishing; 2) LDCs and SVEs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) As written, this proposal does specify potential disciplines within each of the three categories, but rather the S&amp;DT that should be allowed for them. 2) To model the possible effects of such a proposal, we therefore use the disciplines proposed in LDC - Full text (excluding any S&amp;DT). Those are as follows: For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal Member. The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings. 3) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing on the high seas, and to vessels greater than 24 m in length or with a tonnage greater than 100 GT. </t>
+  </si>
+  <si>
+    <t>Transition periods missing. Also need to identify developing countries meeting non-industrial criteria. The three options associated with defining it could be calculated on the back-end.</t>
+  </si>
+  <si>
+    <t>As witten, this proposal places different prohibtions on boat building/fuel subsidies and all other subsidies. This is not accounted for (HS only vs. all)</t>
+  </si>
+  <si>
+    <t>These are the values for the Chair's text + China cap proposal</t>
+  </si>
+  <si>
+    <t>For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternate definitions for an overfished stock subsidy prohibition - we have chosen to model the more ambitious interpretation of the two. For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. No cap-based approach is included.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternate definitions for an overfished stock subsidy prohibition - we have chosen to model the more ambitious interpretation of the two. For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) We assume each Member's cap is equal to whichever of the three proposed approaches for calculating a cap yields the largest amount. By default, caps based on the first approach are calculated as 55% of each Member's base for capping; caps based on the second approach are calculated as 2% of each Member's estimated landed value (calculated from the FAO Global Marine Capture Production Database, average between 2016-2018); caps based on the third approach are calculated as 55% of the global average subsidies per fisher (capacity-enhancing and ambiguous) multiplied by each Member's most recently reported total number of fishers (from the FAO Yearbook of Fishery and Aquaculture Statistics 2017). 2) We assume that provision of the following types of subsidies as defined by Sumaila et al. 2019 are allowed to continue irrespective of a Member's total cap: i) subsidies for fishing access agreements; ii) fisher assistance programs; iii) vessel buyback programs; iv) rural fishers' community development programs. Therefore each Member's base for capping is represented by the total amount of all other capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. </t>
+  </si>
+  <si>
+    <t>Chair's text - Consolidated text (w/ China - Cap)</t>
+  </si>
+  <si>
+    <t>These are the values for the Chair's text + USA cap proposal</t>
+  </si>
+  <si>
+    <t>Chair's text - Consolidated text (w/ US and others -  Cap/Tier)</t>
+  </si>
+  <si>
+    <t>RD/TN/RL/126 (TN/RL/GEN/197/Rev.2)</t>
+  </si>
+  <si>
+    <t>RD/TN/RL/126 (TN/RL/GEN/199)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternate definitions for an overfished stock subsidy prohibition - we have chosen to model the more ambitious interpretation of the two. For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) 1) We assume that each Member's base for capping is represented by the total amount of capacity-enhancing and ambiguos subsidies estimated by Sumaila et al. 2019. 2) Members are sorted into three tiers based on a three-year average of FAO marine capture production (2016-2018). Members accounting for 0.7% or more of global marine capture production are in "Tier 1"; Members accounting for 0.05% or more, but less than 0.7%, of global marine capture production are in "Tier 2"; Members accounting for less than 0.05% of global marine capture production are in "Tier 3". 3) This proposal advocates for allowing both Tier 1 and Tier 2 Members to negotiate their own subsidy caps or to accept a default cap of $50 million annually. For the purposes of modeling, we assume that Tier 1 Members receive a subsidy cap equal to 50% of their base for capping; Tier 2 Members receive the default cap of $50 million; Tier 3 Members do not receive a cap. </t>
+  </si>
+  <si>
+    <t>TOP10</t>
+  </si>
+  <si>
+    <t>PERCENT_REV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) We assume that provision of the following types of subsidies as defined by Sumaila et al. 2019 are allowed to continue irrespective of a Member's total de minimus limit: i) fisher assistance programs; ii) rural fishers' community development programs.subsidies (both programs relevant to fishing in territorial waters). Therefore each Member's base subsidy level is represented by the total amount of all other capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. 2) we estimate the landed value of marine capture fisheries from the FAO Global Capture Production Database. 3) We assume the de minimis limit for developed and developing country members belonging to the top 10 marine capture fisheries producers to be 50% of the average total landed value of the Member's marine capture fisheries between 2016-2018. For all other developing country Members, we assume the de minimis limit to be 70% of the average total landed value between 2016-2018. For LDC Members, we assume the de minimis limit to be 90% of the average total landed value between 2016-2018. </t>
+  </si>
+  <si>
+    <t>B1, B2, B3, B4, B5, B6, B7, C2</t>
   </si>
 </sst>
 </file>
@@ -1958,7 +1975,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2043,6 +2060,12 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2399,11 +2422,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CU26"/>
+  <dimension ref="A1:CU28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BV1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CT33" sqref="CT33"/>
+    <sheetView tabSelected="1" topLeftCell="BT1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BX2" sqref="BX2:CR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2443,7 +2466,7 @@
         <v>333</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>321</v>
@@ -2452,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>260</v>
@@ -2497,7 +2520,7 @@
         <v>10</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="W1" s="9" t="s">
         <v>11</v>
@@ -2539,7 +2562,7 @@
         <v>17</v>
       </c>
       <c r="AJ1" s="9" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="AK1" s="9" t="s">
         <v>18</v>
@@ -2602,7 +2625,7 @@
         <v>27</v>
       </c>
       <c r="BE1" s="9" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="BF1" s="9" t="s">
         <v>28</v>
@@ -2686,13 +2709,13 @@
         <v>45</v>
       </c>
       <c r="CG1" s="9" t="s">
-        <v>437</v>
+        <v>407</v>
       </c>
       <c r="CH1" s="9" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="CI1" s="9" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="CJ1" s="9" t="s">
         <v>46</v>
@@ -2704,13 +2727,13 @@
         <v>49</v>
       </c>
       <c r="CM1" s="9" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="CN1" s="9" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="CO1" s="9" t="s">
-        <v>442</v>
+        <v>412</v>
       </c>
       <c r="CP1" s="9" t="s">
         <v>50</v>
@@ -2722,36 +2745,36 @@
         <v>53</v>
       </c>
       <c r="CS1" s="9" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="CT1" s="9" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="CU1" s="9" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:99" s="9" customFormat="1" ht="282" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>98</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>58</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>99</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>55</v>
@@ -2763,7 +2786,7 @@
         <v>43545</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L2" s="16" t="s">
         <v>147</v>
@@ -2772,14 +2795,14 @@
         <v>148</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="O2" s="16"/>
-      <c r="P2" s="19" t="s">
-        <v>345</v>
+      <c r="P2" s="21" t="s">
+        <v>337</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>356</v>
+        <v>450</v>
       </c>
       <c r="R2" s="16"/>
       <c r="S2" s="16"/>
@@ -2787,7 +2810,9 @@
       <c r="U2" s="16"/>
       <c r="V2" s="16"/>
       <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
+      <c r="X2" s="16" t="s">
+        <v>301</v>
+      </c>
       <c r="Y2" s="16"/>
       <c r="Z2" s="16"/>
       <c r="AA2" s="16"/>
@@ -2805,7 +2830,9 @@
       <c r="AM2" s="16"/>
       <c r="AN2" s="16"/>
       <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
+      <c r="AP2" s="16" t="s">
+        <v>301</v>
+      </c>
       <c r="AQ2" s="16"/>
       <c r="AR2" s="16"/>
       <c r="AS2" s="16"/>
@@ -2826,7 +2853,9 @@
       <c r="BH2" s="16"/>
       <c r="BI2" s="16"/>
       <c r="BJ2" s="16"/>
-      <c r="BK2" s="16"/>
+      <c r="BK2" s="16" t="s">
+        <v>301</v>
+      </c>
       <c r="BL2" s="16"/>
       <c r="BM2" s="16"/>
       <c r="BN2" s="16"/>
@@ -2839,27 +2868,46 @@
       <c r="BU2" s="16"/>
       <c r="BV2" s="16"/>
       <c r="BW2" s="16"/>
-      <c r="BX2" s="16"/>
-      <c r="BY2" s="16"/>
-      <c r="BZ2" s="16"/>
-      <c r="CA2" s="16"/>
+      <c r="BX2" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="BY2" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="BZ2" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="CA2" s="16" t="s">
+        <v>448</v>
+      </c>
       <c r="CB2" s="16"/>
       <c r="CC2" s="16"/>
-      <c r="CD2" s="16"/>
+      <c r="CD2" s="30" t="s">
+        <v>449</v>
+      </c>
       <c r="CE2" s="16"/>
-      <c r="CF2" s="28"/>
+      <c r="CF2" s="28">
+        <v>50</v>
+      </c>
       <c r="CG2" s="28"/>
       <c r="CH2" s="28"/>
       <c r="CI2" s="28"/>
-      <c r="CJ2" s="16"/>
-      <c r="CK2" s="16"/>
-      <c r="CL2" s="16"/>
+      <c r="CJ2" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="CL2" s="16">
+        <v>70</v>
+      </c>
       <c r="CM2" s="28"/>
       <c r="CN2" s="28"/>
       <c r="CO2" s="28"/>
-      <c r="CP2" s="16"/>
+      <c r="CP2" s="16" t="s">
+        <v>449</v>
+      </c>
       <c r="CQ2" s="16"/>
-      <c r="CR2" s="16"/>
+      <c r="CR2" s="16">
+        <v>90</v>
+      </c>
       <c r="CS2" s="28"/>
       <c r="CT2" s="28"/>
       <c r="CU2" s="28"/>
@@ -2878,13 +2926,13 @@
         <v>58</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>108</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>55</v>
@@ -2908,10 +2956,10 @@
         <v>154</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="X3" s="16" t="s">
         <v>301</v>
@@ -2940,7 +2988,7 @@
         <v>98</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>435</v>
+        <v>318</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>58</v>
@@ -2968,13 +3016,13 @@
         <v>79</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P4" s="21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>357</v>
+        <v>419</v>
       </c>
       <c r="X4" s="16" t="s">
         <v>301</v>
@@ -2989,13 +3037,13 @@
         <v>308</v>
       </c>
       <c r="BY4" s="16" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="BZ4" s="16" t="s">
         <v>320</v>
       </c>
       <c r="CD4" s="16" t="s">
-        <v>436</v>
+        <v>406</v>
       </c>
       <c r="CG4" s="28">
         <v>55</v>
@@ -3024,7 +3072,7 @@
         <v>132</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>55</v>
@@ -3048,16 +3096,16 @@
         <v>157</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="X5" s="16" t="s">
         <v>301</v>
       </c>
       <c r="AH5" s="16" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AI5" s="16" t="s">
         <v>300</v>
@@ -3107,10 +3155,10 @@
         <v>146</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>239</v>
@@ -3145,13 +3193,13 @@
         <v>98</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>58</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>102</v>
@@ -3178,10 +3226,10 @@
         <v>153</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>358</v>
+        <v>418</v>
       </c>
       <c r="X7" s="16" t="s">
         <v>301</v>
@@ -3190,10 +3238,10 @@
         <v>301</v>
       </c>
       <c r="BC7" s="16" t="s">
-        <v>61</v>
+        <v>405</v>
       </c>
       <c r="BD7" s="16" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="BE7" s="16" t="s">
         <v>62</v>
@@ -3228,7 +3276,7 @@
         <v>114</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>55</v>
@@ -3249,13 +3297,13 @@
         <v>116</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="P8" s="19" t="s">
         <v>155</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="X8" s="16" t="s">
         <v>301</v>
@@ -3308,7 +3356,7 @@
         <v>130</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>55</v>
@@ -3329,22 +3377,22 @@
         <v>116</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="X9" s="16" t="s">
         <v>301</v>
       </c>
       <c r="AH9" s="16" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AI9" s="16" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="AJ9" s="16" t="s">
         <v>326</v>
@@ -3359,7 +3407,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="1:99" ht="154" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:99" ht="168" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>55</v>
       </c>
@@ -3376,7 +3424,7 @@
         <v>68</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>58</v>
@@ -3388,7 +3436,7 @@
         <v>43657</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="L10" s="16" t="s">
         <v>70</v>
@@ -3397,13 +3445,13 @@
         <v>128</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>363</v>
+        <v>420</v>
       </c>
       <c r="X10" s="16" t="s">
         <v>301</v>
@@ -3418,7 +3466,7 @@
         <v>308</v>
       </c>
       <c r="BY10" s="16" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="BZ10" s="16" t="s">
         <v>302</v>
@@ -3433,7 +3481,7 @@
         <v>304</v>
       </c>
       <c r="CF10" s="28">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="CJ10" s="16" t="s">
         <v>305</v>
@@ -3483,13 +3531,13 @@
         <v>113</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>362</v>
+        <v>421</v>
       </c>
       <c r="X11" s="16" t="s">
         <v>301</v>
@@ -3498,13 +3546,13 @@
         <v>301</v>
       </c>
       <c r="BC11" s="16" t="s">
-        <v>61</v>
+        <v>405</v>
       </c>
       <c r="BD11" s="16" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="BE11" s="16" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="BH11" s="16">
         <v>24</v>
@@ -3560,10 +3608,10 @@
         <v>151</v>
       </c>
       <c r="P12" s="21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="R12" s="16" t="s">
         <v>261</v>
@@ -3604,7 +3652,7 @@
         <v>85</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="H13" s="15" t="s">
         <v>58</v>
@@ -3616,7 +3664,7 @@
         <v>43759</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="L13" s="16" t="s">
         <v>86</v>
@@ -3625,16 +3673,16 @@
         <v>87</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>324</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="X13" s="16" t="s">
         <v>301</v>
@@ -3643,10 +3691,10 @@
         <v>301</v>
       </c>
       <c r="BC13" s="16" t="s">
-        <v>61</v>
+        <v>405</v>
       </c>
       <c r="BD13" s="16" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="BE13" s="16" t="s">
         <v>262</v>
@@ -3666,7 +3714,7 @@
         <v>98</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>58</v>
@@ -3678,7 +3726,7 @@
         <v>253</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>55</v>
@@ -3699,13 +3747,13 @@
         <v>119</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>366</v>
+        <v>423</v>
       </c>
       <c r="X14" s="16" t="s">
         <v>301</v>
@@ -3714,7 +3762,7 @@
         <v>317</v>
       </c>
       <c r="AI14" s="16" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="AJ14" s="16" t="s">
         <v>326</v>
@@ -3767,7 +3815,7 @@
         <v>91</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>55</v>
@@ -3779,7 +3827,7 @@
         <v>43801</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="L15" s="16" t="s">
         <v>334</v>
@@ -3788,13 +3836,13 @@
         <v>92</v>
       </c>
       <c r="N15" s="16" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="P15" s="21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="R15" s="16" t="s">
         <v>307</v>
@@ -3825,6 +3873,9 @@
       <c r="B16" s="14" t="s">
         <v>98</v>
       </c>
+      <c r="C16" s="29" t="s">
+        <v>425</v>
+      </c>
       <c r="D16" s="15" t="s">
         <v>58</v>
       </c>
@@ -3844,7 +3895,7 @@
         <v>43801</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="L16" s="16" t="s">
         <v>149</v>
@@ -3865,6 +3916,9 @@
       <c r="B17" s="14" t="s">
         <v>98</v>
       </c>
+      <c r="C17" s="29" t="s">
+        <v>425</v>
+      </c>
       <c r="D17" s="15" t="s">
         <v>58</v>
       </c>
@@ -3885,7 +3939,7 @@
         <v>43801</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="L17" s="16" t="s">
         <v>122</v>
@@ -3906,6 +3960,9 @@
       <c r="B18" s="14" t="s">
         <v>89</v>
       </c>
+      <c r="C18" s="29" t="s">
+        <v>425</v>
+      </c>
       <c r="D18" s="15" t="s">
         <v>58</v>
       </c>
@@ -3925,7 +3982,7 @@
         <v>43802</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="L18" s="16" t="s">
         <v>137</v>
@@ -3953,7 +4010,7 @@
         <v>58</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>125</v>
@@ -3977,13 +4034,13 @@
         <v>127</v>
       </c>
       <c r="N19" s="16" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="P19" s="21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="X19" s="16" t="s">
         <v>301</v>
@@ -4004,7 +4061,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="20" spans="1:99" ht="196" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:99" ht="182" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>58</v>
       </c>
@@ -4039,17 +4096,17 @@
         <v>248</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="N20" s="16" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="O20" s="20"/>
       <c r="P20" s="21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>375</v>
+        <v>427</v>
       </c>
       <c r="X20" s="16" t="s">
         <v>301</v>
@@ -4067,7 +4124,7 @@
         <v>61</v>
       </c>
       <c r="BD20" s="16" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="BE20" s="16" t="s">
         <v>63</v>
@@ -4090,7 +4147,7 @@
         <v>90</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>336</v>
+        <v>435</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>58</v>
@@ -4099,10 +4156,10 @@
         <v>327</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="H21" s="16" t="s">
         <v>55</v>
@@ -4123,13 +4180,13 @@
         <v>116</v>
       </c>
       <c r="N21" s="16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P21" s="19" t="s">
-        <v>335</v>
+        <v>428</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>239</v>
+        <v>429</v>
       </c>
       <c r="R21" s="16" t="s">
         <v>307</v>
@@ -4150,7 +4207,7 @@
         <v>309</v>
       </c>
       <c r="AA21" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB21" s="16" t="s">
         <v>308</v>
@@ -4168,7 +4225,7 @@
         <v>309</v>
       </c>
       <c r="AG21" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP21" s="16" t="s">
         <v>301</v>
@@ -4188,7 +4245,7 @@
         <v>98</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>379</v>
+        <v>318</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>58</v>
@@ -4197,7 +4254,7 @@
         <v>243</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="H22" s="16" t="s">
         <v>55</v>
@@ -4215,16 +4272,16 @@
         <v>115</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="N22" s="16" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="P22" s="19" t="s">
-        <v>376</v>
+        <v>431</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>377</v>
+        <v>430</v>
       </c>
       <c r="X22" s="16" t="s">
         <v>301</v>
@@ -4236,7 +4293,7 @@
         <v>64</v>
       </c>
       <c r="BD22" s="16" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="BK22" s="16" t="s">
         <v>308</v>
@@ -4248,10 +4305,7 @@
         <v>300</v>
       </c>
       <c r="BP22" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="BQ22" s="16" t="s">
-        <v>378</v>
+        <v>301</v>
       </c>
       <c r="BT22" s="16" t="s">
         <v>301</v>
@@ -4268,7 +4322,7 @@
         <v>89</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>58</v>
@@ -4296,19 +4350,19 @@
         <v>252</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>325</v>
       </c>
       <c r="P23" s="25" t="s">
-        <v>397</v>
+        <v>434</v>
       </c>
       <c r="Q23" s="26" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="R23" s="16" t="s">
         <v>307</v>
@@ -4338,7 +4392,7 @@
         <v>317</v>
       </c>
       <c r="AI23" s="9" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="AJ23" s="9" t="s">
         <v>326</v>
@@ -4378,20 +4432,22 @@
       <c r="BA23" s="9"/>
       <c r="BB23" s="9"/>
       <c r="BC23" s="16" t="s">
-        <v>61</v>
+        <v>405</v>
       </c>
       <c r="BD23" s="9" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="BE23" s="9" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="BF23" s="9"/>
       <c r="BG23" s="9"/>
       <c r="BH23" s="9">
         <v>24</v>
       </c>
-      <c r="BI23" s="9"/>
+      <c r="BI23" s="9">
+        <v>100</v>
+      </c>
       <c r="BJ23" s="9"/>
       <c r="BK23" s="9" t="s">
         <v>308</v>
@@ -4455,13 +4511,13 @@
         <v>89</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>58</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15" t="s">
@@ -4480,17 +4536,17 @@
         <v>140</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="N24" s="16" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="O24" s="3"/>
       <c r="P24" s="4" t="s">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="R24" s="16" t="s">
         <v>307</v>
@@ -4511,13 +4567,13 @@
         <v>308</v>
       </c>
       <c r="Z24" s="16" t="s">
-        <v>410</v>
+        <v>331</v>
       </c>
       <c r="AB24" s="16" t="s">
         <v>308</v>
       </c>
       <c r="AC24" s="16" t="s">
-        <v>410</v>
+        <v>331</v>
       </c>
       <c r="AE24" s="16" t="s">
         <v>301</v>
@@ -4526,6 +4582,9 @@
         <v>317</v>
       </c>
       <c r="AI24" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="AJ24" s="16" t="s">
         <v>300</v>
       </c>
       <c r="AP24" s="16" t="s">
@@ -4535,35 +4594,32 @@
         <v>308</v>
       </c>
       <c r="AR24" s="16" t="s">
-        <v>430</v>
-      </c>
-      <c r="AT24" s="16">
-        <v>2</v>
+        <v>331</v>
       </c>
       <c r="AU24" s="16" t="s">
         <v>308</v>
       </c>
       <c r="AV24" s="16" t="s">
-        <v>430</v>
-      </c>
-      <c r="AX24" s="16">
-        <v>2</v>
+        <v>331</v>
       </c>
       <c r="AY24" s="16" t="s">
         <v>301</v>
       </c>
       <c r="BC24" s="16" t="s">
-        <v>61</v>
+        <v>405</v>
       </c>
       <c r="BD24" s="9" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="BE24" s="9" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="BH24" s="9">
         <v>24</v>
       </c>
+      <c r="BI24" s="16">
+        <v>100</v>
+      </c>
       <c r="BK24" s="16" t="s">
         <v>308</v>
       </c>
@@ -4577,9 +4633,12 @@
         <v>308</v>
       </c>
       <c r="BQ24" s="16" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="BT24" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BX24" s="16" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4591,47 +4650,47 @@
         <v>89</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>58</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="15" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>55</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="J25" s="17">
         <v>44007</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="N25" s="16" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="P25" s="19" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="R25" s="16" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="S25" s="16" t="s">
         <v>301</v>
@@ -4642,8 +4701,11 @@
       <c r="X25" s="16" t="s">
         <v>301</v>
       </c>
+      <c r="AH25" s="16" t="s">
+        <v>317</v>
+      </c>
       <c r="AI25" s="16" t="s">
-        <v>317</v>
+        <v>379</v>
       </c>
       <c r="AJ25" s="16" t="s">
         <v>300</v>
@@ -4655,22 +4717,22 @@
         <v>308</v>
       </c>
       <c r="AR25" s="16" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="AU25" s="16" t="s">
         <v>308</v>
       </c>
       <c r="AV25" s="16" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="AY25" s="16" t="s">
         <v>301</v>
       </c>
       <c r="BC25" s="16" t="s">
-        <v>61</v>
+        <v>405</v>
       </c>
       <c r="BD25" s="16" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="BE25" s="16" t="s">
         <v>62</v>
@@ -4685,27 +4747,55 @@
         <v>301</v>
       </c>
     </row>
-    <row r="26" spans="1:99" ht="42" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:99" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="K26" s="27"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J26" s="17">
+        <v>44007</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="P26" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="R26" s="16" t="s">
+        <v>389</v>
+      </c>
       <c r="S26" s="16" t="s">
         <v>301</v>
-      </c>
-      <c r="T26" s="16">
-        <v>20</v>
       </c>
       <c r="U26" s="16" t="s">
         <v>300</v>
@@ -4713,190 +4803,411 @@
       <c r="X26" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="Y26" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AA26" s="16">
-        <v>5</v>
-      </c>
-      <c r="AB26" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AD26" s="16">
-        <v>5</v>
-      </c>
-      <c r="AE26" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AG26" s="16">
-        <v>5</v>
+      <c r="AH26" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="AI26" s="16" t="s">
+        <v>379</v>
       </c>
       <c r="AJ26" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="AL26" s="16">
-        <v>5</v>
-      </c>
-      <c r="AM26" s="16">
-        <v>24</v>
-      </c>
-      <c r="AN26" s="16">
-        <v>100</v>
-      </c>
-      <c r="AO26" s="16">
-        <v>400</v>
-      </c>
       <c r="AP26" s="16" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="AQ26" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AS26" s="16">
-        <v>5</v>
-      </c>
-      <c r="AT26" s="16">
-        <v>5</v>
+        <v>308</v>
+      </c>
+      <c r="AR26" s="16" t="s">
+        <v>390</v>
       </c>
       <c r="AU26" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AW26" s="16">
-        <v>5</v>
-      </c>
-      <c r="AX26" s="16">
-        <v>5</v>
+        <v>308</v>
+      </c>
+      <c r="AV26" s="16" t="s">
+        <v>390</v>
       </c>
       <c r="AY26" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="BA26" s="16">
-        <v>5</v>
-      </c>
-      <c r="BB26" s="16">
-        <v>5</v>
+      <c r="BC26" s="16" t="s">
+        <v>405</v>
       </c>
       <c r="BD26" s="16" t="s">
-        <v>300</v>
+        <v>379</v>
+      </c>
+      <c r="BE26" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="BG26" s="16">
         <v>5</v>
       </c>
-      <c r="BH26" s="16">
+      <c r="BK26" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BX26" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="BY26" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="BZ26" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="CD26" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="CG26" s="28">
+        <v>55</v>
+      </c>
+      <c r="CH26" s="28">
+        <v>2.1</v>
+      </c>
+      <c r="CI26" s="28">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:99" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J27" s="17">
+        <v>44007</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="N27" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="P27" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="R27" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="S27" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="U27" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="X27" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH27" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="AI27" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="AJ27" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="AP27" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="AQ27" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="AR27" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="AU27" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="AV27" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="AY27" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BC27" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="BD27" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="BE27" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG27" s="16">
+        <v>5</v>
+      </c>
+      <c r="BK27" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BX27" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="BY27" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="BZ27" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="CA27" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="CC27" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="CD27" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="CF27" s="28">
+        <v>50</v>
+      </c>
+      <c r="CJ27" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="CK27" s="16">
+        <v>50</v>
+      </c>
+      <c r="CP27" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:99" ht="42" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28" s="27"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="5"/>
+      <c r="S28" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="T28" s="16">
+        <v>20</v>
+      </c>
+      <c r="U28" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="X28" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y28" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AA28" s="16">
+        <v>5</v>
+      </c>
+      <c r="AB28" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD28" s="16">
+        <v>5</v>
+      </c>
+      <c r="AE28" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG28" s="16">
+        <v>5</v>
+      </c>
+      <c r="AJ28" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="AL28" s="16">
+        <v>5</v>
+      </c>
+      <c r="AM28" s="16">
         <v>24</v>
       </c>
-      <c r="BI26" s="16">
+      <c r="AN28" s="16">
         <v>100</v>
       </c>
-      <c r="BJ26" s="16">
+      <c r="AO28" s="16">
         <v>400</v>
       </c>
-      <c r="BK26" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BL26" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BN26" s="16">
+      <c r="AP28" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AQ28" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS28" s="16">
         <v>5</v>
       </c>
-      <c r="BO26" s="16">
+      <c r="AT28" s="16">
         <v>5</v>
       </c>
-      <c r="BP26" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BR26" s="16">
+      <c r="AU28" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AW28" s="16">
         <v>5</v>
       </c>
-      <c r="BS26" s="16">
+      <c r="AX28" s="16">
         <v>5</v>
       </c>
-      <c r="BT26" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BV26" s="16">
+      <c r="AY28" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BA28" s="16">
         <v>5</v>
       </c>
-      <c r="BW26" s="16">
+      <c r="BB28" s="16">
         <v>5</v>
       </c>
-      <c r="BX26" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BY26" s="16" t="s">
+      <c r="BD28" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="BG28" s="16">
+        <v>5</v>
+      </c>
+      <c r="BH28" s="16">
+        <v>24</v>
+      </c>
+      <c r="BI28" s="16">
+        <v>100</v>
+      </c>
+      <c r="BJ28" s="16">
+        <v>400</v>
+      </c>
+      <c r="BK28" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BL28" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BN28" s="16">
+        <v>5</v>
+      </c>
+      <c r="BO28" s="16">
+        <v>5</v>
+      </c>
+      <c r="BP28" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BR28" s="16">
+        <v>5</v>
+      </c>
+      <c r="BS28" s="16">
+        <v>5</v>
+      </c>
+      <c r="BT28" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BV28" s="16">
+        <v>5</v>
+      </c>
+      <c r="BW28" s="16">
+        <v>5</v>
+      </c>
+      <c r="BX28" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BY28" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="BZ26" s="16" t="s">
+      <c r="BZ28" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="CA26" s="16" t="s">
+      <c r="CA28" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="CB26" s="16">
+      <c r="CB28" s="16">
         <v>0.7</v>
       </c>
-      <c r="CC26" s="16" t="s">
+      <c r="CC28" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="CD26" s="16" t="s">
+      <c r="CD28" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="CE26" s="16">
+      <c r="CE28" s="16">
         <v>50</v>
       </c>
-      <c r="CF26" s="28">
+      <c r="CF28" s="28">
         <v>5</v>
       </c>
-      <c r="CG26" s="28">
+      <c r="CG28" s="28">
         <v>5</v>
       </c>
-      <c r="CH26" s="28">
+      <c r="CH28" s="28">
         <v>5</v>
       </c>
-      <c r="CI26" s="28">
+      <c r="CI28" s="28">
         <v>5</v>
       </c>
-      <c r="CJ26" s="16" t="s">
+      <c r="CJ28" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="CK26" s="16">
+      <c r="CK28" s="16">
         <v>5</v>
       </c>
-      <c r="CL26" s="16">
+      <c r="CL28" s="16">
         <v>5</v>
       </c>
-      <c r="CM26" s="28">
+      <c r="CM28" s="28">
         <v>5</v>
       </c>
-      <c r="CN26" s="28">
+      <c r="CN28" s="28">
         <v>5</v>
       </c>
-      <c r="CO26" s="28">
+      <c r="CO28" s="28">
         <v>5</v>
       </c>
-      <c r="CP26" s="16" t="s">
+      <c r="CP28" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="CQ26" s="16">
+      <c r="CQ28" s="16">
         <v>5</v>
       </c>
-      <c r="CR26" s="16">
+      <c r="CR28" s="16">
         <v>5</v>
       </c>
-      <c r="CS26" s="28">
+      <c r="CS28" s="28">
         <v>5</v>
       </c>
-      <c r="CT26" s="28">
+      <c r="CT28" s="28">
         <v>5</v>
       </c>
-      <c r="CU26" s="28">
+      <c r="CU28" s="28">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:CR26">
-    <sortCondition ref="J2:J26"/>
+  <sortState ref="A2:CR28">
+    <sortCondition ref="J2:J28"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/app/data/wto_proposal_settings_master.xlsx
+++ b/app/data/wto_proposal_settings_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kat/GitHub/SubsidyExplorer/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6ED5F85-361C-7A43-9812-5878ED18E801}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B884F94F-4285-E341-BC98-5AAE9B89EFE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14200" yWindow="7000" windowWidth="35700" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4400" yWindow="4860" windowWidth="35700" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="470">
   <si>
     <t>proposal</t>
   </si>
@@ -1333,9 +1333,6 @@
     <t xml:space="preserve">DONE. Note: data does not exist to model the prohibition on subsidies being provided to vessels flagged to another state. </t>
   </si>
   <si>
-    <t xml:space="preserve">1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas to be prohibited. Users can set a different threshold on the advanced policy selection tab if they wish. </t>
-  </si>
-  <si>
     <t xml:space="preserve">1) We assume each Member's cap is equal to whichever of the three proposed approaches for calculating a cap yields the largest amount. By default, caps based on the first approach are calculated as 55% of each Member's base for capping; caps based on the second approach are calculated as 2% of each Member's estimated landed value (calculated from the FAO Global Marine Capture Production Database, average between 2016-2018); caps based on the third approach are calculated as 55% of the global average subsidies per fisher (capacity-enhancing and ambiguous) multiplied by each Member's most recently reported total number of fishers (from the FAO Yearbook of Fishery and Aquaculture Statistics 2017). 2) We assume that provision of the following types of subsidies as defined by Sumaila et al. 2019 are allowed to continue irrespective of a Member's total cap: i) subsidies for fishing access agreements; ii) fisher assistance programs; iii) vessel buyback programs; iv) rural fishers' community development programs. Therefore each Member's base for capping is represented by the total amount of all other capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. </t>
   </si>
   <si>
@@ -1371,9 +1368,6 @@
     <t xml:space="preserve">1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - we have chosen to model our interpretation of the more ambitious of the two (see New Zealand/Iceland - Overfishing and overcapacity). </t>
   </si>
   <si>
-    <t>1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) We assume that all capacity-enhancing subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing on the high seas. By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas to be prohibited.</t>
-  </si>
-  <si>
     <t>Developing countries not engaged in large-scale industrial distant water fishing are entitled to a transition period of 3 years. LDCs and SVEs are entitled to a transition period of 6 years.</t>
   </si>
   <si>
@@ -1425,12 +1419,6 @@
     <t>Chair's text - Consolidated text (w/ US and others -  Cap/Tier)</t>
   </si>
   <si>
-    <t>RD/TN/RL/126 (TN/RL/GEN/197/Rev.2)</t>
-  </si>
-  <si>
-    <t>RD/TN/RL/126 (TN/RL/GEN/199)</t>
-  </si>
-  <si>
     <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternate definitions for an overfished stock subsidy prohibition - we have chosen to model the more ambitious interpretation of the two. For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) 1) We assume that each Member's base for capping is represented by the total amount of capacity-enhancing and ambiguos subsidies estimated by Sumaila et al. 2019. 2) Members are sorted into three tiers based on a three-year average of FAO marine capture production (2016-2018). Members accounting for 0.7% or more of global marine capture production are in "Tier 1"; Members accounting for 0.05% or more, but less than 0.7%, of global marine capture production are in "Tier 2"; Members accounting for less than 0.05% of global marine capture production are in "Tier 3". 3) This proposal advocates for allowing both Tier 1 and Tier 2 Members to negotiate their own subsidy caps or to accept a default cap of $50 million annually. For the purposes of modeling, we assume that Tier 1 Members receive a subsidy cap equal to 50% of their base for capping; Tier 2 Members receive the default cap of $50 million; Tier 3 Members do not receive a cap. </t>
   </si>
   <si>
@@ -1444,6 +1432,72 @@
   </si>
   <si>
     <t>B1, B2, B3, B4, B5, B6, B7, C2</t>
+  </si>
+  <si>
+    <t>kat_notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Really unsure what to use as X%, Y%, and Z%. Any thoughts? Exception for 12 miles for developing countries is not modeled here. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on a presentation I was sent, I set X%, Y%, and Z% at 55%, 2% and 55% respectively. Global average subsidies per fisher is around ~$1500 calculcated using Rashid's data and limited FAO fishers data - should we allow the user to set this seperately? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same as Facilitator's text interpretation. Assumed to be more ambitious than Austraila's text. </t>
+  </si>
+  <si>
+    <t>Assumed to be less ambitious than New Zealand/Iceland and Facilator's texts because of causal requirement - modeled by choosing a lower reference point as cutoff</t>
+  </si>
+  <si>
+    <t>1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing and ambiguous subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas to be prohibited.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data does not exist to model the prohibition on subsidies being provided to vessels flagged to another state. </t>
+  </si>
+  <si>
+    <t>Assumed to be less ambitious than Austraila text because of territorial seas exemption.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tier cutoffs are 0.7% and 0.05%. Tier 1 Members are assumed to get a cap equal to 50% of base subsidies, Tier 2 Members get a cap of $50 million, and Tier 3 Members do not get a cap. </t>
+  </si>
+  <si>
+    <t>Can't model whether vessels have fishing gear hauled by motor driven equipment, have onboard freezing equipment for storage, or are owned or operated by a multinational enterprise, a public limited company, or a joint venture</t>
+  </si>
+  <si>
+    <t>The IUU proposals pretty much all do the same because of data availability.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same as New Zealand/Iceland text interpretation. Assumed to be more ambitious than Austraila's text. </t>
+  </si>
+  <si>
+    <t>1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing on the high seas. By default, we consider all capacity-enhancing and ambiguous subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas to be prohibited.</t>
+  </si>
+  <si>
+    <t>Modeled using parameters of overfished stocks - assumed to have a similar biological interpretation as New Zealand/Iceland, but less ambitious because of S&amp;DT and subsistence fishing exemption.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modeled using parameters of overfished stocks - assumed to have a similar biological interpretation as New Zealand/Iceland, but more ambitious because of additional OCOF constraints on high seas fishing. </t>
+  </si>
+  <si>
+    <t>I used 1% of global marine capture fishing as the cutoff. Should this be 2%?</t>
+  </si>
+  <si>
+    <t>Modelled using LDC proposal for prohibitions (except for their S&amp;DT - used that from this proposal instead)</t>
+  </si>
+  <si>
+    <t>RD/TN/RL/126 &amp; TN/RL/GEN/199</t>
+  </si>
+  <si>
+    <t>RD/TN/RL/126 &amp; TN/RL/GEN/197/Rev.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As written, this proposal places different scopes on prohibtions for boat building and fuel subsidies (all) vs. all other harmful subsidies (HS only). This is not accounted for. OCOF prohibition is assumed to apply to high seas and distant water fishing for all subsidy types. </t>
+  </si>
+  <si>
+    <t>Using the same values for the US proposal above.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using the same values for the China proposal as above. </t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1664,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1814,6 +1868,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1975,7 +2035,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2066,6 +2126,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2422,398 +2491,404 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CU28"/>
+  <dimension ref="A1:CV28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BT1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BX2" sqref="BX2:CR2"/>
+      <selection pane="bottomLeft" activeCell="CV2" sqref="CV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="13"/>
     <col min="2" max="2" width="10.83203125" style="15"/>
-    <col min="3" max="3" width="36.5" style="15" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="13" style="16" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="13" style="16" customWidth="1"/>
-    <col min="9" max="10" width="10.83203125" style="16"/>
-    <col min="11" max="11" width="15.1640625" style="15" customWidth="1"/>
-    <col min="12" max="12" width="28" style="16" customWidth="1"/>
-    <col min="13" max="13" width="48" style="16" customWidth="1"/>
-    <col min="14" max="15" width="48.33203125" style="16" customWidth="1"/>
-    <col min="16" max="16" width="56.1640625" style="15" customWidth="1"/>
-    <col min="17" max="17" width="71" style="15" customWidth="1"/>
-    <col min="18" max="83" width="10.83203125" style="16"/>
-    <col min="84" max="87" width="10.83203125" style="28"/>
-    <col min="88" max="90" width="10.83203125" style="16"/>
-    <col min="91" max="93" width="10.83203125" style="28"/>
-    <col min="94" max="96" width="10.83203125" style="16"/>
-    <col min="97" max="99" width="10.83203125" style="28"/>
-    <col min="100" max="16384" width="10.83203125" style="16"/>
+    <col min="3" max="3" width="40.6640625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="36.5" style="15" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="32.83203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="13" style="16" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="13" style="16" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" style="16"/>
+    <col min="12" max="12" width="15.1640625" style="15" customWidth="1"/>
+    <col min="13" max="13" width="28" style="16" customWidth="1"/>
+    <col min="14" max="14" width="48" style="16" customWidth="1"/>
+    <col min="15" max="16" width="48.33203125" style="16" customWidth="1"/>
+    <col min="17" max="17" width="56.1640625" style="15" customWidth="1"/>
+    <col min="18" max="18" width="71" style="15" customWidth="1"/>
+    <col min="19" max="84" width="10.83203125" style="16"/>
+    <col min="85" max="88" width="10.83203125" style="28"/>
+    <col min="89" max="91" width="10.83203125" style="16"/>
+    <col min="92" max="94" width="10.83203125" style="28"/>
+    <col min="95" max="97" width="10.83203125" style="16"/>
+    <col min="98" max="100" width="10.83203125" style="28"/>
+    <col min="101" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" s="9" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:100" s="9" customFormat="1" ht="56" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>141</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AH1" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AI1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AM1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AN1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AO1" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AP1" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AR1" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AS1" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AT1" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AU1" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="AU1" s="9" t="s">
+      <c r="AV1" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="AW1" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="AW1" s="9" t="s">
+      <c r="AX1" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="AX1" s="9" t="s">
+      <c r="AY1" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="AY1" s="9" t="s">
+      <c r="AZ1" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="BA1" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="BB1" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BC1" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BD1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BE1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="BE1" s="9" t="s">
+      <c r="BF1" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="BF1" s="9" t="s">
+      <c r="BG1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="BG1" s="9" t="s">
+      <c r="BH1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="BH1" s="9" t="s">
+      <c r="BI1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="BI1" s="9" t="s">
+      <c r="BJ1" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="BJ1" s="9" t="s">
+      <c r="BK1" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="BK1" s="9" t="s">
+      <c r="BL1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="BL1" s="9" t="s">
+      <c r="BM1" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="BM1" s="9" t="s">
+      <c r="BN1" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="BN1" s="9" t="s">
+      <c r="BO1" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="BO1" s="9" t="s">
+      <c r="BP1" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="BP1" s="9" t="s">
+      <c r="BQ1" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="BQ1" s="9" t="s">
+      <c r="BR1" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="BR1" s="9" t="s">
+      <c r="BS1" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="BS1" s="9" t="s">
+      <c r="BT1" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="BT1" s="9" t="s">
+      <c r="BU1" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="BU1" s="9" t="s">
+      <c r="BV1" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="BV1" s="9" t="s">
+      <c r="BW1" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="BW1" s="9" t="s">
+      <c r="BX1" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="BX1" s="9" t="s">
+      <c r="BY1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="BY1" s="9" t="s">
+      <c r="BZ1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="BZ1" s="9" t="s">
+      <c r="CA1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="CA1" s="9" t="s">
+      <c r="CB1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="CB1" s="9" t="s">
+      <c r="CC1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="CC1" s="9" t="s">
+      <c r="CD1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="CD1" s="9" t="s">
+      <c r="CE1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="CE1" s="9" t="s">
+      <c r="CF1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="CF1" s="9" t="s">
+      <c r="CG1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="CG1" s="9" t="s">
+      <c r="CH1" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="CH1" s="9" t="s">
+      <c r="CI1" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="CI1" s="9" t="s">
+      <c r="CJ1" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="CJ1" s="9" t="s">
+      <c r="CK1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="CK1" s="9" t="s">
+      <c r="CL1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="CL1" s="9" t="s">
+      <c r="CM1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="CM1" s="9" t="s">
+      <c r="CN1" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="CN1" s="9" t="s">
+      <c r="CO1" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="CO1" s="9" t="s">
+      <c r="CP1" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="CP1" s="9" t="s">
+      <c r="CQ1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="CQ1" s="9" t="s">
+      <c r="CR1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="CR1" s="9" t="s">
+      <c r="CS1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="CS1" s="9" t="s">
+      <c r="CT1" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="CT1" s="9" t="s">
+      <c r="CU1" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="CU1" s="9" t="s">
+      <c r="CV1" s="9" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:99" s="9" customFormat="1" ht="282" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:100" s="9" customFormat="1" ht="282" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="I2" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="17">
         <v>43545</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="M2" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="N2" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="O2" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="16"/>
+      <c r="Q2" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="R2" s="16"/>
+      <c r="R2" s="5" t="s">
+        <v>446</v>
+      </c>
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
       <c r="U2" s="16"/>
       <c r="V2" s="16"/>
       <c r="W2" s="16"/>
-      <c r="X2" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16" t="s">
+        <v>301</v>
+      </c>
       <c r="Z2" s="16"/>
       <c r="AA2" s="16"/>
       <c r="AB2" s="16"/>
@@ -2830,10 +2905,10 @@
       <c r="AM2" s="16"/>
       <c r="AN2" s="16"/>
       <c r="AO2" s="16"/>
-      <c r="AP2" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AQ2" s="16"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16" t="s">
+        <v>301</v>
+      </c>
       <c r="AR2" s="16"/>
       <c r="AS2" s="16"/>
       <c r="AT2" s="16"/>
@@ -2853,10 +2928,10 @@
       <c r="BH2" s="16"/>
       <c r="BI2" s="16"/>
       <c r="BJ2" s="16"/>
-      <c r="BK2" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BL2" s="16"/>
+      <c r="BK2" s="16"/>
+      <c r="BL2" s="16" t="s">
+        <v>301</v>
+      </c>
       <c r="BM2" s="16"/>
       <c r="BN2" s="16"/>
       <c r="BO2" s="16"/>
@@ -2868,1518 +2943,1561 @@
       <c r="BU2" s="16"/>
       <c r="BV2" s="16"/>
       <c r="BW2" s="16"/>
-      <c r="BX2" s="16" t="s">
+      <c r="BX2" s="16"/>
+      <c r="BY2" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="BY2" s="16" t="s">
-        <v>451</v>
-      </c>
       <c r="BZ2" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="CA2" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="CA2" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="CB2" s="16"/>
+      <c r="CB2" s="16" t="s">
+        <v>444</v>
+      </c>
       <c r="CC2" s="16"/>
-      <c r="CD2" s="30" t="s">
-        <v>449</v>
-      </c>
-      <c r="CE2" s="16"/>
-      <c r="CF2" s="28">
-        <v>50</v>
-      </c>
-      <c r="CG2" s="28"/>
+      <c r="CD2" s="16"/>
+      <c r="CE2" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="CF2" s="16"/>
+      <c r="CG2" s="28">
+        <v>10</v>
+      </c>
       <c r="CH2" s="28"/>
       <c r="CI2" s="28"/>
-      <c r="CJ2" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="CL2" s="16">
-        <v>70</v>
-      </c>
-      <c r="CM2" s="28"/>
+      <c r="CJ2" s="28"/>
+      <c r="CK2" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="CM2" s="16">
+        <v>20</v>
+      </c>
       <c r="CN2" s="28"/>
       <c r="CO2" s="28"/>
-      <c r="CP2" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="CQ2" s="16"/>
-      <c r="CR2" s="16">
-        <v>90</v>
-      </c>
-      <c r="CS2" s="28"/>
+      <c r="CP2" s="28"/>
+      <c r="CQ2" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="CR2" s="16"/>
+      <c r="CS2" s="16">
+        <v>30</v>
+      </c>
       <c r="CT2" s="28"/>
       <c r="CU2" s="28"/>
+      <c r="CV2" s="28"/>
     </row>
-    <row r="3" spans="1:99" ht="182" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:100" ht="182" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="H3" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="I3" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="17">
+      <c r="K3" s="17">
         <v>43573</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="L3" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="M3" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="N3" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="O3" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="Q3" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="X3" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AH3" s="16" t="s">
+      <c r="Y3" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI3" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="AI3" s="16" t="s">
+      <c r="AJ3" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="AP3" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BK3" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BX3" s="16" t="s">
+      <c r="AQ3" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BL3" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BY3" s="16" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:99" ht="238" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:100" ht="238" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="32" t="s">
+        <v>450</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="J4" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="17">
+      <c r="K4" s="17">
         <v>43620</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="L4" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="M4" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="N4" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="O4" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="Q4" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="Q4" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="X4" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AP4" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BK4" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BX4" s="16" t="s">
+      <c r="R4" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y4" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AQ4" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BL4" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BY4" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="BY4" s="16" t="s">
+      <c r="BZ4" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="BZ4" s="16" t="s">
+      <c r="CA4" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="CD4" s="16" t="s">
+      <c r="CE4" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="CG4" s="28">
-        <v>55</v>
-      </c>
       <c r="CH4" s="28">
+        <v>55</v>
+      </c>
+      <c r="CI4" s="28">
         <v>2.1</v>
       </c>
-      <c r="CI4" s="28">
+      <c r="CJ4" s="28">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:99" ht="182" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:100" ht="182" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="H5" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="I5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="J5" s="17">
+      <c r="K5" s="17">
         <v>43621</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="L5" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="M5" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="N5" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="O5" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="Q5" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="R5" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="X5" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AH5" s="16" t="s">
+      <c r="Y5" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI5" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="AI5" s="16" t="s">
+      <c r="AJ5" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="AP5" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BK5" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BX5" s="16" t="s">
+      <c r="AQ5" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BL5" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BY5" s="16" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="6" spans="1:99" ht="182" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:100" ht="182" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="G6" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="I6" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="J6" s="17">
+      <c r="K6" s="17">
         <v>43628</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="L6" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="M6" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="N6" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="N6" s="16" t="s">
+      <c r="O6" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="P6" s="21" t="s">
+      <c r="Q6" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="R6" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="R6" s="16" t="s">
+      <c r="S6" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="S6" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="U6" s="16" t="s">
+      <c r="T6" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="V6" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="X6" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AP6" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BK6" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BX6" s="16" t="s">
+      <c r="Y6" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AQ6" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BL6" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BY6" s="16" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:99" ht="126" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:100" ht="112" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="E7" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="F7" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="G7" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="I7" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="J7" s="17">
+      <c r="K7" s="17">
         <v>43643</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="L7" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="M7" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="N7" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="O7" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="P7" s="21" t="s">
+      <c r="Q7" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="Q7" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="X7" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AP7" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BC7" s="16" t="s">
+      <c r="R7" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y7" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AQ7" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BD7" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="BD7" s="16" t="s">
+      <c r="BE7" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="BE7" s="16" t="s">
+      <c r="BF7" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="BG7" s="16">
+      <c r="BH7" s="16">
         <v>5</v>
       </c>
-      <c r="BK7" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BX7" s="16" t="s">
+      <c r="BL7" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BY7" s="16" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="8" spans="1:99" ht="182" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:100" ht="182" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="D8" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="E8" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="F8" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="G8" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="H8" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="I8" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="J8" s="17">
+      <c r="K8" s="17">
         <v>43648</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="L8" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="M8" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="N8" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="O8" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="P8" s="19" t="s">
+      <c r="Q8" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="R8" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="X8" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AP8" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BC8" s="16" t="s">
+      <c r="Y8" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AQ8" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BD8" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="BD8" s="16" t="s">
+      <c r="BE8" s="16" t="s">
         <v>300</v>
-      </c>
-      <c r="BK8" s="16" t="s">
-        <v>308</v>
       </c>
       <c r="BL8" s="16" t="s">
         <v>308</v>
       </c>
       <c r="BM8" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="BN8" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="BP8" s="16" t="s">
+      <c r="BQ8" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="BQ8" s="16" t="s">
+      <c r="BR8" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="BT8" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BX8" s="16" t="s">
+      <c r="BU8" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BY8" s="16" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="1:99" ht="140" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:100" ht="140" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="32" t="s">
+        <v>455</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="E9" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="G9" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="H9" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="H9" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="I9" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="J9" s="17">
+      <c r="K9" s="17">
         <v>43648</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="L9" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="M9" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="N9" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="O9" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="Q9" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="R9" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="X9" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AH9" s="16" t="s">
+      <c r="Y9" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI9" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="AI9" s="16" t="s">
+      <c r="AJ9" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="AJ9" s="16" t="s">
+      <c r="AK9" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="AP9" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BK9" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BX9" s="16" t="s">
+      <c r="AQ9" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BL9" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BY9" s="16" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="1:99" ht="168" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:100" ht="168" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="32" t="s">
+        <v>456</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="E10" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="G10" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="H10" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="I10" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="J10" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="J10" s="17">
+      <c r="K10" s="17">
         <v>43657</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="L10" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="M10" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="N10" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="O10" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="P10" s="21" t="s">
+      <c r="Q10" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="Q10" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="X10" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AP10" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BK10" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BX10" s="16" t="s">
+      <c r="R10" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y10" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AQ10" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BL10" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BY10" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="BY10" s="16" t="s">
+      <c r="BZ10" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="BZ10" s="16" t="s">
+      <c r="CA10" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="CA10" s="16" t="s">
+      <c r="CB10" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="CC10" s="16" t="s">
+      <c r="CD10" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="CD10" s="16" t="s">
+      <c r="CE10" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="CF10" s="28">
+      <c r="CG10" s="28">
         <v>50</v>
       </c>
-      <c r="CJ10" s="16" t="s">
+      <c r="CK10" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="CK10" s="16">
+      <c r="CL10" s="16">
         <v>50</v>
       </c>
-      <c r="CP10" s="16" t="s">
+      <c r="CQ10" s="16" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="11" spans="1:99" ht="154" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:100" ht="154" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="32" t="s">
+        <v>457</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="E11" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="F11" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="G11" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="I11" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="17">
+      <c r="K11" s="17">
         <v>43684</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="L11" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="M11" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="M11" s="16" t="s">
+      <c r="N11" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="N11" s="16" t="s">
+      <c r="O11" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="P11" s="21" t="s">
+      <c r="Q11" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="Q11" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="X11" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AP11" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BC11" s="16" t="s">
+      <c r="R11" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y11" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AQ11" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BD11" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="BD11" s="16" t="s">
+      <c r="BE11" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="BE11" s="16" t="s">
+      <c r="BF11" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="BH11" s="16">
+      <c r="BI11" s="16">
         <v>24</v>
       </c>
-      <c r="BI11" s="16">
+      <c r="BJ11" s="16">
         <v>100</v>
       </c>
-      <c r="BJ11" s="16">
+      <c r="BK11" s="16">
         <v>130</v>
       </c>
-      <c r="BK11" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BX11" s="16" t="s">
+      <c r="BL11" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BY11" s="16" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="12" spans="1:99" ht="84" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:100" ht="84" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="E12" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="G12" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="I12" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="17">
+      <c r="K12" s="17">
         <v>43718</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="L12" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="M12" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="N12" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="O12" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="P12" s="21" t="s">
+      <c r="Q12" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="R12" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="R12" s="16" t="s">
+      <c r="S12" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="S12" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="U12" s="16" t="s">
+      <c r="T12" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="V12" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="X12" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AP12" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BK12" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BX12" s="16" t="s">
+      <c r="Y12" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AQ12" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BL12" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BY12" s="16" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="13" spans="1:99" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:100" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="D13" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="E13" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="G13" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="H13" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="I13" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="J13" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="17">
+      <c r="K13" s="17">
         <v>43759</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="L13" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="M13" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="N13" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="O13" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="P13" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="P13" s="21" t="s">
+      <c r="Q13" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="Q13" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="X13" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AP13" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BC13" s="16" t="s">
+      <c r="R13" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y13" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AQ13" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BD13" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="BD13" s="16" t="s">
+      <c r="BE13" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="BE13" s="16" t="s">
+      <c r="BF13" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="BK13" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BX13" s="16" t="s">
+      <c r="BL13" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BY13" s="16" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="14" spans="1:99" ht="224" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:100" ht="224" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="E14" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="F14" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="G14" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="H14" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="H14" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="I14" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="J14" s="17">
+      <c r="K14" s="17">
         <v>43775</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="L14" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="M14" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="N14" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="N14" s="16" t="s">
+      <c r="O14" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="P14" s="19" t="s">
+      <c r="Q14" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="Q14" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="X14" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AH14" s="16" t="s">
+      <c r="R14" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y14" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI14" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="AI14" s="16" t="s">
+      <c r="AJ14" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="AJ14" s="16" t="s">
+      <c r="AK14" s="16" t="s">
         <v>326</v>
-      </c>
-      <c r="AP14" s="16" t="s">
-        <v>308</v>
       </c>
       <c r="AQ14" s="16" t="s">
         <v>308</v>
       </c>
       <c r="AR14" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="AS14" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="AT14" s="16">
+      <c r="AU14" s="16">
         <v>6</v>
       </c>
-      <c r="AU14" s="16" t="s">
+      <c r="AV14" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="AV14" s="16" t="s">
+      <c r="AW14" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="AX14" s="16">
+      <c r="AY14" s="16">
         <v>4</v>
       </c>
-      <c r="AY14" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BK14" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BX14" s="16" t="s">
+      <c r="AZ14" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BL14" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BY14" s="16" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="15" spans="1:99" ht="154" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:100" ht="154" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="E15" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="G15" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="H15" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="H15" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="I15" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="J15" s="17">
+      <c r="K15" s="17">
         <v>43801</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="L15" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="M15" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="N15" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="N15" s="16" t="s">
+      <c r="O15" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="P15" s="21" t="s">
+      <c r="Q15" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="Q15" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="R15" s="16" t="s">
+      <c r="R15" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="S15" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="S15" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="U15" s="16" t="s">
+      <c r="T15" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="V15" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="X15" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AP15" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BK15" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BX15" s="16" t="s">
+      <c r="Y15" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AQ15" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BL15" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BY15" s="16" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="16" spans="1:99" ht="70" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:100" ht="70" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="29" t="s">
-        <v>425</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="F16" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="G16" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="I16" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="J16" s="17">
+      <c r="K16" s="17">
         <v>43801</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="L16" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="L16" s="16" t="s">
+      <c r="M16" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="M16" s="16" t="s">
+      <c r="N16" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="N16" s="16" t="s">
+      <c r="O16" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="5"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="1:99" ht="112" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:100" ht="112" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>425</v>
-      </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="F17" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="G17" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="15"/>
+      <c r="I17" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="J17" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="J17" s="17">
+      <c r="K17" s="17">
         <v>43801</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="L17" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="L17" s="16" t="s">
+      <c r="M17" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="M17" s="16" t="s">
+      <c r="N17" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="N17" s="16" t="s">
+      <c r="O17" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="5"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="1:99" ht="56" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:100" ht="56" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>425</v>
-      </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="F18" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="G18" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="H18" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="I18" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="J18" s="17">
+      <c r="K18" s="17">
         <v>43802</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="L18" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="M18" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="M18" s="16" t="s">
+      <c r="N18" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="N18" s="16" t="s">
+      <c r="O18" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="5"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="1:99" ht="266" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:100" ht="266" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="E19" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="F19" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="G19" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="H19" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="I19" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="J19" s="17">
+      <c r="K19" s="17">
         <v>43803</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="L19" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="M19" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="M19" s="16" t="s">
+      <c r="N19" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="N19" s="16" t="s">
+      <c r="O19" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="P19" s="21" t="s">
+      <c r="Q19" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="Q19" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="X19" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AH19" s="16" t="s">
+      <c r="R19" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y19" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI19" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="AI19" s="16" t="s">
+      <c r="AJ19" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="AP19" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BK19" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BX19" s="16" t="s">
+      <c r="AQ19" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BL19" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BY19" s="16" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="20" spans="1:99" ht="182" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:100" ht="182" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="32" t="s">
+        <v>462</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="E20" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="F20" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="G20" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="H20" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="I20" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="J20" s="17">
+      <c r="K20" s="17">
         <v>43843</v>
       </c>
-      <c r="K20" s="18" t="s">
+      <c r="L20" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="M20" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="M20" s="16" t="s">
+      <c r="N20" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="N20" s="16" t="s">
+      <c r="O20" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="O20" s="20"/>
-      <c r="P20" s="21" t="s">
+      <c r="P20" s="20"/>
+      <c r="Q20" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="Q20" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="X20" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AH20" s="16" t="s">
+      <c r="R20" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y20" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI20" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="AI20" s="16" t="s">
+      <c r="AJ20" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="AP20" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BC20" s="16" t="s">
-        <v>61</v>
+      <c r="AQ20" s="16" t="s">
+        <v>301</v>
       </c>
       <c r="BD20" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="BE20" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="BE20" s="16" t="s">
+      <c r="BF20" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="BG20" s="16">
+      <c r="BH20" s="16">
         <v>5</v>
       </c>
-      <c r="BK20" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BX20" s="16" t="s">
+      <c r="BL20" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BY20" s="16" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:99" ht="112" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:100" ht="112" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>435</v>
-      </c>
       <c r="D21" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="F21" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="G21" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="H21" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="H21" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="I21" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="J21" s="17">
+      <c r="K21" s="17">
         <v>43865</v>
       </c>
-      <c r="K21" s="18" t="s">
+      <c r="L21" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="M21" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="M21" s="16" t="s">
+      <c r="N21" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="N21" s="16" t="s">
+      <c r="O21" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="P21" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="R21" s="16" t="s">
+      <c r="Q21" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="S21" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="S21" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="U21" s="16" t="s">
+      <c r="T21" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="V21" s="16" t="s">
         <v>300</v>
-      </c>
-      <c r="X21" s="16" t="s">
-        <v>308</v>
       </c>
       <c r="Y21" s="16" t="s">
         <v>308</v>
       </c>
       <c r="Z21" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA21" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="AA21" s="16">
+      <c r="AB21" s="16">
         <v>6</v>
       </c>
-      <c r="AB21" s="16" t="s">
+      <c r="AC21" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="AC21" s="16" t="s">
+      <c r="AD21" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="AD21" s="16">
+      <c r="AE21" s="16">
         <v>3</v>
       </c>
-      <c r="AE21" s="16" t="s">
+      <c r="AF21" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="AF21" s="16" t="s">
+      <c r="AG21" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="AG21" s="16">
+      <c r="AH21" s="16">
         <v>6</v>
       </c>
-      <c r="AP21" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BK21" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BX21" s="16" t="s">
+      <c r="AQ21" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BL21" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BY21" s="16" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="22" spans="1:99" ht="238" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:100" ht="238" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="E22" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="F22" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="G22" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="H22" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="I22" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="J22" s="17">
+      <c r="K22" s="17">
         <v>43865</v>
       </c>
-      <c r="K22" s="18" t="s">
+      <c r="L22" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="M22" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="M22" s="16" t="s">
+      <c r="N22" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="N22" s="16" t="s">
+      <c r="O22" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="P22" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="X22" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AP22" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BC22" s="16" t="s">
+      <c r="Q22" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y22" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AQ22" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BD22" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="BD22" s="16" t="s">
+      <c r="BE22" s="16" t="s">
         <v>303</v>
-      </c>
-      <c r="BK22" s="16" t="s">
-        <v>308</v>
       </c>
       <c r="BL22" s="16" t="s">
         <v>308</v>
       </c>
       <c r="BM22" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="BN22" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="BP22" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BT22" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BX22" s="16" t="s">
+      <c r="BQ22" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BU22" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BY22" s="16" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="23" spans="1:99" ht="252" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:100" ht="252" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="33"/>
+      <c r="D23" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="E23" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="G23" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" s="9" t="s">
+      <c r="H23" s="9"/>
+      <c r="I23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="J23" s="24">
+      <c r="K23" s="24">
         <v>43896</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="L23" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="M23" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="M23" s="9" t="s">
+      <c r="N23" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="O23" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="O23" s="6" t="s">
+      <c r="P23" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="P23" s="25" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q23" s="26" t="s">
+      <c r="Q23" s="25" t="s">
         <v>432</v>
       </c>
-      <c r="R23" s="16" t="s">
+      <c r="R23" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="S23" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="S23" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9" t="s">
+      <c r="T23" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="V23" s="9"/>
       <c r="W23" s="9"/>
-      <c r="X23" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9" t="s">
+        <v>301</v>
+      </c>
       <c r="Z23" s="9"/>
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
@@ -4388,98 +4506,98 @@
       <c r="AE23" s="9"/>
       <c r="AF23" s="9"/>
       <c r="AG23" s="9"/>
-      <c r="AH23" s="9" t="s">
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="AI23" s="9" t="s">
+      <c r="AJ23" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="AJ23" s="9" t="s">
+      <c r="AK23" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="AK23" s="9"/>
       <c r="AL23" s="9"/>
       <c r="AM23" s="9"/>
       <c r="AN23" s="9"/>
       <c r="AO23" s="9"/>
-      <c r="AP23" s="9" t="s">
-        <v>308</v>
-      </c>
+      <c r="AP23" s="9"/>
       <c r="AQ23" s="9" t="s">
         <v>308</v>
       </c>
       <c r="AR23" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="AS23" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="AS23" s="9"/>
-      <c r="AT23" s="9">
+      <c r="AT23" s="9"/>
+      <c r="AU23" s="9">
         <v>5</v>
       </c>
-      <c r="AU23" s="9" t="s">
+      <c r="AV23" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="AV23" s="9" t="s">
+      <c r="AW23" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="AW23" s="9"/>
-      <c r="AX23" s="9">
+      <c r="AX23" s="9"/>
+      <c r="AY23" s="9">
         <v>5</v>
       </c>
-      <c r="AY23" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="AZ23" s="9"/>
+      <c r="AZ23" s="9" t="s">
+        <v>301</v>
+      </c>
       <c r="BA23" s="9"/>
       <c r="BB23" s="9"/>
-      <c r="BC23" s="16" t="s">
+      <c r="BC23" s="9"/>
+      <c r="BD23" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="BD23" s="9" t="s">
+      <c r="BE23" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="BE23" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="BF23" s="9"/>
+      <c r="BF23" s="9" t="s">
+        <v>431</v>
+      </c>
       <c r="BG23" s="9"/>
-      <c r="BH23" s="9">
+      <c r="BH23" s="9"/>
+      <c r="BI23" s="9">
         <v>24</v>
       </c>
-      <c r="BI23" s="9">
+      <c r="BJ23" s="9">
         <v>100</v>
       </c>
-      <c r="BJ23" s="9"/>
-      <c r="BK23" s="9" t="s">
-        <v>308</v>
-      </c>
+      <c r="BK23" s="9"/>
       <c r="BL23" s="9" t="s">
         <v>308</v>
       </c>
       <c r="BM23" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="BN23" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="BN23" s="9"/>
       <c r="BO23" s="9"/>
-      <c r="BP23" s="9" t="s">
+      <c r="BP23" s="9"/>
+      <c r="BQ23" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="BQ23" s="9" t="s">
+      <c r="BR23" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="BR23" s="9"/>
-      <c r="BS23" s="9">
+      <c r="BS23" s="9"/>
+      <c r="BT23" s="9">
         <v>5</v>
       </c>
-      <c r="BT23" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="BU23" s="9"/>
+      <c r="BU23" s="9" t="s">
+        <v>301</v>
+      </c>
       <c r="BV23" s="9"/>
       <c r="BW23" s="9"/>
-      <c r="BX23" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="BY23" s="9"/>
+      <c r="BX23" s="9"/>
+      <c r="BY23" s="9" t="s">
+        <v>301</v>
+      </c>
       <c r="BZ23" s="9"/>
       <c r="CA23" s="9"/>
       <c r="CB23" s="9"/>
@@ -4502,662 +4620,672 @@
       <c r="CS23" s="9"/>
       <c r="CT23" s="9"/>
       <c r="CU23" s="9"/>
+      <c r="CV23" s="9"/>
     </row>
-    <row r="24" spans="1:99" ht="318" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:100" ht="318" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>437</v>
+      <c r="C24" s="32" t="s">
+        <v>464</v>
       </c>
       <c r="D24" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="G24" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="15"/>
+      <c r="I24" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="J24" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="J24" s="17">
+      <c r="K24" s="17">
         <v>43896</v>
       </c>
-      <c r="K24" s="18" t="s">
+      <c r="L24" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="L24" s="16" t="s">
+      <c r="M24" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="M24" s="16" t="s">
+      <c r="N24" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="N24" s="16" t="s">
+      <c r="O24" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="O24" s="3"/>
-      <c r="P24" s="4" t="s">
+      <c r="P24" s="3"/>
+      <c r="Q24" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="Q24" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="R24" s="16" t="s">
+      <c r="R24" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="S24" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="S24" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9" t="s">
+      <c r="T24" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="V24" s="9"/>
       <c r="W24" s="9"/>
-      <c r="X24" s="9" t="s">
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="Y24" s="16" t="s">
+      <c r="Z24" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="Z24" s="16" t="s">
+      <c r="AA24" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="AB24" s="16" t="s">
+      <c r="AC24" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="AC24" s="16" t="s">
+      <c r="AD24" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="AE24" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AH24" s="9" t="s">
+      <c r="AF24" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI24" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="AI24" s="16" t="s">
+      <c r="AJ24" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="AJ24" s="16" t="s">
+      <c r="AK24" s="16" t="s">
         <v>300</v>
-      </c>
-      <c r="AP24" s="16" t="s">
-        <v>308</v>
       </c>
       <c r="AQ24" s="16" t="s">
         <v>308</v>
       </c>
       <c r="AR24" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="AS24" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="AU24" s="16" t="s">
+      <c r="AV24" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="AV24" s="16" t="s">
+      <c r="AW24" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="AY24" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BC24" s="16" t="s">
+      <c r="AZ24" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BD24" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="BD24" s="9" t="s">
+      <c r="BE24" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="BE24" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="BH24" s="9">
+      <c r="BF24" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="BI24" s="9">
         <v>24</v>
       </c>
-      <c r="BI24" s="16">
+      <c r="BJ24" s="16">
         <v>100</v>
-      </c>
-      <c r="BK24" s="16" t="s">
-        <v>308</v>
       </c>
       <c r="BL24" s="16" t="s">
         <v>308</v>
       </c>
       <c r="BM24" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="BN24" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="BP24" s="16" t="s">
+      <c r="BQ24" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="BQ24" s="16" t="s">
+      <c r="BR24" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="BT24" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BX24" s="16" t="s">
+      <c r="BU24" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BY24" s="16" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="25" spans="1:99" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:100" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="K25" s="17">
+        <v>44007</v>
+      </c>
+      <c r="L25" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q25" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="R25" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J25" s="17">
-        <v>44007</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="L25" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="M25" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="N25" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="P25" s="19" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="R25" s="16" t="s">
+      <c r="S25" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="S25" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="U25" s="16" t="s">
+      <c r="T25" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="V25" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="X25" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AH25" s="16" t="s">
+      <c r="Y25" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI25" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="AI25" s="16" t="s">
+      <c r="AJ25" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="AJ25" s="16" t="s">
+      <c r="AK25" s="16" t="s">
         <v>300</v>
-      </c>
-      <c r="AP25" s="16" t="s">
-        <v>308</v>
       </c>
       <c r="AQ25" s="16" t="s">
         <v>308</v>
       </c>
       <c r="AR25" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="AS25" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="AU25" s="16" t="s">
+      <c r="AV25" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="AV25" s="16" t="s">
+      <c r="AW25" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="AY25" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BC25" s="16" t="s">
+      <c r="AZ25" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BD25" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="BD25" s="16" t="s">
+      <c r="BE25" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="BE25" s="16" t="s">
+      <c r="BF25" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="BG25" s="16">
+      <c r="BH25" s="16">
         <v>5</v>
       </c>
-      <c r="BK25" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BX25" s="16" t="s">
+      <c r="BL25" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BY25" s="16" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="26" spans="1:99" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:100" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="K26" s="17">
+        <v>44007</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q26" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="R26" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J26" s="17">
-        <v>44007</v>
-      </c>
-      <c r="K26" s="18" t="s">
-        <v>442</v>
-      </c>
-      <c r="L26" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="N26" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="P26" s="19" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q26" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="R26" s="16" t="s">
+      <c r="S26" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="S26" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="U26" s="16" t="s">
+      <c r="T26" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="V26" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="X26" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AH26" s="16" t="s">
+      <c r="Y26" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI26" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="AI26" s="16" t="s">
+      <c r="AJ26" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="AJ26" s="16" t="s">
+      <c r="AK26" s="16" t="s">
         <v>300</v>
-      </c>
-      <c r="AP26" s="16" t="s">
-        <v>308</v>
       </c>
       <c r="AQ26" s="16" t="s">
         <v>308</v>
       </c>
       <c r="AR26" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="AS26" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="AU26" s="16" t="s">
+      <c r="AV26" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="AV26" s="16" t="s">
+      <c r="AW26" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="AY26" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BC26" s="16" t="s">
+      <c r="AZ26" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BD26" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="BD26" s="16" t="s">
+      <c r="BE26" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="BE26" s="16" t="s">
+      <c r="BF26" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="BG26" s="16">
+      <c r="BH26" s="16">
         <v>5</v>
       </c>
-      <c r="BK26" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BX26" s="16" t="s">
+      <c r="BL26" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BY26" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="BY26" s="16" t="s">
+      <c r="BZ26" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="BZ26" s="16" t="s">
+      <c r="CA26" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="CD26" s="16" t="s">
+      <c r="CE26" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="CG26" s="28">
-        <v>55</v>
-      </c>
       <c r="CH26" s="28">
+        <v>55</v>
+      </c>
+      <c r="CI26" s="28">
         <v>2.1</v>
       </c>
-      <c r="CI26" s="28">
+      <c r="CJ26" s="28">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:99" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:100" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="G27" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="K27" s="17">
+        <v>44007</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="N27" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="O27" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q27" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="R27" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="15" t="s">
-        <v>445</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J27" s="17">
-        <v>44007</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="L27" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="M27" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="N27" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="P27" s="19" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q27" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="R27" s="16" t="s">
+      <c r="S27" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="S27" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="U27" s="16" t="s">
+      <c r="T27" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="V27" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="X27" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AH27" s="16" t="s">
+      <c r="Y27" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI27" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="AI27" s="16" t="s">
+      <c r="AJ27" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="AJ27" s="16" t="s">
+      <c r="AK27" s="16" t="s">
         <v>300</v>
-      </c>
-      <c r="AP27" s="16" t="s">
-        <v>308</v>
       </c>
       <c r="AQ27" s="16" t="s">
         <v>308</v>
       </c>
       <c r="AR27" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="AS27" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="AU27" s="16" t="s">
+      <c r="AV27" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="AV27" s="16" t="s">
+      <c r="AW27" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="AY27" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BC27" s="16" t="s">
+      <c r="AZ27" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BD27" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="BD27" s="16" t="s">
+      <c r="BE27" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="BE27" s="16" t="s">
+      <c r="BF27" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="BG27" s="16">
+      <c r="BH27" s="16">
         <v>5</v>
       </c>
-      <c r="BK27" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BX27" s="16" t="s">
+      <c r="BL27" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BY27" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="BY27" s="16" t="s">
+      <c r="BZ27" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="BZ27" s="16" t="s">
+      <c r="CA27" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="CA27" s="16" t="s">
+      <c r="CB27" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="CC27" s="16" t="s">
+      <c r="CD27" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="CD27" s="16" t="s">
+      <c r="CE27" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="CF27" s="28">
+      <c r="CG27" s="28">
         <v>50</v>
       </c>
-      <c r="CJ27" s="16" t="s">
+      <c r="CK27" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="CK27" s="16">
+      <c r="CL27" s="16">
         <v>50</v>
       </c>
-      <c r="CP27" s="16" t="s">
+      <c r="CQ27" s="16" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="28" spans="1:99" ht="42" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:100" ht="42" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="G28" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="I28" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="K28" s="27"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="5"/>
-      <c r="S28" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="T28" s="16">
+      <c r="L28" s="27"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="5"/>
+      <c r="T28" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="U28" s="16">
         <v>20</v>
       </c>
-      <c r="U28" s="16" t="s">
+      <c r="V28" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="X28" s="16" t="s">
-        <v>301</v>
-      </c>
       <c r="Y28" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="AA28" s="16">
+      <c r="Z28" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB28" s="16">
         <v>5</v>
       </c>
-      <c r="AB28" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AD28" s="16">
+      <c r="AC28" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE28" s="16">
         <v>5</v>
       </c>
-      <c r="AE28" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AG28" s="16">
+      <c r="AF28" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH28" s="16">
         <v>5</v>
       </c>
-      <c r="AJ28" s="16" t="s">
+      <c r="AK28" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="AL28" s="16">
+      <c r="AM28" s="16">
         <v>5</v>
       </c>
-      <c r="AM28" s="16">
+      <c r="AN28" s="16">
         <v>24</v>
       </c>
-      <c r="AN28" s="16">
+      <c r="AO28" s="16">
         <v>100</v>
       </c>
-      <c r="AO28" s="16">
+      <c r="AP28" s="16">
         <v>400</v>
       </c>
-      <c r="AP28" s="16" t="s">
-        <v>301</v>
-      </c>
       <c r="AQ28" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="AS28" s="16">
-        <v>5</v>
+      <c r="AR28" s="16" t="s">
+        <v>301</v>
       </c>
       <c r="AT28" s="16">
         <v>5</v>
       </c>
-      <c r="AU28" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AW28" s="16">
+      <c r="AU28" s="16">
         <v>5</v>
+      </c>
+      <c r="AV28" s="16" t="s">
+        <v>301</v>
       </c>
       <c r="AX28" s="16">
         <v>5</v>
       </c>
-      <c r="AY28" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BA28" s="16">
+      <c r="AY28" s="16">
         <v>5</v>
+      </c>
+      <c r="AZ28" s="16" t="s">
+        <v>301</v>
       </c>
       <c r="BB28" s="16">
         <v>5</v>
       </c>
-      <c r="BD28" s="16" t="s">
+      <c r="BC28" s="16">
+        <v>5</v>
+      </c>
+      <c r="BE28" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="BG28" s="16">
+      <c r="BH28" s="16">
         <v>5</v>
       </c>
-      <c r="BH28" s="16">
+      <c r="BI28" s="16">
         <v>24</v>
       </c>
-      <c r="BI28" s="16">
+      <c r="BJ28" s="16">
         <v>100</v>
       </c>
-      <c r="BJ28" s="16">
+      <c r="BK28" s="16">
         <v>400</v>
       </c>
-      <c r="BK28" s="16" t="s">
-        <v>301</v>
-      </c>
       <c r="BL28" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="BN28" s="16">
-        <v>5</v>
+      <c r="BM28" s="16" t="s">
+        <v>301</v>
       </c>
       <c r="BO28" s="16">
         <v>5</v>
       </c>
-      <c r="BP28" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BR28" s="16">
+      <c r="BP28" s="16">
         <v>5</v>
+      </c>
+      <c r="BQ28" s="16" t="s">
+        <v>301</v>
       </c>
       <c r="BS28" s="16">
         <v>5</v>
       </c>
-      <c r="BT28" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BV28" s="16">
+      <c r="BT28" s="16">
         <v>5</v>
+      </c>
+      <c r="BU28" s="16" t="s">
+        <v>301</v>
       </c>
       <c r="BW28" s="16">
         <v>5</v>
       </c>
-      <c r="BX28" s="16" t="s">
-        <v>301</v>
+      <c r="BX28" s="16">
+        <v>5</v>
       </c>
       <c r="BY28" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BZ28" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="BZ28" s="16" t="s">
+      <c r="CA28" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="CA28" s="16" t="s">
+      <c r="CB28" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="CB28" s="16">
+      <c r="CC28" s="16">
         <v>0.7</v>
       </c>
-      <c r="CC28" s="16" t="s">
+      <c r="CD28" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="CD28" s="16" t="s">
+      <c r="CE28" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="CE28" s="16">
+      <c r="CF28" s="16">
         <v>50</v>
-      </c>
-      <c r="CF28" s="28">
-        <v>5</v>
       </c>
       <c r="CG28" s="28">
         <v>5</v>
@@ -5168,16 +5296,16 @@
       <c r="CI28" s="28">
         <v>5</v>
       </c>
-      <c r="CJ28" s="16" t="s">
+      <c r="CJ28" s="28">
+        <v>5</v>
+      </c>
+      <c r="CK28" s="16" t="s">
         <v>305</v>
-      </c>
-      <c r="CK28" s="16">
-        <v>5</v>
       </c>
       <c r="CL28" s="16">
         <v>5</v>
       </c>
-      <c r="CM28" s="28">
+      <c r="CM28" s="16">
         <v>5</v>
       </c>
       <c r="CN28" s="28">
@@ -5186,16 +5314,16 @@
       <c r="CO28" s="28">
         <v>5</v>
       </c>
-      <c r="CP28" s="16" t="s">
+      <c r="CP28" s="28">
+        <v>5</v>
+      </c>
+      <c r="CQ28" s="16" t="s">
         <v>306</v>
-      </c>
-      <c r="CQ28" s="16">
-        <v>5</v>
       </c>
       <c r="CR28" s="16">
         <v>5</v>
       </c>
-      <c r="CS28" s="28">
+      <c r="CS28" s="16">
         <v>5</v>
       </c>
       <c r="CT28" s="28">
@@ -5204,10 +5332,13 @@
       <c r="CU28" s="28">
         <v>5</v>
       </c>
+      <c r="CV28" s="28">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:CR28">
-    <sortCondition ref="J2:J28"/>
+  <sortState ref="A2:CS28">
+    <sortCondition ref="K2:K28"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/app/data/wto_proposal_settings_master.xlsx
+++ b/app/data/wto_proposal_settings_master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kat/GitHub/SubsidyExplorer/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B884F94F-4285-E341-BC98-5AAE9B89EFE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343DB21B-B281-6747-B36D-BE4F9906A1A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="4860" windowWidth="35700" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10220" yWindow="5380" windowWidth="35700" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="490">
   <si>
     <t>proposal</t>
   </si>
@@ -992,15 +992,6 @@
     <t>LDC new proposal includes 3 pillars of prohibiion (IUU, Overfished and OFOC) and S&amp;DT. We might need to consider a new section or include it in Other. I don't think we would like to separate or divide the proposal as we would like to see the effect of the proposal as a whole.</t>
   </si>
   <si>
-    <t>summary_html</t>
-  </si>
-  <si>
-    <t>&lt;b&gt; IUU:  &lt;/b&gt;&lt;/br&gt;  None. &lt;/br&gt; &lt;b&gt; Overfished:  &lt;/b&gt;&lt;/br&gt; None. &lt;/br&gt; &lt;b&gt; OFOC:  &lt;/b&gt;&lt;/br&gt; All capacity enhancing subsidies are prohibited to vessels fishing in disputed waters. &lt;/br&gt; &lt;b&gt; S&amp;DT:  &lt;/b&gt;&lt;/br&gt; None.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt; IUU:  &lt;/b&gt;&lt;/br&gt;  Determination made by: &lt;ul&gt;&lt;li&gt;RMFO/A lists&lt;/li&gt;&lt;li&gt;Flag Member states&lt;/li&gt;&lt;li&gt;Coastal Member states&lt;/li&gt;&lt;li&gt;Subsidizing Member states&lt;/li&gt;&lt;/ul&gt; &lt;/br&gt; &lt;b&gt; Overfished:  &lt;/b&gt;&lt;/br&gt; Overfished stock determination made by best scientific evidence available: &lt;ul&gt;&lt;li&gt; B/Bmsy &lt; 1  (RAM Legacy stock assessment database) &lt;/li&gt;&lt;/ul&gt; Subsidies to fishing in territorial waters is allowed. &lt;/br&gt; &lt;b&gt; OFOC:  &lt;/b&gt;&lt;/br&gt; All capacity enhancing subsidies are prohibited to vessels meeting any of the following characteristics: &lt;ul&gt;&lt;li&gt;fishing on the high seas&lt;/li&gt;&lt;li&gt; &gt; 24m in length&lt;/li&gt;&lt;li&gt; &gt; 100 gross tons&lt;/li&gt;&lt;/ul&gt; Subsidies to fishing in territorial waters is allowed. &lt;/br&gt; &lt;b&gt; S&amp;DT:  &lt;/b&gt;&lt;/br&gt;&lt;i&gt;LDCs  :&lt;/i&gt; Transition period of X years for all prohibitions; excluded from OFOC prohibitions. &lt;/br&gt; &lt;i&gt;Developing :&lt;/i&gt; Transition period of Y years for all prohibitions. &lt;/br&gt; &lt;i&gt;SVEs :&lt;/i&gt; None.</t>
-  </si>
-  <si>
     <t>EX_TER</t>
   </si>
   <si>
@@ -1037,9 +1028,6 @@
     <t xml:space="preserve">No special and differential treatment is considered. </t>
   </si>
   <si>
-    <t xml:space="preserve">This communication advocates for negotiating Member-specific subsidy caps (expressed in monetary terms). Subsidies in excess of a Member's cap would be prohibited. This cap is intended to be supplementary to any prohibitions on subsidies that support IUU, fishing beyond national jurisdiction, and subsidies for fishing that negatively affect overfished stocks. Members would also commit to maintain fisheries management and conservation measures. </t>
-  </si>
-  <si>
     <t xml:space="preserve">This communication advocates for Member-specific subsidy caps (expressed in monetary terms). Subsidies in excess of a Member's cap would be prohibited. Members may choose from one of three approaches to calculate their subsidy cap: 1) [X]% of the average base for capping during the base period; 2) [Y]% of the average landed value of a Member's total wild marine capture during the base period; 3) [Z]% of the global average base for capping per fisherman multiplied by the number of fishermen of that Member during the base period. This proposal also advocates that the following four categories of "green-box" subsidies shall not be subject to Member's capping commitments: 1) government service and management programs; 2) programs to protect fisheries resources or rebuild stocks; 3) programs to reduce fishing efforts or fishing capacity; 4) programs that rebuttably presumed not to contribute to overcapacity or overfishing. </t>
   </si>
   <si>
@@ -1097,18 +1085,9 @@
     <t>Transition period missing.</t>
   </si>
   <si>
-    <t>This document summarizes the Facilitator's recommendations regarding the elimination of subsidies that contribute to IUU fishing. Key takeaways: i) Making IUU determinations is a right Members have based on agreements outside the WTO; ii) a subsidies prohibition should not imply an obligation related to making IUU determinations; iii) All procedures must have been followed in making the determination, including appeal and review; iv) General agreement that determinations by a coastal state, RFMO/A, flag state, and subsidizing Member state should all trigger the prohibition of subsidies.</t>
-  </si>
-  <si>
     <t>Facilitator's text - IUU</t>
   </si>
   <si>
-    <t xml:space="preserve">This communication presents a draft text on subsidies for fishing overfished stocks. It aims to eliminate text no longer under consideration and consolidate the remaining possible alternative approaches that have been put forth or discussed. It is noted that this is in no way agreed text, but rather an attempt to try to focus future discussions. It advocates for prohibiting subsidies for fishing on an overfished stock. It provides two alternative approaches for crafting such a prohibition: subsidies shall be prohibited i) if there is a lack of recovery of the stock or if there is a continuous reduction in the level of the stock; ii) if they are not implemented in a manner that ensures rebuilding of the stock. It also provides two possible ways of characterizing and determining what constitutes an overfished stock: i) those recognized as such by the Member under whose jurisdiction the fishing is taking place or by the relevant RFMO/A; ii) those for which the mortality from fishing needs to be restricted to allow the stock to rebuild to some reference point. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">We offer one possible interpretation of this document. It is still quite vague. Same as New Zealand/Iceland proposal interpretation. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Same as Facilitator's text intrepretation. </t>
   </si>
   <si>
@@ -1194,9 +1173,6 @@
   </si>
   <si>
     <t>TER</t>
-  </si>
-  <si>
-    <t>For IUU: No S&amp;DT is considered. For Overfished: Subsidies granted by developing and LDC Members for fishing within their own territorial sea shall be allowed. For OCOF: No S&amp;DT is considered.</t>
   </si>
   <si>
     <t>RD/TN/RL/126/A1</t>
@@ -1291,9 +1267,6 @@
     <t>For IUU: Subsidies granted by developing and LDC Members shall be allowed for small scale fishing: a) within their own territorial waters and b) within their own EEZs and high seas for 7 years. For Overfished: Subsidies granted by developing and LDC Members shall be allowed for fishing a) within their own territorial waters and b) within their own EEZs for 2 years. For OCOF: Subsidies granted by LDCs shall be allowed, and subsidies granted by developing countries shall be allowed for fishing in their territorial seas, or for fishing in their EEZs and high seas unless any of the following conditions are met for three consecutive years: a) GNI per capita is greater than US $5000 (constant 2010 US$), b) they engage in distant water fishing, or c) the contribution from Agriculture, Forestry and Fishing to their national GDP (World Bank) is greater than 10%.</t>
   </si>
   <si>
-    <t>This communication advocates for special and differential treatment for all three classes of proposed disciplines. As written, this proposal does specify potential disciplines within each of the three categories, but rather the S&amp;DT that should be allowed for them. To model the possible effects of such a proposal, we therefore use the disciplines proposed in LDC - Full text (excluding any S&amp;DT).</t>
-  </si>
-  <si>
     <t>B1, B2, B3, B4, B5, B6, B7, C1, C2, C3</t>
   </si>
   <si>
@@ -1365,9 +1338,6 @@
     <t>---</t>
   </si>
   <si>
-    <t xml:space="preserve">1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - we have chosen to model our interpretation of the more ambitious of the two (see New Zealand/Iceland - Overfishing and overcapacity). </t>
-  </si>
-  <si>
     <t>Developing countries not engaged in large-scale industrial distant water fishing are entitled to a transition period of 3 years. LDCs and SVEs are entitled to a transition period of 6 years.</t>
   </si>
   <si>
@@ -1380,9 +1350,6 @@
     <t>This prohibition shall not apply to LDC Members.</t>
   </si>
   <si>
-    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal Member. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing on the high seas, and to vessels greater than 24 m in length or with a tonnage greater than 100 GT. </t>
-  </si>
-  <si>
     <t>LENGTH, TONNAGE</t>
   </si>
   <si>
@@ -1392,9 +1359,6 @@
     <t>Transition period missing. Two separate delays: 1) developing countries not engaged in large scale industrial fishing; 2) LDCs and SVEs)</t>
   </si>
   <si>
-    <t xml:space="preserve">1) As written, this proposal does specify potential disciplines within each of the three categories, but rather the S&amp;DT that should be allowed for them. 2) To model the possible effects of such a proposal, we therefore use the disciplines proposed in LDC - Full text (excluding any S&amp;DT). Those are as follows: For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal Member. The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings. 3) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing on the high seas, and to vessels greater than 24 m in length or with a tonnage greater than 100 GT. </t>
-  </si>
-  <si>
     <t>Transition periods missing. Also need to identify developing countries meeting non-industrial criteria. The three options associated with defining it could be calculated on the back-end.</t>
   </si>
   <si>
@@ -1410,15 +1374,9 @@
     <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternate definitions for an overfished stock subsidy prohibition - we have chosen to model the more ambitious interpretation of the two. For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) We assume each Member's cap is equal to whichever of the three proposed approaches for calculating a cap yields the largest amount. By default, caps based on the first approach are calculated as 55% of each Member's base for capping; caps based on the second approach are calculated as 2% of each Member's estimated landed value (calculated from the FAO Global Marine Capture Production Database, average between 2016-2018); caps based on the third approach are calculated as 55% of the global average subsidies per fisher (capacity-enhancing and ambiguous) multiplied by each Member's most recently reported total number of fishers (from the FAO Yearbook of Fishery and Aquaculture Statistics 2017). 2) We assume that provision of the following types of subsidies as defined by Sumaila et al. 2019 are allowed to continue irrespective of a Member's total cap: i) subsidies for fishing access agreements; ii) fisher assistance programs; iii) vessel buyback programs; iv) rural fishers' community development programs. Therefore each Member's base for capping is represented by the total amount of all other capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. </t>
   </si>
   <si>
-    <t>Chair's text - Consolidated text (w/ China - Cap)</t>
-  </si>
-  <si>
     <t>These are the values for the Chair's text + USA cap proposal</t>
   </si>
   <si>
-    <t>Chair's text - Consolidated text (w/ US and others -  Cap/Tier)</t>
-  </si>
-  <si>
     <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternate definitions for an overfished stock subsidy prohibition - we have chosen to model the more ambitious interpretation of the two. For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) 1) We assume that each Member's base for capping is represented by the total amount of capacity-enhancing and ambiguos subsidies estimated by Sumaila et al. 2019. 2) Members are sorted into three tiers based on a three-year average of FAO marine capture production (2016-2018). Members accounting for 0.7% or more of global marine capture production are in "Tier 1"; Members accounting for 0.05% or more, but less than 0.7%, of global marine capture production are in "Tier 2"; Members accounting for less than 0.05% of global marine capture production are in "Tier 3". 3) This proposal advocates for allowing both Tier 1 and Tier 2 Members to negotiate their own subsidy caps or to accept a default cap of $50 million annually. For the purposes of modeling, we assume that Tier 1 Members receive a subsidy cap equal to 50% of their base for capping; Tier 2 Members receive the default cap of $50 million; Tier 3 Members do not receive a cap. </t>
   </si>
   <si>
@@ -1428,9 +1386,6 @@
     <t>PERCENT_REV</t>
   </si>
   <si>
-    <t xml:space="preserve">1) We assume that provision of the following types of subsidies as defined by Sumaila et al. 2019 are allowed to continue irrespective of a Member's total de minimus limit: i) fisher assistance programs; ii) rural fishers' community development programs.subsidies (both programs relevant to fishing in territorial waters). Therefore each Member's base subsidy level is represented by the total amount of all other capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. 2) we estimate the landed value of marine capture fisheries from the FAO Global Capture Production Database. 3) We assume the de minimis limit for developed and developing country members belonging to the top 10 marine capture fisheries producers to be 50% of the average total landed value of the Member's marine capture fisheries between 2016-2018. For all other developing country Members, we assume the de minimis limit to be 70% of the average total landed value between 2016-2018. For LDC Members, we assume the de minimis limit to be 90% of the average total landed value between 2016-2018. </t>
-  </si>
-  <si>
     <t>B1, B2, B3, B4, B5, B6, B7, C2</t>
   </si>
   <si>
@@ -1467,12 +1422,6 @@
     <t>The IUU proposals pretty much all do the same because of data availability.</t>
   </si>
   <si>
-    <t xml:space="preserve">Same as New Zealand/Iceland text interpretation. Assumed to be more ambitious than Austraila's text. </t>
-  </si>
-  <si>
-    <t>1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing on the high seas. By default, we consider all capacity-enhancing and ambiguous subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas to be prohibited.</t>
-  </si>
-  <si>
     <t>Modeled using parameters of overfished stocks - assumed to have a similar biological interpretation as New Zealand/Iceland, but less ambitious because of S&amp;DT and subsistence fishing exemption.</t>
   </si>
   <si>
@@ -1498,6 +1447,117 @@
   </si>
   <si>
     <t xml:space="preserve">Using the same values for the China proposal as above. </t>
+  </si>
+  <si>
+    <t>RD/TN/RL/124</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Mechanism for Reductions and Limits of Fisheries Subsidies</t>
+  </si>
+  <si>
+    <t>his unofficial room document was circulated at the request of the Delegation of Brazil on February 28, 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) We assume that provision of the following types of subsidies as defined by Sumaila et al. 2019 are allowed to continue irrespective of a Member's total de minimus limit: i) fisher assistance programs; ii) rural fishers' community development programs.subsidies (both programs relevant to fishing in territorial waters). Therefore each Member's base subsidy level is represented by the total amount of all other capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. 2) we estimate the landed value of marine capture fisheries from the FAO Global Capture Production Database. 3) We assume the de minimis limit for developed and developing country members belonging to the top 10 marine capture fisheries producers to be 10% of the average total landed value of the Member's marine capture fisheries between 2016-2018. For all other developing country Members, we assume the de minimis limit to be 20% of the average total landed value between 2016-2018. For LDC Members, we assume the de minimis limit to be 30% of the average total landed value between 2016-2018. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the less ambitious interpretation of the two (see Australia - Overfishing and overcapacity). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text places prohibitions on subsidies for fishing outside of the jurisdictions of coastal Members or relevant RFMO/As. Very few areas of the ocean are not under the jurisdiction of a RFMO/A, but it is difficult to determine on a global scale whether vessels are fishing for species governed by those RFMO/As at any given point in time. We therefore assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels spending at least 5% of their total annual effort fishing on the high seas outside of the jurisdictions of coastal Members. We note that this is an ambitious interpretation of this prohibition. </t>
+  </si>
+  <si>
+    <t>For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal Member. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing on the high seas, and to vessels greater than 24 m in length or with a tonnage greater than 100 GT (we assume industrial fishing to be defined by the characteristics specified by the proposal from Morocco).</t>
+  </si>
+  <si>
+    <t>1) As written, this proposal does specify potential disciplines within each of the three categories, but rather the S&amp;DT that should be allowed for them. 2) To model the possible effects of such a proposal, we therefore use the disciplines proposed in LDC - Full text (excluding any S&amp;DT). Those are as follows: For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal Member. The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings. 3) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing on the high seas, and to vessels greater than 24 m in length or with a tonnage greater than 100 GT (we assume industrial fishing to be defined by the characteristics specified by the proposal from Morocco).</t>
+  </si>
+  <si>
+    <t>For IUU: Subsidies granted by developing and LDC Members shall be allowed for small scale fishing: a) within their own territorial waters. For Overfished: Subsidies granted by developing and LDC Members for fishing within their own territorial sea shall be allowed. For OCOF: Subsidies granted by LDCs shall be allowed, and subsidies granted by developing countries shall be allowed for fishing in their territorial seas, or for fishing in their EEZs and high seas unless any of the following conditions are met for three consecutive years: a) GNI per capita is greater than US $5000 (constant 2010 US$), b) they engage in distant water fishing, or c) the contribution from Agriculture, Forestry and Fishing to their national GDP (World Bank) is greater than 10%.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - choose which to model use using the buttons above. </t>
+  </si>
+  <si>
+    <t>This is the real entry for this proposal - others are just for options and text</t>
+  </si>
+  <si>
+    <t>Alternate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These are the options for the facilitator's text + new zeland/iceland </t>
+  </si>
+  <si>
+    <t>These are the options for the facilitator's text + Australia</t>
+  </si>
+  <si>
+    <t>These are the values for the Chair's text + Philipines de mininus proposal</t>
+  </si>
+  <si>
+    <t>RD/TN/RL/126 &amp; RD/TN/RL/81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternate definitions for an overfished stock subsidy prohibition - we have chosen to model the more ambitious interpretation of the two. For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) We assume that provision of the following types of subsidies as defined by Sumaila et al. 2019 are allowed to continue irrespective of a Member's total de minimus limit: i) fisher assistance programs; ii) rural fishers' community development programs.subsidies (both programs relevant to fishing in territorial waters). Therefore each Member's base subsidy level is represented by the total amount of all other capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. 2) we estimate the landed value of marine capture fisheries from the FAO Global Capture Production Database. 3) We assume the de minimis limit for developed and developing country members belonging to the top 10 marine capture fisheries producers to be 10% of the average total landed value of the Member's marine capture fisheries between 2016-2018. For all other developing country Members, we assume the de minimis limit to be 20% of the average total landed value between 2016-2018. For LDC Members, we assume the de minimis limit to be 30% of the average total landed value between 2016-2018. </t>
+  </si>
+  <si>
+    <t>Using the same values for the Philippines proposal above.</t>
+  </si>
+  <si>
+    <t>Using the same values for the Brazil proposal below</t>
+  </si>
+  <si>
+    <t>RD/TN/RL/126 &amp; RD/TN/RL/124</t>
+  </si>
+  <si>
+    <t>Brazil - Formula</t>
+  </si>
+  <si>
+    <t>NOT DONE - These are the values for the Chair's text + Brazil formula proposal</t>
+  </si>
+  <si>
+    <t>NOT DONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This communication proposes a quantitative approach of reductions and limits to maritime fisheries subsidies. The baseline of reductions is to be the annual average monetary value of fisheries subsidies (3 prior years). A cumulative ranges (8 ranges: 0-15mn to over 1,2bn) of subsidy in monetary values, where each range corresponds to a specific percentage reduction will be applicable (from 0% to 45% in increments of 5). The total subsidy reduction shall equal the sum of the cuts on each range. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This communication advocates for negotiating Member-specific subsidy caps (expressed in monetary terms). Subsidies in excess of a Member's cap would be prohibited. This cap is intended to be supplementary to any prohibitions on subsidies that support IUU, fishing beyond national jurisdiction, and subsidies for fishing that negatively affect overfished stocks. Members would also commit to maintain fisheries management and conservation measures, and without prejudice of the ASCM. </t>
+  </si>
+  <si>
+    <t>This communication advocates for special and differential treatment for all three classes of proposed disciplines. As written, this proposal does not specify potential prohibition disciplines within each of the three categories, but only the S&amp;DT that should be allowed for developing countries. To model the possible effects of such a proposal, we therefore use the prohibition disciplines proposed in LDC - Full text (excluding any S&amp;DT).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This communication presents a draft text on subsidies for fishing overfished stocks. It aims to consolidate possible alternative approaches that have been put forth or discussed, and is an attempt to try to focus future discussions. It provides two alternative approaches for crafting such a prohibition: subsidies shall be prohibited i) if there is a lack of recovery of the stock or if there is a continuous reduction in the level of the stock; ii) if they are not implemented in a manner that ensures rebuilding of the stock. It also provides two possible ways of characterizing and determining what constitutes an overfished stock: i) those recognized as such by the Member under whose jurisdiction the fishing is taking place or by the relevant RFMO/A; ii) those for which the mortality from fishing needs to be restricted to allow the stock to rebuild to some reference point. </t>
+  </si>
+  <si>
+    <t>This document summarizes the Facilitator's recommendations regarding the elimination of subsidies that contribute to IUU fishing. Key elements: i) making IUU determinations is a right Members have based on agreements outside the WTO; ii) a subsidies prohibition should not imply an obligation related to making IUU determinations; iii) all procedures must have been followed in making the determination, including appeal and review; iv) there is general agreement that determinations by a coastal state, RFMO/A, flag state, and subsidizing Member state should all trigger the prohibition of subsidies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No special and differential treatment is condisidered </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An underlying assumption of this tool to make modeling possible is that the subsidizing state of a vessel is its flag state. Therefore, this communication is not modeled, but presented here as a possible discipline. </t>
+  </si>
+  <si>
+    <t>This working paper does not contain text suggestions to model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) We assume each Member's baseline to the total magnitude of capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. 2) The formula ranges and percentages of reduction are then applied to all Members. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternate definitions for an overfished stock subsidy prohibition - we have chosen to model the more ambitious interpretation of the two. For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) We assume each Member's baseline to the total magnitude of capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. 2) The formula ranges and percentages of reduction are then applied to all Members. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chair's text - Consolidated text </t>
+  </si>
+  <si>
+    <t>RD/TN/RL/119 &amp; RD/TN/RL/79/Rev.1</t>
+  </si>
+  <si>
+    <t>RD/TN/RL/119 &amp; RD/TN/RL/77/Rev.2</t>
   </si>
 </sst>
 </file>
@@ -2035,16 +2095,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2491,2854 +2548,3292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CV28"/>
+  <dimension ref="A1:CU33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CV2" sqref="CV2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="13"/>
-    <col min="2" max="2" width="10.83203125" style="15"/>
-    <col min="3" max="3" width="40.6640625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="36.5" style="15" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="32.83203125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="13" style="16" customWidth="1"/>
-    <col min="8" max="8" width="21.1640625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="13" style="16" customWidth="1"/>
-    <col min="10" max="11" width="10.83203125" style="16"/>
-    <col min="12" max="12" width="15.1640625" style="15" customWidth="1"/>
-    <col min="13" max="13" width="28" style="16" customWidth="1"/>
-    <col min="14" max="14" width="48" style="16" customWidth="1"/>
-    <col min="15" max="16" width="48.33203125" style="16" customWidth="1"/>
-    <col min="17" max="17" width="56.1640625" style="15" customWidth="1"/>
-    <col min="18" max="18" width="71" style="15" customWidth="1"/>
-    <col min="19" max="84" width="10.83203125" style="16"/>
-    <col min="85" max="88" width="10.83203125" style="28"/>
-    <col min="89" max="91" width="10.83203125" style="16"/>
-    <col min="92" max="94" width="10.83203125" style="28"/>
-    <col min="95" max="97" width="10.83203125" style="16"/>
-    <col min="98" max="100" width="10.83203125" style="28"/>
-    <col min="101" max="16384" width="10.83203125" style="16"/>
+    <col min="1" max="1" width="10.83203125" style="12"/>
+    <col min="2" max="2" width="10.83203125" style="14"/>
+    <col min="3" max="3" width="40.6640625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="36.5" style="14" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="32.83203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="13" style="15" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="13" style="15" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" style="15"/>
+    <col min="12" max="12" width="15.1640625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="28" style="15" customWidth="1"/>
+    <col min="14" max="14" width="48" style="15" customWidth="1"/>
+    <col min="15" max="15" width="48.33203125" style="15" customWidth="1"/>
+    <col min="16" max="16" width="56.1640625" style="14" customWidth="1"/>
+    <col min="17" max="17" width="71" style="14" customWidth="1"/>
+    <col min="18" max="83" width="10.83203125" style="15"/>
+    <col min="84" max="87" width="10.83203125" style="27"/>
+    <col min="88" max="90" width="10.83203125" style="15"/>
+    <col min="91" max="93" width="10.83203125" style="27"/>
+    <col min="94" max="96" width="10.83203125" style="15"/>
+    <col min="97" max="99" width="10.83203125" style="27"/>
+    <col min="100" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" s="9" customFormat="1" ht="56" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:99" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN1" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="AP1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ1" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="AR1" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="AS1" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="AT1" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="AU1" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="AV1" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="AW1" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="AX1" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="AY1" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="AZ1" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="BA1" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="BB1" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="BC1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="BD1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE1" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="BF1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="BH1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI1" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="BJ1" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="BK1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL1" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BM1" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="BN1" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="BO1" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="BP1" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="BQ1" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="BR1" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="BS1" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="BT1" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="BU1" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="BV1" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="BW1" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BX1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="BZ1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="CA1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="CB1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="CC1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="CD1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="CE1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="CF1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="CG1" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="CH1" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="CI1" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="CJ1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="CK1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="CL1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="CM1" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="CN1" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="CO1" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="CP1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="CQ1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="CR1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="CS1" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="CT1" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="CU1" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:99" s="8" customFormat="1" ht="282" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="16">
+        <v>43545</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
+      <c r="BA2" s="15"/>
+      <c r="BB2" s="15"/>
+      <c r="BC2" s="15"/>
+      <c r="BD2" s="15"/>
+      <c r="BE2" s="15"/>
+      <c r="BF2" s="15"/>
+      <c r="BG2" s="15"/>
+      <c r="BH2" s="15"/>
+      <c r="BI2" s="15"/>
+      <c r="BJ2" s="15"/>
+      <c r="BK2" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BL2" s="15"/>
+      <c r="BM2" s="15"/>
+      <c r="BN2" s="15"/>
+      <c r="BO2" s="15"/>
+      <c r="BP2" s="15"/>
+      <c r="BQ2" s="15"/>
+      <c r="BR2" s="15"/>
+      <c r="BS2" s="15"/>
+      <c r="BT2" s="15"/>
+      <c r="BU2" s="15"/>
+      <c r="BV2" s="15"/>
+      <c r="BW2" s="15"/>
+      <c r="BX2" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="BY2" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="BZ2" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CA2" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="CB2" s="15"/>
+      <c r="CC2" s="15"/>
+      <c r="CD2" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="CE2" s="15"/>
+      <c r="CF2" s="27">
+        <v>10</v>
+      </c>
+      <c r="CG2" s="27"/>
+      <c r="CH2" s="27"/>
+      <c r="CI2" s="27"/>
+      <c r="CJ2" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="CL2" s="15">
+        <v>20</v>
+      </c>
+      <c r="CM2" s="27"/>
+      <c r="CN2" s="27"/>
+      <c r="CO2" s="27"/>
+      <c r="CP2" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="CQ2" s="15"/>
+      <c r="CR2" s="15">
+        <v>30</v>
+      </c>
+      <c r="CS2" s="27"/>
+      <c r="CT2" s="27"/>
+      <c r="CU2" s="27"/>
+    </row>
+    <row r="3" spans="1:99" ht="182" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" s="16">
+        <v>43573</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="X3" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH3" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="AI3" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AP3" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BK3" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BX3" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:99" ht="238" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="16">
+        <v>43620</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP4" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BK4" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BX4" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="BY4" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="BZ4" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="CD4" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="CG4" s="27">
+        <v>55</v>
+      </c>
+      <c r="CH4" s="27">
+        <v>2.1</v>
+      </c>
+      <c r="CI4" s="27">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:99" ht="182" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="16">
+        <v>43621</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="X5" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH5" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="AI5" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AP5" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BK5" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BX5" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:99" ht="182" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K6" s="16">
+        <v>43628</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="X6" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP6" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BK6" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BX6" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:99" ht="112" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="16">
+        <v>43643</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="X7" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP7" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BC7" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="BD7" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="BE7" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG7" s="15">
+        <v>5</v>
+      </c>
+      <c r="BK7" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BX7" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:99" ht="182" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" s="16">
+        <v>43648</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="X8" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP8" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BC8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="BD8" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="BK8" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="BL8" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="BM8" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="BP8" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="BQ8" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="BT8" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BX8" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:99" ht="140" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" s="16">
+        <v>43648</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="X9" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH9" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="AI9" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ9" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="AP9" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BK9" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BX9" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:99" ht="168" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="16">
+        <v>43657</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="X10" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP10" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BK10" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BX10" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="BY10" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="BZ10" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CA10" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="CC10" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="CD10" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="CF10" s="27">
+        <v>50</v>
+      </c>
+      <c r="CJ10" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="CK10" s="15">
+        <v>50</v>
+      </c>
+      <c r="CP10" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:99" ht="154" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="16">
+        <v>43684</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="X11" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP11" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BC11" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="BD11" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="BE11" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="BH11" s="15">
+        <v>24</v>
+      </c>
+      <c r="BI11" s="15">
+        <v>100</v>
+      </c>
+      <c r="BJ11" s="15">
+        <v>130</v>
+      </c>
+      <c r="BK11" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BX11" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:99" ht="84" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="16">
+        <v>43718</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="R12" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="S12" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="U12" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="X12" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP12" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BK12" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BX12" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:99" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="16">
+        <v>43759</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="P13" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="X13" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP13" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BC13" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="BD13" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="BE13" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="BK13" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BX13" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:99" ht="224" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" s="16">
+        <v>43775</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="X14" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH14" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="AI14" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ14" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="AP14" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="AQ14" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="AR14" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="AT14" s="15">
+        <v>6</v>
+      </c>
+      <c r="AU14" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="AV14" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="AX14" s="15">
+        <v>4</v>
+      </c>
+      <c r="AY14" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BK14" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BX14" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:99" ht="154" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" s="16">
+        <v>43801</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="R15" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="S15" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="U15" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="X15" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP15" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BK15" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BX15" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:99" ht="70" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="16">
+        <v>43801</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:99" ht="112" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" s="16">
+        <v>43801</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="P17" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:99" ht="56" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="K18" s="16">
+        <v>43802</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="19" spans="1:99" ht="224" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="K19" s="16">
+        <v>43803</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="1:99" ht="224" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="16">
+        <v>43803</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="P20" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="X20" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH20" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="AI20" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AP20" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BK20" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BX20" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:99" ht="224" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" s="16">
+        <v>43803</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="P21" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="X21" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH21" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="AI21" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AP21" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BK21" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BX21" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:99" ht="238" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="K22" s="16">
+        <v>43843</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="P22" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="X22" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH22" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="AI22" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AP22" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BC22" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="BD22" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="BE22" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="BG22" s="15">
+        <v>5</v>
+      </c>
+      <c r="BK22" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BX22" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:99" ht="112" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="K23" s="16">
+        <v>43865</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="P23" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="S23" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="U23" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="X23" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y23" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z23" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA23" s="15">
+        <v>6</v>
+      </c>
+      <c r="AB23" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC23" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="AD23" s="15">
+        <v>3</v>
+      </c>
+      <c r="AE23" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF23" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="AG23" s="15">
+        <v>6</v>
+      </c>
+      <c r="AP23" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BK23" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BX23" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:99" ht="238" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="K24" s="16">
+        <v>43865</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="P24" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="X24" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP24" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BC24" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="BD24" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="BK24" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="BL24" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="BM24" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="BP24" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BT24" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BX24" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:99" ht="266" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K25" s="23">
+        <v>43896</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="P25" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q25" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="R25" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="S25" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="AI25" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ25" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8"/>
+      <c r="AN25" s="8"/>
+      <c r="AO25" s="8"/>
+      <c r="AP25" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="AQ25" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="AR25" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AS25" s="8"/>
+      <c r="AT25" s="8">
+        <v>5</v>
+      </c>
+      <c r="AU25" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="AV25" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AW25" s="8"/>
+      <c r="AX25" s="8">
+        <v>5</v>
+      </c>
+      <c r="AY25" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AZ25" s="8"/>
+      <c r="BA25" s="8"/>
+      <c r="BB25" s="8"/>
+      <c r="BC25" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="BD25" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="BE25" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="BF25" s="8"/>
+      <c r="BG25" s="8"/>
+      <c r="BH25" s="8">
+        <v>24</v>
+      </c>
+      <c r="BI25" s="8">
+        <v>100</v>
+      </c>
+      <c r="BJ25" s="8"/>
+      <c r="BK25" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="BL25" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="BM25" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="BN25" s="8"/>
+      <c r="BO25" s="8"/>
+      <c r="BP25" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="BQ25" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="BR25" s="8"/>
+      <c r="BS25" s="8">
+        <v>5</v>
+      </c>
+      <c r="BT25" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="BU25" s="8"/>
+      <c r="BV25" s="8"/>
+      <c r="BW25" s="8"/>
+      <c r="BX25" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="BY25" s="8"/>
+      <c r="BZ25" s="8"/>
+      <c r="CA25" s="8"/>
+      <c r="CB25" s="8"/>
+      <c r="CC25" s="8"/>
+      <c r="CD25" s="8"/>
+      <c r="CE25" s="8"/>
+      <c r="CF25" s="8"/>
+      <c r="CG25" s="8"/>
+      <c r="CH25" s="8"/>
+      <c r="CI25" s="8"/>
+      <c r="CJ25" s="8"/>
+      <c r="CK25" s="8"/>
+      <c r="CL25" s="8"/>
+      <c r="CM25" s="8"/>
+      <c r="CN25" s="8"/>
+      <c r="CO25" s="8"/>
+      <c r="CP25" s="8"/>
+      <c r="CQ25" s="8"/>
+      <c r="CR25" s="8"/>
+      <c r="CS25" s="8"/>
+      <c r="CT25" s="8"/>
+      <c r="CU25" s="8"/>
+    </row>
+    <row r="26" spans="1:99" ht="318" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26" s="16">
+        <v>43896</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="N26" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="R26" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="S26" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y26" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z26" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB26" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC26" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE26" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH26" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="AI26" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ26" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AP26" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="AQ26" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="AR26" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="AU26" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="AV26" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="AY26" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BC26" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="BD26" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="BE26" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="BH26" s="8">
+        <v>24</v>
+      </c>
+      <c r="BI26" s="15">
+        <v>100</v>
+      </c>
+      <c r="BK26" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="BL26" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="BM26" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="BP26" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="BQ26" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="BT26" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BX26" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:99" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="K27" s="16">
+        <v>44007</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="P27" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="R27" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="S27" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="U27" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="X27" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y27" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z27" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="AB27" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC27" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="AE27" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH27" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="AI27" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ27" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AP27" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="AQ27" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="AR27" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="AU27" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="AV27" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="AY27" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BC27" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="BD27" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="BE27" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG27" s="15">
+        <v>5</v>
+      </c>
+      <c r="BK27" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="BL27" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="BM27" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="BP27" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="BQ27" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="BT27" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BX27" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:99" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q1" s="11" t="s">
+      <c r="H28" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="K28" s="16">
+        <v>44007</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="P28" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="R28" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="S28" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="U28" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="X28" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y28" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z28" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="AB28" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC28" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="AE28" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH28" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="AI28" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ28" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AP28" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="AQ28" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="AR28" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="AU28" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="AV28" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="AY28" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BC28" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="BD28" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="BE28" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG28" s="15">
         <v>5</v>
       </c>
-      <c r="R1" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" s="9" t="s">
+      <c r="BK28" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="BL28" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="BM28" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="BP28" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="BQ28" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="BT28" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BX28" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="BY28" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="BZ28" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="CD28" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="CG28" s="27">
+        <v>55</v>
+      </c>
+      <c r="CH28" s="27">
+        <v>2.1</v>
+      </c>
+      <c r="CI28" s="27">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:99" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="K29" s="16">
+        <v>44007</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="O29" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="P29" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="R29" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="S29" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="U29" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="X29" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH29" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="AI29" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ29" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AP29" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="AQ29" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="AR29" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="AU29" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="AV29" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="AY29" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BC29" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="BD29" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="BE29" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG29" s="15">
+        <v>5</v>
+      </c>
+      <c r="BK29" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BX29" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="BY29" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="BZ29" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CA29" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="CC29" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="CD29" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="CF29" s="27">
+        <v>50</v>
+      </c>
+      <c r="CJ29" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="CK29" s="15">
+        <v>50</v>
+      </c>
+      <c r="CP29" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:99" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="K30" s="16">
+        <v>44007</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="N30" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="O30" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="P30" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="R30" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="S30" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="U30" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="X30" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH30" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="AI30" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ30" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AP30" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="AQ30" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="AR30" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="AU30" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="AV30" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="AY30" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BC30" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="BD30" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="BE30" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG30" s="15">
+        <v>5</v>
+      </c>
+      <c r="BK30" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BX30" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="BY30" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="BZ30" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CA30" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="CD30" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="CF30" s="27">
         <v>10</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="CJ30" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="CK30" s="8"/>
+      <c r="CL30" s="15">
+        <v>20</v>
+      </c>
+      <c r="CP30" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="CR30" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:99" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="K31" s="16">
+        <v>44007</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="M31" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="N31" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="O31" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="P31" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="R31" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="X1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA1" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="AD1" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="AE1" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF1" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="AG1" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="AH1" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="AI1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK1" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="AL1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN1" s="9" t="s">
+      <c r="S31" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="U31" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="X31" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH31" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="AI31" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ31" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AP31" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="AQ31" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="AR31" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="AU31" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="AV31" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="AY31" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BC31" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="BD31" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="BE31" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG31" s="15">
+        <v>5</v>
+      </c>
+      <c r="BK31" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BX31" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:99" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="F32" s="19"/>
+      <c r="G32" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="K32" s="23">
+        <v>43890</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="P32" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q32" s="25" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="33" spans="1:99" ht="42" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="26"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="4"/>
+      <c r="S33" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="T33" s="15">
         <v>20</v>
       </c>
-      <c r="AO1" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="AP1" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="AQ1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="AR1" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="AS1" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="AT1" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="AU1" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="AV1" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="AW1" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="AX1" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="AY1" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="AZ1" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="BA1" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="BB1" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="BC1" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="BD1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="BE1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="BF1" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="BG1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="BH1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="BI1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="BJ1" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="BK1" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="BL1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="BM1" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="BN1" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="BO1" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="BP1" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="BQ1" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="BR1" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="BS1" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="BT1" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="BU1" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="BV1" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="BW1" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="BX1" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="BY1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="CA1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="CB1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="CC1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="CD1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="CE1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="CF1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="CG1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="CH1" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="CI1" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="CJ1" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="CK1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="CL1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="CM1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="CN1" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="CO1" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="CP1" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="CQ1" s="9" t="s">
+      <c r="U33" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="X33" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y33" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="AA33" s="15">
+        <v>5</v>
+      </c>
+      <c r="AB33" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD33" s="15">
+        <v>5</v>
+      </c>
+      <c r="AE33" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG33" s="15">
+        <v>5</v>
+      </c>
+      <c r="AJ33" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AL33" s="15">
+        <v>5</v>
+      </c>
+      <c r="AM33" s="15">
+        <v>24</v>
+      </c>
+      <c r="AN33" s="15">
+        <v>100</v>
+      </c>
+      <c r="AO33" s="15">
+        <v>400</v>
+      </c>
+      <c r="AP33" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="AQ33" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS33" s="15">
+        <v>5</v>
+      </c>
+      <c r="AT33" s="15">
+        <v>5</v>
+      </c>
+      <c r="AU33" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="AW33" s="15">
+        <v>5</v>
+      </c>
+      <c r="AX33" s="15">
+        <v>5</v>
+      </c>
+      <c r="AY33" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BA33" s="15">
+        <v>5</v>
+      </c>
+      <c r="BB33" s="15">
+        <v>5</v>
+      </c>
+      <c r="BD33" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="BG33" s="15">
+        <v>5</v>
+      </c>
+      <c r="BH33" s="15">
+        <v>24</v>
+      </c>
+      <c r="BI33" s="15">
+        <v>100</v>
+      </c>
+      <c r="BJ33" s="15">
+        <v>400</v>
+      </c>
+      <c r="BK33" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BL33" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BN33" s="15">
+        <v>5</v>
+      </c>
+      <c r="BO33" s="15">
+        <v>5</v>
+      </c>
+      <c r="BP33" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BR33" s="15">
+        <v>5</v>
+      </c>
+      <c r="BS33" s="15">
+        <v>5</v>
+      </c>
+      <c r="BT33" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BV33" s="15">
+        <v>5</v>
+      </c>
+      <c r="BW33" s="15">
+        <v>5</v>
+      </c>
+      <c r="BX33" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="BY33" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="BZ33" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CA33" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="CB33" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="CC33" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD33" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="CE33" s="15">
         <v>50</v>
       </c>
-      <c r="CR1" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="CS1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="CT1" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="CU1" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="CV1" s="9" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="2" spans="1:100" s="9" customFormat="1" ht="282" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>449</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="17">
-        <v>43545</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AR2" s="16"/>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="16"/>
-      <c r="AU2" s="16"/>
-      <c r="AV2" s="16"/>
-      <c r="AW2" s="16"/>
-      <c r="AX2" s="16"/>
-      <c r="AY2" s="16"/>
-      <c r="AZ2" s="16"/>
-      <c r="BA2" s="16"/>
-      <c r="BB2" s="16"/>
-      <c r="BC2" s="16"/>
-      <c r="BD2" s="16"/>
-      <c r="BE2" s="16"/>
-      <c r="BF2" s="16"/>
-      <c r="BG2" s="16"/>
-      <c r="BH2" s="16"/>
-      <c r="BI2" s="16"/>
-      <c r="BJ2" s="16"/>
-      <c r="BK2" s="16"/>
-      <c r="BL2" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BM2" s="16"/>
-      <c r="BN2" s="16"/>
-      <c r="BO2" s="16"/>
-      <c r="BP2" s="16"/>
-      <c r="BQ2" s="16"/>
-      <c r="BR2" s="16"/>
-      <c r="BS2" s="16"/>
-      <c r="BT2" s="16"/>
-      <c r="BU2" s="16"/>
-      <c r="BV2" s="16"/>
-      <c r="BW2" s="16"/>
-      <c r="BX2" s="16"/>
-      <c r="BY2" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="BZ2" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="CA2" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="CB2" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="CC2" s="16"/>
-      <c r="CD2" s="16"/>
-      <c r="CE2" s="30" t="s">
-        <v>445</v>
-      </c>
-      <c r="CF2" s="16"/>
-      <c r="CG2" s="28">
-        <v>10</v>
-      </c>
-      <c r="CH2" s="28"/>
-      <c r="CI2" s="28"/>
-      <c r="CJ2" s="28"/>
-      <c r="CK2" s="16" t="s">
-        <v>445</v>
-      </c>
-      <c r="CM2" s="16">
-        <v>20</v>
-      </c>
-      <c r="CN2" s="28"/>
-      <c r="CO2" s="28"/>
-      <c r="CP2" s="28"/>
-      <c r="CQ2" s="16" t="s">
-        <v>445</v>
-      </c>
-      <c r="CR2" s="16"/>
-      <c r="CS2" s="16">
-        <v>30</v>
-      </c>
-      <c r="CT2" s="28"/>
-      <c r="CU2" s="28"/>
-      <c r="CV2" s="28"/>
-    </row>
-    <row r="3" spans="1:100" ht="182" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>451</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="K3" s="17">
-        <v>43573</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="Y3" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AI3" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="AJ3" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AQ3" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BL3" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BY3" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:100" ht="238" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>450</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="17">
-        <v>43620</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q4" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="Y4" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AQ4" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BL4" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BY4" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="BZ4" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="CA4" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="CE4" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="CH4" s="28">
-        <v>55</v>
-      </c>
-      <c r="CI4" s="28">
-        <v>2.1</v>
-      </c>
-      <c r="CJ4" s="28">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:100" ht="182" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="K5" s="17">
-        <v>43621</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q5" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="Y5" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AI5" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="AJ5" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AQ5" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BL5" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BY5" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:100" ht="182" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>458</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="K6" s="17">
-        <v>43628</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q6" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="S6" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="T6" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="V6" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y6" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AQ6" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BL6" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BY6" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:100" ht="112" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="K7" s="17">
-        <v>43643</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q7" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="Y7" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AQ7" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BD7" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="BE7" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="BF7" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="BH7" s="16">
+      <c r="CF33" s="27">
         <v>5</v>
       </c>
-      <c r="BL7" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BY7" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:100" ht="182" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" s="17">
-        <v>43648</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="Y8" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AQ8" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BD8" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="BE8" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="BL8" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="BM8" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="BN8" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="BQ8" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="BR8" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="BU8" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BY8" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:100" ht="140" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>455</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" s="17">
-        <v>43648</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q9" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="Y9" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AI9" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="AJ9" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="AK9" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="AQ9" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BL9" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BY9" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="10" spans="1:100" ht="168" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>456</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="17">
-        <v>43657</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q10" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="Y10" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AQ10" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BL10" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BY10" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="BZ10" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="CA10" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="CB10" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="CD10" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="CE10" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="CG10" s="28">
-        <v>50</v>
-      </c>
-      <c r="CK10" s="16" t="s">
+      <c r="CG33" s="27">
+        <v>5</v>
+      </c>
+      <c r="CH33" s="27">
+        <v>5</v>
+      </c>
+      <c r="CI33" s="27">
+        <v>5</v>
+      </c>
+      <c r="CJ33" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="CL10" s="16">
-        <v>50</v>
-      </c>
-      <c r="CQ10" s="16" t="s">
+      <c r="CK33" s="15">
+        <v>5</v>
+      </c>
+      <c r="CL33" s="15">
+        <v>5</v>
+      </c>
+      <c r="CM33" s="27">
+        <v>5</v>
+      </c>
+      <c r="CN33" s="27">
+        <v>5</v>
+      </c>
+      <c r="CO33" s="27">
+        <v>5</v>
+      </c>
+      <c r="CP33" s="15" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="11" spans="1:100" ht="154" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>457</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="K11" s="17">
-        <v>43684</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q11" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="Y11" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AQ11" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BD11" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="BE11" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="BF11" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="BI11" s="16">
-        <v>24</v>
-      </c>
-      <c r="BJ11" s="16">
-        <v>100</v>
-      </c>
-      <c r="BK11" s="16">
-        <v>130</v>
-      </c>
-      <c r="BL11" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BY11" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="12" spans="1:100" ht="84" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>458</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="17">
-        <v>43718</v>
-      </c>
-      <c r="L12" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q12" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="S12" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="T12" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="V12" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y12" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AQ12" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BL12" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BY12" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:100" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="K13" s="17">
-        <v>43759</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q13" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="Y13" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AQ13" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BD13" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="BE13" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="BF13" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="BL13" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BY13" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="14" spans="1:100" ht="224" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>461</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="K14" s="17">
-        <v>43775</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q14" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="Y14" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AI14" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="AJ14" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="AK14" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="AQ14" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="AR14" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="AS14" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="AU14" s="16">
-        <v>6</v>
-      </c>
-      <c r="AV14" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="AW14" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="AY14" s="16">
-        <v>4</v>
-      </c>
-      <c r="AZ14" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BL14" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BY14" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="15" spans="1:100" ht="154" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>458</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="K15" s="17">
-        <v>43801</v>
-      </c>
-      <c r="L15" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q15" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="S15" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="T15" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="V15" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y15" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AQ15" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BL15" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BY15" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:100" ht="70" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>424</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="K16" s="17">
-        <v>43801</v>
-      </c>
-      <c r="L16" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="M16" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="N16" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="5"/>
-    </row>
-    <row r="17" spans="1:100" ht="112" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>424</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="K17" s="17">
-        <v>43801</v>
-      </c>
-      <c r="L17" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="N17" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="5"/>
-    </row>
-    <row r="18" spans="1:100" ht="56" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>424</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="K18" s="17">
-        <v>43802</v>
-      </c>
-      <c r="L18" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="N18" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="O18" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="5"/>
-    </row>
-    <row r="19" spans="1:100" ht="266" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>459</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="K19" s="17">
-        <v>43803</v>
-      </c>
-      <c r="L19" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="M19" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="N19" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="O19" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q19" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="Y19" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AI19" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="AJ19" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AQ19" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BL19" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BY19" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="20" spans="1:100" ht="182" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>462</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="K20" s="17">
-        <v>43843</v>
-      </c>
-      <c r="L20" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="M20" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="N20" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="O20" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="Y20" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AI20" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="AJ20" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AQ20" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BD20" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="BE20" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="BF20" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="BH20" s="16">
+      <c r="CQ33" s="15">
         <v>5</v>
       </c>
-      <c r="BL20" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BY20" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="21" spans="1:100" ht="112" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="K21" s="17">
-        <v>43865</v>
-      </c>
-      <c r="L21" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="M21" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="N21" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="O21" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q21" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="S21" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="T21" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="V21" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y21" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z21" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="AA21" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="AB21" s="16">
-        <v>6</v>
-      </c>
-      <c r="AC21" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="AD21" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="AE21" s="16">
-        <v>3</v>
-      </c>
-      <c r="AF21" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="AG21" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="AH21" s="16">
-        <v>6</v>
-      </c>
-      <c r="AQ21" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BL21" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BY21" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="22" spans="1:100" ht="238" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>463</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="K22" s="17">
-        <v>43865</v>
-      </c>
-      <c r="L22" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="M22" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="N22" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="O22" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q22" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="R22" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="Y22" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AQ22" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BD22" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="BE22" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="BL22" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="BM22" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="BN22" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="BQ22" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BU22" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BY22" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:100" ht="252" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="K23" s="24">
-        <v>43896</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q23" s="25" t="s">
-        <v>432</v>
-      </c>
-      <c r="R23" s="26" t="s">
-        <v>430</v>
-      </c>
-      <c r="S23" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="T23" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="AJ23" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="AK23" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="AL23" s="9"/>
-      <c r="AM23" s="9"/>
-      <c r="AN23" s="9"/>
-      <c r="AO23" s="9"/>
-      <c r="AP23" s="9"/>
-      <c r="AQ23" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="AR23" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="AS23" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="AT23" s="9"/>
-      <c r="AU23" s="9">
+      <c r="CR33" s="15">
         <v>5</v>
       </c>
-      <c r="AV23" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="AW23" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="AX23" s="9"/>
-      <c r="AY23" s="9">
+      <c r="CS33" s="27">
         <v>5</v>
       </c>
-      <c r="AZ23" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="BA23" s="9"/>
-      <c r="BB23" s="9"/>
-      <c r="BC23" s="9"/>
-      <c r="BD23" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="BE23" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="BF23" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="BG23" s="9"/>
-      <c r="BH23" s="9"/>
-      <c r="BI23" s="9">
-        <v>24</v>
-      </c>
-      <c r="BJ23" s="9">
-        <v>100</v>
-      </c>
-      <c r="BK23" s="9"/>
-      <c r="BL23" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="BM23" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="BN23" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="BO23" s="9"/>
-      <c r="BP23" s="9"/>
-      <c r="BQ23" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="BR23" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="BS23" s="9"/>
-      <c r="BT23" s="9">
+      <c r="CT33" s="27">
         <v>5</v>
       </c>
-      <c r="BU23" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="BV23" s="9"/>
-      <c r="BW23" s="9"/>
-      <c r="BX23" s="9"/>
-      <c r="BY23" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="BZ23" s="9"/>
-      <c r="CA23" s="9"/>
-      <c r="CB23" s="9"/>
-      <c r="CC23" s="9"/>
-      <c r="CD23" s="9"/>
-      <c r="CE23" s="9"/>
-      <c r="CF23" s="9"/>
-      <c r="CG23" s="9"/>
-      <c r="CH23" s="9"/>
-      <c r="CI23" s="9"/>
-      <c r="CJ23" s="9"/>
-      <c r="CK23" s="9"/>
-      <c r="CL23" s="9"/>
-      <c r="CM23" s="9"/>
-      <c r="CN23" s="9"/>
-      <c r="CO23" s="9"/>
-      <c r="CP23" s="9"/>
-      <c r="CQ23" s="9"/>
-      <c r="CR23" s="9"/>
-      <c r="CS23" s="9"/>
-      <c r="CT23" s="9"/>
-      <c r="CU23" s="9"/>
-      <c r="CV23" s="9"/>
-    </row>
-    <row r="24" spans="1:100" ht="318" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="K24" s="17">
-        <v>43896</v>
-      </c>
-      <c r="L24" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="M24" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="N24" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="R24" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="S24" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="T24" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z24" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="AA24" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="AC24" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="AD24" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="AF24" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AI24" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="AJ24" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="AK24" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AQ24" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="AR24" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="AS24" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="AV24" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="AW24" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="AZ24" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BD24" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="BE24" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="BF24" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="BI24" s="9">
-        <v>24</v>
-      </c>
-      <c r="BJ24" s="16">
-        <v>100</v>
-      </c>
-      <c r="BL24" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="BM24" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="BN24" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="BQ24" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="BR24" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="BU24" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BY24" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="25" spans="1:100" ht="407" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="J25" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="K25" s="17">
-        <v>44007</v>
-      </c>
-      <c r="L25" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="M25" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="N25" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="O25" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q25" s="19" t="s">
-        <v>391</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="S25" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="T25" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="V25" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y25" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AI25" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="AJ25" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="AK25" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AQ25" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="AR25" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="AS25" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="AV25" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="AW25" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="AZ25" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BD25" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="BE25" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="BF25" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="BH25" s="16">
-        <v>5</v>
-      </c>
-      <c r="BL25" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BY25" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="26" spans="1:100" ht="407" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>469</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="J26" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="K26" s="17">
-        <v>44007</v>
-      </c>
-      <c r="L26" s="18" t="s">
-        <v>440</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="N26" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="O26" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q26" s="19" t="s">
-        <v>391</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="S26" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="T26" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="V26" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y26" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AI26" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="AJ26" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="AK26" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AQ26" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="AR26" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="AS26" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="AV26" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="AW26" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="AZ26" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BD26" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="BE26" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="BF26" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="BH26" s="16">
-        <v>5</v>
-      </c>
-      <c r="BL26" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BY26" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="BZ26" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="CA26" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="CE26" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="CH26" s="28">
-        <v>55</v>
-      </c>
-      <c r="CI26" s="28">
-        <v>2.1</v>
-      </c>
-      <c r="CJ26" s="28">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:100" ht="407" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>468</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="J27" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="K27" s="17">
-        <v>44007</v>
-      </c>
-      <c r="L27" s="18" t="s">
-        <v>442</v>
-      </c>
-      <c r="M27" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="N27" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="O27" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q27" s="19" t="s">
-        <v>391</v>
-      </c>
-      <c r="R27" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="S27" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="T27" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="V27" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y27" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AI27" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="AJ27" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="AK27" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AQ27" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="AR27" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="AS27" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="AV27" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="AW27" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="AZ27" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BD27" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="BE27" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="BF27" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="BH27" s="16">
-        <v>5</v>
-      </c>
-      <c r="BL27" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BY27" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="BZ27" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="CA27" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="CB27" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="CD27" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="CE27" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="CG27" s="28">
-        <v>50</v>
-      </c>
-      <c r="CK27" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="CL27" s="16">
-        <v>50</v>
-      </c>
-      <c r="CQ27" s="16" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="28" spans="1:100" ht="42" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="L28" s="27"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="5"/>
-      <c r="T28" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="U28" s="16">
-        <v>20</v>
-      </c>
-      <c r="V28" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y28" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="Z28" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AB28" s="16">
-        <v>5</v>
-      </c>
-      <c r="AC28" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE28" s="16">
-        <v>5</v>
-      </c>
-      <c r="AF28" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AH28" s="16">
-        <v>5</v>
-      </c>
-      <c r="AK28" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AM28" s="16">
-        <v>5</v>
-      </c>
-      <c r="AN28" s="16">
-        <v>24</v>
-      </c>
-      <c r="AO28" s="16">
-        <v>100</v>
-      </c>
-      <c r="AP28" s="16">
-        <v>400</v>
-      </c>
-      <c r="AQ28" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AR28" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AT28" s="16">
-        <v>5</v>
-      </c>
-      <c r="AU28" s="16">
-        <v>5</v>
-      </c>
-      <c r="AV28" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AX28" s="16">
-        <v>5</v>
-      </c>
-      <c r="AY28" s="16">
-        <v>5</v>
-      </c>
-      <c r="AZ28" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BB28" s="16">
-        <v>5</v>
-      </c>
-      <c r="BC28" s="16">
-        <v>5</v>
-      </c>
-      <c r="BE28" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="BH28" s="16">
-        <v>5</v>
-      </c>
-      <c r="BI28" s="16">
-        <v>24</v>
-      </c>
-      <c r="BJ28" s="16">
-        <v>100</v>
-      </c>
-      <c r="BK28" s="16">
-        <v>400</v>
-      </c>
-      <c r="BL28" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BM28" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BO28" s="16">
-        <v>5</v>
-      </c>
-      <c r="BP28" s="16">
-        <v>5</v>
-      </c>
-      <c r="BQ28" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BS28" s="16">
-        <v>5</v>
-      </c>
-      <c r="BT28" s="16">
-        <v>5</v>
-      </c>
-      <c r="BU28" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BW28" s="16">
-        <v>5</v>
-      </c>
-      <c r="BX28" s="16">
-        <v>5</v>
-      </c>
-      <c r="BY28" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BZ28" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="CA28" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="CB28" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="CC28" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="CD28" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="CE28" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="CF28" s="16">
-        <v>50</v>
-      </c>
-      <c r="CG28" s="28">
-        <v>5</v>
-      </c>
-      <c r="CH28" s="28">
-        <v>5</v>
-      </c>
-      <c r="CI28" s="28">
-        <v>5</v>
-      </c>
-      <c r="CJ28" s="28">
-        <v>5</v>
-      </c>
-      <c r="CK28" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="CL28" s="16">
-        <v>5</v>
-      </c>
-      <c r="CM28" s="16">
-        <v>5</v>
-      </c>
-      <c r="CN28" s="28">
-        <v>5</v>
-      </c>
-      <c r="CO28" s="28">
-        <v>5</v>
-      </c>
-      <c r="CP28" s="28">
-        <v>5</v>
-      </c>
-      <c r="CQ28" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="CR28" s="16">
-        <v>5</v>
-      </c>
-      <c r="CS28" s="16">
-        <v>5</v>
-      </c>
-      <c r="CT28" s="28">
-        <v>5</v>
-      </c>
-      <c r="CU28" s="28">
-        <v>5</v>
-      </c>
-      <c r="CV28" s="28">
+      <c r="CU33" s="27">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:CS28">
-    <sortCondition ref="K2:K28"/>
+  <sortState ref="A2:CR33">
+    <sortCondition ref="K2:K33"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/app/data/wto_proposal_settings_master.xlsx
+++ b/app/data/wto_proposal_settings_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kat/GitHub/SubsidyExplorer/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343DB21B-B281-6747-B36D-BE4F9906A1A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97665D2A-6CBE-6942-8EB5-FDC47E43F293}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10220" yWindow="5380" windowWidth="35700" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16600" yWindow="4500" windowWidth="35700" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="1" r:id="rId1"/>
@@ -747,9 +747,6 @@
   </si>
   <si>
     <t>US and others - ABNJ</t>
-  </si>
-  <si>
-    <t>EU and others -Overfishing and overcapacity</t>
   </si>
   <si>
     <t>I added this new revision separately as the ACP are adding a new exeption where Members that individually account for less than [2] percent of global marine capture fishing are excluded</t>
@@ -1558,6 +1555,9 @@
   </si>
   <si>
     <t>RD/TN/RL/119 &amp; RD/TN/RL/77/Rev.2</t>
+  </si>
+  <si>
+    <t>EU and others - Overfishing and overcapacity</t>
   </si>
 </sst>
 </file>
@@ -2550,9 +2550,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CU33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2590,25 +2590,25 @@
         <v>88</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>1</v>
@@ -2617,7 +2617,7 @@
         <v>129</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>2</v>
@@ -2632,7 +2632,7 @@
         <v>5</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="R1" s="8" t="s">
         <v>7</v>
@@ -2647,7 +2647,7 @@
         <v>10</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="W1" s="8" t="s">
         <v>11</v>
@@ -2656,31 +2656,31 @@
         <v>12</v>
       </c>
       <c r="Y1" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z1" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>270</v>
-      </c>
-      <c r="AG1" s="8" t="s">
-        <v>271</v>
       </c>
       <c r="AH1" s="8" t="s">
         <v>16</v>
@@ -2689,7 +2689,7 @@
         <v>17</v>
       </c>
       <c r="AJ1" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AK1" s="8" t="s">
         <v>18</v>
@@ -2701,49 +2701,49 @@
         <v>20</v>
       </c>
       <c r="AN1" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="AO1" s="8" t="s">
         <v>272</v>
-      </c>
-      <c r="AO1" s="8" t="s">
-        <v>273</v>
       </c>
       <c r="AP1" s="8" t="s">
         <v>21</v>
       </c>
       <c r="AQ1" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="AR1" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AS1" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AT1" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AU1" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AV1" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="AW1" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="AW1" s="8" t="s">
+      <c r="AX1" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="AY1" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="AZ1" s="8" t="s">
+      <c r="BA1" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="BA1" s="8" t="s">
+      <c r="BB1" s="8" t="s">
         <v>284</v>
-      </c>
-      <c r="BB1" s="8" t="s">
-        <v>285</v>
       </c>
       <c r="BC1" s="8" t="s">
         <v>26</v>
@@ -2752,7 +2752,7 @@
         <v>27</v>
       </c>
       <c r="BE1" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="BF1" s="8" t="s">
         <v>28</v>
@@ -2764,49 +2764,49 @@
         <v>30</v>
       </c>
       <c r="BI1" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="BJ1" s="8" t="s">
         <v>286</v>
-      </c>
-      <c r="BJ1" s="8" t="s">
-        <v>287</v>
       </c>
       <c r="BK1" s="8" t="s">
         <v>31</v>
       </c>
       <c r="BL1" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="BM1" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="BM1" s="8" t="s">
+      <c r="BN1" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="BN1" s="8" t="s">
+      <c r="BO1" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="BO1" s="8" t="s">
+      <c r="BP1" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="BP1" s="8" t="s">
+      <c r="BQ1" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="BQ1" s="8" t="s">
+      <c r="BR1" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="BR1" s="8" t="s">
+      <c r="BS1" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="BS1" s="8" t="s">
+      <c r="BT1" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="BT1" s="8" t="s">
+      <c r="BU1" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="BU1" s="8" t="s">
+      <c r="BV1" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="BV1" s="8" t="s">
+      <c r="BW1" s="8" t="s">
         <v>298</v>
-      </c>
-      <c r="BW1" s="8" t="s">
-        <v>299</v>
       </c>
       <c r="BX1" s="8" t="s">
         <v>36</v>
@@ -2836,13 +2836,13 @@
         <v>45</v>
       </c>
       <c r="CG1" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="CH1" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="CH1" s="8" t="s">
+      <c r="CI1" s="8" t="s">
         <v>399</v>
-      </c>
-      <c r="CI1" s="8" t="s">
-        <v>400</v>
       </c>
       <c r="CJ1" s="8" t="s">
         <v>46</v>
@@ -2854,13 +2854,13 @@
         <v>49</v>
       </c>
       <c r="CM1" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="CN1" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="CN1" s="8" t="s">
+      <c r="CO1" s="8" t="s">
         <v>402</v>
-      </c>
-      <c r="CO1" s="8" t="s">
-        <v>403</v>
       </c>
       <c r="CP1" s="8" t="s">
         <v>50</v>
@@ -2872,13 +2872,13 @@
         <v>53</v>
       </c>
       <c r="CS1" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="CT1" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="CT1" s="8" t="s">
+      <c r="CU1" s="8" t="s">
         <v>405</v>
-      </c>
-      <c r="CU1" s="8" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:99" s="8" customFormat="1" ht="282" customHeight="1" x14ac:dyDescent="0.2">
@@ -2889,22 +2889,22 @@
         <v>98</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>99</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>55</v>
@@ -2916,7 +2916,7 @@
         <v>43545</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M2" s="15" t="s">
         <v>147</v>
@@ -2925,13 +2925,13 @@
         <v>148</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
@@ -2940,7 +2940,7 @@
       <c r="V2" s="15"/>
       <c r="W2" s="15"/>
       <c r="X2" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Y2" s="15"/>
       <c r="Z2" s="15"/>
@@ -2960,7 +2960,7 @@
       <c r="AN2" s="15"/>
       <c r="AO2" s="15"/>
       <c r="AP2" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AQ2" s="15"/>
       <c r="AR2" s="15"/>
@@ -2983,7 +2983,7 @@
       <c r="BI2" s="15"/>
       <c r="BJ2" s="15"/>
       <c r="BK2" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BL2" s="15"/>
       <c r="BM2" s="15"/>
@@ -2998,21 +2998,21 @@
       <c r="BV2" s="15"/>
       <c r="BW2" s="15"/>
       <c r="BX2" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BY2" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="BZ2" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="CA2" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="CB2" s="15"/>
       <c r="CC2" s="15"/>
       <c r="CD2" s="29" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="CE2" s="15"/>
       <c r="CF2" s="27">
@@ -3022,7 +3022,7 @@
       <c r="CH2" s="27"/>
       <c r="CI2" s="27"/>
       <c r="CJ2" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="CL2" s="15">
         <v>20</v>
@@ -3031,7 +3031,7 @@
       <c r="CN2" s="27"/>
       <c r="CO2" s="27"/>
       <c r="CP2" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="CQ2" s="15"/>
       <c r="CR2" s="15">
@@ -3049,22 +3049,22 @@
         <v>98</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>108</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>55</v>
@@ -3076,7 +3076,7 @@
         <v>43573</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>110</v>
@@ -3088,28 +3088,28 @@
         <v>154</v>
       </c>
       <c r="P3" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="X3" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AH3" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AI3" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AP3" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BK3" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BX3" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:99" ht="238" x14ac:dyDescent="0.2">
@@ -3120,10 +3120,10 @@
         <v>98</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>58</v>
@@ -3142,7 +3142,7 @@
         <v>43620</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M4" s="15" t="s">
         <v>78</v>
@@ -3151,34 +3151,34 @@
         <v>79</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="X4" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AP4" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BK4" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BX4" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BY4" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BZ4" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="CD4" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="CG4" s="27">
         <v>55</v>
@@ -3198,10 +3198,10 @@
         <v>124</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>58</v>
@@ -3210,7 +3210,7 @@
         <v>132</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>55</v>
@@ -3222,7 +3222,7 @@
         <v>43621</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M5" s="15" t="s">
         <v>134</v>
@@ -3234,28 +3234,28 @@
         <v>157</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="X5" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AH5" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AI5" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AP5" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BK5" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BX5" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:99" ht="182" x14ac:dyDescent="0.2">
@@ -3266,10 +3266,10 @@
         <v>90</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>58</v>
@@ -3296,34 +3296,34 @@
         <v>146</v>
       </c>
       <c r="O6" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="P6" s="20" t="s">
         <v>333</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>334</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>239</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U6" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X6" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AP6" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BK6" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BX6" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="112" x14ac:dyDescent="0.2">
@@ -3334,16 +3334,16 @@
         <v>98</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>102</v>
@@ -3370,22 +3370,22 @@
         <v>153</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="X7" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AP7" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BC7" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="BD7" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="BE7" s="15" t="s">
         <v>62</v>
@@ -3394,10 +3394,10 @@
         <v>5</v>
       </c>
       <c r="BK7" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BX7" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:99" ht="182" x14ac:dyDescent="0.2">
@@ -3408,19 +3408,19 @@
         <v>98</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>114</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>55</v>
@@ -3432,7 +3432,7 @@
         <v>43648</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M8" s="15" t="s">
         <v>115</v>
@@ -3441,46 +3441,46 @@
         <v>116</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P8" s="18" t="s">
         <v>155</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="X8" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AP8" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BC8" s="15" t="s">
         <v>64</v>
       </c>
       <c r="BD8" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="BK8" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BL8" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BM8" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="BP8" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BQ8" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="BT8" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BX8" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:99" ht="140" x14ac:dyDescent="0.2">
@@ -3491,10 +3491,10 @@
         <v>124</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>58</v>
@@ -3503,7 +3503,7 @@
         <v>130</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>55</v>
@@ -3515,7 +3515,7 @@
         <v>43648</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M9" s="15" t="s">
         <v>131</v>
@@ -3524,48 +3524,48 @@
         <v>116</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="X9" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AH9" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AI9" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AJ9" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AP9" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BK9" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BX9" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:99" ht="168" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>98</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>58</v>
@@ -3574,7 +3574,7 @@
         <v>68</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>58</v>
@@ -3586,7 +3586,7 @@
         <v>43657</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M10" s="15" t="s">
         <v>70</v>
@@ -3595,52 +3595,52 @@
         <v>128</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="X10" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AP10" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="BK10" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="BX10" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="BY10" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="BZ10" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="AP10" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="BK10" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="BX10" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="BY10" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="BZ10" s="15" t="s">
+      <c r="CA10" s="15" t="s">
         <v>302</v>
-      </c>
-      <c r="CA10" s="15" t="s">
-        <v>303</v>
       </c>
       <c r="CC10" s="15" t="s">
         <v>73</v>
       </c>
       <c r="CD10" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="CF10" s="27">
         <v>50</v>
       </c>
       <c r="CJ10" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="CK10" s="15">
         <v>50</v>
       </c>
       <c r="CP10" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:99" ht="154" x14ac:dyDescent="0.2">
@@ -3651,16 +3651,16 @@
         <v>98</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>106</v>
@@ -3675,7 +3675,7 @@
         <v>43684</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M11" s="15" t="s">
         <v>112</v>
@@ -3684,28 +3684,28 @@
         <v>113</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X11" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AP11" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BC11" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="BD11" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="BE11" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="BH11" s="15">
         <v>24</v>
@@ -3717,10 +3717,10 @@
         <v>130</v>
       </c>
       <c r="BK11" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BX11" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:99" ht="84" x14ac:dyDescent="0.2">
@@ -3731,10 +3731,10 @@
         <v>90</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>58</v>
@@ -3752,7 +3752,7 @@
         <v>43718</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M12" s="15" t="s">
         <v>94</v>
@@ -3764,31 +3764,31 @@
         <v>151</v>
       </c>
       <c r="P12" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R12" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U12" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X12" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AP12" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BK12" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BX12" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:99" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3799,7 +3799,7 @@
         <v>89</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>58</v>
@@ -3808,7 +3808,7 @@
         <v>85</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>58</v>
@@ -3820,7 +3820,7 @@
         <v>43759</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M13" s="15" t="s">
         <v>86</v>
@@ -3829,34 +3829,34 @@
         <v>87</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="X13" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AP13" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BC13" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="BD13" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="BE13" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BK13" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BX13" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:99" ht="224" x14ac:dyDescent="0.2">
@@ -3867,22 +3867,22 @@
         <v>98</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I14" s="15" t="s">
         <v>55</v>
@@ -3894,7 +3894,7 @@
         <v>43775</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>242</v>
+        <v>489</v>
       </c>
       <c r="M14" s="15" t="s">
         <v>118</v>
@@ -3903,55 +3903,55 @@
         <v>119</v>
       </c>
       <c r="O14" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="P14" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="P14" s="18" t="s">
-        <v>352</v>
-      </c>
       <c r="Q14" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="X14" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AH14" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AI14" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AJ14" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AP14" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AQ14" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR14" s="15" t="s">
         <v>308</v>
-      </c>
-      <c r="AQ14" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="AR14" s="15" t="s">
-        <v>309</v>
       </c>
       <c r="AT14" s="15">
         <v>6</v>
       </c>
       <c r="AU14" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AV14" s="15" t="s">
         <v>308</v>
-      </c>
-      <c r="AV14" s="15" t="s">
-        <v>309</v>
       </c>
       <c r="AX14" s="15">
         <v>4</v>
       </c>
       <c r="AY14" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BK14" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BX14" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:99" ht="154" x14ac:dyDescent="0.2">
@@ -3962,10 +3962,10 @@
         <v>90</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>58</v>
@@ -3974,7 +3974,7 @@
         <v>91</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I15" s="15" t="s">
         <v>55</v>
@@ -3986,43 +3986,43 @@
         <v>43801</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N15" s="15" t="s">
         <v>92</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P15" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="R15" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S15" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U15" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X15" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AP15" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BK15" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BX15" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:99" ht="70" x14ac:dyDescent="0.2">
@@ -4033,13 +4033,13 @@
         <v>98</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>100</v>
@@ -4054,7 +4054,7 @@
         <v>43801</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M16" s="15" t="s">
         <v>149</v>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="P16" s="18"/>
       <c r="Q16" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:99" ht="112" x14ac:dyDescent="0.2">
@@ -4078,13 +4078,13 @@
         <v>98</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>120</v>
@@ -4100,7 +4100,7 @@
         <v>43801</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M17" s="15" t="s">
         <v>122</v>
@@ -4112,10 +4112,10 @@
         <v>156</v>
       </c>
       <c r="P17" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q17" s="4" t="s">
         <v>482</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:99" ht="56" x14ac:dyDescent="0.2">
@@ -4126,13 +4126,13 @@
         <v>89</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>136</v>
@@ -4147,7 +4147,7 @@
         <v>43802</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M18" s="15" t="s">
         <v>137</v>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="P18" s="18"/>
       <c r="Q18" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:99" ht="224" x14ac:dyDescent="0.2">
@@ -4171,7 +4171,7 @@
         <v>124</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>58</v>
@@ -4189,7 +4189,7 @@
         <v>43803</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M19" s="15" t="s">
         <v>126</v>
@@ -4198,26 +4198,26 @@
         <v>127</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P19" s="18"/>
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:99" ht="224" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>124</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>58</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>55</v>
@@ -4229,7 +4229,7 @@
         <v>43803</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M20" s="15" t="s">
         <v>126</v>
@@ -4238,48 +4238,48 @@
         <v>127</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P20" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="X20" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AH20" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AI20" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AP20" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BK20" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BX20" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:99" ht="224" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>124</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>58</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I21" s="15" t="s">
         <v>55</v>
@@ -4291,7 +4291,7 @@
         <v>43803</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M21" s="15" t="s">
         <v>126</v>
@@ -4300,31 +4300,31 @@
         <v>127</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P21" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="X21" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AH21" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AI21" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AP21" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BK21" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BX21" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:99" ht="238" x14ac:dyDescent="0.2">
@@ -4335,64 +4335,64 @@
         <v>98</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I22" s="15" t="s">
         <v>55</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K22" s="16">
         <v>43843</v>
       </c>
       <c r="L22" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="M22" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="M22" s="15" t="s">
-        <v>248</v>
-      </c>
       <c r="N22" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="O22" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="O22" s="15" t="s">
-        <v>342</v>
-      </c>
       <c r="P22" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="X22" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AH22" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AI22" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AP22" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BC22" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="BD22" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="BE22" s="15" t="s">
         <v>63</v>
@@ -4401,10 +4401,10 @@
         <v>5</v>
       </c>
       <c r="BK22" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BX22" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:99" ht="112" x14ac:dyDescent="0.2">
@@ -4415,19 +4415,19 @@
         <v>90</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G23" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="H23" s="15" t="s">
         <v>393</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>394</v>
       </c>
       <c r="I23" s="15" t="s">
         <v>55</v>
@@ -4448,61 +4448,61 @@
         <v>116</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P23" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q23" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="Q23" s="4" t="s">
-        <v>417</v>
-      </c>
       <c r="R23" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="S23" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="U23" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="X23" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="S23" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="U23" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="X23" s="15" t="s">
+      <c r="Y23" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z23" s="15" t="s">
         <v>308</v>
-      </c>
-      <c r="Y23" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z23" s="15" t="s">
-        <v>309</v>
       </c>
       <c r="AA23" s="15">
         <v>6</v>
       </c>
       <c r="AB23" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC23" s="15" t="s">
         <v>308</v>
-      </c>
-      <c r="AC23" s="15" t="s">
-        <v>309</v>
       </c>
       <c r="AD23" s="15">
         <v>3</v>
       </c>
       <c r="AE23" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AF23" s="15" t="s">
         <v>308</v>
-      </c>
-      <c r="AF23" s="15" t="s">
-        <v>309</v>
       </c>
       <c r="AG23" s="15">
         <v>6</v>
       </c>
       <c r="AP23" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BK23" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BX23" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:99" ht="238" x14ac:dyDescent="0.2">
@@ -4513,19 +4513,19 @@
         <v>98</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I24" s="15" t="s">
         <v>55</v>
@@ -4537,52 +4537,52 @@
         <v>43865</v>
       </c>
       <c r="L24" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M24" s="15" t="s">
         <v>115</v>
       </c>
       <c r="N24" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="O24" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="O24" s="15" t="s">
-        <v>358</v>
-      </c>
       <c r="P24" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="X24" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AP24" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BC24" s="15" t="s">
         <v>64</v>
       </c>
       <c r="BD24" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="BK24" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BL24" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BM24" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="BP24" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BT24" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BX24" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:99" ht="266" x14ac:dyDescent="0.2">
@@ -4594,59 +4594,59 @@
       </c>
       <c r="C25" s="32"/>
       <c r="D25" s="22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E25" s="22" t="s">
         <v>58</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="5" t="s">
         <v>55</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K25" s="23">
         <v>43896</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P25" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Q25" s="25" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="R25" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S25" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T25" s="8"/>
       <c r="U25" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="V25" s="8"/>
       <c r="W25" s="8"/>
       <c r="X25" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
@@ -4658,13 +4658,13 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
       <c r="AH25" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AI25" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AJ25" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AK25" s="8"/>
       <c r="AL25" s="8"/>
@@ -4672,42 +4672,42 @@
       <c r="AN25" s="8"/>
       <c r="AO25" s="8"/>
       <c r="AP25" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="AQ25" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR25" s="8" t="s">
         <v>308</v>
-      </c>
-      <c r="AQ25" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="AR25" s="8" t="s">
-        <v>309</v>
       </c>
       <c r="AS25" s="8"/>
       <c r="AT25" s="8">
         <v>5</v>
       </c>
       <c r="AU25" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="AV25" s="8" t="s">
         <v>308</v>
-      </c>
-      <c r="AV25" s="8" t="s">
-        <v>309</v>
       </c>
       <c r="AW25" s="8"/>
       <c r="AX25" s="8">
         <v>5</v>
       </c>
       <c r="AY25" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AZ25" s="8"/>
       <c r="BA25" s="8"/>
       <c r="BB25" s="8"/>
       <c r="BC25" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="BD25" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="BE25" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="BF25" s="8"/>
       <c r="BG25" s="8"/>
@@ -4719,34 +4719,34 @@
       </c>
       <c r="BJ25" s="8"/>
       <c r="BK25" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BL25" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BM25" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="BN25" s="8"/>
       <c r="BO25" s="8"/>
       <c r="BP25" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="BQ25" s="8" t="s">
         <v>308</v>
-      </c>
-      <c r="BQ25" s="8" t="s">
-        <v>309</v>
       </c>
       <c r="BR25" s="8"/>
       <c r="BS25" s="8">
         <v>5</v>
       </c>
       <c r="BT25" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BU25" s="8"/>
       <c r="BV25" s="8"/>
       <c r="BW25" s="8"/>
       <c r="BX25" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BY25" s="8"/>
       <c r="BZ25" s="8"/>
@@ -4780,16 +4780,16 @@
         <v>89</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>58</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14" t="s">
@@ -4802,88 +4802,88 @@
         <v>43896</v>
       </c>
       <c r="L26" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M26" s="15" t="s">
         <v>140</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="R26" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S26" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T26" s="8"/>
       <c r="U26" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="V26" s="8"/>
       <c r="W26" s="8"/>
       <c r="X26" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Y26" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Z26" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AB26" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AC26" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AE26" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AH26" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AI26" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AJ26" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AP26" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AQ26" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AR26" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AU26" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV26" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY26" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BC26" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="BD26" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="BE26" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="BH26" s="8">
         <v>24</v>
@@ -4892,25 +4892,25 @@
         <v>100</v>
       </c>
       <c r="BK26" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BL26" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BM26" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="BP26" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BQ26" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BT26" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BX26" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:99" ht="407" customHeight="1" x14ac:dyDescent="0.2">
@@ -4921,107 +4921,107 @@
         <v>89</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="15" t="s">
         <v>376</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>377</v>
       </c>
       <c r="K27" s="16">
         <v>44007</v>
       </c>
       <c r="L27" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="M27" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="M27" s="15" t="s">
+      <c r="N27" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="N27" s="15" t="s">
+      <c r="O27" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="O27" s="15" t="s">
+      <c r="P27" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="R27" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="P27" s="18" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="R27" s="15" t="s">
+      <c r="S27" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="U27" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="X27" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y27" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z27" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="S27" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="U27" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="X27" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y27" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z27" s="15" t="s">
-        <v>383</v>
-      </c>
       <c r="AB27" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AC27" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AE27" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AH27" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AI27" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AJ27" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AP27" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AQ27" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AR27" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AU27" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV27" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY27" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BC27" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="BD27" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="BE27" s="15" t="s">
         <v>62</v>
@@ -5030,133 +5030,133 @@
         <v>5</v>
       </c>
       <c r="BK27" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BL27" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BM27" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="BP27" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BQ27" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BT27" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BX27" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:99" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K28" s="16">
         <v>44007</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M28" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="N28" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="N28" s="15" t="s">
+      <c r="O28" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="O28" s="15" t="s">
+      <c r="P28" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="R28" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="P28" s="18" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="R28" s="15" t="s">
+      <c r="S28" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="U28" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="X28" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y28" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z28" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="S28" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="U28" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="X28" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y28" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z28" s="15" t="s">
-        <v>383</v>
-      </c>
       <c r="AB28" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AC28" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AE28" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AH28" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AI28" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AJ28" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AP28" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AQ28" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AR28" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AU28" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV28" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY28" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BC28" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="BD28" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="BE28" s="15" t="s">
         <v>62</v>
@@ -5165,34 +5165,34 @@
         <v>5</v>
       </c>
       <c r="BK28" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BL28" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BM28" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="BP28" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BQ28" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BT28" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BX28" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BY28" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BZ28" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="CD28" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="CG28" s="27">
         <v>55</v>
@@ -5206,95 +5206,95 @@
     </row>
     <row r="29" spans="1:99" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I29" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K29" s="16">
         <v>44007</v>
       </c>
       <c r="L29" s="17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M29" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="N29" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="N29" s="15" t="s">
+      <c r="O29" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="O29" s="15" t="s">
+      <c r="P29" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="R29" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="P29" s="18" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="R29" s="15" t="s">
+      <c r="S29" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="U29" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="X29" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AH29" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="AI29" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="AJ29" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="AP29" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AQ29" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR29" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="S29" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="U29" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="X29" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="AH29" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="AI29" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="AJ29" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="AP29" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="AQ29" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="AR29" s="15" t="s">
-        <v>383</v>
-      </c>
       <c r="AU29" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV29" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY29" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BC29" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="BD29" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="BE29" s="15" t="s">
         <v>62</v>
@@ -5303,130 +5303,130 @@
         <v>5</v>
       </c>
       <c r="BK29" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="BX29" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="BY29" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="BZ29" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="BX29" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="BY29" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="BZ29" s="15" t="s">
+      <c r="CA29" s="15" t="s">
         <v>302</v>
-      </c>
-      <c r="CA29" s="15" t="s">
-        <v>303</v>
       </c>
       <c r="CC29" s="15" t="s">
         <v>73</v>
       </c>
       <c r="CD29" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="CF29" s="27">
         <v>50</v>
       </c>
       <c r="CJ29" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="CK29" s="15">
         <v>50</v>
       </c>
       <c r="CP29" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:99" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I30" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K30" s="16">
         <v>44007</v>
       </c>
       <c r="L30" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="M30" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="M30" s="15" t="s">
+      <c r="N30" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="N30" s="15" t="s">
+      <c r="O30" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="O30" s="15" t="s">
+      <c r="P30" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="R30" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="P30" s="18" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="R30" s="15" t="s">
+      <c r="S30" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="U30" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="X30" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AH30" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="AI30" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="AJ30" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="AP30" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AQ30" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR30" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="S30" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="U30" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="X30" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="AH30" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="AI30" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="AJ30" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="AP30" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="AQ30" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="AR30" s="15" t="s">
-        <v>383</v>
-      </c>
       <c r="AU30" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV30" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY30" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BC30" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="BD30" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="BE30" s="15" t="s">
         <v>62</v>
@@ -5435,35 +5435,35 @@
         <v>5</v>
       </c>
       <c r="BK30" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="BX30" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="BY30" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="BZ30" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="BX30" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="BY30" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="BZ30" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="CA30" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="CD30" s="29" t="s">
         <v>430</v>
-      </c>
-      <c r="CD30" s="29" t="s">
-        <v>431</v>
       </c>
       <c r="CF30" s="27">
         <v>10</v>
       </c>
       <c r="CJ30" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="CK30" s="8"/>
       <c r="CL30" s="15">
         <v>20</v>
       </c>
       <c r="CP30" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="CR30" s="15">
         <v>30</v>
@@ -5471,95 +5471,95 @@
     </row>
     <row r="31" spans="1:99" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I31" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K31" s="16">
         <v>44007</v>
       </c>
       <c r="L31" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="M31" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="M31" s="15" t="s">
+      <c r="N31" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="N31" s="15" t="s">
+      <c r="O31" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="O31" s="15" t="s">
+      <c r="P31" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="R31" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="P31" s="18" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="R31" s="15" t="s">
+      <c r="S31" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="U31" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="X31" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AH31" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="AI31" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="AJ31" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="AP31" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AQ31" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR31" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="S31" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="U31" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="X31" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="AH31" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="AI31" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="AJ31" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="AP31" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="AQ31" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="AR31" s="15" t="s">
-        <v>383</v>
-      </c>
       <c r="AU31" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV31" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY31" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BC31" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="BD31" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="BE31" s="15" t="s">
         <v>62</v>
@@ -5568,10 +5568,10 @@
         <v>5</v>
       </c>
       <c r="BK31" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BX31" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:99" ht="407" customHeight="1" x14ac:dyDescent="0.2">
@@ -5582,41 +5582,41 @@
         <v>98</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" s="8" t="s">
         <v>453</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>454</v>
       </c>
       <c r="K32" s="23">
         <v>43890</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M32" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="N32" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="N32" s="8" t="s">
-        <v>456</v>
-      </c>
       <c r="O32" s="15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q32" s="25" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33" spans="1:99" ht="42" x14ac:dyDescent="0.2">
@@ -5627,7 +5627,7 @@
         <v>83</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G33" s="15" t="s">
         <v>83</v>
@@ -5639,37 +5639,37 @@
       <c r="P33" s="18"/>
       <c r="Q33" s="4"/>
       <c r="S33" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T33" s="15">
         <v>20</v>
       </c>
       <c r="U33" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X33" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Y33" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AA33" s="15">
         <v>5</v>
       </c>
       <c r="AB33" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AD33" s="15">
         <v>5</v>
       </c>
       <c r="AE33" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG33" s="15">
         <v>5</v>
       </c>
       <c r="AJ33" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AL33" s="15">
         <v>5</v>
@@ -5684,10 +5684,10 @@
         <v>400</v>
       </c>
       <c r="AP33" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AQ33" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AS33" s="15">
         <v>5</v>
@@ -5696,7 +5696,7 @@
         <v>5</v>
       </c>
       <c r="AU33" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AW33" s="15">
         <v>5</v>
@@ -5705,7 +5705,7 @@
         <v>5</v>
       </c>
       <c r="AY33" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BA33" s="15">
         <v>5</v>
@@ -5714,7 +5714,7 @@
         <v>5</v>
       </c>
       <c r="BD33" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="BG33" s="15">
         <v>5</v>
@@ -5729,10 +5729,10 @@
         <v>400</v>
       </c>
       <c r="BK33" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BL33" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BN33" s="15">
         <v>5</v>
@@ -5741,7 +5741,7 @@
         <v>5</v>
       </c>
       <c r="BP33" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BR33" s="15">
         <v>5</v>
@@ -5750,7 +5750,7 @@
         <v>5</v>
       </c>
       <c r="BT33" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BV33" s="15">
         <v>5</v>
@@ -5759,16 +5759,16 @@
         <v>5</v>
       </c>
       <c r="BX33" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BY33" s="15" t="s">
         <v>61</v>
       </c>
       <c r="BZ33" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="CA33" s="15" t="s">
         <v>302</v>
-      </c>
-      <c r="CA33" s="15" t="s">
-        <v>303</v>
       </c>
       <c r="CB33" s="15">
         <v>0.7</v>
@@ -5777,7 +5777,7 @@
         <v>84</v>
       </c>
       <c r="CD33" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="CE33" s="15">
         <v>50</v>
@@ -5795,7 +5795,7 @@
         <v>5</v>
       </c>
       <c r="CJ33" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="CK33" s="15">
         <v>5</v>
@@ -5813,7 +5813,7 @@
         <v>5</v>
       </c>
       <c r="CP33" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="CQ33" s="15">
         <v>5</v>

--- a/app/data/wto_proposal_settings_master.xlsx
+++ b/app/data/wto_proposal_settings_master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kat/GitHub/SubsidyExplorer/app/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kat/GitHub/SubsidyExplorer/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97665D2A-6CBE-6942-8EB5-FDC47E43F293}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A9FF8B-6C44-764D-9E9F-5E0F0775FE6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16600" yWindow="4500" windowWidth="35700" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25220" windowHeight="15220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="507">
   <si>
     <t>proposal</t>
   </si>
@@ -1146,9 +1146,6 @@
   </si>
   <si>
     <t>iuu_scope_select</t>
-  </si>
-  <si>
-    <t>RD/TN/RL/126</t>
   </si>
   <si>
     <t>Chair's draft consolidated text</t>
@@ -1365,18 +1362,9 @@
     <t>These are the values for the Chair's text + China cap proposal</t>
   </si>
   <si>
-    <t>For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternate definitions for an overfished stock subsidy prohibition - we have chosen to model the more ambitious interpretation of the two. For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. No cap-based approach is included.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternate definitions for an overfished stock subsidy prohibition - we have chosen to model the more ambitious interpretation of the two. For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) We assume each Member's cap is equal to whichever of the three proposed approaches for calculating a cap yields the largest amount. By default, caps based on the first approach are calculated as 55% of each Member's base for capping; caps based on the second approach are calculated as 2% of each Member's estimated landed value (calculated from the FAO Global Marine Capture Production Database, average between 2016-2018); caps based on the third approach are calculated as 55% of the global average subsidies per fisher (capacity-enhancing and ambiguous) multiplied by each Member's most recently reported total number of fishers (from the FAO Yearbook of Fishery and Aquaculture Statistics 2017). 2) We assume that provision of the following types of subsidies as defined by Sumaila et al. 2019 are allowed to continue irrespective of a Member's total cap: i) subsidies for fishing access agreements; ii) fisher assistance programs; iii) vessel buyback programs; iv) rural fishers' community development programs. Therefore each Member's base for capping is represented by the total amount of all other capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. </t>
-  </si>
-  <si>
     <t>These are the values for the Chair's text + USA cap proposal</t>
   </si>
   <si>
-    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternate definitions for an overfished stock subsidy prohibition - we have chosen to model the more ambitious interpretation of the two. For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) 1) We assume that each Member's base for capping is represented by the total amount of capacity-enhancing and ambiguos subsidies estimated by Sumaila et al. 2019. 2) Members are sorted into three tiers based on a three-year average of FAO marine capture production (2016-2018). Members accounting for 0.7% or more of global marine capture production are in "Tier 1"; Members accounting for 0.05% or more, but less than 0.7%, of global marine capture production are in "Tier 2"; Members accounting for less than 0.05% of global marine capture production are in "Tier 3". 3) This proposal advocates for allowing both Tier 1 and Tier 2 Members to negotiate their own subsidy caps or to accept a default cap of $50 million annually. For the purposes of modeling, we assume that Tier 1 Members receive a subsidy cap equal to 50% of their base for capping; Tier 2 Members receive the default cap of $50 million; Tier 3 Members do not receive a cap. </t>
-  </si>
-  <si>
     <t>TOP10</t>
   </si>
   <si>
@@ -1431,21 +1419,6 @@
     <t>Modelled using LDC proposal for prohibitions (except for their S&amp;DT - used that from this proposal instead)</t>
   </si>
   <si>
-    <t>RD/TN/RL/126 &amp; TN/RL/GEN/199</t>
-  </si>
-  <si>
-    <t>RD/TN/RL/126 &amp; TN/RL/GEN/197/Rev.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As written, this proposal places different scopes on prohibtions for boat building and fuel subsidies (all) vs. all other harmful subsidies (HS only). This is not accounted for. OCOF prohibition is assumed to apply to high seas and distant water fishing for all subsidy types. </t>
-  </si>
-  <si>
-    <t>Using the same values for the US proposal above.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using the same values for the China proposal as above. </t>
-  </si>
-  <si>
     <t>RD/TN/RL/124</t>
   </si>
   <si>
@@ -1461,9 +1434,6 @@
     <t xml:space="preserve">1) We assume that provision of the following types of subsidies as defined by Sumaila et al. 2019 are allowed to continue irrespective of a Member's total de minimus limit: i) fisher assistance programs; ii) rural fishers' community development programs.subsidies (both programs relevant to fishing in territorial waters). Therefore each Member's base subsidy level is represented by the total amount of all other capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. 2) we estimate the landed value of marine capture fisheries from the FAO Global Capture Production Database. 3) We assume the de minimis limit for developed and developing country members belonging to the top 10 marine capture fisheries producers to be 10% of the average total landed value of the Member's marine capture fisheries between 2016-2018. For all other developing country Members, we assume the de minimis limit to be 20% of the average total landed value between 2016-2018. For LDC Members, we assume the de minimis limit to be 30% of the average total landed value between 2016-2018. </t>
   </si>
   <si>
-    <t xml:space="preserve">1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the less ambitious interpretation of the two (see Australia - Overfishing and overcapacity). </t>
-  </si>
-  <si>
     <t xml:space="preserve">1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text places prohibitions on subsidies for fishing outside of the jurisdictions of coastal Members or relevant RFMO/As. Very few areas of the ocean are not under the jurisdiction of a RFMO/A, but it is difficult to determine on a global scale whether vessels are fishing for species governed by those RFMO/As at any given point in time. We therefore assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels spending at least 5% of their total annual effort fishing on the high seas outside of the jurisdictions of coastal Members. We note that this is an ambitious interpretation of this prohibition. </t>
   </si>
   <si>
@@ -1476,48 +1446,21 @@
     <t>For IUU: Subsidies granted by developing and LDC Members shall be allowed for small scale fishing: a) within their own territorial waters. For Overfished: Subsidies granted by developing and LDC Members for fishing within their own territorial sea shall be allowed. For OCOF: Subsidies granted by LDCs shall be allowed, and subsidies granted by developing countries shall be allowed for fishing in their territorial seas, or for fishing in their EEZs and high seas unless any of the following conditions are met for three consecutive years: a) GNI per capita is greater than US $5000 (constant 2010 US$), b) they engage in distant water fishing, or c) the contribution from Agriculture, Forestry and Fishing to their national GDP (World Bank) is greater than 10%.</t>
   </si>
   <si>
-    <t xml:space="preserve">1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - choose which to model use using the buttons above. </t>
-  </si>
-  <si>
     <t>This is the real entry for this proposal - others are just for options and text</t>
   </si>
   <si>
     <t>Alternate</t>
   </si>
   <si>
-    <t xml:space="preserve">These are the options for the facilitator's text + new zeland/iceland </t>
-  </si>
-  <si>
-    <t>These are the options for the facilitator's text + Australia</t>
-  </si>
-  <si>
     <t>These are the values for the Chair's text + Philipines de mininus proposal</t>
   </si>
   <si>
-    <t>RD/TN/RL/126 &amp; RD/TN/RL/81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternate definitions for an overfished stock subsidy prohibition - we have chosen to model the more ambitious interpretation of the two. For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) We assume that provision of the following types of subsidies as defined by Sumaila et al. 2019 are allowed to continue irrespective of a Member's total de minimus limit: i) fisher assistance programs; ii) rural fishers' community development programs.subsidies (both programs relevant to fishing in territorial waters). Therefore each Member's base subsidy level is represented by the total amount of all other capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. 2) we estimate the landed value of marine capture fisheries from the FAO Global Capture Production Database. 3) We assume the de minimis limit for developed and developing country members belonging to the top 10 marine capture fisheries producers to be 10% of the average total landed value of the Member's marine capture fisheries between 2016-2018. For all other developing country Members, we assume the de minimis limit to be 20% of the average total landed value between 2016-2018. For LDC Members, we assume the de minimis limit to be 30% of the average total landed value between 2016-2018. </t>
-  </si>
-  <si>
-    <t>Using the same values for the Philippines proposal above.</t>
-  </si>
-  <si>
-    <t>Using the same values for the Brazil proposal below</t>
-  </si>
-  <si>
-    <t>RD/TN/RL/126 &amp; RD/TN/RL/124</t>
-  </si>
-  <si>
     <t>Brazil - Formula</t>
   </si>
   <si>
     <t>NOT DONE - These are the values for the Chair's text + Brazil formula proposal</t>
   </si>
   <si>
-    <t>NOT DONE</t>
-  </si>
-  <si>
     <t xml:space="preserve">This communication proposes a quantitative approach of reductions and limits to maritime fisheries subsidies. The baseline of reductions is to be the annual average monetary value of fisheries subsidies (3 prior years). A cumulative ranges (8 ranges: 0-15mn to over 1,2bn) of subsidy in monetary values, where each range corresponds to a specific percentage reduction will be applicable (from 0% to 45% in increments of 5). The total subsidy reduction shall equal the sum of the cuts on each range. </t>
   </si>
   <si>
@@ -1545,26 +1488,134 @@
     <t xml:space="preserve">1) We assume each Member's baseline to the total magnitude of capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. 2) The formula ranges and percentages of reduction are then applied to all Members. </t>
   </si>
   <si>
-    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternate definitions for an overfished stock subsidy prohibition - we have chosen to model the more ambitious interpretation of the two. For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) We assume each Member's baseline to the total magnitude of capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. 2) The formula ranges and percentages of reduction are then applied to all Members. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Chair's text - Consolidated text </t>
   </si>
   <si>
-    <t>RD/TN/RL/119 &amp; RD/TN/RL/79/Rev.1</t>
-  </si>
-  <si>
-    <t>RD/TN/RL/119 &amp; RD/TN/RL/77/Rev.2</t>
-  </si>
-  <si>
     <t>EU and others - Overfishing and overcapacity</t>
+  </si>
+  <si>
+    <t>BRAZIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chair's text + Brazil proposal + More ambitious overfished </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chair's text + Brazil proposal + Less ambitious overfished </t>
+  </si>
+  <si>
+    <t>RD/TN/RL/126 | RD/TN/RL/124 | Relevant Authorities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chair's text + Phillipines proposal + Less ambitious overfished </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chair's text + Phillipines proposal + More ambitious overfished </t>
+  </si>
+  <si>
+    <t>RD/TN/RL/126 | RD/TN/RL/81 | Objective Definition</t>
+  </si>
+  <si>
+    <t>RD/TN/RL/126 | RD/TN/RL/81 | Relevant Authorities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chair's text + USA proposal + More ambitious overfished </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chair's text + USA proposal + Less ambitious overfished </t>
+  </si>
+  <si>
+    <t>RD/TN/RL/126 | TN/RL/GEN/197/Rev.2 | Objective Definition</t>
+  </si>
+  <si>
+    <t>RD/TN/RL/126 | TN/RL/GEN/197/Rev.2 | Relevant Authorities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chair's text + China proposal + More ambitious overfished </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chair's text + China proposal + Less ambitious overfished </t>
+  </si>
+  <si>
+    <t>RD/TN/RL/126 | TN/RL/GEN/199 | Objective Definition</t>
+  </si>
+  <si>
+    <t>RD/TN/RL/126 | TN/RL/GEN/199 | Relevant Authorities</t>
+  </si>
+  <si>
+    <t>RD/TN/RL/119 | RD/TN/RL/77/Rev.2</t>
+  </si>
+  <si>
+    <t>These are the options for the facilitator's text + less ambitious overfished</t>
+  </si>
+  <si>
+    <t>These are the options for the facilitator's text + more ambitious overfished</t>
+  </si>
+  <si>
+    <t>RD/TN/RL/119 | RD/TN/RL/79/Rev.1</t>
+  </si>
+  <si>
+    <t>1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the more ambitious interpretation of the two (see New Zealand/Iceland - Overfishing and overcapacity).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the less ambitious interpretation of the two (see Australia - Overfished). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the more ambitious interpretation of the two (see New Zealand/Iceland - Overfishing and overcapacity). For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) 1) We assume that each Member's base for capping is represented by the total amount of capacity-enhancing and ambiguos subsidies estimated by Sumaila et al. 2019. 2) Members are sorted into three tiers based on a three-year average of FAO marine capture production (2016-2018). Members accounting for 0.7% or more of global marine capture production are in "Tier 1"; Members accounting for 0.05% or more, but less than 0.7%, of global marine capture production are in "Tier 2"; Members accounting for less than 0.05% of global marine capture production are in "Tier 3". 3) This proposal advocates for allowing both Tier 1 and Tier 2 Members to negotiate their own subsidy caps or to accept a default cap of $50 million annually. For the purposes of modeling, we assume that Tier 1 Members receive a subsidy cap equal to 50% of their base for capping; Tier 2 Members receive the default cap of $50 million; Tier 3 Members do not receive a cap. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the more ambitious interpretation of the two (see New Zealand/Iceland - Overfishing and overcapacity). For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) We assume that provision of the following types of subsidies as defined by Sumaila et al. 2019 are allowed to continue irrespective of a Member's total de minimus limit: i) fisher assistance programs; ii) rural fishers' community development programs.subsidies (both programs relevant to fishing in territorial waters). Therefore each Member's base subsidy level is represented by the total amount of all other capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. 2) we estimate the landed value of marine capture fisheries from the FAO Global Capture Production Database. 3) We assume the de minimis limit for developed and developing country members belonging to the top 10 marine capture fisheries producers to be 10% of the average total landed value of the Member's marine capture fisheries between 2016-2018. For all other developing country Members, we assume the de minimis limit to be 20% of the average total landed value between 2016-2018. For LDC Members, we assume the de minimis limit to be 30% of the average total landed value between 2016-2018. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the more ambitious interpretation of the two (see New Zealand/Iceland - Overfishing and overcapacity). For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) We assume each Member's baseline to the total magnitude of capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. 2) The formula ranges and percentages of reduction are then applied to all Members. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the less ambitious interpretation of the two (see Australia - Overfished).  For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) We assume each Member's cap is equal to whichever of the three proposed approaches for calculating a cap yields the largest amount. By default, caps based on the first approach are calculated as 55% of each Member's base for capping; caps based on the second approach are calculated as 2% of each Member's estimated landed value (calculated from the FAO Global Marine Capture Production Database, average between 2016-2018); caps based on the third approach are calculated as 55% of the global average subsidies per fisher (capacity-enhancing and ambiguous) multiplied by each Member's most recently reported total number of fishers (from the FAO Yearbook of Fishery and Aquaculture Statistics 2017). 2) We assume that provision of the following types of subsidies as defined by Sumaila et al. 2019 are allowed to continue irrespective of a Member's total cap: i) subsidies for fishing access agreements; ii) fisher assistance programs; iii) vessel buyback programs; iv) rural fishers' community development programs. Therefore each Member's base for capping is represented by the total amount of all other capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the less ambitious interpretation of the two (see Australia - Overfished). For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) 1) We assume that each Member's base for capping is represented by the total amount of capacity-enhancing and ambiguos subsidies estimated by Sumaila et al. 2019. 2) Members are sorted into three tiers based on a three-year average of FAO marine capture production (2016-2018). Members accounting for 0.7% or more of global marine capture production are in "Tier 1"; Members accounting for 0.05% or more, but less than 0.7%, of global marine capture production are in "Tier 2"; Members accounting for less than 0.05% of global marine capture production are in "Tier 3". 3) This proposal advocates for allowing both Tier 1 and Tier 2 Members to negotiate their own subsidy caps or to accept a default cap of $50 million annually. For the purposes of modeling, we assume that Tier 1 Members receive a subsidy cap equal to 50% of their base for capping; Tier 2 Members receive the default cap of $50 million; Tier 3 Members do not receive a cap. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the less ambitious interpretation of the two (see Australia - Overfished). For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) We assume each Member's baseline to the total magnitude of capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. 2) The formula ranges and percentages of reduction are then applied to all Members. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the less ambitious interpretation of the two (see Australia - Overfished). For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) We assume that provision of the following types of subsidies as defined by Sumaila et al. 2019 are allowed to continue irrespective of a Member's total de minimus limit: i) fisher assistance programs; ii) rural fishers' community development programs.subsidies (both programs relevant to fishing in territorial waters). Therefore each Member's base subsidy level is represented by the total amount of all other capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. 2) we estimate the landed value of marine capture fisheries from the FAO Global Capture Production Database. 3) We assume the de minimis limit for developed and developing country members belonging to the top 10 marine capture fisheries producers to be 10% of the average total landed value of the Member's marine capture fisheries between 2016-2018. For all other developing country Members, we assume the de minimis limit to be 20% of the average total landed value between 2016-2018. For LDC Members, we assume the de minimis limit to be 30% of the average total landed value between 2016-2018. </t>
+  </si>
+  <si>
+    <t>Need to check that it's working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chair's text + Less ambitious overfished </t>
+  </si>
+  <si>
+    <t>Blank entry for Chair's text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chair's text + More ambitious overfished </t>
+  </si>
+  <si>
+    <t>RD/TN/RL/126 | Objective Definition</t>
+  </si>
+  <si>
+    <t>RD/TN/RL/126 | Relevant Authorities</t>
+  </si>
+  <si>
+    <t>For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the less ambitious interpretation of the two (see Australia - Overfished).  For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: None.</t>
+  </si>
+  <si>
+    <t>For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the more ambitious interpretation of the two (see New Zealand/Iceland - Overfishing and overcapacity). For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: None.</t>
+  </si>
+  <si>
+    <t>RD/TN/RL/126</t>
+  </si>
+  <si>
+    <t>RD/TN/RL/126 | RD/TN/RL/124 | Objective Definition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2548,14 +2599,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CU33"/>
+  <dimension ref="A1:CU39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="12"/>
     <col min="2" max="2" width="10.83203125" style="14"/>
@@ -2582,7 +2633,7 @@
     <col min="100" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:99" s="8" customFormat="1" ht="56">
       <c r="A1" s="5" t="s">
         <v>141</v>
       </c>
@@ -2590,7 +2641,7 @@
         <v>88</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>329</v>
@@ -2836,13 +2887,13 @@
         <v>45</v>
       </c>
       <c r="CG1" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="CH1" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="CH1" s="8" t="s">
+      <c r="CI1" s="8" t="s">
         <v>398</v>
-      </c>
-      <c r="CI1" s="8" t="s">
-        <v>399</v>
       </c>
       <c r="CJ1" s="8" t="s">
         <v>46</v>
@@ -2854,13 +2905,13 @@
         <v>49</v>
       </c>
       <c r="CM1" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="CN1" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="CN1" s="8" t="s">
+      <c r="CO1" s="8" t="s">
         <v>401</v>
-      </c>
-      <c r="CO1" s="8" t="s">
-        <v>402</v>
       </c>
       <c r="CP1" s="8" t="s">
         <v>50</v>
@@ -2872,16 +2923,16 @@
         <v>53</v>
       </c>
       <c r="CS1" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="CT1" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="CT1" s="8" t="s">
+      <c r="CU1" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="CU1" s="8" t="s">
-        <v>405</v>
-      </c>
     </row>
-    <row r="2" spans="1:99" s="8" customFormat="1" ht="282" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:99" s="8" customFormat="1" ht="282" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>58</v>
       </c>
@@ -2889,7 +2940,7 @@
         <v>98</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>317</v>
@@ -2898,7 +2949,7 @@
         <v>58</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>99</v>
@@ -2931,7 +2982,7 @@
         <v>333</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
@@ -3001,18 +3052,18 @@
         <v>307</v>
       </c>
       <c r="BY2" s="15" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="BZ2" s="15" t="s">
         <v>301</v>
       </c>
       <c r="CA2" s="15" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="CB2" s="15"/>
       <c r="CC2" s="15"/>
       <c r="CD2" s="29" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="CE2" s="15"/>
       <c r="CF2" s="27">
@@ -3022,7 +3073,7 @@
       <c r="CH2" s="27"/>
       <c r="CI2" s="27"/>
       <c r="CJ2" s="15" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="CL2" s="15">
         <v>20</v>
@@ -3031,7 +3082,7 @@
       <c r="CN2" s="27"/>
       <c r="CO2" s="27"/>
       <c r="CP2" s="15" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="CQ2" s="15"/>
       <c r="CR2" s="15">
@@ -3041,7 +3092,7 @@
       <c r="CT2" s="27"/>
       <c r="CU2" s="27"/>
     </row>
-    <row r="3" spans="1:99" ht="182" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:99" ht="182">
       <c r="A3" s="12" t="s">
         <v>58</v>
       </c>
@@ -3049,7 +3100,7 @@
         <v>98</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>317</v>
@@ -3112,7 +3163,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:99" ht="238" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:99" ht="238">
       <c r="A4" s="12" t="s">
         <v>58</v>
       </c>
@@ -3120,7 +3171,7 @@
         <v>98</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>317</v>
@@ -3157,7 +3208,7 @@
         <v>333</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="X4" s="15" t="s">
         <v>300</v>
@@ -3172,13 +3223,13 @@
         <v>307</v>
       </c>
       <c r="BY4" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="BZ4" s="15" t="s">
         <v>319</v>
       </c>
       <c r="CD4" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="CG4" s="27">
         <v>55</v>
@@ -3190,7 +3241,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:99" ht="182" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:99" ht="182">
       <c r="A5" s="12" t="s">
         <v>58</v>
       </c>
@@ -3198,7 +3249,7 @@
         <v>124</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>317</v>
@@ -3210,7 +3261,7 @@
         <v>132</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>55</v>
@@ -3237,7 +3288,7 @@
         <v>333</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="X5" s="15" t="s">
         <v>300</v>
@@ -3258,7 +3309,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:99" ht="182" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:99" ht="182">
       <c r="A6" s="12" t="s">
         <v>58</v>
       </c>
@@ -3266,7 +3317,7 @@
         <v>90</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>317</v>
@@ -3326,7 +3377,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:99" ht="112" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:99" ht="112">
       <c r="A7" s="12" t="s">
         <v>58</v>
       </c>
@@ -3334,16 +3385,16 @@
         <v>98</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>102</v>
@@ -3373,7 +3424,7 @@
         <v>333</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="X7" s="15" t="s">
         <v>300</v>
@@ -3382,7 +3433,7 @@
         <v>300</v>
       </c>
       <c r="BC7" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="BD7" s="15" t="s">
         <v>371</v>
@@ -3400,7 +3451,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:99" ht="182" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:99" ht="182">
       <c r="A8" s="12" t="s">
         <v>58</v>
       </c>
@@ -3483,7 +3534,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:99" ht="140" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:99" ht="140">
       <c r="A9" s="12" t="s">
         <v>58</v>
       </c>
@@ -3491,7 +3542,7 @@
         <v>124</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>317</v>
@@ -3554,7 +3605,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:99" ht="168" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:99" ht="168">
       <c r="A10" s="12" t="s">
         <v>58</v>
       </c>
@@ -3562,7 +3613,7 @@
         <v>98</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>317</v>
@@ -3574,7 +3625,7 @@
         <v>68</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>58</v>
@@ -3595,13 +3646,13 @@
         <v>128</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="P10" s="20" t="s">
         <v>333</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="X10" s="15" t="s">
         <v>300</v>
@@ -3616,7 +3667,7 @@
         <v>307</v>
       </c>
       <c r="BY10" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="BZ10" s="15" t="s">
         <v>301</v>
@@ -3643,7 +3694,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="11" spans="1:99" ht="154" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:99" ht="154">
       <c r="A11" s="12" t="s">
         <v>58</v>
       </c>
@@ -3651,7 +3702,7 @@
         <v>98</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>317</v>
@@ -3690,7 +3741,7 @@
         <v>333</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="X11" s="15" t="s">
         <v>300</v>
@@ -3699,7 +3750,7 @@
         <v>300</v>
       </c>
       <c r="BC11" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="BD11" s="15" t="s">
         <v>371</v>
@@ -3723,7 +3774,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:99" ht="84" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:99" ht="84">
       <c r="A12" s="12" t="s">
         <v>58</v>
       </c>
@@ -3731,7 +3782,7 @@
         <v>90</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>317</v>
@@ -3767,7 +3818,7 @@
         <v>333</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R12" s="15" t="s">
         <v>260</v>
@@ -3791,7 +3842,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:99" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:99" ht="136.5" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>58</v>
       </c>
@@ -3808,7 +3859,7 @@
         <v>85</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>58</v>
@@ -3835,7 +3886,7 @@
         <v>333</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X13" s="15" t="s">
         <v>300</v>
@@ -3844,7 +3895,7 @@
         <v>300</v>
       </c>
       <c r="BC13" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="BD13" s="15" t="s">
         <v>371</v>
@@ -3859,7 +3910,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:99" ht="224" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:99" ht="224">
       <c r="A14" s="12" t="s">
         <v>58</v>
       </c>
@@ -3867,7 +3918,7 @@
         <v>98</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>352</v>
@@ -3894,7 +3945,7 @@
         <v>43775</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="M14" s="15" t="s">
         <v>118</v>
@@ -3909,7 +3960,7 @@
         <v>351</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="X14" s="15" t="s">
         <v>300</v>
@@ -3954,7 +4005,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:99" ht="154" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:99" ht="154">
       <c r="A15" s="12" t="s">
         <v>58</v>
       </c>
@@ -3962,7 +4013,7 @@
         <v>90</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>317</v>
@@ -3974,7 +4025,7 @@
         <v>91</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I15" s="15" t="s">
         <v>55</v>
@@ -3995,13 +4046,13 @@
         <v>92</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="P15" s="20" t="s">
         <v>333</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="R15" s="15" t="s">
         <v>306</v>
@@ -4025,7 +4076,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:99" ht="70" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:99" ht="70">
       <c r="A16" s="12" t="s">
         <v>55</v>
       </c>
@@ -4033,7 +4084,7 @@
         <v>98</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>58</v>
@@ -4067,10 +4118,10 @@
       </c>
       <c r="P16" s="18"/>
       <c r="Q16" s="4" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
     </row>
-    <row r="17" spans="1:99" ht="112" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:99" ht="112">
       <c r="A17" s="12" t="s">
         <v>55</v>
       </c>
@@ -4078,7 +4129,7 @@
         <v>98</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>58</v>
@@ -4112,13 +4163,13 @@
         <v>156</v>
       </c>
       <c r="P17" s="18" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
     </row>
-    <row r="18" spans="1:99" ht="56" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:99" ht="56">
       <c r="A18" s="12" t="s">
         <v>55</v>
       </c>
@@ -4126,7 +4177,7 @@
         <v>89</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>58</v>
@@ -4160,10 +4211,10 @@
       </c>
       <c r="P18" s="18"/>
       <c r="Q18" s="4" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
     </row>
-    <row r="19" spans="1:99" ht="224" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:99" ht="224">
       <c r="A19" s="12" t="s">
         <v>58</v>
       </c>
@@ -4171,7 +4222,7 @@
         <v>124</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>58</v>
@@ -4198,20 +4249,20 @@
         <v>127</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="P19" s="18"/>
       <c r="Q19" s="4"/>
     </row>
-    <row r="20" spans="1:99" ht="224" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:99" ht="224">
       <c r="A20" s="12" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>124</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>58</v>
@@ -4238,13 +4289,13 @@
         <v>127</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="P20" s="20" t="s">
         <v>333</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="X20" s="15" t="s">
         <v>300</v>
@@ -4265,21 +4316,21 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:99" ht="224" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:99" ht="224">
       <c r="A21" s="12" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>124</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>58</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="I21" s="15" t="s">
         <v>55</v>
@@ -4300,13 +4351,13 @@
         <v>127</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="P21" s="20" t="s">
         <v>333</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="X21" s="15" t="s">
         <v>300</v>
@@ -4327,7 +4378,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:99" ht="238" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:99" ht="238">
       <c r="A22" s="12" t="s">
         <v>58</v>
       </c>
@@ -4335,7 +4386,7 @@
         <v>98</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>317</v>
@@ -4374,7 +4425,7 @@
         <v>333</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="X22" s="15" t="s">
         <v>300</v>
@@ -4389,7 +4440,7 @@
         <v>300</v>
       </c>
       <c r="BC22" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="BD22" s="15" t="s">
         <v>371</v>
@@ -4407,7 +4458,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:99" ht="112" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:99" ht="112">
       <c r="A23" s="12" t="s">
         <v>58</v>
       </c>
@@ -4415,7 +4466,7 @@
         <v>90</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>58</v>
@@ -4424,10 +4475,10 @@
         <v>323</v>
       </c>
       <c r="G23" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="H23" s="15" t="s">
         <v>392</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>393</v>
       </c>
       <c r="I23" s="15" t="s">
         <v>55</v>
@@ -4451,10 +4502,10 @@
         <v>331</v>
       </c>
       <c r="P23" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q23" s="4" t="s">
         <v>415</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>416</v>
       </c>
       <c r="R23" s="15" t="s">
         <v>306</v>
@@ -4505,7 +4556,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:99" ht="238" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:99" ht="238">
       <c r="A24" s="12" t="s">
         <v>58</v>
       </c>
@@ -4513,7 +4564,7 @@
         <v>98</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>317</v>
@@ -4549,10 +4600,10 @@
         <v>357</v>
       </c>
       <c r="P24" s="18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="X24" s="15" t="s">
         <v>300</v>
@@ -4585,7 +4636,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:99" ht="266" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:99" ht="266">
       <c r="A25" s="5" t="s">
         <v>58</v>
       </c>
@@ -4628,10 +4679,10 @@
         <v>360</v>
       </c>
       <c r="P25" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q25" s="25" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="R25" s="15" t="s">
         <v>306</v>
@@ -4701,13 +4752,13 @@
       <c r="BA25" s="8"/>
       <c r="BB25" s="8"/>
       <c r="BC25" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="BD25" s="8" t="s">
         <v>371</v>
       </c>
       <c r="BE25" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="BF25" s="8"/>
       <c r="BG25" s="8"/>
@@ -4772,7 +4823,7 @@
       <c r="CT25" s="8"/>
       <c r="CU25" s="8"/>
     </row>
-    <row r="26" spans="1:99" ht="318" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:99" ht="318" customHeight="1">
       <c r="A26" s="12" t="s">
         <v>58</v>
       </c>
@@ -4780,10 +4831,10 @@
         <v>89</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>58</v>
@@ -4811,13 +4862,13 @@
         <v>359</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="R26" s="15" t="s">
         <v>306</v>
@@ -4865,25 +4916,25 @@
         <v>307</v>
       </c>
       <c r="AR26" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AU26" s="15" t="s">
         <v>307</v>
       </c>
       <c r="AV26" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AY26" s="15" t="s">
         <v>300</v>
       </c>
       <c r="BC26" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="BD26" s="8" t="s">
         <v>371</v>
       </c>
       <c r="BE26" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="BH26" s="8">
         <v>24</v>
@@ -4904,7 +4955,7 @@
         <v>307</v>
       </c>
       <c r="BQ26" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BT26" s="15" t="s">
         <v>300</v>
@@ -4913,7 +4964,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:99" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:99" ht="318" customHeight="1">
       <c r="A27" s="12" t="s">
         <v>58</v>
       </c>
@@ -4921,185 +4972,107 @@
         <v>89</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>449</v>
+        <v>499</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="15" t="s">
         <v>375</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>376</v>
       </c>
       <c r="K27" s="16">
         <v>44007</v>
       </c>
       <c r="L27" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="M27" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="M27" s="15" t="s">
+      <c r="N27" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="N27" s="15" t="s">
+      <c r="O27" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="O27" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="P27" s="18" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="R27" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="S27" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="U27" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="X27" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y27" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="Z27" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="AB27" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AC27" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="AE27" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="AH27" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="AI27" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="AJ27" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="AP27" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AQ27" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AR27" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="AU27" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AV27" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="AY27" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="BC27" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="BD27" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="BE27" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG27" s="15">
-        <v>5</v>
-      </c>
-      <c r="BK27" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="BL27" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="BM27" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="BP27" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="BQ27" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="BT27" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="BX27" s="15" t="s">
-        <v>300</v>
-      </c>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="4"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="BD27" s="8"/>
+      <c r="BE27" s="8"/>
+      <c r="BH27" s="8"/>
     </row>
-    <row r="28" spans="1:99" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:99" ht="407" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>424</v>
+        <v>422</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="14" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K28" s="16">
         <v>44007</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>486</v>
+        <v>376</v>
       </c>
       <c r="M28" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="N28" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="N28" s="15" t="s">
+      <c r="O28" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="O28" s="15" t="s">
+      <c r="P28" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="R28" s="15" t="s">
         <v>380</v>
-      </c>
-      <c r="P28" s="18" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="R28" s="15" t="s">
-        <v>381</v>
       </c>
       <c r="S28" s="15" t="s">
         <v>300</v>
@@ -5114,13 +5087,13 @@
         <v>307</v>
       </c>
       <c r="Z28" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AB28" s="15" t="s">
         <v>307</v>
       </c>
       <c r="AC28" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AE28" s="15" t="s">
         <v>300</v>
@@ -5141,19 +5114,19 @@
         <v>307</v>
       </c>
       <c r="AR28" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AU28" s="15" t="s">
         <v>307</v>
       </c>
       <c r="AV28" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AY28" s="15" t="s">
         <v>300</v>
       </c>
       <c r="BC28" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="BD28" s="15" t="s">
         <v>371</v>
@@ -5177,82 +5150,67 @@
         <v>307</v>
       </c>
       <c r="BQ28" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BT28" s="15" t="s">
         <v>300</v>
       </c>
       <c r="BX28" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="BY28" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="BZ28" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="CD28" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="CG28" s="27">
-        <v>55</v>
-      </c>
-      <c r="CH28" s="27">
-        <v>2.1</v>
-      </c>
-      <c r="CI28" s="27">
-        <v>55</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:99" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:99" ht="407" customHeight="1">
       <c r="A29" s="12" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>450</v>
+        <v>498</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>427</v>
+        <v>422</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="14" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I29" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K29" s="16">
         <v>44007</v>
       </c>
       <c r="L29" s="17" t="s">
-        <v>486</v>
+        <v>376</v>
       </c>
       <c r="M29" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="N29" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="N29" s="15" t="s">
+      <c r="O29" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="O29" s="15" t="s">
+      <c r="P29" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="R29" s="15" t="s">
         <v>380</v>
-      </c>
-      <c r="P29" s="18" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="R29" s="15" t="s">
-        <v>381</v>
       </c>
       <c r="S29" s="15" t="s">
         <v>300</v>
@@ -5261,10 +5219,25 @@
         <v>299</v>
       </c>
       <c r="X29" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y29" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z29" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB29" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC29" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE29" s="15" t="s">
         <v>300</v>
       </c>
       <c r="AH29" s="15" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="AI29" s="15" t="s">
         <v>371</v>
@@ -5279,19 +5252,19 @@
         <v>307</v>
       </c>
       <c r="AR29" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AU29" s="15" t="s">
         <v>307</v>
       </c>
       <c r="AV29" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AY29" s="15" t="s">
         <v>300</v>
       </c>
       <c r="BC29" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="BD29" s="15" t="s">
         <v>371</v>
@@ -5303,88 +5276,76 @@
         <v>5</v>
       </c>
       <c r="BK29" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="BL29" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="BM29" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="BP29" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="BQ29" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="BT29" s="15" t="s">
         <v>300</v>
       </c>
       <c r="BX29" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="BY29" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="BZ29" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="CA29" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="CC29" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="CD29" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="CF29" s="27">
-        <v>50</v>
-      </c>
-      <c r="CJ29" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="CK29" s="15">
-        <v>50</v>
-      </c>
-      <c r="CP29" s="15" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:99" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:99" ht="407" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>467</v>
+        <v>423</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="14" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I30" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K30" s="16">
         <v>44007</v>
       </c>
       <c r="L30" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="M30" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="M30" s="15" t="s">
+      <c r="N30" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="N30" s="15" t="s">
+      <c r="O30" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="O30" s="15" t="s">
+      <c r="P30" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="R30" s="15" t="s">
         <v>380</v>
-      </c>
-      <c r="P30" s="18" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="R30" s="15" t="s">
-        <v>381</v>
       </c>
       <c r="S30" s="15" t="s">
         <v>300</v>
@@ -5393,6 +5354,21 @@
         <v>299</v>
       </c>
       <c r="X30" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y30" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z30" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB30" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC30" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE30" s="15" t="s">
         <v>300</v>
       </c>
       <c r="AH30" s="15" t="s">
@@ -5411,19 +5387,19 @@
         <v>307</v>
       </c>
       <c r="AR30" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AU30" s="15" t="s">
         <v>307</v>
       </c>
       <c r="AV30" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AY30" s="15" t="s">
         <v>300</v>
       </c>
       <c r="BC30" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="BD30" s="15" t="s">
         <v>371</v>
@@ -5435,89 +5411,94 @@
         <v>5</v>
       </c>
       <c r="BK30" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="BL30" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="BM30" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="BP30" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="BQ30" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="BT30" s="15" t="s">
         <v>300</v>
       </c>
       <c r="BX30" s="15" t="s">
         <v>307</v>
       </c>
       <c r="BY30" s="15" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="BZ30" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="CA30" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="CD30" s="29" t="s">
-        <v>430</v>
-      </c>
-      <c r="CF30" s="27">
-        <v>10</v>
-      </c>
-      <c r="CJ30" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="CK30" s="8"/>
-      <c r="CL30" s="15">
-        <v>20</v>
-      </c>
-      <c r="CP30" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="CR30" s="15">
-        <v>30</v>
+        <v>319</v>
+      </c>
+      <c r="CD30" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="CG30" s="27">
+        <v>55</v>
+      </c>
+      <c r="CH30" s="27">
+        <v>2.1</v>
+      </c>
+      <c r="CI30" s="27">
+        <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:99" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:99" ht="407" customHeight="1">
       <c r="A31" s="12" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>474</v>
+        <v>423</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="14" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I31" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K31" s="16">
         <v>44007</v>
       </c>
       <c r="L31" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="M31" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="M31" s="15" t="s">
+      <c r="N31" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="N31" s="15" t="s">
+      <c r="O31" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="O31" s="15" t="s">
+      <c r="P31" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="R31" s="15" t="s">
         <v>380</v>
-      </c>
-      <c r="P31" s="18" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="R31" s="15" t="s">
-        <v>381</v>
       </c>
       <c r="S31" s="15" t="s">
         <v>300</v>
@@ -5526,6 +5507,21 @@
         <v>299</v>
       </c>
       <c r="X31" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y31" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z31" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB31" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC31" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE31" s="15" t="s">
         <v>300</v>
       </c>
       <c r="AH31" s="15" t="s">
@@ -5544,19 +5540,19 @@
         <v>307</v>
       </c>
       <c r="AR31" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AU31" s="15" t="s">
         <v>307</v>
       </c>
       <c r="AV31" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AY31" s="15" t="s">
         <v>300</v>
       </c>
       <c r="BC31" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="BD31" s="15" t="s">
         <v>371</v>
@@ -5568,81 +5564,229 @@
         <v>5</v>
       </c>
       <c r="BK31" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="BL31" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="BM31" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="BP31" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="BQ31" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="BT31" s="15" t="s">
         <v>300</v>
       </c>
       <c r="BX31" s="15" t="s">
-        <v>300</v>
+        <v>307</v>
+      </c>
+      <c r="BY31" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="BZ31" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="CD31" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="CG31" s="27">
+        <v>55</v>
+      </c>
+      <c r="CH31" s="27">
+        <v>2.1</v>
+      </c>
+      <c r="CI31" s="27">
+        <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:99" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:99" ht="407" customHeight="1">
       <c r="A32" s="12" t="s">
-        <v>58</v>
+        <v>453</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>98</v>
+        <v>89</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>476</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>475</v>
+        <v>424</v>
       </c>
       <c r="F32" s="19"/>
-      <c r="G32" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="J32" s="8" t="s">
+      <c r="G32" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="K32" s="16">
+        <v>44007</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="P32" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="R32" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="S32" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="U32" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="X32" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AH32" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="AI32" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="AJ32" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="AP32" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AQ32" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR32" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="AU32" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AV32" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="AY32" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="BC32" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="BD32" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="BE32" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG32" s="15">
+        <v>5</v>
+      </c>
+      <c r="BK32" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="BX32" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="BY32" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="BZ32" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="CA32" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CC32" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="CD32" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="CF32" s="27">
+        <v>50</v>
+      </c>
+      <c r="CJ32" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="CK32" s="15">
+        <v>50</v>
+      </c>
+      <c r="CP32" s="15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:99" ht="407" customHeight="1">
+      <c r="A33" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="K32" s="23">
-        <v>43890</v>
-      </c>
-      <c r="L32" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="O32" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="P32" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q32" s="25" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="33" spans="1:99" ht="42" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
-        <v>58</v>
-      </c>
       <c r="B33" s="13" t="s">
-        <v>83</v>
+        <v>89</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>477</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>475</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="L33" s="26"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="4"/>
+        <v>424</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="K33" s="16">
+        <v>44007</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="O33" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="P33" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="R33" s="15" t="s">
+        <v>380</v>
+      </c>
       <c r="S33" s="15" t="s">
         <v>300</v>
-      </c>
-      <c r="T33" s="15">
-        <v>20</v>
       </c>
       <c r="U33" s="15" t="s">
         <v>299</v>
@@ -5650,119 +5794,53 @@
       <c r="X33" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="Y33" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="AA33" s="15">
-        <v>5</v>
-      </c>
-      <c r="AB33" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD33" s="15">
-        <v>5</v>
-      </c>
-      <c r="AE33" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="AG33" s="15">
-        <v>5</v>
+      <c r="AH33" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI33" s="15" t="s">
+        <v>371</v>
       </c>
       <c r="AJ33" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="AL33" s="15">
-        <v>5</v>
-      </c>
-      <c r="AM33" s="15">
-        <v>24</v>
-      </c>
-      <c r="AN33" s="15">
-        <v>100</v>
-      </c>
-      <c r="AO33" s="15">
-        <v>400</v>
-      </c>
       <c r="AP33" s="15" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AQ33" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="AS33" s="15">
-        <v>5</v>
-      </c>
-      <c r="AT33" s="15">
-        <v>5</v>
+        <v>307</v>
+      </c>
+      <c r="AR33" s="15" t="s">
+        <v>381</v>
       </c>
       <c r="AU33" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="AW33" s="15">
-        <v>5</v>
-      </c>
-      <c r="AX33" s="15">
-        <v>5</v>
+        <v>307</v>
+      </c>
+      <c r="AV33" s="15" t="s">
+        <v>381</v>
       </c>
       <c r="AY33" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="BA33" s="15">
-        <v>5</v>
-      </c>
-      <c r="BB33" s="15">
-        <v>5</v>
+      <c r="BC33" s="15" t="s">
+        <v>394</v>
       </c>
       <c r="BD33" s="15" t="s">
-        <v>299</v>
+        <v>371</v>
+      </c>
+      <c r="BE33" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="BG33" s="15">
         <v>5</v>
       </c>
-      <c r="BH33" s="15">
-        <v>24</v>
-      </c>
-      <c r="BI33" s="15">
-        <v>100</v>
-      </c>
-      <c r="BJ33" s="15">
-        <v>400</v>
-      </c>
       <c r="BK33" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="BL33" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="BN33" s="15">
-        <v>5</v>
-      </c>
-      <c r="BO33" s="15">
-        <v>5</v>
-      </c>
-      <c r="BP33" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="BR33" s="15">
-        <v>5</v>
-      </c>
-      <c r="BS33" s="15">
-        <v>5</v>
-      </c>
-      <c r="BT33" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="BV33" s="15">
-        <v>5</v>
-      </c>
-      <c r="BW33" s="15">
-        <v>5</v>
-      </c>
       <c r="BX33" s="15" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BY33" s="15" t="s">
-        <v>61</v>
+        <v>394</v>
       </c>
       <c r="BZ33" s="15" t="s">
         <v>301</v>
@@ -5770,70 +5848,792 @@
       <c r="CA33" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="CB33" s="15">
-        <v>0.7</v>
-      </c>
       <c r="CC33" s="15" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="CD33" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="CE33" s="15">
+      <c r="CF33" s="27">
         <v>50</v>
-      </c>
-      <c r="CF33" s="27">
-        <v>5</v>
-      </c>
-      <c r="CG33" s="27">
-        <v>5</v>
-      </c>
-      <c r="CH33" s="27">
-        <v>5</v>
-      </c>
-      <c r="CI33" s="27">
-        <v>5</v>
       </c>
       <c r="CJ33" s="15" t="s">
         <v>304</v>
       </c>
       <c r="CK33" s="15">
-        <v>5</v>
-      </c>
-      <c r="CL33" s="15">
-        <v>5</v>
-      </c>
-      <c r="CM33" s="27">
-        <v>5</v>
-      </c>
-      <c r="CN33" s="27">
-        <v>5</v>
-      </c>
-      <c r="CO33" s="27">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="CP33" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="CQ33" s="15">
+    </row>
+    <row r="34" spans="1:99" ht="407" customHeight="1">
+      <c r="A34" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>473</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="K34" s="16">
+        <v>44007</v>
+      </c>
+      <c r="L34" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="N34" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="O34" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="P34" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="R34" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="S34" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="U34" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="X34" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AH34" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="AI34" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="AJ34" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="AP34" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AQ34" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR34" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="AU34" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AV34" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="AY34" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="BC34" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="BD34" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="BE34" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG34" s="15">
         <v>5</v>
       </c>
-      <c r="CR33" s="15">
+      <c r="BK34" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="BX34" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="BY34" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="BZ34" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="CA34" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="CD34" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="CF34" s="27">
+        <v>10</v>
+      </c>
+      <c r="CJ34" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="CK34" s="8"/>
+      <c r="CL34" s="15">
+        <v>20</v>
+      </c>
+      <c r="CP34" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="CR34" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:99" ht="407" customHeight="1">
+      <c r="A35" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="K35" s="16">
+        <v>44007</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="M35" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="N35" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="O35" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="P35" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="R35" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="S35" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="U35" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="X35" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AH35" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI35" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="AJ35" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="AP35" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AQ35" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR35" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="AU35" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AV35" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="AY35" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="BC35" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="BD35" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="BE35" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG35" s="15">
         <v>5</v>
       </c>
-      <c r="CS33" s="27">
+      <c r="BK35" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="BX35" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="BY35" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="BZ35" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="CA35" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="CD35" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="CF35" s="27">
+        <v>10</v>
+      </c>
+      <c r="CJ35" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="CK35" s="8"/>
+      <c r="CL35" s="15">
+        <v>20</v>
+      </c>
+      <c r="CP35" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="CR35" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:99" ht="407" customHeight="1">
+      <c r="A36" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="G36" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="K36" s="16">
+        <v>44007</v>
+      </c>
+      <c r="L36" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="M36" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="N36" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="O36" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="P36" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="R36" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="S36" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="U36" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="X36" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AH36" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="AI36" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="AJ36" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="AP36" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AQ36" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR36" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="AU36" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AV36" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="AY36" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="BC36" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="BD36" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="BE36" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG36" s="15">
         <v>5</v>
       </c>
-      <c r="CT33" s="27">
+      <c r="BK36" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="BX36" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="BY36" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="BZ36" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="CD36" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="37" spans="1:99" ht="407" customHeight="1">
+      <c r="A37" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>470</v>
+      </c>
+      <c r="F37" s="19"/>
+      <c r="G37" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="K37" s="16">
+        <v>44007</v>
+      </c>
+      <c r="L37" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="M37" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="N37" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="O37" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="P37" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="R37" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="S37" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="U37" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="X37" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AH37" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI37" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="AJ37" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="AP37" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AQ37" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR37" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="AU37" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AV37" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="AY37" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="BC37" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="BD37" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="BE37" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG37" s="15">
         <v>5</v>
       </c>
-      <c r="CU33" s="27">
+      <c r="BK37" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="BX37" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="BY37" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="BZ37" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="CD37" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="38" spans="1:99" ht="407" customHeight="1">
+      <c r="A38" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>497</v>
+      </c>
+      <c r="F38" s="19"/>
+      <c r="G38" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="K38" s="23">
+        <v>43890</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="O38" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="P38" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q38" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="X38" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AP38" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="BK38" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="BX38" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="BY38" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="BZ38" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="CD38" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="39" spans="1:99" ht="42">
+      <c r="A39" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L39" s="26"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="4"/>
+      <c r="S39" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="T39" s="15">
+        <v>20</v>
+      </c>
+      <c r="U39" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="X39" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y39" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA39" s="15">
+        <v>5</v>
+      </c>
+      <c r="AB39" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD39" s="15">
+        <v>5</v>
+      </c>
+      <c r="AE39" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AG39" s="15">
+        <v>5</v>
+      </c>
+      <c r="AJ39" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="AL39" s="15">
+        <v>5</v>
+      </c>
+      <c r="AM39" s="15">
+        <v>24</v>
+      </c>
+      <c r="AN39" s="15">
+        <v>100</v>
+      </c>
+      <c r="AO39" s="15">
+        <v>400</v>
+      </c>
+      <c r="AP39" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AQ39" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AS39" s="15">
+        <v>5</v>
+      </c>
+      <c r="AT39" s="15">
+        <v>5</v>
+      </c>
+      <c r="AU39" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AW39" s="15">
+        <v>5</v>
+      </c>
+      <c r="AX39" s="15">
+        <v>5</v>
+      </c>
+      <c r="AY39" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="BA39" s="15">
+        <v>5</v>
+      </c>
+      <c r="BB39" s="15">
+        <v>5</v>
+      </c>
+      <c r="BD39" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="BG39" s="15">
+        <v>5</v>
+      </c>
+      <c r="BH39" s="15">
+        <v>24</v>
+      </c>
+      <c r="BI39" s="15">
+        <v>100</v>
+      </c>
+      <c r="BJ39" s="15">
+        <v>400</v>
+      </c>
+      <c r="BK39" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="BL39" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="BN39" s="15">
+        <v>5</v>
+      </c>
+      <c r="BO39" s="15">
+        <v>5</v>
+      </c>
+      <c r="BP39" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="BR39" s="15">
+        <v>5</v>
+      </c>
+      <c r="BS39" s="15">
+        <v>5</v>
+      </c>
+      <c r="BT39" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="BV39" s="15">
+        <v>5</v>
+      </c>
+      <c r="BW39" s="15">
+        <v>5</v>
+      </c>
+      <c r="BX39" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="BY39" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="BZ39" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="CA39" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CB39" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="CC39" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD39" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="CE39" s="15">
+        <v>50</v>
+      </c>
+      <c r="CF39" s="27">
+        <v>5</v>
+      </c>
+      <c r="CG39" s="27">
+        <v>5</v>
+      </c>
+      <c r="CH39" s="27">
+        <v>5</v>
+      </c>
+      <c r="CI39" s="27">
+        <v>5</v>
+      </c>
+      <c r="CJ39" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="CK39" s="15">
+        <v>5</v>
+      </c>
+      <c r="CL39" s="15">
+        <v>5</v>
+      </c>
+      <c r="CM39" s="27">
+        <v>5</v>
+      </c>
+      <c r="CN39" s="27">
+        <v>5</v>
+      </c>
+      <c r="CO39" s="27">
+        <v>5</v>
+      </c>
+      <c r="CP39" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="CQ39" s="15">
+        <v>5</v>
+      </c>
+      <c r="CR39" s="15">
+        <v>5</v>
+      </c>
+      <c r="CS39" s="27">
+        <v>5</v>
+      </c>
+      <c r="CT39" s="27">
+        <v>5</v>
+      </c>
+      <c r="CU39" s="27">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:CR33">
-    <sortCondition ref="K2:K33"/>
+  <sortState ref="A2:CR39">
+    <sortCondition ref="K2:K39"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5849,7 +6649,7 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="13.1640625" style="1" customWidth="1"/>
@@ -5865,7 +6665,7 @@
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:58" ht="51">
       <c r="A1" s="1" t="s">
         <v>141</v>
       </c>
@@ -6041,7 +6841,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:58" ht="308" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:58" ht="308" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
@@ -6115,7 +6915,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:58" ht="153" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:58" ht="153">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -6177,7 +6977,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:58" ht="272" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:58" ht="272">
       <c r="A4" s="1" t="s">
         <v>55</v>
       </c>
@@ -6242,7 +7042,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:58" ht="221" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:58" ht="221">
       <c r="A5" s="1" t="s">
         <v>55</v>
       </c>
@@ -6301,7 +7101,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:58" ht="136" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:58" ht="136">
       <c r="A6" s="1" t="s">
         <v>55</v>
       </c>
@@ -6342,7 +7142,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:58" ht="187" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:58" ht="187">
       <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
@@ -6413,7 +7213,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:58" ht="187" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:58" ht="187">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
@@ -6484,7 +7284,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:58" ht="102" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:58" ht="102">
       <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
@@ -6528,7 +7328,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:58" ht="102" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:58" ht="102">
       <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
@@ -6572,7 +7372,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:58" ht="238" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:58" ht="238">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
@@ -6634,7 +7434,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:58" ht="306" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:58" ht="306">
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
@@ -6687,7 +7487,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:58" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:58" ht="51">
       <c r="D13" s="1" t="s">
         <v>83</v>
       </c>

--- a/app/data/wto_proposal_settings_master.xlsx
+++ b/app/data/wto_proposal_settings_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kat/GitHub/SubsidyExplorer/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A9FF8B-6C44-764D-9E9F-5E0F0775FE6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71AAB11-335D-EE47-90FF-DE4CC23E9AC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25220" windowHeight="15220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="506">
   <si>
     <t>proposal</t>
   </si>
@@ -380,9 +380,6 @@
     <t>Proposed draft text on a prohibition of subsidies contributing to overcapacity and overfishing</t>
   </si>
   <si>
-    <t>This unofficial room document was circulated at the request of the Delegations of the European Union, the Republic of Korea, and the Separate Customs Territory of Taiwan, Penghu, Kinmen and Matsu on November 6, 2019.</t>
-  </si>
-  <si>
     <t>TN/RL/GEN/201/Rev.1</t>
   </si>
   <si>
@@ -491,9 +488,6 @@
     <t xml:space="preserve">Subsidies provided by developing country Members for fishing within their own EEZs shall be allowed and this prohibition shall not apply to LDC Members. </t>
   </si>
   <si>
-    <t xml:space="preserve">This communication advocates for prohibiting subsidies to vessels that are subsidized by a WTO Member, but do not fly the flag of that Member. An underlying assumption of this tool to make modeling possible is that the subsidizing state of a vessel is its flag state. Therefore, this communication is not modeled, but presented here as a possible discipline. </t>
-  </si>
-  <si>
     <t xml:space="preserve">This communication presents a draft text for a prohibition on subsidies for fishing on overfished stocks. It is very similar to some of the draft text provided in RD/TN/RL/119, and advocates for a prohibition on subsidies for fishing on stocks recognized as overfished by the Member under whose jurisdiction the fishing is taking place or by the relevant RFMO/A. Such subsidies shall be prohibited if they are found to be having a negative effect on the stock, defined as any of the following: 1) a lack of recovery of the fishery; 2) continuation of depletion of fish stock levels; 3) continuation of excess levels of fishing. </t>
   </si>
   <si>
@@ -740,9 +734,6 @@
     <t>ACP - IUU</t>
   </si>
   <si>
-    <t xml:space="preserve">1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal Member. The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings 3) No proportionality or the duration of prohibition is considered. </t>
-  </si>
-  <si>
     <t>Latin 6 and others - IUU</t>
   </si>
   <si>
@@ -1016,9 +1007,6 @@
     <t>Elimination of subsidies that contribute to illegal, unreported and unregulated (IUU) fishing - Facilitator's working paper</t>
   </si>
   <si>
-    <t>This document builds on ACP text proposal TN/RL/GEN/192, as reflected in TN/RL/W/274/Rev.6. It specifies that IUU determinations could be made by coastal Member states for activities in waters under their jurisdictions with respect to a foreign vessel or operator, or by RFMO/As in areas (and for species) under their juridscitions. Members are encouraged to refrain from invoking the discipline based on minor infringements.</t>
-  </si>
-  <si>
     <t xml:space="preserve">This document advocates for a prohibition on subsidies to vessels or operators engaged in IUU fishing. It specifies that IUU determinations could be made by the flag or subsidizing Member states, by RFMO/As in accordance with their rules and procedures and in conformity with international law, or by coastal Member states for activities in waters under their jurisdictions provided that such a determination is made fairly. </t>
   </si>
   <si>
@@ -1061,36 +1049,18 @@
     <t xml:space="preserve">This communication presents a draft text for a prohibition on subsidies for fishing on overfished stocks. It builds on TN/RL/GEN/192, as reflected in TN/RL/W/274/Rev.6, and advocates for a prohibition on subsidies to vessels fishing outside of a Member's territorial sea on overfished stocks. It defines overfished stocks as those recognized as such by the Member in whose jurisdiction the fishing is taking place, or by the relevant RFMO/A. It also provides a list of allowed subsidies. </t>
   </si>
   <si>
-    <t xml:space="preserve">1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) It is not possible to simulate whether Members could demonstrate that they have policies in place that would negate this prohibition. </t>
-  </si>
-  <si>
-    <t>1) We assume that the following types of subsidies as defined by Sumaila et al. 2019 are prohibited: i) boat construction and renovation, ii) fuel. 2) This prohibition is assumed to only apply to developed and developing country Members</t>
-  </si>
-  <si>
-    <t>1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Subsidies for fishing within a Member's territorial sea shall be allowed.</t>
-  </si>
-  <si>
     <t xml:space="preserve">This communication advocates for prohibiting subsidies in disputed waters, unless all parties have jointly notified the WTO of any agreement to subsidize. Members should attempt to reach an agreement through bilateral consultations before going to Dispute Settlement. </t>
   </si>
   <si>
     <t>This communication advocates for a general prohibition of subsidies that contribute to overcapacity and overfishing. However, it allows for subsidies if the subsidising Member can demonstrate that the stock(s) targeted by the subsidy recipient are managed on the based on the best publically available scientific evidence taking into account the following elements: 1) scientific stock assessments; 2) legal institutions for resource management (i.e. vessel registration and fishery permits); 3) specific conservation and management measures for fish stocks (i.e. input, output, and technical controls taking account of fishery status); 4) monitoring, control and surveillance measures. It also provides a list of subsidies that shall be deemed not to be prohibited. Includes a reference to the precautionary principle to be included in a preamble. Prohibition should not apply to subsistence fishing.</t>
   </si>
   <si>
-    <t xml:space="preserve">A transition period shall be allowed for developing country Members and LDCs. We assume these transition periods to be 4 and 6 years respectively. </t>
-  </si>
-  <si>
     <t>Transition period missing.</t>
   </si>
   <si>
-    <t>Facilitator's text - IUU</t>
-  </si>
-  <si>
     <t xml:space="preserve">Same as Facilitator's text intrepretation. </t>
   </si>
   <si>
-    <t>RD/TN/RL/96 Rev.1</t>
-  </si>
-  <si>
     <t>This unofficial room document was circulated at the request of the Delegation of Jamaica on behalf of the African, Caribbean and Pacific Countries (ACP) Group on February 4, 2020.</t>
   </si>
   <si>
@@ -1160,9 +1130,6 @@
     <t>This communication was circulated at the request of the Chair of the Negotiating Group on Rules on June 25, 2020.</t>
   </si>
   <si>
-    <t>This communication aims to consolidate all existing texts that have been put forth or discussed with regards to a prohibition on subsidies. It was intended to provide a starting point for interactive discussion.</t>
-  </si>
-  <si>
     <t>IUU1, IUU2, IUU3, IUU4, IUU5</t>
   </si>
   <si>
@@ -1170,9 +1137,6 @@
   </si>
   <si>
     <t>RD/TN/RL/126/A1</t>
-  </si>
-  <si>
-    <t>1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text requires that there be a causal negative effect to the stock as a result of the subsidy. This is difficult to establish given existing data on subsidy provisioning and stock status, and is not possible to model, but we have chosen a more conservative reference point in regards to this condition.</t>
   </si>
   <si>
     <t>Is basically the same as the cap. Different structure, tiers and flexibilities. It loks like is all based on global marine capture. There are no values as the de minimis will be the (x) of the average of landed value for 3 years. What should we use for the (x) value? a scale bar as we use in other cases?) Also there is an exception for 12 miles for all developing countries</t>
@@ -1215,9 +1179,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, port, or market Member states. 2) No publically available data exist for most flag and subsidizing Member states, nor for coastal, port, or market Member states. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings 4) No proportionality or the duration of prohibition is considered. </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1258,9 +1219,6 @@
     <t>RD/TN/RL/89/Rev.1, TN/RL/GEN/192, TN/RL/W/274/Rev.6</t>
   </si>
   <si>
-    <t>For IUU: Subsidies granted by developing and LDC Members shall be allowed for small scale fishing: a) within their own territorial waters and b) within their own EEZs and high seas for 7 years. For Overfished: Subsidies granted by developing and LDC Members shall be allowed for fishing a) within their own territorial waters and b) within their own EEZs for 2 years. For OCOF: Subsidies granted by LDCs shall be allowed, and subsidies granted by developing countries shall be allowed for fishing in their territorial seas, or for fishing in their EEZs and high seas unless any of the following conditions are met for three consecutive years: a) GNI per capita is greater than US $5000 (constant 2010 US$), b) they engage in distant water fishing, or c) the contribution from Agriculture, Forestry and Fishing to their national GDP (World Bank) is greater than 10%.</t>
-  </si>
-  <si>
     <t>B1, B2, B3, B4, B5, B6, B7, C1, C2, C3</t>
   </si>
   <si>
@@ -1301,12 +1259,6 @@
   </si>
   <si>
     <t xml:space="preserve">1) We assume each Member's cap is equal to whichever of the three proposed approaches for calculating a cap yields the largest amount. By default, caps based on the first approach are calculated as 55% of each Member's base for capping; caps based on the second approach are calculated as 2% of each Member's estimated landed value (calculated from the FAO Global Marine Capture Production Database, average between 2016-2018); caps based on the third approach are calculated as 55% of the global average subsidies per fisher (capacity-enhancing and ambiguous) multiplied by each Member's most recently reported total number of fishers (from the FAO Yearbook of Fishery and Aquaculture Statistics 2017). 2) We assume that provision of the following types of subsidies as defined by Sumaila et al. 2019 are allowed to continue irrespective of a Member's total cap: i) subsidies for fishing access agreements; ii) fisher assistance programs; iii) vessel buyback programs; iv) rural fishers' community development programs. Therefore each Member's base for capping is represented by the total amount of all other capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) We assume that each Member's base for capping is represented by the total amount of capacity-enhancing and ambiguos subsidies estimated by Sumaila et al. 2019. 2) Members are sorted into three tiers based on a three-year average of FAO marine capture production (2016-2018). Members accounting for 0.7% or more of global marine capture production are in "Tier 1"; Members accounting for 0.05% or more, but less than 0.7%, of global marine capture production are in "Tier 2"; Members accounting for less than 0.05% of global marine capture production are in "Tier 3". 3) This proposal advocates for allowing both Tier 1 and Tier 2 Members to negotiate their own subsidy caps or to accept a default cap of $50 million annually. For the purposes of modeling, we assume that Tier 1 Members receive a subsidy cap equal to 50% of their base for capping; Tier 2 Members receive the default cap of $50 million; Tier 3 Members do not receive a cap. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels satisfying the three following characteristics: i) total length of more than 24 meters; ii) gross tonnage of more than 100 GT; iii) engine power of more than 130 kW. 2) In general, the tool does not include many vessels with fishing gears that are not hauled by a motor driven equipment, thus this characteristic is assumed to be satisfied. 3) The other 2 conditions are not considered as it is difficult to determine which vessels have onboard freezing equipment, or the characteristics of a vessel's owning or operating company. </t>
   </si>
   <si>
     <r>
@@ -1323,33 +1275,18 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) It is difficult to identify subsidies for subsistence fishing, so we approximate this condition by assuming that subsidies for fishing within a Member's territorial waters are allowed.       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag and subsidizing Member states, nor for coastal Member states. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. </t>
-  </si>
-  <si>
     <t>---</t>
   </si>
   <si>
     <t>Developing countries not engaged in large-scale industrial distant water fishing are entitled to a transition period of 3 years. LDCs and SVEs are entitled to a transition period of 6 years.</t>
   </si>
   <si>
-    <t xml:space="preserve">1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag and subsidizing Members, nor for coastal Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) We assume that the following types of subsidies as defined by Sumaila et al. 2019 are prohibited: i) boat construction and renovation, ii) fuel. 2) This prohibition is assumed to only apply to Members responsible for more than 1% of global marine capture production (calculcated as the annual average between 2016-2018). </t>
-  </si>
-  <si>
     <t>This prohibition shall not apply to LDC Members.</t>
   </si>
   <si>
     <t>LENGTH, TONNAGE</t>
   </si>
   <si>
-    <t>For Overfished: Subsidies for fishing in a Member's territorial waters are excluded. For OFOC: This prohibition shall not apply to LDCs. Additionally, a transition period of 5 years shall be allowed for Overfished and OFOC disciplines for both developing country and LDC Members.</t>
-  </si>
-  <si>
     <t>Transition period missing. Two separate delays: 1) developing countries not engaged in large scale industrial fishing; 2) LDCs and SVEs)</t>
   </si>
   <si>
@@ -1428,24 +1365,9 @@
     <t>Mechanism for Reductions and Limits of Fisheries Subsidies</t>
   </si>
   <si>
-    <t>his unofficial room document was circulated at the request of the Delegation of Brazil on February 28, 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) We assume that provision of the following types of subsidies as defined by Sumaila et al. 2019 are allowed to continue irrespective of a Member's total de minimus limit: i) fisher assistance programs; ii) rural fishers' community development programs.subsidies (both programs relevant to fishing in territorial waters). Therefore each Member's base subsidy level is represented by the total amount of all other capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. 2) we estimate the landed value of marine capture fisheries from the FAO Global Capture Production Database. 3) We assume the de minimis limit for developed and developing country members belonging to the top 10 marine capture fisheries producers to be 10% of the average total landed value of the Member's marine capture fisheries between 2016-2018. For all other developing country Members, we assume the de minimis limit to be 20% of the average total landed value between 2016-2018. For LDC Members, we assume the de minimis limit to be 30% of the average total landed value between 2016-2018. </t>
-  </si>
-  <si>
     <t xml:space="preserve">1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text places prohibitions on subsidies for fishing outside of the jurisdictions of coastal Members or relevant RFMO/As. Very few areas of the ocean are not under the jurisdiction of a RFMO/A, but it is difficult to determine on a global scale whether vessels are fishing for species governed by those RFMO/As at any given point in time. We therefore assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels spending at least 5% of their total annual effort fishing on the high seas outside of the jurisdictions of coastal Members. We note that this is an ambitious interpretation of this prohibition. </t>
   </si>
   <si>
-    <t>For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal Member. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing on the high seas, and to vessels greater than 24 m in length or with a tonnage greater than 100 GT (we assume industrial fishing to be defined by the characteristics specified by the proposal from Morocco).</t>
-  </si>
-  <si>
-    <t>1) As written, this proposal does specify potential disciplines within each of the three categories, but rather the S&amp;DT that should be allowed for them. 2) To model the possible effects of such a proposal, we therefore use the disciplines proposed in LDC - Full text (excluding any S&amp;DT). Those are as follows: For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal Member. The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings. 3) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing on the high seas, and to vessels greater than 24 m in length or with a tonnage greater than 100 GT (we assume industrial fishing to be defined by the characteristics specified by the proposal from Morocco).</t>
-  </si>
-  <si>
-    <t>For IUU: Subsidies granted by developing and LDC Members shall be allowed for small scale fishing: a) within their own territorial waters. For Overfished: Subsidies granted by developing and LDC Members for fishing within their own territorial sea shall be allowed. For OCOF: Subsidies granted by LDCs shall be allowed, and subsidies granted by developing countries shall be allowed for fishing in their territorial seas, or for fishing in their EEZs and high seas unless any of the following conditions are met for three consecutive years: a) GNI per capita is greater than US $5000 (constant 2010 US$), b) they engage in distant water fishing, or c) the contribution from Agriculture, Forestry and Fishing to their national GDP (World Bank) is greater than 10%.</t>
-  </si>
-  <si>
     <t>This is the real entry for this proposal - others are just for options and text</t>
   </si>
   <si>
@@ -1461,9 +1383,6 @@
     <t>NOT DONE - These are the values for the Chair's text + Brazil formula proposal</t>
   </si>
   <si>
-    <t xml:space="preserve">This communication proposes a quantitative approach of reductions and limits to maritime fisheries subsidies. The baseline of reductions is to be the annual average monetary value of fisheries subsidies (3 prior years). A cumulative ranges (8 ranges: 0-15mn to over 1,2bn) of subsidy in monetary values, where each range corresponds to a specific percentage reduction will be applicable (from 0% to 45% in increments of 5). The total subsidy reduction shall equal the sum of the cuts on each range. </t>
-  </si>
-  <si>
     <t xml:space="preserve">This communication advocates for negotiating Member-specific subsidy caps (expressed in monetary terms). Subsidies in excess of a Member's cap would be prohibited. This cap is intended to be supplementary to any prohibitions on subsidies that support IUU, fishing beyond national jurisdiction, and subsidies for fishing that negatively affect overfished stocks. Members would also commit to maintain fisheries management and conservation measures, and without prejudice of the ASCM. </t>
   </si>
   <si>
@@ -1479,18 +1398,6 @@
     <t xml:space="preserve">No special and differential treatment is condisidered </t>
   </si>
   <si>
-    <t xml:space="preserve">An underlying assumption of this tool to make modeling possible is that the subsidizing state of a vessel is its flag state. Therefore, this communication is not modeled, but presented here as a possible discipline. </t>
-  </si>
-  <si>
-    <t>This working paper does not contain text suggestions to model.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) We assume each Member's baseline to the total magnitude of capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. 2) The formula ranges and percentages of reduction are then applied to all Members. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chair's text - Consolidated text </t>
-  </si>
-  <si>
     <t>EU and others - Overfishing and overcapacity</t>
   </si>
   <si>
@@ -1542,24 +1449,12 @@
     <t>RD/TN/RL/126 | TN/RL/GEN/199 | Relevant Authorities</t>
   </si>
   <si>
-    <t>RD/TN/RL/119 | RD/TN/RL/77/Rev.2</t>
-  </si>
-  <si>
     <t>These are the options for the facilitator's text + less ambitious overfished</t>
   </si>
   <si>
     <t>These are the options for the facilitator's text + more ambitious overfished</t>
   </si>
   <si>
-    <t>RD/TN/RL/119 | RD/TN/RL/79/Rev.1</t>
-  </si>
-  <si>
-    <t>1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the more ambitious interpretation of the two (see New Zealand/Iceland - Overfishing and overcapacity).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the less ambitious interpretation of the two (see Australia - Overfished). </t>
-  </si>
-  <si>
     <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the more ambitious interpretation of the two (see New Zealand/Iceland - Overfishing and overcapacity). For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) 1) We assume that each Member's base for capping is represented by the total amount of capacity-enhancing and ambiguos subsidies estimated by Sumaila et al. 2019. 2) Members are sorted into three tiers based on a three-year average of FAO marine capture production (2016-2018). Members accounting for 0.7% or more of global marine capture production are in "Tier 1"; Members accounting for 0.05% or more, but less than 0.7%, of global marine capture production are in "Tier 2"; Members accounting for less than 0.05% of global marine capture production are in "Tier 3". 3) This proposal advocates for allowing both Tier 1 and Tier 2 Members to negotiate their own subsidy caps or to accept a default cap of $50 million annually. For the purposes of modeling, we assume that Tier 1 Members receive a subsidy cap equal to 50% of their base for capping; Tier 2 Members receive the default cap of $50 million; Tier 3 Members do not receive a cap. </t>
   </si>
   <si>
@@ -1609,6 +1504,108 @@
   </si>
   <si>
     <t>RD/TN/RL/126 | RD/TN/RL/124 | Objective Definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) We assume that provision of the following types of subsidies as defined by Sumaila et al. 2019 are allowed to continue irrespective of a Member's total de minimus limit: i) fisher assistance programs; ii) rural fishers' community development programs.subsidies (both programs relevant to fishing in territorial waters). Therefore each Member's base subsidy level is represented by the total amount of all other capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. 2) We estimate the landed value of marine capture fisheries from the FAO Global Capture Production Database. 3) We assume the de minimis limit for developed and developing country members belonging to the top 10 marine capture fisheries producers to be 10% of the average total landed value of the Member's marine capture fisheries between 2016-2018. For all other developing country Members, we assume the de minimis limit to be 20% of the average total landed value between 2016-2018. For LDC Members, we assume the de minimis limit to be 30% of the average total landed value between 2016-2018. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) This proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) It is not possible to simulate whether Members could demonstrate that they have policies in place that would negate this prohibition. </t>
+  </si>
+  <si>
+    <t>1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) This proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text requires that there be a causal negative effect to the stock as a result of the subsidy. This is difficult to establish given existing data on subsidy provisioning and stock status, and is not possible to model, but we have chosen a more conservative reference point in regards to this condition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag- and subsidizing Members, nor for coastal Members. The possible effects of modeling this proposal is therefore a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings. 3) No proportionality or the duration of prohibition is considered. </t>
+  </si>
+  <si>
+    <t>1) We assume that the following types of subsidies as defined by Sumaila et al. 2019 are prohibited: i) boat construction and renovation, ii) fuel. 2) This prohibition is assumed to only apply to developed and developing country Members.</t>
+  </si>
+  <si>
+    <t>1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) This proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Subsidies for fishing within a Member's territorial sea shall be allowed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) We assume that each Member's base for capping is represented by the total amount of capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. 2) Members are sorted into three tiers based on a three-year average of FAO marine capture production (2016-2018). Members accounting for 0.7% or more of global marine capture production are in "Tier 1"; Members accounting for 0.05% or more, but less than 0.7%, of global marine capture production are in "Tier 2"; Members accounting for less than 0.05% of global marine capture production are in "Tier 3". 3) This proposal advocates for allowing both Tier 1 and Tier 2 Members to negotiate their own subsidy caps or to accept a default cap of $50 million annually. For the purposes of modeling, we assume that Tier 1 Members receive a subsidy cap equal to 50% of their base for capping; Tier 2 Members receive the default cap of $50 million; Tier 3 Members do not receive a cap. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels satisfying the three following characteristics: i) total length of more than 24 meters; ii) gross tonnage of more than 100 GT; iii) engine power of more than 130 kW. 2) In general, our underlying dataset does not include many vessels with fishing gears that are not hauled by a motor driven equipment, thus this characteristic is assumed to be satisfied. 3) The other 2 conditions are not considered as it is difficult to determine which vessels have onboard freezing equipment, or the characteristics of a vessel's owning or operating company. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, port, or market Member states. 2) No publically available data exist for most flag and subsidizing Member states, nor for coastal, port, or market Member states. The possible effects of modeling this proposal is therefore a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings. 3) No proportionality or the duration of prohibition is considered. </t>
+  </si>
+  <si>
+    <t>This unofficial room document was circulated at the request of the Delegations of the European Union, Japan, the Republic of Korea, and the Separate Customs Territory of Taiwan, Penghu, Kinmen and Matsu on February 5, 2020.</t>
+  </si>
+  <si>
+    <t>1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) It is difficult to identify subsidies for subsistence fishing, so we approximate this condition by assuming that subsidies for fishing within a Member's territorial waters are allowed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transition periods shall be allowed for developing country Members and LDCs. We assume these transition periods to be 4 and 6 years respectively. </t>
+  </si>
+  <si>
+    <t>Facilitator's working text - IUU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag and subsidizing Member states, nor for coastal Member states. The possible effects of modeling this proposal is therefore a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings. 3) No proportionality or the duration of prohibition is considered. </t>
+  </si>
+  <si>
+    <t>This working paper does not contain text suggestions to model, but is included here for reference.</t>
+  </si>
+  <si>
+    <t>An underlying assumption of this tool to make modeling possible is that the subsidizing state of a vessel is its flag state. Therefore, this communication is not modeled, but is included here for reference.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This communication advocates for prohibiting subsidies to vessels that are subsidized by a WTO Member, but do not fly the flag of that Member. </t>
+  </si>
+  <si>
+    <t>RD/TN/RL/119 | Relevant Authorities</t>
+  </si>
+  <si>
+    <t>RD/TN/RL/119 | Objective Definition</t>
+  </si>
+  <si>
+    <t>1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the more ambitious interpretation of the two (see New Zealand/Iceland - Overfishing and overcapacity).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the less ambitious interpretation of the two (see Australia - Overfished). </t>
+  </si>
+  <si>
+    <t>This document builds on ACP text proposal TN/RL/GEN/192, as reflected in TN/RL/W/274/Rev.6. It specifies that IUU determinations could be made by coastal Member states for activities in waters under their jurisdictions with respect to a foreign vessel or operator, or by RFMO/As in areas (and for species) under their jurisdictions. Members are encouraged to refrain from invoking the discipline based on minor infringements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag and subsidizing Members, nor for coastal Members. The possible effects of modeling this proposal is therefore a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings. 3) No proportionality or the duration of prohibition is considered. </t>
+  </si>
+  <si>
+    <t>RD/TN/RL/96 Rev.2</t>
+  </si>
+  <si>
+    <t>1) We assume that the following types of subsidies as defined by Sumaila et al. 2019 are prohibited: i) boat construction and renovation, ii) fuel. 2) This prohibition is assumed to only apply to Members responsible for more than 1% of global marine capture production (calculated as the annual average between 2016-2018).</t>
+  </si>
+  <si>
+    <t>For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag and subsidizing Members, nor for coastal Members. The possible effects of modeling this proposal is therefore a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings. 3) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing on the high seas, and to vessels greater than 24 m in length or with a tonnage greater than 100 GT (we assume industrial fishing to be defined by the characteristics specified by the proposal from Morocco).</t>
+  </si>
+  <si>
+    <t>For Overfished: Subsidies for fishing in a Member's territorial waters are excluded. For OFOC: This prohibition shall not apply to LDCs. This prohibition shall not apply to LDCs. Additionally, a transition period of 5 years shall be allowed for Overfished and OFOC disciplines for both developing and LDC Members.</t>
+  </si>
+  <si>
+    <t>1) As written, this proposal does specify potential disciplines within each of the three categories, but rather the S&amp;DT that should be allowed for them. 2) To model the possible effects of such a proposal, we therefore use the disciplines proposed in LDC - Full text (excluding any S&amp;DT). Those are as follows: For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag and subsidizing Members, nor for coastal Members. The possible effects of modeling this proposal is therefore a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings. 3) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing on the high seas, and to vessels greater than 24 m in length or with a tonnage greater than 100 GT (we assume industrial fishing to be defined by the characteristics specified by the proposal from Morocco).</t>
+  </si>
+  <si>
+    <t>For IUU: Subsidies granted by developing and LDC Members shall be allowed for small scale fishing: a) within their own territorial waters and b) within their own EEZs and high seas for 7 years. For Overfished: Subsidies granted by developing and LDC Members shall be allowed for fishing a) within their own territorial waters and b) within their own EEZs for 2 years. For OCOF: Subsidies granted by LDCs shall be allowed, and subsidies granted by developing countries shall be allowed for fishing in their territorial seas, or for fishing in their EEZs and high seas unless any of the following conditions are met for three consecutive years (2016-2018): a) GNI per capita is greater than US $5000 (constant 2010 US$), b) they engage in distant water fishing, or c) the contribution from Agriculture, Forestry and Fishing to their national GDP (World Bank) is greater than 10%.</t>
+  </si>
+  <si>
+    <t>This communication aims to consolidate all existing texts that have been put forth or discussed with regards to a prohibition on subsidies. It was intended to provide a starting point for interactive discussion. As written, it provides two possible ways of characterizing and determining what constitutes an overfished stock: i) those recognized as such by the Member under whose jurisdiction the fishing is taking place or by the relevant RFMO/A; ii) those for which the mortality from fishing needs to be restricted to allow the stock to rebuild to some reference point. Additionally, it includes a blank placeholder for inclusion of a cap-based proposal.</t>
+  </si>
+  <si>
+    <t>For IUU: Subsidies granted by developing and LDC Members shall be allowed for small scale fishing: a) within their own territorial waters. For Overfished: Subsidies granted by developing and LDC Members for fishing within their own territorial sea shall be allowed. For OCOF: Subsidies granted by LDCs shall be allowed, and subsidies granted by developing countries shall be allowed for fishing in their territorial seas, or for fishing in their EEZs and high seas unless any of the following conditions are met for three consecutive years (2016-2018): a) GNI per capita is greater than US $5000 (constant 2010 US$), b) they engage in distant water fishing, or c) the contribution from Agriculture, Forestry and Fishing to their national GDP (World Bank) is greater than 10%.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) We assume each Member's baseline to the total magnitude of capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. 2) The formula ranges and percentages of reduction from the proposal are then applied to all Members. </t>
+  </si>
+  <si>
+    <t>This unofficial room document was circulated at the request of the Delegation of Brazil on February 28, 2020.</t>
+  </si>
+  <si>
+    <t>This communication proposes a quantitative approach of reductions and limits to fisheries subsidies. The baseline of reductions is to be the annual average monetary value of fisheries subsidies (over the 3 prior years). It specifies cumulative ranges (8 ranges: 0-15mn to over 1,2bn) of subsidies in monetary value. Members falling in each range will be subject to a specific percentage reduction in total fisheries subsidies (from 0% to 45% in increments of 5). The total subsidy reduction shall equal the sum of the cuts on each range.</t>
   </si>
 </sst>
 </file>
@@ -2601,9 +2598,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CU39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
@@ -2635,40 +2632,40 @@
   <sheetData>
     <row r="1" spans="1:99" s="8" customFormat="1" ht="56">
       <c r="A1" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>88</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>2</v>
@@ -2683,7 +2680,7 @@
         <v>5</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="R1" s="8" t="s">
         <v>7</v>
@@ -2698,7 +2695,7 @@
         <v>10</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="W1" s="8" t="s">
         <v>11</v>
@@ -2707,31 +2704,31 @@
         <v>12</v>
       </c>
       <c r="Y1" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB1" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>267</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="AG1" s="8" t="s">
-        <v>270</v>
       </c>
       <c r="AH1" s="8" t="s">
         <v>16</v>
@@ -2740,7 +2737,7 @@
         <v>17</v>
       </c>
       <c r="AJ1" s="8" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="AK1" s="8" t="s">
         <v>18</v>
@@ -2752,49 +2749,49 @@
         <v>20</v>
       </c>
       <c r="AN1" s="8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AO1" s="8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AP1" s="8" t="s">
         <v>21</v>
       </c>
       <c r="AQ1" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="AR1" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="AS1" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="AT1" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AU1" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AV1" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AW1" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AX1" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="AY1" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="AW1" s="8" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="BA1" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="BB1" s="8" t="s">
         <v>281</v>
-      </c>
-      <c r="AZ1" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="BA1" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="BB1" s="8" t="s">
-        <v>284</v>
       </c>
       <c r="BC1" s="8" t="s">
         <v>26</v>
@@ -2803,7 +2800,7 @@
         <v>27</v>
       </c>
       <c r="BE1" s="8" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="BF1" s="8" t="s">
         <v>28</v>
@@ -2815,49 +2812,49 @@
         <v>30</v>
       </c>
       <c r="BI1" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="BJ1" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="BK1" s="8" t="s">
         <v>31</v>
       </c>
       <c r="BL1" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="BM1" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="BN1" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="BO1" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="BM1" s="8" t="s">
+      <c r="BP1" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="BN1" s="8" t="s">
+      <c r="BQ1" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="BO1" s="8" t="s">
+      <c r="BR1" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="BP1" s="8" t="s">
+      <c r="BS1" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="BQ1" s="8" t="s">
+      <c r="BT1" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="BR1" s="8" t="s">
+      <c r="BU1" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="BS1" s="8" t="s">
+      <c r="BV1" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="BT1" s="8" t="s">
+      <c r="BW1" s="8" t="s">
         <v>295</v>
-      </c>
-      <c r="BU1" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="BV1" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="BW1" s="8" t="s">
-        <v>298</v>
       </c>
       <c r="BX1" s="8" t="s">
         <v>36</v>
@@ -2887,13 +2884,13 @@
         <v>45</v>
       </c>
       <c r="CG1" s="8" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="CH1" s="8" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="CI1" s="8" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="CJ1" s="8" t="s">
         <v>46</v>
@@ -2905,13 +2902,13 @@
         <v>49</v>
       </c>
       <c r="CM1" s="8" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="CN1" s="8" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="CO1" s="8" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="CP1" s="8" t="s">
         <v>50</v>
@@ -2923,13 +2920,13 @@
         <v>53</v>
       </c>
       <c r="CS1" s="8" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="CT1" s="8" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="CU1" s="8" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:99" s="8" customFormat="1" ht="282" customHeight="1">
@@ -2940,22 +2937,22 @@
         <v>98</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>99</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>55</v>
@@ -2967,22 +2964,22 @@
         <v>43545</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M2" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="N2" s="15" t="s">
-        <v>148</v>
-      </c>
       <c r="O2" s="15" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
@@ -2991,7 +2988,7 @@
       <c r="V2" s="15"/>
       <c r="W2" s="15"/>
       <c r="X2" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Y2" s="15"/>
       <c r="Z2" s="15"/>
@@ -3011,7 +3008,7 @@
       <c r="AN2" s="15"/>
       <c r="AO2" s="15"/>
       <c r="AP2" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AQ2" s="15"/>
       <c r="AR2" s="15"/>
@@ -3034,7 +3031,7 @@
       <c r="BI2" s="15"/>
       <c r="BJ2" s="15"/>
       <c r="BK2" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BL2" s="15"/>
       <c r="BM2" s="15"/>
@@ -3049,21 +3046,21 @@
       <c r="BV2" s="15"/>
       <c r="BW2" s="15"/>
       <c r="BX2" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BY2" s="15" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="BZ2" s="15" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="CA2" s="15" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="CB2" s="15"/>
       <c r="CC2" s="15"/>
       <c r="CD2" s="29" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="CE2" s="15"/>
       <c r="CF2" s="27">
@@ -3073,7 +3070,7 @@
       <c r="CH2" s="27"/>
       <c r="CI2" s="27"/>
       <c r="CJ2" s="15" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="CL2" s="15">
         <v>20</v>
@@ -3082,7 +3079,7 @@
       <c r="CN2" s="27"/>
       <c r="CO2" s="27"/>
       <c r="CP2" s="15" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="CQ2" s="15"/>
       <c r="CR2" s="15">
@@ -3100,22 +3097,22 @@
         <v>98</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>108</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>55</v>
@@ -3127,7 +3124,7 @@
         <v>43573</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>110</v>
@@ -3136,31 +3133,31 @@
         <v>111</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P3" s="20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>346</v>
+        <v>473</v>
       </c>
       <c r="X3" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AH3" s="15" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AI3" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AP3" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BK3" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BX3" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:99" ht="238">
@@ -3171,10 +3168,10 @@
         <v>98</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>58</v>
@@ -3193,7 +3190,7 @@
         <v>43620</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M4" s="15" t="s">
         <v>78</v>
@@ -3202,34 +3199,34 @@
         <v>79</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="X4" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AP4" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BK4" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BX4" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BY4" s="15" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="BZ4" s="15" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="CD4" s="15" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="CG4" s="27">
         <v>55</v>
@@ -3246,67 +3243,67 @@
         <v>58</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="15" t="s">
         <v>132</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="K5" s="16">
         <v>43621</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M5" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="N5" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="N5" s="15" t="s">
-        <v>135</v>
-      </c>
       <c r="O5" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>383</v>
+        <v>474</v>
       </c>
       <c r="X5" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AH5" s="15" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AI5" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AP5" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BK5" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BX5" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:99" ht="182">
@@ -3317,10 +3314,10 @@
         <v>90</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>58</v>
@@ -3332,49 +3329,49 @@
         <v>55</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K6" s="16">
         <v>43628</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>239</v>
+        <v>475</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="U6" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="X6" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AP6" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BK6" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BX6" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="112">
@@ -3385,16 +3382,16 @@
         <v>98</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>102</v>
@@ -3409,7 +3406,7 @@
         <v>43643</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M7" s="15" t="s">
         <v>103</v>
@@ -3418,25 +3415,25 @@
         <v>104</v>
       </c>
       <c r="O7" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="X7" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AP7" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BC7" s="15" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="BD7" s="15" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="BE7" s="15" t="s">
         <v>62</v>
@@ -3445,10 +3442,10 @@
         <v>5</v>
       </c>
       <c r="BK7" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BX7" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:99" ht="182">
@@ -3459,19 +3456,19 @@
         <v>98</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>114</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>55</v>
@@ -3483,7 +3480,7 @@
         <v>43648</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M8" s="15" t="s">
         <v>115</v>
@@ -3492,46 +3489,46 @@
         <v>116</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>347</v>
+        <v>476</v>
       </c>
       <c r="X8" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AP8" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BC8" s="15" t="s">
         <v>64</v>
       </c>
       <c r="BD8" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="BK8" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BL8" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BM8" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="BP8" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BQ8" s="15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="BT8" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BX8" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:99" ht="140">
@@ -3539,22 +3536,22 @@
         <v>58</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>58</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>55</v>
@@ -3566,43 +3563,43 @@
         <v>43648</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N9" s="15" t="s">
         <v>116</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>348</v>
+        <v>477</v>
       </c>
       <c r="X9" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AH9" s="15" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AI9" s="15" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="AJ9" s="15" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AP9" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BK9" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BX9" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:99" ht="168">
@@ -3613,10 +3610,10 @@
         <v>98</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>58</v>
@@ -3625,7 +3622,7 @@
         <v>68</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>58</v>
@@ -3637,61 +3634,61 @@
         <v>43657</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M10" s="15" t="s">
         <v>70</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>408</v>
+        <v>478</v>
       </c>
       <c r="X10" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AP10" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BK10" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BX10" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BY10" s="15" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="BZ10" s="15" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="CA10" s="15" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="CC10" s="15" t="s">
         <v>73</v>
       </c>
       <c r="CD10" s="15" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="CF10" s="27">
         <v>50</v>
       </c>
       <c r="CJ10" s="15" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="CK10" s="15">
         <v>50</v>
       </c>
       <c r="CP10" s="15" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:99" ht="154">
@@ -3702,16 +3699,16 @@
         <v>98</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>106</v>
@@ -3726,7 +3723,7 @@
         <v>43684</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M11" s="15" t="s">
         <v>112</v>
@@ -3735,28 +3732,28 @@
         <v>113</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>409</v>
+        <v>479</v>
       </c>
       <c r="X11" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AP11" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BC11" s="15" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="BD11" s="15" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="BE11" s="15" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="BH11" s="15">
         <v>24</v>
@@ -3768,13 +3765,13 @@
         <v>130</v>
       </c>
       <c r="BK11" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BX11" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
-    <row r="12" spans="1:99" ht="84">
+    <row r="12" spans="1:99" ht="98">
       <c r="A12" s="12" t="s">
         <v>58</v>
       </c>
@@ -3782,10 +3779,10 @@
         <v>90</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>58</v>
@@ -3803,7 +3800,7 @@
         <v>43718</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M12" s="15" t="s">
         <v>94</v>
@@ -3812,34 +3809,34 @@
         <v>95</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P12" s="20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>388</v>
+        <v>480</v>
       </c>
       <c r="R12" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="U12" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="X12" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AP12" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BK12" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BX12" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:99" ht="136.5" customHeight="1">
@@ -3850,7 +3847,7 @@
         <v>89</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>58</v>
@@ -3859,7 +3856,7 @@
         <v>85</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>58</v>
@@ -3871,7 +3868,7 @@
         <v>43759</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="M13" s="15" t="s">
         <v>86</v>
@@ -3880,34 +3877,34 @@
         <v>87</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="X13" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AP13" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BC13" s="15" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="BD13" s="15" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="BE13" s="15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="BK13" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BX13" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:99" ht="224">
@@ -3918,22 +3915,22 @@
         <v>98</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="I14" s="15" t="s">
         <v>55</v>
@@ -3945,64 +3942,64 @@
         <v>43775</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="M14" s="15" t="s">
         <v>118</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>119</v>
+        <v>481</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="P14" s="18" t="s">
-        <v>351</v>
+        <v>483</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>411</v>
+        <v>482</v>
       </c>
       <c r="X14" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AH14" s="15" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AI14" s="15" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="AJ14" s="15" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AP14" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AQ14" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AR14" s="15" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AT14" s="15">
         <v>6</v>
       </c>
       <c r="AU14" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AV14" s="15" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AX14" s="15">
         <v>4</v>
       </c>
       <c r="AY14" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BK14" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BX14" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:99" ht="154">
@@ -4013,10 +4010,10 @@
         <v>90</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>58</v>
@@ -4025,7 +4022,7 @@
         <v>91</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="I15" s="15" t="s">
         <v>55</v>
@@ -4037,43 +4034,43 @@
         <v>43801</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>353</v>
+        <v>484</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="N15" s="15" t="s">
         <v>92</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
       <c r="P15" s="20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>412</v>
+        <v>485</v>
       </c>
       <c r="R15" s="15" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="S15" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="U15" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="X15" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AP15" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BK15" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BX15" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:99" ht="70">
@@ -4084,13 +4081,13 @@
         <v>98</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>100</v>
@@ -4105,20 +4102,20 @@
         <v>43801</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="M16" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="N16" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="N16" s="15" t="s">
-        <v>150</v>
-      </c>
       <c r="O16" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P16" s="18"/>
       <c r="Q16" s="4" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:99" ht="112">
@@ -4129,44 +4126,44 @@
         <v>98</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
         <v>58</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K17" s="16">
         <v>43801</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="M17" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="N17" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="N17" s="15" t="s">
-        <v>123</v>
-      </c>
       <c r="O17" s="15" t="s">
-        <v>156</v>
+        <v>488</v>
       </c>
       <c r="P17" s="18" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
     </row>
     <row r="18" spans="1:99" ht="56">
@@ -4177,16 +4174,16 @@
         <v>89</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I18" s="15" t="s">
         <v>55</v>
@@ -4198,20 +4195,20 @@
         <v>43802</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="M18" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="N18" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="N18" s="15" t="s">
-        <v>138</v>
-      </c>
       <c r="O18" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P18" s="18"/>
       <c r="Q18" s="4" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:99" ht="224">
@@ -4219,16 +4216,16 @@
         <v>58</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>58</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I19" s="15" t="s">
         <v>55</v>
@@ -4240,35 +4237,35 @@
         <v>43803</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M19" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="N19" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="N19" s="15" t="s">
-        <v>127</v>
-      </c>
       <c r="O19" s="15" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="P19" s="18"/>
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:99" ht="224">
       <c r="A20" s="12" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>58</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>55</v>
@@ -4280,57 +4277,57 @@
         <v>43803</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M20" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="N20" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="N20" s="15" t="s">
-        <v>127</v>
-      </c>
       <c r="O20" s="15" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="P20" s="20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="X20" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AH20" s="15" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AI20" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AP20" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BK20" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BX20" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:99" ht="224">
       <c r="A21" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="31" t="s">
         <v>453</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>485</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>58</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="I21" s="15" t="s">
         <v>55</v>
@@ -4342,40 +4339,40 @@
         <v>43803</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M21" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="N21" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="N21" s="15" t="s">
-        <v>127</v>
-      </c>
       <c r="O21" s="15" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="P21" s="20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="X21" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AH21" s="15" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AI21" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AP21" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BK21" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BX21" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:99" ht="238">
@@ -4386,64 +4383,64 @@
         <v>98</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I22" s="15" t="s">
         <v>55</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K22" s="16">
         <v>43843</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="P22" s="20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="X22" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AH22" s="15" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AI22" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AP22" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BC22" s="15" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="BD22" s="15" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="BE22" s="15" t="s">
         <v>63</v>
@@ -4452,10 +4449,10 @@
         <v>5</v>
       </c>
       <c r="BK22" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BX22" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:99" ht="112">
@@ -4466,19 +4463,19 @@
         <v>90</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="I23" s="15" t="s">
         <v>55</v>
@@ -4490,70 +4487,70 @@
         <v>43865</v>
       </c>
       <c r="L23" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>116</v>
+        <v>346</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>331</v>
+        <v>493</v>
       </c>
       <c r="P23" s="18" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>415</v>
+        <v>494</v>
       </c>
       <c r="R23" s="15" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="S23" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="U23" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="X23" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Y23" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Z23" s="15" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AA23" s="15">
         <v>6</v>
       </c>
       <c r="AB23" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AC23" s="15" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AD23" s="15">
         <v>3</v>
       </c>
       <c r="AE23" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AF23" s="15" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AG23" s="15">
         <v>6</v>
       </c>
       <c r="AP23" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BK23" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BX23" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:99" ht="238">
@@ -4564,19 +4561,19 @@
         <v>98</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>355</v>
+        <v>495</v>
       </c>
       <c r="I24" s="15" t="s">
         <v>55</v>
@@ -4588,55 +4585,55 @@
         <v>43865</v>
       </c>
       <c r="L24" s="17" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M24" s="15" t="s">
         <v>115</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="P24" s="18" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>416</v>
+        <v>496</v>
       </c>
       <c r="X24" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AP24" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BC24" s="15" t="s">
         <v>64</v>
       </c>
       <c r="BD24" s="15" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="BK24" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BL24" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BM24" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="BP24" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BT24" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BX24" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
-    <row r="25" spans="1:99" ht="266">
+    <row r="25" spans="1:99" ht="280">
       <c r="A25" s="5" t="s">
         <v>58</v>
       </c>
@@ -4645,59 +4642,59 @@
       </c>
       <c r="C25" s="32"/>
       <c r="D25" s="22" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E25" s="22" t="s">
         <v>58</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="5" t="s">
         <v>55</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K25" s="23">
         <v>43896</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="P25" s="24" t="s">
-        <v>419</v>
+        <v>498</v>
       </c>
       <c r="Q25" s="25" t="s">
-        <v>449</v>
+        <v>497</v>
       </c>
       <c r="R25" s="15" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="S25" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="T25" s="8"/>
       <c r="U25" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="V25" s="8"/>
       <c r="W25" s="8"/>
       <c r="X25" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
@@ -4709,13 +4706,13 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
       <c r="AH25" s="8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AI25" s="8" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="AJ25" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AK25" s="8"/>
       <c r="AL25" s="8"/>
@@ -4723,42 +4720,42 @@
       <c r="AN25" s="8"/>
       <c r="AO25" s="8"/>
       <c r="AP25" s="8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AQ25" s="8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AR25" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AS25" s="8"/>
       <c r="AT25" s="8">
         <v>5</v>
       </c>
       <c r="AU25" s="8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AV25" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AW25" s="8"/>
       <c r="AX25" s="8">
         <v>5</v>
       </c>
       <c r="AY25" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AZ25" s="8"/>
       <c r="BA25" s="8"/>
       <c r="BB25" s="8"/>
       <c r="BC25" s="15" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="BD25" s="8" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="BE25" s="8" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="BF25" s="8"/>
       <c r="BG25" s="8"/>
@@ -4770,34 +4767,34 @@
       </c>
       <c r="BJ25" s="8"/>
       <c r="BK25" s="8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BL25" s="8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BM25" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="BN25" s="8"/>
       <c r="BO25" s="8"/>
       <c r="BP25" s="8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BQ25" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="BR25" s="8"/>
       <c r="BS25" s="8">
         <v>5</v>
       </c>
       <c r="BT25" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BU25" s="8"/>
       <c r="BV25" s="8"/>
       <c r="BW25" s="8"/>
       <c r="BX25" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BY25" s="8"/>
       <c r="BZ25" s="8"/>
@@ -4831,110 +4828,110 @@
         <v>89</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>58</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14" t="s">
         <v>58</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K26" s="16">
         <v>43896</v>
       </c>
       <c r="L26" s="17" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>459</v>
+        <v>432</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>393</v>
+        <v>500</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="R26" s="15" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="S26" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="T26" s="8"/>
       <c r="U26" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="V26" s="8"/>
       <c r="W26" s="8"/>
       <c r="X26" s="8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Y26" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Z26" s="15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AB26" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AC26" s="15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AE26" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AH26" s="8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AI26" s="15" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="AJ26" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AP26" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AQ26" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AR26" s="15" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="AU26" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AV26" s="15" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="AY26" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BC26" s="15" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="BD26" s="8" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="BE26" s="8" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="BH26" s="8">
         <v>24</v>
@@ -4943,25 +4940,25 @@
         <v>100</v>
       </c>
       <c r="BK26" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BL26" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BM26" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="BP26" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BQ26" s="15" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="BT26" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BX26" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:99" ht="318" customHeight="1">
@@ -4972,41 +4969,41 @@
         <v>89</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>499</v>
+        <v>464</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="14" t="s">
-        <v>505</v>
+        <v>470</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="I27" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="K27" s="16">
         <v>44007</v>
       </c>
       <c r="L27" s="17" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="M27" s="15" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>379</v>
+        <v>501</v>
       </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="4"/>
@@ -5023,113 +5020,113 @@
     </row>
     <row r="28" spans="1:99" ht="407" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>500</v>
+        <v>465</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="14" t="s">
-        <v>501</v>
+        <v>466</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="K28" s="16">
         <v>44007</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>379</v>
+        <v>501</v>
       </c>
       <c r="P28" s="18" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>504</v>
+        <v>469</v>
       </c>
       <c r="R28" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="S28" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="U28" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="X28" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y28" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z28" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB28" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC28" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE28" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="AH28" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="AI28" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="AJ28" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="AP28" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AQ28" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AR28" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AU28" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AV28" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AY28" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="BC28" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="S28" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="U28" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="X28" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y28" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="Z28" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AB28" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AC28" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AE28" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="AH28" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="AI28" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="AJ28" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="AP28" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AQ28" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AR28" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AU28" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AV28" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AY28" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="BC28" s="15" t="s">
-        <v>394</v>
-      </c>
       <c r="BD28" s="15" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="BE28" s="15" t="s">
         <v>62</v>
@@ -5138,136 +5135,136 @@
         <v>5</v>
       </c>
       <c r="BK28" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BL28" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BM28" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="BP28" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BQ28" s="15" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="BT28" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BX28" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:99" ht="407" customHeight="1">
       <c r="A29" s="12" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>498</v>
+        <v>463</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="14" t="s">
-        <v>502</v>
+        <v>467</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="I29" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="K29" s="16">
         <v>44007</v>
       </c>
       <c r="L29" s="17" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>379</v>
+        <v>501</v>
       </c>
       <c r="P29" s="18" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="R29" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="S29" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="U29" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="X29" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y29" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z29" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB29" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC29" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE29" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="AH29" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="AI29" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="AJ29" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="AP29" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AQ29" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AR29" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AU29" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AV29" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AY29" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="BC29" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="S29" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="U29" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="X29" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y29" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="Z29" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AB29" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AC29" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AE29" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="AH29" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="AI29" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="AJ29" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="AP29" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AQ29" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AR29" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AU29" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AV29" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AY29" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="BC29" s="15" t="s">
-        <v>394</v>
-      </c>
       <c r="BD29" s="15" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="BE29" s="15" t="s">
         <v>62</v>
@@ -5276,133 +5273,133 @@
         <v>5</v>
       </c>
       <c r="BK29" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BL29" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BM29" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="BP29" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BQ29" s="15" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="BT29" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BX29" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:99" ht="407" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>480</v>
+        <v>449</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="14" t="s">
-        <v>482</v>
+        <v>451</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="I30" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="K30" s="16">
         <v>44007</v>
       </c>
       <c r="L30" s="17" t="s">
-        <v>466</v>
+        <v>366</v>
       </c>
       <c r="M30" s="15" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="N30" s="15" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>379</v>
+        <v>501</v>
       </c>
       <c r="P30" s="18" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>493</v>
+        <v>458</v>
       </c>
       <c r="R30" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="S30" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="U30" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="X30" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y30" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z30" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB30" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC30" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE30" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="AH30" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="AI30" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="AJ30" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="AP30" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AQ30" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AR30" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AU30" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AV30" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AY30" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="BC30" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="S30" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="U30" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="X30" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y30" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="Z30" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AB30" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AC30" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AE30" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="AH30" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="AI30" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="AJ30" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="AP30" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AQ30" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AR30" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AU30" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AV30" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AY30" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="BC30" s="15" t="s">
-        <v>394</v>
-      </c>
       <c r="BD30" s="15" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="BE30" s="15" t="s">
         <v>62</v>
@@ -5411,34 +5408,34 @@
         <v>5</v>
       </c>
       <c r="BK30" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BL30" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BM30" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="BP30" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BQ30" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="BT30" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="BX30" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="BY30" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="BZ30" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="CD30" s="15" t="s">
         <v>381</v>
-      </c>
-      <c r="BT30" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="BX30" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="BY30" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="BZ30" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="CD30" s="15" t="s">
-        <v>395</v>
       </c>
       <c r="CG30" s="27">
         <v>55</v>
@@ -5452,110 +5449,110 @@
     </row>
     <row r="31" spans="1:99" ht="407" customHeight="1">
       <c r="A31" s="12" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>481</v>
+        <v>450</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="14" t="s">
-        <v>483</v>
+        <v>452</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="I31" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="K31" s="16">
         <v>44007</v>
       </c>
       <c r="L31" s="17" t="s">
-        <v>466</v>
+        <v>366</v>
       </c>
       <c r="M31" s="15" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="N31" s="15" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>379</v>
+        <v>501</v>
       </c>
       <c r="P31" s="18" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>493</v>
+        <v>458</v>
       </c>
       <c r="R31" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="S31" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="U31" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="X31" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y31" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z31" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB31" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC31" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE31" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="AH31" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="AI31" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="AJ31" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="AP31" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AQ31" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AR31" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AU31" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AV31" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AY31" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="BC31" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="S31" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="U31" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="X31" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y31" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="Z31" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AB31" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AC31" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AE31" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="AH31" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="AI31" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="AJ31" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="AP31" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AQ31" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AR31" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AU31" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AV31" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AY31" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="BC31" s="15" t="s">
-        <v>394</v>
-      </c>
       <c r="BD31" s="15" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="BE31" s="15" t="s">
         <v>62</v>
@@ -5564,34 +5561,34 @@
         <v>5</v>
       </c>
       <c r="BK31" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BL31" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BM31" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="BP31" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BQ31" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="BT31" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="BX31" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="BY31" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="BZ31" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="CD31" s="15" t="s">
         <v>381</v>
-      </c>
-      <c r="BT31" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="BX31" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="BY31" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="BZ31" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="CD31" s="15" t="s">
-        <v>395</v>
       </c>
       <c r="CG31" s="27">
         <v>55</v>
@@ -5605,95 +5602,95 @@
     </row>
     <row r="32" spans="1:99" ht="407" customHeight="1">
       <c r="A32" s="12" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="14" t="s">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="I32" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="K32" s="16">
         <v>44007</v>
       </c>
       <c r="L32" s="17" t="s">
-        <v>466</v>
+        <v>366</v>
       </c>
       <c r="M32" s="15" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>379</v>
+        <v>501</v>
       </c>
       <c r="P32" s="18" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>490</v>
+        <v>455</v>
       </c>
       <c r="R32" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="S32" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="U32" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="X32" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="AH32" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="AI32" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="AJ32" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="AP32" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AQ32" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AR32" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AU32" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AV32" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AY32" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="BC32" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="S32" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="U32" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="X32" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="AH32" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="AI32" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="AJ32" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="AP32" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AQ32" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AR32" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AU32" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AV32" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AY32" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="BC32" s="15" t="s">
-        <v>394</v>
-      </c>
       <c r="BD32" s="15" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="BE32" s="15" t="s">
         <v>62</v>
@@ -5702,130 +5699,130 @@
         <v>5</v>
       </c>
       <c r="BK32" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BX32" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BY32" s="15" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="BZ32" s="15" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="CA32" s="15" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="CC32" s="15" t="s">
         <v>73</v>
       </c>
       <c r="CD32" s="15" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="CF32" s="27">
         <v>50</v>
       </c>
       <c r="CJ32" s="15" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="CK32" s="15">
         <v>50</v>
       </c>
       <c r="CP32" s="15" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:99" ht="407" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="F33" s="19"/>
       <c r="G33" s="14" t="s">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="I33" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="K33" s="16">
         <v>44007</v>
       </c>
       <c r="L33" s="17" t="s">
-        <v>466</v>
+        <v>366</v>
       </c>
       <c r="M33" s="15" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="N33" s="15" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="O33" s="15" t="s">
-        <v>379</v>
+        <v>501</v>
       </c>
       <c r="P33" s="18" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>494</v>
+        <v>459</v>
       </c>
       <c r="R33" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="S33" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="U33" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="X33" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="AH33" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="AI33" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="AJ33" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="AP33" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AQ33" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AR33" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AU33" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AV33" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AY33" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="BC33" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="S33" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="U33" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="X33" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="AH33" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="AI33" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="AJ33" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="AP33" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AQ33" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AR33" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AU33" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AV33" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AY33" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="BC33" s="15" t="s">
-        <v>394</v>
-      </c>
       <c r="BD33" s="15" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="BE33" s="15" t="s">
         <v>62</v>
@@ -5834,130 +5831,130 @@
         <v>5</v>
       </c>
       <c r="BK33" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BX33" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BY33" s="15" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="BZ33" s="15" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="CA33" s="15" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="CC33" s="15" t="s">
         <v>73</v>
       </c>
       <c r="CD33" s="15" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="CF33" s="27">
         <v>50</v>
       </c>
       <c r="CJ33" s="15" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="CK33" s="15">
         <v>50</v>
       </c>
       <c r="CP33" s="15" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:99" ht="407" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="F34" s="19"/>
       <c r="G34" s="14" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="I34" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="K34" s="16">
         <v>44007</v>
       </c>
       <c r="L34" s="17" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="M34" s="15" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="N34" s="15" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>379</v>
+        <v>501</v>
       </c>
       <c r="P34" s="18" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>491</v>
+        <v>456</v>
       </c>
       <c r="R34" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="S34" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="U34" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="X34" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="AH34" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="AI34" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="AJ34" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="AP34" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AQ34" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AR34" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AU34" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AV34" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AY34" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="BC34" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="S34" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="U34" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="X34" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="AH34" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="AI34" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="AJ34" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="AP34" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AQ34" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AR34" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AU34" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AV34" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AY34" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="BC34" s="15" t="s">
-        <v>394</v>
-      </c>
       <c r="BD34" s="15" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="BE34" s="15" t="s">
         <v>62</v>
@@ -5966,35 +5963,35 @@
         <v>5</v>
       </c>
       <c r="BK34" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BX34" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BY34" s="15" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="BZ34" s="15" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="CA34" s="15" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="CD34" s="29" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="CF34" s="27">
         <v>10</v>
       </c>
       <c r="CJ34" s="15" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="CK34" s="8"/>
       <c r="CL34" s="15">
         <v>20</v>
       </c>
       <c r="CP34" s="15" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="CR34" s="15">
         <v>30</v>
@@ -6002,95 +5999,95 @@
     </row>
     <row r="35" spans="1:99" ht="407" customHeight="1">
       <c r="A35" s="12" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>472</v>
+        <v>441</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="F35" s="19"/>
       <c r="G35" s="14" t="s">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="I35" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="K35" s="16">
         <v>44007</v>
       </c>
       <c r="L35" s="17" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="M35" s="15" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="N35" s="15" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="O35" s="15" t="s">
-        <v>379</v>
+        <v>501</v>
       </c>
       <c r="P35" s="18" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>496</v>
+        <v>461</v>
       </c>
       <c r="R35" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="S35" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="U35" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="X35" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="AH35" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="AI35" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="AJ35" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="AP35" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AQ35" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AR35" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AU35" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AV35" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AY35" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="BC35" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="S35" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="U35" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="X35" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="AH35" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="AI35" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="AJ35" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="AP35" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AQ35" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AR35" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AU35" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AV35" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AY35" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="BC35" s="15" t="s">
-        <v>394</v>
-      </c>
       <c r="BD35" s="15" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="BE35" s="15" t="s">
         <v>62</v>
@@ -6099,35 +6096,35 @@
         <v>5</v>
       </c>
       <c r="BK35" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BX35" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BY35" s="15" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="BZ35" s="15" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="CA35" s="15" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="CD35" s="29" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="CF35" s="27">
         <v>10</v>
       </c>
       <c r="CJ35" s="15" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="CK35" s="8"/>
       <c r="CL35" s="15">
         <v>20</v>
       </c>
       <c r="CP35" s="15" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="CR35" s="15">
         <v>30</v>
@@ -6135,95 +6132,95 @@
     </row>
     <row r="36" spans="1:99" ht="407" customHeight="1">
       <c r="A36" s="12" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
       <c r="F36" s="19"/>
       <c r="G36" s="14" t="s">
-        <v>506</v>
+        <v>471</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="I36" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="K36" s="16">
         <v>44007</v>
       </c>
       <c r="L36" s="17" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="M36" s="15" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="N36" s="15" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="O36" s="15" t="s">
-        <v>379</v>
+        <v>501</v>
       </c>
       <c r="P36" s="18" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>492</v>
+        <v>457</v>
       </c>
       <c r="R36" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="S36" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="U36" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="X36" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="AH36" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="AI36" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="AJ36" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="AP36" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AQ36" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AR36" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AU36" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AV36" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AY36" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="BC36" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="S36" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="U36" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="X36" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="AH36" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="AI36" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="AJ36" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="AP36" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AQ36" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AR36" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AU36" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AV36" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AY36" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="BC36" s="15" t="s">
-        <v>394</v>
-      </c>
       <c r="BD36" s="15" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="BE36" s="15" t="s">
         <v>62</v>
@@ -6232,107 +6229,109 @@
         <v>5</v>
       </c>
       <c r="BK36" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BX36" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BY36" s="15" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="BZ36" s="15" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="CD36" s="15" t="s">
-        <v>468</v>
+        <v>437</v>
       </c>
     </row>
     <row r="37" spans="1:99" ht="407" customHeight="1">
       <c r="A37" s="12" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="F37" s="19"/>
       <c r="G37" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="H37" s="14"/>
+        <v>440</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>371</v>
+      </c>
       <c r="I37" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="K37" s="16">
         <v>44007</v>
       </c>
       <c r="L37" s="17" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="M37" s="15" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="N37" s="15" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="O37" s="15" t="s">
-        <v>379</v>
+        <v>501</v>
       </c>
       <c r="P37" s="18" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>495</v>
+        <v>460</v>
       </c>
       <c r="R37" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="S37" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="U37" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="X37" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="AH37" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="AI37" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="AJ37" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="AP37" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AQ37" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AR37" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AU37" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AV37" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AY37" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="BC37" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="S37" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="U37" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="X37" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="AH37" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="AI37" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="AJ37" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="AP37" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AQ37" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AR37" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AU37" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AV37" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AY37" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="BC37" s="15" t="s">
-        <v>394</v>
-      </c>
       <c r="BD37" s="15" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="BE37" s="15" t="s">
         <v>62</v>
@@ -6341,19 +6340,19 @@
         <v>5</v>
       </c>
       <c r="BK37" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BX37" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BY37" s="15" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="BZ37" s="15" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="CD37" s="15" t="s">
-        <v>468</v>
+        <v>437</v>
       </c>
     </row>
     <row r="38" spans="1:99" ht="407" customHeight="1">
@@ -6364,62 +6363,62 @@
         <v>98</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>497</v>
+        <v>462</v>
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="8" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>55</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="K38" s="23">
         <v>43890</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>446</v>
+        <v>429</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>504</v>
       </c>
       <c r="O38" s="15" t="s">
-        <v>457</v>
+        <v>505</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q38" s="25" t="s">
-        <v>465</v>
+        <v>503</v>
       </c>
       <c r="X38" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AP38" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BK38" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BX38" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BY38" s="15" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="BZ38" s="15" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="CD38" s="15" t="s">
-        <v>468</v>
+        <v>437</v>
       </c>
     </row>
     <row r="39" spans="1:99" ht="42">
@@ -6439,37 +6438,37 @@
       <c r="P39" s="18"/>
       <c r="Q39" s="4"/>
       <c r="S39" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="T39" s="15">
         <v>20</v>
       </c>
       <c r="U39" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="X39" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Y39" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AA39" s="15">
         <v>5</v>
       </c>
       <c r="AB39" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AD39" s="15">
         <v>5</v>
       </c>
       <c r="AE39" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AG39" s="15">
         <v>5</v>
       </c>
       <c r="AJ39" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AL39" s="15">
         <v>5</v>
@@ -6484,10 +6483,10 @@
         <v>400</v>
       </c>
       <c r="AP39" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AQ39" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AS39" s="15">
         <v>5</v>
@@ -6496,7 +6495,7 @@
         <v>5</v>
       </c>
       <c r="AU39" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AW39" s="15">
         <v>5</v>
@@ -6505,7 +6504,7 @@
         <v>5</v>
       </c>
       <c r="AY39" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BA39" s="15">
         <v>5</v>
@@ -6514,7 +6513,7 @@
         <v>5</v>
       </c>
       <c r="BD39" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="BG39" s="15">
         <v>5</v>
@@ -6529,10 +6528,10 @@
         <v>400</v>
       </c>
       <c r="BK39" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BL39" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BN39" s="15">
         <v>5</v>
@@ -6541,7 +6540,7 @@
         <v>5</v>
       </c>
       <c r="BP39" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BR39" s="15">
         <v>5</v>
@@ -6550,7 +6549,7 @@
         <v>5</v>
       </c>
       <c r="BT39" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BV39" s="15">
         <v>5</v>
@@ -6559,16 +6558,16 @@
         <v>5</v>
       </c>
       <c r="BX39" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BY39" s="15" t="s">
         <v>61</v>
       </c>
       <c r="BZ39" s="15" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="CA39" s="15" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="CB39" s="15">
         <v>0.7</v>
@@ -6577,7 +6576,7 @@
         <v>84</v>
       </c>
       <c r="CD39" s="15" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="CE39" s="15">
         <v>50</v>
@@ -6595,7 +6594,7 @@
         <v>5</v>
       </c>
       <c r="CJ39" s="15" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="CK39" s="15">
         <v>5</v>
@@ -6613,7 +6612,7 @@
         <v>5</v>
       </c>
       <c r="CP39" s="15" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="CQ39" s="15">
         <v>5</v>
@@ -6667,13 +6666,13 @@
   <sheetData>
     <row r="1" spans="1:58" ht="51">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -6682,7 +6681,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -6846,13 +6845,13 @@
         <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>54</v>
@@ -6861,22 +6860,22 @@
         <v>42922</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>55</v>
@@ -6897,7 +6896,7 @@
         <v>60</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>57</v>
@@ -6920,34 +6919,34 @@
         <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F3" s="2">
         <v>42852</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>55</v>
@@ -6982,37 +6981,37 @@
         <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F4" s="2">
         <v>42941</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>55</v>
@@ -7047,34 +7046,34 @@
         <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F5" s="2">
         <v>42929</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>55</v>
@@ -7109,31 +7108,31 @@
         <v>90</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F6" s="2">
         <v>42941</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>55</v>
@@ -7147,37 +7146,37 @@
         <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F7" s="2">
         <v>42930</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="L7" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>57</v>
@@ -7218,37 +7217,37 @@
         <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F8" s="2">
         <v>42933</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="L8" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>57</v>
@@ -7266,7 +7265,7 @@
         <v>55</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>57</v>
@@ -7292,10 +7291,10 @@
         <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>66</v>
@@ -7304,22 +7303,22 @@
         <v>43040</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="L9" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>57</v>
@@ -7336,10 +7335,10 @@
         <v>89</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>67</v>
@@ -7348,25 +7347,25 @@
         <v>43055</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="J10" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="AE10" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AJ10" s="1" t="s">
         <v>55</v>
@@ -7377,7 +7376,7 @@
         <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>68</v>
@@ -7392,16 +7391,16 @@
         <v>70</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="AO11" s="1" t="s">
         <v>58</v>
@@ -7439,10 +7438,10 @@
         <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>77</v>
@@ -7460,13 +7459,13 @@
         <v>79</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AO12" s="1" t="s">
         <v>58</v>

--- a/app/data/wto_proposal_settings_master.xlsx
+++ b/app/data/wto_proposal_settings_master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kat/GitHub/SubsidyExplorer/app/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kat/GitHub/SubsidyExplorer/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71AAB11-335D-EE47-90FF-DE4CC23E9AC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B287A9F2-8BA9-744D-B023-ACD20B29DCDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="49680" windowHeight="26100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="549">
   <si>
     <t>proposal</t>
   </si>
@@ -476,9 +476,6 @@
     <t xml:space="preserve">This communication aims to consolidate all existing texts that have been put forth or discussed with regards to a prohibition on subsidies that contribute to IUU fishing. It contains alternative approaches to crafting such a discipline, as well as alternative versions of relevant definitions. </t>
   </si>
   <si>
-    <t xml:space="preserve">This communication presents the current state of the negotiations as they relate to a prohibition on subsidies that contribute to overcapacity and overfishing. A number of different approaches are discussed along with pertaining unresolved questions. </t>
-  </si>
-  <si>
     <t xml:space="preserve">This communication advocates for placing prohibitions on a Member's subsidies contingent upon, or tied to actual or anticipated, fishing activities in areas beyond that Member's national jurisdiction. </t>
   </si>
   <si>
@@ -489,9 +486,6 @@
   </si>
   <si>
     <t xml:space="preserve">This communication presents a draft text for a prohibition on subsidies for fishing on overfished stocks. It is very similar to some of the draft text provided in RD/TN/RL/119, and advocates for a prohibition on subsidies for fishing on stocks recognized as overfished by the Member under whose jurisdiction the fishing is taking place or by the relevant RFMO/A. Such subsidies shall be prohibited if they are found to be having a negative effect on the stock, defined as any of the following: 1) a lack of recovery of the fishery; 2) continuation of depletion of fish stock levels; 3) continuation of excess levels of fishing. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This communication presents the current state of the negotiations as they relate to special and differential treatment. A number of different approaches are discussed along with pertaining unresolved questions. </t>
   </si>
   <si>
     <t>TN/RL/GEN/181/Rev.1</t>
@@ -1395,9 +1389,6 @@
     <t>This document summarizes the Facilitator's recommendations regarding the elimination of subsidies that contribute to IUU fishing. Key elements: i) making IUU determinations is a right Members have based on agreements outside the WTO; ii) a subsidies prohibition should not imply an obligation related to making IUU determinations; iii) all procedures must have been followed in making the determination, including appeal and review; iv) there is general agreement that determinations by a coastal state, RFMO/A, flag state, and subsidizing Member state should all trigger the prohibition of subsidies.</t>
   </si>
   <si>
-    <t xml:space="preserve">No special and differential treatment is condisidered </t>
-  </si>
-  <si>
     <t>EU and others - Overfishing and overcapacity</t>
   </si>
   <si>
@@ -1539,9 +1530,6 @@
     <t>1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) It is difficult to identify subsidies for subsistence fishing, so we approximate this condition by assuming that subsidies for fishing within a Member's territorial waters are allowed.</t>
   </si>
   <si>
-    <t xml:space="preserve">Transition periods shall be allowed for developing country Members and LDCs. We assume these transition periods to be 4 and 6 years respectively. </t>
-  </si>
-  <si>
     <t>Facilitator's working text - IUU</t>
   </si>
   <si>
@@ -1554,9 +1542,6 @@
     <t>An underlying assumption of this tool to make modeling possible is that the subsidizing state of a vessel is its flag state. Therefore, this communication is not modeled, but is included here for reference.</t>
   </si>
   <si>
-    <t xml:space="preserve">This communication advocates for prohibiting subsidies to vessels that are subsidized by a WTO Member, but do not fly the flag of that Member. </t>
-  </si>
-  <si>
     <t>RD/TN/RL/119 | Relevant Authorities</t>
   </si>
   <si>
@@ -1606,13 +1591,157 @@
   </si>
   <si>
     <t>This communication proposes a quantitative approach of reductions and limits to fisheries subsidies. The baseline of reductions is to be the annual average monetary value of fisheries subsidies (over the 3 prior years). It specifies cumulative ranges (8 ranges: 0-15mn to over 1,2bn) of subsidies in monetary value. Members falling in each range will be subject to a specific percentage reduction in total fisheries subsidies (from 0% to 45% in increments of 5). The total subsidy reduction shall equal the sum of the cuts on each range.</t>
+  </si>
+  <si>
+    <t>assumptions_iuu</t>
+  </si>
+  <si>
+    <t>assumptions_overfished</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;There is uncertainty regarding the status of many fish stocks.&lt;/li&gt;&lt;li&gt;For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited.&lt;/li&gt;&lt;li&gt;The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database.&lt;/li&gt;&lt;li&gt;This proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text.&lt;/li&gt;&lt;li&gt;Additionally, as written, this text requires that there be a causal negative effect to the stock as a result of the subsidy. This is difficult to establish given existing data on subsidy provisioning and stock status, and is not possible to model, but we have chosen a more conservative reference point in regards to this condition.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>assumptions_ofoc</t>
+  </si>
+  <si>
+    <t>assumptions_cap_tier</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;We assume that provision of the following types of subsidies as defined by Sumaila et al. 2019 are allowed to continue irrespective of a Member's total de minimus limit: i) fisher assistance programs; ii) rural fishers' community development programs.subsidies (both programs relevant to fishing in territorial waters). Therefore each Member's base subsidy level is represented by the total amount of all other capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019.&lt;/li&gt;&lt;li&gt;We estimate the landed value of marine capture fisheries from the FAO Global Capture Production Database.&lt;/li&gt;&lt;li&gt;We assume the de minimis limit for developed and developing country members belonging to the top 10 marine capture fisheries producers to be 10% of the average total landed value of the Member's marine capture fisheries between 2016-2018. For all other developing country Members, we assume the de minimis limit to be 20% of the average total landed value between 2016-2018. For LDC Members, we assume the de minimis limit to be 30% of the average total landed value between 2016-2018.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;There is uncertainty regarding the status of many fish stocks.&lt;/li&gt;&lt;li&gt;For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited.&lt;/li&gt;&lt;li&gt;The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database.&lt;/li&gt;&lt;li&gt;This proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text.&lt;/li&gt;&lt;li&gt;It is not possible to simulate whether Members could demonstrate that they have policies in place that would negate this prohibition.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;We assume each Member's cap is equal to whichever of the three proposed approaches for calculating a cap yields the largest amount. By default, caps based on the first approach are calculated as 55% of each Member's base for capping; caps based on the second approach are calculated as 2% of each Member's estimated landed value (calculated from the FAO Global Marine Capture Production Database, average between 2016-2018); caps based on the third approach are calculated as 55% of the global average subsidies per fisher (capacity-enhancing and ambiguous) multiplied by each Member's most recently reported total number of fishers (from the FAO Yearbook of Fishery and Aquaculture Statistics 2017).&lt;/li&gt;&lt;li&gt;We assume that provision of the following types of subsidies as defined by Sumaila et al. 2019 are allowed to continue irrespective of a Member's total cap: i) subsidies for fishing access agreements; ii) fisher assistance programs; iii) vessel buyback programs; iv) rural fishers' community development programs. Therefore each Member's base for capping is represented by the total amount of all other capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states.&lt;/li&gt;&lt;li&gt;No publically available data exist for most flag- and subsidizing Members, nor for coastal Members. The possible effects of modeling this proposal is therefore a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings.&lt;/li&gt;&lt;li&gt;No proportionality or the duration of prohibition is considered.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction.&lt;/li&gt;&lt;li&gt;We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally.&lt;/li&gt;&lt;li&gt;By default, we consider all capacity-enhancing and ambiguous subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas to be prohibited.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>sdt_iuu</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>sdt_overfished</t>
+  </si>
+  <si>
+    <t>None considered.</t>
+  </si>
+  <si>
+    <t>sdt_ofoc</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;We assume that the following types of subsidies as defined by Sumaila et al. 2019 are prohibited: i) boat construction and renovation, ii) fuel.&lt;/li&gt;&lt;li&gt;This prohibition is assumed to only apply to developed and developing country Members.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;There is uncertainty regarding the status of many fish stocks.&lt;/li&gt;&lt;li&gt;For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited.&lt;/li&gt;&lt;li&gt;The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database.&lt;/li&gt;&lt;li&gt;This proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text.&lt;/li&gt;&lt;li&gt;Subsidies for fishing within a Member's territorial sea shall be allowed.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;We assume that each Member's base for capping is represented by the total amount of capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019.&lt;/li&gt;&lt;li&gt;Members are sorted into three tiers based on a three-year average of FAO marine capture production (2016-2018). Members accounting for 0.7% or more of global marine capture production are in "Tier 1"; Members accounting for 0.05% or more, but less than 0.7%, of global marine capture production are in "Tier 2"; Members accounting for less than 0.05% of global marine capture production are in "Tier 3".&lt;/li&gt;&lt;li&gt;This proposal advocates for allowing both Tier 1 and Tier 2 Members to negotiate their own subsidy caps or to accept a default cap of $50 million annually. For the purposes of modeling, we assume that Tier 1 Members receive a subsidy cap equal to 50% of their base for capping; Tier 2 Members receive the default cap of $50 million; Tier 3 Members do not receive a cap.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels satisfying the three following characteristics: i) total length of more than 24 meters; ii) gross tonnage of more than 100 GT; iii) engine power of more than 130 kW.&lt;/li&gt;&lt;li&gt;In general, our underlying dataset does not include many vessels with fishing gears that are not hauled by a motor driven equipment, thus this characteristic is assumed to be satisfied.&lt;/li&gt;&lt;li&gt;The other 2 conditions are not considered as it is difficult to determine which vessels have onboard freezing equipment, or the characteristics of a vessel's owning or operating company.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, port, or market Member states.&lt;/li&gt;&lt;li&gt;No publically available data exist for most flag and subsidizing Member states, nor for coastal, port, or market Member states. The possible effects of modeling this proposal is therefore a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings.&lt;/li&gt;&lt;li&gt;No proportionality or the duration of prohibition is considered.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;There is uncertainty regarding the status of many fish stocks.&lt;/li&gt;&lt;li&gt;For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited.&lt;/li&gt;&lt;li&gt;The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database.&lt;/li&gt;&lt;li&gt;The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text.&lt;/li&gt;&lt;li&gt;It is difficult to identify subsidies for subsistence fishing, so we approximate this condition by assuming that subsidies for fishing within a Member's territorial waters are allowed.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>Transition periods shall be allowed for developing country Members (4 years) and LDCs (6 years).</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states.&lt;/li&gt;&lt;li&gt;No publically available data exist for most flag and subsidizing Member states, nor for coastal Member states. The possible effects of modeling this proposal is therefore a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings.&lt;/li&gt;&lt;li&gt;No proportionality or the duration of prohibition is considered.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;There is uncertainty regarding the status of many fish stocks.&lt;/li&gt;&lt;li&gt;For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited.&lt;/li&gt;&lt;li&gt;The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database.&lt;/li&gt;&lt;li&gt;The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text.&lt;/li&gt;&lt;li&gt;Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the more ambitious interpretation of the two (see New Zealand/Iceland - Overfishing and overcapacity).&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;There is uncertainty regarding the status of many fish stocks.&lt;/li&gt;&lt;li&gt;For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited.&lt;/li&gt;&lt;li&gt;The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database.&lt;/li&gt;&lt;li&gt;The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text.&lt;/li&gt;&lt;li&gt;Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the less ambitious interpretation of the two (see Australia - Overfished).&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;There is uncertainty regarding the status of many fish stocks.&lt;/li&gt;&lt;li&gt;For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited.&lt;/li&gt;&lt;li&gt;The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database.&lt;/li&gt;&lt;li&gt;The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;As written, this text places prohibitions on subsidies for fishing outside of the jurisdictions of coastal Members or relevant RFMO/As. Very few areas of the ocean are not under the jurisdiction of a RFMO/A, but it is difficult to determine on a global scale whether vessels are fishing for species governed by those RFMO/As at any given point in time.&lt;/li&gt;&lt;li&gt;We therefore assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels spending at least 5% of their total annual effort fishing on the high seas outside of the jurisdictions of coastal Members.&lt;/li&gt;&lt;li&gt;We note that this is an ambitious interpretation of this prohibition.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states.&lt;/li&gt;&lt;li&gt;No publically available data exist for most flag and subsidizing Members, nor for coastal Members. The possible effects of modeling this proposal is therefore a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings.&lt;/li&gt;&lt;li&gt;No proportionality or the duration of prohibition is considered.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;We assume that the following types of subsidies as defined by Sumaila et al. 2019 are prohibited: i) boat construction and renovation, ii) fuel.&lt;/li&gt;&lt;li&gt;This prohibition is assumed to only apply to Members responsible for more than 1% of global marine capture production (calculated as the annual average between 2016-2018)&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>Subsidies for fishing in a Member's territorial waters are excluded. A transition period of 5 years shall be allowed for both developing and LDC Members.</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing on the high seas, and to vessels greater than 24 m in length or with a tonnage greater than 100 GT (we assume industrial fishing to be defined by the characteristics specified by the proposal from Morocco).&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>This prohibition shall not apply to LDC Members. A transition period of 5 years shall be allowed for developing Members.</t>
+  </si>
+  <si>
+    <t>Subsidies granted by developing and LDC Members shall be allowed for small scale fishing: i) within their own territorial waters and ii) within their own EEZs and on the high seas for 7 years.</t>
+  </si>
+  <si>
+    <t>Subsidies granted by developing and LDC Members shall be allowed for fishing i) within their own territorial waters and ii) within their own EEZs for 2 years.</t>
+  </si>
+  <si>
+    <t>Subsidies granted by LDCs shall be allowed, and subsidies granted by developing countries shall be allowed for fishing in their territorial seas, or for fishing in their EEZs and on the high seas unless any of the following conditions are met for three consecutive years (2016-2018): a) GNI per capita is greater than US $5000 (constant 2010 US$), b) they engage in distant water fishing, or c) the contribution from Agriculture, Forestry and Fishing to their national GDP (World Bank) is greater than 10%.</t>
+  </si>
+  <si>
+    <t>This communication presents the current state of the negotiations as they relate to a prohibition on subsidies that contribute to overcapacity and overfishing. A number of different approaches are discussed along with pertaining unresolved questions. This working paper does not contain text suggestions to model, but is included here for reference.</t>
+  </si>
+  <si>
+    <t>This communication advocates for prohibiting subsidies to vessels that are subsidized by a WTO Member, but do not fly the flag of that Member. An underlying assumption of this tool to make modeling possible is that the subsidizing state of a vessel is its flag state. Therefore, this communication is not modeled, but is included here for reference.</t>
+  </si>
+  <si>
+    <t>This communication presents the current state of the negotiations as they relate to special and differential treatment. A number of different approaches are discussed along with pertaining unresolved questions. This working paper does not contain text suggestions to model, but is included here for reference.</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>None&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states.&lt;/li&gt;&lt;li&gt;No publically available data exist for most flag and subsidizing Members, nor for coastal Members. The possible effects of modeling this proposal is therefore a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings.&lt;/li&gt;&lt;li&gt;No proportionality or the duration of prohibition is considered.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>Subsidies granted by developing and LDC Members shall be allowed for small scale fishing within their own territorial waters.</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;We assume each Member's baseline to the total magnitude of capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019.&lt;/li&gt;&lt;li&gt;The formula ranges and percentages of reduction from the proposal are then applied to all Members.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>Subsidies granted by developing and LDC Members shall be allowed for fishing within their own territorial waters.</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;There is uncertainty regarding the status of many fish stocks.&lt;/li&gt;&lt;li&gt;For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited.&lt;/li&gt;&lt;li&gt;The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database.&lt;/li&gt;&lt;li&gt;The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text.&lt;/li&gt;&lt;li&gt;Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the more ambitious interpretation of the two (see Australia - Overfished).&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction.&lt;/li&gt;&lt;li&gt;We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally.&lt;/li&gt;&lt;li&gt;By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>Subsidies granted by LDCs shall be allowed, and subsidies granted by developing countries shall be allowed for fishing in their territorial seas, or for fishing in their EEZs and high seas unless any of the following conditions are met for three consecutive years (2016-2018): a) GNI per capita is greater than US $5000 (constant 2010 US$), b) they engage in distant water fishing, or c) the contribution from Agriculture, Forestry and Fishing to their national GDP (World Bank) is greater than 10%.</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited in areas classified as "disputed" in the Marine Regions' Maritime Boundaries World EEZ dataset (v10).&lt;/li&gt;&lt;li&gt;We note that this is a very ambitious interpretation of the possible effects of this proposal.&lt;/li&gt;&lt;li&gt;It is materially impossible to model non-existing agreements to subsidize in disputed areas.&lt;/li&gt;&lt;/ol&gt;&lt;i&gt;Disclaimer: We recognize that disputed areas are a political matter and our interpretation of this text is not meant to imply the expression of any opinion whatsoever concerning the status of any country, territory, city or area or of its authorities, or concerning the delimitation of its frontier or boundaries.&lt;/i&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1772,7 +1901,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1982,6 +2111,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2143,7 +2278,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2239,6 +2374,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2596,14 +2740,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CU39"/>
+  <dimension ref="A1:DB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V1" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="12"/>
     <col min="2" max="2" width="10.83203125" style="14"/>
@@ -2621,16 +2765,21 @@
     <col min="15" max="15" width="48.33203125" style="15" customWidth="1"/>
     <col min="16" max="16" width="56.1640625" style="14" customWidth="1"/>
     <col min="17" max="17" width="71" style="14" customWidth="1"/>
-    <col min="18" max="83" width="10.83203125" style="15"/>
-    <col min="84" max="87" width="10.83203125" style="27"/>
-    <col min="88" max="90" width="10.83203125" style="15"/>
-    <col min="91" max="93" width="10.83203125" style="27"/>
-    <col min="94" max="96" width="10.83203125" style="15"/>
-    <col min="97" max="99" width="10.83203125" style="27"/>
-    <col min="100" max="16384" width="10.83203125" style="15"/>
+    <col min="18" max="18" width="68.83203125" style="34" customWidth="1"/>
+    <col min="19" max="19" width="41.83203125" style="34" customWidth="1"/>
+    <col min="20" max="22" width="68.83203125" style="34" customWidth="1"/>
+    <col min="23" max="23" width="42.1640625" style="34" customWidth="1"/>
+    <col min="24" max="24" width="68.83203125" style="34" customWidth="1"/>
+    <col min="25" max="90" width="10.83203125" style="15"/>
+    <col min="91" max="94" width="10.83203125" style="27"/>
+    <col min="95" max="97" width="10.83203125" style="15"/>
+    <col min="98" max="100" width="10.83203125" style="27"/>
+    <col min="101" max="103" width="10.83203125" style="15"/>
+    <col min="104" max="106" width="10.83203125" style="27"/>
+    <col min="107" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" s="8" customFormat="1" ht="56">
+    <row r="1" spans="1:106" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>140</v>
       </c>
@@ -2638,25 +2787,25 @@
         <v>88</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>1</v>
@@ -2665,7 +2814,7 @@
         <v>128</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>2</v>
@@ -2680,256 +2829,277 @@
         <v>5</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="R1" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>501</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>511</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>502</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>513</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>515</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="W1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="AD1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH1" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AL1" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AM1" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AN1" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AO1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ1" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="AR1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU1" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AV1" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="AH1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AW1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX1" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="AY1" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="AZ1" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="BA1" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="BB1" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="BC1" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="BD1" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="BE1" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="BF1" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="BG1" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="BH1" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="BI1" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="BJ1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="BK1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="BL1" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="AK1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN1" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="AO1" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="AP1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AQ1" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="AR1" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="AS1" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="AT1" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="AU1" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="AV1" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="AW1" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="AX1" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="AY1" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="AZ1" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="BA1" s="8" t="s">
+      <c r="BM1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="BN1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="BO1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="BP1" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="BB1" s="8" t="s">
+      <c r="BQ1" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="BC1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="BD1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="BE1" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="BF1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="BG1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="BH1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="BI1" s="8" t="s">
+      <c r="BR1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS1" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="BJ1" s="8" t="s">
+      <c r="BT1" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="BK1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="BL1" s="8" t="s">
+      <c r="BU1" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="BM1" s="8" t="s">
+      <c r="BV1" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="BN1" s="8" t="s">
+      <c r="BW1" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="BO1" s="8" t="s">
+      <c r="BX1" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="BP1" s="8" t="s">
+      <c r="BY1" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="BQ1" s="8" t="s">
+      <c r="BZ1" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="BR1" s="8" t="s">
+      <c r="CA1" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="BS1" s="8" t="s">
+      <c r="CB1" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="BT1" s="8" t="s">
+      <c r="CC1" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="BU1" s="8" t="s">
+      <c r="CD1" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="BV1" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="BW1" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="BX1" s="8" t="s">
+      <c r="CE1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="BY1" s="8" t="s">
+      <c r="CF1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="BZ1" s="8" t="s">
+      <c r="CG1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="CA1" s="8" t="s">
+      <c r="CH1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="CB1" s="8" t="s">
+      <c r="CI1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="CC1" s="8" t="s">
+      <c r="CJ1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="CD1" s="8" t="s">
+      <c r="CK1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="CE1" s="8" t="s">
+      <c r="CL1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="CF1" s="8" t="s">
+      <c r="CM1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="CG1" s="8" t="s">
+      <c r="CN1" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="CO1" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="CP1" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="CH1" s="8" t="s">
+      <c r="CQ1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="CR1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="CS1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="CT1" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="CI1" s="8" t="s">
+      <c r="CU1" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="CJ1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="CK1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="CL1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="CM1" s="8" t="s">
+      <c r="CV1" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="CN1" s="8" t="s">
+      <c r="CW1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="CX1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="CY1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="CZ1" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="CO1" s="8" t="s">
+      <c r="DA1" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="CP1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="CQ1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="CR1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="CS1" s="8" t="s">
+      <c r="DB1" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="CT1" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="CU1" s="8" t="s">
-        <v>390</v>
-      </c>
     </row>
-    <row r="2" spans="1:99" s="8" customFormat="1" ht="282" customHeight="1">
+    <row r="2" spans="1:106" s="8" customFormat="1" ht="282" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>58</v>
       </c>
@@ -2937,22 +3107,22 @@
         <v>98</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>99</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>55</v>
@@ -2964,7 +3134,7 @@
         <v>43545</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M2" s="15" t="s">
         <v>146</v>
@@ -2973,22 +3143,34 @@
         <v>147</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15" t="s">
-        <v>297</v>
+        <v>469</v>
+      </c>
+      <c r="R2" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="S2" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="T2" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="U2" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="V2" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="W2" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="X2" s="34" t="s">
+        <v>506</v>
       </c>
       <c r="Y2" s="15"/>
       <c r="Z2" s="15"/>
@@ -2996,7 +3178,9 @@
       <c r="AB2" s="15"/>
       <c r="AC2" s="15"/>
       <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
+      <c r="AE2" s="15" t="s">
+        <v>295</v>
+      </c>
       <c r="AF2" s="15"/>
       <c r="AG2" s="15"/>
       <c r="AH2" s="15"/>
@@ -3007,16 +3191,16 @@
       <c r="AM2" s="15"/>
       <c r="AN2" s="15"/>
       <c r="AO2" s="15"/>
-      <c r="AP2" s="15" t="s">
-        <v>297</v>
-      </c>
+      <c r="AP2" s="15"/>
       <c r="AQ2" s="15"/>
       <c r="AR2" s="15"/>
       <c r="AS2" s="15"/>
       <c r="AT2" s="15"/>
       <c r="AU2" s="15"/>
       <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
+      <c r="AW2" s="15" t="s">
+        <v>295</v>
+      </c>
       <c r="AX2" s="15"/>
       <c r="AY2" s="15"/>
       <c r="AZ2" s="15"/>
@@ -3030,66 +3214,73 @@
       <c r="BH2" s="15"/>
       <c r="BI2" s="15"/>
       <c r="BJ2" s="15"/>
-      <c r="BK2" s="15" t="s">
-        <v>297</v>
-      </c>
+      <c r="BK2" s="15"/>
       <c r="BL2" s="15"/>
       <c r="BM2" s="15"/>
       <c r="BN2" s="15"/>
       <c r="BO2" s="15"/>
       <c r="BP2" s="15"/>
       <c r="BQ2" s="15"/>
-      <c r="BR2" s="15"/>
+      <c r="BR2" s="15" t="s">
+        <v>295</v>
+      </c>
       <c r="BS2" s="15"/>
       <c r="BT2" s="15"/>
       <c r="BU2" s="15"/>
       <c r="BV2" s="15"/>
       <c r="BW2" s="15"/>
-      <c r="BX2" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="BY2" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="BZ2" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="CA2" s="15" t="s">
-        <v>404</v>
-      </c>
+      <c r="BX2" s="15"/>
+      <c r="BY2" s="15"/>
+      <c r="BZ2" s="15"/>
+      <c r="CA2" s="15"/>
       <c r="CB2" s="15"/>
       <c r="CC2" s="15"/>
-      <c r="CD2" s="29" t="s">
-        <v>405</v>
-      </c>
-      <c r="CE2" s="15"/>
-      <c r="CF2" s="27">
+      <c r="CD2" s="15"/>
+      <c r="CE2" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CF2" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="CG2" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="CH2" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="CI2" s="15"/>
+      <c r="CJ2" s="15"/>
+      <c r="CK2" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="CL2" s="15"/>
+      <c r="CM2" s="27">
         <v>10</v>
       </c>
-      <c r="CG2" s="27"/>
-      <c r="CH2" s="27"/>
-      <c r="CI2" s="27"/>
-      <c r="CJ2" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="CL2" s="15">
-        <v>20</v>
-      </c>
-      <c r="CM2" s="27"/>
       <c r="CN2" s="27"/>
       <c r="CO2" s="27"/>
-      <c r="CP2" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="CQ2" s="15"/>
-      <c r="CR2" s="15">
-        <v>30</v>
-      </c>
-      <c r="CS2" s="27"/>
+      <c r="CP2" s="27"/>
+      <c r="CQ2" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="CS2" s="15">
+        <v>20</v>
+      </c>
       <c r="CT2" s="27"/>
       <c r="CU2" s="27"/>
+      <c r="CV2" s="27"/>
+      <c r="CW2" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="CX2" s="15"/>
+      <c r="CY2" s="15">
+        <v>30</v>
+      </c>
+      <c r="CZ2" s="27"/>
+      <c r="DA2" s="27"/>
+      <c r="DB2" s="27"/>
     </row>
-    <row r="3" spans="1:99" ht="182">
+    <row r="3" spans="1:106" ht="182" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>58</v>
       </c>
@@ -3097,22 +3288,22 @@
         <v>98</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>108</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>55</v>
@@ -3124,7 +3315,7 @@
         <v>43573</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>110</v>
@@ -3133,34 +3324,55 @@
         <v>111</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P3" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="X3" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH3" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="AI3" s="15" t="s">
-        <v>296</v>
+        <v>470</v>
+      </c>
+      <c r="R3" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="S3" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="T3" s="34" t="s">
+        <v>507</v>
+      </c>
+      <c r="U3" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="V3" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="W3" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="X3" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE3" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AO3" s="15" t="s">
+        <v>311</v>
       </c>
       <c r="AP3" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BK3" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BX3" s="15" t="s">
-        <v>297</v>
+        <v>294</v>
+      </c>
+      <c r="AW3" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BR3" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CE3" s="15" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="4" spans="1:99" ht="238">
+    <row r="4" spans="1:106" ht="238" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>58</v>
       </c>
@@ -3168,10 +3380,10 @@
         <v>98</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>58</v>
@@ -3190,7 +3402,7 @@
         <v>43620</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M4" s="15" t="s">
         <v>78</v>
@@ -3199,46 +3411,67 @@
         <v>79</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="X4" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AP4" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BK4" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BX4" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="BY4" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="BZ4" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="CD4" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="CG4" s="27">
-        <v>55</v>
-      </c>
-      <c r="CH4" s="27">
+      <c r="R4" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="S4" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="T4" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="U4" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="V4" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="W4" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="X4" s="34" t="s">
+        <v>508</v>
+      </c>
+      <c r="AE4" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AW4" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BR4" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CE4" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CF4" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="CG4" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="CK4" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="CN4" s="27">
+        <v>55</v>
+      </c>
+      <c r="CO4" s="27">
         <v>2.1</v>
       </c>
-      <c r="CI4" s="27">
+      <c r="CP4" s="27">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:99" ht="182">
+    <row r="5" spans="1:106" ht="196" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>58</v>
       </c>
@@ -3246,10 +3479,10 @@
         <v>123</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>58</v>
@@ -3258,7 +3491,7 @@
         <v>131</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>55</v>
@@ -3270,7 +3503,7 @@
         <v>43621</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M5" s="15" t="s">
         <v>133</v>
@@ -3279,34 +3512,55 @@
         <v>134</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="X5" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH5" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="AI5" s="15" t="s">
-        <v>296</v>
+        <v>471</v>
+      </c>
+      <c r="R5" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="S5" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="T5" s="34" t="s">
+        <v>503</v>
+      </c>
+      <c r="U5" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="V5" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="W5" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="X5" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE5" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AO5" s="15" t="s">
+        <v>336</v>
       </c>
       <c r="AP5" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BK5" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BX5" s="15" t="s">
-        <v>297</v>
+        <v>294</v>
+      </c>
+      <c r="AW5" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BR5" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CE5" s="15" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:99" ht="182">
+    <row r="6" spans="1:106" ht="182" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>58</v>
       </c>
@@ -3314,10 +3568,10 @@
         <v>90</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>58</v>
@@ -3335,7 +3589,7 @@
         <v>43628</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M6" s="15" t="s">
         <v>143</v>
@@ -3344,37 +3598,58 @@
         <v>145</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="U6" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="X6" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AP6" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BK6" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BX6" s="15" t="s">
-        <v>297</v>
+        <v>472</v>
+      </c>
+      <c r="R6" s="34" t="s">
+        <v>509</v>
+      </c>
+      <c r="S6" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="T6" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="U6" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="V6" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="W6" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="X6" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y6" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z6" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB6" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE6" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AW6" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BR6" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CE6" s="15" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:99" ht="112">
+    <row r="7" spans="1:106" ht="126" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>58</v>
       </c>
@@ -3382,16 +3657,16 @@
         <v>98</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>102</v>
@@ -3406,7 +3681,7 @@
         <v>43643</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M7" s="15" t="s">
         <v>103</v>
@@ -3415,40 +3690,61 @@
         <v>104</v>
       </c>
       <c r="O7" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="X7" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AP7" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BC7" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BD7" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="BE7" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="R7" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="S7" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="T7" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="U7" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="V7" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="W7" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="X7" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE7" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AW7" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BJ7" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="BK7" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="BL7" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="BG7" s="15">
+      <c r="BN7" s="15">
         <v>5</v>
       </c>
-      <c r="BK7" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BX7" s="15" t="s">
-        <v>297</v>
+      <c r="BR7" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CE7" s="15" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="8" spans="1:99" ht="182">
+    <row r="8" spans="1:106" ht="182" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>58</v>
       </c>
@@ -3456,19 +3752,19 @@
         <v>98</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>114</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>55</v>
@@ -3480,7 +3776,7 @@
         <v>43648</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M8" s="15" t="s">
         <v>115</v>
@@ -3489,49 +3785,70 @@
         <v>116</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="X8" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AP8" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BC8" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="R8" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="S8" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="T8" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="U8" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="V8" s="34" t="s">
+        <v>516</v>
+      </c>
+      <c r="W8" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="X8" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE8" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AW8" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BJ8" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="BD8" s="15" t="s">
-        <v>296</v>
-      </c>
       <c r="BK8" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="BL8" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="BM8" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="BP8" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="BQ8" s="15" t="s">
-        <v>324</v>
+        <v>294</v>
+      </c>
+      <c r="BR8" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BS8" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="BT8" s="15" t="s">
-        <v>297</v>
+        <v>294</v>
+      </c>
+      <c r="BW8" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="BX8" s="15" t="s">
-        <v>297</v>
+        <v>322</v>
+      </c>
+      <c r="CA8" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CE8" s="15" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="9" spans="1:99" ht="140">
+    <row r="9" spans="1:106" ht="154" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>58</v>
       </c>
@@ -3539,10 +3856,10 @@
         <v>123</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>58</v>
@@ -3551,7 +3868,7 @@
         <v>129</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>55</v>
@@ -3563,7 +3880,7 @@
         <v>43648</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M9" s="15" t="s">
         <v>130</v>
@@ -3572,37 +3889,58 @@
         <v>116</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="X9" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH9" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="AI9" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="AJ9" s="15" t="s">
-        <v>319</v>
+        <v>474</v>
+      </c>
+      <c r="R9" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="S9" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="T9" s="34" t="s">
+        <v>517</v>
+      </c>
+      <c r="U9" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="V9" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="W9" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="X9" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE9" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AO9" s="15" t="s">
+        <v>336</v>
       </c>
       <c r="AP9" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BK9" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BX9" s="15" t="s">
-        <v>297</v>
+        <v>359</v>
+      </c>
+      <c r="AQ9" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="AW9" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BR9" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CE9" s="15" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="10" spans="1:99" ht="168">
+    <row r="10" spans="1:106" ht="168" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>58</v>
       </c>
@@ -3610,10 +3948,10 @@
         <v>98</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>58</v>
@@ -3622,7 +3960,7 @@
         <v>68</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>58</v>
@@ -3634,7 +3972,7 @@
         <v>43657</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M10" s="15" t="s">
         <v>70</v>
@@ -3643,55 +3981,76 @@
         <v>127</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="X10" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="R10" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="S10" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="T10" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="U10" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="V10" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="W10" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="X10" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="AE10" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AW10" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BR10" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CE10" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CF10" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="CG10" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="CH10" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="AP10" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BK10" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BX10" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="BY10" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BZ10" s="15" t="s">
+      <c r="CJ10" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="CK10" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="CA10" s="15" t="s">
+      <c r="CM10" s="27">
+        <v>50</v>
+      </c>
+      <c r="CQ10" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="CC10" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="CD10" s="15" t="s">
+      <c r="CR10" s="15">
+        <v>50</v>
+      </c>
+      <c r="CW10" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="CF10" s="27">
-        <v>50</v>
-      </c>
-      <c r="CJ10" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="CK10" s="15">
-        <v>50</v>
-      </c>
-      <c r="CP10" s="15" t="s">
-        <v>302</v>
-      </c>
     </row>
-    <row r="11" spans="1:99" ht="154">
+    <row r="11" spans="1:106" ht="154" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>58</v>
       </c>
@@ -3699,16 +4058,16 @@
         <v>98</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>106</v>
@@ -3723,7 +4082,7 @@
         <v>43684</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M11" s="15" t="s">
         <v>112</v>
@@ -3732,46 +4091,67 @@
         <v>113</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="X11" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AP11" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BC11" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BD11" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="R11" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="S11" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="T11" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="U11" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="V11" s="34" t="s">
+        <v>519</v>
+      </c>
+      <c r="W11" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="X11" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE11" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AW11" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BJ11" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="BK11" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="BL11" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="BE11" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="BH11" s="15">
+      <c r="BO11" s="15">
         <v>24</v>
       </c>
-      <c r="BI11" s="15">
+      <c r="BP11" s="15">
         <v>100</v>
       </c>
-      <c r="BJ11" s="15">
+      <c r="BQ11" s="15">
         <v>130</v>
       </c>
-      <c r="BK11" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BX11" s="15" t="s">
-        <v>297</v>
+      <c r="BR11" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CE11" s="15" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:99" ht="98">
+    <row r="12" spans="1:106" ht="112" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>58</v>
       </c>
@@ -3779,10 +4159,10 @@
         <v>90</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>58</v>
@@ -3800,7 +4180,7 @@
         <v>43718</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M12" s="15" t="s">
         <v>94</v>
@@ -3812,34 +4192,55 @@
         <v>150</v>
       </c>
       <c r="P12" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="R12" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="S12" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="U12" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="X12" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AP12" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BK12" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BX12" s="15" t="s">
-        <v>297</v>
+        <v>477</v>
+      </c>
+      <c r="R12" s="34" t="s">
+        <v>520</v>
+      </c>
+      <c r="S12" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="T12" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="U12" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="V12" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="W12" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="X12" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y12" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z12" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB12" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE12" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AW12" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BR12" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CE12" s="15" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:99" ht="136.5" customHeight="1">
+    <row r="13" spans="1:106" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>58</v>
       </c>
@@ -3847,7 +4248,7 @@
         <v>89</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>58</v>
@@ -3856,7 +4257,7 @@
         <v>85</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>58</v>
@@ -3868,7 +4269,7 @@
         <v>43759</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M13" s="15" t="s">
         <v>86</v>
@@ -3877,37 +4278,58 @@
         <v>87</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="X13" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AP13" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BC13" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BD13" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="BE13" s="15" t="s">
-        <v>258</v>
+        <v>392</v>
+      </c>
+      <c r="R13" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="S13" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="T13" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="U13" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="V13" s="34" t="s">
+        <v>548</v>
+      </c>
+      <c r="W13" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="X13" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE13" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AW13" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BJ13" s="15" t="s">
+        <v>378</v>
       </c>
       <c r="BK13" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BX13" s="15" t="s">
-        <v>297</v>
+        <v>359</v>
+      </c>
+      <c r="BL13" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="BR13" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CE13" s="15" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="14" spans="1:99" ht="224">
+    <row r="14" spans="1:106" ht="224" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>58</v>
       </c>
@@ -3915,22 +4337,22 @@
         <v>98</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I14" s="15" t="s">
         <v>55</v>
@@ -3942,67 +4364,88 @@
         <v>43775</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="M14" s="15" t="s">
         <v>118</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="P14" s="18" t="s">
-        <v>483</v>
+        <v>522</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="X14" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH14" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="AI14" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="AJ14" s="15" t="s">
-        <v>319</v>
+        <v>479</v>
+      </c>
+      <c r="R14" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="S14" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="T14" s="34" t="s">
+        <v>521</v>
+      </c>
+      <c r="U14" s="34" t="s">
+        <v>522</v>
+      </c>
+      <c r="V14" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="W14" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="X14" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE14" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AO14" s="15" t="s">
+        <v>311</v>
       </c>
       <c r="AP14" s="15" t="s">
-        <v>304</v>
+        <v>359</v>
       </c>
       <c r="AQ14" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AR14" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="AT14" s="15">
+        <v>317</v>
+      </c>
+      <c r="AW14" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AX14" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AY14" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA14" s="15">
         <v>6</v>
       </c>
-      <c r="AU14" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AV14" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="AX14" s="15">
+      <c r="BB14" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BC14" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="BE14" s="15">
         <v>4</v>
       </c>
-      <c r="AY14" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BK14" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BX14" s="15" t="s">
-        <v>297</v>
+      <c r="BF14" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BR14" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CE14" s="15" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:99" ht="154">
+    <row r="15" spans="1:106" ht="154" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>58</v>
       </c>
@@ -4010,10 +4453,10 @@
         <v>90</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>58</v>
@@ -4022,7 +4465,7 @@
         <v>91</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I15" s="15" t="s">
         <v>55</v>
@@ -4034,46 +4477,67 @@
         <v>43801</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="N15" s="15" t="s">
         <v>92</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="P15" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="R15" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="S15" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="U15" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="X15" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AP15" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BK15" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BX15" s="15" t="s">
-        <v>297</v>
+        <v>481</v>
+      </c>
+      <c r="R15" s="34" t="s">
+        <v>523</v>
+      </c>
+      <c r="S15" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="T15" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="U15" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="V15" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="W15" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="X15" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y15" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z15" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB15" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE15" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AW15" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BR15" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CE15" s="15" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="16" spans="1:99" ht="70">
+    <row r="16" spans="1:106" ht="98" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>55</v>
       </c>
@@ -4081,13 +4545,13 @@
         <v>98</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>100</v>
@@ -4102,7 +4566,7 @@
         <v>43801</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M16" s="15" t="s">
         <v>148</v>
@@ -4111,14 +4575,23 @@
         <v>149</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>151</v>
+        <v>536</v>
       </c>
       <c r="P16" s="18"/>
       <c r="Q16" s="4" t="s">
-        <v>486</v>
+        <v>482</v>
+      </c>
+      <c r="R16" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="T16" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="V16" s="34" t="s">
+        <v>539</v>
       </c>
     </row>
-    <row r="17" spans="1:99" ht="112">
+    <row r="17" spans="1:106" ht="112" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>55</v>
       </c>
@@ -4126,13 +4599,13 @@
         <v>98</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>119</v>
@@ -4148,7 +4621,7 @@
         <v>43801</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="M17" s="15" t="s">
         <v>121</v>
@@ -4157,16 +4630,23 @@
         <v>122</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="P17" s="18" t="s">
-        <v>435</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="P17" s="18"/>
       <c r="Q17" s="4" t="s">
-        <v>487</v>
+        <v>483</v>
+      </c>
+      <c r="R17" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="T17" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="V17" s="34" t="s">
+        <v>539</v>
       </c>
     </row>
-    <row r="18" spans="1:99" ht="56">
+    <row r="18" spans="1:106" ht="84" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>55</v>
       </c>
@@ -4174,13 +4654,13 @@
         <v>89</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>135</v>
@@ -4195,7 +4675,7 @@
         <v>43802</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="M18" s="15" t="s">
         <v>136</v>
@@ -4204,14 +4684,23 @@
         <v>137</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>156</v>
+        <v>538</v>
       </c>
       <c r="P18" s="18"/>
       <c r="Q18" s="4" t="s">
-        <v>486</v>
+        <v>482</v>
+      </c>
+      <c r="R18" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="T18" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="V18" s="34" t="s">
+        <v>539</v>
       </c>
     </row>
-    <row r="19" spans="1:99" ht="224">
+    <row r="19" spans="1:106" ht="224" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>58</v>
       </c>
@@ -4219,7 +4708,7 @@
         <v>123</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>58</v>
@@ -4237,7 +4726,7 @@
         <v>43803</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M19" s="15" t="s">
         <v>125</v>
@@ -4246,26 +4735,26 @@
         <v>126</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="P19" s="18"/>
       <c r="Q19" s="4"/>
     </row>
-    <row r="20" spans="1:99" ht="224">
+    <row r="20" spans="1:106" ht="224" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>123</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>58</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>55</v>
@@ -4277,7 +4766,7 @@
         <v>43803</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M20" s="15" t="s">
         <v>125</v>
@@ -4286,48 +4775,69 @@
         <v>126</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="P20" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="X20" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH20" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="AI20" s="15" t="s">
-        <v>296</v>
+        <v>486</v>
+      </c>
+      <c r="R20" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="S20" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="T20" s="34" t="s">
+        <v>524</v>
+      </c>
+      <c r="U20" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="V20" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="W20" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="X20" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE20" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AO20" s="15" t="s">
+        <v>311</v>
       </c>
       <c r="AP20" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BK20" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BX20" s="15" t="s">
-        <v>297</v>
+        <v>294</v>
+      </c>
+      <c r="AW20" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BR20" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CE20" s="15" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:99" ht="224">
+    <row r="21" spans="1:106" ht="224" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>123</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>58</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="I21" s="15" t="s">
         <v>55</v>
@@ -4339,7 +4849,7 @@
         <v>43803</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M21" s="15" t="s">
         <v>125</v>
@@ -4348,34 +4858,55 @@
         <v>126</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="P21" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="X21" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH21" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="AI21" s="15" t="s">
-        <v>296</v>
+        <v>487</v>
+      </c>
+      <c r="R21" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="S21" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="T21" s="34" t="s">
+        <v>525</v>
+      </c>
+      <c r="U21" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="V21" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="W21" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="X21" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE21" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AO21" s="15" t="s">
+        <v>336</v>
       </c>
       <c r="AP21" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BK21" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BX21" s="15" t="s">
-        <v>297</v>
+        <v>294</v>
+      </c>
+      <c r="AW21" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BR21" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CE21" s="15" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="22" spans="1:99" ht="238">
+    <row r="22" spans="1:106" ht="238" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>58</v>
       </c>
@@ -4383,79 +4914,100 @@
         <v>98</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I22" s="15" t="s">
         <v>55</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K22" s="16">
         <v>43843</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P22" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="X22" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH22" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="AI22" s="15" t="s">
-        <v>296</v>
+        <v>423</v>
+      </c>
+      <c r="R22" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="S22" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="T22" s="34" t="s">
+        <v>526</v>
+      </c>
+      <c r="U22" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="V22" s="34" t="s">
+        <v>527</v>
+      </c>
+      <c r="W22" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="X22" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE22" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AO22" s="15" t="s">
+        <v>311</v>
       </c>
       <c r="AP22" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BC22" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BD22" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="BE22" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="AW22" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BJ22" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="BK22" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="BL22" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="BG22" s="15">
+      <c r="BN22" s="15">
         <v>5</v>
       </c>
-      <c r="BK22" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BX22" s="15" t="s">
-        <v>297</v>
+      <c r="BR22" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CE22" s="15" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="23" spans="1:99" ht="112">
+    <row r="23" spans="1:106" ht="112" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>58</v>
       </c>
@@ -4463,19 +5015,19 @@
         <v>90</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I23" s="15" t="s">
         <v>55</v>
@@ -4487,73 +5039,94 @@
         <v>43865</v>
       </c>
       <c r="L23" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M23" s="15" t="s">
         <v>141</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="P23" s="18" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="R23" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="R23" s="34" t="s">
+        <v>528</v>
+      </c>
+      <c r="S23" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="T23" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="U23" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="V23" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="W23" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="X23" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y23" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z23" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB23" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE23" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF23" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG23" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="S23" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="U23" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="X23" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y23" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="Z23" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA23" s="15">
+      <c r="AH23" s="15">
         <v>6</v>
       </c>
-      <c r="AB23" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AC23" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="AD23" s="15">
+      <c r="AI23" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AJ23" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="AK23" s="15">
         <v>3</v>
       </c>
-      <c r="AE23" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AF23" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="AG23" s="15">
+      <c r="AL23" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AM23" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="AN23" s="15">
         <v>6</v>
       </c>
-      <c r="AP23" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BK23" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BX23" s="15" t="s">
-        <v>297</v>
+      <c r="AW23" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BR23" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CE23" s="15" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="24" spans="1:99" ht="238">
+    <row r="24" spans="1:106" ht="238" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>58</v>
       </c>
@@ -4561,19 +5134,19 @@
         <v>98</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I24" s="15" t="s">
         <v>55</v>
@@ -4585,55 +5158,76 @@
         <v>43865</v>
       </c>
       <c r="L24" s="17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M24" s="15" t="s">
         <v>115</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="P24" s="18" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="X24" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="R24" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="S24" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="T24" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="U24" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="V24" s="34" t="s">
+        <v>529</v>
+      </c>
+      <c r="W24" s="34" t="s">
+        <v>395</v>
+      </c>
+      <c r="X24" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE24" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AW24" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BJ24" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="BK24" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="AP24" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BC24" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD24" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="BK24" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="BL24" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="BM24" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="BP24" s="15" t="s">
-        <v>297</v>
+      <c r="BR24" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BS24" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="BT24" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BX24" s="15" t="s">
-        <v>297</v>
+        <v>294</v>
+      </c>
+      <c r="BW24" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CA24" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CE24" s="15" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="25" spans="1:99" ht="280">
+    <row r="25" spans="1:106" ht="280" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>58</v>
       </c>
@@ -4642,167 +5236,181 @@
       </c>
       <c r="C25" s="32"/>
       <c r="D25" s="22" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E25" s="22" t="s">
         <v>58</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="5" t="s">
         <v>55</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K25" s="23">
         <v>43896</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="N25" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="O25" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="O25" s="5" t="s">
-        <v>350</v>
-      </c>
       <c r="P25" s="24" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="Q25" s="25" t="s">
-        <v>497</v>
-      </c>
-      <c r="R25" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="S25" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
+        <v>492</v>
+      </c>
+      <c r="R25" s="35" t="s">
+        <v>528</v>
+      </c>
+      <c r="S25" s="35" t="s">
+        <v>514</v>
+      </c>
+      <c r="T25" s="35" t="s">
+        <v>526</v>
+      </c>
+      <c r="U25" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="V25" s="35" t="s">
+        <v>531</v>
+      </c>
+      <c r="W25" s="35" t="s">
+        <v>532</v>
+      </c>
+      <c r="X25" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y25" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z25" s="8" t="s">
+        <v>295</v>
+      </c>
       <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
+      <c r="AB25" s="8" t="s">
+        <v>294</v>
+      </c>
       <c r="AC25" s="8"/>
       <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
+      <c r="AE25" s="8" t="s">
+        <v>295</v>
+      </c>
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
-      <c r="AH25" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="AI25" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="AJ25" s="8" t="s">
-        <v>319</v>
-      </c>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
       <c r="AK25" s="8"/>
       <c r="AL25" s="8"/>
       <c r="AM25" s="8"/>
       <c r="AN25" s="8"/>
-      <c r="AO25" s="8"/>
+      <c r="AO25" s="8" t="s">
+        <v>311</v>
+      </c>
       <c r="AP25" s="8" t="s">
-        <v>304</v>
+        <v>359</v>
       </c>
       <c r="AQ25" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="AR25" s="8" t="s">
-        <v>305</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="AR25" s="8"/>
       <c r="AS25" s="8"/>
-      <c r="AT25" s="8">
+      <c r="AT25" s="8"/>
+      <c r="AU25" s="8"/>
+      <c r="AV25" s="8"/>
+      <c r="AW25" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="AX25" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="AY25" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="AZ25" s="8"/>
+      <c r="BA25" s="8">
         <v>5</v>
       </c>
-      <c r="AU25" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="AV25" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AW25" s="8"/>
-      <c r="AX25" s="8">
+      <c r="BB25" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="BC25" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="BD25" s="8"/>
+      <c r="BE25" s="8">
         <v>5</v>
       </c>
-      <c r="AY25" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="AZ25" s="8"/>
-      <c r="BA25" s="8"/>
-      <c r="BB25" s="8"/>
-      <c r="BC25" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BD25" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="BE25" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="BF25" s="8"/>
+      <c r="BF25" s="8" t="s">
+        <v>295</v>
+      </c>
       <c r="BG25" s="8"/>
-      <c r="BH25" s="8">
+      <c r="BH25" s="8"/>
+      <c r="BI25" s="8"/>
+      <c r="BJ25" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="BK25" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="BL25" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="BM25" s="8"/>
+      <c r="BN25" s="8"/>
+      <c r="BO25" s="8">
         <v>24</v>
       </c>
-      <c r="BI25" s="8">
+      <c r="BP25" s="8">
         <v>100</v>
       </c>
-      <c r="BJ25" s="8"/>
-      <c r="BK25" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="BL25" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="BM25" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="BN25" s="8"/>
-      <c r="BO25" s="8"/>
-      <c r="BP25" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="BQ25" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="BR25" s="8"/>
-      <c r="BS25" s="8">
-        <v>5</v>
+      <c r="BQ25" s="8"/>
+      <c r="BR25" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="BS25" s="8" t="s">
+        <v>302</v>
       </c>
       <c r="BT25" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="BU25" s="8"/>
       <c r="BV25" s="8"/>
-      <c r="BW25" s="8"/>
+      <c r="BW25" s="8" t="s">
+        <v>302</v>
+      </c>
       <c r="BX25" s="8" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="BY25" s="8"/>
-      <c r="BZ25" s="8"/>
-      <c r="CA25" s="8"/>
+      <c r="BZ25" s="8">
+        <v>5</v>
+      </c>
+      <c r="CA25" s="8" t="s">
+        <v>295</v>
+      </c>
       <c r="CB25" s="8"/>
       <c r="CC25" s="8"/>
       <c r="CD25" s="8"/>
-      <c r="CE25" s="8"/>
+      <c r="CE25" s="8" t="s">
+        <v>295</v>
+      </c>
       <c r="CF25" s="8"/>
       <c r="CG25" s="8"/>
       <c r="CH25" s="8"/>
@@ -4819,8 +5427,15 @@
       <c r="CS25" s="8"/>
       <c r="CT25" s="8"/>
       <c r="CU25" s="8"/>
+      <c r="CV25" s="8"/>
+      <c r="CW25" s="8"/>
+      <c r="CX25" s="8"/>
+      <c r="CY25" s="8"/>
+      <c r="CZ25" s="8"/>
+      <c r="DA25" s="8"/>
+      <c r="DB25" s="8"/>
     </row>
-    <row r="26" spans="1:99" ht="318" customHeight="1">
+    <row r="26" spans="1:106" ht="318" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>58</v>
       </c>
@@ -4828,16 +5443,16 @@
         <v>89</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>58</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14" t="s">
@@ -4850,118 +5465,139 @@
         <v>43896</v>
       </c>
       <c r="L26" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M26" s="15" t="s">
         <v>139</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="R26" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="S26" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8" t="s">
-        <v>304</v>
+        <v>494</v>
+      </c>
+      <c r="R26" s="34" t="s">
+        <v>528</v>
+      </c>
+      <c r="S26" s="34" t="s">
+        <v>533</v>
+      </c>
+      <c r="T26" s="35" t="s">
+        <v>526</v>
+      </c>
+      <c r="U26" s="34" t="s">
+        <v>534</v>
+      </c>
+      <c r="V26" s="35" t="s">
+        <v>531</v>
+      </c>
+      <c r="W26" s="34" t="s">
+        <v>535</v>
+      </c>
+      <c r="X26" s="34" t="s">
+        <v>55</v>
       </c>
       <c r="Y26" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="Z26" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="AB26" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AC26" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="AE26" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH26" s="8" t="s">
-        <v>313</v>
+        <v>301</v>
+      </c>
+      <c r="Z26" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF26" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG26" s="15" t="s">
+        <v>322</v>
       </c>
       <c r="AI26" s="15" t="s">
-        <v>361</v>
+        <v>302</v>
       </c>
       <c r="AJ26" s="15" t="s">
-        <v>296</v>
+        <v>322</v>
+      </c>
+      <c r="AL26" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AO26" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="AP26" s="15" t="s">
-        <v>304</v>
+        <v>359</v>
       </c>
       <c r="AQ26" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AR26" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="AU26" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AV26" s="15" t="s">
-        <v>370</v>
+        <v>294</v>
+      </c>
+      <c r="AW26" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AX26" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="AY26" s="15" t="s">
-        <v>297</v>
+        <v>368</v>
+      </c>
+      <c r="BB26" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="BC26" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BD26" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="BE26" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="BH26" s="8">
+        <v>368</v>
+      </c>
+      <c r="BF26" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BJ26" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="BK26" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="BL26" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="BO26" s="8">
         <v>24</v>
       </c>
-      <c r="BI26" s="15">
+      <c r="BP26" s="15">
         <v>100</v>
       </c>
-      <c r="BK26" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="BL26" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="BM26" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="BP26" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="BQ26" s="15" t="s">
-        <v>370</v>
+      <c r="BR26" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BS26" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="BT26" s="15" t="s">
-        <v>297</v>
+        <v>294</v>
+      </c>
+      <c r="BW26" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="BX26" s="15" t="s">
-        <v>297</v>
+        <v>368</v>
+      </c>
+      <c r="CA26" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CE26" s="15" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="27" spans="1:99" ht="318" customHeight="1">
+    <row r="27" spans="1:106" ht="318" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>58</v>
       </c>
@@ -4969,1393 +5605,1603 @@
         <v>89</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="14" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I27" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K27" s="16">
         <v>44007</v>
       </c>
       <c r="L27" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="N27" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="M27" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="N27" s="15" t="s">
-        <v>368</v>
-      </c>
       <c r="O27" s="15" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="4"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="AH27" s="8"/>
-      <c r="BD27" s="8"/>
-      <c r="BE27" s="8"/>
-      <c r="BH27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AO27" s="8"/>
+      <c r="BK27" s="8"/>
+      <c r="BL27" s="8"/>
+      <c r="BO27" s="8"/>
     </row>
-    <row r="28" spans="1:99" ht="407" customHeight="1">
+    <row r="28" spans="1:106" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K28" s="16">
         <v>44007</v>
       </c>
       <c r="L28" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="N28" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="M28" s="15" t="s">
+      <c r="O28" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="P28" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="R28" s="34" t="s">
+        <v>541</v>
+      </c>
+      <c r="S28" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="T28" s="34" t="s">
+        <v>524</v>
+      </c>
+      <c r="U28" s="34" t="s">
+        <v>544</v>
+      </c>
+      <c r="V28" s="34" t="s">
+        <v>546</v>
+      </c>
+      <c r="W28" s="34" t="s">
+        <v>547</v>
+      </c>
+      <c r="X28" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y28" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="N28" s="15" t="s">
+      <c r="Z28" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB28" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE28" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF28" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG28" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="O28" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="P28" s="18" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="R28" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="S28" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="U28" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="X28" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y28" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="Z28" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB28" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AC28" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="AE28" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH28" s="15" t="s">
-        <v>313</v>
-      </c>
       <c r="AI28" s="15" t="s">
-        <v>361</v>
+        <v>302</v>
       </c>
       <c r="AJ28" s="15" t="s">
-        <v>296</v>
+        <v>368</v>
+      </c>
+      <c r="AL28" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AO28" s="15" t="s">
+        <v>311</v>
       </c>
       <c r="AP28" s="15" t="s">
-        <v>304</v>
+        <v>359</v>
       </c>
       <c r="AQ28" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AR28" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="AU28" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AV28" s="15" t="s">
-        <v>370</v>
+        <v>294</v>
+      </c>
+      <c r="AW28" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AX28" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="AY28" s="15" t="s">
-        <v>297</v>
+        <v>368</v>
+      </c>
+      <c r="BB28" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="BC28" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BD28" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="BE28" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="BF28" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BJ28" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="BK28" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="BL28" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="BG28" s="15">
+      <c r="BN28" s="15">
         <v>5</v>
       </c>
-      <c r="BK28" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="BL28" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="BM28" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="BP28" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="BQ28" s="15" t="s">
-        <v>370</v>
+      <c r="BR28" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BS28" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="BT28" s="15" t="s">
-        <v>297</v>
+        <v>294</v>
+      </c>
+      <c r="BW28" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="BX28" s="15" t="s">
-        <v>297</v>
+        <v>368</v>
+      </c>
+      <c r="CA28" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CE28" s="15" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="29" spans="1:99" ht="407" customHeight="1">
+    <row r="29" spans="1:106" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="14" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I29" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K29" s="16">
         <v>44007</v>
       </c>
       <c r="L29" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="N29" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="M29" s="15" t="s">
+      <c r="O29" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="P29" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="R29" s="34" t="s">
+        <v>541</v>
+      </c>
+      <c r="S29" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="T29" s="34" t="s">
+        <v>545</v>
+      </c>
+      <c r="U29" s="34" t="s">
+        <v>544</v>
+      </c>
+      <c r="V29" s="34" t="s">
+        <v>546</v>
+      </c>
+      <c r="W29" s="34" t="s">
+        <v>547</v>
+      </c>
+      <c r="X29" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y29" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="N29" s="15" t="s">
+      <c r="Z29" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB29" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE29" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF29" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG29" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="O29" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="P29" s="18" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="R29" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="S29" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="U29" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="X29" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y29" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="Z29" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB29" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AC29" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="AE29" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH29" s="15" t="s">
-        <v>338</v>
-      </c>
       <c r="AI29" s="15" t="s">
-        <v>361</v>
+        <v>302</v>
       </c>
       <c r="AJ29" s="15" t="s">
-        <v>296</v>
+        <v>368</v>
+      </c>
+      <c r="AL29" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AO29" s="15" t="s">
+        <v>336</v>
       </c>
       <c r="AP29" s="15" t="s">
-        <v>304</v>
+        <v>359</v>
       </c>
       <c r="AQ29" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AR29" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="AU29" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AV29" s="15" t="s">
-        <v>370</v>
+        <v>294</v>
+      </c>
+      <c r="AW29" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AX29" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="AY29" s="15" t="s">
-        <v>297</v>
+        <v>368</v>
+      </c>
+      <c r="BB29" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="BC29" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BD29" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="BE29" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="BF29" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BJ29" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="BK29" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="BL29" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="BG29" s="15">
+      <c r="BN29" s="15">
         <v>5</v>
       </c>
-      <c r="BK29" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="BL29" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="BM29" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="BP29" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="BQ29" s="15" t="s">
-        <v>370</v>
+      <c r="BR29" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BS29" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="BT29" s="15" t="s">
-        <v>297</v>
+        <v>294</v>
+      </c>
+      <c r="BW29" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="BX29" s="15" t="s">
-        <v>297</v>
+        <v>368</v>
+      </c>
+      <c r="CA29" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CE29" s="15" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="30" spans="1:99" ht="407" customHeight="1">
+    <row r="30" spans="1:106" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="14" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I30" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K30" s="16">
         <v>44007</v>
       </c>
       <c r="L30" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="N30" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="M30" s="15" t="s">
+      <c r="O30" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="P30" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="R30" s="34" t="s">
+        <v>541</v>
+      </c>
+      <c r="S30" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="T30" s="34" t="s">
+        <v>524</v>
+      </c>
+      <c r="U30" s="34" t="s">
+        <v>544</v>
+      </c>
+      <c r="V30" s="34" t="s">
+        <v>546</v>
+      </c>
+      <c r="W30" s="34" t="s">
+        <v>547</v>
+      </c>
+      <c r="X30" s="34" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y30" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="N30" s="15" t="s">
+      <c r="Z30" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB30" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE30" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF30" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG30" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="O30" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="P30" s="18" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="R30" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="S30" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="U30" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="X30" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y30" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="Z30" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB30" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AC30" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="AE30" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH30" s="15" t="s">
-        <v>313</v>
-      </c>
       <c r="AI30" s="15" t="s">
-        <v>361</v>
+        <v>302</v>
       </c>
       <c r="AJ30" s="15" t="s">
-        <v>296</v>
+        <v>368</v>
+      </c>
+      <c r="AL30" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AO30" s="15" t="s">
+        <v>311</v>
       </c>
       <c r="AP30" s="15" t="s">
-        <v>304</v>
+        <v>359</v>
       </c>
       <c r="AQ30" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AR30" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="AU30" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AV30" s="15" t="s">
-        <v>370</v>
+        <v>294</v>
+      </c>
+      <c r="AW30" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AX30" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="AY30" s="15" t="s">
-        <v>297</v>
+        <v>368</v>
+      </c>
+      <c r="BB30" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="BC30" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BD30" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="BE30" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="BF30" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BJ30" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="BK30" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="BL30" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="BG30" s="15">
+      <c r="BN30" s="15">
         <v>5</v>
       </c>
-      <c r="BK30" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="BL30" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="BM30" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="BP30" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="BQ30" s="15" t="s">
-        <v>370</v>
+      <c r="BR30" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BS30" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="BT30" s="15" t="s">
-        <v>297</v>
+        <v>294</v>
+      </c>
+      <c r="BW30" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="BX30" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="BY30" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="BZ30" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="CD30" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="CG30" s="27">
-        <v>55</v>
-      </c>
-      <c r="CH30" s="27">
+        <v>368</v>
+      </c>
+      <c r="CA30" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CE30" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CF30" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="CG30" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="CK30" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="CN30" s="27">
+        <v>55</v>
+      </c>
+      <c r="CO30" s="27">
         <v>2.1</v>
       </c>
-      <c r="CI30" s="27">
+      <c r="CP30" s="27">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:99" ht="407" customHeight="1">
+    <row r="31" spans="1:106" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="14" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I31" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K31" s="16">
         <v>44007</v>
       </c>
       <c r="L31" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="M31" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="N31" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="M31" s="15" t="s">
+      <c r="O31" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="P31" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="R31" s="34" t="s">
+        <v>541</v>
+      </c>
+      <c r="S31" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="T31" s="34" t="s">
+        <v>545</v>
+      </c>
+      <c r="U31" s="34" t="s">
+        <v>544</v>
+      </c>
+      <c r="V31" s="34" t="s">
+        <v>546</v>
+      </c>
+      <c r="W31" s="34" t="s">
+        <v>547</v>
+      </c>
+      <c r="X31" s="34" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y31" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="N31" s="15" t="s">
+      <c r="Z31" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB31" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE31" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF31" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG31" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="O31" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="P31" s="18" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="R31" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="S31" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="U31" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="X31" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y31" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="Z31" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB31" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AC31" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="AE31" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH31" s="15" t="s">
-        <v>313</v>
-      </c>
       <c r="AI31" s="15" t="s">
-        <v>361</v>
+        <v>302</v>
       </c>
       <c r="AJ31" s="15" t="s">
-        <v>296</v>
+        <v>368</v>
+      </c>
+      <c r="AL31" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AO31" s="15" t="s">
+        <v>311</v>
       </c>
       <c r="AP31" s="15" t="s">
-        <v>304</v>
+        <v>359</v>
       </c>
       <c r="AQ31" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AR31" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="AU31" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AV31" s="15" t="s">
-        <v>370</v>
+        <v>294</v>
+      </c>
+      <c r="AW31" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AX31" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="AY31" s="15" t="s">
-        <v>297</v>
+        <v>368</v>
+      </c>
+      <c r="BB31" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="BC31" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BD31" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="BE31" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="BF31" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BJ31" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="BK31" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="BL31" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="BG31" s="15">
+      <c r="BN31" s="15">
         <v>5</v>
       </c>
-      <c r="BK31" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="BL31" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="BM31" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="BP31" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="BQ31" s="15" t="s">
-        <v>370</v>
+      <c r="BR31" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BS31" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="BT31" s="15" t="s">
-        <v>297</v>
+        <v>294</v>
+      </c>
+      <c r="BW31" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="BX31" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="BY31" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="BZ31" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="CD31" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="CG31" s="27">
-        <v>55</v>
-      </c>
-      <c r="CH31" s="27">
+        <v>368</v>
+      </c>
+      <c r="CA31" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CE31" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CF31" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="CG31" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="CK31" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="CN31" s="27">
+        <v>55</v>
+      </c>
+      <c r="CO31" s="27">
         <v>2.1</v>
       </c>
-      <c r="CI31" s="27">
+      <c r="CP31" s="27">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:99" ht="407" customHeight="1">
+    <row r="32" spans="1:106" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="14" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I32" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K32" s="16">
         <v>44007</v>
       </c>
       <c r="L32" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="N32" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="M32" s="15" t="s">
+      <c r="O32" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="P32" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="R32" s="34" t="s">
+        <v>541</v>
+      </c>
+      <c r="S32" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="T32" s="34" t="s">
+        <v>524</v>
+      </c>
+      <c r="U32" s="34" t="s">
+        <v>544</v>
+      </c>
+      <c r="V32" s="34" t="s">
+        <v>546</v>
+      </c>
+      <c r="W32" s="34" t="s">
+        <v>547</v>
+      </c>
+      <c r="X32" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y32" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="N32" s="15" t="s">
+      <c r="Z32" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB32" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE32" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AO32" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP32" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="AQ32" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="AW32" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AX32" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AY32" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="O32" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="P32" s="18" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="R32" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="S32" s="15" t="s">
+      <c r="BB32" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BC32" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="BF32" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BJ32" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="BK32" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="BL32" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BN32" s="15">
+        <v>5</v>
+      </c>
+      <c r="BR32" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CE32" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CF32" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="CG32" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="CH32" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="U32" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="X32" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH32" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="AI32" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="AJ32" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="AP32" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AQ32" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AR32" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="AU32" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AV32" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="AY32" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BC32" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BD32" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="BE32" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG32" s="15">
-        <v>5</v>
-      </c>
-      <c r="BK32" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BX32" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="BY32" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BZ32" s="15" t="s">
+      <c r="CJ32" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="CK32" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="CA32" s="15" t="s">
+      <c r="CM32" s="27">
+        <v>50</v>
+      </c>
+      <c r="CQ32" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="CC32" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="CD32" s="15" t="s">
+      <c r="CR32" s="15">
+        <v>50</v>
+      </c>
+      <c r="CW32" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="CF32" s="27">
-        <v>50</v>
-      </c>
-      <c r="CJ32" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="CK32" s="15">
-        <v>50</v>
-      </c>
-      <c r="CP32" s="15" t="s">
-        <v>302</v>
-      </c>
     </row>
-    <row r="33" spans="1:99" ht="407" customHeight="1">
+    <row r="33" spans="1:106" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F33" s="19"/>
       <c r="G33" s="14" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I33" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K33" s="16">
         <v>44007</v>
       </c>
       <c r="L33" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="N33" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="M33" s="15" t="s">
+      <c r="O33" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="P33" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="R33" s="34" t="s">
+        <v>541</v>
+      </c>
+      <c r="S33" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="T33" s="34" t="s">
+        <v>545</v>
+      </c>
+      <c r="U33" s="34" t="s">
+        <v>544</v>
+      </c>
+      <c r="V33" s="34" t="s">
+        <v>546</v>
+      </c>
+      <c r="W33" s="34" t="s">
+        <v>547</v>
+      </c>
+      <c r="X33" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y33" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="N33" s="15" t="s">
+      <c r="Z33" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB33" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE33" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AO33" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP33" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="AQ33" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="AW33" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AX33" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AY33" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="O33" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="P33" s="18" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q33" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="R33" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="S33" s="15" t="s">
+      <c r="BB33" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BC33" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="BF33" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BJ33" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="BK33" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="BL33" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BN33" s="15">
+        <v>5</v>
+      </c>
+      <c r="BR33" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CE33" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CF33" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="CG33" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="CH33" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="U33" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="X33" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH33" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="AI33" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="AJ33" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="AP33" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AQ33" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AR33" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="AU33" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AV33" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="AY33" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BC33" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BD33" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="BE33" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG33" s="15">
-        <v>5</v>
-      </c>
-      <c r="BK33" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BX33" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="BY33" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BZ33" s="15" t="s">
+      <c r="CJ33" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="CK33" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="CA33" s="15" t="s">
+      <c r="CM33" s="27">
+        <v>50</v>
+      </c>
+      <c r="CQ33" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="CC33" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="CD33" s="15" t="s">
+      <c r="CR33" s="15">
+        <v>50</v>
+      </c>
+      <c r="CW33" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="CF33" s="27">
-        <v>50</v>
-      </c>
-      <c r="CJ33" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="CK33" s="15">
-        <v>50</v>
-      </c>
-      <c r="CP33" s="15" t="s">
-        <v>302</v>
-      </c>
     </row>
-    <row r="34" spans="1:99" ht="407" customHeight="1">
+    <row r="34" spans="1:106" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F34" s="19"/>
       <c r="G34" s="14" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I34" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K34" s="16">
         <v>44007</v>
       </c>
       <c r="L34" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="N34" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="M34" s="15" t="s">
+      <c r="O34" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="P34" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="R34" s="34" t="s">
+        <v>541</v>
+      </c>
+      <c r="S34" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="T34" s="34" t="s">
+        <v>524</v>
+      </c>
+      <c r="U34" s="34" t="s">
+        <v>544</v>
+      </c>
+      <c r="V34" s="34" t="s">
+        <v>546</v>
+      </c>
+      <c r="W34" s="34" t="s">
+        <v>547</v>
+      </c>
+      <c r="X34" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y34" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="N34" s="15" t="s">
+      <c r="Z34" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB34" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE34" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AO34" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP34" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="AQ34" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="AW34" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AX34" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AY34" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="O34" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="P34" s="18" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="R34" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="S34" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="U34" s="15" t="s">
+      <c r="BB34" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BC34" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="BF34" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BJ34" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="BK34" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="BL34" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BN34" s="15">
+        <v>5</v>
+      </c>
+      <c r="BR34" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CE34" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CF34" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="CG34" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="X34" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH34" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="AI34" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="AJ34" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="AP34" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AQ34" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AR34" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="AU34" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AV34" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="AY34" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BC34" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BD34" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="BE34" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG34" s="15">
-        <v>5</v>
-      </c>
-      <c r="BK34" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BX34" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="BY34" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="BZ34" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="CA34" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="CD34" s="29" t="s">
-        <v>405</v>
-      </c>
-      <c r="CF34" s="27">
+      <c r="CH34" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="CK34" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="CM34" s="27">
         <v>10</v>
       </c>
-      <c r="CJ34" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="CK34" s="8"/>
-      <c r="CL34" s="15">
+      <c r="CQ34" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="CR34" s="8"/>
+      <c r="CS34" s="15">
         <v>20</v>
       </c>
-      <c r="CP34" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="CR34" s="15">
+      <c r="CW34" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="CY34" s="15">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:99" ht="407" customHeight="1">
+    <row r="35" spans="1:106" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F35" s="19"/>
       <c r="G35" s="14" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I35" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K35" s="16">
         <v>44007</v>
       </c>
       <c r="L35" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="M35" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="N35" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="M35" s="15" t="s">
+      <c r="O35" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="P35" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="R35" s="34" t="s">
+        <v>541</v>
+      </c>
+      <c r="S35" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="T35" s="34" t="s">
+        <v>545</v>
+      </c>
+      <c r="U35" s="34" t="s">
+        <v>544</v>
+      </c>
+      <c r="V35" s="34" t="s">
+        <v>546</v>
+      </c>
+      <c r="W35" s="34" t="s">
+        <v>547</v>
+      </c>
+      <c r="X35" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y35" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="N35" s="15" t="s">
+      <c r="Z35" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB35" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE35" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AO35" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP35" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="AQ35" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="AW35" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AX35" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AY35" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="O35" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="P35" s="18" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="R35" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="S35" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="U35" s="15" t="s">
+      <c r="BB35" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BC35" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="BF35" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BJ35" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="BK35" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="BL35" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BN35" s="15">
+        <v>5</v>
+      </c>
+      <c r="BR35" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CE35" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CF35" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="CG35" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="X35" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH35" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="AI35" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="AJ35" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="AP35" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AQ35" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AR35" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="AU35" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AV35" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="AY35" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BC35" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BD35" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="BE35" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG35" s="15">
-        <v>5</v>
-      </c>
-      <c r="BK35" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BX35" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="BY35" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="BZ35" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="CA35" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="CD35" s="29" t="s">
-        <v>405</v>
-      </c>
-      <c r="CF35" s="27">
+      <c r="CH35" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="CK35" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="CM35" s="27">
         <v>10</v>
       </c>
-      <c r="CJ35" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="CK35" s="8"/>
-      <c r="CL35" s="15">
+      <c r="CQ35" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="CR35" s="8"/>
+      <c r="CS35" s="15">
         <v>20</v>
       </c>
-      <c r="CP35" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="CR35" s="15">
+      <c r="CW35" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="CY35" s="15">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:99" ht="407" customHeight="1">
+    <row r="36" spans="1:106" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F36" s="19"/>
       <c r="G36" s="14" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I36" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K36" s="16">
         <v>44007</v>
       </c>
       <c r="L36" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="M36" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="N36" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="M36" s="15" t="s">
+      <c r="O36" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="P36" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="R36" s="34" t="s">
+        <v>541</v>
+      </c>
+      <c r="S36" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="T36" s="34" t="s">
+        <v>524</v>
+      </c>
+      <c r="U36" s="34" t="s">
+        <v>544</v>
+      </c>
+      <c r="V36" s="34" t="s">
+        <v>546</v>
+      </c>
+      <c r="W36" s="34" t="s">
+        <v>547</v>
+      </c>
+      <c r="X36" s="35" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y36" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="N36" s="15" t="s">
+      <c r="Z36" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB36" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE36" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AO36" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP36" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="AQ36" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="AW36" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AX36" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AY36" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="O36" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="P36" s="18" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q36" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="R36" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="S36" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="U36" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="X36" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH36" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="AI36" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="AJ36" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="AP36" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AQ36" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AR36" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="AU36" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AV36" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="AY36" s="15" t="s">
-        <v>297</v>
+      <c r="BB36" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="BC36" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BD36" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="BE36" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="BF36" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BJ36" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="BK36" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="BL36" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="BG36" s="15">
+      <c r="BN36" s="15">
         <v>5</v>
       </c>
-      <c r="BK36" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BX36" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="BY36" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BZ36" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="CD36" s="15" t="s">
-        <v>437</v>
+      <c r="BR36" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CE36" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CF36" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="CG36" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="CK36" s="15" t="s">
+        <v>434</v>
       </c>
     </row>
-    <row r="37" spans="1:99" ht="407" customHeight="1">
+    <row r="37" spans="1:106" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F37" s="19"/>
       <c r="G37" s="14" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I37" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K37" s="16">
         <v>44007</v>
       </c>
       <c r="L37" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="M37" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="N37" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="M37" s="15" t="s">
+      <c r="O37" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="P37" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="R37" s="34" t="s">
+        <v>541</v>
+      </c>
+      <c r="S37" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="T37" s="34" t="s">
+        <v>545</v>
+      </c>
+      <c r="U37" s="34" t="s">
+        <v>544</v>
+      </c>
+      <c r="V37" s="34" t="s">
+        <v>546</v>
+      </c>
+      <c r="W37" s="34" t="s">
+        <v>547</v>
+      </c>
+      <c r="X37" s="35" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y37" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="N37" s="15" t="s">
+      <c r="Z37" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB37" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE37" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AO37" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP37" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="AQ37" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="AW37" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AX37" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AY37" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="O37" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="P37" s="18" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q37" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="R37" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="S37" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="U37" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="X37" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH37" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="AI37" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="AJ37" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="AP37" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AQ37" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AR37" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="AU37" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AV37" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="AY37" s="15" t="s">
-        <v>297</v>
+      <c r="BB37" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="BC37" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BD37" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="BE37" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="BF37" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BJ37" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="BK37" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="BL37" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="BG37" s="15">
+      <c r="BN37" s="15">
         <v>5</v>
       </c>
-      <c r="BK37" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BX37" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="BY37" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BZ37" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="CD37" s="15" t="s">
-        <v>437</v>
+      <c r="BR37" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CE37" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CF37" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="CG37" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="CK37" s="15" t="s">
+        <v>434</v>
       </c>
     </row>
-    <row r="38" spans="1:99" ht="407" customHeight="1">
+    <row r="38" spans="1:106" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>58</v>
       </c>
@@ -6363,65 +7209,86 @@
         <v>98</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>55</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="K38" s="23">
         <v>43890</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="O38" s="15" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q38" s="25" t="s">
-        <v>503</v>
-      </c>
-      <c r="X38" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AP38" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BK38" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BX38" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="BY38" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BZ38" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="CD38" s="15" t="s">
-        <v>437</v>
+        <v>498</v>
+      </c>
+      <c r="R38" s="35" t="s">
+        <v>540</v>
+      </c>
+      <c r="S38" s="35" t="s">
+        <v>512</v>
+      </c>
+      <c r="T38" s="35" t="s">
+        <v>540</v>
+      </c>
+      <c r="U38" s="35" t="s">
+        <v>512</v>
+      </c>
+      <c r="V38" s="35" t="s">
+        <v>540</v>
+      </c>
+      <c r="W38" s="35" t="s">
+        <v>512</v>
+      </c>
+      <c r="X38" s="35" t="s">
+        <v>543</v>
+      </c>
+      <c r="AE38" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AW38" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BR38" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CE38" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CF38" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="CG38" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="CK38" s="15" t="s">
+        <v>434</v>
       </c>
     </row>
-    <row r="39" spans="1:99" ht="42">
+    <row r="39" spans="1:106" ht="42" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
@@ -6437,170 +7304,149 @@
       <c r="L39" s="26"/>
       <c r="P39" s="18"/>
       <c r="Q39" s="4"/>
-      <c r="S39" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="T39" s="15">
+      <c r="Z39" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AA39" s="15">
         <v>20</v>
       </c>
-      <c r="U39" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="X39" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y39" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA39" s="15">
+      <c r="AB39" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE39" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AF39" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AH39" s="15">
         <v>5</v>
       </c>
-      <c r="AB39" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AD39" s="15">
+      <c r="AI39" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AK39" s="15">
         <v>5</v>
       </c>
-      <c r="AE39" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AG39" s="15">
+      <c r="AL39" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AN39" s="15">
         <v>5</v>
       </c>
-      <c r="AJ39" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="AL39" s="15">
-        <v>5</v>
-      </c>
-      <c r="AM39" s="15">
-        <v>24</v>
-      </c>
-      <c r="AN39" s="15">
-        <v>100</v>
-      </c>
-      <c r="AO39" s="15">
-        <v>400</v>
-      </c>
-      <c r="AP39" s="15" t="s">
-        <v>297</v>
-      </c>
       <c r="AQ39" s="15" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AS39" s="15">
         <v>5</v>
       </c>
       <c r="AT39" s="15">
+        <v>24</v>
+      </c>
+      <c r="AU39" s="15">
+        <v>100</v>
+      </c>
+      <c r="AV39" s="15">
+        <v>400</v>
+      </c>
+      <c r="AW39" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AX39" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AZ39" s="15">
         <v>5</v>
-      </c>
-      <c r="AU39" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AW39" s="15">
-        <v>5</v>
-      </c>
-      <c r="AX39" s="15">
-        <v>5</v>
-      </c>
-      <c r="AY39" s="15" t="s">
-        <v>297</v>
       </c>
       <c r="BA39" s="15">
         <v>5</v>
       </c>
-      <c r="BB39" s="15">
+      <c r="BB39" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BD39" s="15">
         <v>5</v>
       </c>
-      <c r="BD39" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="BG39" s="15">
+      <c r="BE39" s="15">
         <v>5</v>
       </c>
+      <c r="BF39" s="15" t="s">
+        <v>295</v>
+      </c>
       <c r="BH39" s="15">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="BI39" s="15">
-        <v>100</v>
-      </c>
-      <c r="BJ39" s="15">
-        <v>400</v>
+        <v>5</v>
       </c>
       <c r="BK39" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BL39" s="15" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="BN39" s="15">
         <v>5</v>
       </c>
       <c r="BO39" s="15">
+        <v>24</v>
+      </c>
+      <c r="BP39" s="15">
+        <v>100</v>
+      </c>
+      <c r="BQ39" s="15">
+        <v>400</v>
+      </c>
+      <c r="BR39" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BS39" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BU39" s="15">
         <v>5</v>
-      </c>
-      <c r="BP39" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BR39" s="15">
-        <v>5</v>
-      </c>
-      <c r="BS39" s="15">
-        <v>5</v>
-      </c>
-      <c r="BT39" s="15" t="s">
-        <v>297</v>
       </c>
       <c r="BV39" s="15">
         <v>5</v>
       </c>
-      <c r="BW39" s="15">
+      <c r="BW39" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BY39" s="15">
         <v>5</v>
       </c>
-      <c r="BX39" s="15" t="s">
+      <c r="BZ39" s="15">
+        <v>5</v>
+      </c>
+      <c r="CA39" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CC39" s="15">
+        <v>5</v>
+      </c>
+      <c r="CD39" s="15">
+        <v>5</v>
+      </c>
+      <c r="CE39" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CF39" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="CG39" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="CH39" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="BY39" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="BZ39" s="15" t="s">
+      <c r="CI39" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="CJ39" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="CK39" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="CA39" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="CB39" s="15">
-        <v>0.7</v>
-      </c>
-      <c r="CC39" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="CD39" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="CE39" s="15">
+      <c r="CL39" s="15">
         <v>50</v>
-      </c>
-      <c r="CF39" s="27">
-        <v>5</v>
-      </c>
-      <c r="CG39" s="27">
-        <v>5</v>
-      </c>
-      <c r="CH39" s="27">
-        <v>5</v>
-      </c>
-      <c r="CI39" s="27">
-        <v>5</v>
-      </c>
-      <c r="CJ39" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="CK39" s="15">
-        <v>5</v>
-      </c>
-      <c r="CL39" s="15">
-        <v>5</v>
       </c>
       <c r="CM39" s="27">
         <v>5</v>
@@ -6611,16 +7457,16 @@
       <c r="CO39" s="27">
         <v>5</v>
       </c>
-      <c r="CP39" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="CQ39" s="15">
+      <c r="CP39" s="27">
         <v>5</v>
+      </c>
+      <c r="CQ39" s="15" t="s">
+        <v>299</v>
       </c>
       <c r="CR39" s="15">
         <v>5</v>
       </c>
-      <c r="CS39" s="27">
+      <c r="CS39" s="15">
         <v>5</v>
       </c>
       <c r="CT39" s="27">
@@ -6629,9 +7475,30 @@
       <c r="CU39" s="27">
         <v>5</v>
       </c>
+      <c r="CV39" s="27">
+        <v>5</v>
+      </c>
+      <c r="CW39" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="CX39" s="15">
+        <v>5</v>
+      </c>
+      <c r="CY39" s="15">
+        <v>5</v>
+      </c>
+      <c r="CZ39" s="27">
+        <v>5</v>
+      </c>
+      <c r="DA39" s="27">
+        <v>5</v>
+      </c>
+      <c r="DB39" s="27">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:CR39">
+  <sortState ref="A2:CY39">
     <sortCondition ref="K2:K39"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6648,7 +7515,7 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="13.1640625" style="1" customWidth="1"/>
@@ -6664,7 +7531,7 @@
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="51">
+    <row r="1" spans="1:58" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>140</v>
       </c>
@@ -6840,18 +7707,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:58" ht="308" customHeight="1">
+    <row r="2" spans="1:58" ht="308" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>54</v>
@@ -6860,22 +7727,22 @@
         <v>42922</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>55</v>
@@ -6896,7 +7763,7 @@
         <v>60</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>57</v>
@@ -6914,39 +7781,39 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:58" ht="153">
+    <row r="3" spans="1:58" ht="153" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F3" s="2">
         <v>42852</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>55</v>
@@ -6976,42 +7843,42 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:58" ht="272">
+    <row r="4" spans="1:58" ht="272" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F4" s="2">
         <v>42941</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>55</v>
@@ -7041,39 +7908,39 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:58" ht="221">
+    <row r="5" spans="1:58" ht="221" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F5" s="2">
         <v>42929</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>55</v>
@@ -7100,7 +7967,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:58" ht="136">
+    <row r="6" spans="1:58" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>55</v>
       </c>
@@ -7108,75 +7975,75 @@
         <v>90</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F6" s="2">
         <v>42941</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" ht="187" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:58" ht="187">
-      <c r="A7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="F7" s="2">
         <v>42930</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="L7" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>57</v>
@@ -7212,42 +8079,42 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:58" ht="187">
+    <row r="8" spans="1:58" ht="187" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F8" s="2">
         <v>42933</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="L8" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>57</v>
@@ -7265,7 +8132,7 @@
         <v>55</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>57</v>
@@ -7283,7 +8150,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:58" ht="102">
+    <row r="9" spans="1:58" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
@@ -7291,10 +8158,10 @@
         <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>66</v>
@@ -7303,22 +8170,22 @@
         <v>43040</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="L9" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>57</v>
@@ -7327,7 +8194,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:58" ht="102">
+    <row r="10" spans="1:58" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
@@ -7335,10 +8202,10 @@
         <v>89</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>67</v>
@@ -7347,36 +8214,36 @@
         <v>43055</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="J10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="AE10" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AJ10" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:58" ht="238">
+    <row r="11" spans="1:58" ht="238" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>68</v>
@@ -7391,16 +8258,16 @@
         <v>70</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="AO11" s="1" t="s">
         <v>58</v>
@@ -7433,15 +8300,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:58" ht="306">
+    <row r="12" spans="1:58" ht="306" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>77</v>
@@ -7459,13 +8326,13 @@
         <v>79</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AO12" s="1" t="s">
         <v>58</v>
@@ -7486,7 +8353,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:58" ht="51">
+    <row r="13" spans="1:58" ht="51" x14ac:dyDescent="0.2">
       <c r="D13" s="1" t="s">
         <v>83</v>
       </c>

--- a/app/data/wto_proposal_settings_master.xlsx
+++ b/app/data/wto_proposal_settings_master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kat/GitHub/SubsidyExplorer/app/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kat/GitHub/SubsidyExplorer/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B287A9F2-8BA9-744D-B023-ACD20B29DCDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E23C82-4F51-9043-B952-D312E86571EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="49680" windowHeight="26100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="571">
   <si>
     <t>proposal</t>
   </si>
@@ -1736,12 +1736,78 @@
   <si>
     <t>&lt;ol&gt;&lt;li&gt;We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited in areas classified as "disputed" in the Marine Regions' Maritime Boundaries World EEZ dataset (v10).&lt;/li&gt;&lt;li&gt;We note that this is a very ambitious interpretation of the possible effects of this proposal.&lt;/li&gt;&lt;li&gt;It is materially impossible to model non-existing agreements to subsidize in disputed areas.&lt;/li&gt;&lt;/ol&gt;&lt;i&gt;Disclaimer: We recognize that disputed areas are a political matter and our interpretation of this text is not meant to imply the expression of any opinion whatsoever concerning the status of any country, territory, city or area or of its authorities, or concerning the delimitation of its frontier or boundaries.&lt;/i&gt;</t>
   </si>
+  <si>
+    <t>title_tool_old</t>
+  </si>
+  <si>
+    <t>CAP - De minimis</t>
+  </si>
+  <si>
+    <t>OFOC - Negative effects (Option A)</t>
+  </si>
+  <si>
+    <t>CAP - Optional criteria</t>
+  </si>
+  <si>
+    <t>Overfished - Negative effects</t>
+  </si>
+  <si>
+    <t>IUU - No S&amp;DT</t>
+  </si>
+  <si>
+    <t>OFOC - ABNJ</t>
+  </si>
+  <si>
+    <t>OFOC - List approach</t>
+  </si>
+  <si>
+    <t>Overfished - Negative effects + rebuttable (Option B)</t>
+  </si>
+  <si>
+    <t>CAP - Tiers</t>
+  </si>
+  <si>
+    <t>Vessel characteristics</t>
+  </si>
+  <si>
+    <t>IUU - Port and market states</t>
+  </si>
+  <si>
+    <t>Disputed waters</t>
+  </si>
+  <si>
+    <t>OFOC - Prohibition + management</t>
+  </si>
+  <si>
+    <t>Facilitator's working text - OFOC</t>
+  </si>
+  <si>
+    <t>Vessel flagging</t>
+  </si>
+  <si>
+    <t>OFOC - Negative effects + ABNJ</t>
+  </si>
+  <si>
+    <t>IUU - With S&amp;DT</t>
+  </si>
+  <si>
+    <t>OFOC - List approach (revised)</t>
+  </si>
+  <si>
+    <t>Comprehensive text proposal</t>
+  </si>
+  <si>
+    <t>S&amp;DT</t>
+  </si>
+  <si>
+    <t>CAP - Formula</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2740,14 +2806,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DB39"/>
+  <dimension ref="A1:DC39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V1" sqref="V1:V1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="12"/>
     <col min="2" max="2" width="10.83203125" style="14"/>
@@ -2759,27 +2825,27 @@
     <col min="8" max="8" width="21.1640625" style="15" customWidth="1"/>
     <col min="9" max="9" width="13" style="15" customWidth="1"/>
     <col min="10" max="11" width="10.83203125" style="15"/>
-    <col min="12" max="12" width="15.1640625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="28" style="15" customWidth="1"/>
-    <col min="14" max="14" width="48" style="15" customWidth="1"/>
-    <col min="15" max="15" width="48.33203125" style="15" customWidth="1"/>
-    <col min="16" max="16" width="56.1640625" style="14" customWidth="1"/>
-    <col min="17" max="17" width="71" style="14" customWidth="1"/>
-    <col min="18" max="18" width="68.83203125" style="34" customWidth="1"/>
-    <col min="19" max="19" width="41.83203125" style="34" customWidth="1"/>
-    <col min="20" max="22" width="68.83203125" style="34" customWidth="1"/>
-    <col min="23" max="23" width="42.1640625" style="34" customWidth="1"/>
-    <col min="24" max="24" width="68.83203125" style="34" customWidth="1"/>
-    <col min="25" max="90" width="10.83203125" style="15"/>
-    <col min="91" max="94" width="10.83203125" style="27"/>
-    <col min="95" max="97" width="10.83203125" style="15"/>
-    <col min="98" max="100" width="10.83203125" style="27"/>
-    <col min="101" max="103" width="10.83203125" style="15"/>
-    <col min="104" max="106" width="10.83203125" style="27"/>
-    <col min="107" max="16384" width="10.83203125" style="15"/>
+    <col min="12" max="13" width="15.1640625" style="14" customWidth="1"/>
+    <col min="14" max="14" width="28" style="15" customWidth="1"/>
+    <col min="15" max="15" width="48" style="15" customWidth="1"/>
+    <col min="16" max="16" width="48.33203125" style="15" customWidth="1"/>
+    <col min="17" max="17" width="56.1640625" style="14" customWidth="1"/>
+    <col min="18" max="18" width="71" style="14" customWidth="1"/>
+    <col min="19" max="19" width="68.83203125" style="34" customWidth="1"/>
+    <col min="20" max="20" width="41.83203125" style="34" customWidth="1"/>
+    <col min="21" max="23" width="68.83203125" style="34" customWidth="1"/>
+    <col min="24" max="24" width="42.1640625" style="34" customWidth="1"/>
+    <col min="25" max="25" width="68.83203125" style="34" customWidth="1"/>
+    <col min="26" max="91" width="10.83203125" style="15"/>
+    <col min="92" max="95" width="10.83203125" style="27"/>
+    <col min="96" max="98" width="10.83203125" style="15"/>
+    <col min="99" max="101" width="10.83203125" style="27"/>
+    <col min="102" max="104" width="10.83203125" style="15"/>
+    <col min="105" max="107" width="10.83203125" style="27"/>
+    <col min="108" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:107" s="8" customFormat="1" ht="56">
       <c r="A1" s="5" t="s">
         <v>140</v>
       </c>
@@ -2814,292 +2880,295 @@
         <v>128</v>
       </c>
       <c r="L1" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="S1" s="33" t="s">
         <v>501</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="T1" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="U1" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="V1" s="33" t="s">
         <v>513</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="W1" s="33" t="s">
         <v>504</v>
       </c>
-      <c r="W1" s="33" t="s">
+      <c r="X1" s="33" t="s">
         <v>515</v>
       </c>
-      <c r="X1" s="33" t="s">
+      <c r="Y1" s="33" t="s">
         <v>505</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AL1" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AM1" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AN1" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AO1" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AP1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AR1" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AS1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AT1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AU1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AV1" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="AW1" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="AW1" s="8" t="s">
+      <c r="AX1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="AY1" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="AZ1" s="8" t="s">
+      <c r="BA1" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="BA1" s="8" t="s">
+      <c r="BB1" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="BB1" s="8" t="s">
+      <c r="BC1" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="BC1" s="8" t="s">
+      <c r="BD1" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="BD1" s="8" t="s">
+      <c r="BE1" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="BE1" s="8" t="s">
+      <c r="BF1" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="BF1" s="8" t="s">
+      <c r="BG1" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="BG1" s="8" t="s">
+      <c r="BH1" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="BH1" s="8" t="s">
+      <c r="BI1" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="BI1" s="8" t="s">
+      <c r="BJ1" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="BJ1" s="8" t="s">
+      <c r="BK1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="BK1" s="8" t="s">
+      <c r="BL1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="BL1" s="8" t="s">
+      <c r="BM1" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="BM1" s="8" t="s">
+      <c r="BN1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="BN1" s="8" t="s">
+      <c r="BO1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="BO1" s="8" t="s">
+      <c r="BP1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="BP1" s="8" t="s">
+      <c r="BQ1" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="BQ1" s="8" t="s">
+      <c r="BR1" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="BR1" s="8" t="s">
+      <c r="BS1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="BS1" s="8" t="s">
+      <c r="BT1" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="BT1" s="8" t="s">
+      <c r="BU1" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="BU1" s="8" t="s">
+      <c r="BV1" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="BV1" s="8" t="s">
+      <c r="BW1" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="BW1" s="8" t="s">
+      <c r="BX1" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="BX1" s="8" t="s">
+      <c r="BY1" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="BY1" s="8" t="s">
+      <c r="BZ1" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="BZ1" s="8" t="s">
+      <c r="CA1" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="CA1" s="8" t="s">
+      <c r="CB1" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="CB1" s="8" t="s">
+      <c r="CC1" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="CC1" s="8" t="s">
+      <c r="CD1" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="CD1" s="8" t="s">
+      <c r="CE1" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="CE1" s="8" t="s">
+      <c r="CF1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="CF1" s="8" t="s">
+      <c r="CG1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="CG1" s="8" t="s">
+      <c r="CH1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="CH1" s="8" t="s">
+      <c r="CI1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="CI1" s="8" t="s">
+      <c r="CJ1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="CJ1" s="8" t="s">
+      <c r="CK1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="CK1" s="8" t="s">
+      <c r="CL1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="CL1" s="8" t="s">
+      <c r="CM1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="CM1" s="8" t="s">
+      <c r="CN1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="CN1" s="8" t="s">
+      <c r="CO1" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="CO1" s="8" t="s">
+      <c r="CP1" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="CP1" s="8" t="s">
+      <c r="CQ1" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="CQ1" s="8" t="s">
+      <c r="CR1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="CR1" s="8" t="s">
+      <c r="CS1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="CS1" s="8" t="s">
+      <c r="CT1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="CT1" s="8" t="s">
+      <c r="CU1" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="CU1" s="8" t="s">
+      <c r="CV1" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="CV1" s="8" t="s">
+      <c r="CW1" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="CW1" s="8" t="s">
+      <c r="CX1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="CX1" s="8" t="s">
+      <c r="CY1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="CY1" s="8" t="s">
+      <c r="CZ1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="CZ1" s="8" t="s">
+      <c r="DA1" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="DA1" s="8" t="s">
+      <c r="DB1" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="DB1" s="8" t="s">
+      <c r="DC1" s="8" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="2" spans="1:106" s="8" customFormat="1" ht="282" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:107" s="8" customFormat="1" ht="282" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>58</v>
       </c>
@@ -3136,52 +3205,54 @@
       <c r="L2" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="O2" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="P2" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="Q2" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="S2" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="S2" s="34" t="s">
+      <c r="T2" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="T2" s="34" t="s">
+      <c r="U2" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="U2" s="34" t="s">
+      <c r="V2" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="V2" s="34" t="s">
+      <c r="W2" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="W2" s="34" t="s">
+      <c r="X2" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="X2" s="34" t="s">
+      <c r="Y2" s="34" t="s">
         <v>506</v>
       </c>
-      <c r="Y2" s="15"/>
       <c r="Z2" s="15"/>
       <c r="AA2" s="15"/>
       <c r="AB2" s="15"/>
       <c r="AC2" s="15"/>
       <c r="AD2" s="15"/>
-      <c r="AE2" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AF2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15" t="s">
+        <v>295</v>
+      </c>
       <c r="AG2" s="15"/>
       <c r="AH2" s="15"/>
       <c r="AI2" s="15"/>
@@ -3198,10 +3269,10 @@
       <c r="AT2" s="15"/>
       <c r="AU2" s="15"/>
       <c r="AV2" s="15"/>
-      <c r="AW2" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AX2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15" t="s">
+        <v>295</v>
+      </c>
       <c r="AY2" s="15"/>
       <c r="AZ2" s="15"/>
       <c r="BA2" s="15"/>
@@ -3221,10 +3292,10 @@
       <c r="BO2" s="15"/>
       <c r="BP2" s="15"/>
       <c r="BQ2" s="15"/>
-      <c r="BR2" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BS2" s="15"/>
+      <c r="BR2" s="15"/>
+      <c r="BS2" s="15" t="s">
+        <v>295</v>
+      </c>
       <c r="BT2" s="15"/>
       <c r="BU2" s="15"/>
       <c r="BV2" s="15"/>
@@ -3236,51 +3307,52 @@
       <c r="CB2" s="15"/>
       <c r="CC2" s="15"/>
       <c r="CD2" s="15"/>
-      <c r="CE2" s="15" t="s">
-        <v>302</v>
-      </c>
+      <c r="CE2" s="15"/>
       <c r="CF2" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CG2" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="CG2" s="15" t="s">
+      <c r="CH2" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="CH2" s="15" t="s">
+      <c r="CI2" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="CI2" s="15"/>
       <c r="CJ2" s="15"/>
-      <c r="CK2" s="29" t="s">
+      <c r="CK2" s="15"/>
+      <c r="CL2" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="CL2" s="15"/>
-      <c r="CM2" s="27">
+      <c r="CM2" s="15"/>
+      <c r="CN2" s="27">
         <v>10</v>
       </c>
-      <c r="CN2" s="27"/>
       <c r="CO2" s="27"/>
       <c r="CP2" s="27"/>
-      <c r="CQ2" s="15" t="s">
+      <c r="CQ2" s="27"/>
+      <c r="CR2" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="CS2" s="15">
+      <c r="CT2" s="15">
         <v>20</v>
       </c>
-      <c r="CT2" s="27"/>
       <c r="CU2" s="27"/>
       <c r="CV2" s="27"/>
-      <c r="CW2" s="15" t="s">
+      <c r="CW2" s="27"/>
+      <c r="CX2" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="CX2" s="15"/>
-      <c r="CY2" s="15">
+      <c r="CY2" s="15"/>
+      <c r="CZ2" s="15">
         <v>30</v>
       </c>
-      <c r="CZ2" s="27"/>
       <c r="DA2" s="27"/>
       <c r="DB2" s="27"/>
+      <c r="DC2" s="27"/>
     </row>
-    <row r="3" spans="1:106" ht="182" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:107" ht="182">
       <c r="A3" s="12" t="s">
         <v>58</v>
       </c>
@@ -3317,62 +3389,65 @@
       <c r="L3" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="N3" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="O3" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="P3" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="Q3" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="R3" s="34" t="s">
+      <c r="S3" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="S3" s="34" t="s">
+      <c r="T3" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="T3" s="34" t="s">
+      <c r="U3" s="34" t="s">
         <v>507</v>
       </c>
-      <c r="U3" s="34" t="s">
+      <c r="V3" s="34" t="s">
         <v>514</v>
       </c>
-      <c r="V3" s="34" t="s">
+      <c r="W3" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="W3" s="34" t="s">
+      <c r="X3" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="X3" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE3" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AO3" s="15" t="s">
+      <c r="Y3" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF3" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AP3" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="AP3" s="15" t="s">
+      <c r="AQ3" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AW3" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BR3" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CE3" s="15" t="s">
+      <c r="AX3" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BS3" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CF3" s="15" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="4" spans="1:106" ht="238" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:107" ht="238">
       <c r="A4" s="12" t="s">
         <v>58</v>
       </c>
@@ -3404,74 +3479,77 @@
       <c r="L4" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="17" t="s">
+        <v>552</v>
+      </c>
+      <c r="N4" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="O4" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="P4" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="Q4" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="R4" s="34" t="s">
+      <c r="S4" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="S4" s="34" t="s">
+      <c r="T4" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="T4" s="34" t="s">
+      <c r="U4" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="U4" s="34" t="s">
+      <c r="V4" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="V4" s="34" t="s">
+      <c r="W4" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="W4" s="34" t="s">
+      <c r="X4" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="X4" s="34" t="s">
+      <c r="Y4" s="34" t="s">
         <v>508</v>
       </c>
-      <c r="AE4" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AW4" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BR4" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CE4" s="15" t="s">
-        <v>302</v>
+      <c r="AF4" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AX4" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BS4" s="15" t="s">
+        <v>295</v>
       </c>
       <c r="CF4" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CG4" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="CG4" s="15" t="s">
+      <c r="CH4" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="CK4" s="15" t="s">
+      <c r="CL4" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="CN4" s="27">
-        <v>55</v>
-      </c>
       <c r="CO4" s="27">
+        <v>55</v>
+      </c>
+      <c r="CP4" s="27">
         <v>2.1</v>
       </c>
-      <c r="CP4" s="27">
+      <c r="CQ4" s="27">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:106" ht="196" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:107" ht="196">
       <c r="A5" s="12" t="s">
         <v>58</v>
       </c>
@@ -3505,62 +3583,65 @@
       <c r="L5" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="N5" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="O5" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="P5" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="Q5" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="R5" s="34" t="s">
+      <c r="S5" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="S5" s="34" t="s">
+      <c r="T5" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="T5" s="34" t="s">
+      <c r="U5" s="34" t="s">
         <v>503</v>
       </c>
-      <c r="U5" s="34" t="s">
+      <c r="V5" s="34" t="s">
         <v>514</v>
       </c>
-      <c r="V5" s="34" t="s">
+      <c r="W5" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="W5" s="34" t="s">
+      <c r="X5" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="X5" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE5" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AO5" s="15" t="s">
+      <c r="Y5" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF5" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AP5" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="AP5" s="15" t="s">
+      <c r="AQ5" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AW5" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BR5" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CE5" s="15" t="s">
+      <c r="AX5" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BS5" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CF5" s="15" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:106" ht="182" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:107" ht="182">
       <c r="A6" s="12" t="s">
         <v>58</v>
       </c>
@@ -3591,65 +3672,68 @@
       <c r="L6" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="N6" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="O6" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="P6" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="Q6" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="R6" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="R6" s="34" t="s">
+      <c r="S6" s="34" t="s">
         <v>509</v>
       </c>
-      <c r="S6" s="34" t="s">
+      <c r="T6" s="34" t="s">
         <v>514</v>
       </c>
-      <c r="T6" s="34" t="s">
+      <c r="U6" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="U6" s="34" t="s">
+      <c r="V6" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="V6" s="34" t="s">
+      <c r="W6" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="W6" s="34" t="s">
+      <c r="X6" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="X6" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y6" s="15" t="s">
+      <c r="Y6" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z6" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="Z6" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB6" s="15" t="s">
+      <c r="AA6" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC6" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AE6" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AW6" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BR6" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CE6" s="15" t="s">
+      <c r="AF6" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AX6" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BS6" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CF6" s="15" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:106" ht="126" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:107" ht="126">
       <c r="A7" s="12" t="s">
         <v>58</v>
       </c>
@@ -3683,68 +3767,71 @@
       <c r="L7" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="N7" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="O7" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="P7" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="P7" s="20" t="s">
+      <c r="Q7" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="R7" s="34" t="s">
+      <c r="S7" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="S7" s="34" t="s">
+      <c r="T7" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="T7" s="34" t="s">
+      <c r="U7" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="U7" s="34" t="s">
+      <c r="V7" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="V7" s="34" t="s">
+      <c r="W7" s="34" t="s">
         <v>510</v>
       </c>
-      <c r="W7" s="34" t="s">
+      <c r="X7" s="34" t="s">
         <v>514</v>
       </c>
-      <c r="X7" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE7" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AW7" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BJ7" s="15" t="s">
+      <c r="Y7" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF7" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AX7" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BK7" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="BK7" s="15" t="s">
+      <c r="BL7" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="BL7" s="15" t="s">
+      <c r="BM7" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="BN7" s="15">
+      <c r="BO7" s="15">
         <v>5</v>
       </c>
-      <c r="BR7" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CE7" s="15" t="s">
+      <c r="BS7" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CF7" s="15" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="8" spans="1:106" ht="182" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:107" ht="182">
       <c r="A8" s="12" t="s">
         <v>58</v>
       </c>
@@ -3778,77 +3865,80 @@
       <c r="L8" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="N8" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="O8" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="O8" s="15" t="s">
+      <c r="P8" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="Q8" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="R8" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="R8" s="34" t="s">
+      <c r="S8" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="S8" s="34" t="s">
+      <c r="T8" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="T8" s="34" t="s">
+      <c r="U8" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="U8" s="34" t="s">
+      <c r="V8" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="V8" s="34" t="s">
+      <c r="W8" s="34" t="s">
         <v>516</v>
       </c>
-      <c r="W8" s="34" t="s">
+      <c r="X8" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="X8" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE8" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AW8" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BJ8" s="15" t="s">
+      <c r="Y8" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF8" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AX8" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BK8" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="BK8" s="15" t="s">
+      <c r="BL8" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="BR8" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="BS8" s="15" t="s">
         <v>302</v>
       </c>
       <c r="BT8" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BU8" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="BW8" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="BX8" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BY8" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="CA8" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CE8" s="15" t="s">
+      <c r="CB8" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CF8" s="15" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="9" spans="1:106" ht="154" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:107" ht="154">
       <c r="A9" s="12" t="s">
         <v>58</v>
       </c>
@@ -3882,65 +3972,68 @@
       <c r="L9" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="N9" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="O9" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="O9" s="15" t="s">
+      <c r="P9" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="P9" s="20" t="s">
+      <c r="Q9" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="R9" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="R9" s="34" t="s">
+      <c r="S9" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="S9" s="34" t="s">
+      <c r="T9" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="T9" s="34" t="s">
+      <c r="U9" s="34" t="s">
         <v>517</v>
       </c>
-      <c r="U9" s="34" t="s">
+      <c r="V9" s="34" t="s">
         <v>514</v>
       </c>
-      <c r="V9" s="34" t="s">
+      <c r="W9" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="W9" s="34" t="s">
+      <c r="X9" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="X9" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE9" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AO9" s="15" t="s">
+      <c r="Y9" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF9" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AP9" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="AP9" s="15" t="s">
+      <c r="AQ9" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="AQ9" s="15" t="s">
+      <c r="AR9" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="AW9" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BR9" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CE9" s="15" t="s">
+      <c r="AX9" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BS9" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CF9" s="15" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="10" spans="1:106" ht="168" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:107" ht="168">
       <c r="A10" s="12" t="s">
         <v>58</v>
       </c>
@@ -3974,83 +4067,86 @@
       <c r="L10" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="N10" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="O10" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="O10" s="15" t="s">
+      <c r="P10" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="P10" s="20" t="s">
+      <c r="Q10" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="R10" s="34" t="s">
+      <c r="S10" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="S10" s="34" t="s">
+      <c r="T10" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="T10" s="34" t="s">
+      <c r="U10" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="U10" s="34" t="s">
+      <c r="V10" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="V10" s="34" t="s">
+      <c r="W10" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="W10" s="34" t="s">
+      <c r="X10" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="X10" s="34" t="s">
+      <c r="Y10" s="34" t="s">
         <v>518</v>
       </c>
-      <c r="AE10" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AW10" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BR10" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CE10" s="15" t="s">
-        <v>302</v>
+      <c r="AF10" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AX10" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BS10" s="15" t="s">
+        <v>295</v>
       </c>
       <c r="CF10" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CG10" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="CG10" s="15" t="s">
+      <c r="CH10" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="CH10" s="15" t="s">
+      <c r="CI10" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="CJ10" s="15" t="s">
+      <c r="CK10" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="CK10" s="15" t="s">
+      <c r="CL10" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="CM10" s="27">
+      <c r="CN10" s="27">
         <v>50</v>
       </c>
-      <c r="CQ10" s="15" t="s">
+      <c r="CR10" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="CR10" s="15">
+      <c r="CS10" s="15">
         <v>50</v>
       </c>
-      <c r="CW10" s="15" t="s">
+      <c r="CX10" s="15" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:106" ht="154" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:107" ht="154">
       <c r="A11" s="12" t="s">
         <v>58</v>
       </c>
@@ -4084,74 +4180,77 @@
       <c r="L11" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="M11" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="N11" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="O11" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="O11" s="15" t="s">
+      <c r="P11" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="P11" s="20" t="s">
+      <c r="Q11" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="R11" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="R11" s="34" t="s">
+      <c r="S11" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="S11" s="34" t="s">
+      <c r="T11" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="T11" s="34" t="s">
+      <c r="U11" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="U11" s="34" t="s">
+      <c r="V11" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="V11" s="34" t="s">
+      <c r="W11" s="34" t="s">
         <v>519</v>
       </c>
-      <c r="W11" s="34" t="s">
+      <c r="X11" s="34" t="s">
         <v>514</v>
       </c>
-      <c r="X11" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE11" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AW11" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BJ11" s="15" t="s">
+      <c r="Y11" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF11" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AX11" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BK11" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="BK11" s="15" t="s">
+      <c r="BL11" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="BL11" s="15" t="s">
+      <c r="BM11" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="BO11" s="15">
+      <c r="BP11" s="15">
         <v>24</v>
       </c>
-      <c r="BP11" s="15">
+      <c r="BQ11" s="15">
         <v>100</v>
       </c>
-      <c r="BQ11" s="15">
+      <c r="BR11" s="15">
         <v>130</v>
       </c>
-      <c r="BR11" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CE11" s="15" t="s">
+      <c r="BS11" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CF11" s="15" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:106" ht="112" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:107" ht="112">
       <c r="A12" s="12" t="s">
         <v>58</v>
       </c>
@@ -4182,65 +4281,68 @@
       <c r="L12" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="N12" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="O12" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="O12" s="15" t="s">
+      <c r="P12" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="P12" s="20" t="s">
+      <c r="Q12" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="R12" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="R12" s="34" t="s">
+      <c r="S12" s="34" t="s">
         <v>520</v>
       </c>
-      <c r="S12" s="34" t="s">
+      <c r="T12" s="34" t="s">
         <v>514</v>
       </c>
-      <c r="T12" s="34" t="s">
+      <c r="U12" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="U12" s="34" t="s">
+      <c r="V12" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="V12" s="34" t="s">
+      <c r="W12" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="W12" s="34" t="s">
+      <c r="X12" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="X12" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y12" s="15" t="s">
+      <c r="Y12" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z12" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="Z12" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB12" s="15" t="s">
+      <c r="AA12" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC12" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AE12" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AW12" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BR12" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CE12" s="15" t="s">
+      <c r="AF12" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AX12" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BS12" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CF12" s="15" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:106" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:107" ht="136.5" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>58</v>
       </c>
@@ -4271,65 +4373,68 @@
       <c r="L13" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="N13" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="O13" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="P13" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="P13" s="20" t="s">
+      <c r="Q13" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="R13" s="34" t="s">
+      <c r="S13" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="S13" s="34" t="s">
+      <c r="T13" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="T13" s="34" t="s">
+      <c r="U13" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="U13" s="34" t="s">
+      <c r="V13" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="V13" s="34" t="s">
+      <c r="W13" s="34" t="s">
         <v>548</v>
       </c>
-      <c r="W13" s="34" t="s">
+      <c r="X13" s="34" t="s">
         <v>514</v>
       </c>
-      <c r="X13" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE13" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AW13" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BJ13" s="15" t="s">
+      <c r="Y13" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF13" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AX13" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BK13" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="BK13" s="15" t="s">
+      <c r="BL13" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="BL13" s="15" t="s">
+      <c r="BM13" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="BR13" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CE13" s="15" t="s">
+      <c r="BS13" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CF13" s="15" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="14" spans="1:106" ht="224" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:107" ht="224">
       <c r="A14" s="12" t="s">
         <v>58</v>
       </c>
@@ -4366,86 +4471,89 @@
       <c r="L14" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="M14" s="15" t="s">
+      <c r="M14" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="N14" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="O14" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="O14" s="15" t="s">
+      <c r="P14" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="P14" s="18" t="s">
+      <c r="Q14" s="18" t="s">
         <v>522</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="R14" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="R14" s="34" t="s">
+      <c r="S14" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="S14" s="34" t="s">
+      <c r="T14" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="T14" s="34" t="s">
+      <c r="U14" s="34" t="s">
         <v>521</v>
       </c>
-      <c r="U14" s="34" t="s">
+      <c r="V14" s="34" t="s">
         <v>522</v>
       </c>
-      <c r="V14" s="34" t="s">
+      <c r="W14" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="W14" s="34" t="s">
+      <c r="X14" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="X14" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE14" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AO14" s="15" t="s">
+      <c r="Y14" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF14" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AP14" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="AP14" s="15" t="s">
+      <c r="AQ14" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="AQ14" s="15" t="s">
+      <c r="AR14" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="AW14" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="AX14" s="15" t="s">
         <v>302</v>
       </c>
       <c r="AY14" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AZ14" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="BA14" s="15">
+      <c r="BB14" s="15">
         <v>6</v>
       </c>
-      <c r="BB14" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="BC14" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BD14" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="BE14" s="15">
+      <c r="BF14" s="15">
         <v>4</v>
       </c>
-      <c r="BF14" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BR14" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CE14" s="15" t="s">
+      <c r="BG14" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BS14" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CF14" s="15" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:106" ht="154" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:107" ht="154">
       <c r="A15" s="12" t="s">
         <v>58</v>
       </c>
@@ -4479,65 +4587,68 @@
       <c r="L15" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="M15" s="15" t="s">
+      <c r="M15" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="N15" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="N15" s="15" t="s">
+      <c r="O15" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="O15" s="15" t="s">
+      <c r="P15" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="P15" s="20" t="s">
+      <c r="Q15" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="R15" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="R15" s="34" t="s">
+      <c r="S15" s="34" t="s">
         <v>523</v>
       </c>
-      <c r="S15" s="34" t="s">
+      <c r="T15" s="34" t="s">
         <v>514</v>
       </c>
-      <c r="T15" s="34" t="s">
+      <c r="U15" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="U15" s="34" t="s">
+      <c r="V15" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="V15" s="34" t="s">
+      <c r="W15" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="W15" s="34" t="s">
+      <c r="X15" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="X15" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y15" s="15" t="s">
+      <c r="Y15" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z15" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="Z15" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB15" s="15" t="s">
+      <c r="AA15" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC15" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AE15" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AW15" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BR15" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CE15" s="15" t="s">
+      <c r="AF15" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AX15" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BS15" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CF15" s="15" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="16" spans="1:106" ht="98" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:107" ht="98">
       <c r="A16" s="12" t="s">
         <v>55</v>
       </c>
@@ -4568,30 +4679,33 @@
       <c r="L16" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="M16" s="15" t="s">
+      <c r="M16" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="N16" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="O16" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="O16" s="15" t="s">
+      <c r="P16" s="15" t="s">
         <v>536</v>
       </c>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="4" t="s">
+      <c r="Q16" s="18"/>
+      <c r="R16" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="R16" s="34" t="s">
+      <c r="S16" s="34" t="s">
         <v>539</v>
       </c>
-      <c r="T16" s="34" t="s">
+      <c r="U16" s="34" t="s">
         <v>539</v>
       </c>
-      <c r="V16" s="34" t="s">
+      <c r="W16" s="34" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="17" spans="1:106" ht="112" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:107" ht="112">
       <c r="A17" s="12" t="s">
         <v>55</v>
       </c>
@@ -4623,30 +4737,33 @@
       <c r="L17" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="M17" s="15" t="s">
+      <c r="M17" s="17" t="s">
+        <v>564</v>
+      </c>
+      <c r="N17" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="N17" s="15" t="s">
+      <c r="O17" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="O17" s="15" t="s">
+      <c r="P17" s="15" t="s">
         <v>537</v>
       </c>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="4" t="s">
+      <c r="Q17" s="18"/>
+      <c r="R17" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="R17" s="34" t="s">
+      <c r="S17" s="34" t="s">
         <v>539</v>
       </c>
-      <c r="T17" s="34" t="s">
+      <c r="U17" s="34" t="s">
         <v>539</v>
       </c>
-      <c r="V17" s="34" t="s">
+      <c r="W17" s="34" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="18" spans="1:106" ht="84" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:107" ht="84">
       <c r="A18" s="12" t="s">
         <v>55</v>
       </c>
@@ -4677,30 +4794,33 @@
       <c r="L18" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="M18" s="15" t="s">
+      <c r="M18" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="N18" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="N18" s="15" t="s">
+      <c r="O18" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="O18" s="15" t="s">
+      <c r="P18" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="4" t="s">
+      <c r="Q18" s="18"/>
+      <c r="R18" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="R18" s="34" t="s">
+      <c r="S18" s="34" t="s">
         <v>539</v>
       </c>
-      <c r="T18" s="34" t="s">
+      <c r="U18" s="34" t="s">
         <v>539</v>
       </c>
-      <c r="V18" s="34" t="s">
+      <c r="W18" s="34" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="19" spans="1:106" ht="224" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:107" ht="224">
       <c r="A19" s="12" t="s">
         <v>58</v>
       </c>
@@ -4728,19 +4848,22 @@
       <c r="L19" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="M19" s="15" t="s">
+      <c r="M19" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="N19" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="N19" s="15" t="s">
+      <c r="O19" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="O19" s="15" t="s">
+      <c r="P19" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="4"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:106" ht="224" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:107" ht="224">
       <c r="A20" s="12" t="s">
         <v>425</v>
       </c>
@@ -4768,62 +4891,65 @@
       <c r="L20" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="M20" s="15" t="s">
+      <c r="M20" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="N20" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="N20" s="15" t="s">
+      <c r="O20" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="O20" s="15" t="s">
+      <c r="P20" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="P20" s="20" t="s">
+      <c r="Q20" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="Q20" s="4" t="s">
+      <c r="R20" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="R20" s="34" t="s">
+      <c r="S20" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="S20" s="34" t="s">
+      <c r="T20" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="T20" s="34" t="s">
+      <c r="U20" s="34" t="s">
         <v>524</v>
       </c>
-      <c r="U20" s="34" t="s">
+      <c r="V20" s="34" t="s">
         <v>514</v>
       </c>
-      <c r="V20" s="34" t="s">
+      <c r="W20" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="W20" s="34" t="s">
+      <c r="X20" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="X20" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE20" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AO20" s="15" t="s">
+      <c r="Y20" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF20" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AP20" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="AP20" s="15" t="s">
+      <c r="AQ20" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AW20" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BR20" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CE20" s="15" t="s">
+      <c r="AX20" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BS20" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CF20" s="15" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:106" ht="224" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:107" ht="224">
       <c r="A21" s="12" t="s">
         <v>425</v>
       </c>
@@ -4851,62 +4977,65 @@
       <c r="L21" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="M21" s="15" t="s">
+      <c r="M21" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="N21" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="N21" s="15" t="s">
+      <c r="O21" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="O21" s="15" t="s">
+      <c r="P21" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="P21" s="20" t="s">
+      <c r="Q21" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="Q21" s="4" t="s">
+      <c r="R21" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="R21" s="34" t="s">
+      <c r="S21" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="S21" s="34" t="s">
+      <c r="T21" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="T21" s="34" t="s">
+      <c r="U21" s="34" t="s">
         <v>525</v>
       </c>
-      <c r="U21" s="34" t="s">
+      <c r="V21" s="34" t="s">
         <v>514</v>
       </c>
-      <c r="V21" s="34" t="s">
+      <c r="W21" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="W21" s="34" t="s">
+      <c r="X21" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="X21" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE21" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AO21" s="15" t="s">
+      <c r="Y21" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF21" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AP21" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="AP21" s="15" t="s">
+      <c r="AQ21" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AW21" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BR21" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CE21" s="15" t="s">
+      <c r="AX21" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BS21" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CF21" s="15" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="22" spans="1:106" ht="238" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:107" ht="238">
       <c r="A22" s="12" t="s">
         <v>58</v>
       </c>
@@ -4940,74 +5069,77 @@
       <c r="L22" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="M22" s="15" t="s">
+      <c r="M22" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="N22" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="N22" s="15" t="s">
+      <c r="O22" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="O22" s="15" t="s">
+      <c r="P22" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="P22" s="20" t="s">
+      <c r="Q22" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="R22" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="R22" s="34" t="s">
+      <c r="S22" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="S22" s="34" t="s">
+      <c r="T22" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="T22" s="34" t="s">
+      <c r="U22" s="34" t="s">
         <v>526</v>
       </c>
-      <c r="U22" s="34" t="s">
+      <c r="V22" s="34" t="s">
         <v>514</v>
       </c>
-      <c r="V22" s="34" t="s">
+      <c r="W22" s="34" t="s">
         <v>527</v>
       </c>
-      <c r="W22" s="34" t="s">
+      <c r="X22" s="34" t="s">
         <v>514</v>
       </c>
-      <c r="X22" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE22" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AO22" s="15" t="s">
+      <c r="Y22" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF22" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AP22" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="AP22" s="15" t="s">
+      <c r="AQ22" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AW22" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BJ22" s="15" t="s">
+      <c r="AX22" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BK22" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="BK22" s="15" t="s">
+      <c r="BL22" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="BL22" s="15" t="s">
+      <c r="BM22" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="BN22" s="15">
+      <c r="BO22" s="15">
         <v>5</v>
       </c>
-      <c r="BR22" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CE22" s="15" t="s">
+      <c r="BS22" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CF22" s="15" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="23" spans="1:106" ht="112" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:107" ht="112">
       <c r="A23" s="12" t="s">
         <v>58</v>
       </c>
@@ -5041,92 +5173,95 @@
       <c r="L23" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="M23" s="15" t="s">
+      <c r="M23" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="N23" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="N23" s="15" t="s">
+      <c r="O23" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="O23" s="15" t="s">
+      <c r="P23" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="P23" s="18" t="s">
+      <c r="Q23" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="R23" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="R23" s="34" t="s">
+      <c r="S23" s="34" t="s">
         <v>528</v>
       </c>
-      <c r="S23" s="34" t="s">
+      <c r="T23" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="T23" s="34" t="s">
+      <c r="U23" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="U23" s="34" t="s">
+      <c r="V23" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="V23" s="34" t="s">
+      <c r="W23" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="W23" s="34" t="s">
+      <c r="X23" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="X23" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y23" s="15" t="s">
+      <c r="Y23" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z23" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="Z23" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB23" s="15" t="s">
+      <c r="AA23" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC23" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AE23" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="AF23" s="15" t="s">
         <v>302</v>
       </c>
       <c r="AG23" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AH23" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="AH23" s="15">
+      <c r="AI23" s="15">
         <v>6</v>
       </c>
-      <c r="AI23" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="AJ23" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AK23" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="AK23" s="15">
+      <c r="AL23" s="15">
         <v>3</v>
       </c>
-      <c r="AL23" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="AM23" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AN23" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="AN23" s="15">
+      <c r="AO23" s="15">
         <v>6</v>
       </c>
-      <c r="AW23" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BR23" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CE23" s="15" t="s">
+      <c r="AX23" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BS23" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CF23" s="15" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="24" spans="1:106" ht="238" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:107" ht="238">
       <c r="A24" s="12" t="s">
         <v>58</v>
       </c>
@@ -5160,74 +5295,77 @@
       <c r="L24" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="M24" s="15" t="s">
+      <c r="M24" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="N24" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="N24" s="15" t="s">
+      <c r="O24" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="O24" s="15" t="s">
+      <c r="P24" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="P24" s="18" t="s">
+      <c r="Q24" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="Q24" s="4" t="s">
+      <c r="R24" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="R24" s="34" t="s">
+      <c r="S24" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="S24" s="34" t="s">
+      <c r="T24" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="T24" s="34" t="s">
+      <c r="U24" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="U24" s="34" t="s">
+      <c r="V24" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="V24" s="34" t="s">
+      <c r="W24" s="34" t="s">
         <v>529</v>
       </c>
-      <c r="W24" s="34" t="s">
+      <c r="X24" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="X24" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE24" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AW24" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BJ24" s="15" t="s">
+      <c r="Y24" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF24" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AX24" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BK24" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="BK24" s="15" t="s">
+      <c r="BL24" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="BR24" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="BS24" s="15" t="s">
         <v>302</v>
       </c>
       <c r="BT24" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BU24" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="BW24" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CA24" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CE24" s="15" t="s">
+      <c r="BX24" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CB24" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CF24" s="15" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="25" spans="1:106" ht="280" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:107" ht="280">
       <c r="A25" s="5" t="s">
         <v>58</v>
       </c>
@@ -5260,58 +5398,60 @@
       <c r="L25" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="M25" s="8" t="s">
+      <c r="M25" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="N25" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="N25" s="8" t="s">
+      <c r="O25" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="O25" s="5" t="s">
+      <c r="P25" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="P25" s="24" t="s">
+      <c r="Q25" s="24" t="s">
         <v>493</v>
       </c>
-      <c r="Q25" s="25" t="s">
+      <c r="R25" s="25" t="s">
         <v>492</v>
       </c>
-      <c r="R25" s="35" t="s">
+      <c r="S25" s="35" t="s">
         <v>528</v>
       </c>
-      <c r="S25" s="35" t="s">
+      <c r="T25" s="35" t="s">
         <v>514</v>
       </c>
-      <c r="T25" s="35" t="s">
+      <c r="U25" s="35" t="s">
         <v>526</v>
       </c>
-      <c r="U25" s="35" t="s">
+      <c r="V25" s="35" t="s">
         <v>530</v>
       </c>
-      <c r="V25" s="35" t="s">
+      <c r="W25" s="35" t="s">
         <v>531</v>
       </c>
-      <c r="W25" s="35" t="s">
+      <c r="X25" s="35" t="s">
         <v>532</v>
       </c>
-      <c r="X25" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y25" s="15" t="s">
+      <c r="Y25" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z25" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="Z25" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8" t="s">
+      <c r="AA25" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="AC25" s="8"/>
       <c r="AD25" s="8"/>
-      <c r="AE25" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="AF25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8" t="s">
+        <v>295</v>
+      </c>
       <c r="AG25" s="8"/>
       <c r="AH25" s="8"/>
       <c r="AI25" s="8"/>
@@ -5320,98 +5460,98 @@
       <c r="AL25" s="8"/>
       <c r="AM25" s="8"/>
       <c r="AN25" s="8"/>
-      <c r="AO25" s="8" t="s">
+      <c r="AO25" s="8"/>
+      <c r="AP25" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="AP25" s="8" t="s">
+      <c r="AQ25" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="AQ25" s="8" t="s">
+      <c r="AR25" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="AR25" s="8"/>
       <c r="AS25" s="8"/>
       <c r="AT25" s="8"/>
       <c r="AU25" s="8"/>
       <c r="AV25" s="8"/>
-      <c r="AW25" s="8" t="s">
-        <v>302</v>
-      </c>
+      <c r="AW25" s="8"/>
       <c r="AX25" s="8" t="s">
         <v>302</v>
       </c>
       <c r="AY25" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="AZ25" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AZ25" s="8"/>
-      <c r="BA25" s="8">
+      <c r="BA25" s="8"/>
+      <c r="BB25" s="8">
         <v>5</v>
       </c>
-      <c r="BB25" s="8" t="s">
-        <v>302</v>
-      </c>
       <c r="BC25" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="BD25" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="BD25" s="8"/>
-      <c r="BE25" s="8">
+      <c r="BE25" s="8"/>
+      <c r="BF25" s="8">
         <v>5</v>
       </c>
-      <c r="BF25" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="BG25" s="8"/>
+      <c r="BG25" s="8" t="s">
+        <v>295</v>
+      </c>
       <c r="BH25" s="8"/>
       <c r="BI25" s="8"/>
-      <c r="BJ25" s="15" t="s">
+      <c r="BJ25" s="8"/>
+      <c r="BK25" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="BK25" s="8" t="s">
+      <c r="BL25" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="BL25" s="8" t="s">
+      <c r="BM25" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="BM25" s="8"/>
       <c r="BN25" s="8"/>
-      <c r="BO25" s="8">
+      <c r="BO25" s="8"/>
+      <c r="BP25" s="8">
         <v>24</v>
       </c>
-      <c r="BP25" s="8">
+      <c r="BQ25" s="8">
         <v>100</v>
       </c>
-      <c r="BQ25" s="8"/>
-      <c r="BR25" s="8" t="s">
-        <v>302</v>
-      </c>
+      <c r="BR25" s="8"/>
       <c r="BS25" s="8" t="s">
         <v>302</v>
       </c>
       <c r="BT25" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="BU25" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="BU25" s="8"/>
       <c r="BV25" s="8"/>
-      <c r="BW25" s="8" t="s">
-        <v>302</v>
-      </c>
+      <c r="BW25" s="8"/>
       <c r="BX25" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="BY25" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="BY25" s="8"/>
-      <c r="BZ25" s="8">
+      <c r="BZ25" s="8"/>
+      <c r="CA25" s="8">
         <v>5</v>
       </c>
-      <c r="CA25" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="CB25" s="8"/>
+      <c r="CB25" s="8" t="s">
+        <v>295</v>
+      </c>
       <c r="CC25" s="8"/>
       <c r="CD25" s="8"/>
-      <c r="CE25" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="CF25" s="8"/>
+      <c r="CE25" s="8"/>
+      <c r="CF25" s="8" t="s">
+        <v>295</v>
+      </c>
       <c r="CG25" s="8"/>
       <c r="CH25" s="8"/>
       <c r="CI25" s="8"/>
@@ -5434,8 +5574,9 @@
       <c r="CZ25" s="8"/>
       <c r="DA25" s="8"/>
       <c r="DB25" s="8"/>
+      <c r="DC25" s="8"/>
     </row>
-    <row r="26" spans="1:106" ht="318" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:107" ht="318" customHeight="1">
       <c r="A26" s="12" t="s">
         <v>58</v>
       </c>
@@ -5467,137 +5608,140 @@
       <c r="L26" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="M26" s="15" t="s">
+      <c r="M26" s="17" t="s">
+        <v>569</v>
+      </c>
+      <c r="N26" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="N26" s="15" t="s">
+      <c r="O26" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="O26" s="15" t="s">
+      <c r="P26" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="Q26" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="Q26" s="4" t="s">
+      <c r="R26" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="R26" s="34" t="s">
+      <c r="S26" s="34" t="s">
         <v>528</v>
       </c>
-      <c r="S26" s="34" t="s">
+      <c r="T26" s="34" t="s">
         <v>533</v>
       </c>
-      <c r="T26" s="35" t="s">
+      <c r="U26" s="35" t="s">
         <v>526</v>
       </c>
-      <c r="U26" s="34" t="s">
+      <c r="V26" s="34" t="s">
         <v>534</v>
       </c>
-      <c r="V26" s="35" t="s">
+      <c r="W26" s="35" t="s">
         <v>531</v>
       </c>
-      <c r="W26" s="34" t="s">
+      <c r="X26" s="34" t="s">
         <v>535</v>
       </c>
-      <c r="X26" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y26" s="15" t="s">
+      <c r="Y26" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z26" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="Z26" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="8" t="s">
+      <c r="AA26" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="AC26" s="8"/>
       <c r="AD26" s="8"/>
-      <c r="AE26" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="AF26" s="15" t="s">
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8" t="s">
         <v>302</v>
       </c>
       <c r="AG26" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AH26" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="AI26" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="AJ26" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AK26" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="AL26" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AO26" s="8" t="s">
+      <c r="AM26" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AP26" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="AP26" s="15" t="s">
+      <c r="AQ26" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="AQ26" s="15" t="s">
+      <c r="AR26" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AW26" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="AX26" s="15" t="s">
         <v>302</v>
       </c>
       <c r="AY26" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AZ26" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="BB26" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="BC26" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BD26" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="BF26" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BJ26" s="15" t="s">
+      <c r="BG26" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BK26" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="BK26" s="8" t="s">
+      <c r="BL26" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="BL26" s="8" t="s">
+      <c r="BM26" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="BO26" s="8">
+      <c r="BP26" s="8">
         <v>24</v>
       </c>
-      <c r="BP26" s="15">
+      <c r="BQ26" s="15">
         <v>100</v>
       </c>
-      <c r="BR26" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="BS26" s="15" t="s">
         <v>302</v>
       </c>
       <c r="BT26" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BU26" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="BW26" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="BX26" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BY26" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="CA26" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CE26" s="15" t="s">
+      <c r="CB26" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CF26" s="15" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="27" spans="1:106" ht="318" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:107" ht="318" customHeight="1">
       <c r="A27" s="12" t="s">
         <v>58</v>
       </c>
@@ -5632,29 +5776,32 @@
       <c r="L27" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="M27" s="15" t="s">
+      <c r="M27" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="N27" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="N27" s="15" t="s">
+      <c r="O27" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="O27" s="15" t="s">
+      <c r="P27" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="4"/>
-      <c r="Z27" s="8"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="4"/>
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
       <c r="AD27" s="8"/>
       <c r="AE27" s="8"/>
-      <c r="AO27" s="8"/>
-      <c r="BK27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AP27" s="8"/>
       <c r="BL27" s="8"/>
-      <c r="BO27" s="8"/>
+      <c r="BM27" s="8"/>
+      <c r="BP27" s="8"/>
     </row>
-    <row r="28" spans="1:106" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:107" ht="407" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>425</v>
       </c>
@@ -5689,131 +5836,134 @@
       <c r="L28" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="M28" s="15" t="s">
+      <c r="M28" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="N28" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="N28" s="15" t="s">
+      <c r="O28" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="O28" s="15" t="s">
+      <c r="P28" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="P28" s="18" t="s">
+      <c r="Q28" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="Q28" s="4" t="s">
+      <c r="R28" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="R28" s="34" t="s">
+      <c r="S28" s="34" t="s">
         <v>541</v>
       </c>
-      <c r="S28" s="34" t="s">
+      <c r="T28" s="34" t="s">
         <v>542</v>
       </c>
-      <c r="T28" s="34" t="s">
+      <c r="U28" s="34" t="s">
         <v>524</v>
       </c>
-      <c r="U28" s="34" t="s">
+      <c r="V28" s="34" t="s">
         <v>544</v>
       </c>
-      <c r="V28" s="34" t="s">
+      <c r="W28" s="34" t="s">
         <v>546</v>
       </c>
-      <c r="W28" s="34" t="s">
+      <c r="X28" s="34" t="s">
         <v>547</v>
       </c>
-      <c r="X28" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y28" s="15" t="s">
+      <c r="Y28" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z28" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="Z28" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB28" s="15" t="s">
+      <c r="AA28" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC28" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AE28" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="AF28" s="15" t="s">
         <v>302</v>
       </c>
       <c r="AG28" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AH28" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="AI28" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="AJ28" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AK28" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="AL28" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AO28" s="15" t="s">
+      <c r="AM28" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AP28" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="AP28" s="15" t="s">
+      <c r="AQ28" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="AQ28" s="15" t="s">
+      <c r="AR28" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AW28" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="AX28" s="15" t="s">
         <v>302</v>
       </c>
       <c r="AY28" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AZ28" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="BB28" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="BC28" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BD28" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="BF28" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BJ28" s="15" t="s">
+      <c r="BG28" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BK28" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="BK28" s="15" t="s">
+      <c r="BL28" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="BL28" s="15" t="s">
+      <c r="BM28" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="BN28" s="15">
+      <c r="BO28" s="15">
         <v>5</v>
       </c>
-      <c r="BR28" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="BS28" s="15" t="s">
         <v>302</v>
       </c>
       <c r="BT28" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BU28" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="BW28" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="BX28" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BY28" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="CA28" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CE28" s="15" t="s">
+      <c r="CB28" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CF28" s="15" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="29" spans="1:106" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:107" ht="407" customHeight="1">
       <c r="A29" s="12" t="s">
         <v>425</v>
       </c>
@@ -5848,131 +5998,134 @@
       <c r="L29" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="M29" s="15" t="s">
+      <c r="M29" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="N29" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="N29" s="15" t="s">
+      <c r="O29" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="O29" s="15" t="s">
+      <c r="P29" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="P29" s="18" t="s">
+      <c r="Q29" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="Q29" s="4" t="s">
+      <c r="R29" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="R29" s="34" t="s">
+      <c r="S29" s="34" t="s">
         <v>541</v>
       </c>
-      <c r="S29" s="34" t="s">
+      <c r="T29" s="34" t="s">
         <v>542</v>
       </c>
-      <c r="T29" s="34" t="s">
+      <c r="U29" s="34" t="s">
         <v>545</v>
       </c>
-      <c r="U29" s="34" t="s">
+      <c r="V29" s="34" t="s">
         <v>544</v>
       </c>
-      <c r="V29" s="34" t="s">
+      <c r="W29" s="34" t="s">
         <v>546</v>
       </c>
-      <c r="W29" s="34" t="s">
+      <c r="X29" s="34" t="s">
         <v>547</v>
       </c>
-      <c r="X29" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y29" s="15" t="s">
+      <c r="Y29" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z29" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="Z29" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB29" s="15" t="s">
+      <c r="AA29" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC29" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AE29" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="AF29" s="15" t="s">
         <v>302</v>
       </c>
       <c r="AG29" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AH29" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="AI29" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="AJ29" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AK29" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="AL29" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AO29" s="15" t="s">
+      <c r="AM29" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AP29" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="AP29" s="15" t="s">
+      <c r="AQ29" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="AQ29" s="15" t="s">
+      <c r="AR29" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AW29" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="AX29" s="15" t="s">
         <v>302</v>
       </c>
       <c r="AY29" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AZ29" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="BB29" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="BC29" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BD29" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="BF29" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BJ29" s="15" t="s">
+      <c r="BG29" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BK29" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="BK29" s="15" t="s">
+      <c r="BL29" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="BL29" s="15" t="s">
+      <c r="BM29" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="BN29" s="15">
+      <c r="BO29" s="15">
         <v>5</v>
       </c>
-      <c r="BR29" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="BS29" s="15" t="s">
         <v>302</v>
       </c>
       <c r="BT29" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BU29" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="BW29" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="BX29" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BY29" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="CA29" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CE29" s="15" t="s">
+      <c r="CB29" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CF29" s="15" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="30" spans="1:106" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:107" ht="407" customHeight="1">
       <c r="A30" s="12" t="s">
         <v>425</v>
       </c>
@@ -6004,149 +6157,152 @@
       <c r="L30" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="M30" s="15" t="s">
+      <c r="M30" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="N30" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="N30" s="15" t="s">
+      <c r="O30" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="O30" s="15" t="s">
+      <c r="P30" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="P30" s="18" t="s">
+      <c r="Q30" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="Q30" s="4" t="s">
+      <c r="R30" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="R30" s="34" t="s">
+      <c r="S30" s="34" t="s">
         <v>541</v>
       </c>
-      <c r="S30" s="34" t="s">
+      <c r="T30" s="34" t="s">
         <v>542</v>
       </c>
-      <c r="T30" s="34" t="s">
+      <c r="U30" s="34" t="s">
         <v>524</v>
       </c>
-      <c r="U30" s="34" t="s">
+      <c r="V30" s="34" t="s">
         <v>544</v>
       </c>
-      <c r="V30" s="34" t="s">
+      <c r="W30" s="34" t="s">
         <v>546</v>
       </c>
-      <c r="W30" s="34" t="s">
+      <c r="X30" s="34" t="s">
         <v>547</v>
       </c>
-      <c r="X30" s="34" t="s">
+      <c r="Y30" s="34" t="s">
         <v>508</v>
       </c>
-      <c r="Y30" s="15" t="s">
+      <c r="Z30" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="Z30" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB30" s="15" t="s">
+      <c r="AA30" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC30" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AE30" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="AF30" s="15" t="s">
         <v>302</v>
       </c>
       <c r="AG30" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AH30" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="AI30" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="AJ30" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AK30" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="AL30" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AO30" s="15" t="s">
+      <c r="AM30" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AP30" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="AP30" s="15" t="s">
+      <c r="AQ30" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="AQ30" s="15" t="s">
+      <c r="AR30" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AW30" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="AX30" s="15" t="s">
         <v>302</v>
       </c>
       <c r="AY30" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AZ30" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="BB30" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="BC30" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BD30" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="BF30" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BJ30" s="15" t="s">
+      <c r="BG30" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BK30" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="BK30" s="15" t="s">
+      <c r="BL30" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="BL30" s="15" t="s">
+      <c r="BM30" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="BN30" s="15">
+      <c r="BO30" s="15">
         <v>5</v>
       </c>
-      <c r="BR30" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="BS30" s="15" t="s">
         <v>302</v>
       </c>
       <c r="BT30" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BU30" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="BW30" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="BX30" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BY30" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="CA30" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CE30" s="15" t="s">
-        <v>302</v>
+      <c r="CB30" s="15" t="s">
+        <v>295</v>
       </c>
       <c r="CF30" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CG30" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="CG30" s="15" t="s">
+      <c r="CH30" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="CK30" s="15" t="s">
+      <c r="CL30" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="CN30" s="27">
-        <v>55</v>
-      </c>
       <c r="CO30" s="27">
+        <v>55</v>
+      </c>
+      <c r="CP30" s="27">
         <v>2.1</v>
       </c>
-      <c r="CP30" s="27">
+      <c r="CQ30" s="27">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:106" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:107" ht="407" customHeight="1">
       <c r="A31" s="12" t="s">
         <v>425</v>
       </c>
@@ -6178,149 +6334,152 @@
       <c r="L31" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="M31" s="15" t="s">
+      <c r="M31" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="N31" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="N31" s="15" t="s">
+      <c r="O31" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="O31" s="15" t="s">
+      <c r="P31" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="P31" s="18" t="s">
+      <c r="Q31" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="R31" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="R31" s="34" t="s">
+      <c r="S31" s="34" t="s">
         <v>541</v>
       </c>
-      <c r="S31" s="34" t="s">
+      <c r="T31" s="34" t="s">
         <v>542</v>
       </c>
-      <c r="T31" s="34" t="s">
+      <c r="U31" s="34" t="s">
         <v>545</v>
       </c>
-      <c r="U31" s="34" t="s">
+      <c r="V31" s="34" t="s">
         <v>544</v>
       </c>
-      <c r="V31" s="34" t="s">
+      <c r="W31" s="34" t="s">
         <v>546</v>
       </c>
-      <c r="W31" s="34" t="s">
+      <c r="X31" s="34" t="s">
         <v>547</v>
       </c>
-      <c r="X31" s="34" t="s">
+      <c r="Y31" s="34" t="s">
         <v>508</v>
       </c>
-      <c r="Y31" s="15" t="s">
+      <c r="Z31" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="Z31" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB31" s="15" t="s">
+      <c r="AA31" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC31" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AE31" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="AF31" s="15" t="s">
         <v>302</v>
       </c>
       <c r="AG31" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AH31" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="AI31" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="AJ31" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AK31" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="AL31" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AO31" s="15" t="s">
+      <c r="AM31" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AP31" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="AP31" s="15" t="s">
+      <c r="AQ31" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="AQ31" s="15" t="s">
+      <c r="AR31" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AW31" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="AX31" s="15" t="s">
         <v>302</v>
       </c>
       <c r="AY31" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AZ31" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="BB31" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="BC31" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BD31" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="BF31" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BJ31" s="15" t="s">
+      <c r="BG31" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BK31" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="BK31" s="15" t="s">
+      <c r="BL31" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="BL31" s="15" t="s">
+      <c r="BM31" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="BN31" s="15">
+      <c r="BO31" s="15">
         <v>5</v>
       </c>
-      <c r="BR31" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="BS31" s="15" t="s">
         <v>302</v>
       </c>
       <c r="BT31" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BU31" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="BW31" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="BX31" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BY31" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="CA31" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CE31" s="15" t="s">
-        <v>302</v>
+      <c r="CB31" s="15" t="s">
+        <v>295</v>
       </c>
       <c r="CF31" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CG31" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="CG31" s="15" t="s">
+      <c r="CH31" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="CK31" s="15" t="s">
+      <c r="CL31" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="CN31" s="27">
-        <v>55</v>
-      </c>
       <c r="CO31" s="27">
+        <v>55</v>
+      </c>
+      <c r="CP31" s="27">
         <v>2.1</v>
       </c>
-      <c r="CP31" s="27">
+      <c r="CQ31" s="27">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:106" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:107" ht="407" customHeight="1">
       <c r="A32" s="12" t="s">
         <v>425</v>
       </c>
@@ -6352,128 +6511,131 @@
       <c r="L32" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="M32" s="15" t="s">
+      <c r="M32" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="N32" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="N32" s="15" t="s">
+      <c r="O32" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="O32" s="15" t="s">
+      <c r="P32" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="P32" s="18" t="s">
+      <c r="Q32" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="Q32" s="4" t="s">
+      <c r="R32" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="R32" s="34" t="s">
+      <c r="S32" s="34" t="s">
         <v>541</v>
       </c>
-      <c r="S32" s="34" t="s">
+      <c r="T32" s="34" t="s">
         <v>542</v>
       </c>
-      <c r="T32" s="34" t="s">
+      <c r="U32" s="34" t="s">
         <v>524</v>
       </c>
-      <c r="U32" s="34" t="s">
+      <c r="V32" s="34" t="s">
         <v>544</v>
       </c>
-      <c r="V32" s="34" t="s">
+      <c r="W32" s="34" t="s">
         <v>546</v>
       </c>
-      <c r="W32" s="34" t="s">
+      <c r="X32" s="34" t="s">
         <v>547</v>
       </c>
-      <c r="X32" s="34" t="s">
+      <c r="Y32" s="34" t="s">
         <v>518</v>
       </c>
-      <c r="Y32" s="15" t="s">
+      <c r="Z32" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="Z32" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB32" s="15" t="s">
+      <c r="AA32" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC32" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AE32" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AO32" s="15" t="s">
+      <c r="AF32" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AP32" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="AP32" s="15" t="s">
+      <c r="AQ32" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="AQ32" s="15" t="s">
+      <c r="AR32" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AW32" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="AX32" s="15" t="s">
         <v>302</v>
       </c>
       <c r="AY32" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AZ32" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="BB32" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="BC32" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BD32" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="BF32" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BJ32" s="15" t="s">
+      <c r="BG32" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BK32" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="BK32" s="15" t="s">
+      <c r="BL32" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="BL32" s="15" t="s">
+      <c r="BM32" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="BN32" s="15">
+      <c r="BO32" s="15">
         <v>5</v>
       </c>
-      <c r="BR32" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CE32" s="15" t="s">
-        <v>302</v>
+      <c r="BS32" s="15" t="s">
+        <v>295</v>
       </c>
       <c r="CF32" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CG32" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="CG32" s="15" t="s">
+      <c r="CH32" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="CH32" s="15" t="s">
+      <c r="CI32" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="CJ32" s="15" t="s">
+      <c r="CK32" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="CK32" s="15" t="s">
+      <c r="CL32" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="CM32" s="27">
+      <c r="CN32" s="27">
         <v>50</v>
       </c>
-      <c r="CQ32" s="15" t="s">
+      <c r="CR32" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="CR32" s="15">
+      <c r="CS32" s="15">
         <v>50</v>
       </c>
-      <c r="CW32" s="15" t="s">
+      <c r="CX32" s="15" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:106" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:107" ht="407" customHeight="1">
       <c r="A33" s="12" t="s">
         <v>425</v>
       </c>
@@ -6505,128 +6667,131 @@
       <c r="L33" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="M33" s="15" t="s">
+      <c r="M33" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="N33" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="N33" s="15" t="s">
+      <c r="O33" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="O33" s="15" t="s">
+      <c r="P33" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="P33" s="18" t="s">
+      <c r="Q33" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="Q33" s="4" t="s">
+      <c r="R33" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="R33" s="34" t="s">
+      <c r="S33" s="34" t="s">
         <v>541</v>
       </c>
-      <c r="S33" s="34" t="s">
+      <c r="T33" s="34" t="s">
         <v>542</v>
       </c>
-      <c r="T33" s="34" t="s">
+      <c r="U33" s="34" t="s">
         <v>545</v>
       </c>
-      <c r="U33" s="34" t="s">
+      <c r="V33" s="34" t="s">
         <v>544</v>
       </c>
-      <c r="V33" s="34" t="s">
+      <c r="W33" s="34" t="s">
         <v>546</v>
       </c>
-      <c r="W33" s="34" t="s">
+      <c r="X33" s="34" t="s">
         <v>547</v>
       </c>
-      <c r="X33" s="34" t="s">
+      <c r="Y33" s="34" t="s">
         <v>518</v>
       </c>
-      <c r="Y33" s="15" t="s">
+      <c r="Z33" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="Z33" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB33" s="15" t="s">
+      <c r="AA33" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC33" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AE33" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AO33" s="15" t="s">
+      <c r="AF33" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AP33" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="AP33" s="15" t="s">
+      <c r="AQ33" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="AQ33" s="15" t="s">
+      <c r="AR33" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AW33" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="AX33" s="15" t="s">
         <v>302</v>
       </c>
       <c r="AY33" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AZ33" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="BB33" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="BC33" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BD33" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="BF33" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BJ33" s="15" t="s">
+      <c r="BG33" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BK33" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="BK33" s="15" t="s">
+      <c r="BL33" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="BL33" s="15" t="s">
+      <c r="BM33" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="BN33" s="15">
+      <c r="BO33" s="15">
         <v>5</v>
       </c>
-      <c r="BR33" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CE33" s="15" t="s">
-        <v>302</v>
+      <c r="BS33" s="15" t="s">
+        <v>295</v>
       </c>
       <c r="CF33" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CG33" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="CG33" s="15" t="s">
+      <c r="CH33" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="CH33" s="15" t="s">
+      <c r="CI33" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="CJ33" s="15" t="s">
+      <c r="CK33" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="CK33" s="15" t="s">
+      <c r="CL33" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="CM33" s="27">
+      <c r="CN33" s="27">
         <v>50</v>
       </c>
-      <c r="CQ33" s="15" t="s">
+      <c r="CR33" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="CR33" s="15">
+      <c r="CS33" s="15">
         <v>50</v>
       </c>
-      <c r="CW33" s="15" t="s">
+      <c r="CX33" s="15" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:106" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:107" ht="407" customHeight="1">
       <c r="A34" s="12" t="s">
         <v>425</v>
       </c>
@@ -6658,129 +6823,132 @@
       <c r="L34" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="M34" s="15" t="s">
+      <c r="M34" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="N34" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="N34" s="15" t="s">
+      <c r="O34" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="O34" s="15" t="s">
+      <c r="P34" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="P34" s="18" t="s">
+      <c r="Q34" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="Q34" s="4" t="s">
+      <c r="R34" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="R34" s="34" t="s">
+      <c r="S34" s="34" t="s">
         <v>541</v>
       </c>
-      <c r="S34" s="34" t="s">
+      <c r="T34" s="34" t="s">
         <v>542</v>
       </c>
-      <c r="T34" s="34" t="s">
+      <c r="U34" s="34" t="s">
         <v>524</v>
       </c>
-      <c r="U34" s="34" t="s">
+      <c r="V34" s="34" t="s">
         <v>544</v>
       </c>
-      <c r="V34" s="34" t="s">
+      <c r="W34" s="34" t="s">
         <v>546</v>
       </c>
-      <c r="W34" s="34" t="s">
+      <c r="X34" s="34" t="s">
         <v>547</v>
       </c>
-      <c r="X34" s="34" t="s">
+      <c r="Y34" s="34" t="s">
         <v>506</v>
       </c>
-      <c r="Y34" s="15" t="s">
+      <c r="Z34" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="Z34" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB34" s="15" t="s">
+      <c r="AA34" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC34" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AE34" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AO34" s="15" t="s">
+      <c r="AF34" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AP34" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="AP34" s="15" t="s">
+      <c r="AQ34" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="AQ34" s="15" t="s">
+      <c r="AR34" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AW34" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="AX34" s="15" t="s">
         <v>302</v>
       </c>
       <c r="AY34" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AZ34" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="BB34" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="BC34" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BD34" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="BF34" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BJ34" s="15" t="s">
+      <c r="BG34" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BK34" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="BK34" s="15" t="s">
+      <c r="BL34" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="BL34" s="15" t="s">
+      <c r="BM34" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="BN34" s="15">
+      <c r="BO34" s="15">
         <v>5</v>
       </c>
-      <c r="BR34" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CE34" s="15" t="s">
-        <v>302</v>
+      <c r="BS34" s="15" t="s">
+        <v>295</v>
       </c>
       <c r="CF34" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CG34" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="CG34" s="15" t="s">
+      <c r="CH34" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="CH34" s="15" t="s">
+      <c r="CI34" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="CK34" s="29" t="s">
+      <c r="CL34" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="CM34" s="27">
+      <c r="CN34" s="27">
         <v>10</v>
       </c>
-      <c r="CQ34" s="15" t="s">
+      <c r="CR34" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="CR34" s="8"/>
-      <c r="CS34" s="15">
+      <c r="CS34" s="8"/>
+      <c r="CT34" s="15">
         <v>20</v>
       </c>
-      <c r="CW34" s="15" t="s">
+      <c r="CX34" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="CY34" s="15">
+      <c r="CZ34" s="15">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:106" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:107" ht="407" customHeight="1">
       <c r="A35" s="12" t="s">
         <v>425</v>
       </c>
@@ -6812,129 +6980,132 @@
       <c r="L35" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="M35" s="15" t="s">
+      <c r="M35" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="N35" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="N35" s="15" t="s">
+      <c r="O35" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="O35" s="15" t="s">
+      <c r="P35" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="P35" s="18" t="s">
+      <c r="Q35" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="Q35" s="4" t="s">
+      <c r="R35" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="R35" s="34" t="s">
+      <c r="S35" s="34" t="s">
         <v>541</v>
       </c>
-      <c r="S35" s="34" t="s">
+      <c r="T35" s="34" t="s">
         <v>542</v>
       </c>
-      <c r="T35" s="34" t="s">
+      <c r="U35" s="34" t="s">
         <v>545</v>
       </c>
-      <c r="U35" s="34" t="s">
+      <c r="V35" s="34" t="s">
         <v>544</v>
       </c>
-      <c r="V35" s="34" t="s">
+      <c r="W35" s="34" t="s">
         <v>546</v>
       </c>
-      <c r="W35" s="34" t="s">
+      <c r="X35" s="34" t="s">
         <v>547</v>
       </c>
-      <c r="X35" s="34" t="s">
+      <c r="Y35" s="34" t="s">
         <v>506</v>
       </c>
-      <c r="Y35" s="15" t="s">
+      <c r="Z35" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="Z35" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB35" s="15" t="s">
+      <c r="AA35" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC35" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AE35" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AO35" s="15" t="s">
+      <c r="AF35" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AP35" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="AP35" s="15" t="s">
+      <c r="AQ35" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="AQ35" s="15" t="s">
+      <c r="AR35" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AW35" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="AX35" s="15" t="s">
         <v>302</v>
       </c>
       <c r="AY35" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AZ35" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="BB35" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="BC35" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BD35" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="BF35" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BJ35" s="15" t="s">
+      <c r="BG35" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BK35" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="BK35" s="15" t="s">
+      <c r="BL35" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="BL35" s="15" t="s">
+      <c r="BM35" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="BN35" s="15">
+      <c r="BO35" s="15">
         <v>5</v>
       </c>
-      <c r="BR35" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CE35" s="15" t="s">
-        <v>302</v>
+      <c r="BS35" s="15" t="s">
+        <v>295</v>
       </c>
       <c r="CF35" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CG35" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="CG35" s="15" t="s">
+      <c r="CH35" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="CH35" s="15" t="s">
+      <c r="CI35" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="CK35" s="29" t="s">
+      <c r="CL35" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="CM35" s="27">
+      <c r="CN35" s="27">
         <v>10</v>
       </c>
-      <c r="CQ35" s="15" t="s">
+      <c r="CR35" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="CR35" s="8"/>
-      <c r="CS35" s="15">
+      <c r="CS35" s="8"/>
+      <c r="CT35" s="15">
         <v>20</v>
       </c>
-      <c r="CW35" s="15" t="s">
+      <c r="CX35" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="CY35" s="15">
+      <c r="CZ35" s="15">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:106" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:107" ht="407" customHeight="1">
       <c r="A36" s="12" t="s">
         <v>425</v>
       </c>
@@ -6966,110 +7137,113 @@
       <c r="L36" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="M36" s="15" t="s">
+      <c r="M36" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="N36" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="N36" s="15" t="s">
+      <c r="O36" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="O36" s="15" t="s">
+      <c r="P36" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="P36" s="18" t="s">
+      <c r="Q36" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="Q36" s="4" t="s">
+      <c r="R36" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="R36" s="34" t="s">
+      <c r="S36" s="34" t="s">
         <v>541</v>
       </c>
-      <c r="S36" s="34" t="s">
+      <c r="T36" s="34" t="s">
         <v>542</v>
       </c>
-      <c r="T36" s="34" t="s">
+      <c r="U36" s="34" t="s">
         <v>524</v>
       </c>
-      <c r="U36" s="34" t="s">
+      <c r="V36" s="34" t="s">
         <v>544</v>
       </c>
-      <c r="V36" s="34" t="s">
+      <c r="W36" s="34" t="s">
         <v>546</v>
       </c>
-      <c r="W36" s="34" t="s">
+      <c r="X36" s="34" t="s">
         <v>547</v>
       </c>
-      <c r="X36" s="35" t="s">
+      <c r="Y36" s="35" t="s">
         <v>543</v>
       </c>
-      <c r="Y36" s="15" t="s">
+      <c r="Z36" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="Z36" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB36" s="15" t="s">
+      <c r="AA36" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC36" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AE36" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AO36" s="15" t="s">
+      <c r="AF36" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AP36" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="AP36" s="15" t="s">
+      <c r="AQ36" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="AQ36" s="15" t="s">
+      <c r="AR36" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AW36" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="AX36" s="15" t="s">
         <v>302</v>
       </c>
       <c r="AY36" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AZ36" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="BB36" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="BC36" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BD36" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="BF36" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BJ36" s="15" t="s">
+      <c r="BG36" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BK36" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="BK36" s="15" t="s">
+      <c r="BL36" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="BL36" s="15" t="s">
+      <c r="BM36" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="BN36" s="15">
+      <c r="BO36" s="15">
         <v>5</v>
       </c>
-      <c r="BR36" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CE36" s="15" t="s">
-        <v>302</v>
+      <c r="BS36" s="15" t="s">
+        <v>295</v>
       </c>
       <c r="CF36" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CG36" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="CG36" s="15" t="s">
+      <c r="CH36" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="CK36" s="15" t="s">
+      <c r="CL36" s="15" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="37" spans="1:106" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:107" ht="407" customHeight="1">
       <c r="A37" s="12" t="s">
         <v>425</v>
       </c>
@@ -7098,110 +7272,113 @@
       <c r="L37" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="M37" s="15" t="s">
+      <c r="M37" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="N37" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="N37" s="15" t="s">
+      <c r="O37" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="O37" s="15" t="s">
+      <c r="P37" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="P37" s="18" t="s">
+      <c r="Q37" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="Q37" s="4" t="s">
+      <c r="R37" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="R37" s="34" t="s">
+      <c r="S37" s="34" t="s">
         <v>541</v>
       </c>
-      <c r="S37" s="34" t="s">
+      <c r="T37" s="34" t="s">
         <v>542</v>
       </c>
-      <c r="T37" s="34" t="s">
+      <c r="U37" s="34" t="s">
         <v>545</v>
       </c>
-      <c r="U37" s="34" t="s">
+      <c r="V37" s="34" t="s">
         <v>544</v>
       </c>
-      <c r="V37" s="34" t="s">
+      <c r="W37" s="34" t="s">
         <v>546</v>
       </c>
-      <c r="W37" s="34" t="s">
+      <c r="X37" s="34" t="s">
         <v>547</v>
       </c>
-      <c r="X37" s="35" t="s">
+      <c r="Y37" s="35" t="s">
         <v>543</v>
       </c>
-      <c r="Y37" s="15" t="s">
+      <c r="Z37" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="Z37" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB37" s="15" t="s">
+      <c r="AA37" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC37" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AE37" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AO37" s="15" t="s">
+      <c r="AF37" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AP37" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="AP37" s="15" t="s">
+      <c r="AQ37" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="AQ37" s="15" t="s">
+      <c r="AR37" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AW37" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="AX37" s="15" t="s">
         <v>302</v>
       </c>
       <c r="AY37" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AZ37" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="BB37" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="BC37" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BD37" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="BF37" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BJ37" s="15" t="s">
+      <c r="BG37" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BK37" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="BK37" s="15" t="s">
+      <c r="BL37" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="BL37" s="15" t="s">
+      <c r="BM37" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="BN37" s="15">
+      <c r="BO37" s="15">
         <v>5</v>
       </c>
-      <c r="BR37" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CE37" s="15" t="s">
-        <v>302</v>
+      <c r="BS37" s="15" t="s">
+        <v>295</v>
       </c>
       <c r="CF37" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CG37" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="CG37" s="15" t="s">
+      <c r="CH37" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="CK37" s="15" t="s">
+      <c r="CL37" s="15" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="38" spans="1:106" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:107" ht="407" customHeight="1">
       <c r="A38" s="12" t="s">
         <v>58</v>
       </c>
@@ -7230,65 +7407,68 @@
       <c r="L38" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="M38" s="5" t="s">
+      <c r="M38" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="N38" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="N38" s="5" t="s">
+      <c r="O38" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="O38" s="15" t="s">
+      <c r="P38" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="P38" s="10" t="s">
+      <c r="Q38" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="Q38" s="25" t="s">
+      <c r="R38" s="25" t="s">
         <v>498</v>
       </c>
-      <c r="R38" s="35" t="s">
+      <c r="S38" s="35" t="s">
         <v>540</v>
       </c>
-      <c r="S38" s="35" t="s">
+      <c r="T38" s="35" t="s">
         <v>512</v>
       </c>
-      <c r="T38" s="35" t="s">
+      <c r="U38" s="35" t="s">
         <v>540</v>
       </c>
-      <c r="U38" s="35" t="s">
+      <c r="V38" s="35" t="s">
         <v>512</v>
       </c>
-      <c r="V38" s="35" t="s">
+      <c r="W38" s="35" t="s">
         <v>540</v>
       </c>
-      <c r="W38" s="35" t="s">
+      <c r="X38" s="35" t="s">
         <v>512</v>
       </c>
-      <c r="X38" s="35" t="s">
+      <c r="Y38" s="35" t="s">
         <v>543</v>
       </c>
-      <c r="AE38" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AW38" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BR38" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CE38" s="15" t="s">
-        <v>302</v>
+      <c r="AF38" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AX38" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="BS38" s="15" t="s">
+        <v>295</v>
       </c>
       <c r="CF38" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CG38" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="CG38" s="15" t="s">
+      <c r="CH38" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="CK38" s="15" t="s">
+      <c r="CL38" s="15" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="39" spans="1:106" ht="42" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:107" ht="42">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
@@ -7302,154 +7482,152 @@
         <v>58</v>
       </c>
       <c r="L39" s="26"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="4"/>
-      <c r="Z39" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AA39" s="15">
+      <c r="M39" s="26"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="4"/>
+      <c r="AA39" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB39" s="15">
         <v>20</v>
       </c>
-      <c r="AB39" s="15" t="s">
+      <c r="AC39" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AE39" s="15" t="s">
-        <v>295</v>
-      </c>
       <c r="AF39" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="AH39" s="15">
+      <c r="AG39" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AI39" s="15">
         <v>5</v>
       </c>
-      <c r="AI39" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AK39" s="15">
+      <c r="AJ39" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AL39" s="15">
         <v>5</v>
       </c>
-      <c r="AL39" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AN39" s="15">
+      <c r="AM39" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="AO39" s="15">
         <v>5</v>
       </c>
-      <c r="AQ39" s="15" t="s">
+      <c r="AR39" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AS39" s="15">
+      <c r="AT39" s="15">
         <v>5</v>
       </c>
-      <c r="AT39" s="15">
+      <c r="AU39" s="15">
         <v>24</v>
       </c>
-      <c r="AU39" s="15">
+      <c r="AV39" s="15">
         <v>100</v>
       </c>
-      <c r="AV39" s="15">
+      <c r="AW39" s="15">
         <v>400</v>
       </c>
-      <c r="AW39" s="15" t="s">
-        <v>295</v>
-      </c>
       <c r="AX39" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="AZ39" s="15">
-        <v>5</v>
+      <c r="AY39" s="15" t="s">
+        <v>295</v>
       </c>
       <c r="BA39" s="15">
         <v>5</v>
       </c>
-      <c r="BB39" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BD39" s="15">
+      <c r="BB39" s="15">
         <v>5</v>
+      </c>
+      <c r="BC39" s="15" t="s">
+        <v>295</v>
       </c>
       <c r="BE39" s="15">
         <v>5</v>
       </c>
-      <c r="BF39" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BH39" s="15">
+      <c r="BF39" s="15">
         <v>5</v>
+      </c>
+      <c r="BG39" s="15" t="s">
+        <v>295</v>
       </c>
       <c r="BI39" s="15">
         <v>5</v>
       </c>
-      <c r="BK39" s="15" t="s">
+      <c r="BJ39" s="15">
+        <v>5</v>
+      </c>
+      <c r="BL39" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="BN39" s="15">
+      <c r="BO39" s="15">
         <v>5</v>
       </c>
-      <c r="BO39" s="15">
+      <c r="BP39" s="15">
         <v>24</v>
       </c>
-      <c r="BP39" s="15">
+      <c r="BQ39" s="15">
         <v>100</v>
       </c>
-      <c r="BQ39" s="15">
+      <c r="BR39" s="15">
         <v>400</v>
       </c>
-      <c r="BR39" s="15" t="s">
-        <v>295</v>
-      </c>
       <c r="BS39" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="BU39" s="15">
-        <v>5</v>
+      <c r="BT39" s="15" t="s">
+        <v>295</v>
       </c>
       <c r="BV39" s="15">
         <v>5</v>
       </c>
-      <c r="BW39" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="BY39" s="15">
+      <c r="BW39" s="15">
         <v>5</v>
+      </c>
+      <c r="BX39" s="15" t="s">
+        <v>295</v>
       </c>
       <c r="BZ39" s="15">
         <v>5</v>
       </c>
-      <c r="CA39" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CC39" s="15">
+      <c r="CA39" s="15">
         <v>5</v>
+      </c>
+      <c r="CB39" s="15" t="s">
+        <v>295</v>
       </c>
       <c r="CD39" s="15">
         <v>5</v>
       </c>
-      <c r="CE39" s="15" t="s">
-        <v>295</v>
+      <c r="CE39" s="15">
+        <v>5</v>
       </c>
       <c r="CF39" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CG39" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="CG39" s="15" t="s">
+      <c r="CH39" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="CH39" s="15" t="s">
+      <c r="CI39" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="CI39" s="15">
+      <c r="CJ39" s="15">
         <v>0.7</v>
       </c>
-      <c r="CJ39" s="15" t="s">
+      <c r="CK39" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="CK39" s="15" t="s">
+      <c r="CL39" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="CL39" s="15">
+      <c r="CM39" s="15">
         <v>50</v>
-      </c>
-      <c r="CM39" s="27">
-        <v>5</v>
       </c>
       <c r="CN39" s="27">
         <v>5</v>
@@ -7460,16 +7638,16 @@
       <c r="CP39" s="27">
         <v>5</v>
       </c>
-      <c r="CQ39" s="15" t="s">
+      <c r="CQ39" s="27">
+        <v>5</v>
+      </c>
+      <c r="CR39" s="15" t="s">
         <v>299</v>
-      </c>
-      <c r="CR39" s="15">
-        <v>5</v>
       </c>
       <c r="CS39" s="15">
         <v>5</v>
       </c>
-      <c r="CT39" s="27">
+      <c r="CT39" s="15">
         <v>5</v>
       </c>
       <c r="CU39" s="27">
@@ -7478,16 +7656,16 @@
       <c r="CV39" s="27">
         <v>5</v>
       </c>
-      <c r="CW39" s="15" t="s">
+      <c r="CW39" s="27">
+        <v>5</v>
+      </c>
+      <c r="CX39" s="15" t="s">
         <v>300</v>
-      </c>
-      <c r="CX39" s="15">
-        <v>5</v>
       </c>
       <c r="CY39" s="15">
         <v>5</v>
       </c>
-      <c r="CZ39" s="27">
+      <c r="CZ39" s="15">
         <v>5</v>
       </c>
       <c r="DA39" s="27">
@@ -7496,9 +7674,12 @@
       <c r="DB39" s="27">
         <v>5</v>
       </c>
+      <c r="DC39" s="27">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:CY39">
+  <sortState ref="A2:CZ39">
     <sortCondition ref="K2:K39"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7515,7 +7696,7 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="13.1640625" style="1" customWidth="1"/>
@@ -7531,7 +7712,7 @@
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:58" ht="51">
       <c r="A1" s="1" t="s">
         <v>140</v>
       </c>
@@ -7707,7 +7888,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:58" ht="308" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:58" ht="308" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
@@ -7781,7 +7962,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:58" ht="153" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:58" ht="153">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -7843,7 +8024,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:58" ht="272" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:58" ht="272">
       <c r="A4" s="1" t="s">
         <v>55</v>
       </c>
@@ -7908,7 +8089,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:58" ht="221" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:58" ht="221">
       <c r="A5" s="1" t="s">
         <v>55</v>
       </c>
@@ -7967,7 +8148,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:58" ht="136" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:58" ht="136">
       <c r="A6" s="1" t="s">
         <v>55</v>
       </c>
@@ -8008,7 +8189,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:58" ht="187" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:58" ht="187">
       <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
@@ -8079,7 +8260,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:58" ht="187" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:58" ht="187">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
@@ -8150,7 +8331,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:58" ht="102" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:58" ht="102">
       <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
@@ -8194,7 +8375,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:58" ht="102" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:58" ht="102">
       <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
@@ -8238,7 +8419,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:58" ht="238" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:58" ht="238">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
@@ -8300,7 +8481,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:58" ht="306" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:58" ht="306">
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
@@ -8353,7 +8534,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:58" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:58" ht="51">
       <c r="D13" s="1" t="s">
         <v>83</v>
       </c>

--- a/app/data/wto_proposal_settings_master.xlsx
+++ b/app/data/wto_proposal_settings_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kat/GitHub/SubsidyExplorer/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E23C82-4F51-9043-B952-D312E86571EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E15F70A-210A-2542-85A0-EDE0FE947993}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="607">
   <si>
     <t>proposal</t>
   </si>
@@ -353,9 +353,6 @@
     <t>New Zealand and Iceland</t>
   </si>
   <si>
-    <t>New Zealand and Iceland draft text on overfishing and overcapacity</t>
-  </si>
-  <si>
     <t>This unofficial room document was circulated at the request of the Delegations of New Zealand and Iceland on April 18, 2019.</t>
   </si>
   <si>
@@ -365,9 +362,6 @@
     <t>This unofficial room document was circulated at the request of the Delegation of Morocco on August 7, 2019.</t>
   </si>
   <si>
-    <t>RD/TN/RL/96</t>
-  </si>
-  <si>
     <t>Overcapacity and overfishing</t>
   </si>
   <si>
@@ -395,9 +389,6 @@
     <t>Overfished</t>
   </si>
   <si>
-    <t>RD/TN/RL/119</t>
-  </si>
-  <si>
     <t>Overfished stocks: Facilitator's working paper</t>
   </si>
   <si>
@@ -422,9 +413,6 @@
     <t>Australia</t>
   </si>
   <si>
-    <t>Australian draft text on overfished stocks</t>
-  </si>
-  <si>
     <t>This unofficial room document was circulated at the request of the Delegation of Australia on June 5, 2019.</t>
   </si>
   <si>
@@ -461,9 +449,6 @@
     <t>This unofficial room document was circulated at the request of the Delegations of Argentina, Colombia, Costa Rica, Panama, Peru, Uruguay, Canada, Iceland, New Zealand, and the United States on June 12, 2019.</t>
   </si>
   <si>
-    <t>Draft text: Philippines non-paper</t>
-  </si>
-  <si>
     <t>This unofficial room document was circulated at the request of the Delegation of the Philippines on March 21, 2019.</t>
   </si>
   <si>
@@ -482,9 +467,6 @@
     <t>This communication advocates for prohibiting subsidies that reduce the operational or capital costs of fishing when one or more of the stocks in the relevant fishery or fisheries being targeted are either 1) being fished with a measure of fishing capacity that is greater than would be required to maintain the stock(s) at a level that would maintain [MSY]; 2) being fished at a rate that is contributing to a decline in the stock(s) below a level that would maintain [MSY]. If the subsidizing Member can demonstrate that it has other policies in place that effectively ensure the stocks(s) are maintained at or above a level required to maintain [MSY], a subsidy that would otherwise be prohibited by either of the above conditions shall be allowed.</t>
   </si>
   <si>
-    <t xml:space="preserve">Subsidies provided by developing country Members for fishing within their own EEZs shall be allowed and this prohibition shall not apply to LDC Members. </t>
-  </si>
-  <si>
     <t xml:space="preserve">This communication presents a draft text for a prohibition on subsidies for fishing on overfished stocks. It is very similar to some of the draft text provided in RD/TN/RL/119, and advocates for a prohibition on subsidies for fishing on stocks recognized as overfished by the Member under whose jurisdiction the fishing is taking place or by the relevant RFMO/A. Such subsidies shall be prohibited if they are found to be having a negative effect on the stock, defined as any of the following: 1) a lack of recovery of the fishery; 2) continuation of depletion of fish stock levels; 3) continuation of excess levels of fishing. </t>
   </si>
   <si>
@@ -761,9 +743,6 @@
     <t>LDCs</t>
   </si>
   <si>
-    <t>LDC Group Fisheries Subsidies Text Proposal</t>
-  </si>
-  <si>
     <t>RD/TN/RL/112/Rev.1</t>
   </si>
   <si>
@@ -959,12 +938,6 @@
     <t>OA1</t>
   </si>
   <si>
-    <t>DONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DONE - To be modeled using the parameters of overfished stocks. </t>
-  </si>
-  <si>
     <t>ONE</t>
   </si>
   <si>
@@ -986,9 +959,6 @@
     <t xml:space="preserve">Note: there are a couple of definitions here that we don't have the data to model. </t>
   </si>
   <si>
-    <t xml:space="preserve">As written it specifies different S&amp;DT for developing country and LDC Members </t>
-  </si>
-  <si>
     <t>DOMESTIC</t>
   </si>
   <si>
@@ -1037,9 +1007,6 @@
     <t xml:space="preserve">This communication defines the characteristics of vessels that shall be targeted in regards to overcapacity and overfishing disciplines. It advocates that any vessel having at least three of the six characteristics shall be affected: vessels 1) greater than 24 meters in length; 2) with gross tonnage of more than 100 GT; 3) with fishing gear towed or hauled by motor driven equipment; 4) propelled by an engine with more than 130 kW; 5) with onboard freezing equipment for storage; 6) owned or operated by a multinational enterprise, a public limited company, or a joint venture. </t>
   </si>
   <si>
-    <t xml:space="preserve">This communication builds on TN/RL/GEN/192, as reflected in TN/RL/W/274/Rev.6, and advocates for a prohibition on subsidies for capital and operating costs, provided to large-scale industrial fishing. Capital cost subsidies include those for construction, acquisition, modernization, renovation or upgrading of vessels, direct transfers for vessel construction and modernization, purchase of machines and equipment for fishing vessels. Operating cost subsidies include those for fuel, ice, bait, personnel, income support of vessels or operators or the workers they employ, social chargers, insurance, payments based on the price of fish caught, gear, and at-sea support, or operating losses of such vessels or activities.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">This communication presents a draft text for a prohibition on subsidies for fishing on overfished stocks. It builds on TN/RL/GEN/192, as reflected in TN/RL/W/274/Rev.6, and advocates for a prohibition on subsidies to vessels fishing outside of a Member's territorial sea on overfished stocks. It defines overfished stocks as those recognized as such by the Member in whose jurisdiction the fishing is taking place, or by the relevant RFMO/A. It also provides a list of allowed subsidies. </t>
   </si>
   <si>
@@ -1049,9 +1016,6 @@
     <t>This communication advocates for a general prohibition of subsidies that contribute to overcapacity and overfishing. However, it allows for subsidies if the subsidising Member can demonstrate that the stock(s) targeted by the subsidy recipient are managed on the based on the best publically available scientific evidence taking into account the following elements: 1) scientific stock assessments; 2) legal institutions for resource management (i.e. vessel registration and fishery permits); 3) specific conservation and management measures for fish stocks (i.e. input, output, and technical controls taking account of fishery status); 4) monitoring, control and surveillance measures. It also provides a list of subsidies that shall be deemed not to be prohibited. Includes a reference to the precautionary principle to be included in a preamble. Prohibition should not apply to subsistence fishing.</t>
   </si>
   <si>
-    <t>Transition period missing.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Same as Facilitator's text intrepretation. </t>
   </si>
   <si>
@@ -1118,9 +1082,6 @@
     <t>Chair's text - Consolidated text</t>
   </si>
   <si>
-    <t>Draft consolidated text</t>
-  </si>
-  <si>
     <t>This communication was circulated at the request of the Chair of the Negotiating Group on Rules on June 25, 2020.</t>
   </si>
   <si>
@@ -1136,77 +1097,6 @@
     <t>Is basically the same as the cap. Different structure, tiers and flexibilities. It loks like is all based on global marine capture. There are no values as the de minimis will be the (x) of the average of landed value for 3 years. What should we use for the (x) value? a scale bar as we use in other cases?) Also there is an exception for 12 miles for all developing countries</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>RD/TN/RL/77,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> RD/TN/RL/77/Rev.1</t>
-    </r>
-  </si>
-  <si>
-    <t>This proposal covers highseas and fishing in other members EEZs. Is it possible to model that?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RD/TN/RL/91, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>TN/RL/GEN/197, TN/RL/GEN/197/Rev.1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>RD/TN/RL/107,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> TN/RL/GEN/196, TN/RL/W/274/Rev.6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RD/TN/RL/97/Rev.3, TN/RL/W/274/Rev.6, RD/TN/RL/104, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>RD/TN/RL/90/Rev.1</t>
-    </r>
-  </si>
-  <si>
     <t>RD/TN/RL/89/Rev.2</t>
   </si>
   <si>
@@ -1247,9 +1137,6 @@
   </si>
   <si>
     <t>B1, B2, B3, B4, B5, B7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DONE. Note: data does not exist to model the prohibition on subsidies being provided to vessels flagged to another state. </t>
   </si>
   <si>
     <t xml:space="preserve">1) We assume each Member's cap is equal to whichever of the three proposed approaches for calculating a cap yields the largest amount. By default, caps based on the first approach are calculated as 55% of each Member's base for capping; caps based on the second approach are calculated as 2% of each Member's estimated landed value (calculated from the FAO Global Marine Capture Production Database, average between 2016-2018); caps based on the third approach are calculated as 55% of the global average subsidies per fisher (capacity-enhancing and ambiguous) multiplied by each Member's most recently reported total number of fishers (from the FAO Yearbook of Fishery and Aquaculture Statistics 2017). 2) We assume that provision of the following types of subsidies as defined by Sumaila et al. 2019 are allowed to continue irrespective of a Member's total cap: i) subsidies for fishing access agreements; ii) fisher assistance programs; iii) vessel buyback programs; iv) rural fishers' community development programs. Therefore each Member's base for capping is represented by the total amount of all other capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. </t>
@@ -1269,33 +1156,12 @@
     </r>
   </si>
   <si>
-    <t>---</t>
-  </si>
-  <si>
-    <t>Developing countries not engaged in large-scale industrial distant water fishing are entitled to a transition period of 3 years. LDCs and SVEs are entitled to a transition period of 6 years.</t>
-  </si>
-  <si>
     <t>This prohibition shall not apply to LDC Members.</t>
   </si>
   <si>
     <t>LENGTH, TONNAGE</t>
   </si>
   <si>
-    <t>Transition period missing. Two separate delays: 1) developing countries not engaged in large scale industrial fishing; 2) LDCs and SVEs)</t>
-  </si>
-  <si>
-    <t>Transition periods missing. Also need to identify developing countries meeting non-industrial criteria. The three options associated with defining it could be calculated on the back-end.</t>
-  </si>
-  <si>
-    <t>As witten, this proposal places different prohibtions on boat building/fuel subsidies and all other subsidies. This is not accounted for (HS only vs. all)</t>
-  </si>
-  <si>
-    <t>These are the values for the Chair's text + China cap proposal</t>
-  </si>
-  <si>
-    <t>These are the values for the Chair's text + USA cap proposal</t>
-  </si>
-  <si>
     <t>TOP10</t>
   </si>
   <si>
@@ -1308,48 +1174,12 @@
     <t>kat_notes</t>
   </si>
   <si>
-    <t xml:space="preserve">Really unsure what to use as X%, Y%, and Z%. Any thoughts? Exception for 12 miles for developing countries is not modeled here. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Based on a presentation I was sent, I set X%, Y%, and Z% at 55%, 2% and 55% respectively. Global average subsidies per fisher is around ~$1500 calculcated using Rashid's data and limited FAO fishers data - should we allow the user to set this seperately? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Same as Facilitator's text interpretation. Assumed to be more ambitious than Austraila's text. </t>
-  </si>
-  <si>
-    <t>Assumed to be less ambitious than New Zealand/Iceland and Facilator's texts because of causal requirement - modeled by choosing a lower reference point as cutoff</t>
-  </si>
-  <si>
     <t>1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing and ambiguous subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas to be prohibited.</t>
   </si>
   <si>
-    <t xml:space="preserve">Data does not exist to model the prohibition on subsidies being provided to vessels flagged to another state. </t>
-  </si>
-  <si>
-    <t>Assumed to be less ambitious than Austraila text because of territorial seas exemption.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tier cutoffs are 0.7% and 0.05%. Tier 1 Members are assumed to get a cap equal to 50% of base subsidies, Tier 2 Members get a cap of $50 million, and Tier 3 Members do not get a cap. </t>
-  </si>
-  <si>
-    <t>Can't model whether vessels have fishing gear hauled by motor driven equipment, have onboard freezing equipment for storage, or are owned or operated by a multinational enterprise, a public limited company, or a joint venture</t>
-  </si>
-  <si>
-    <t>The IUU proposals pretty much all do the same because of data availability.</t>
-  </si>
-  <si>
-    <t>Modeled using parameters of overfished stocks - assumed to have a similar biological interpretation as New Zealand/Iceland, but less ambitious because of S&amp;DT and subsistence fishing exemption.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Modeled using parameters of overfished stocks - assumed to have a similar biological interpretation as New Zealand/Iceland, but more ambitious because of additional OCOF constraints on high seas fishing. </t>
   </si>
   <si>
-    <t>I used 1% of global marine capture fishing as the cutoff. Should this be 2%?</t>
-  </si>
-  <si>
-    <t>Modelled using LDC proposal for prohibitions (except for their S&amp;DT - used that from this proposal instead)</t>
-  </si>
-  <si>
     <t>RD/TN/RL/124</t>
   </si>
   <si>
@@ -1362,21 +1192,12 @@
     <t xml:space="preserve">1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text places prohibitions on subsidies for fishing outside of the jurisdictions of coastal Members or relevant RFMO/As. Very few areas of the ocean are not under the jurisdiction of a RFMO/A, but it is difficult to determine on a global scale whether vessels are fishing for species governed by those RFMO/As at any given point in time. We therefore assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels spending at least 5% of their total annual effort fishing on the high seas outside of the jurisdictions of coastal Members. We note that this is an ambitious interpretation of this prohibition. </t>
   </si>
   <si>
-    <t>This is the real entry for this proposal - others are just for options and text</t>
-  </si>
-  <si>
     <t>Alternate</t>
   </si>
   <si>
-    <t>These are the values for the Chair's text + Philipines de mininus proposal</t>
-  </si>
-  <si>
     <t>Brazil - Formula</t>
   </si>
   <si>
-    <t>NOT DONE - These are the values for the Chair's text + Brazil formula proposal</t>
-  </si>
-  <si>
     <t xml:space="preserve">This communication advocates for negotiating Member-specific subsidy caps (expressed in monetary terms). Subsidies in excess of a Member's cap would be prohibited. This cap is intended to be supplementary to any prohibitions on subsidies that support IUU, fishing beyond national jurisdiction, and subsidies for fishing that negatively affect overfished stocks. Members would also commit to maintain fisheries management and conservation measures, and without prejudice of the ASCM. </t>
   </si>
   <si>
@@ -1446,36 +1267,9 @@
     <t>These are the options for the facilitator's text + more ambitious overfished</t>
   </si>
   <si>
-    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the more ambitious interpretation of the two (see New Zealand/Iceland - Overfishing and overcapacity). For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) 1) We assume that each Member's base for capping is represented by the total amount of capacity-enhancing and ambiguos subsidies estimated by Sumaila et al. 2019. 2) Members are sorted into three tiers based on a three-year average of FAO marine capture production (2016-2018). Members accounting for 0.7% or more of global marine capture production are in "Tier 1"; Members accounting for 0.05% or more, but less than 0.7%, of global marine capture production are in "Tier 2"; Members accounting for less than 0.05% of global marine capture production are in "Tier 3". 3) This proposal advocates for allowing both Tier 1 and Tier 2 Members to negotiate their own subsidy caps or to accept a default cap of $50 million annually. For the purposes of modeling, we assume that Tier 1 Members receive a subsidy cap equal to 50% of their base for capping; Tier 2 Members receive the default cap of $50 million; Tier 3 Members do not receive a cap. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the more ambitious interpretation of the two (see New Zealand/Iceland - Overfishing and overcapacity). For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) We assume that provision of the following types of subsidies as defined by Sumaila et al. 2019 are allowed to continue irrespective of a Member's total de minimus limit: i) fisher assistance programs; ii) rural fishers' community development programs.subsidies (both programs relevant to fishing in territorial waters). Therefore each Member's base subsidy level is represented by the total amount of all other capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. 2) we estimate the landed value of marine capture fisheries from the FAO Global Capture Production Database. 3) We assume the de minimis limit for developed and developing country members belonging to the top 10 marine capture fisheries producers to be 10% of the average total landed value of the Member's marine capture fisheries between 2016-2018. For all other developing country Members, we assume the de minimis limit to be 20% of the average total landed value between 2016-2018. For LDC Members, we assume the de minimis limit to be 30% of the average total landed value between 2016-2018. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the more ambitious interpretation of the two (see New Zealand/Iceland - Overfishing and overcapacity). For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) We assume each Member's baseline to the total magnitude of capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. 2) The formula ranges and percentages of reduction are then applied to all Members. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the less ambitious interpretation of the two (see Australia - Overfished).  For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) We assume each Member's cap is equal to whichever of the three proposed approaches for calculating a cap yields the largest amount. By default, caps based on the first approach are calculated as 55% of each Member's base for capping; caps based on the second approach are calculated as 2% of each Member's estimated landed value (calculated from the FAO Global Marine Capture Production Database, average between 2016-2018); caps based on the third approach are calculated as 55% of the global average subsidies per fisher (capacity-enhancing and ambiguous) multiplied by each Member's most recently reported total number of fishers (from the FAO Yearbook of Fishery and Aquaculture Statistics 2017). 2) We assume that provision of the following types of subsidies as defined by Sumaila et al. 2019 are allowed to continue irrespective of a Member's total cap: i) subsidies for fishing access agreements; ii) fisher assistance programs; iii) vessel buyback programs; iv) rural fishers' community development programs. Therefore each Member's base for capping is represented by the total amount of all other capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the less ambitious interpretation of the two (see Australia - Overfished). For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) 1) We assume that each Member's base for capping is represented by the total amount of capacity-enhancing and ambiguos subsidies estimated by Sumaila et al. 2019. 2) Members are sorted into three tiers based on a three-year average of FAO marine capture production (2016-2018). Members accounting for 0.7% or more of global marine capture production are in "Tier 1"; Members accounting for 0.05% or more, but less than 0.7%, of global marine capture production are in "Tier 2"; Members accounting for less than 0.05% of global marine capture production are in "Tier 3". 3) This proposal advocates for allowing both Tier 1 and Tier 2 Members to negotiate their own subsidy caps or to accept a default cap of $50 million annually. For the purposes of modeling, we assume that Tier 1 Members receive a subsidy cap equal to 50% of their base for capping; Tier 2 Members receive the default cap of $50 million; Tier 3 Members do not receive a cap. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the less ambitious interpretation of the two (see Australia - Overfished). For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) We assume each Member's baseline to the total magnitude of capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. 2) The formula ranges and percentages of reduction are then applied to all Members. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the less ambitious interpretation of the two (see Australia - Overfished). For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) We assume that provision of the following types of subsidies as defined by Sumaila et al. 2019 are allowed to continue irrespective of a Member's total de minimus limit: i) fisher assistance programs; ii) rural fishers' community development programs.subsidies (both programs relevant to fishing in territorial waters). Therefore each Member's base subsidy level is represented by the total amount of all other capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. 2) we estimate the landed value of marine capture fisheries from the FAO Global Capture Production Database. 3) We assume the de minimis limit for developed and developing country members belonging to the top 10 marine capture fisheries producers to be 10% of the average total landed value of the Member's marine capture fisheries between 2016-2018. For all other developing country Members, we assume the de minimis limit to be 20% of the average total landed value between 2016-2018. For LDC Members, we assume the de minimis limit to be 30% of the average total landed value between 2016-2018. </t>
-  </si>
-  <si>
-    <t>Need to check that it's working</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chair's text + Less ambitious overfished </t>
   </si>
   <si>
-    <t>Blank entry for Chair's text</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chair's text + More ambitious overfished </t>
   </si>
   <si>
@@ -1485,12 +1279,6 @@
     <t>RD/TN/RL/126 | Relevant Authorities</t>
   </si>
   <si>
-    <t>For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the less ambitious interpretation of the two (see Australia - Overfished).  For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: None.</t>
-  </si>
-  <si>
-    <t>For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the more ambitious interpretation of the two (see New Zealand/Iceland - Overfishing and overcapacity). For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: None.</t>
-  </si>
-  <si>
     <t>RD/TN/RL/126</t>
   </si>
   <si>
@@ -1500,9 +1288,6 @@
     <t xml:space="preserve">1) We assume that provision of the following types of subsidies as defined by Sumaila et al. 2019 are allowed to continue irrespective of a Member's total de minimus limit: i) fisher assistance programs; ii) rural fishers' community development programs.subsidies (both programs relevant to fishing in territorial waters). Therefore each Member's base subsidy level is represented by the total amount of all other capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. 2) We estimate the landed value of marine capture fisheries from the FAO Global Capture Production Database. 3) We assume the de minimis limit for developed and developing country members belonging to the top 10 marine capture fisheries producers to be 10% of the average total landed value of the Member's marine capture fisheries between 2016-2018. For all other developing country Members, we assume the de minimis limit to be 20% of the average total landed value between 2016-2018. For LDC Members, we assume the de minimis limit to be 30% of the average total landed value between 2016-2018. </t>
   </si>
   <si>
-    <t xml:space="preserve">1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) This proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) It is not possible to simulate whether Members could demonstrate that they have policies in place that would negate this prohibition. </t>
-  </si>
-  <si>
     <t>1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) This proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text requires that there be a causal negative effect to the stock as a result of the subsidy. This is difficult to establish given existing data on subsidy provisioning and stock status, and is not possible to model, but we have chosen a more conservative reference point in regards to this condition.</t>
   </si>
   <si>
@@ -1527,9 +1312,6 @@
     <t>This unofficial room document was circulated at the request of the Delegations of the European Union, Japan, the Republic of Korea, and the Separate Customs Territory of Taiwan, Penghu, Kinmen and Matsu on February 5, 2020.</t>
   </si>
   <si>
-    <t>1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) It is difficult to identify subsidies for subsistence fishing, so we approximate this condition by assuming that subsidies for fishing within a Member's territorial waters are allowed.</t>
-  </si>
-  <si>
     <t>Facilitator's working text - IUU</t>
   </si>
   <si>
@@ -1542,21 +1324,6 @@
     <t>An underlying assumption of this tool to make modeling possible is that the subsidizing state of a vessel is its flag state. Therefore, this communication is not modeled, but is included here for reference.</t>
   </si>
   <si>
-    <t>RD/TN/RL/119 | Relevant Authorities</t>
-  </si>
-  <si>
-    <t>RD/TN/RL/119 | Objective Definition</t>
-  </si>
-  <si>
-    <t>1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the more ambitious interpretation of the two (see New Zealand/Iceland - Overfishing and overcapacity).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the less ambitious interpretation of the two (see Australia - Overfished). </t>
-  </si>
-  <si>
-    <t>This document builds on ACP text proposal TN/RL/GEN/192, as reflected in TN/RL/W/274/Rev.6. It specifies that IUU determinations could be made by coastal Member states for activities in waters under their jurisdictions with respect to a foreign vessel or operator, or by RFMO/As in areas (and for species) under their jurisdictions. Members are encouraged to refrain from invoking the discipline based on minor infringements.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag and subsidizing Members, nor for coastal Members. The possible effects of modeling this proposal is therefore a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings. 3) No proportionality or the duration of prohibition is considered. </t>
   </si>
   <si>
@@ -1569,21 +1336,12 @@
     <t>For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag and subsidizing Members, nor for coastal Members. The possible effects of modeling this proposal is therefore a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings. 3) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing on the high seas, and to vessels greater than 24 m in length or with a tonnage greater than 100 GT (we assume industrial fishing to be defined by the characteristics specified by the proposal from Morocco).</t>
   </si>
   <si>
-    <t>For Overfished: Subsidies for fishing in a Member's territorial waters are excluded. For OFOC: This prohibition shall not apply to LDCs. This prohibition shall not apply to LDCs. Additionally, a transition period of 5 years shall be allowed for Overfished and OFOC disciplines for both developing and LDC Members.</t>
-  </si>
-  <si>
     <t>1) As written, this proposal does specify potential disciplines within each of the three categories, but rather the S&amp;DT that should be allowed for them. 2) To model the possible effects of such a proposal, we therefore use the disciplines proposed in LDC - Full text (excluding any S&amp;DT). Those are as follows: For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states. 2) No publically available data exist for most flag and subsidizing Members, nor for coastal Members. The possible effects of modeling this proposal is therefore a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings. 3) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing on the high seas, and to vessels greater than 24 m in length or with a tonnage greater than 100 GT (we assume industrial fishing to be defined by the characteristics specified by the proposal from Morocco).</t>
   </si>
   <si>
-    <t>For IUU: Subsidies granted by developing and LDC Members shall be allowed for small scale fishing: a) within their own territorial waters and b) within their own EEZs and high seas for 7 years. For Overfished: Subsidies granted by developing and LDC Members shall be allowed for fishing a) within their own territorial waters and b) within their own EEZs for 2 years. For OCOF: Subsidies granted by LDCs shall be allowed, and subsidies granted by developing countries shall be allowed for fishing in their territorial seas, or for fishing in their EEZs and high seas unless any of the following conditions are met for three consecutive years (2016-2018): a) GNI per capita is greater than US $5000 (constant 2010 US$), b) they engage in distant water fishing, or c) the contribution from Agriculture, Forestry and Fishing to their national GDP (World Bank) is greater than 10%.</t>
-  </si>
-  <si>
     <t>This communication aims to consolidate all existing texts that have been put forth or discussed with regards to a prohibition on subsidies. It was intended to provide a starting point for interactive discussion. As written, it provides two possible ways of characterizing and determining what constitutes an overfished stock: i) those recognized as such by the Member under whose jurisdiction the fishing is taking place or by the relevant RFMO/A; ii) those for which the mortality from fishing needs to be restricted to allow the stock to rebuild to some reference point. Additionally, it includes a blank placeholder for inclusion of a cap-based proposal.</t>
   </si>
   <si>
-    <t>For IUU: Subsidies granted by developing and LDC Members shall be allowed for small scale fishing: a) within their own territorial waters. For Overfished: Subsidies granted by developing and LDC Members for fishing within their own territorial sea shall be allowed. For OCOF: Subsidies granted by LDCs shall be allowed, and subsidies granted by developing countries shall be allowed for fishing in their territorial seas, or for fishing in their EEZs and high seas unless any of the following conditions are met for three consecutive years (2016-2018): a) GNI per capita is greater than US $5000 (constant 2010 US$), b) they engage in distant water fishing, or c) the contribution from Agriculture, Forestry and Fishing to their national GDP (World Bank) is greater than 10%.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) We assume each Member's baseline to the total magnitude of capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. 2) The formula ranges and percentages of reduction from the proposal are then applied to all Members. </t>
   </si>
   <si>
@@ -1656,18 +1414,9 @@
     <t>&lt;ol&gt;&lt;li&gt;There is uncertainty regarding the status of many fish stocks.&lt;/li&gt;&lt;li&gt;For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited.&lt;/li&gt;&lt;li&gt;The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database.&lt;/li&gt;&lt;li&gt;The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text.&lt;/li&gt;&lt;li&gt;It is difficult to identify subsidies for subsistence fishing, so we approximate this condition by assuming that subsidies for fishing within a Member's territorial waters are allowed.&lt;/li&gt;&lt;/ol&gt;</t>
   </si>
   <si>
-    <t>Transition periods shall be allowed for developing country Members (4 years) and LDCs (6 years).</t>
-  </si>
-  <si>
     <t>&lt;ol&gt;&lt;li&gt;Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, and coastal Member states.&lt;/li&gt;&lt;li&gt;No publically available data exist for most flag and subsidizing Member states, nor for coastal Member states. The possible effects of modeling this proposal is therefore a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about the expected IUU-findings.&lt;/li&gt;&lt;li&gt;No proportionality or the duration of prohibition is considered.&lt;/li&gt;&lt;/ol&gt;</t>
   </si>
   <si>
-    <t>&lt;ol&gt;&lt;li&gt;There is uncertainty regarding the status of many fish stocks.&lt;/li&gt;&lt;li&gt;For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited.&lt;/li&gt;&lt;li&gt;The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database.&lt;/li&gt;&lt;li&gt;The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text.&lt;/li&gt;&lt;li&gt;Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the more ambitious interpretation of the two (see New Zealand/Iceland - Overfishing and overcapacity).&lt;/li&gt;&lt;/ol&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ol&gt;&lt;li&gt;There is uncertainty regarding the status of many fish stocks.&lt;/li&gt;&lt;li&gt;For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited.&lt;/li&gt;&lt;li&gt;The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database.&lt;/li&gt;&lt;li&gt;The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text.&lt;/li&gt;&lt;li&gt;Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the less ambitious interpretation of the two (see Australia - Overfished).&lt;/li&gt;&lt;/ol&gt;</t>
-  </si>
-  <si>
     <t>&lt;ol&gt;&lt;li&gt;There is uncertainty regarding the status of many fish stocks.&lt;/li&gt;&lt;li&gt;For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited.&lt;/li&gt;&lt;li&gt;The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database.&lt;/li&gt;&lt;li&gt;The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text.&lt;/li&gt;&lt;/ol&gt;</t>
   </si>
   <si>
@@ -1680,21 +1429,9 @@
     <t>&lt;ol&gt;&lt;li&gt;We assume that the following types of subsidies as defined by Sumaila et al. 2019 are prohibited: i) boat construction and renovation, ii) fuel.&lt;/li&gt;&lt;li&gt;This prohibition is assumed to only apply to Members responsible for more than 1% of global marine capture production (calculated as the annual average between 2016-2018)&lt;/li&gt;&lt;/ol&gt;</t>
   </si>
   <si>
-    <t>Subsidies for fishing in a Member's territorial waters are excluded. A transition period of 5 years shall be allowed for both developing and LDC Members.</t>
-  </si>
-  <si>
     <t>&lt;ol&gt;&lt;li&gt;We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing on the high seas, and to vessels greater than 24 m in length or with a tonnage greater than 100 GT (we assume industrial fishing to be defined by the characteristics specified by the proposal from Morocco).&lt;/li&gt;&lt;/ol&gt;</t>
   </si>
   <si>
-    <t>This prohibition shall not apply to LDC Members. A transition period of 5 years shall be allowed for developing Members.</t>
-  </si>
-  <si>
-    <t>Subsidies granted by developing and LDC Members shall be allowed for small scale fishing: i) within their own territorial waters and ii) within their own EEZs and on the high seas for 7 years.</t>
-  </si>
-  <si>
-    <t>Subsidies granted by developing and LDC Members shall be allowed for fishing i) within their own territorial waters and ii) within their own EEZs for 2 years.</t>
-  </si>
-  <si>
     <t>Subsidies granted by LDCs shall be allowed, and subsidies granted by developing countries shall be allowed for fishing in their territorial seas, or for fishing in their EEZs and on the high seas unless any of the following conditions are met for three consecutive years (2016-2018): a) GNI per capita is greater than US $5000 (constant 2010 US$), b) they engage in distant water fishing, or c) the contribution from Agriculture, Forestry and Fishing to their national GDP (World Bank) is greater than 10%.</t>
   </si>
   <si>
@@ -1725,9 +1462,6 @@
     <t>Subsidies granted by developing and LDC Members shall be allowed for fishing within their own territorial waters.</t>
   </si>
   <si>
-    <t>&lt;ol&gt;&lt;li&gt;There is uncertainty regarding the status of many fish stocks.&lt;/li&gt;&lt;li&gt;For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited.&lt;/li&gt;&lt;li&gt;The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database.&lt;/li&gt;&lt;li&gt;The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text.&lt;/li&gt;&lt;li&gt;Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the more ambitious interpretation of the two (see Australia - Overfished).&lt;/li&gt;&lt;/ol&gt;</t>
-  </si>
-  <si>
     <t>&lt;ol&gt;&lt;li&gt;We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction.&lt;/li&gt;&lt;li&gt;We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally.&lt;/li&gt;&lt;li&gt;By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited.&lt;/li&gt;&lt;/ol&gt;</t>
   </si>
   <si>
@@ -1749,12 +1483,6 @@
     <t>CAP - Optional criteria</t>
   </si>
   <si>
-    <t>Overfished - Negative effects</t>
-  </si>
-  <si>
-    <t>IUU - No S&amp;DT</t>
-  </si>
-  <si>
     <t>OFOC - ABNJ</t>
   </si>
   <si>
@@ -1770,9 +1498,6 @@
     <t>Vessel characteristics</t>
   </si>
   <si>
-    <t>IUU - Port and market states</t>
-  </si>
-  <si>
     <t>Disputed waters</t>
   </si>
   <si>
@@ -1788,9 +1513,6 @@
     <t>OFOC - Negative effects + ABNJ</t>
   </si>
   <si>
-    <t>IUU - With S&amp;DT</t>
-  </si>
-  <si>
     <t>OFOC - List approach (revised)</t>
   </si>
   <si>
@@ -1801,13 +1523,414 @@
   </si>
   <si>
     <t>CAP - Formula</t>
+  </si>
+  <si>
+    <t>RD/TN/RL/124/Rev.1</t>
+  </si>
+  <si>
+    <t>CAP - Formula (Rev. 1)</t>
+  </si>
+  <si>
+    <t>Mechanism for Reductions and Limits of Fisheries Subsidies (Rev. 1)</t>
+  </si>
+  <si>
+    <t>This unofficial room document was circulated for discussion purposes and without prejudice to Brazil's positions on October 6, 2020.</t>
+  </si>
+  <si>
+    <t>This communication proposes a quantitative approach of reductions and limits to maritime fisheries subsidies that is complementary to the main prohibition. The baseline of reductions is to be the annual average monetary value of fisheries subsidies (3 prior years or 1 year -optional) minus exempted subsidies (cessation, stock protection, artisanal fishing in 12nm zone, disaster relief). It specifies cumulative ranges (8 ranges: 0-15mn to over 1,2bn) of subsidies in monetary value. Members falling in each range will be subject to a specific percentage reduction in total fisheries subsidies (from 0% to 15% and then to 45% in increments of 5). The total subsidy reduction shall equal the sum of the cuts on each range, the upper ranges carry larger reduction obligations. The proposal contains a default option of $25mn in cases where a Member fails to notify to establish the baseline. It also provides for a flexibility for Members with a baseline below $25mn that could be uplifted by $5mn under certain considitions (timebound, MSY and capture limit).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) We assume each Member's baseline to the total magnitude of capacity-enhancing subsidies estimated by Sumaila et al. 2019. 2) The formula ranges and percentages of reduction from the proposal are then applied to all Members. </t>
+  </si>
+  <si>
+    <t>This proposal build on the Chair's text. Can it be model based on the Chair's text with the adjustments they propose that can be modeled, if any?</t>
+  </si>
+  <si>
+    <t>RD/TN/RL/135</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Cameroon - Amendments</t>
+  </si>
+  <si>
+    <t>Various text amendments</t>
+  </si>
+  <si>
+    <t>Various ammendments</t>
+  </si>
+  <si>
+    <t>This communication proposes a set of amendments to the Chair's text: 1) Article 1.2. Exclusion of artisanal and small scale fisheries from scope with transparency requirements. 2) Article 3.2.b. Determination of Flag states in the high seas. 3) Sustainability test of article 5.2 subject to all members approaval and for a 3 year period if members demostrate that stock is biologically sustainable. 4) Article 9. Revison of the agreement and termination of the agreement.</t>
+  </si>
+  <si>
+    <t>No special and diffrential treatment is considered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This  proposal is focus on artisanal fisheries, with some socio economic conditions and spacial flexiblity. Can it be model or just model with certain limitations,? Can we moel just the impact of exclusing fishing in the 12 nm? Can we model the chair's text with the exclusion of 12nm? </t>
+  </si>
+  <si>
+    <t>RD/TN/RL/136</t>
+  </si>
+  <si>
+    <t>Ecuador, Argentina and Chile</t>
+  </si>
+  <si>
+    <t>Artisanal - Excemption</t>
+  </si>
+  <si>
+    <t>Proposal on Artisanal Fisheries</t>
+  </si>
+  <si>
+    <t>Ecuador - Artisanal</t>
+  </si>
+  <si>
+    <t>This proposal excludes subsidies to artisanal fisheries from the prohibition of Articles 4 and 5. The criteria to consider the exemption is low income, resource poor or livelihood fishing to ensure food security and limited to 12 nautical miles and applicable dometic legislation.</t>
+  </si>
+  <si>
+    <t>Blank entry for NEW Chair's text</t>
+  </si>
+  <si>
+    <t>RD/TN/RL/W/276</t>
+  </si>
+  <si>
+    <t>Chair's text - Consolidated text (May 2021)</t>
+  </si>
+  <si>
+    <t>Draft consolidated text (May 2021)</t>
+  </si>
+  <si>
+    <t>This communication was circulated at the request of the Chair of the Negotiating Group on Rules on May 11, 2021.</t>
+  </si>
+  <si>
+    <r>
+      <t>This communication aims to represent the progress made since the last consolidated text was released, and to provide some suggested compromises on remaining outstanding issues. As written, it still provides two possible ways of characterizing and determining what constitutes an overfished stock:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> i) those recognized as such by the Member under whose jurisdiction the fishing is taking place or by the relevant RFMO/A; ii) those for which the mortality from fishing needs to be restricted to allow the stock to rebuild to some reference point. Additionally, it includes a blank placeholder for inclusion of a cap-based proposal.</t>
+    </r>
+  </si>
+  <si>
+    <t>TN/RL/W/276</t>
+  </si>
+  <si>
+    <t>RD/TN/RL/96/Rev.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subsidies provided by developed Members, developing country Members, and LDCs responsible for less than 2% of global marine capture for fishing within their own EEZs shall be allowed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: Data does not exist to model the prohibition on subsidies being provided to vessels flagged to another state. </t>
+  </si>
+  <si>
+    <t>NOTE: The IUU proposals pretty much all do the same because of data availability.</t>
+  </si>
+  <si>
+    <t>NOTE: Assumed to be less ambitious than New Zealand/Iceland and Facilator's texts because of causal requirement - modeled by choosing a lower reference point as cutoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: Same as Facilitator's text interpretation. Assumed to be more ambitious than Austraila's text. </t>
+  </si>
+  <si>
+    <t>RD/TN/RL/77, RD/TN/RL/77/Rev.1</t>
+  </si>
+  <si>
+    <t>Draft text on overfishing and overcapacity</t>
+  </si>
+  <si>
+    <t>Draft text: de minimis</t>
+  </si>
+  <si>
+    <r>
+      <t>1) There is uncertainty regarding the status of many fish stocks. 2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>For the purposes of modeling this proposal, we use the same assumption as that one used for overfished stocks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. We assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) This proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) It is not possible to simulate whether Members could demonstrate that they have policies in place that would negate this prohibition. </t>
+    </r>
+  </si>
+  <si>
+    <t>LDCs are excempted from the capping and reduction commitments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMOVE LDCs from capping requirements. </t>
+  </si>
+  <si>
+    <r>
+      <t>This communication builds on TN/RL/GEN/192, as reflected in TN/RL/W/274/Rev.6, and advocates for a prohibition on subsidies for capital and operating costs, provided to large-scale industrial fishing. Capital cost subsidies include those for construction, acquisition, modernization, renovation or upgrading of vessels, direct transfers for vessel construction and modernization, purchase of machines and equipment for fishing vessels. Operating cost subsidies include those for fuel, ice, bait, personnel, income support of vessels or operators or the workers they employ, social chargers, insurance, payments based on the price of fish caught, gear, and at-sea support, or operating losses of such vessels or activities.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> It also considers a list of subsidies that will not be prohibited: fisheries management, permanent cessation, implementation of international agreements, relieve measures, measures for health and sefety on board, human capital. </t>
+    </r>
+  </si>
+  <si>
+    <t>RD/TN/RL/91, TN/RL/GEN/197, TN/RL/GEN/197/Rev.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special and differential treatment in the form of technical assistance and capacity building  are considered, but can not be modeled here. </t>
+  </si>
+  <si>
+    <t>Draft text on overfished stocks</t>
+  </si>
+  <si>
+    <t>Overfished - Negative effects (Option A)</t>
+  </si>
+  <si>
+    <t>IUU (Option A)</t>
+  </si>
+  <si>
+    <t>IUU (Option B)</t>
+  </si>
+  <si>
+    <t>IUU (Option C)</t>
+  </si>
+  <si>
+    <t>Fisheries Subsidies Text Proposal</t>
+  </si>
+  <si>
+    <t>Chair's text - Consolidated text (June 2020)</t>
+  </si>
+  <si>
+    <t>Draft consolidated text (June 2020)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: Modeled using parameters of overfished stocks - assumed to have a similar biological interpretation as New Zealand/Iceland, but less ambitious because of S&amp;DT and subsistence fishing exemption. Transition period is not modeled. </t>
+  </si>
+  <si>
+    <t>Note: The IUU proposals pretty much all do the same because of data availability.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) There is uncertainty regarding the status of many fish stocks. 2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>For the purposes of modeling this proposal, we use the same assumption as that one used for overfished stocks.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> We assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) It is difficult to identify subsidies for subsistence fishing, so we approximate this condition by assuming that subsidies for fishing within a Member's territorial waters are allowed.</t>
+    </r>
+  </si>
+  <si>
+    <t>RD/TN/RL/107, TN/RL/GEN/196, TN/RL/W/274/Rev.6</t>
+  </si>
+  <si>
+    <t>RD/TN/RL/97/Rev.3, TN/RL/W/274/Rev.6, RD/TN/RL/104, RD/TN/RL/90/Rev.1</t>
+  </si>
+  <si>
+    <t>RD/TN/RL/119/Rev.1</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;There is uncertainty regarding the status of many fish stocks.&lt;/li&gt;&lt;li&gt;For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited.&lt;/li&gt;&lt;li&gt;The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database.&lt;/li&gt;&lt;li&gt;The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text.&lt;/li&gt;&lt;li&gt;Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the more ambitious interpretation of the two (see OFOC - Negative effects (Option A)).&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the more ambitious interpretation of the two (see OFOC - Negative effects (Option A)). For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: None.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the more ambitious interpretation of the two (see OFOC - Negative effects (Option A)). For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) 1) We assume that each Member's base for capping is represented by the total amount of capacity-enhancing and ambiguos subsidies estimated by Sumaila et al. 2019. 2) Members are sorted into three tiers based on a three-year average of FAO marine capture production (2016-2018). Members accounting for 0.7% or more of global marine capture production are in "Tier 1"; Members accounting for 0.05% or more, but less than 0.7%, of global marine capture production are in "Tier 2"; Members accounting for less than 0.05% of global marine capture production are in "Tier 3". 3) This proposal advocates for allowing both Tier 1 and Tier 2 Members to negotiate their own subsidy caps or to accept a default cap of $50 million annually. For the purposes of modeling, we assume that Tier 1 Members receive a subsidy cap equal to 50% of their base for capping; Tier 2 Members receive the default cap of $50 million; Tier 3 Members do not receive a cap. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the more ambitious interpretation of the two (see OFOC - Negative effects (Option A)). For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) We assume that provision of the following types of subsidies as defined by Sumaila et al. 2019 are allowed to continue irrespective of a Member's total de minimus limit: i) fisher assistance programs; ii) rural fishers' community development programs.subsidies (both programs relevant to fishing in territorial waters). Therefore each Member's base subsidy level is represented by the total amount of all other capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. 2) we estimate the landed value of marine capture fisheries from the FAO Global Capture Production Database. 3) We assume the de minimis limit for developed and developing country members belonging to the top 10 marine capture fisheries producers to be 10% of the average total landed value of the Member's marine capture fisheries between 2016-2018. For all other developing country Members, we assume the de minimis limit to be 20% of the average total landed value between 2016-2018. For LDC Members, we assume the de minimis limit to be 30% of the average total landed value between 2016-2018. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the more ambitious interpretation of the two (see OFOC - Negative effects (Option A)). For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) We assume each Member's baseline to the total magnitude of capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. 2) The formula ranges and percentages of reduction are then applied to all Members. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only LDCs should have S&amp;DT for territorial waters? Currently everyone has an exception for their territorial waters. </t>
+  </si>
+  <si>
+    <t>This document builds on text proposal TN/RL/GEN/192, as reflected in TN/RL/W/274/Rev.6. It specifies that IUU determinations could be made by coastal Member states for activities in waters under their jurisdictions with respect to a foreign vessel or operator, or by RFMO/As in areas (and for species) under their jurisdictions. Members are encouraged to refrain from invoking the discipline based on minor infringements.</t>
+  </si>
+  <si>
+    <t>Text updated (5/13/21)</t>
+  </si>
+  <si>
+    <t>As written, developing countries not engaged in large-scale industrial distant water fishing are entitled to a transition period of 3 years. LDCs and SVEs are entitled to a transition period of 6 years. These transition periods are not modeled here.</t>
+  </si>
+  <si>
+    <t>As written, a transition period shall be allowed for developing country Members and LDCs (4 and 6 years respectively). Subsidies provided by LDCs for fishing in their territorial waters will be excluded during the transition period. These transition periods are not modeled here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As written, transition periods shall be allowed for developing country Members, small and vulnerable economies, and LDCs. A special transition period shall be allowed for LDCs graduating from the status. These transition periods are not modeled here. Subsidies provided by developing country Members and LDCs for fishing in their territorial waters are  excluded. </t>
+  </si>
+  <si>
+    <t>None modeled.</t>
+  </si>
+  <si>
+    <t>For Overfished: Subsidies for fishing in a Member's territorial waters are excluded. For OFOC: This prohibition shall not apply to LDCs. This prohibition shall not apply to LDCs. Additionally, as written, a transition period of 5 years shall be allowed for Overfished and OFOC disciplines for both developing and LDC Members. This transition period is not modeled here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text updated (5/13/21) - Figure out if underlying changes need to be made. </t>
+  </si>
+  <si>
+    <t>Transition period considered but not modeled.</t>
+  </si>
+  <si>
+    <t>Subsidies for fishing within a Member's territorial waters shall be allowed. Transition period considered but not modeled.</t>
+  </si>
+  <si>
+    <t>Subsidies for fishing in a Member's territorial waters are excluded. Transition period considered but not modeled.</t>
+  </si>
+  <si>
+    <t>This prohibition shall not apply to LDC Members. Transition period considered but not modeled.</t>
+  </si>
+  <si>
+    <t>For IUU: Subsidies granted by developing and LDC Members shall be allowed for small scale fishing: a) within their own territorial waters and b) within their own EEZs and high seas for 7 years. This transition period is not modeled here. For Overfished: Subsidies granted by developing and LDC Members shall be allowed for fishing a) within their own territorial waters and b) within their own EEZs for 2 years. This transition period is not modeled hre. For OCOF: Subsidies granted by LDCs shall be allowed, and subsidies granted by developing countries shall be allowed for fishing in their territorial seas, or for fishing in their EEZs and high seas unless any of the following conditions are met for three consecutive years (2016-2018): a) GNI per capita is greater than US $5000 (constant 2010 US$), b) they engage in distant water fishing, or c) the contribution from Agriculture, Forestry and Fishing to their national GDP (World Bank) is greater than 10%.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As written, if a Member's baseline is lower than USD 25mn and the Member demonstrably needs to develop capacity to fish in their own EEZ, they shall be entitled an "uplift" of USD 5 mn (i.e., their subsidies limit shall be USD 30mn). The "uplift" shall last until one of the following conditions is met: the percentage of the fish caught within that Member's EEZ by vessels flying that Member's flag reaches 75 % of the total catch; or the Member has attained capacity to fish at MSY or alternative reference points within its own EEZ. The Member who benefits from the "uplift" shall notify, every two years, the percentage of fish caught in its EEZ by vessels carrying its flag. Every four years, the Member's exemption shall be reviewed. It is impossible to model a demonstrated need for developing capacity here, and thus this is not modeled. </t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;We assume each Member's baseline to the total magnitude of capacity-enhancing subsidies estimated by Sumaila et al. 2019.&lt;/li&gt;&lt;li&gt;The formula ranges and percentages of reduction from the proposal are then applied to all Members.&lt;/li&gt;&lt;li&gt;The"uplift" allowance for Members demonstrating a need to develop capacity within their own EEZ cannot be modeled here.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEW (May 13, 2021) - pretty sure we can not model the S&amp;DT "uplift" criteria here. </t>
+  </si>
+  <si>
+    <t>The ammendments proposed in this communication cannot be modeled in our current framework, but it is included here for reference.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEW (May 13, 2021) - included for reference now, not sure we can model it. </t>
+  </si>
+  <si>
+    <t>This data underlying this tool only includes vessels that transmit AIS, primarily vessels 24 meters in length or larger. This tool therefore doesn't capture the vast majority of small scale vessels as they don't usually have AIS. Tor this reason is difficult to simulate an exception to artisanal or small scale fisheries. However, the tool is able to model the impact of the fishing in the 12 nautical miles from all Members providing a proxy to what it would mean to exclude fishing in the 12 nautical miles from the prohibition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the less ambitious interpretation of the two (see Overfished - Negative effects (Option A)). </t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;There is uncertainty regarding the status of many fish stocks.&lt;/li&gt;&lt;li&gt;For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited.&lt;/li&gt;&lt;li&gt;The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database.&lt;/li&gt;&lt;li&gt;The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text.&lt;/li&gt;&lt;li&gt;Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the less ambitious interpretation of the two (see Overfished - Negative effects (Option A)).&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the less ambitious interpretation of the two (see Overfished - Negative effects (Option A)).  For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: None.</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;There is uncertainty regarding the status of many fish stocks.&lt;/li&gt;&lt;li&gt;For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited.&lt;/li&gt;&lt;li&gt;The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database.&lt;/li&gt;&lt;li&gt;The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text.&lt;/li&gt;&lt;li&gt;Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the more ambitious interpretation of the two (see Overfished - Negative effects (Option A)).&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the less ambitious interpretation of the two (see Overfished - Negative effects (Option A)).  For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) We assume each Member's cap is equal to whichever of the three proposed approaches for calculating a cap yields the largest amount. By default, caps based on the first approach are calculated as 55% of each Member's base for capping; caps based on the second approach are calculated as 2% of each Member's estimated landed value (calculated from the FAO Global Marine Capture Production Database, average between 2016-2018); caps based on the third approach are calculated as 55% of the global average subsidies per fisher (capacity-enhancing and ambiguous) multiplied by each Member's most recently reported total number of fishers (from the FAO Yearbook of Fishery and Aquaculture Statistics 2017). 2) We assume that provision of the following types of subsidies as defined by Sumaila et al. 2019 are allowed to continue irrespective of a Member's total cap: i) subsidies for fishing access agreements; ii) fisher assistance programs; iii) vessel buyback programs; iv) rural fishers' community development programs. Therefore each Member's base for capping is represented by the total amount of all other capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the less ambitious interpretation of the two (see Overfished - Negative effects (Option A)). For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) 1) We assume that each Member's base for capping is represented by the total amount of capacity-enhancing and ambiguos subsidies estimated by Sumaila et al. 2019. 2) Members are sorted into three tiers based on a three-year average of FAO marine capture production (2016-2018). Members accounting for 0.7% or more of global marine capture production are in "Tier 1"; Members accounting for 0.05% or more, but less than 0.7%, of global marine capture production are in "Tier 2"; Members accounting for less than 0.05% of global marine capture production are in "Tier 3". 3) This proposal advocates for allowing both Tier 1 and Tier 2 Members to negotiate their own subsidy caps or to accept a default cap of $50 million annually. For the purposes of modeling, we assume that Tier 1 Members receive a subsidy cap equal to 50% of their base for capping; Tier 2 Members receive the default cap of $50 million; Tier 3 Members do not receive a cap. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the less ambitious interpretation of the two (see Overfished - Negative effects (Option A)). For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) We assume that provision of the following types of subsidies as defined by Sumaila et al. 2019 are allowed to continue irrespective of a Member's total de minimus limit: i) fisher assistance programs; ii) rural fishers' community development programs.subsidies (both programs relevant to fishing in territorial waters). Therefore each Member's base subsidy level is represented by the total amount of all other capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. 2) we estimate the landed value of marine capture fisheries from the FAO Global Capture Production Database. 3) We assume the de minimis limit for developed and developing country members belonging to the top 10 marine capture fisheries producers to be 10% of the average total landed value of the Member's marine capture fisheries between 2016-2018. For all other developing country Members, we assume the de minimis limit to be 20% of the average total landed value between 2016-2018. For LDC Members, we assume the de minimis limit to be 30% of the average total landed value between 2016-2018. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For IUU: 1) Final determinations are made by existing RFMO/A vessel lists, by flag, subsidizing, coastal, and port Member states. 2) No publically available data exist for most flag and subsidizing Member, nor for coastal or port Members. 3) The possible effects is a conservative interpretation of this text. Users are free to explore a more ambitious interpretation by making their own assumptions about expected IUU-findings. 4) No proportionality or the duration of prohibition is considered. For Overfished: 1) There is uncertainty  regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the less ambitious interpretation of the two (see Overfished - Negative effects (Option A)). For OFOC: 1) We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. 2019 are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. 2) We note that this is an ambitious interpretation of this proposal, as the text makes it clear that the fact that a subsidy is granted is not reason enough for that subsidy to be prohibited. However, data does not exist at present to make this determination for subsidy programs globally. 3) By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited. For Cap: 1) We assume each Member's baseline to the total magnitude of capacity-enhancing and ambiguous subsidies estimated by Sumaila et al. 2019. 2) The formula ranges and percentages of reduction are then applied to all Members. </t>
+  </si>
+  <si>
+    <t>For IUU: Subsidies granted by developing and LDC Members shall be allowed for small scale fishing: a) for unreported and unregulated fishing: b) within their own territorial waters. Transition periods are also consider as an alternative but are not modeled here. For Overfished: Subsidies granted by developing and LDC Members for fishing within their own territorial sea shall be allowed. For OCOF: Subsidies granted by LDCs shall be allowed, and subsidies granted by developing countries shall be allowed for fishing in their territorial seas, or for fishing in their EEZs and high seas unless any of the following conditions are met for three consecutive years (2016-2018): a) GNI per capita is greater than US $5000 (constant 2010 US$), b) they engage in distant water fishing, or c) the contribution from Agriculture, Forestry and Fishing to their national GDP (World Bank) is greater than 10%.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For IUU: Subsidies granted by developing and LDC Members shall be allowed for small scale fishing: a) for unreported and unregulated fishing: b) within their own territorial waters. Transition periods are also consider as an alternative but are not modeled here. For Overfished: Subsidies granted by developing and LDC Members for fishing within their own territorial sea shall be allowed. Transition periods are also consider as an alternative but are not modeled here. For OCOF: Subsidies granted by LDCs shall be allowed, and subsidies granted by developing countries shall be allowed for fishing in their territorial seas, or for fishing in their EEZs and high seas unless any of the following conditions are met for three consecutive years (2016-2018): a) GNI per capita is greater than US $5000 (constant 2010 US$), b) they engage in distant water fishing, or c) the contribution from Agriculture, Forestry and Fishing to their national GDP (World Bank) is greater than 10%. Transition periods are also considered as an alternative but are not modeled here. If transition periods are employed, LDCs would enjoy a transition period specifically for them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEW (May 13, 2021) - I think we just pick an Overfished definition and our broadest definition of OFOC and simulate the 12nm exception Need guidance on which Chair's text to apply it to. </t>
+  </si>
+  <si>
+    <t>Missing - need to identify developing countries meeting non-industrial criteria. The three options associated with defining it could be calculated on the back-end.</t>
+  </si>
+  <si>
+    <t>NOTE: Transition period not modeled.</t>
+  </si>
+  <si>
+    <t>NOTE: Modeled using LDC proposal for prohibitions (except for their S&amp;DT - used that from this proposal instead). Tranistion periods not modeled.</t>
+  </si>
+  <si>
+    <t>Note: 1% of global marine capture fishing is used as the cutoff.</t>
+  </si>
+  <si>
+    <t>Should this be 2%?</t>
+  </si>
+  <si>
+    <t>NOTE: Transition periods not modeled (Two separate delays: 1) developing countries not engaged in large scale industrial fishing; 2) LDCs and SVEs))</t>
+  </si>
+  <si>
+    <t>1) There is uncertainty regarding the status of many fish stocks. 2) For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 1) in the RAM Legacy Stock Assessment Database are prohibited. 3) The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database. 4) The proposal is ambiguous about which reference points might be used to make an overfished determination, and we therefore note that this is only one very narrow possible interpretation of this text. 5) Additionally, as written, this text includes two alternative definitions used to identify an overfished stock - this is the more ambitious interpretation of the two (see OFOC - Negative effects (Option A)).</t>
+  </si>
+  <si>
+    <t>Blank option for this proposal.</t>
+  </si>
+  <si>
+    <t>RD/TN/RL/119/Rev.1 | Objective Definition</t>
+  </si>
+  <si>
+    <t>RD/TN/RL/119/Rev.1 | Relevant Authorities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: X%, Y%, and Z% at set at 55%, 2% and 55% respectively. Global average subsidies per fisher is around ~$1500 calculcated using Rashid's data and limited FAO fishers data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: Unsure what to use as X%, Y%, and Z%. Exception for 12 miles for developing countries is not modeled here. </t>
+  </si>
+  <si>
+    <t>NOTE: Assumed to be less ambitious than Austraila text because of territorial seas exemption.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: Tier cutoffs are 0.7% and 0.05%. Tier 1 Members are assumed to get a cap equal to 50% of base subsidies, Tier 2 Members get a cap of $50 million, and Tier 3 Members do not get a cap. </t>
+  </si>
+  <si>
+    <t>NOTE: Can't model whether vessels have fishing gear hauled by motor driven equipment, have onboard freezing equipment for storage, or are owned or operated by a multinational enterprise, a public limited company, or a joint venture</t>
+  </si>
+  <si>
+    <t>Changed text and S&amp;DT (May 13, 2021).</t>
+  </si>
+  <si>
+    <t>Blank entry for Chair's text. NOTE: As witten, this proposal places different prohibtions on boat building/fuel subsidies and all other subsidies. This is not accounted for (HS only vs. all)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1963,6 +2086,18 @@
     <font>
       <sz val="10"/>
       <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF548235"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2344,7 +2479,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2450,6 +2585,30 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2806,11 +2965,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DC39"/>
+  <dimension ref="A1:DC43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
@@ -2847,43 +3006,43 @@
   <sheetData>
     <row r="1" spans="1:107" s="8" customFormat="1" ht="56">
       <c r="A1" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>88</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>549</v>
+        <v>479</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>2</v>
@@ -2898,28 +3057,28 @@
         <v>5</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="S1" s="33" t="s">
-        <v>501</v>
+        <v>439</v>
       </c>
       <c r="T1" s="33" t="s">
-        <v>511</v>
+        <v>449</v>
       </c>
       <c r="U1" s="33" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="V1" s="33" t="s">
-        <v>513</v>
+        <v>451</v>
       </c>
       <c r="W1" s="33" t="s">
-        <v>504</v>
+        <v>442</v>
       </c>
       <c r="X1" s="33" t="s">
-        <v>515</v>
+        <v>453</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>505</v>
+        <v>443</v>
       </c>
       <c r="Z1" s="8" t="s">
         <v>7</v>
@@ -2934,7 +3093,7 @@
         <v>10</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="AE1" s="8" t="s">
         <v>11</v>
@@ -2943,31 +3102,31 @@
         <v>12</v>
       </c>
       <c r="AG1" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="AN1" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AO1" s="8" t="s">
         <v>258</v>
-      </c>
-      <c r="AI1" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="AK1" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="AL1" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="AM1" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="AN1" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="AO1" s="8" t="s">
-        <v>265</v>
       </c>
       <c r="AP1" s="8" t="s">
         <v>16</v>
@@ -2976,7 +3135,7 @@
         <v>17</v>
       </c>
       <c r="AR1" s="8" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="AS1" s="8" t="s">
         <v>18</v>
@@ -2988,49 +3147,49 @@
         <v>20</v>
       </c>
       <c r="AV1" s="8" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="AW1" s="8" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="AX1" s="8" t="s">
         <v>21</v>
       </c>
       <c r="AY1" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="AZ1" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="BA1" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="BB1" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="BC1" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="BD1" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="BE1" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="BF1" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="AZ1" s="8" t="s">
+      <c r="BG1" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="BA1" s="8" t="s">
+      <c r="BH1" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="BB1" s="8" t="s">
+      <c r="BI1" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="BC1" s="8" t="s">
+      <c r="BJ1" s="8" t="s">
         <v>272</v>
-      </c>
-      <c r="BD1" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="BE1" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="BF1" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="BG1" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="BH1" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="BI1" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="BJ1" s="8" t="s">
-        <v>279</v>
       </c>
       <c r="BK1" s="8" t="s">
         <v>26</v>
@@ -3039,7 +3198,7 @@
         <v>27</v>
       </c>
       <c r="BM1" s="8" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="BN1" s="8" t="s">
         <v>28</v>
@@ -3051,49 +3210,49 @@
         <v>30</v>
       </c>
       <c r="BQ1" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="BR1" s="8" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="BS1" s="8" t="s">
         <v>31</v>
       </c>
       <c r="BT1" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="BU1" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="BV1" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="BW1" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="BX1" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="BY1" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="BZ1" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="CA1" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="BU1" s="8" t="s">
+      <c r="CB1" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="BV1" s="8" t="s">
+      <c r="CC1" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="BW1" s="8" t="s">
+      <c r="CD1" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="BX1" s="8" t="s">
+      <c r="CE1" s="8" t="s">
         <v>286</v>
-      </c>
-      <c r="BY1" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="BZ1" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="CA1" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="CB1" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="CC1" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="CD1" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="CE1" s="8" t="s">
-        <v>293</v>
       </c>
       <c r="CF1" s="8" t="s">
         <v>36</v>
@@ -3123,13 +3282,13 @@
         <v>45</v>
       </c>
       <c r="CO1" s="8" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="CP1" s="8" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="CQ1" s="8" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="CR1" s="8" t="s">
         <v>46</v>
@@ -3141,13 +3300,13 @@
         <v>49</v>
       </c>
       <c r="CU1" s="8" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="CV1" s="8" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="CW1" s="8" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="CX1" s="8" t="s">
         <v>50</v>
@@ -3159,13 +3318,13 @@
         <v>53</v>
       </c>
       <c r="DA1" s="8" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="DB1" s="8" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="DC1" s="8" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:107" s="8" customFormat="1" ht="282" customHeight="1">
@@ -3176,22 +3335,22 @@
         <v>98</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>406</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>312</v>
+        <v>601</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>561</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>99</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>55</v>
@@ -3203,46 +3362,46 @@
         <v>43545</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>550</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>146</v>
+        <v>480</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>533</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>469</v>
+        <v>417</v>
       </c>
       <c r="S2" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="T2" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="U2" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="V2" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="W2" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="X2" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="Y2" s="34" t="s">
-        <v>506</v>
+        <v>444</v>
       </c>
       <c r="Z2" s="15"/>
       <c r="AA2" s="15"/>
@@ -3251,7 +3410,7 @@
       <c r="AD2" s="15"/>
       <c r="AE2" s="15"/>
       <c r="AF2" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AG2" s="15"/>
       <c r="AH2" s="15"/>
@@ -3271,7 +3430,7 @@
       <c r="AV2" s="15"/>
       <c r="AW2" s="15"/>
       <c r="AX2" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AY2" s="15"/>
       <c r="AZ2" s="15"/>
@@ -3294,7 +3453,7 @@
       <c r="BQ2" s="15"/>
       <c r="BR2" s="15"/>
       <c r="BS2" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="BT2" s="15"/>
       <c r="BU2" s="15"/>
@@ -3309,21 +3468,21 @@
       <c r="CD2" s="15"/>
       <c r="CE2" s="15"/>
       <c r="CF2" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="CG2" s="15" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="CH2" s="15" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="CI2" s="15" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="CJ2" s="15"/>
       <c r="CK2" s="15"/>
       <c r="CL2" s="29" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="CM2" s="15"/>
       <c r="CN2" s="27">
@@ -3333,7 +3492,7 @@
       <c r="CP2" s="27"/>
       <c r="CQ2" s="27"/>
       <c r="CR2" s="15" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="CT2" s="15">
         <v>20</v>
@@ -3342,7 +3501,7 @@
       <c r="CV2" s="27"/>
       <c r="CW2" s="27"/>
       <c r="CX2" s="15" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="CY2" s="15"/>
       <c r="CZ2" s="15">
@@ -3360,22 +3519,22 @@
         <v>98</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>408</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>312</v>
+        <v>530</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>561</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>352</v>
+      <c r="H3" s="15" t="s">
+        <v>340</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>55</v>
@@ -3387,64 +3546,64 @@
         <v>43573</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>551</v>
-      </c>
-      <c r="N3" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="N3" s="39" t="s">
+        <v>532</v>
+      </c>
+      <c r="O3" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="O3" s="15" t="s">
-        <v>111</v>
-      </c>
       <c r="P3" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>470</v>
+        <v>534</v>
       </c>
       <c r="S3" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="T3" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="U3" s="34" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
       <c r="V3" s="34" t="s">
-        <v>514</v>
+        <v>450</v>
       </c>
       <c r="W3" s="34" t="s">
-        <v>540</v>
+        <v>445</v>
       </c>
       <c r="X3" s="34" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="Y3" s="34" t="s">
         <v>55</v>
       </c>
       <c r="AF3" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AP3" s="15" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AQ3" s="15" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AX3" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="BS3" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="CF3" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:107" ht="238">
@@ -3455,10 +3614,10 @@
         <v>98</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>407</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>312</v>
+        <v>600</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>536</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>58</v>
@@ -3477,10 +3636,10 @@
         <v>43620</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>552</v>
+        <v>482</v>
       </c>
       <c r="N4" s="15" t="s">
         <v>78</v>
@@ -3489,55 +3648,55 @@
         <v>79</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>327</v>
+        <v>318</v>
+      </c>
+      <c r="Q4" s="40" t="s">
+        <v>535</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="S4" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="T4" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="U4" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="V4" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="W4" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="X4" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="Y4" s="34" t="s">
-        <v>508</v>
+        <v>446</v>
       </c>
       <c r="AF4" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AX4" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="BS4" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="CF4" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="CG4" s="15" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="CH4" s="15" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="CL4" s="15" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="CO4" s="27">
         <v>55</v>
@@ -3554,91 +3713,88 @@
         <v>58</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>409</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>312</v>
+        <v>529</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>371</v>
+        <v>531</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>55</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K5" s="16">
         <v>43621</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>133</v>
+        <v>540</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="Q5" s="20" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="R5" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="S5" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="S5" s="34" t="s">
-        <v>540</v>
-      </c>
       <c r="T5" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="U5" s="34" t="s">
-        <v>503</v>
+        <v>441</v>
       </c>
       <c r="V5" s="34" t="s">
-        <v>514</v>
+        <v>452</v>
       </c>
       <c r="W5" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="X5" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="Y5" s="34" t="s">
         <v>55</v>
       </c>
       <c r="AF5" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AP5" s="15" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="AQ5" s="15" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AX5" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="BS5" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="CF5" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:107" ht="182">
@@ -3649,10 +3805,7 @@
         <v>90</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>415</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>312</v>
+        <v>528</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>58</v>
@@ -3664,73 +3817,73 @@
         <v>55</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K6" s="16">
         <v>43628</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>472</v>
+        <v>419</v>
       </c>
       <c r="S6" s="34" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="T6" s="34" t="s">
-        <v>514</v>
+        <v>452</v>
       </c>
       <c r="U6" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="V6" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="W6" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="X6" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="Y6" s="34" t="s">
         <v>55</v>
       </c>
       <c r="Z6" s="15" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="AA6" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AC6" s="15" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AF6" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AX6" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="BS6" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="CF6" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:107" ht="126">
@@ -3741,17 +3894,11 @@
         <v>98</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>411</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>390</v>
+        <v>527</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>372</v>
-      </c>
       <c r="G7" s="15" t="s">
         <v>102</v>
       </c>
@@ -3765,10 +3912,10 @@
         <v>43643</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>555</v>
+        <v>483</v>
       </c>
       <c r="N7" s="15" t="s">
         <v>103</v>
@@ -3777,46 +3924,46 @@
         <v>104</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Q7" s="20" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="S7" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="T7" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="U7" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="V7" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="W7" s="34" t="s">
-        <v>510</v>
+        <v>448</v>
       </c>
       <c r="X7" s="34" t="s">
-        <v>514</v>
+        <v>452</v>
       </c>
       <c r="Y7" s="34" t="s">
         <v>55</v>
       </c>
       <c r="AF7" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AX7" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="BK7" s="15" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="BL7" s="15" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="BM7" s="15" t="s">
         <v>62</v>
@@ -3825,33 +3972,31 @@
         <v>5</v>
       </c>
       <c r="BS7" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="CF7" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
-    <row r="8" spans="1:107" ht="182">
+    <row r="8" spans="1:107" ht="238">
       <c r="A8" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>312</v>
+      <c r="C8" s="38"/>
+      <c r="D8" s="37" t="s">
+        <v>567</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>114</v>
+      <c r="G8" s="39" t="s">
+        <v>525</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>55</v>
@@ -3863,79 +4008,79 @@
         <v>43648</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>556</v>
+        <v>484</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q8" s="18" t="s">
-        <v>153</v>
+        <v>537</v>
+      </c>
+      <c r="Q8" s="41" t="s">
+        <v>526</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>473</v>
+        <v>420</v>
       </c>
       <c r="S8" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="T8" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="U8" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="V8" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="W8" s="34" t="s">
-        <v>516</v>
+        <v>454</v>
       </c>
       <c r="X8" s="34" t="s">
-        <v>153</v>
+        <v>526</v>
       </c>
       <c r="Y8" s="34" t="s">
         <v>55</v>
       </c>
       <c r="AF8" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AX8" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="BK8" s="15" t="s">
         <v>64</v>
       </c>
       <c r="BL8" s="15" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="BS8" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BT8" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BU8" s="15" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="BX8" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BY8" s="15" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="CB8" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="CF8" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:107" ht="154">
@@ -3943,22 +4088,19 @@
         <v>58</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>412</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>312</v>
+        <v>602</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>58</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>55</v>
@@ -3970,67 +4112,67 @@
         <v>43648</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>557</v>
+        <v>485</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P9" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q9" s="20" t="s">
-        <v>327</v>
+        <v>328</v>
+      </c>
+      <c r="Q9" s="40" t="s">
+        <v>539</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>474</v>
+        <v>421</v>
       </c>
       <c r="S9" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="T9" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="U9" s="34" t="s">
-        <v>517</v>
+        <v>455</v>
       </c>
       <c r="V9" s="34" t="s">
-        <v>514</v>
+        <v>565</v>
       </c>
       <c r="W9" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="X9" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="Y9" s="34" t="s">
         <v>55</v>
       </c>
       <c r="AF9" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AP9" s="15" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="AQ9" s="15" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="AR9" s="15" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="AX9" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="BS9" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="CF9" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:107" ht="168">
@@ -4041,10 +4183,7 @@
         <v>98</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>413</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>312</v>
+        <v>603</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>58</v>
@@ -4053,7 +4192,7 @@
         <v>68</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>373</v>
+        <v>538</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>58</v>
@@ -4065,85 +4204,85 @@
         <v>43657</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>558</v>
+        <v>486</v>
       </c>
       <c r="N10" s="15" t="s">
         <v>70</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P10" s="15" t="s">
-        <v>429</v>
+        <v>388</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>475</v>
+        <v>422</v>
       </c>
       <c r="S10" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="T10" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="U10" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="V10" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="W10" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="X10" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="Y10" s="34" t="s">
-        <v>518</v>
+        <v>456</v>
       </c>
       <c r="AF10" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AX10" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="BS10" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="CF10" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="CG10" s="15" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="CH10" s="15" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="CI10" s="15" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="CK10" s="15" t="s">
         <v>73</v>
       </c>
       <c r="CL10" s="15" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="CN10" s="27">
         <v>50</v>
       </c>
       <c r="CR10" s="15" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="CS10" s="15">
         <v>50</v>
       </c>
       <c r="CX10" s="15" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:107" ht="154">
@@ -4154,16 +4293,13 @@
         <v>98</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>414</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>312</v>
+        <v>604</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>106</v>
@@ -4178,61 +4314,61 @@
         <v>43684</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>559</v>
+        <v>487</v>
       </c>
       <c r="N11" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="O11" s="15" t="s">
-        <v>113</v>
-      </c>
       <c r="P11" s="15" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>476</v>
+        <v>423</v>
       </c>
       <c r="S11" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="T11" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="U11" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="V11" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="W11" s="34" t="s">
-        <v>519</v>
+        <v>457</v>
       </c>
       <c r="X11" s="34" t="s">
-        <v>514</v>
+        <v>452</v>
       </c>
       <c r="Y11" s="34" t="s">
         <v>55</v>
       </c>
       <c r="AF11" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AX11" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="BK11" s="15" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="BL11" s="15" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="BM11" s="15" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="BP11" s="15">
         <v>24</v>
@@ -4244,10 +4380,10 @@
         <v>130</v>
       </c>
       <c r="BS11" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="CF11" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:107" ht="112">
@@ -4258,10 +4394,7 @@
         <v>90</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>415</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>312</v>
+        <v>528</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>58</v>
@@ -4279,10 +4412,10 @@
         <v>43718</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="N12" s="15" t="s">
         <v>94</v>
@@ -4291,55 +4424,55 @@
         <v>95</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Q12" s="20" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>477</v>
+        <v>424</v>
       </c>
       <c r="S12" s="34" t="s">
-        <v>520</v>
+        <v>458</v>
       </c>
       <c r="T12" s="34" t="s">
-        <v>514</v>
+        <v>452</v>
       </c>
       <c r="U12" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="V12" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="W12" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="X12" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="Y12" s="34" t="s">
         <v>55</v>
       </c>
       <c r="Z12" s="15" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AA12" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AC12" s="15" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AF12" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AX12" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="BS12" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="CF12" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:107" ht="136.5" customHeight="1">
@@ -4349,9 +4482,6 @@
       <c r="B13" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>312</v>
-      </c>
       <c r="E13" s="14" t="s">
         <v>58</v>
       </c>
@@ -4359,7 +4489,7 @@
         <v>85</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>374</v>
+        <v>551</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>58</v>
@@ -4371,10 +4501,10 @@
         <v>43759</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>561</v>
+        <v>488</v>
       </c>
       <c r="N13" s="15" t="s">
         <v>86</v>
@@ -4383,55 +4513,55 @@
         <v>87</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="Q13" s="20" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="S13" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="T13" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="U13" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="V13" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="W13" s="34" t="s">
-        <v>548</v>
+        <v>478</v>
       </c>
       <c r="X13" s="34" t="s">
-        <v>514</v>
+        <v>452</v>
       </c>
       <c r="Y13" s="34" t="s">
         <v>55</v>
       </c>
       <c r="AF13" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AX13" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="BK13" s="15" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="BL13" s="15" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="BM13" s="15" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="BS13" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="CF13" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:107" ht="224">
@@ -4442,115 +4572,112 @@
         <v>98</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>416</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>342</v>
+        <v>548</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>559</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>313</v>
-      </c>
       <c r="G14" s="15" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="I14" s="15" t="s">
         <v>55</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K14" s="16">
         <v>43775</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>562</v>
+        <v>489</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>478</v>
+        <v>425</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q14" s="18" t="s">
-        <v>522</v>
+        <v>330</v>
+      </c>
+      <c r="Q14" s="41" t="s">
+        <v>563</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>479</v>
+        <v>550</v>
       </c>
       <c r="S14" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="T14" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="U14" s="34" t="s">
-        <v>521</v>
+        <v>471</v>
       </c>
       <c r="V14" s="34" t="s">
-        <v>522</v>
+        <v>450</v>
       </c>
       <c r="W14" s="34" t="s">
-        <v>540</v>
+        <v>459</v>
       </c>
       <c r="X14" s="34" t="s">
-        <v>512</v>
+        <v>568</v>
       </c>
       <c r="Y14" s="34" t="s">
         <v>55</v>
       </c>
       <c r="AF14" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AP14" s="15" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AQ14" s="15" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="AR14" s="15" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="AX14" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AY14" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AZ14" s="15" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="BB14" s="15">
         <v>6</v>
       </c>
       <c r="BC14" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BD14" s="15" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="BF14" s="15">
         <v>4</v>
       </c>
       <c r="BG14" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="BS14" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="CF14" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:107" ht="154">
@@ -4561,10 +4688,10 @@
         <v>90</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>415</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>312</v>
+        <v>549</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>605</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>58</v>
@@ -4573,7 +4700,7 @@
         <v>91</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>375</v>
+        <v>552</v>
       </c>
       <c r="I15" s="15" t="s">
         <v>55</v>
@@ -4585,67 +4712,70 @@
         <v>43801</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>480</v>
+        <v>426</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>480</v>
+        <v>426</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="O15" s="15" t="s">
         <v>92</v>
       </c>
       <c r="P15" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q15" s="20" t="s">
-        <v>327</v>
+        <v>391</v>
+      </c>
+      <c r="Q15" s="40" t="s">
+        <v>564</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>481</v>
+        <v>427</v>
       </c>
       <c r="S15" s="34" t="s">
-        <v>523</v>
+        <v>460</v>
       </c>
       <c r="T15" s="34" t="s">
-        <v>514</v>
+        <v>569</v>
       </c>
       <c r="U15" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="V15" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="W15" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="X15" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="Y15" s="34" t="s">
         <v>55</v>
       </c>
       <c r="Z15" s="15" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="AA15" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AC15" s="15" t="s">
-        <v>294</v>
+        <v>347</v>
+      </c>
+      <c r="AD15" s="15" t="s">
+        <v>308</v>
       </c>
       <c r="AF15" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AX15" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="BS15" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="CF15" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:107" ht="98">
@@ -4655,14 +4785,12 @@
       <c r="B16" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="28" t="s">
-        <v>393</v>
-      </c>
+      <c r="D16" s="28"/>
       <c r="E16" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>100</v>
@@ -4677,32 +4805,32 @@
         <v>43801</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>563</v>
+        <v>490</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>536</v>
+        <v>467</v>
       </c>
       <c r="Q16" s="18"/>
       <c r="R16" s="4" t="s">
-        <v>482</v>
+        <v>428</v>
       </c>
       <c r="S16" s="34" t="s">
-        <v>539</v>
+        <v>470</v>
       </c>
       <c r="U16" s="34" t="s">
-        <v>539</v>
+        <v>470</v>
       </c>
       <c r="W16" s="34" t="s">
-        <v>539</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:107" ht="112">
@@ -4712,55 +4840,53 @@
       <c r="B17" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="28" t="s">
-        <v>393</v>
-      </c>
+      <c r="D17" s="28"/>
       <c r="E17" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
         <v>58</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K17" s="16">
         <v>43801</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>564</v>
+        <v>491</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>537</v>
+        <v>468</v>
       </c>
       <c r="Q17" s="18"/>
       <c r="R17" s="4" t="s">
-        <v>483</v>
+        <v>429</v>
       </c>
       <c r="S17" s="34" t="s">
-        <v>539</v>
+        <v>470</v>
       </c>
       <c r="U17" s="34" t="s">
-        <v>539</v>
+        <v>470</v>
       </c>
       <c r="W17" s="34" t="s">
-        <v>539</v>
+        <v>470</v>
       </c>
     </row>
     <row r="18" spans="1:107" ht="84">
@@ -4770,17 +4896,15 @@
       <c r="B18" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>393</v>
-      </c>
+      <c r="D18" s="28"/>
       <c r="E18" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I18" s="15" t="s">
         <v>55</v>
@@ -4792,32 +4916,32 @@
         <v>43802</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>538</v>
+        <v>469</v>
       </c>
       <c r="Q18" s="18"/>
       <c r="R18" s="4" t="s">
-        <v>482</v>
+        <v>428</v>
       </c>
       <c r="S18" s="34" t="s">
-        <v>539</v>
+        <v>470</v>
       </c>
       <c r="U18" s="34" t="s">
-        <v>539</v>
+        <v>470</v>
       </c>
       <c r="W18" s="34" t="s">
-        <v>539</v>
+        <v>470</v>
       </c>
     </row>
     <row r="19" spans="1:107" ht="224">
@@ -4825,16 +4949,19 @@
         <v>58</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>424</v>
+        <v>597</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>561</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="15" t="s">
-        <v>124</v>
+      <c r="G19" s="39" t="s">
+        <v>553</v>
       </c>
       <c r="I19" s="15" t="s">
         <v>55</v>
@@ -4846,38 +4973,38 @@
         <v>43803</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>431</v>
+        <v>390</v>
       </c>
       <c r="Q19" s="18"/>
       <c r="R19" s="4"/>
     </row>
     <row r="20" spans="1:107" ht="224">
       <c r="A20" s="12" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>451</v>
+        <v>410</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>58</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>485</v>
+        <v>598</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>55</v>
@@ -4889,81 +5016,81 @@
         <v>43803</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>431</v>
+        <v>390</v>
       </c>
       <c r="Q20" s="20" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>486</v>
+        <v>596</v>
       </c>
       <c r="S20" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="T20" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="U20" s="34" t="s">
-        <v>524</v>
+        <v>554</v>
       </c>
       <c r="V20" s="34" t="s">
-        <v>514</v>
+        <v>452</v>
       </c>
       <c r="W20" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="X20" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="Y20" s="34" t="s">
         <v>55</v>
       </c>
       <c r="AF20" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AP20" s="15" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AQ20" s="15" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AX20" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="BS20" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="CF20" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:107" ht="224">
       <c r="A21" s="12" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>58</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>484</v>
+        <v>599</v>
       </c>
       <c r="I21" s="15" t="s">
         <v>55</v>
@@ -4975,64 +5102,64 @@
         <v>43803</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="M21" s="17" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P21" s="15" t="s">
-        <v>431</v>
+        <v>390</v>
       </c>
       <c r="Q21" s="20" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>487</v>
+        <v>579</v>
       </c>
       <c r="S21" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="T21" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="U21" s="34" t="s">
-        <v>525</v>
+        <v>580</v>
       </c>
       <c r="V21" s="34" t="s">
-        <v>514</v>
+        <v>452</v>
       </c>
       <c r="W21" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="X21" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="Y21" s="34" t="s">
         <v>55</v>
       </c>
       <c r="AF21" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AP21" s="15" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="AQ21" s="15" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AX21" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="BS21" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="CF21" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:107" ht="238">
@@ -5043,88 +5170,85 @@
         <v>98</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>312</v>
+        <v>381</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I22" s="15" t="s">
         <v>55</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="K22" s="16">
         <v>43843</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M22" s="17" t="s">
-        <v>565</v>
+        <v>492</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="Q22" s="20" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>423</v>
+        <v>385</v>
       </c>
       <c r="S22" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="T22" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="U22" s="34" t="s">
-        <v>526</v>
+        <v>461</v>
       </c>
       <c r="V22" s="34" t="s">
-        <v>514</v>
+        <v>452</v>
       </c>
       <c r="W22" s="34" t="s">
-        <v>527</v>
+        <v>462</v>
       </c>
       <c r="X22" s="34" t="s">
-        <v>514</v>
+        <v>452</v>
       </c>
       <c r="Y22" s="34" t="s">
         <v>55</v>
       </c>
       <c r="AF22" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AP22" s="15" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AQ22" s="15" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AX22" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="BK22" s="15" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="BL22" s="15" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="BM22" s="15" t="s">
         <v>63</v>
@@ -5133,10 +5257,10 @@
         <v>5</v>
       </c>
       <c r="BS22" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="CF22" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:107" ht="112">
@@ -5146,20 +5270,23 @@
       <c r="B23" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>397</v>
+      <c r="C23" s="31" t="s">
+        <v>595</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>561</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="I23" s="15" t="s">
         <v>55</v>
@@ -5171,94 +5298,94 @@
         <v>43865</v>
       </c>
       <c r="L23" s="17" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M23" s="17" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="P23" s="15" t="s">
-        <v>488</v>
+        <v>332</v>
+      </c>
+      <c r="P23" s="39" t="s">
+        <v>560</v>
       </c>
       <c r="Q23" s="18" t="s">
-        <v>394</v>
+        <v>562</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>489</v>
+        <v>430</v>
       </c>
       <c r="S23" s="34" t="s">
-        <v>528</v>
+        <v>463</v>
       </c>
       <c r="T23" s="34" t="s">
-        <v>394</v>
+        <v>568</v>
       </c>
       <c r="U23" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="V23" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="W23" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="X23" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="Y23" s="34" t="s">
         <v>55</v>
       </c>
       <c r="Z23" s="15" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="AA23" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AC23" s="15" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AF23" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AG23" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AH23" s="15" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="AI23" s="15">
         <v>6</v>
       </c>
       <c r="AJ23" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AK23" s="15" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="AL23" s="15">
         <v>3</v>
       </c>
       <c r="AM23" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AN23" s="15" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="AO23" s="15">
         <v>6</v>
       </c>
       <c r="AX23" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="BS23" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="CF23" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:107" ht="238">
@@ -5269,19 +5396,19 @@
         <v>98</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>418</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>312</v>
+        <v>593</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>594</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>490</v>
+        <v>431</v>
       </c>
       <c r="I24" s="15" t="s">
         <v>55</v>
@@ -5293,76 +5420,76 @@
         <v>43865</v>
       </c>
       <c r="L24" s="17" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="M24" s="17" t="s">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="P24" s="15" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="Q24" s="18" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>491</v>
+        <v>432</v>
       </c>
       <c r="S24" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="T24" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="U24" s="34" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="V24" s="34" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="W24" s="34" t="s">
-        <v>529</v>
+        <v>464</v>
       </c>
       <c r="X24" s="34" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="Y24" s="34" t="s">
         <v>55</v>
       </c>
       <c r="AF24" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AX24" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="BK24" s="15" t="s">
         <v>64</v>
       </c>
       <c r="BL24" s="15" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="BS24" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BT24" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BU24" s="15" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="BX24" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="CB24" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="CF24" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:107" ht="280">
@@ -5372,85 +5499,85 @@
       <c r="B25" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="22" t="s">
-        <v>342</v>
-      </c>
+      <c r="C25" s="32" t="s">
+        <v>591</v>
+      </c>
+      <c r="D25" s="22"/>
       <c r="E25" s="22" t="s">
         <v>58</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="5" t="s">
         <v>55</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="K25" s="23">
         <v>43896</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>568</v>
+        <v>494</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>246</v>
+        <v>545</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="Q25" s="24" t="s">
-        <v>493</v>
+        <v>566</v>
       </c>
       <c r="R25" s="25" t="s">
-        <v>492</v>
+        <v>433</v>
       </c>
       <c r="S25" s="35" t="s">
-        <v>528</v>
+        <v>463</v>
       </c>
       <c r="T25" s="35" t="s">
-        <v>514</v>
+        <v>452</v>
       </c>
       <c r="U25" s="35" t="s">
-        <v>526</v>
+        <v>461</v>
       </c>
       <c r="V25" s="35" t="s">
-        <v>530</v>
+        <v>570</v>
       </c>
       <c r="W25" s="35" t="s">
-        <v>531</v>
+        <v>465</v>
       </c>
       <c r="X25" s="35" t="s">
-        <v>532</v>
+        <v>571</v>
       </c>
       <c r="Y25" s="35" t="s">
         <v>55</v>
       </c>
       <c r="Z25" s="15" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="AA25" s="8" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AB25" s="8"/>
       <c r="AC25" s="8" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AD25" s="8"/>
       <c r="AE25" s="8"/>
       <c r="AF25" s="8" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AG25" s="8"/>
       <c r="AH25" s="8"/>
@@ -5462,13 +5589,13 @@
       <c r="AN25" s="8"/>
       <c r="AO25" s="8"/>
       <c r="AP25" s="8" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AQ25" s="8" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="AR25" s="8" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="AS25" s="8"/>
       <c r="AT25" s="8"/>
@@ -5476,42 +5603,42 @@
       <c r="AV25" s="8"/>
       <c r="AW25" s="8"/>
       <c r="AX25" s="8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AY25" s="8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AZ25" s="8" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="BA25" s="8"/>
       <c r="BB25" s="8">
         <v>5</v>
       </c>
       <c r="BC25" s="8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BD25" s="8" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="BE25" s="8"/>
       <c r="BF25" s="8">
         <v>5</v>
       </c>
       <c r="BG25" s="8" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="BH25" s="8"/>
       <c r="BI25" s="8"/>
       <c r="BJ25" s="8"/>
       <c r="BK25" s="15" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="BL25" s="8" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="BM25" s="8" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="BN25" s="8"/>
       <c r="BO25" s="8"/>
@@ -5523,34 +5650,34 @@
       </c>
       <c r="BR25" s="8"/>
       <c r="BS25" s="8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BT25" s="8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BU25" s="8" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="BV25" s="8"/>
       <c r="BW25" s="8"/>
       <c r="BX25" s="8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BY25" s="8" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="BZ25" s="8"/>
       <c r="CA25" s="8">
         <v>5</v>
       </c>
       <c r="CB25" s="8" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="CC25" s="8"/>
       <c r="CD25" s="8"/>
       <c r="CE25" s="8"/>
       <c r="CF25" s="8" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="CG25" s="8"/>
       <c r="CH25" s="8"/>
@@ -5584,134 +5711,134 @@
         <v>89</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>419</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>398</v>
+        <v>592</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>590</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>58</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14" t="s">
         <v>58</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K26" s="16">
         <v>43896</v>
       </c>
       <c r="L26" s="17" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="M26" s="17" t="s">
-        <v>569</v>
+        <v>495</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="P26" s="15" t="s">
-        <v>430</v>
+        <v>389</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>495</v>
+        <v>572</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>494</v>
+        <v>434</v>
       </c>
       <c r="S26" s="34" t="s">
-        <v>528</v>
+        <v>463</v>
       </c>
       <c r="T26" s="34" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="U26" s="35" t="s">
-        <v>526</v>
+        <v>461</v>
       </c>
       <c r="V26" s="34" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="W26" s="35" t="s">
-        <v>531</v>
+        <v>465</v>
       </c>
       <c r="X26" s="34" t="s">
-        <v>535</v>
+        <v>466</v>
       </c>
       <c r="Y26" s="34" t="s">
         <v>55</v>
       </c>
       <c r="Z26" s="15" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="AA26" s="8" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AB26" s="8"/>
       <c r="AC26" s="8" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AD26" s="8"/>
       <c r="AE26" s="8"/>
       <c r="AF26" s="8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AG26" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AH26" s="15" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="AJ26" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AK26" s="15" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="AM26" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AP26" s="8" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AQ26" s="15" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="AR26" s="15" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AX26" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AY26" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AZ26" s="15" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="BC26" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BD26" s="15" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="BG26" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="BK26" s="15" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="BL26" s="8" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="BM26" s="8" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="BP26" s="8">
         <v>24</v>
@@ -5720,25 +5847,25 @@
         <v>100</v>
       </c>
       <c r="BS26" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BT26" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BU26" s="15" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="BX26" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BY26" s="15" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="CB26" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="CF26" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:107" ht="318" customHeight="1">
@@ -5749,44 +5876,44 @@
         <v>89</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>461</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>399</v>
+        <v>606</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>561</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="14" t="s">
-        <v>467</v>
+        <v>415</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I27" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="K27" s="16">
         <v>44007</v>
       </c>
       <c r="L27" s="17" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="M27" s="17" t="s">
-        <v>364</v>
+        <v>546</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>365</v>
+        <v>547</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="P27" s="15" t="s">
-        <v>496</v>
+        <v>435</v>
       </c>
       <c r="Q27" s="3"/>
       <c r="R27" s="4"/>
@@ -5803,137 +5930,137 @@
     </row>
     <row r="28" spans="1:107" ht="407" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>462</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>399</v>
+        <v>412</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>561</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="14" t="s">
-        <v>463</v>
+        <v>413</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="K28" s="16">
         <v>44007</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="M28" s="17" t="s">
-        <v>364</v>
+        <v>546</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>365</v>
+        <v>547</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="P28" s="15" t="s">
-        <v>496</v>
+        <v>587</v>
       </c>
       <c r="Q28" s="18" t="s">
-        <v>497</v>
+        <v>588</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>466</v>
+        <v>555</v>
       </c>
       <c r="S28" s="34" t="s">
-        <v>541</v>
+        <v>472</v>
       </c>
       <c r="T28" s="34" t="s">
-        <v>542</v>
+        <v>473</v>
       </c>
       <c r="U28" s="34" t="s">
-        <v>524</v>
+        <v>554</v>
       </c>
       <c r="V28" s="34" t="s">
-        <v>544</v>
+        <v>475</v>
       </c>
       <c r="W28" s="34" t="s">
-        <v>546</v>
+        <v>476</v>
       </c>
       <c r="X28" s="34" t="s">
-        <v>547</v>
+        <v>477</v>
       </c>
       <c r="Y28" s="34" t="s">
         <v>55</v>
       </c>
       <c r="Z28" s="15" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="AA28" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AC28" s="15" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AF28" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AG28" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AH28" s="15" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="AJ28" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AK28" s="15" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="AM28" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AP28" s="15" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AQ28" s="15" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="AR28" s="15" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AX28" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AY28" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AZ28" s="15" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="BC28" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BD28" s="15" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="BG28" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="BK28" s="15" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="BL28" s="15" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="BM28" s="15" t="s">
         <v>62</v>
@@ -5942,160 +6069,160 @@
         <v>5</v>
       </c>
       <c r="BS28" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BT28" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BU28" s="15" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="BX28" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BY28" s="15" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="CB28" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="CF28" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:107" ht="407" customHeight="1">
       <c r="A29" s="12" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>460</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>399</v>
+        <v>411</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>561</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="14" t="s">
-        <v>464</v>
+        <v>414</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I29" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="K29" s="16">
         <v>44007</v>
       </c>
       <c r="L29" s="17" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="M29" s="17" t="s">
-        <v>364</v>
+        <v>546</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>365</v>
+        <v>547</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="P29" s="15" t="s">
-        <v>496</v>
+        <v>435</v>
       </c>
       <c r="Q29" s="18" t="s">
-        <v>497</v>
+        <v>588</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>465</v>
+        <v>581</v>
       </c>
       <c r="S29" s="34" t="s">
-        <v>541</v>
+        <v>472</v>
       </c>
       <c r="T29" s="34" t="s">
-        <v>542</v>
+        <v>473</v>
       </c>
       <c r="U29" s="34" t="s">
-        <v>545</v>
+        <v>582</v>
       </c>
       <c r="V29" s="34" t="s">
-        <v>544</v>
+        <v>475</v>
       </c>
       <c r="W29" s="34" t="s">
-        <v>546</v>
+        <v>476</v>
       </c>
       <c r="X29" s="34" t="s">
-        <v>547</v>
+        <v>477</v>
       </c>
       <c r="Y29" s="34" t="s">
         <v>55</v>
       </c>
       <c r="Z29" s="15" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="AA29" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AC29" s="15" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AF29" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AG29" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AH29" s="15" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="AJ29" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AK29" s="15" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="AM29" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AP29" s="15" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="AQ29" s="15" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="AR29" s="15" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AX29" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AY29" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AZ29" s="15" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="BC29" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BD29" s="15" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="BG29" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="BK29" s="15" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="BL29" s="15" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="BM29" s="15" t="s">
         <v>62</v>
@@ -6104,157 +6231,157 @@
         <v>5</v>
       </c>
       <c r="BS29" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BT29" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BU29" s="15" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="BX29" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BY29" s="15" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="CB29" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="CF29" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:107" ht="407" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>400</v>
+        <v>405</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>561</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="14" t="s">
-        <v>448</v>
+        <v>407</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I30" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="K30" s="16">
         <v>44007</v>
       </c>
       <c r="L30" s="17" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="M30" s="17" t="s">
-        <v>364</v>
+        <v>546</v>
       </c>
       <c r="N30" s="15" t="s">
-        <v>365</v>
+        <v>547</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="P30" s="15" t="s">
-        <v>496</v>
+        <v>435</v>
       </c>
       <c r="Q30" s="18" t="s">
-        <v>497</v>
+        <v>588</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>455</v>
+        <v>583</v>
       </c>
       <c r="S30" s="34" t="s">
-        <v>541</v>
+        <v>472</v>
       </c>
       <c r="T30" s="34" t="s">
-        <v>542</v>
+        <v>473</v>
       </c>
       <c r="U30" s="34" t="s">
-        <v>524</v>
+        <v>554</v>
       </c>
       <c r="V30" s="34" t="s">
-        <v>544</v>
+        <v>475</v>
       </c>
       <c r="W30" s="34" t="s">
-        <v>546</v>
+        <v>476</v>
       </c>
       <c r="X30" s="34" t="s">
-        <v>547</v>
+        <v>477</v>
       </c>
       <c r="Y30" s="34" t="s">
-        <v>508</v>
+        <v>446</v>
       </c>
       <c r="Z30" s="15" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="AA30" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AC30" s="15" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AF30" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AG30" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AH30" s="15" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="AJ30" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AK30" s="15" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="AM30" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AP30" s="15" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AQ30" s="15" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="AR30" s="15" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AX30" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AY30" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AZ30" s="15" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="BC30" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BD30" s="15" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="BG30" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="BK30" s="15" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="BL30" s="15" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="BM30" s="15" t="s">
         <v>62</v>
@@ -6263,34 +6390,34 @@
         <v>5</v>
       </c>
       <c r="BS30" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BT30" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BU30" s="15" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="BX30" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BY30" s="15" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="CB30" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="CF30" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="CG30" s="15" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="CH30" s="15" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="CL30" s="15" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="CO30" s="27">
         <v>55</v>
@@ -6304,134 +6431,134 @@
     </row>
     <row r="31" spans="1:107" ht="407" customHeight="1">
       <c r="A31" s="12" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>447</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>400</v>
+        <v>406</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>561</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="14" t="s">
-        <v>449</v>
+        <v>408</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I31" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="K31" s="16">
         <v>44007</v>
       </c>
       <c r="L31" s="17" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="M31" s="17" t="s">
-        <v>364</v>
+        <v>546</v>
       </c>
       <c r="N31" s="15" t="s">
-        <v>365</v>
+        <v>547</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="P31" s="15" t="s">
-        <v>496</v>
+        <v>435</v>
       </c>
       <c r="Q31" s="18" t="s">
-        <v>497</v>
+        <v>588</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>455</v>
+        <v>583</v>
       </c>
       <c r="S31" s="34" t="s">
-        <v>541</v>
+        <v>472</v>
       </c>
       <c r="T31" s="34" t="s">
-        <v>542</v>
+        <v>473</v>
       </c>
       <c r="U31" s="34" t="s">
-        <v>545</v>
+        <v>582</v>
       </c>
       <c r="V31" s="34" t="s">
-        <v>544</v>
+        <v>475</v>
       </c>
       <c r="W31" s="34" t="s">
-        <v>546</v>
+        <v>476</v>
       </c>
       <c r="X31" s="34" t="s">
-        <v>547</v>
+        <v>477</v>
       </c>
       <c r="Y31" s="34" t="s">
-        <v>508</v>
+        <v>446</v>
       </c>
       <c r="Z31" s="15" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="AA31" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AC31" s="15" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AF31" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AG31" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AH31" s="15" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="AJ31" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AK31" s="15" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="AM31" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AP31" s="15" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AQ31" s="15" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="AR31" s="15" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AX31" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AY31" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AZ31" s="15" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="BC31" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BD31" s="15" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="BG31" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="BK31" s="15" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="BL31" s="15" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="BM31" s="15" t="s">
         <v>62</v>
@@ -6440,34 +6567,34 @@
         <v>5</v>
       </c>
       <c r="BS31" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BT31" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BU31" s="15" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="BX31" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BY31" s="15" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="CB31" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="CF31" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="CG31" s="15" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="CH31" s="15" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="CL31" s="15" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="CO31" s="27">
         <v>55</v>
@@ -6481,119 +6608,119 @@
     </row>
     <row r="32" spans="1:107" ht="407" customHeight="1">
       <c r="A32" s="12" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>442</v>
-      </c>
-      <c r="D32" s="14" t="s">
         <v>401</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>561</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="14" t="s">
-        <v>444</v>
+        <v>403</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I32" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="K32" s="16">
         <v>44007</v>
       </c>
       <c r="L32" s="17" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="M32" s="17" t="s">
-        <v>364</v>
+        <v>546</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>365</v>
+        <v>547</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="P32" s="15" t="s">
-        <v>496</v>
+        <v>435</v>
       </c>
       <c r="Q32" s="18" t="s">
-        <v>497</v>
+        <v>588</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>452</v>
+        <v>556</v>
       </c>
       <c r="S32" s="34" t="s">
-        <v>541</v>
+        <v>472</v>
       </c>
       <c r="T32" s="34" t="s">
-        <v>542</v>
+        <v>473</v>
       </c>
       <c r="U32" s="34" t="s">
-        <v>524</v>
+        <v>554</v>
       </c>
       <c r="V32" s="34" t="s">
-        <v>544</v>
+        <v>475</v>
       </c>
       <c r="W32" s="34" t="s">
-        <v>546</v>
+        <v>476</v>
       </c>
       <c r="X32" s="34" t="s">
-        <v>547</v>
+        <v>477</v>
       </c>
       <c r="Y32" s="34" t="s">
-        <v>518</v>
+        <v>456</v>
       </c>
       <c r="Z32" s="15" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="AA32" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AC32" s="15" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AF32" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AP32" s="15" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AQ32" s="15" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="AR32" s="15" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AX32" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AY32" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AZ32" s="15" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="BC32" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BD32" s="15" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="BG32" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="BK32" s="15" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="BL32" s="15" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="BM32" s="15" t="s">
         <v>62</v>
@@ -6602,154 +6729,154 @@
         <v>5</v>
       </c>
       <c r="BS32" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="CF32" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="CG32" s="15" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="CH32" s="15" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="CI32" s="15" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="CK32" s="15" t="s">
         <v>73</v>
       </c>
       <c r="CL32" s="15" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="CN32" s="27">
         <v>50</v>
       </c>
       <c r="CR32" s="15" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="CS32" s="15">
         <v>50</v>
       </c>
       <c r="CX32" s="15" t="s">
-        <v>3